--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,12 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="174">
   <si>
     <t>iRipple, Inc.</t>
   </si>
   <si>
-    <t>DTR Summary Sheet for the period April 04, 2015 to April 24, 2015</t>
+    <t>DTR Summary Sheet for the period March 07, 2015 to March 20, 2015</t>
   </si>
   <si>
     <t> </t>
@@ -245,43 +245,46 @@
     <t>emp.department</t>
   </si>
   <si>
+    <t>0.1.30</t>
+  </si>
+  <si>
     <t>0.1.15</t>
   </si>
   <si>
-    <t>2.5.0</t>
-  </si>
-  <si>
-    <t>5.5.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>7.5.0</t>
   </si>
   <si>
-    <t>0.0.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
-    <t>0.7.00</t>
+    <t>6.5.0</t>
+  </si>
+  <si>
+    <t>0.4.30</t>
+  </si>
+  <si>
+    <t>0.6.30</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
   </si>
   <si>
     <t>0.0.00</t>
   </si>
   <si>
-    <t>0.3.00</t>
-  </si>
-  <si>
     <t>Arceo,Arwin</t>
   </si>
   <si>
-    <t>6.5.0</t>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Ardamoy,Ma. Rica Catherine</t>
-  </si>
-  <si>
-    <t>1.1.15</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
   </si>
   <si>
     <t>Bacani,Eddie Marie</t>
@@ -290,13 +293,10 @@
     <t>Bagaindoc,Kjell</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>Balingit,Barbara</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Balingit,Barbara</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>Balino,Kamille Diane</t>
@@ -308,31 +308,34 @@
     <t>Bayogos,Charmaine</t>
   </si>
   <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
     <t>Bonita,Reynaldo Jr</t>
   </si>
   <si>
-    <t>1.0.30</t>
+    <t>2.5.0</t>
   </si>
   <si>
     <t>Borlagdan,Aldrin</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.0.45</t>
   </si>
   <si>
     <t>Brayles,Janwil</t>
   </si>
   <si>
-    <t>Buena,Ian Christopher</t>
+    <t>1.0.45</t>
   </si>
   <si>
-    <t>0.1.45</t>
+    <t>0.1.0</t>
   </si>
   <si>
-    <t>1.1.30</t>
+    <t>4.5.0</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>Buena,Ian Christopher</t>
   </si>
   <si>
     <t>Buenafe,Rajiv</t>
@@ -344,7 +347,10 @@
     <t>CaÃ±ete,Carol Ann</t>
   </si>
   <si>
-    <t>0.2.15</t>
+    <t>0.6.45</t>
+  </si>
+  <si>
+    <t>0.4.45</t>
   </si>
   <si>
     <t>Cerbo,Jaycer</t>
@@ -356,64 +362,43 @@
     <t>Cortez,Jomar</t>
   </si>
   <si>
-    <t>0.0.45</t>
+    <t>Cruz,Cesar</t>
+  </si>
+  <si>
+    <t>0.0.30</t>
+  </si>
+  <si>
+    <t>Delfin,Jonathan</t>
+  </si>
+  <si>
+    <t>Delos Reyes,Jeffrey</t>
+  </si>
+  <si>
+    <t>0.1.45</t>
+  </si>
+  <si>
+    <t>Dino,Arvin</t>
+  </si>
+  <si>
+    <t>Dy,Hubert</t>
+  </si>
+  <si>
+    <t>Egamino,Ellen</t>
+  </si>
+  <si>
+    <t>0.3.00</t>
+  </si>
+  <si>
+    <t>0.4.00</t>
+  </si>
+  <si>
+    <t>Enrique,Christian Dan</t>
   </si>
   <si>
     <t>1.5.0</t>
   </si>
   <si>
-    <t>Cruz,Cesar</t>
-  </si>
-  <si>
-    <t>0.5.30</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>Delfin,Jonathan</t>
-  </si>
-  <si>
-    <t>1.0.00</t>
-  </si>
-  <si>
-    <t>Delos Reyes,Jeffrey</t>
-  </si>
-  <si>
-    <t>0.3.15</t>
-  </si>
-  <si>
-    <t>Dino,Arvin</t>
-  </si>
-  <si>
-    <t>2.1.15</t>
-  </si>
-  <si>
-    <t>Dy,Hubert</t>
-  </si>
-  <si>
-    <t>0.4.30</t>
-  </si>
-  <si>
-    <t>Egamino,Ellen</t>
-  </si>
-  <si>
-    <t>0.1.30</t>
-  </si>
-  <si>
-    <t>Enrique,Christian Dan</t>
-  </si>
-  <si>
-    <t>3.1.45</t>
-  </si>
-  <si>
-    <t>3.0.0</t>
-  </si>
-  <si>
     <t>Espiritu,Carl Philip</t>
-  </si>
-  <si>
-    <t>0.7.15</t>
   </si>
   <si>
     <t>Flores,Arianne Grace</t>
@@ -422,10 +407,13 @@
     <t>Francisco,Roed Ronualdo </t>
   </si>
   <si>
+    <t>0.0.15</t>
+  </si>
+  <si>
     <t>Gatan,Mario Haris Jr</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Javier,Victor </t>
@@ -440,7 +428,7 @@
     <t>Laroza,Baltazar</t>
   </si>
   <si>
-    <t>1.6.45</t>
+    <t>0.2.30</t>
   </si>
   <si>
     <t>Laude,Ted Marty</t>
@@ -449,37 +437,25 @@
     <t>Ledesma,Jesse</t>
   </si>
   <si>
-    <t>0.0.30</t>
+    <t>2.1.30</t>
   </si>
   <si>
     <t>Mangundayao,Mac Donald</t>
   </si>
   <si>
-    <t>2.6.0</t>
-  </si>
-  <si>
-    <t>3.0.45</t>
+    <t>1.6.00</t>
   </si>
   <si>
     <t>Matias,Ma. Jeremia Jetheth </t>
   </si>
   <si>
-    <t>0.3.30</t>
-  </si>
-  <si>
     <t>Mendoza,Diana</t>
-  </si>
-  <si>
-    <t>0.0.15</t>
   </si>
   <si>
     <t>Nagnal,Fracy</t>
   </si>
   <si>
     <t>Newsom,Jifferson</t>
-  </si>
-  <si>
-    <t>0.2.00</t>
   </si>
   <si>
     <t>Pancho,Jona</t>
@@ -491,40 +467,28 @@
     <t>Pendre,Contessa</t>
   </si>
   <si>
-    <t>Ranes,Jonathan</t>
+    <t>7.0.0</t>
   </si>
   <si>
-    <t>0.4.15</t>
+    <t>Ranes,Jonathan</t>
   </si>
   <si>
     <t>Reyes,Mark Gil</t>
   </si>
   <si>
-    <t>1.4.45</t>
-  </si>
-  <si>
-    <t>3.5.0</t>
-  </si>
-  <si>
-    <t>1.6.00</t>
-  </si>
-  <si>
     <t>Reyes,Salvador</t>
-  </si>
-  <si>
-    <t>0.4.00</t>
   </si>
   <si>
     <t>Sanoria,Samuel</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Santos,Patricia</t>
   </si>
   <si>
-    <t>1.4.00</t>
+    <t>1.5.00</t>
   </si>
   <si>
     <t>See,Jenilyn</t>
@@ -533,43 +497,37 @@
     <t>Solbita,Felmar</t>
   </si>
   <si>
-    <t>0.5.45</t>
+    <t>0.2.00</t>
   </si>
   <si>
     <t>Soriano,Hans Josif</t>
   </si>
   <si>
-    <t>0.7.30</t>
+    <t>0.2.45</t>
   </si>
   <si>
-    <t>0.6.00</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Suarez,Katrina </t>
   </si>
   <si>
-    <t>1.2.00</t>
-  </si>
-  <si>
     <t>Tanqueco,Mikee Dorina</t>
   </si>
   <si>
-    <t>3.1.15</t>
+    <t>0.3.15</t>
+  </si>
+  <si>
+    <t>1.0.00</t>
   </si>
   <si>
     <t>Tesoro,Rose Natalie</t>
-  </si>
-  <si>
-    <t>0.6.45</t>
   </si>
   <si>
     <t>Unson,Mary Anne</t>
   </si>
   <si>
     <t>Viloria,Eizell</t>
-  </si>
-  <si>
-    <t>1.1.45</t>
   </si>
   <si>
     <t>Viloria,Benito Jr.</t>
@@ -1466,7 +1424,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
@@ -1484,7 +1442,7 @@
         <v>82</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>INT(LEFT(E4,1))</f>
@@ -1595,31 +1553,31 @@
         <f>FLOOR(AS4/8,1,1)&amp;"."&amp;FLOOR(MOD(AS4,8),1,1)&amp;"."&amp;(MOD(AS4,8)-FLOOR(MOD(AS4,8),1,1))*60</f>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC4" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD4" s="5" t="str">
         <f>INT(LEFT(AU4,1))</f>
@@ -1783,7 +1741,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>77</v>
@@ -1792,22 +1750,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,1))</f>
@@ -1918,31 +1876,31 @@
         <f>FLOOR(AS5/8,1,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1,1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1,1))*60</f>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC5" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD5" s="5" t="str">
         <f>INT(LEFT(AU5,1))</f>
@@ -2106,28 +2064,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>81</v>
@@ -2241,31 +2199,31 @@
         <f>FLOOR(AS6/8,1,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1,1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1,1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB6" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC6" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD6" s="5" t="str">
         <f>INT(LEFT(AU6,1))</f>
@@ -2429,7 +2387,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>77</v>
@@ -2438,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>81</v>
@@ -2564,31 +2522,31 @@
         <f>FLOOR(AS7/8,1,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1,1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1,1))*60</f>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC7" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD7" s="5" t="str">
         <f>INT(LEFT(AU7,1))</f>
@@ -2752,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>77</v>
@@ -2761,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>81</v>
@@ -2887,31 +2845,31 @@
         <f>FLOOR(AS8/8,1,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1,1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1,1))*60</f>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD8" s="5" t="str">
         <f>INT(LEFT(AU8,1))</f>
@@ -3075,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>77</v>
@@ -3084,22 +3042,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,1))</f>
@@ -3210,31 +3168,31 @@
         <f>FLOOR(AS9/8,1,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1,1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1,1))*60</f>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC9" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD9" s="5" t="str">
         <f>INT(LEFT(AU9,1))</f>
@@ -3407,19 +3365,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>81</v>
@@ -3533,31 +3491,31 @@
         <f>FLOOR(AS10/8,1,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1,1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1,1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ10" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB10" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC10" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD10" s="5" t="str">
         <f>INT(LEFT(AU10,1))</f>
@@ -3730,19 +3688,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>81</v>
@@ -3856,31 +3814,31 @@
         <f>FLOOR(AS11/8,1,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1,1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1,1))*60</f>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ11" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB11" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC11" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD11" s="5" t="str">
         <f>INT(LEFT(AU11,1))</f>
@@ -4053,19 +4011,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>81</v>
@@ -4179,31 +4137,31 @@
         <f>FLOOR(AS12/8,1,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1,1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1,1))*60</f>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC12" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD12" s="5" t="str">
         <f>INT(LEFT(AU12,1))</f>
@@ -4367,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>77</v>
@@ -4376,19 +4334,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>81</v>
@@ -4502,31 +4460,31 @@
         <f>FLOOR(AS13/8,1,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1,1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1,1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ13" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC13" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD13" s="5" t="str">
         <f>INT(LEFT(AU13,1))</f>
@@ -4690,28 +4648,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>81</v>
@@ -4825,31 +4783,31 @@
         <f>FLOOR(AS14/8,1,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1,1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1,1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD14" s="5" t="str">
         <f>INT(LEFT(AU14,1))</f>
@@ -5013,31 +4971,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,1))</f>
@@ -5148,31 +5106,31 @@
         <f>FLOOR(AS15/8,1,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1,1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1,1))*60</f>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD15" s="5" t="str">
         <f>INT(LEFT(AU15,1))</f>
@@ -5336,16 +5294,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>106</v>
@@ -5354,10 +5312,10 @@
         <v>107</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>81</v>
@@ -5471,31 +5429,31 @@
         <f>FLOOR(AS16/8,1,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1,1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1,1))*60</f>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD16" s="5" t="str">
         <f>INT(LEFT(AU16,1))</f>
@@ -5659,7 +5617,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>77</v>
@@ -5668,22 +5626,22 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>INT(LEFT(E17,1))</f>
@@ -5794,31 +5752,31 @@
         <f>FLOOR(AS17/8,1,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1,1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1,1))*60</f>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC17" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD17" s="5" t="str">
         <f>INT(LEFT(AU17,1))</f>
@@ -5982,7 +5940,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>77</v>
@@ -5991,22 +5949,22 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,1))</f>
@@ -6117,31 +6075,31 @@
         <f>FLOOR(AS18/8,1,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1,1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1,1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ18" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA18" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB18" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC18" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD18" s="5" t="str">
         <f>INT(LEFT(AU18,1))</f>
@@ -6305,31 +6263,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,1))</f>
@@ -6440,31 +6398,31 @@
         <f>FLOOR(AS19/8,1,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1,1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1,1))*60</f>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX19" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY19" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ19" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA19" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB19" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC19" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD19" s="5" t="str">
         <f>INT(LEFT(AU19,1))</f>
@@ -6628,28 +6586,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>81</v>
@@ -6763,31 +6721,31 @@
         <f>FLOOR(AS20/8,1,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1,1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1,1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX20" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ20" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB20" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC20" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD20" s="5" t="str">
         <f>INT(LEFT(AU20,1))</f>
@@ -6951,7 +6909,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>77</v>
@@ -6960,19 +6918,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>81</v>
@@ -7086,31 +7044,31 @@
         <f>FLOOR(AS21/8,1,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1,1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1,1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB21" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC21" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD21" s="5" t="str">
         <f>INT(LEFT(AU21,1))</f>
@@ -7274,31 +7232,31 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>INT(LEFT(E22,1))</f>
@@ -7409,31 +7367,31 @@
         <f>FLOOR(AS22/8,1,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1,1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1,1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW22" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA22" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB22" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC22" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD22" s="5" t="str">
         <f>INT(LEFT(AU22,1))</f>
@@ -7606,22 +7564,22 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,1))</f>
@@ -7732,31 +7690,31 @@
         <f>FLOOR(AS23/8,1,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1,1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1,1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX23" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA23" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB23" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC23" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD23" s="5" t="str">
         <f>INT(LEFT(AU23,1))</f>
@@ -7920,31 +7878,31 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,1))</f>
@@ -8055,31 +8013,31 @@
         <f>FLOOR(AS24/8,1,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1,1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1,1))*60</f>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV24" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW24" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX24" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY24" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="BA24" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC24" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD24" s="5" t="str">
         <f>INT(LEFT(AU24,1))</f>
@@ -8243,7 +8201,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>77</v>
@@ -8252,16 +8210,16 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>82</v>
@@ -8378,31 +8336,31 @@
         <f>FLOOR(AS25/8,1,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1,1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1,1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW25" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX25" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY25" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ25" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA25" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB25" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC25" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD25" s="5" t="str">
         <f>INT(LEFT(AU25,1))</f>
@@ -8566,7 +8524,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>77</v>
@@ -8575,22 +8533,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>INT(LEFT(E26,1))</f>
@@ -8701,31 +8659,31 @@
         <f>FLOOR(AS26/8,1,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1,1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1,1))*60</f>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV26" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW26" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX26" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY26" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ26" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC26" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD26" s="5" t="str">
         <f>INT(LEFT(AU26,1))</f>
@@ -8889,7 +8847,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>77</v>
@@ -8898,19 +8856,19 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>81</v>
@@ -9024,31 +8982,31 @@
         <f>FLOOR(AS27/8,1,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1,1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1,1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW27" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX27" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY27" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ27" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB27" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC27" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD27" s="5" t="str">
         <f>INT(LEFT(AU27,1))</f>
@@ -9212,7 +9170,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>77</v>
@@ -9221,22 +9179,22 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>INT(LEFT(E28,1))</f>
@@ -9347,31 +9305,31 @@
         <f>FLOOR(AS28/8,1,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1,1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1,1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="AW28" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX28" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY28" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ28" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA28" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB28" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC28" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD28" s="5" t="str">
         <f>INT(LEFT(AU28,1))</f>
@@ -9535,7 +9493,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>77</v>
@@ -9544,19 +9502,19 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>81</v>
@@ -9670,31 +9628,31 @@
         <f>FLOOR(AS29/8,1,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1,1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1,1))*60</f>
       </c>
       <c r="AU29" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW29" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX29" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY29" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ29" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA29" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB29" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC29" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD29" s="5" t="str">
         <f>INT(LEFT(AU29,1))</f>
@@ -9858,31 +9816,31 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,1))</f>
@@ -9993,31 +9951,31 @@
         <f>FLOOR(AS30/8,1,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1,1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1,1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW30" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA30" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC30" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -10181,28 +10139,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>81</v>
@@ -10316,31 +10274,31 @@
         <f>FLOOR(AS31/8,1,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1,1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1,1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="AW31" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX31" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY31" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ31" s="5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="BA31" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB31" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC31" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD31" s="5" t="str">
         <f>INT(LEFT(AU31,1))</f>
@@ -10504,28 +10462,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>81</v>
@@ -10639,31 +10597,31 @@
         <f>FLOOR(AS32/8,1,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1,1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1,1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW32" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX32" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY32" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ32" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA32" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB32" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC32" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD32" s="5" t="str">
         <f>INT(LEFT(AU32,1))</f>
@@ -10827,31 +10785,31 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,1))</f>
@@ -10962,31 +10920,31 @@
         <f>FLOOR(AS33/8,1,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1,1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1,1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW33" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX33" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY33" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ33" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA33" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB33" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC33" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD33" s="5" t="str">
         <f>INT(LEFT(AU33,1))</f>
@@ -11150,7 +11108,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>77</v>
@@ -11159,19 +11117,19 @@
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>81</v>
@@ -11285,31 +11243,31 @@
         <f>FLOOR(AS34/8,1,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1,1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1,1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX34" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ34" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB34" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC34" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD34" s="5" t="str">
         <f>INT(LEFT(AU34,1))</f>
@@ -11473,7 +11431,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>77</v>
@@ -11482,19 +11440,19 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>81</v>
@@ -11608,31 +11566,31 @@
         <f>FLOOR(AS35/8,1,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1,1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1,1))*60</f>
       </c>
       <c r="AU35" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV35" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW35" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX35" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY35" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ35" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA35" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB35" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC35" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD35" s="5" t="str">
         <f>INT(LEFT(AU35,1))</f>
@@ -11796,7 +11754,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>77</v>
@@ -11805,19 +11763,19 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>81</v>
@@ -11931,31 +11889,31 @@
         <f>FLOOR(AS36/8,1,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1,1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1,1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ36" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB36" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC36" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD36" s="5" t="str">
         <f>INT(LEFT(AU36,1))</f>
@@ -12119,31 +12077,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,1))</f>
@@ -12254,31 +12212,31 @@
         <f>FLOOR(AS37/8,1,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1,1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1,1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV37" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW37" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX37" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY37" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ37" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA37" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB37" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC37" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD37" s="5" t="str">
         <f>INT(LEFT(AU37,1))</f>
@@ -12442,7 +12400,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>77</v>
@@ -12451,22 +12409,22 @@
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K38" s="5" t="str">
         <f>INT(LEFT(E38,1))</f>
@@ -12577,31 +12535,31 @@
         <f>FLOOR(AS38/8,1,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1,1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1,1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX38" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ38" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB38" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD38" s="5" t="str">
         <f>INT(LEFT(AU38,1))</f>
@@ -12765,31 +12723,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,1))</f>
@@ -12900,31 +12858,31 @@
         <f>FLOOR(AS39/8,1,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1,1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1,1))*60</f>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW39" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX39" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY39" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ39" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="BB39" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC39" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD39" s="5" t="str">
         <f>INT(LEFT(AU39,1))</f>
@@ -13088,31 +13046,31 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>INT(LEFT(E40,1))</f>
@@ -13223,31 +13181,31 @@
         <f>FLOOR(AS40/8,1,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1,1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1,1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW40" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX40" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY40" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ40" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA40" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB40" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD40" s="5" t="str">
         <f>INT(LEFT(AU40,1))</f>
@@ -13411,31 +13369,31 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,1))</f>
@@ -13546,31 +13504,31 @@
         <f>FLOOR(AS41/8,1,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1,1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1,1))*60</f>
       </c>
       <c r="AU41" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW41" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX41" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY41" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ41" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA41" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB41" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD41" s="5" t="str">
         <f>INT(LEFT(AU41,1))</f>
@@ -13734,28 +13692,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>81</v>
@@ -13869,31 +13827,31 @@
         <f>FLOOR(AS42/8,1,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1,1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1,1))*60</f>
       </c>
       <c r="AU42" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV42" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW42" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX42" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY42" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ42" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA42" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB42" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC42" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD42" s="5" t="str">
         <f>INT(LEFT(AU42,1))</f>
@@ -14057,7 +14015,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>77</v>
@@ -14066,22 +14024,22 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,1))</f>
@@ -14192,31 +14150,31 @@
         <f>FLOOR(AS43/8,1,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1,1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1,1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW43" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX43" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY43" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ43" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA43" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB43" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC43" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD43" s="5" t="str">
         <f>INT(LEFT(AU43,1))</f>
@@ -14380,7 +14338,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>77</v>
@@ -14389,19 +14347,19 @@
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>81</v>
@@ -14515,31 +14473,31 @@
         <f>FLOOR(AS44/8,1,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1,1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1,1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="AV44" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW44" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX44" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY44" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ44" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="BA44" s="5" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="BB44" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC44" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD44" s="5" t="str">
         <f>INT(LEFT(AU44,1))</f>
@@ -14703,7 +14661,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>77</v>
@@ -14712,22 +14670,22 @@
         <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K45" s="5" t="str">
         <f>INT(LEFT(E45,1))</f>
@@ -14838,31 +14796,31 @@
         <f>FLOOR(AS45/8,1,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1,1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1,1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX45" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ45" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB45" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC45" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD45" s="5" t="str">
         <f>INT(LEFT(AU45,1))</f>
@@ -15026,28 +14984,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>81</v>
@@ -15161,31 +15119,31 @@
         <f>FLOOR(AS46/8,1,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1,1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1,1))*60</f>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW46" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX46" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY46" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ46" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA46" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB46" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC46" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD46" s="5" t="str">
         <f>INT(LEFT(AU46,1))</f>
@@ -15349,7 +15307,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>77</v>
@@ -15358,22 +15316,22 @@
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,1))</f>
@@ -15484,31 +15442,31 @@
         <f>FLOOR(AS47/8,1,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1,1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1,1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV47" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX47" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY47" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ47" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA47" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB47" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC47" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD47" s="5" t="str">
         <f>INT(LEFT(AU47,1))</f>
@@ -15672,28 +15630,28 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>81</v>
@@ -15807,31 +15765,31 @@
         <f>FLOOR(AS48/8,1,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1,1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1,1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV48" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX48" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY48" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ48" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA48" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB48" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC48" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD48" s="5" t="str">
         <f>INT(LEFT(AU48,1))</f>
@@ -15995,28 +15953,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>81</v>
@@ -16130,31 +16088,31 @@
         <f>FLOOR(AS49/8,1,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1,1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1,1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX49" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY49" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ49" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA49" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB49" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC49" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD49" s="5" t="str">
         <f>INT(LEFT(AU49,1))</f>
@@ -16318,7 +16276,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>77</v>
@@ -16327,19 +16285,19 @@
         <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>81</v>
@@ -16453,31 +16411,31 @@
         <f>FLOOR(AS50/8,1,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1,1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1,1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV50" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX50" s="5" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="AY50" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ50" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA50" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB50" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC50" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD50" s="5" t="str">
         <f>INT(LEFT(AU50,1))</f>
@@ -16641,31 +16599,31 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>INT(LEFT(E51,1))</f>
@@ -16776,31 +16734,31 @@
         <f>FLOOR(AS51/8,1,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1,1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1,1))*60</f>
       </c>
       <c r="AU51" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV51" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX51" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY51" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ51" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA51" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB51" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC51" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD51" s="5" t="str">
         <f>INT(LEFT(AU51,1))</f>
@@ -16964,19 +16922,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>90</v>
@@ -16988,7 +16946,7 @@
         <v>82</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>INT(LEFT(E52,1))</f>
@@ -17099,31 +17057,31 @@
         <f>FLOOR(AS52/8,1,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1,1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1,1))*60</f>
       </c>
       <c r="AU52" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV52" s="5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="AX52" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY52" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ52" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA52" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB52" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC52" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD52" s="5" t="str">
         <f>INT(LEFT(AU52,1))</f>
@@ -17287,7 +17245,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>77</v>
@@ -17296,19 +17254,19 @@
         <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>81</v>
@@ -17422,31 +17380,31 @@
         <f>FLOOR(AS53/8,1,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1,1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1,1))*60</f>
       </c>
       <c r="AU53" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV53" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY53" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ53" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA53" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB53" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC53" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD53" s="5" t="str">
         <f>INT(LEFT(AU53,1))</f>
@@ -17610,7 +17568,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>77</v>
@@ -17619,19 +17577,19 @@
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>81</v>
@@ -17745,31 +17703,31 @@
         <f>FLOOR(AS54/8,1,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1,1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1,1))*60</f>
       </c>
       <c r="AU54" s="5" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="AV54" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY54" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ54" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA54" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB54" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC54" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD54" s="5" t="str">
         <f>INT(LEFT(AU54,1))</f>
@@ -17933,31 +17891,31 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>INT(LEFT(E55,1))</f>
@@ -18068,31 +18026,31 @@
         <f>FLOOR(AS55/8,1,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1,1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1,1))*60</f>
       </c>
       <c r="AU55" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV55" s="5" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY55" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ55" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA55" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB55" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC55" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD55" s="5" t="str">
         <f>INT(LEFT(AU55,1))</f>
@@ -18256,7 +18214,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>77</v>
@@ -18265,22 +18223,22 @@
         <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K56" s="5" t="str">
         <f>INT(LEFT(E56,1))</f>
@@ -18391,31 +18349,31 @@
         <f>FLOOR(AS56/8,1,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1,1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1,1))*60</f>
       </c>
       <c r="AU56" s="5" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ56" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="BA56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB56" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC56" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD56" s="5" t="str">
         <f>INT(LEFT(AU56,1))</f>
@@ -18579,28 +18537,28 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>81</v>
@@ -18714,31 +18672,31 @@
         <f>FLOOR(AS57/8,1,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1,1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1,1))*60</f>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV57" s="5" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY57" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ57" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA57" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB57" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC57" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD57" s="5" t="str">
         <f>INT(LEFT(AU57,1))</f>
@@ -18902,7 +18860,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>77</v>
@@ -18911,22 +18869,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K58" s="5" t="str">
         <f>INT(LEFT(E58,1))</f>
@@ -19037,31 +18995,31 @@
         <f>FLOOR(AS58/8,1,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1,1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1,1))*60</f>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="AV58" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY58" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ58" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA58" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB58" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC58" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD58" s="5" t="str">
         <f>INT(LEFT(AU58,1))</f>
@@ -19225,7 +19183,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>77</v>
@@ -19234,19 +19192,19 @@
         <v>0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>81</v>
@@ -19360,31 +19318,31 @@
         <f>FLOOR(AS59/8,1,1)&amp;"."&amp;FLOOR(MOD(AS59,8),1,1)&amp;"."&amp;(MOD(AS59,8)-FLOOR(MOD(AS59,8),1,1))*60</f>
       </c>
       <c r="AU59" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV59" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW59" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX59" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY59" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ59" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA59" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB59" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC59" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD59" s="5" t="str">
         <f>INT(LEFT(AU59,1))</f>
@@ -19548,7 +19506,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>77</v>
@@ -19557,19 +19515,19 @@
         <v>0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>81</v>
@@ -19683,31 +19641,31 @@
         <f>FLOOR(AS60/8,1,1)&amp;"."&amp;FLOOR(MOD(AS60,8),1,1)&amp;"."&amp;(MOD(AS60,8)-FLOOR(MOD(AS60,8),1,1))*60</f>
       </c>
       <c r="AU60" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV60" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW60" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX60" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY60" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ60" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA60" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB60" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC60" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD60" s="5" t="str">
         <f>INT(LEFT(AU60,1))</f>
@@ -19871,7 +19829,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>77</v>
@@ -19880,22 +19838,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="K61" s="5" t="str">
         <f>INT(LEFT(E61,1))</f>
@@ -20006,31 +19964,31 @@
         <f>FLOOR(AS61/8,1,1)&amp;"."&amp;FLOOR(MOD(AS61,8),1,1)&amp;"."&amp;(MOD(AS61,8)-FLOOR(MOD(AS61,8),1,1))*60</f>
       </c>
       <c r="AU61" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AV61" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AW61" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AX61" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AY61" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AZ61" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BA61" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BB61" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="BC61" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="BD61" s="5" t="str">
         <f>INT(LEFT(AU61,1))</f>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,12 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="169">
   <si>
     <t>iRipple, Inc.</t>
   </si>
   <si>
-    <t>DTR Summary Sheet for the period March 07, 2015 to March 20, 2015</t>
+    <t>DTR Summary Sheet for the period February 10, 2015 to February 20, 2015</t>
   </si>
   <si>
     <t> </t>
@@ -245,13 +245,10 @@
     <t>emp.department</t>
   </si>
   <si>
-    <t>0.1.30</t>
+    <t>0.0.15</t>
   </si>
   <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
+    <t>0.0.0</t>
   </si>
   <si>
     <t>7.5.0</t>
@@ -260,16 +257,7 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>6.5.0</t>
-  </si>
-  <si>
-    <t>0.4.30</t>
-  </si>
-  <si>
-    <t>0.6.30</t>
-  </si>
-  <si>
-    <t>0.0.0</t>
+    <t>1.0.00</t>
   </si>
   <si>
     <t>0.0.00</t>
@@ -287,16 +275,25 @@
     <t>Ardamoy,Ma. Rica Catherine</t>
   </si>
   <si>
+    <t>0.4.00</t>
+  </si>
+  <si>
     <t>Bacani,Eddie Marie</t>
   </si>
   <si>
     <t>Bagaindoc,Kjell</t>
   </si>
   <si>
+    <t>0.1.15</t>
+  </si>
+  <si>
     <t>Balingit,Barbara</t>
   </si>
   <si>
     <t>5.5.0</t>
+  </si>
+  <si>
+    <t>4.5.0</t>
   </si>
   <si>
     <t>Balino,Kamille Diane</t>
@@ -308,34 +305,28 @@
     <t>Bayogos,Charmaine</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>0.1.30</t>
   </si>
   <si>
     <t>Bonita,Reynaldo Jr</t>
   </si>
   <si>
-    <t>2.5.0</t>
+    <t>0.2.30</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Borlagdan,Aldrin</t>
   </si>
   <si>
-    <t>0.0.45</t>
-  </si>
-  <si>
     <t>Brayles,Janwil</t>
   </si>
   <si>
-    <t>1.0.45</t>
+    <t>Buena,Ian Christopher</t>
   </si>
   <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>4.5.0</t>
-  </si>
-  <si>
-    <t>Buena,Ian Christopher</t>
+    <t>2.5.0</t>
   </si>
   <si>
     <t>Buenafe,Rajiv</t>
@@ -344,13 +335,16 @@
     <t>Cataluna,Christian Gilbert</t>
   </si>
   <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
     <t>CaÃ±ete,Carol Ann</t>
   </si>
   <si>
-    <t>0.6.45</t>
+    <t>0.3.0</t>
   </si>
   <si>
-    <t>0.4.45</t>
+    <t>0.0.30</t>
   </si>
   <si>
     <t>Cerbo,Jaycer</t>
@@ -359,13 +353,16 @@
     <t>Ching,Mark Angelo</t>
   </si>
   <si>
+    <t>0.1.45</t>
+  </si>
+  <si>
     <t>Cortez,Jomar</t>
   </si>
   <si>
-    <t>Cruz,Cesar</t>
+    <t>6.5.0</t>
   </si>
   <si>
-    <t>0.0.30</t>
+    <t>Cruz,Cesar</t>
   </si>
   <si>
     <t>Delfin,Jonathan</t>
@@ -374,28 +371,25 @@
     <t>Delos Reyes,Jeffrey</t>
   </si>
   <si>
-    <t>0.1.45</t>
+    <t>Dino,Arvin</t>
   </si>
   <si>
-    <t>Dino,Arvin</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Dy,Hubert</t>
   </si>
   <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
     <t>Egamino,Ellen</t>
   </si>
   <si>
-    <t>0.3.00</t>
-  </si>
-  <si>
-    <t>0.4.00</t>
+    <t>1.5.00</t>
   </si>
   <si>
     <t>Enrique,Christian Dan</t>
-  </si>
-  <si>
-    <t>1.5.0</t>
   </si>
   <si>
     <t>Espiritu,Carl Philip</t>
@@ -404,16 +398,16 @@
     <t>Flores,Arianne Grace</t>
   </si>
   <si>
-    <t>Francisco,Roed Ronualdo </t>
+    <t>0.6.30</t>
   </si>
   <si>
-    <t>0.0.15</t>
+    <t>Francisco,Roed Ronualdo </t>
   </si>
   <si>
     <t>Gatan,Mario Haris Jr</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>1.4.00</t>
   </si>
   <si>
     <t>Javier,Victor </t>
@@ -428,7 +422,7 @@
     <t>Laroza,Baltazar</t>
   </si>
   <si>
-    <t>0.2.30</t>
+    <t>0.0.45</t>
   </si>
   <si>
     <t>Laude,Ted Marty</t>
@@ -437,19 +431,28 @@
     <t>Ledesma,Jesse</t>
   </si>
   <si>
-    <t>2.1.30</t>
+    <t>0.6.00</t>
+  </si>
+  <si>
+    <t>0.2.00</t>
   </si>
   <si>
     <t>Mangundayao,Mac Donald</t>
   </si>
   <si>
-    <t>1.6.00</t>
+    <t>1.2.45</t>
   </si>
   <si>
     <t>Matias,Ma. Jeremia Jetheth </t>
   </si>
   <si>
+    <t>0.6.45</t>
+  </si>
+  <si>
     <t>Mendoza,Diana</t>
+  </si>
+  <si>
+    <t>0.4.30</t>
   </si>
   <si>
     <t>Nagnal,Fracy</t>
@@ -467,9 +470,6 @@
     <t>Pendre,Contessa</t>
   </si>
   <si>
-    <t>7.0.0</t>
-  </si>
-  <si>
     <t>Ranes,Jonathan</t>
   </si>
   <si>
@@ -482,13 +482,7 @@
     <t>Sanoria,Samuel</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>Santos,Patricia</t>
-  </si>
-  <si>
-    <t>1.5.00</t>
   </si>
   <si>
     <t>See,Jenilyn</t>
@@ -497,28 +491,19 @@
     <t>Solbita,Felmar</t>
   </si>
   <si>
-    <t>0.2.00</t>
+    <t>Soriano,Hans Josif</t>
   </si>
   <si>
-    <t>Soriano,Hans Josif</t>
+    <t>Suarez,Katrina </t>
   </si>
   <si>
     <t>0.2.45</t>
   </si>
   <si>
-    <t>6.0.0</t>
-  </si>
-  <si>
-    <t>Suarez,Katrina </t>
-  </si>
-  <si>
     <t>Tanqueco,Mikee Dorina</t>
   </si>
   <si>
-    <t>0.3.15</t>
-  </si>
-  <si>
-    <t>1.0.00</t>
+    <t>1.7.00</t>
   </si>
   <si>
     <t>Tesoro,Rose Natalie</t>
@@ -653,7 +638,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="87.13483146067415"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="93.73483146067416"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="21.134831460674157" hidden="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.834831460674156"/>
@@ -1433,16 +1418,16 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="J4" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>INT(LEFT(E4,1))</f>
@@ -1553,31 +1538,31 @@
         <f>FLOOR(AS4/8,1,1)&amp;"."&amp;FLOOR(MOD(AS4,8),1,1)&amp;"."&amp;(MOD(AS4,8)-FLOOR(MOD(AS4,8),1,1))*60</f>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC4" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD4" s="5" t="str">
         <f>INT(LEFT(AU4,1))</f>
@@ -1741,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>77</v>
@@ -1750,22 +1735,22 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,1))</f>
@@ -1876,31 +1861,31 @@
         <f>FLOOR(AS5/8,1,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1,1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1,1))*60</f>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC5" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD5" s="5" t="str">
         <f>INT(LEFT(AU5,1))</f>
@@ -2064,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>77</v>
@@ -2073,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,1))</f>
@@ -2199,31 +2184,31 @@
         <f>FLOOR(AS6/8,1,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1,1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1,1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB6" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC6" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD6" s="5" t="str">
         <f>INT(LEFT(AU6,1))</f>
@@ -2387,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>77</v>
@@ -2396,22 +2381,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>INT(LEFT(E7,1))</f>
@@ -2522,31 +2507,31 @@
         <f>FLOOR(AS7/8,1,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1,1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1,1))*60</f>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC7" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD7" s="5" t="str">
         <f>INT(LEFT(AU7,1))</f>
@@ -2710,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>77</v>
@@ -2719,22 +2704,22 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>INT(LEFT(E8,1))</f>
@@ -2845,31 +2830,31 @@
         <f>FLOOR(AS8/8,1,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1,1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1,1))*60</f>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD8" s="5" t="str">
         <f>INT(LEFT(AU8,1))</f>
@@ -3033,7 +3018,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>77</v>
@@ -3042,22 +3027,22 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,1))</f>
@@ -3168,31 +3153,31 @@
         <f>FLOOR(AS9/8,1,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1,1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1,1))*60</f>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC9" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD9" s="5" t="str">
         <f>INT(LEFT(AU9,1))</f>
@@ -3356,7 +3341,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>77</v>
@@ -3365,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5" t="str">
         <f>INT(LEFT(E10,1))</f>
@@ -3491,31 +3476,31 @@
         <f>FLOOR(AS10/8,1,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1,1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1,1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ10" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB10" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC10" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD10" s="5" t="str">
         <f>INT(LEFT(AU10,1))</f>
@@ -3679,7 +3664,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>77</v>
@@ -3688,22 +3673,22 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>INT(LEFT(E11,1))</f>
@@ -3814,31 +3799,31 @@
         <f>FLOOR(AS11/8,1,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1,1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1,1))*60</f>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB11" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC11" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD11" s="5" t="str">
         <f>INT(LEFT(AU11,1))</f>
@@ -4002,31 +3987,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K12" s="5" t="str">
         <f>INT(LEFT(E12,1))</f>
@@ -4137,31 +4122,31 @@
         <f>FLOOR(AS12/8,1,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1,1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1,1))*60</f>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ12" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC12" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD12" s="5" t="str">
         <f>INT(LEFT(AU12,1))</f>
@@ -4325,31 +4310,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>101</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>INT(LEFT(E13,1))</f>
@@ -4460,31 +4445,31 @@
         <f>FLOOR(AS13/8,1,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1,1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1,1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ13" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC13" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD13" s="5" t="str">
         <f>INT(LEFT(AU13,1))</f>
@@ -4654,25 +4639,25 @@
         <v>77</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>INT(LEFT(E14,1))</f>
@@ -4783,31 +4768,31 @@
         <f>FLOOR(AS14/8,1,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1,1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1,1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD14" s="5" t="str">
         <f>INT(LEFT(AU14,1))</f>
@@ -4971,31 +4956,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,1))</f>
@@ -5106,31 +5091,31 @@
         <f>FLOOR(AS15/8,1,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1,1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1,1))*60</f>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD15" s="5" t="str">
         <f>INT(LEFT(AU15,1))</f>
@@ -5294,31 +5279,31 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>INT(LEFT(E16,1))</f>
@@ -5429,31 +5414,31 @@
         <f>FLOOR(AS16/8,1,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1,1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1,1))*60</f>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD16" s="5" t="str">
         <f>INT(LEFT(AU16,1))</f>
@@ -5617,7 +5602,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>77</v>
@@ -5626,22 +5611,22 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>INT(LEFT(E17,1))</f>
@@ -5752,31 +5737,31 @@
         <f>FLOOR(AS17/8,1,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1,1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1,1))*60</f>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC17" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD17" s="5" t="str">
         <f>INT(LEFT(AU17,1))</f>
@@ -5940,7 +5925,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>77</v>
@@ -5949,22 +5934,22 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,1))</f>
@@ -6075,31 +6060,31 @@
         <f>FLOOR(AS18/8,1,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1,1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1,1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA18" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB18" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC18" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD18" s="5" t="str">
         <f>INT(LEFT(AU18,1))</f>
@@ -6263,31 +6248,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,1))</f>
@@ -6398,31 +6383,31 @@
         <f>FLOOR(AS19/8,1,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1,1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1,1))*60</f>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX19" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY19" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ19" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA19" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB19" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC19" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD19" s="5" t="str">
         <f>INT(LEFT(AU19,1))</f>
@@ -6586,7 +6571,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>77</v>
@@ -6595,22 +6580,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,1))</f>
@@ -6721,31 +6706,31 @@
         <f>FLOOR(AS20/8,1,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1,1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1,1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX20" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ20" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB20" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC20" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD20" s="5" t="str">
         <f>INT(LEFT(AU20,1))</f>
@@ -6909,7 +6894,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>77</v>
@@ -6918,22 +6903,22 @@
         <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>INT(LEFT(E21,1))</f>
@@ -7044,31 +7029,31 @@
         <f>FLOOR(AS21/8,1,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1,1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1,1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW21" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY21" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA21" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB21" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC21" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD21" s="5" t="str">
         <f>INT(LEFT(AU21,1))</f>
@@ -7232,7 +7217,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>77</v>
@@ -7241,22 +7226,22 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>INT(LEFT(E22,1))</f>
@@ -7367,31 +7352,31 @@
         <f>FLOOR(AS22/8,1,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1,1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1,1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB22" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC22" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD22" s="5" t="str">
         <f>INT(LEFT(AU22,1))</f>
@@ -7564,22 +7549,22 @@
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,1))</f>
@@ -7690,31 +7675,31 @@
         <f>FLOOR(AS23/8,1,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1,1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1,1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX23" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA23" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB23" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC23" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD23" s="5" t="str">
         <f>INT(LEFT(AU23,1))</f>
@@ -7878,31 +7863,31 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,1))</f>
@@ -8013,31 +7998,31 @@
         <f>FLOOR(AS24/8,1,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1,1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1,1))*60</f>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV24" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW24" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX24" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY24" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA24" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC24" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD24" s="5" t="str">
         <f>INT(LEFT(AU24,1))</f>
@@ -8201,31 +8186,31 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(E25,1))</f>
@@ -8336,31 +8321,31 @@
         <f>FLOOR(AS25/8,1,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1,1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1,1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW25" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY25" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA25" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB25" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC25" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD25" s="5" t="str">
         <f>INT(LEFT(AU25,1))</f>
@@ -8524,7 +8509,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>77</v>
@@ -8533,22 +8518,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>INT(LEFT(E26,1))</f>
@@ -8659,31 +8644,31 @@
         <f>FLOOR(AS26/8,1,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1,1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1,1))*60</f>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW26" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY26" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC26" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD26" s="5" t="str">
         <f>INT(LEFT(AU26,1))</f>
@@ -8847,7 +8832,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>77</v>
@@ -8856,22 +8841,22 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>INT(LEFT(E27,1))</f>
@@ -8982,31 +8967,31 @@
         <f>FLOOR(AS27/8,1,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1,1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1,1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW27" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY27" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB27" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC27" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD27" s="5" t="str">
         <f>INT(LEFT(AU27,1))</f>
@@ -9176,25 +9161,25 @@
         <v>77</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>86</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>INT(LEFT(E28,1))</f>
@@ -9305,31 +9290,31 @@
         <f>FLOOR(AS28/8,1,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1,1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1,1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AV28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW28" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AV28" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW28" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="AX28" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY28" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ28" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA28" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB28" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC28" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD28" s="5" t="str">
         <f>INT(LEFT(AU28,1))</f>
@@ -9493,7 +9478,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>77</v>
@@ -9502,22 +9487,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" s="5" t="str">
         <f>INT(LEFT(E29,1))</f>
@@ -9628,31 +9613,31 @@
         <f>FLOOR(AS29/8,1,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1,1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1,1))*60</f>
       </c>
       <c r="AU29" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW29" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX29" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY29" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ29" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA29" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB29" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC29" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD29" s="5" t="str">
         <f>INT(LEFT(AU29,1))</f>
@@ -9816,31 +9801,31 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,1))</f>
@@ -9951,31 +9936,31 @@
         <f>FLOOR(AS30/8,1,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1,1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1,1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV30" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX30" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ30" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB30" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC30" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -10139,7 +10124,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>77</v>
@@ -10148,22 +10133,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="H31" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K31" s="5" t="str">
         <f>INT(LEFT(E31,1))</f>
@@ -10274,31 +10259,31 @@
         <f>FLOOR(AS31/8,1,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1,1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1,1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW31" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX31" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY31" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ31" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA31" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB31" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC31" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD31" s="5" t="str">
         <f>INT(LEFT(AU31,1))</f>
@@ -10462,31 +10447,31 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,1))</f>
@@ -10597,31 +10582,31 @@
         <f>FLOOR(AS32/8,1,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1,1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1,1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW32" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX32" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY32" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ32" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA32" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB32" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC32" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD32" s="5" t="str">
         <f>INT(LEFT(AU32,1))</f>
@@ -10785,31 +10770,31 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,1))</f>
@@ -10920,31 +10905,31 @@
         <f>FLOOR(AS33/8,1,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1,1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1,1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AW33" s="5" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="AX33" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY33" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ33" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA33" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB33" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC33" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD33" s="5" t="str">
         <f>INT(LEFT(AU33,1))</f>
@@ -11108,7 +11093,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>77</v>
@@ -11117,22 +11102,22 @@
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K34" s="5" t="str">
         <f>INT(LEFT(E34,1))</f>
@@ -11243,31 +11228,31 @@
         <f>FLOOR(AS34/8,1,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1,1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1,1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY34" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA34" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC34" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD34" s="5" t="str">
         <f>INT(LEFT(AU34,1))</f>
@@ -11431,7 +11416,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>77</v>
@@ -11440,22 +11425,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>INT(LEFT(E35,1))</f>
@@ -11566,31 +11551,31 @@
         <f>FLOOR(AS35/8,1,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1,1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1,1))*60</f>
       </c>
       <c r="AU35" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV35" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW35" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX35" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY35" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ35" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA35" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB35" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC35" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD35" s="5" t="str">
         <f>INT(LEFT(AU35,1))</f>
@@ -11754,7 +11739,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>77</v>
@@ -11763,22 +11748,22 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K36" s="5" t="str">
         <f>INT(LEFT(E36,1))</f>
@@ -11889,31 +11874,31 @@
         <f>FLOOR(AS36/8,1,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1,1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1,1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ36" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB36" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC36" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD36" s="5" t="str">
         <f>INT(LEFT(AU36,1))</f>
@@ -12077,31 +12062,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,1))</f>
@@ -12212,31 +12197,31 @@
         <f>FLOOR(AS37/8,1,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1,1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1,1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB37" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC37" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD37" s="5" t="str">
         <f>INT(LEFT(AU37,1))</f>
@@ -12400,7 +12385,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>77</v>
@@ -12409,22 +12394,22 @@
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="K38" s="5" t="str">
         <f>INT(LEFT(E38,1))</f>
@@ -12535,31 +12520,31 @@
         <f>FLOOR(AS38/8,1,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1,1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1,1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW38" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX38" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY38" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ38" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB38" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD38" s="5" t="str">
         <f>INT(LEFT(AU38,1))</f>
@@ -12723,31 +12708,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,1))</f>
@@ -12858,31 +12843,31 @@
         <f>FLOOR(AS39/8,1,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1,1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1,1))*60</f>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="AW39" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX39" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY39" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ39" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB39" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC39" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD39" s="5" t="str">
         <f>INT(LEFT(AU39,1))</f>
@@ -13046,31 +13031,31 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>INT(LEFT(E40,1))</f>
@@ -13181,31 +13166,31 @@
         <f>FLOOR(AS40/8,1,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1,1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1,1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW40" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX40" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY40" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ40" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA40" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB40" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD40" s="5" t="str">
         <f>INT(LEFT(AU40,1))</f>
@@ -13369,7 +13354,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>77</v>
@@ -13378,22 +13363,22 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,1))</f>
@@ -13504,31 +13489,31 @@
         <f>FLOOR(AS41/8,1,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1,1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1,1))*60</f>
       </c>
       <c r="AU41" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW41" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX41" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY41" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ41" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA41" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB41" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD41" s="5" t="str">
         <f>INT(LEFT(AU41,1))</f>
@@ -13698,25 +13683,25 @@
         <v>77</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="G42" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H42" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I42" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K42" s="5" t="str">
         <f>INT(LEFT(E42,1))</f>
@@ -13827,31 +13812,31 @@
         <f>FLOOR(AS42/8,1,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1,1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1,1))*60</f>
       </c>
       <c r="AU42" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV42" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW42" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX42" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY42" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ42" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA42" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB42" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC42" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD42" s="5" t="str">
         <f>INT(LEFT(AU42,1))</f>
@@ -14015,7 +14000,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>77</v>
@@ -14024,22 +14009,22 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,1))</f>
@@ -14150,31 +14135,31 @@
         <f>FLOOR(AS43/8,1,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1,1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1,1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW43" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX43" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY43" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ43" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA43" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB43" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC43" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD43" s="5" t="str">
         <f>INT(LEFT(AU43,1))</f>
@@ -14338,7 +14323,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>77</v>
@@ -14347,22 +14332,22 @@
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>INT(LEFT(E44,1))</f>
@@ -14473,31 +14458,31 @@
         <f>FLOOR(AS44/8,1,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1,1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1,1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="AV44" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AW44" s="5" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="AX44" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY44" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ44" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA44" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB44" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC44" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD44" s="5" t="str">
         <f>INT(LEFT(AU44,1))</f>
@@ -14661,31 +14646,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K45" s="5" t="str">
         <f>INT(LEFT(E45,1))</f>
@@ -14796,31 +14781,31 @@
         <f>FLOOR(AS45/8,1,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1,1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1,1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX45" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ45" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB45" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC45" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD45" s="5" t="str">
         <f>INT(LEFT(AU45,1))</f>
@@ -14984,31 +14969,31 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="F46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H46" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="I46" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K46" s="5" t="str">
         <f>INT(LEFT(E46,1))</f>
@@ -15119,31 +15104,31 @@
         <f>FLOOR(AS46/8,1,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1,1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1,1))*60</f>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW46" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX46" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY46" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ46" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA46" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB46" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC46" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD46" s="5" t="str">
         <f>INT(LEFT(AU46,1))</f>
@@ -15307,7 +15292,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>77</v>
@@ -15316,22 +15301,22 @@
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="H47" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,1))</f>
@@ -15442,31 +15427,31 @@
         <f>FLOOR(AS47/8,1,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1,1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1,1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY47" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA47" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB47" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC47" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD47" s="5" t="str">
         <f>INT(LEFT(AU47,1))</f>
@@ -15639,22 +15624,22 @@
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>INT(LEFT(E48,1))</f>
@@ -15765,31 +15750,31 @@
         <f>FLOOR(AS48/8,1,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1,1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1,1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY48" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA48" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB48" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC48" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD48" s="5" t="str">
         <f>INT(LEFT(AU48,1))</f>
@@ -15959,25 +15944,25 @@
         <v>77</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>INT(LEFT(E49,1))</f>
@@ -16088,31 +16073,31 @@
         <f>FLOOR(AS49/8,1,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1,1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1,1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX49" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY49" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ49" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA49" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB49" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC49" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD49" s="5" t="str">
         <f>INT(LEFT(AU49,1))</f>
@@ -16282,25 +16267,25 @@
         <v>77</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>INT(LEFT(E50,1))</f>
@@ -16411,31 +16396,31 @@
         <f>FLOOR(AS50/8,1,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1,1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1,1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV50" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX50" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY50" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ50" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA50" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB50" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC50" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD50" s="5" t="str">
         <f>INT(LEFT(AU50,1))</f>
@@ -16605,25 +16590,25 @@
         <v>77</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>INT(LEFT(E51,1))</f>
@@ -16734,31 +16719,31 @@
         <f>FLOOR(AS51/8,1,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1,1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1,1))*60</f>
       </c>
       <c r="AU51" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV51" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX51" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY51" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ51" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA51" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB51" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC51" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD51" s="5" t="str">
         <f>INT(LEFT(AU51,1))</f>
@@ -16922,31 +16907,31 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>INT(LEFT(E52,1))</f>
@@ -17057,31 +17042,31 @@
         <f>FLOOR(AS52/8,1,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1,1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1,1))*60</f>
       </c>
       <c r="AU52" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV52" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AX52" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY52" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ52" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA52" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB52" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC52" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD52" s="5" t="str">
         <f>INT(LEFT(AU52,1))</f>
@@ -17245,7 +17230,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>77</v>
@@ -17254,22 +17239,22 @@
         <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="H53" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,1))</f>
@@ -17380,31 +17365,31 @@
         <f>FLOOR(AS53/8,1,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1,1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1,1))*60</f>
       </c>
       <c r="AU53" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV53" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY53" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ53" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA53" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB53" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC53" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD53" s="5" t="str">
         <f>INT(LEFT(AU53,1))</f>
@@ -17568,7 +17553,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>77</v>
@@ -17577,22 +17562,22 @@
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>INT(LEFT(E54,1))</f>
@@ -17703,31 +17688,31 @@
         <f>FLOOR(AS54/8,1,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1,1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1,1))*60</f>
       </c>
       <c r="AU54" s="5" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="AV54" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ54" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB54" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC54" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD54" s="5" t="str">
         <f>INT(LEFT(AU54,1))</f>
@@ -17891,31 +17876,31 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>164</v>
+        <v>78</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>INT(LEFT(E55,1))</f>
@@ -18026,31 +18011,31 @@
         <f>FLOOR(AS55/8,1,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1,1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1,1))*60</f>
       </c>
       <c r="AU55" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AV55" s="5" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY55" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ55" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA55" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB55" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC55" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD55" s="5" t="str">
         <f>INT(LEFT(AU55,1))</f>
@@ -18214,31 +18199,31 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K56" s="5" t="str">
         <f>INT(LEFT(E56,1))</f>
@@ -18349,31 +18334,31 @@
         <f>FLOOR(AS56/8,1,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1,1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1,1))*60</f>
       </c>
       <c r="AU56" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY56" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ56" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA56" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB56" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC56" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD56" s="5" t="str">
         <f>INT(LEFT(AU56,1))</f>
@@ -18537,7 +18522,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>77</v>
@@ -18546,22 +18531,22 @@
         <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="I57" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>INT(LEFT(E57,1))</f>
@@ -18672,31 +18657,31 @@
         <f>FLOOR(AS57/8,1,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1,1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1,1))*60</f>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="AV57" s="5" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY57" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ57" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA57" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB57" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC57" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD57" s="5" t="str">
         <f>INT(LEFT(AU57,1))</f>
@@ -18860,7 +18845,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>77</v>
@@ -18869,22 +18854,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="K58" s="5" t="str">
         <f>INT(LEFT(E58,1))</f>
@@ -18995,31 +18980,31 @@
         <f>FLOOR(AS58/8,1,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1,1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1,1))*60</f>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="AV58" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ58" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB58" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC58" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD58" s="5" t="str">
         <f>INT(LEFT(AU58,1))</f>
@@ -19183,7 +19168,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>77</v>
@@ -19192,22 +19177,22 @@
         <v>0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K59" s="5" t="str">
         <f>INT(LEFT(E59,1))</f>
@@ -19318,31 +19303,31 @@
         <f>FLOOR(AS59/8,1,1)&amp;"."&amp;FLOOR(MOD(AS59,8),1,1)&amp;"."&amp;(MOD(AS59,8)-FLOOR(MOD(AS59,8),1,1))*60</f>
       </c>
       <c r="AU59" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV59" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW59" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX59" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY59" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ59" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA59" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB59" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC59" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD59" s="5" t="str">
         <f>INT(LEFT(AU59,1))</f>
@@ -19506,7 +19491,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>77</v>
@@ -19515,22 +19500,22 @@
         <v>0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K60" s="5" t="str">
         <f>INT(LEFT(E60,1))</f>
@@ -19641,31 +19626,31 @@
         <f>FLOOR(AS60/8,1,1)&amp;"."&amp;FLOOR(MOD(AS60,8),1,1)&amp;"."&amp;(MOD(AS60,8)-FLOOR(MOD(AS60,8),1,1))*60</f>
       </c>
       <c r="AU60" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV60" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW60" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX60" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY60" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ60" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA60" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB60" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC60" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD60" s="5" t="str">
         <f>INT(LEFT(AU60,1))</f>
@@ -19829,7 +19814,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>77</v>
@@ -19838,22 +19823,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="K61" s="5" t="str">
         <f>INT(LEFT(E61,1))</f>
@@ -19964,31 +19949,31 @@
         <f>FLOOR(AS61/8,1,1)&amp;"."&amp;FLOOR(MOD(AS61,8),1,1)&amp;"."&amp;(MOD(AS61,8)-FLOOR(MOD(AS61,8),1,1))*60</f>
       </c>
       <c r="AU61" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AV61" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AW61" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AX61" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AY61" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AZ61" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BA61" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BB61" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="BC61" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD61" s="5" t="str">
         <f>INT(LEFT(AU61,1))</f>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="174">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -251,10 +251,10 @@
     <t>0.0.0</t>
   </si>
   <si>
-    <t>7.5.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>7.5.0</t>
   </si>
   <si>
     <t>1.0.00</t>
@@ -281,10 +281,16 @@
     <t>Bacani,Eddie Marie</t>
   </si>
   <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
     <t>Bagaindoc,Kjell</t>
   </si>
   <si>
     <t>0.1.15</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Balingit,Barbara</t>
@@ -308,6 +314,9 @@
     <t>0.1.30</t>
   </si>
   <si>
+    <t>1.5.0</t>
+  </si>
+  <si>
     <t>Bonita,Reynaldo Jr</t>
   </si>
   <si>
@@ -326,16 +335,13 @@
     <t>Buena,Ian Christopher</t>
   </si>
   <si>
-    <t>2.5.0</t>
-  </si>
-  <si>
     <t>Buenafe,Rajiv</t>
   </si>
   <si>
     <t>Cataluna,Christian Gilbert</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>2.5.0</t>
   </si>
   <si>
     <t>CaÃ±ete,Carol Ann</t>
@@ -356,6 +362,9 @@
     <t>0.1.45</t>
   </si>
   <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
     <t>Cortez,Jomar</t>
   </si>
   <si>
@@ -371,16 +380,16 @@
     <t>Delos Reyes,Jeffrey</t>
   </si>
   <si>
-    <t>Dino,Arvin</t>
+    <t>8.0.0</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>Dino,Arvin</t>
   </si>
   <si>
     <t>Dy,Hubert</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Egamino,Ellen</t>
@@ -413,10 +422,16 @@
     <t>Javier,Victor </t>
   </si>
   <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
     <t>Joson,Alfonso Miguel</t>
   </si>
   <si>
     <t>Keng,Julie</t>
+  </si>
+  <si>
+    <t>8.5.0</t>
   </si>
   <si>
     <t>Laroza,Baltazar</t>
@@ -1418,16 +1433,16 @@
         <v>79</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>INT(LEFT(E4,1))</f>
@@ -1535,7 +1550,7 @@
         <f>AR4/60</f>
       </c>
       <c r="AT4" s="5" t="str">
-        <f>FLOOR(AS4/8,1,1)&amp;"."&amp;FLOOR(MOD(AS4,8),1,1)&amp;"."&amp;(MOD(AS4,8)-FLOOR(MOD(AS4,8),1,1))*60</f>
+        <f>FLOOR(AS4/8,1)&amp;"."&amp;FLOOR(MOD(AS4,8),1)&amp;"."&amp;(MOD(AS4,8)-FLOOR(MOD(AS4,8),1))*60</f>
       </c>
       <c r="AU4" s="5" t="s">
         <v>82</v>
@@ -1718,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="DC4" s="5" t="str">
-        <f>FLOOR(DA4/8,1,1)&amp;"."&amp;FLOOR(MOD(DA4,8),1,1)&amp;"."&amp;(MOD(DA4,8)-FLOOR(MOD(DA4,8),1,1))*60</f>
+        <f>FLOOR(DA4/8,1)&amp;"."&amp;FLOOR(MOD(DA4,8),1)&amp;"."&amp;(MOD(DA4,8)-FLOOR(MOD(DA4,8),1))*60</f>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +1873,7 @@
         <f>AR5/60</f>
       </c>
       <c r="AT5" s="5" t="str">
-        <f>FLOOR(AS5/8,1,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1,1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1,1))*60</f>
+        <f>FLOOR(AS5/8,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1))*60</f>
       </c>
       <c r="AU5" s="5" t="s">
         <v>83</v>
@@ -2041,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="DC5" s="5" t="str">
-        <f>FLOOR(DA5/8,1,1)&amp;"."&amp;FLOOR(MOD(DA5,8),1,1)&amp;"."&amp;(MOD(DA5,8)-FLOOR(MOD(DA5,8),1,1))*60</f>
+        <f>FLOOR(DA5/8,1)&amp;"."&amp;FLOOR(MOD(DA5,8),1)&amp;"."&amp;(MOD(DA5,8)-FLOOR(MOD(DA5,8),1))*60</f>
       </c>
     </row>
     <row r="6">
@@ -2067,13 +2082,13 @@
         <v>79</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,1))</f>
@@ -2181,7 +2196,7 @@
         <f>AR6/60</f>
       </c>
       <c r="AT6" s="5" t="str">
-        <f>FLOOR(AS6/8,1,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1,1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1,1))*60</f>
+        <f>FLOOR(AS6/8,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
         <v>88</v>
@@ -2364,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="DC6" s="5" t="str">
-        <f>FLOOR(DA6/8,1,1)&amp;"."&amp;FLOOR(MOD(DA6,8),1,1)&amp;"."&amp;(MOD(DA6,8)-FLOOR(MOD(DA6,8),1,1))*60</f>
+        <f>FLOOR(DA6/8,1)&amp;"."&amp;FLOOR(MOD(DA6,8),1)&amp;"."&amp;(MOD(DA6,8)-FLOOR(MOD(DA6,8),1))*60</f>
       </c>
     </row>
     <row r="7">
@@ -2387,16 +2402,16 @@
         <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>INT(LEFT(E7,1))</f>
@@ -2504,7 +2519,7 @@
         <f>AR7/60</f>
       </c>
       <c r="AT7" s="5" t="str">
-        <f>FLOOR(AS7/8,1,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1,1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1,1))*60</f>
+        <f>FLOOR(AS7/8,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1))*60</f>
       </c>
       <c r="AU7" s="5" t="s">
         <v>83</v>
@@ -2687,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="DC7" s="5" t="str">
-        <f>FLOOR(DA7/8,1,1)&amp;"."&amp;FLOOR(MOD(DA7,8),1,1)&amp;"."&amp;(MOD(DA7,8)-FLOOR(MOD(DA7,8),1,1))*60</f>
+        <f>FLOOR(DA7/8,1)&amp;"."&amp;FLOOR(MOD(DA7,8),1)&amp;"."&amp;(MOD(DA7,8)-FLOOR(MOD(DA7,8),1))*60</f>
       </c>
     </row>
     <row r="8">
@@ -2695,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>77</v>
@@ -2707,19 +2722,19 @@
         <v>79</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="I8" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>INT(LEFT(E8,1))</f>
@@ -2827,7 +2842,7 @@
         <f>AR8/60</f>
       </c>
       <c r="AT8" s="5" t="str">
-        <f>FLOOR(AS8/8,1,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1,1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1,1))*60</f>
+        <f>FLOOR(AS8/8,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1))*60</f>
       </c>
       <c r="AU8" s="5" t="s">
         <v>83</v>
@@ -3010,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="DC8" s="5" t="str">
-        <f>FLOOR(DA8/8,1,1)&amp;"."&amp;FLOOR(MOD(DA8,8),1,1)&amp;"."&amp;(MOD(DA8,8)-FLOOR(MOD(DA8,8),1,1))*60</f>
+        <f>FLOOR(DA8/8,1)&amp;"."&amp;FLOOR(MOD(DA8,8),1)&amp;"."&amp;(MOD(DA8,8)-FLOOR(MOD(DA8,8),1))*60</f>
       </c>
     </row>
     <row r="9">
@@ -3018,7 +3033,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>77</v>
@@ -3033,16 +3048,16 @@
         <v>79</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,1))</f>
@@ -3150,7 +3165,7 @@
         <f>AR9/60</f>
       </c>
       <c r="AT9" s="5" t="str">
-        <f>FLOOR(AS9/8,1,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1,1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1,1))*60</f>
+        <f>FLOOR(AS9/8,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1))*60</f>
       </c>
       <c r="AU9" s="5" t="s">
         <v>83</v>
@@ -3333,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="DC9" s="5" t="str">
-        <f>FLOOR(DA9/8,1,1)&amp;"."&amp;FLOOR(MOD(DA9,8),1,1)&amp;"."&amp;(MOD(DA9,8)-FLOOR(MOD(DA9,8),1,1))*60</f>
+        <f>FLOOR(DA9/8,1)&amp;"."&amp;FLOOR(MOD(DA9,8),1)&amp;"."&amp;(MOD(DA9,8)-FLOOR(MOD(DA9,8),1))*60</f>
       </c>
     </row>
     <row r="10">
@@ -3341,7 +3356,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>77</v>
@@ -3356,16 +3371,16 @@
         <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K10" s="5" t="str">
         <f>INT(LEFT(E10,1))</f>
@@ -3473,7 +3488,7 @@
         <f>AR10/60</f>
       </c>
       <c r="AT10" s="5" t="str">
-        <f>FLOOR(AS10/8,1,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1,1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1,1))*60</f>
+        <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
         <v>83</v>
@@ -3656,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="DC10" s="5" t="str">
-        <f>FLOOR(DA10/8,1,1)&amp;"."&amp;FLOOR(MOD(DA10,8),1,1)&amp;"."&amp;(MOD(DA10,8)-FLOOR(MOD(DA10,8),1,1))*60</f>
+        <f>FLOOR(DA10/8,1)&amp;"."&amp;FLOOR(MOD(DA10,8),1)&amp;"."&amp;(MOD(DA10,8)-FLOOR(MOD(DA10,8),1))*60</f>
       </c>
     </row>
     <row r="11">
@@ -3664,7 +3679,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>77</v>
@@ -3679,16 +3694,16 @@
         <v>79</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>INT(LEFT(E11,1))</f>
@@ -3796,7 +3811,7 @@
         <f>AR11/60</f>
       </c>
       <c r="AT11" s="5" t="str">
-        <f>FLOOR(AS11/8,1,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1,1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1,1))*60</f>
+        <f>FLOOR(AS11/8,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1))*60</f>
       </c>
       <c r="AU11" s="5" t="s">
         <v>83</v>
@@ -3979,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="DC11" s="5" t="str">
-        <f>FLOOR(DA11/8,1,1)&amp;"."&amp;FLOOR(MOD(DA11,8),1,1)&amp;"."&amp;(MOD(DA11,8)-FLOOR(MOD(DA11,8),1,1))*60</f>
+        <f>FLOOR(DA11/8,1)&amp;"."&amp;FLOOR(MOD(DA11,8),1)&amp;"."&amp;(MOD(DA11,8)-FLOOR(MOD(DA11,8),1))*60</f>
       </c>
     </row>
     <row r="12">
@@ -3987,7 +4002,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>77</v>
@@ -3996,22 +4011,22 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="5" t="str">
         <f>INT(LEFT(E12,1))</f>
@@ -4119,7 +4134,7 @@
         <f>AR12/60</f>
       </c>
       <c r="AT12" s="5" t="str">
-        <f>FLOOR(AS12/8,1,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1,1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1,1))*60</f>
+        <f>FLOOR(AS12/8,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1))*60</f>
       </c>
       <c r="AU12" s="5" t="s">
         <v>83</v>
@@ -4302,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="DC12" s="5" t="str">
-        <f>FLOOR(DA12/8,1,1)&amp;"."&amp;FLOOR(MOD(DA12,8),1,1)&amp;"."&amp;(MOD(DA12,8)-FLOOR(MOD(DA12,8),1,1))*60</f>
+        <f>FLOOR(DA12/8,1)&amp;"."&amp;FLOOR(MOD(DA12,8),1)&amp;"."&amp;(MOD(DA12,8)-FLOOR(MOD(DA12,8),1))*60</f>
       </c>
     </row>
     <row r="13">
@@ -4310,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>77</v>
@@ -4319,22 +4334,22 @@
         <v>6</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>INT(LEFT(E13,1))</f>
@@ -4442,7 +4457,7 @@
         <f>AR13/60</f>
       </c>
       <c r="AT13" s="5" t="str">
-        <f>FLOOR(AS13/8,1,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1,1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1,1))*60</f>
+        <f>FLOOR(AS13/8,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
         <v>83</v>
@@ -4625,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="DC13" s="5" t="str">
-        <f>FLOOR(DA13/8,1,1)&amp;"."&amp;FLOOR(MOD(DA13,8),1,1)&amp;"."&amp;(MOD(DA13,8)-FLOOR(MOD(DA13,8),1,1))*60</f>
+        <f>FLOOR(DA13/8,1)&amp;"."&amp;FLOOR(MOD(DA13,8),1)&amp;"."&amp;(MOD(DA13,8)-FLOOR(MOD(DA13,8),1))*60</f>
       </c>
     </row>
     <row r="14">
@@ -4633,7 +4648,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>77</v>
@@ -4648,16 +4663,16 @@
         <v>79</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>INT(LEFT(E14,1))</f>
@@ -4765,7 +4780,7 @@
         <f>AR14/60</f>
       </c>
       <c r="AT14" s="5" t="str">
-        <f>FLOOR(AS14/8,1,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1,1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1,1))*60</f>
+        <f>FLOOR(AS14/8,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
         <v>83</v>
@@ -4948,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="DC14" s="5" t="str">
-        <f>FLOOR(DA14/8,1,1)&amp;"."&amp;FLOOR(MOD(DA14,8),1,1)&amp;"."&amp;(MOD(DA14,8)-FLOOR(MOD(DA14,8),1,1))*60</f>
+        <f>FLOOR(DA14/8,1)&amp;"."&amp;FLOOR(MOD(DA14,8),1)&amp;"."&amp;(MOD(DA14,8)-FLOOR(MOD(DA14,8),1))*60</f>
       </c>
     </row>
     <row r="15">
@@ -4956,7 +4971,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>77</v>
@@ -4974,13 +4989,13 @@
         <v>79</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,1))</f>
@@ -5088,7 +5103,7 @@
         <f>AR15/60</f>
       </c>
       <c r="AT15" s="5" t="str">
-        <f>FLOOR(AS15/8,1,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1,1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1,1))*60</f>
+        <f>FLOOR(AS15/8,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1))*60</f>
       </c>
       <c r="AU15" s="5" t="s">
         <v>83</v>
@@ -5271,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="DC15" s="5" t="str">
-        <f>FLOOR(DA15/8,1,1)&amp;"."&amp;FLOOR(MOD(DA15,8),1,1)&amp;"."&amp;(MOD(DA15,8)-FLOOR(MOD(DA15,8),1,1))*60</f>
+        <f>FLOOR(DA15/8,1)&amp;"."&amp;FLOOR(MOD(DA15,8),1)&amp;"."&amp;(MOD(DA15,8)-FLOOR(MOD(DA15,8),1))*60</f>
       </c>
     </row>
     <row r="16">
@@ -5279,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>77</v>
@@ -5288,22 +5303,22 @@
         <v>3</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>INT(LEFT(E16,1))</f>
@@ -5411,7 +5426,7 @@
         <f>AR16/60</f>
       </c>
       <c r="AT16" s="5" t="str">
-        <f>FLOOR(AS16/8,1,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1,1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1,1))*60</f>
+        <f>FLOOR(AS16/8,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1))*60</f>
       </c>
       <c r="AU16" s="5" t="s">
         <v>83</v>
@@ -5594,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="DC16" s="5" t="str">
-        <f>FLOOR(DA16/8,1,1)&amp;"."&amp;FLOOR(MOD(DA16,8),1,1)&amp;"."&amp;(MOD(DA16,8)-FLOOR(MOD(DA16,8),1,1))*60</f>
+        <f>FLOOR(DA16/8,1)&amp;"."&amp;FLOOR(MOD(DA16,8),1)&amp;"."&amp;(MOD(DA16,8)-FLOOR(MOD(DA16,8),1))*60</f>
       </c>
     </row>
     <row r="17">
@@ -5602,7 +5617,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>77</v>
@@ -5620,13 +5635,13 @@
         <v>79</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>INT(LEFT(E17,1))</f>
@@ -5734,7 +5749,7 @@
         <f>AR17/60</f>
       </c>
       <c r="AT17" s="5" t="str">
-        <f>FLOOR(AS17/8,1,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1,1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1,1))*60</f>
+        <f>FLOOR(AS17/8,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1))*60</f>
       </c>
       <c r="AU17" s="5" t="s">
         <v>83</v>
@@ -5917,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="DC17" s="5" t="str">
-        <f>FLOOR(DA17/8,1,1)&amp;"."&amp;FLOOR(MOD(DA17,8),1,1)&amp;"."&amp;(MOD(DA17,8)-FLOOR(MOD(DA17,8),1,1))*60</f>
+        <f>FLOOR(DA17/8,1)&amp;"."&amp;FLOOR(MOD(DA17,8),1)&amp;"."&amp;(MOD(DA17,8)-FLOOR(MOD(DA17,8),1))*60</f>
       </c>
     </row>
     <row r="18">
@@ -5925,7 +5940,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>77</v>
@@ -5940,16 +5955,16 @@
         <v>79</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,1))</f>
@@ -6057,7 +6072,7 @@
         <f>AR18/60</f>
       </c>
       <c r="AT18" s="5" t="str">
-        <f>FLOOR(AS18/8,1,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1,1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1,1))*60</f>
+        <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
         <v>83</v>
@@ -6240,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="DC18" s="5" t="str">
-        <f>FLOOR(DA18/8,1,1)&amp;"."&amp;FLOOR(MOD(DA18,8),1,1)&amp;"."&amp;(MOD(DA18,8)-FLOOR(MOD(DA18,8),1,1))*60</f>
+        <f>FLOOR(DA18/8,1)&amp;"."&amp;FLOOR(MOD(DA18,8),1)&amp;"."&amp;(MOD(DA18,8)-FLOOR(MOD(DA18,8),1))*60</f>
       </c>
     </row>
     <row r="19">
@@ -6248,7 +6263,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>77</v>
@@ -6257,22 +6272,22 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,1))</f>
@@ -6380,7 +6395,7 @@
         <f>AR19/60</f>
       </c>
       <c r="AT19" s="5" t="str">
-        <f>FLOOR(AS19/8,1,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1,1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1,1))*60</f>
+        <f>FLOOR(AS19/8,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1))*60</f>
       </c>
       <c r="AU19" s="5" t="s">
         <v>83</v>
@@ -6563,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="DC19" s="5" t="str">
-        <f>FLOOR(DA19/8,1,1)&amp;"."&amp;FLOOR(MOD(DA19,8),1,1)&amp;"."&amp;(MOD(DA19,8)-FLOOR(MOD(DA19,8),1,1))*60</f>
+        <f>FLOOR(DA19/8,1)&amp;"."&amp;FLOOR(MOD(DA19,8),1)&amp;"."&amp;(MOD(DA19,8)-FLOOR(MOD(DA19,8),1))*60</f>
       </c>
     </row>
     <row r="20">
@@ -6571,7 +6586,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>77</v>
@@ -6586,16 +6601,16 @@
         <v>79</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,1))</f>
@@ -6703,7 +6718,7 @@
         <f>AR20/60</f>
       </c>
       <c r="AT20" s="5" t="str">
-        <f>FLOOR(AS20/8,1,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1,1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1,1))*60</f>
+        <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
         <v>83</v>
@@ -6886,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="DC20" s="5" t="str">
-        <f>FLOOR(DA20/8,1,1)&amp;"."&amp;FLOOR(MOD(DA20,8),1,1)&amp;"."&amp;(MOD(DA20,8)-FLOOR(MOD(DA20,8),1,1))*60</f>
+        <f>FLOOR(DA20/8,1)&amp;"."&amp;FLOOR(MOD(DA20,8),1)&amp;"."&amp;(MOD(DA20,8)-FLOOR(MOD(DA20,8),1))*60</f>
       </c>
     </row>
     <row r="21">
@@ -6894,7 +6909,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>77</v>
@@ -6906,19 +6921,19 @@
         <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>INT(LEFT(E21,1))</f>
@@ -7026,7 +7041,7 @@
         <f>AR21/60</f>
       </c>
       <c r="AT21" s="5" t="str">
-        <f>FLOOR(AS21/8,1,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1,1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1,1))*60</f>
+        <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
         <v>83</v>
@@ -7209,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="DC21" s="5" t="str">
-        <f>FLOOR(DA21/8,1,1)&amp;"."&amp;FLOOR(MOD(DA21,8),1,1)&amp;"."&amp;(MOD(DA21,8)-FLOOR(MOD(DA21,8),1,1))*60</f>
+        <f>FLOOR(DA21/8,1)&amp;"."&amp;FLOOR(MOD(DA21,8),1)&amp;"."&amp;(MOD(DA21,8)-FLOOR(MOD(DA21,8),1))*60</f>
       </c>
     </row>
     <row r="22">
@@ -7217,7 +7232,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>77</v>
@@ -7232,16 +7247,16 @@
         <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>INT(LEFT(E22,1))</f>
@@ -7349,7 +7364,7 @@
         <f>AR22/60</f>
       </c>
       <c r="AT22" s="5" t="str">
-        <f>FLOOR(AS22/8,1,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1,1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1,1))*60</f>
+        <f>FLOOR(AS22/8,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
         <v>83</v>
@@ -7532,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="DC22" s="5" t="str">
-        <f>FLOOR(DA22/8,1,1)&amp;"."&amp;FLOOR(MOD(DA22,8),1,1)&amp;"."&amp;(MOD(DA22,8)-FLOOR(MOD(DA22,8),1,1))*60</f>
+        <f>FLOOR(DA22/8,1)&amp;"."&amp;FLOOR(MOD(DA22,8),1)&amp;"."&amp;(MOD(DA22,8)-FLOOR(MOD(DA22,8),1))*60</f>
       </c>
     </row>
     <row r="23">
@@ -7540,7 +7555,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>77</v>
@@ -7555,16 +7570,16 @@
         <v>79</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,1))</f>
@@ -7672,7 +7687,7 @@
         <f>AR23/60</f>
       </c>
       <c r="AT23" s="5" t="str">
-        <f>FLOOR(AS23/8,1,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1,1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1,1))*60</f>
+        <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
         <v>83</v>
@@ -7855,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="DC23" s="5" t="str">
-        <f>FLOOR(DA23/8,1,1)&amp;"."&amp;FLOOR(MOD(DA23,8),1,1)&amp;"."&amp;(MOD(DA23,8)-FLOOR(MOD(DA23,8),1,1))*60</f>
+        <f>FLOOR(DA23/8,1)&amp;"."&amp;FLOOR(MOD(DA23,8),1)&amp;"."&amp;(MOD(DA23,8)-FLOOR(MOD(DA23,8),1))*60</f>
       </c>
     </row>
     <row r="24">
@@ -7863,7 +7878,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>77</v>
@@ -7878,16 +7893,16 @@
         <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,1))</f>
@@ -7995,7 +8010,7 @@
         <f>AR24/60</f>
       </c>
       <c r="AT24" s="5" t="str">
-        <f>FLOOR(AS24/8,1,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1,1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1,1))*60</f>
+        <f>FLOOR(AS24/8,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1))*60</f>
       </c>
       <c r="AU24" s="5" t="s">
         <v>83</v>
@@ -8178,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="DC24" s="5" t="str">
-        <f>FLOOR(DA24/8,1,1)&amp;"."&amp;FLOOR(MOD(DA24,8),1,1)&amp;"."&amp;(MOD(DA24,8)-FLOOR(MOD(DA24,8),1,1))*60</f>
+        <f>FLOOR(DA24/8,1)&amp;"."&amp;FLOOR(MOD(DA24,8),1)&amp;"."&amp;(MOD(DA24,8)-FLOOR(MOD(DA24,8),1))*60</f>
       </c>
     </row>
     <row r="25">
@@ -8186,7 +8201,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>77</v>
@@ -8201,16 +8216,16 @@
         <v>79</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(E25,1))</f>
@@ -8318,7 +8333,7 @@
         <f>AR25/60</f>
       </c>
       <c r="AT25" s="5" t="str">
-        <f>FLOOR(AS25/8,1,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1,1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1,1))*60</f>
+        <f>FLOOR(AS25/8,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
         <v>83</v>
@@ -8501,7 +8516,7 @@
         <v>0</v>
       </c>
       <c r="DC25" s="5" t="str">
-        <f>FLOOR(DA25/8,1,1)&amp;"."&amp;FLOOR(MOD(DA25,8),1,1)&amp;"."&amp;(MOD(DA25,8)-FLOOR(MOD(DA25,8),1,1))*60</f>
+        <f>FLOOR(DA25/8,1)&amp;"."&amp;FLOOR(MOD(DA25,8),1)&amp;"."&amp;(MOD(DA25,8)-FLOOR(MOD(DA25,8),1))*60</f>
       </c>
     </row>
     <row r="26">
@@ -8509,7 +8524,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>77</v>
@@ -8521,19 +8536,19 @@
         <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>INT(LEFT(E26,1))</f>
@@ -8641,7 +8656,7 @@
         <f>AR26/60</f>
       </c>
       <c r="AT26" s="5" t="str">
-        <f>FLOOR(AS26/8,1,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1,1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1,1))*60</f>
+        <f>FLOOR(AS26/8,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1))*60</f>
       </c>
       <c r="AU26" s="5" t="s">
         <v>83</v>
@@ -8824,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="DC26" s="5" t="str">
-        <f>FLOOR(DA26/8,1,1)&amp;"."&amp;FLOOR(MOD(DA26,8),1,1)&amp;"."&amp;(MOD(DA26,8)-FLOOR(MOD(DA26,8),1,1))*60</f>
+        <f>FLOOR(DA26/8,1)&amp;"."&amp;FLOOR(MOD(DA26,8),1)&amp;"."&amp;(MOD(DA26,8)-FLOOR(MOD(DA26,8),1))*60</f>
       </c>
     </row>
     <row r="27">
@@ -8832,7 +8847,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>77</v>
@@ -8844,19 +8859,19 @@
         <v>79</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>INT(LEFT(E27,1))</f>
@@ -8964,7 +8979,7 @@
         <f>AR27/60</f>
       </c>
       <c r="AT27" s="5" t="str">
-        <f>FLOOR(AS27/8,1,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1,1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1,1))*60</f>
+        <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
         <v>83</v>
@@ -9147,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="DC27" s="5" t="str">
-        <f>FLOOR(DA27/8,1,1)&amp;"."&amp;FLOOR(MOD(DA27,8),1,1)&amp;"."&amp;(MOD(DA27,8)-FLOOR(MOD(DA27,8),1,1))*60</f>
+        <f>FLOOR(DA27/8,1)&amp;"."&amp;FLOOR(MOD(DA27,8),1)&amp;"."&amp;(MOD(DA27,8)-FLOOR(MOD(DA27,8),1))*60</f>
       </c>
     </row>
     <row r="28">
@@ -9155,7 +9170,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>77</v>
@@ -9170,10 +9185,10 @@
         <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>86</v>
@@ -9287,16 +9302,16 @@
         <f>AR28/60</f>
       </c>
       <c r="AT28" s="5" t="str">
-        <f>FLOOR(AS28/8,1,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1,1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1,1))*60</f>
+        <f>FLOOR(AS28/8,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW28" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AX28" s="5" t="s">
         <v>83</v>
@@ -9470,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="DC28" s="5" t="str">
-        <f>FLOOR(DA28/8,1,1)&amp;"."&amp;FLOOR(MOD(DA28,8),1,1)&amp;"."&amp;(MOD(DA28,8)-FLOOR(MOD(DA28,8),1,1))*60</f>
+        <f>FLOOR(DA28/8,1)&amp;"."&amp;FLOOR(MOD(DA28,8),1)&amp;"."&amp;(MOD(DA28,8)-FLOOR(MOD(DA28,8),1))*60</f>
       </c>
     </row>
     <row r="29">
@@ -9478,7 +9493,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>77</v>
@@ -9493,16 +9508,16 @@
         <v>79</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K29" s="5" t="str">
         <f>INT(LEFT(E29,1))</f>
@@ -9610,7 +9625,7 @@
         <f>AR29/60</f>
       </c>
       <c r="AT29" s="5" t="str">
-        <f>FLOOR(AS29/8,1,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1,1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1,1))*60</f>
+        <f>FLOOR(AS29/8,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1))*60</f>
       </c>
       <c r="AU29" s="5" t="s">
         <v>83</v>
@@ -9793,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="DC29" s="5" t="str">
-        <f>FLOOR(DA29/8,1,1)&amp;"."&amp;FLOOR(MOD(DA29,8),1,1)&amp;"."&amp;(MOD(DA29,8)-FLOOR(MOD(DA29,8),1,1))*60</f>
+        <f>FLOOR(DA29/8,1)&amp;"."&amp;FLOOR(MOD(DA29,8),1)&amp;"."&amp;(MOD(DA29,8)-FLOOR(MOD(DA29,8),1))*60</f>
       </c>
     </row>
     <row r="30">
@@ -9801,7 +9816,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>77</v>
@@ -9825,7 +9840,7 @@
         <v>79</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,1))</f>
@@ -9933,7 +9948,7 @@
         <f>AR30/60</f>
       </c>
       <c r="AT30" s="5" t="str">
-        <f>FLOOR(AS30/8,1,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1,1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1,1))*60</f>
+        <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
         <v>83</v>
@@ -10116,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="DC30" s="5" t="str">
-        <f>FLOOR(DA30/8,1,1)&amp;"."&amp;FLOOR(MOD(DA30,8),1,1)&amp;"."&amp;(MOD(DA30,8)-FLOOR(MOD(DA30,8),1,1))*60</f>
+        <f>FLOOR(DA30/8,1)&amp;"."&amp;FLOOR(MOD(DA30,8),1)&amp;"."&amp;(MOD(DA30,8)-FLOOR(MOD(DA30,8),1))*60</f>
       </c>
     </row>
     <row r="31">
@@ -10124,7 +10139,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>77</v>
@@ -10133,22 +10148,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K31" s="5" t="str">
         <f>INT(LEFT(E31,1))</f>
@@ -10256,10 +10271,10 @@
         <f>AR31/60</f>
       </c>
       <c r="AT31" s="5" t="str">
-        <f>FLOOR(AS31/8,1,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1,1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1,1))*60</f>
+        <f>FLOOR(AS31/8,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>83</v>
@@ -10439,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="DC31" s="5" t="str">
-        <f>FLOOR(DA31/8,1,1)&amp;"."&amp;FLOOR(MOD(DA31,8),1,1)&amp;"."&amp;(MOD(DA31,8)-FLOOR(MOD(DA31,8),1,1))*60</f>
+        <f>FLOOR(DA31/8,1)&amp;"."&amp;FLOOR(MOD(DA31,8),1)&amp;"."&amp;(MOD(DA31,8)-FLOOR(MOD(DA31,8),1))*60</f>
       </c>
     </row>
     <row r="32">
@@ -10447,7 +10462,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>77</v>
@@ -10462,16 +10477,16 @@
         <v>79</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,1))</f>
@@ -10579,7 +10594,7 @@
         <f>AR32/60</f>
       </c>
       <c r="AT32" s="5" t="str">
-        <f>FLOOR(AS32/8,1,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1,1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1,1))*60</f>
+        <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
         <v>83</v>
@@ -10762,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="DC32" s="5" t="str">
-        <f>FLOOR(DA32/8,1,1)&amp;"."&amp;FLOOR(MOD(DA32,8),1,1)&amp;"."&amp;(MOD(DA32,8)-FLOOR(MOD(DA32,8),1,1))*60</f>
+        <f>FLOOR(DA32/8,1)&amp;"."&amp;FLOOR(MOD(DA32,8),1)&amp;"."&amp;(MOD(DA32,8)-FLOOR(MOD(DA32,8),1))*60</f>
       </c>
     </row>
     <row r="33">
@@ -10770,7 +10785,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>77</v>
@@ -10788,13 +10803,13 @@
         <v>79</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,1))</f>
@@ -10902,16 +10917,16 @@
         <f>AR33/60</f>
       </c>
       <c r="AT33" s="5" t="str">
-        <f>FLOOR(AS33/8,1,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1,1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1,1))*60</f>
+        <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW33" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AX33" s="5" t="s">
         <v>83</v>
@@ -11085,7 +11100,7 @@
         <v>0</v>
       </c>
       <c r="DC33" s="5" t="str">
-        <f>FLOOR(DA33/8,1,1)&amp;"."&amp;FLOOR(MOD(DA33,8),1,1)&amp;"."&amp;(MOD(DA33,8)-FLOOR(MOD(DA33,8),1,1))*60</f>
+        <f>FLOOR(DA33/8,1)&amp;"."&amp;FLOOR(MOD(DA33,8),1)&amp;"."&amp;(MOD(DA33,8)-FLOOR(MOD(DA33,8),1))*60</f>
       </c>
     </row>
     <row r="34">
@@ -11093,7 +11108,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>77</v>
@@ -11108,16 +11123,16 @@
         <v>78</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K34" s="5" t="str">
         <f>INT(LEFT(E34,1))</f>
@@ -11225,7 +11240,7 @@
         <f>AR34/60</f>
       </c>
       <c r="AT34" s="5" t="str">
-        <f>FLOOR(AS34/8,1,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1,1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1,1))*60</f>
+        <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
         <v>83</v>
@@ -11408,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="DC34" s="5" t="str">
-        <f>FLOOR(DA34/8,1,1)&amp;"."&amp;FLOOR(MOD(DA34,8),1,1)&amp;"."&amp;(MOD(DA34,8)-FLOOR(MOD(DA34,8),1,1))*60</f>
+        <f>FLOOR(DA34/8,1)&amp;"."&amp;FLOOR(MOD(DA34,8),1)&amp;"."&amp;(MOD(DA34,8)-FLOOR(MOD(DA34,8),1))*60</f>
       </c>
     </row>
     <row r="35">
@@ -11416,7 +11431,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>77</v>
@@ -11434,13 +11449,13 @@
         <v>79</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>INT(LEFT(E35,1))</f>
@@ -11548,7 +11563,7 @@
         <f>AR35/60</f>
       </c>
       <c r="AT35" s="5" t="str">
-        <f>FLOOR(AS35/8,1,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1,1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1,1))*60</f>
+        <f>FLOOR(AS35/8,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1))*60</f>
       </c>
       <c r="AU35" s="5" t="s">
         <v>83</v>
@@ -11731,7 +11746,7 @@
         <v>0</v>
       </c>
       <c r="DC35" s="5" t="str">
-        <f>FLOOR(DA35/8,1,1)&amp;"."&amp;FLOOR(MOD(DA35,8),1,1)&amp;"."&amp;(MOD(DA35,8)-FLOOR(MOD(DA35,8),1,1))*60</f>
+        <f>FLOOR(DA35/8,1)&amp;"."&amp;FLOOR(MOD(DA35,8),1)&amp;"."&amp;(MOD(DA35,8)-FLOOR(MOD(DA35,8),1))*60</f>
       </c>
     </row>
     <row r="36">
@@ -11739,7 +11754,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>77</v>
@@ -11754,16 +11769,16 @@
         <v>79</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K36" s="5" t="str">
         <f>INT(LEFT(E36,1))</f>
@@ -11871,7 +11886,7 @@
         <f>AR36/60</f>
       </c>
       <c r="AT36" s="5" t="str">
-        <f>FLOOR(AS36/8,1,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1,1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1,1))*60</f>
+        <f>FLOOR(AS36/8,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
         <v>83</v>
@@ -12054,7 +12069,7 @@
         <v>0</v>
       </c>
       <c r="DC36" s="5" t="str">
-        <f>FLOOR(DA36/8,1,1)&amp;"."&amp;FLOOR(MOD(DA36,8),1,1)&amp;"."&amp;(MOD(DA36,8)-FLOOR(MOD(DA36,8),1,1))*60</f>
+        <f>FLOOR(DA36/8,1)&amp;"."&amp;FLOOR(MOD(DA36,8),1)&amp;"."&amp;(MOD(DA36,8)-FLOOR(MOD(DA36,8),1))*60</f>
       </c>
     </row>
     <row r="37">
@@ -12062,7 +12077,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>77</v>
@@ -12071,22 +12086,22 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,1))</f>
@@ -12194,7 +12209,7 @@
         <f>AR37/60</f>
       </c>
       <c r="AT37" s="5" t="str">
-        <f>FLOOR(AS37/8,1,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1,1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1,1))*60</f>
+        <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
         <v>83</v>
@@ -12377,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="DC37" s="5" t="str">
-        <f>FLOOR(DA37/8,1,1)&amp;"."&amp;FLOOR(MOD(DA37,8),1,1)&amp;"."&amp;(MOD(DA37,8)-FLOOR(MOD(DA37,8),1,1))*60</f>
+        <f>FLOOR(DA37/8,1)&amp;"."&amp;FLOOR(MOD(DA37,8),1)&amp;"."&amp;(MOD(DA37,8)-FLOOR(MOD(DA37,8),1))*60</f>
       </c>
     </row>
     <row r="38">
@@ -12385,7 +12400,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>77</v>
@@ -12403,7 +12418,7 @@
         <v>79</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>79</v>
@@ -12517,7 +12532,7 @@
         <f>AR38/60</f>
       </c>
       <c r="AT38" s="5" t="str">
-        <f>FLOOR(AS38/8,1,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1,1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1,1))*60</f>
+        <f>FLOOR(AS38/8,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
         <v>83</v>
@@ -12700,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="DC38" s="5" t="str">
-        <f>FLOOR(DA38/8,1,1)&amp;"."&amp;FLOOR(MOD(DA38,8),1,1)&amp;"."&amp;(MOD(DA38,8)-FLOOR(MOD(DA38,8),1,1))*60</f>
+        <f>FLOOR(DA38/8,1)&amp;"."&amp;FLOOR(MOD(DA38,8),1)&amp;"."&amp;(MOD(DA38,8)-FLOOR(MOD(DA38,8),1))*60</f>
       </c>
     </row>
     <row r="39">
@@ -12708,7 +12723,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>77</v>
@@ -12723,10 +12738,10 @@
         <v>79</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>79</v>
@@ -12840,13 +12855,13 @@
         <f>AR39/60</f>
       </c>
       <c r="AT39" s="5" t="str">
-        <f>FLOOR(AS39/8,1,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1,1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1,1))*60</f>
+        <f>FLOOR(AS39/8,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1))*60</f>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AW39" s="5" t="s">
         <v>79</v>
@@ -13023,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="DC39" s="5" t="str">
-        <f>FLOOR(DA39/8,1,1)&amp;"."&amp;FLOOR(MOD(DA39,8),1,1)&amp;"."&amp;(MOD(DA39,8)-FLOOR(MOD(DA39,8),1,1))*60</f>
+        <f>FLOOR(DA39/8,1)&amp;"."&amp;FLOOR(MOD(DA39,8),1)&amp;"."&amp;(MOD(DA39,8)-FLOOR(MOD(DA39,8),1))*60</f>
       </c>
     </row>
     <row r="40">
@@ -13031,7 +13046,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>77</v>
@@ -13046,16 +13061,16 @@
         <v>79</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>INT(LEFT(E40,1))</f>
@@ -13163,10 +13178,10 @@
         <f>AR40/60</f>
       </c>
       <c r="AT40" s="5" t="str">
-        <f>FLOOR(AS40/8,1,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1,1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1,1))*60</f>
+        <f>FLOOR(AS40/8,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>83</v>
@@ -13346,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="DC40" s="5" t="str">
-        <f>FLOOR(DA40/8,1,1)&amp;"."&amp;FLOOR(MOD(DA40,8),1,1)&amp;"."&amp;(MOD(DA40,8)-FLOOR(MOD(DA40,8),1,1))*60</f>
+        <f>FLOOR(DA40/8,1)&amp;"."&amp;FLOOR(MOD(DA40,8),1)&amp;"."&amp;(MOD(DA40,8)-FLOOR(MOD(DA40,8),1))*60</f>
       </c>
     </row>
     <row r="41">
@@ -13354,7 +13369,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>77</v>
@@ -13363,22 +13378,22 @@
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,1))</f>
@@ -13486,7 +13501,7 @@
         <f>AR41/60</f>
       </c>
       <c r="AT41" s="5" t="str">
-        <f>FLOOR(AS41/8,1,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1,1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1,1))*60</f>
+        <f>FLOOR(AS41/8,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1))*60</f>
       </c>
       <c r="AU41" s="5" t="s">
         <v>83</v>
@@ -13669,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="DC41" s="5" t="str">
-        <f>FLOOR(DA41/8,1,1)&amp;"."&amp;FLOOR(MOD(DA41,8),1,1)&amp;"."&amp;(MOD(DA41,8)-FLOOR(MOD(DA41,8),1,1))*60</f>
+        <f>FLOOR(DA41/8,1)&amp;"."&amp;FLOOR(MOD(DA41,8),1)&amp;"."&amp;(MOD(DA41,8)-FLOOR(MOD(DA41,8),1))*60</f>
       </c>
     </row>
     <row r="42">
@@ -13677,7 +13692,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>77</v>
@@ -13686,22 +13701,22 @@
         <v>5</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K42" s="5" t="str">
         <f>INT(LEFT(E42,1))</f>
@@ -13809,7 +13824,7 @@
         <f>AR42/60</f>
       </c>
       <c r="AT42" s="5" t="str">
-        <f>FLOOR(AS42/8,1,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1,1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1,1))*60</f>
+        <f>FLOOR(AS42/8,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1))*60</f>
       </c>
       <c r="AU42" s="5" t="s">
         <v>83</v>
@@ -13992,7 +14007,7 @@
         <v>0</v>
       </c>
       <c r="DC42" s="5" t="str">
-        <f>FLOOR(DA42/8,1,1)&amp;"."&amp;FLOOR(MOD(DA42,8),1,1)&amp;"."&amp;(MOD(DA42,8)-FLOOR(MOD(DA42,8),1,1))*60</f>
+        <f>FLOOR(DA42/8,1)&amp;"."&amp;FLOOR(MOD(DA42,8),1)&amp;"."&amp;(MOD(DA42,8)-FLOOR(MOD(DA42,8),1))*60</f>
       </c>
     </row>
     <row r="43">
@@ -14000,7 +14015,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>77</v>
@@ -14015,16 +14030,16 @@
         <v>79</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,1))</f>
@@ -14132,7 +14147,7 @@
         <f>AR43/60</f>
       </c>
       <c r="AT43" s="5" t="str">
-        <f>FLOOR(AS43/8,1,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1,1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1,1))*60</f>
+        <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
         <v>83</v>
@@ -14315,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="DC43" s="5" t="str">
-        <f>FLOOR(DA43/8,1,1)&amp;"."&amp;FLOOR(MOD(DA43,8),1,1)&amp;"."&amp;(MOD(DA43,8)-FLOOR(MOD(DA43,8),1,1))*60</f>
+        <f>FLOOR(DA43/8,1)&amp;"."&amp;FLOOR(MOD(DA43,8),1)&amp;"."&amp;(MOD(DA43,8)-FLOOR(MOD(DA43,8),1))*60</f>
       </c>
     </row>
     <row r="44">
@@ -14323,7 +14338,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>77</v>
@@ -14341,13 +14356,13 @@
         <v>86</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>INT(LEFT(E44,1))</f>
@@ -14455,16 +14470,16 @@
         <f>AR44/60</f>
       </c>
       <c r="AT44" s="5" t="str">
-        <f>FLOOR(AS44/8,1,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1,1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1,1))*60</f>
+        <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AV44" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AW44" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AX44" s="5" t="s">
         <v>83</v>
@@ -14638,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="DC44" s="5" t="str">
-        <f>FLOOR(DA44/8,1,1)&amp;"."&amp;FLOOR(MOD(DA44,8),1,1)&amp;"."&amp;(MOD(DA44,8)-FLOOR(MOD(DA44,8),1,1))*60</f>
+        <f>FLOOR(DA44/8,1)&amp;"."&amp;FLOOR(MOD(DA44,8),1)&amp;"."&amp;(MOD(DA44,8)-FLOOR(MOD(DA44,8),1))*60</f>
       </c>
     </row>
     <row r="45">
@@ -14646,7 +14661,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>77</v>
@@ -14655,13 +14670,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>79</v>
@@ -14778,7 +14793,7 @@
         <f>AR45/60</f>
       </c>
       <c r="AT45" s="5" t="str">
-        <f>FLOOR(AS45/8,1,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1,1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1,1))*60</f>
+        <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
         <v>83</v>
@@ -14961,7 +14976,7 @@
         <v>0</v>
       </c>
       <c r="DC45" s="5" t="str">
-        <f>FLOOR(DA45/8,1,1)&amp;"."&amp;FLOOR(MOD(DA45,8),1,1)&amp;"."&amp;(MOD(DA45,8)-FLOOR(MOD(DA45,8),1,1))*60</f>
+        <f>FLOOR(DA45/8,1)&amp;"."&amp;FLOOR(MOD(DA45,8),1)&amp;"."&amp;(MOD(DA45,8)-FLOOR(MOD(DA45,8),1))*60</f>
       </c>
     </row>
     <row r="46">
@@ -14969,7 +14984,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>77</v>
@@ -14984,7 +14999,7 @@
         <v>79</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>86</v>
@@ -14993,7 +15008,7 @@
         <v>79</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K46" s="5" t="str">
         <f>INT(LEFT(E46,1))</f>
@@ -15101,7 +15116,7 @@
         <f>AR46/60</f>
       </c>
       <c r="AT46" s="5" t="str">
-        <f>FLOOR(AS46/8,1,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1,1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1,1))*60</f>
+        <f>FLOOR(AS46/8,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1))*60</f>
       </c>
       <c r="AU46" s="5" t="s">
         <v>83</v>
@@ -15284,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="DC46" s="5" t="str">
-        <f>FLOOR(DA46/8,1,1)&amp;"."&amp;FLOOR(MOD(DA46,8),1,1)&amp;"."&amp;(MOD(DA46,8)-FLOOR(MOD(DA46,8),1,1))*60</f>
+        <f>FLOOR(DA46/8,1)&amp;"."&amp;FLOOR(MOD(DA46,8),1)&amp;"."&amp;(MOD(DA46,8)-FLOOR(MOD(DA46,8),1))*60</f>
       </c>
     </row>
     <row r="47">
@@ -15292,7 +15307,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>77</v>
@@ -15307,16 +15322,16 @@
         <v>79</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,1))</f>
@@ -15424,7 +15439,7 @@
         <f>AR47/60</f>
       </c>
       <c r="AT47" s="5" t="str">
-        <f>FLOOR(AS47/8,1,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1,1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1,1))*60</f>
+        <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
         <v>83</v>
@@ -15607,7 +15622,7 @@
         <v>0</v>
       </c>
       <c r="DC47" s="5" t="str">
-        <f>FLOOR(DA47/8,1,1)&amp;"."&amp;FLOOR(MOD(DA47,8),1,1)&amp;"."&amp;(MOD(DA47,8)-FLOOR(MOD(DA47,8),1,1))*60</f>
+        <f>FLOOR(DA47/8,1)&amp;"."&amp;FLOOR(MOD(DA47,8),1)&amp;"."&amp;(MOD(DA47,8)-FLOOR(MOD(DA47,8),1))*60</f>
       </c>
     </row>
     <row r="48">
@@ -15615,7 +15630,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>77</v>
@@ -15630,16 +15645,16 @@
         <v>79</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>INT(LEFT(E48,1))</f>
@@ -15747,7 +15762,7 @@
         <f>AR48/60</f>
       </c>
       <c r="AT48" s="5" t="str">
-        <f>FLOOR(AS48/8,1,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1,1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1,1))*60</f>
+        <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
         <v>83</v>
@@ -15930,7 +15945,7 @@
         <v>0</v>
       </c>
       <c r="DC48" s="5" t="str">
-        <f>FLOOR(DA48/8,1,1)&amp;"."&amp;FLOOR(MOD(DA48,8),1,1)&amp;"."&amp;(MOD(DA48,8)-FLOOR(MOD(DA48,8),1,1))*60</f>
+        <f>FLOOR(DA48/8,1)&amp;"."&amp;FLOOR(MOD(DA48,8),1)&amp;"."&amp;(MOD(DA48,8)-FLOOR(MOD(DA48,8),1))*60</f>
       </c>
     </row>
     <row r="49">
@@ -15938,7 +15953,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>77</v>
@@ -15947,22 +15962,22 @@
         <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>INT(LEFT(E49,1))</f>
@@ -16070,7 +16085,7 @@
         <f>AR49/60</f>
       </c>
       <c r="AT49" s="5" t="str">
-        <f>FLOOR(AS49/8,1,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1,1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1,1))*60</f>
+        <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
         <v>82</v>
@@ -16253,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="DC49" s="5" t="str">
-        <f>FLOOR(DA49/8,1,1)&amp;"."&amp;FLOOR(MOD(DA49,8),1,1)&amp;"."&amp;(MOD(DA49,8)-FLOOR(MOD(DA49,8),1,1))*60</f>
+        <f>FLOOR(DA49/8,1)&amp;"."&amp;FLOOR(MOD(DA49,8),1)&amp;"."&amp;(MOD(DA49,8)-FLOOR(MOD(DA49,8),1))*60</f>
       </c>
     </row>
     <row r="50">
@@ -16261,7 +16276,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>77</v>
@@ -16270,22 +16285,22 @@
         <v>3</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>INT(LEFT(E50,1))</f>
@@ -16393,7 +16408,7 @@
         <f>AR50/60</f>
       </c>
       <c r="AT50" s="5" t="str">
-        <f>FLOOR(AS50/8,1,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1,1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1,1))*60</f>
+        <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
         <v>83</v>
@@ -16576,7 +16591,7 @@
         <v>0</v>
       </c>
       <c r="DC50" s="5" t="str">
-        <f>FLOOR(DA50/8,1,1)&amp;"."&amp;FLOOR(MOD(DA50,8),1,1)&amp;"."&amp;(MOD(DA50,8)-FLOOR(MOD(DA50,8),1,1))*60</f>
+        <f>FLOOR(DA50/8,1)&amp;"."&amp;FLOOR(MOD(DA50,8),1)&amp;"."&amp;(MOD(DA50,8)-FLOOR(MOD(DA50,8),1))*60</f>
       </c>
     </row>
     <row r="51">
@@ -16584,7 +16599,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>77</v>
@@ -16599,16 +16614,16 @@
         <v>79</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>INT(LEFT(E51,1))</f>
@@ -16716,7 +16731,7 @@
         <f>AR51/60</f>
       </c>
       <c r="AT51" s="5" t="str">
-        <f>FLOOR(AS51/8,1,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1,1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1,1))*60</f>
+        <f>FLOOR(AS51/8,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1))*60</f>
       </c>
       <c r="AU51" s="5" t="s">
         <v>83</v>
@@ -16899,7 +16914,7 @@
         <v>0</v>
       </c>
       <c r="DC51" s="5" t="str">
-        <f>FLOOR(DA51/8,1,1)&amp;"."&amp;FLOOR(MOD(DA51,8),1,1)&amp;"."&amp;(MOD(DA51,8)-FLOOR(MOD(DA51,8),1,1))*60</f>
+        <f>FLOOR(DA51/8,1)&amp;"."&amp;FLOOR(MOD(DA51,8),1)&amp;"."&amp;(MOD(DA51,8)-FLOOR(MOD(DA51,8),1))*60</f>
       </c>
     </row>
     <row r="52">
@@ -16907,7 +16922,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>77</v>
@@ -16916,22 +16931,22 @@
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>INT(LEFT(E52,1))</f>
@@ -17039,7 +17054,7 @@
         <f>AR52/60</f>
       </c>
       <c r="AT52" s="5" t="str">
-        <f>FLOOR(AS52/8,1,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1,1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1,1))*60</f>
+        <f>FLOOR(AS52/8,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1))*60</f>
       </c>
       <c r="AU52" s="5" t="s">
         <v>83</v>
@@ -17222,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="DC52" s="5" t="str">
-        <f>FLOOR(DA52/8,1,1)&amp;"."&amp;FLOOR(MOD(DA52,8),1,1)&amp;"."&amp;(MOD(DA52,8)-FLOOR(MOD(DA52,8),1,1))*60</f>
+        <f>FLOOR(DA52/8,1)&amp;"."&amp;FLOOR(MOD(DA52,8),1)&amp;"."&amp;(MOD(DA52,8)-FLOOR(MOD(DA52,8),1))*60</f>
       </c>
     </row>
     <row r="53">
@@ -17230,7 +17245,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>77</v>
@@ -17245,16 +17260,16 @@
         <v>78</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,1))</f>
@@ -17362,7 +17377,7 @@
         <f>AR53/60</f>
       </c>
       <c r="AT53" s="5" t="str">
-        <f>FLOOR(AS53/8,1,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1,1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1,1))*60</f>
+        <f>FLOOR(AS53/8,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1))*60</f>
       </c>
       <c r="AU53" s="5" t="s">
         <v>83</v>
@@ -17545,7 +17560,7 @@
         <v>0</v>
       </c>
       <c r="DC53" s="5" t="str">
-        <f>FLOOR(DA53/8,1,1)&amp;"."&amp;FLOOR(MOD(DA53,8),1,1)&amp;"."&amp;(MOD(DA53,8)-FLOOR(MOD(DA53,8),1,1))*60</f>
+        <f>FLOOR(DA53/8,1)&amp;"."&amp;FLOOR(MOD(DA53,8),1)&amp;"."&amp;(MOD(DA53,8)-FLOOR(MOD(DA53,8),1))*60</f>
       </c>
     </row>
     <row r="54">
@@ -17553,7 +17568,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>77</v>
@@ -17568,16 +17583,16 @@
         <v>79</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>INT(LEFT(E54,1))</f>
@@ -17685,7 +17700,7 @@
         <f>AR54/60</f>
       </c>
       <c r="AT54" s="5" t="str">
-        <f>FLOOR(AS54/8,1,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1,1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1,1))*60</f>
+        <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
       </c>
       <c r="AU54" s="5" t="s">
         <v>83</v>
@@ -17868,7 +17883,7 @@
         <v>0</v>
       </c>
       <c r="DC54" s="5" t="str">
-        <f>FLOOR(DA54/8,1,1)&amp;"."&amp;FLOOR(MOD(DA54,8),1,1)&amp;"."&amp;(MOD(DA54,8)-FLOOR(MOD(DA54,8),1,1))*60</f>
+        <f>FLOOR(DA54/8,1)&amp;"."&amp;FLOOR(MOD(DA54,8),1)&amp;"."&amp;(MOD(DA54,8)-FLOOR(MOD(DA54,8),1))*60</f>
       </c>
     </row>
     <row r="55">
@@ -17876,7 +17891,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>77</v>
@@ -17891,16 +17906,16 @@
         <v>79</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>INT(LEFT(E55,1))</f>
@@ -18008,7 +18023,7 @@
         <f>AR55/60</f>
       </c>
       <c r="AT55" s="5" t="str">
-        <f>FLOOR(AS55/8,1,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1,1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1,1))*60</f>
+        <f>FLOOR(AS55/8,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1))*60</f>
       </c>
       <c r="AU55" s="5" t="s">
         <v>82</v>
@@ -18191,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="DC55" s="5" t="str">
-        <f>FLOOR(DA55/8,1,1)&amp;"."&amp;FLOOR(MOD(DA55,8),1,1)&amp;"."&amp;(MOD(DA55,8)-FLOOR(MOD(DA55,8),1,1))*60</f>
+        <f>FLOOR(DA55/8,1)&amp;"."&amp;FLOOR(MOD(DA55,8),1)&amp;"."&amp;(MOD(DA55,8)-FLOOR(MOD(DA55,8),1))*60</f>
       </c>
     </row>
     <row r="56">
@@ -18199,7 +18214,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>77</v>
@@ -18208,16 +18223,16 @@
         <v>5</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I56" s="5" t="s">
         <v>79</v>
@@ -18331,7 +18346,7 @@
         <f>AR56/60</f>
       </c>
       <c r="AT56" s="5" t="str">
-        <f>FLOOR(AS56/8,1,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1,1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1,1))*60</f>
+        <f>FLOOR(AS56/8,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1))*60</f>
       </c>
       <c r="AU56" s="5" t="s">
         <v>83</v>
@@ -18514,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="DC56" s="5" t="str">
-        <f>FLOOR(DA56/8,1,1)&amp;"."&amp;FLOOR(MOD(DA56,8),1,1)&amp;"."&amp;(MOD(DA56,8)-FLOOR(MOD(DA56,8),1,1))*60</f>
+        <f>FLOOR(DA56/8,1)&amp;"."&amp;FLOOR(MOD(DA56,8),1)&amp;"."&amp;(MOD(DA56,8)-FLOOR(MOD(DA56,8),1))*60</f>
       </c>
     </row>
     <row r="57">
@@ -18522,7 +18537,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>77</v>
@@ -18537,7 +18552,7 @@
         <v>78</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>86</v>
@@ -18546,7 +18561,7 @@
         <v>79</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>INT(LEFT(E57,1))</f>
@@ -18654,10 +18669,10 @@
         <f>AR57/60</f>
       </c>
       <c r="AT57" s="5" t="str">
-        <f>FLOOR(AS57/8,1,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1,1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1,1))*60</f>
+        <f>FLOOR(AS57/8,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1))*60</f>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>83</v>
@@ -18837,7 +18852,7 @@
         <v>0</v>
       </c>
       <c r="DC57" s="5" t="str">
-        <f>FLOOR(DA57/8,1,1)&amp;"."&amp;FLOOR(MOD(DA57,8),1,1)&amp;"."&amp;(MOD(DA57,8)-FLOOR(MOD(DA57,8),1,1))*60</f>
+        <f>FLOOR(DA57/8,1)&amp;"."&amp;FLOOR(MOD(DA57,8),1)&amp;"."&amp;(MOD(DA57,8)-FLOOR(MOD(DA57,8),1))*60</f>
       </c>
     </row>
     <row r="58">
@@ -18845,7 +18860,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>77</v>
@@ -18860,16 +18875,16 @@
         <v>79</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I58" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K58" s="5" t="str">
         <f>INT(LEFT(E58,1))</f>
@@ -18977,7 +18992,7 @@
         <f>AR58/60</f>
       </c>
       <c r="AT58" s="5" t="str">
-        <f>FLOOR(AS58/8,1,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1,1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1,1))*60</f>
+        <f>FLOOR(AS58/8,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1))*60</f>
       </c>
       <c r="AU58" s="5" t="s">
         <v>83</v>
@@ -19160,7 +19175,7 @@
         <v>0</v>
       </c>
       <c r="DC58" s="5" t="str">
-        <f>FLOOR(DA58/8,1,1)&amp;"."&amp;FLOOR(MOD(DA58,8),1,1)&amp;"."&amp;(MOD(DA58,8)-FLOOR(MOD(DA58,8),1,1))*60</f>
+        <f>FLOOR(DA58/8,1)&amp;"."&amp;FLOOR(MOD(DA58,8),1)&amp;"."&amp;(MOD(DA58,8)-FLOOR(MOD(DA58,8),1))*60</f>
       </c>
     </row>
     <row r="59">
@@ -19168,7 +19183,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>77</v>
@@ -19183,16 +19198,16 @@
         <v>79</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K59" s="5" t="str">
         <f>INT(LEFT(E59,1))</f>
@@ -19300,7 +19315,7 @@
         <f>AR59/60</f>
       </c>
       <c r="AT59" s="5" t="str">
-        <f>FLOOR(AS59/8,1,1)&amp;"."&amp;FLOOR(MOD(AS59,8),1,1)&amp;"."&amp;(MOD(AS59,8)-FLOOR(MOD(AS59,8),1,1))*60</f>
+        <f>FLOOR(AS59/8,1)&amp;"."&amp;FLOOR(MOD(AS59,8),1)&amp;"."&amp;(MOD(AS59,8)-FLOOR(MOD(AS59,8),1))*60</f>
       </c>
       <c r="AU59" s="5" t="s">
         <v>83</v>
@@ -19483,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="DC59" s="5" t="str">
-        <f>FLOOR(DA59/8,1,1)&amp;"."&amp;FLOOR(MOD(DA59,8),1,1)&amp;"."&amp;(MOD(DA59,8)-FLOOR(MOD(DA59,8),1,1))*60</f>
+        <f>FLOOR(DA59/8,1)&amp;"."&amp;FLOOR(MOD(DA59,8),1)&amp;"."&amp;(MOD(DA59,8)-FLOOR(MOD(DA59,8),1))*60</f>
       </c>
     </row>
     <row r="60">
@@ -19491,7 +19506,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>77</v>
@@ -19506,16 +19521,16 @@
         <v>79</v>
       </c>
       <c r="G60" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H60" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="I60" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K60" s="5" t="str">
         <f>INT(LEFT(E60,1))</f>
@@ -19623,7 +19638,7 @@
         <f>AR60/60</f>
       </c>
       <c r="AT60" s="5" t="str">
-        <f>FLOOR(AS60/8,1,1)&amp;"."&amp;FLOOR(MOD(AS60,8),1,1)&amp;"."&amp;(MOD(AS60,8)-FLOOR(MOD(AS60,8),1,1))*60</f>
+        <f>FLOOR(AS60/8,1)&amp;"."&amp;FLOOR(MOD(AS60,8),1)&amp;"."&amp;(MOD(AS60,8)-FLOOR(MOD(AS60,8),1))*60</f>
       </c>
       <c r="AU60" s="5" t="s">
         <v>83</v>
@@ -19806,7 +19821,7 @@
         <v>0</v>
       </c>
       <c r="DC60" s="5" t="str">
-        <f>FLOOR(DA60/8,1,1)&amp;"."&amp;FLOOR(MOD(DA60,8),1,1)&amp;"."&amp;(MOD(DA60,8)-FLOOR(MOD(DA60,8),1,1))*60</f>
+        <f>FLOOR(DA60/8,1)&amp;"."&amp;FLOOR(MOD(DA60,8),1)&amp;"."&amp;(MOD(DA60,8)-FLOOR(MOD(DA60,8),1))*60</f>
       </c>
     </row>
     <row r="61">
@@ -19814,7 +19829,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>77</v>
@@ -19829,16 +19844,16 @@
         <v>79</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K61" s="5" t="str">
         <f>INT(LEFT(E61,1))</f>
@@ -19946,7 +19961,7 @@
         <f>AR61/60</f>
       </c>
       <c r="AT61" s="5" t="str">
-        <f>FLOOR(AS61/8,1,1)&amp;"."&amp;FLOOR(MOD(AS61,8),1,1)&amp;"."&amp;(MOD(AS61,8)-FLOOR(MOD(AS61,8),1,1))*60</f>
+        <f>FLOOR(AS61/8,1)&amp;"."&amp;FLOOR(MOD(AS61,8),1)&amp;"."&amp;(MOD(AS61,8)-FLOOR(MOD(AS61,8),1))*60</f>
       </c>
       <c r="AU61" s="5" t="s">
         <v>83</v>
@@ -20129,7 +20144,7 @@
         <v>0</v>
       </c>
       <c r="DC61" s="5" t="str">
-        <f>FLOOR(DA61/8,1,1)&amp;"."&amp;FLOOR(MOD(DA61,8),1,1)&amp;"."&amp;(MOD(DA61,8)-FLOOR(MOD(DA61,8),1,1))*60</f>
+        <f>FLOOR(DA61/8,1)&amp;"."&amp;FLOOR(MOD(DA61,8),1)&amp;"."&amp;(MOD(DA61,8)-FLOOR(MOD(DA61,8),1))*60</f>
       </c>
     </row>
   </sheetData>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="175">
   <si>
     <t>iRipple, Inc.</t>
   </si>
@@ -245,7 +245,7 @@
     <t>emp.department</t>
   </si>
   <si>
-    <t>0.0.15</t>
+    <t>0.0.30</t>
   </si>
   <si>
     <t>0.0.0</t>
@@ -335,6 +335,9 @@
     <t>Buena,Ian Christopher</t>
   </si>
   <si>
+    <t>0.0.15</t>
+  </si>
+  <si>
     <t>Buenafe,Rajiv</t>
   </si>
   <si>
@@ -348,9 +351,6 @@
   </si>
   <si>
     <t>0.3.0</t>
-  </si>
-  <si>
-    <t>0.0.30</t>
   </si>
   <si>
     <t>Cerbo,Jaycer</t>
@@ -489,6 +489,9 @@
   </si>
   <si>
     <t>Reyes,Mark Gil</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Reyes,Salvador</t>
@@ -1424,7 +1427,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
@@ -5306,7 +5309,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>85</v>
@@ -5617,7 +5620,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>77</v>
@@ -5940,7 +5943,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>77</v>
@@ -5964,7 +5967,7 @@
         <v>79</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,1))</f>
@@ -6263,7 +6266,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>77</v>
@@ -6272,10 +6275,10 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>85</v>
@@ -8210,7 +8213,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>79</v>
@@ -8536,7 +8539,7 @@
         <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>117</v>
@@ -9188,7 +9191,7 @@
         <v>117</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>86</v>
@@ -9508,7 +9511,7 @@
         <v>79</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>81</v>
@@ -9840,7 +9843,7 @@
         <v>79</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,1))</f>
@@ -10148,7 +10151,7 @@
         <v>2</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>79</v>
@@ -10803,7 +10806,7 @@
         <v>79</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>79</v>
@@ -11120,7 +11123,7 @@
         <v>79</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>137</v>
@@ -12729,10 +12732,10 @@
         <v>77</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>79</v>
@@ -13055,7 +13058,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>79</v>
@@ -13393,7 +13396,7 @@
         <v>79</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,1))</f>
@@ -13707,7 +13710,7 @@
         <v>79</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
@@ -14670,7 +14673,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>79</v>
@@ -15959,13 +15962,13 @@
         <v>77</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>80</v>
@@ -16276,7 +16279,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>77</v>
@@ -16599,7 +16602,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>77</v>
@@ -16608,7 +16611,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>79</v>
@@ -16922,7 +16925,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>77</v>
@@ -16931,7 +16934,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>79</v>
@@ -17245,7 +17248,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>77</v>
@@ -17257,7 +17260,7 @@
         <v>79</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>101</v>
@@ -17568,7 +17571,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>77</v>
@@ -17891,7 +17894,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>77</v>
@@ -17900,7 +17903,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>79</v>
@@ -18214,7 +18217,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>77</v>
@@ -18223,7 +18226,7 @@
         <v>5</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>79</v>
@@ -18537,7 +18540,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>77</v>
@@ -18549,7 +18552,7 @@
         <v>79</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>93</v>
@@ -18672,7 +18675,7 @@
         <f>FLOOR(AS57/8,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1))*60</f>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AV57" s="5" t="s">
         <v>83</v>
@@ -18860,7 +18863,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>77</v>
@@ -19183,7 +19186,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>77</v>
@@ -19506,7 +19509,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>77</v>
@@ -19829,7 +19832,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>77</v>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,12 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="186">
   <si>
     <t>iRipple, Inc.</t>
   </si>
   <si>
-    <t>DTR Summary Sheet for the period February 10, 2015 to February 20, 2015</t>
+    <t>DTR Summary Sheet for the period April 04, 2015 to April 24, 2015</t>
   </si>
   <si>
     <t> </t>
@@ -248,7 +248,7 @@
     <t>0.0.30</t>
   </si>
   <si>
-    <t>0.0.0</t>
+    <t>0.0.45</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -257,52 +257,58 @@
     <t>7.5.0</t>
   </si>
   <si>
-    <t>1.0.00</t>
+    <t>0.0.0</t>
   </si>
   <si>
-    <t>0.0.00</t>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Arceo,Arwin</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>8.5.0</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>6.5.0</t>
   </si>
   <si>
     <t>Ardamoy,Ma. Rica Catherine</t>
   </si>
   <si>
-    <t>0.4.00</t>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>1.1.15</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>2.5.0</t>
   </si>
   <si>
     <t>Bacani,Eddie Marie</t>
   </si>
   <si>
-    <t>9.0.0</t>
-  </si>
-  <si>
     <t>Bagaindoc,Kjell</t>
   </si>
   <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Balingit,Barbara</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>Balino,Kamille Diane</t>
   </si>
   <si>
-    <t>4.5.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
-    <t>Balino,Kamille Diane</t>
+    <t>13.0.0</t>
   </si>
   <si>
     <t>Barrion,Jane Katherine</t>
@@ -311,19 +317,19 @@
     <t>Bayogos,Charmaine</t>
   </si>
   <si>
-    <t>0.1.30</t>
-  </si>
-  <si>
-    <t>1.5.0</t>
+    <t>11.0.0</t>
   </si>
   <si>
     <t>Bonita,Reynaldo Jr</t>
   </si>
   <si>
-    <t>0.2.30</t>
+    <t>0.2.45</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>1.0.15</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
   </si>
   <si>
     <t>Borlagdan,Aldrin</t>
@@ -332,10 +338,16 @@
     <t>Brayles,Janwil</t>
   </si>
   <si>
+    <t>15.0.0</t>
+  </si>
+  <si>
     <t>Buena,Ian Christopher</t>
   </si>
   <si>
-    <t>0.0.15</t>
+    <t>0.1.45</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Buenafe,Rajiv</t>
@@ -344,13 +356,13 @@
     <t>Cataluna,Christian Gilbert</t>
   </si>
   <si>
-    <t>2.5.0</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>CaÃ±ete,Carol Ann</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.2.15</t>
   </si>
   <si>
     <t>Cerbo,Jaycer</t>
@@ -359,46 +371,55 @@
     <t>Ching,Mark Angelo</t>
   </si>
   <si>
-    <t>0.1.45</t>
+    <t>0.1.30</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>10.0.0</t>
   </si>
   <si>
     <t>Cortez,Jomar</t>
   </si>
   <si>
-    <t>6.5.0</t>
+    <t>0.0.15</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Cruz,Cesar</t>
   </si>
   <si>
+    <t>4.5.0</t>
+  </si>
+  <si>
     <t>Delfin,Jonathan</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Delos Reyes,Jeffrey</t>
   </si>
   <si>
-    <t>8.0.0</t>
+    <t>Dino,Arvin</t>
   </si>
   <si>
-    <t>Dino,Arvin</t>
+    <t>12.5.0</t>
   </si>
   <si>
     <t>Dy,Hubert</t>
   </si>
   <si>
-    <t>3.0.0</t>
-  </si>
-  <si>
     <t>Egamino,Ellen</t>
   </si>
   <si>
-    <t>1.5.00</t>
+    <t>9.5.0</t>
   </si>
   <si>
     <t>Enrique,Christian Dan</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Espiritu,Carl Philip</t>
@@ -407,22 +428,22 @@
     <t>Flores,Arianne Grace</t>
   </si>
   <si>
-    <t>0.6.30</t>
+    <t>Francisco,Roed Ronualdo </t>
   </si>
   <si>
-    <t>Francisco,Roed Ronualdo </t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Gatan,Mario Haris Jr</t>
   </si>
   <si>
-    <t>1.4.00</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Javier,Victor </t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>5.5.0</t>
   </si>
   <si>
     <t>Joson,Alfonso Miguel</t>
@@ -431,13 +452,13 @@
     <t>Keng,Julie</t>
   </si>
   <si>
-    <t>8.5.0</t>
+    <t>12.0.0</t>
   </si>
   <si>
     <t>Laroza,Baltazar</t>
   </si>
   <si>
-    <t>0.0.45</t>
+    <t>1.3.15</t>
   </si>
   <si>
     <t>Laude,Ted Marty</t>
@@ -446,34 +467,43 @@
     <t>Ledesma,Jesse</t>
   </si>
   <si>
-    <t>0.6.00</t>
-  </si>
-  <si>
-    <t>0.2.00</t>
+    <t>0.0.3</t>
   </si>
   <si>
     <t>Mangundayao,Mac Donald</t>
   </si>
   <si>
-    <t>1.2.45</t>
+    <t>0.2.30</t>
+  </si>
+  <si>
+    <t>3.0.45</t>
   </si>
   <si>
     <t>Matias,Ma. Jeremia Jetheth </t>
   </si>
   <si>
-    <t>0.6.45</t>
+    <t>0.3.15</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Mendoza,Diana</t>
   </si>
   <si>
-    <t>0.4.30</t>
+    <t>1.1.30</t>
   </si>
   <si>
     <t>Nagnal,Fracy</t>
   </si>
   <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
     <t>Newsom,Jifferson</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Pancho,Jona</t>
@@ -491,7 +521,7 @@
     <t>Reyes,Mark Gil</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Reyes,Salvador</t>
@@ -512,16 +542,16 @@
     <t>Soriano,Hans Josif</t>
   </si>
   <si>
+    <t>0.6.0</t>
+  </si>
+  <si>
     <t>Suarez,Katrina </t>
   </si>
   <si>
-    <t>0.2.45</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Tanqueco,Mikee Dorina</t>
-  </si>
-  <si>
-    <t>1.7.00</t>
   </si>
   <si>
     <t>Tesoro,Rose Natalie</t>
@@ -531,6 +561,9 @@
   </si>
   <si>
     <t>Viloria,Eizell</t>
+  </si>
+  <si>
+    <t>1.1.45</t>
   </si>
   <si>
     <t>Viloria,Benito Jr.</t>
@@ -656,7 +689,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="93.73483146067416"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="87.13483146067415"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="21.789887640449443"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="21.134831460674157" hidden="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="17.834831460674156"/>
@@ -1427,7 +1460,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
@@ -1442,49 +1475,49 @@
         <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K4" s="5" t="str">
-        <f>INT(LEFT(E4,1))</f>
+        <f>INT(LEFT(E4,2))</f>
       </c>
       <c r="L4" s="5" t="str">
-        <f>INT(LEFT(F4,1))</f>
+        <f>INT(LEFT(F4,2))</f>
       </c>
       <c r="M4" s="5" t="str">
-        <f>INT(LEFT(I4,1))</f>
+        <f>INT(LEFT(I4,2))</f>
       </c>
       <c r="N4" s="5" t="str">
-        <f>INT(LEFT(G4,1))</f>
+        <f>INT(LEFT(G4,2))</f>
       </c>
       <c r="O4" s="5" t="str">
-        <f>INT(LEFT(J4,1))</f>
+        <f>INT(LEFT(J4,2))</f>
       </c>
       <c r="P4" s="5" t="str">
-        <f>INT(LEFT(H4,1))</f>
+        <f>INT(LEFT(H4,2))</f>
       </c>
       <c r="Q4" s="5" t="str">
-        <f>K4+L4+IF(M4&gt;M4,M4-O4,0)+IF(N4&gt;P4,N4-P4,0)</f>
+        <f>K4+L4+IF(M4&gt;O4,M4-O4,0)+IF(N4&gt;P4,N4-P4,0)</f>
       </c>
       <c r="R4" s="5" t="str">
-        <f>RIGHT(E4,LEN(E4)-2)</f>
+        <f>IF(LEFT(RIGHT(E4,LEN(E4)-2),1)=".",RIGHT(E4,LEN(E4)-3),RIGHT(E4,LEN(E4)-2))</f>
       </c>
       <c r="S4" s="5" t="str">
-        <f>RIGHT(F4,LEN(F4)-2)</f>
+        <f>IF(LEFT(RIGHT(F4,LEN(F4)-2),1)=".",RIGHT(F4,LEN(F4)-3),RIGHT(F4,LEN(F4)-2))</f>
       </c>
       <c r="T4" s="5" t="str">
-        <f>RIGHT(I4,LEN(I4)-2)</f>
+        <f>IF(LEFT(RIGHT(I4,LEN(I4)-2),1)=".",RIGHT(I4,LEN(I4)-3),RIGHT(I4,LEN(I4)-2))</f>
       </c>
       <c r="U4" s="5" t="str">
-        <f>RIGHT(G4,LEN(G4)-2)</f>
+        <f>IF(LEFT(RIGHT(G4,LEN(G4)-2),1)=".",RIGHT(G4,LEN(G4)-3),RIGHT(G4,LEN(G4)-2))</f>
       </c>
       <c r="V4" s="5" t="str">
-        <f>RIGHT(J4,LEN(J4)-2)</f>
+        <f>IF(LEFT(RIGHT(J4,LEN(J4)-2),1)=".",RIGHT(J4,LEN(J4)-3),RIGHT(J4,LEN(J4)-2))</f>
       </c>
       <c r="W4" s="5" t="str">
-        <f>RIGHT(H4,LEN(H4)-2)</f>
+        <f>IF(LEFT(RIGHT(H4,LEN(H4)-2),1)=".",RIGHT(H4,LEN(H4)-3),RIGHT(H4,LEN(H4)-2))</f>
       </c>
       <c r="X4" s="5" t="str">
         <f>INT(LEFT(R4,1))</f>
@@ -1556,31 +1589,31 @@
         <f>FLOOR(AS4/8,1)&amp;"."&amp;FLOOR(MOD(AS4,8),1)&amp;"."&amp;(MOD(AS4,8)-FLOOR(MOD(AS4,8),1))*60</f>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC4" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD4" s="5" t="str">
         <f>INT(LEFT(AU4,1))</f>
@@ -1744,7 +1777,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>77</v>
@@ -1753,61 +1786,61 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" s="5" t="str">
-        <f>INT(LEFT(E5,1))</f>
+        <f>INT(LEFT(E5,2))</f>
       </c>
       <c r="L5" s="5" t="str">
-        <f>INT(LEFT(F5,1))</f>
+        <f>INT(LEFT(F5,2))</f>
       </c>
       <c r="M5" s="5" t="str">
-        <f>INT(LEFT(I5,1))</f>
+        <f>INT(LEFT(I5,2))</f>
       </c>
       <c r="N5" s="5" t="str">
-        <f>INT(LEFT(G5,1))</f>
+        <f>INT(LEFT(G5,2))</f>
       </c>
       <c r="O5" s="5" t="str">
-        <f>INT(LEFT(J5,1))</f>
+        <f>INT(LEFT(J5,2))</f>
       </c>
       <c r="P5" s="5" t="str">
-        <f>INT(LEFT(H5,1))</f>
+        <f>INT(LEFT(H5,2))</f>
       </c>
       <c r="Q5" s="5" t="str">
-        <f>K5+L5+IF(M5&gt;M5,M5-O5,0)+IF(N5&gt;P5,N5-P5,0)</f>
+        <f>K5+L5+IF(M5&gt;O5,M5-O5,0)+IF(N5&gt;P5,N5-P5,0)</f>
       </c>
       <c r="R5" s="5" t="str">
-        <f>RIGHT(E5,LEN(E5)-2)</f>
+        <f>IF(LEFT(RIGHT(E5,LEN(E5)-2),1)=".",RIGHT(E5,LEN(E5)-3),RIGHT(E5,LEN(E5)-2))</f>
       </c>
       <c r="S5" s="5" t="str">
-        <f>RIGHT(F5,LEN(F5)-2)</f>
+        <f>IF(LEFT(RIGHT(F5,LEN(F5)-2),1)=".",RIGHT(F5,LEN(F5)-3),RIGHT(F5,LEN(F5)-2))</f>
       </c>
       <c r="T5" s="5" t="str">
-        <f>RIGHT(I5,LEN(I5)-2)</f>
+        <f>IF(LEFT(RIGHT(I5,LEN(I5)-2),1)=".",RIGHT(I5,LEN(I5)-3),RIGHT(I5,LEN(I5)-2))</f>
       </c>
       <c r="U5" s="5" t="str">
-        <f>RIGHT(G5,LEN(G5)-2)</f>
+        <f>IF(LEFT(RIGHT(G5,LEN(G5)-2),1)=".",RIGHT(G5,LEN(G5)-3),RIGHT(G5,LEN(G5)-2))</f>
       </c>
       <c r="V5" s="5" t="str">
-        <f>RIGHT(J5,LEN(J5)-2)</f>
+        <f>IF(LEFT(RIGHT(J5,LEN(J5)-2),1)=".",RIGHT(J5,LEN(J5)-3),RIGHT(J5,LEN(J5)-2))</f>
       </c>
       <c r="W5" s="5" t="str">
-        <f>RIGHT(H5,LEN(H5)-2)</f>
+        <f>IF(LEFT(RIGHT(H5,LEN(H5)-2),1)=".",RIGHT(H5,LEN(H5)-3),RIGHT(H5,LEN(H5)-2))</f>
       </c>
       <c r="X5" s="5" t="str">
         <f>INT(LEFT(R5,1))</f>
@@ -1879,31 +1912,31 @@
         <f>FLOOR(AS5/8,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1))*60</f>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC5" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD5" s="5" t="str">
         <f>INT(LEFT(AU5,1))</f>
@@ -2067,70 +2100,70 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K6" s="5" t="str">
-        <f>INT(LEFT(E6,1))</f>
+        <f>INT(LEFT(E6,2))</f>
       </c>
       <c r="L6" s="5" t="str">
-        <f>INT(LEFT(F6,1))</f>
+        <f>INT(LEFT(F6,2))</f>
       </c>
       <c r="M6" s="5" t="str">
-        <f>INT(LEFT(I6,1))</f>
+        <f>INT(LEFT(I6,2))</f>
       </c>
       <c r="N6" s="5" t="str">
-        <f>INT(LEFT(G6,1))</f>
+        <f>INT(LEFT(G6,2))</f>
       </c>
       <c r="O6" s="5" t="str">
-        <f>INT(LEFT(J6,1))</f>
+        <f>INT(LEFT(J6,2))</f>
       </c>
       <c r="P6" s="5" t="str">
-        <f>INT(LEFT(H6,1))</f>
+        <f>INT(LEFT(H6,2))</f>
       </c>
       <c r="Q6" s="5" t="str">
-        <f>K6+L6+IF(M6&gt;M6,M6-O6,0)+IF(N6&gt;P6,N6-P6,0)</f>
+        <f>K6+L6+IF(M6&gt;O6,M6-O6,0)+IF(N6&gt;P6,N6-P6,0)</f>
       </c>
       <c r="R6" s="5" t="str">
-        <f>RIGHT(E6,LEN(E6)-2)</f>
+        <f>IF(LEFT(RIGHT(E6,LEN(E6)-2),1)=".",RIGHT(E6,LEN(E6)-3),RIGHT(E6,LEN(E6)-2))</f>
       </c>
       <c r="S6" s="5" t="str">
-        <f>RIGHT(F6,LEN(F6)-2)</f>
+        <f>IF(LEFT(RIGHT(F6,LEN(F6)-2),1)=".",RIGHT(F6,LEN(F6)-3),RIGHT(F6,LEN(F6)-2))</f>
       </c>
       <c r="T6" s="5" t="str">
-        <f>RIGHT(I6,LEN(I6)-2)</f>
+        <f>IF(LEFT(RIGHT(I6,LEN(I6)-2),1)=".",RIGHT(I6,LEN(I6)-3),RIGHT(I6,LEN(I6)-2))</f>
       </c>
       <c r="U6" s="5" t="str">
-        <f>RIGHT(G6,LEN(G6)-2)</f>
+        <f>IF(LEFT(RIGHT(G6,LEN(G6)-2),1)=".",RIGHT(G6,LEN(G6)-3),RIGHT(G6,LEN(G6)-2))</f>
       </c>
       <c r="V6" s="5" t="str">
-        <f>RIGHT(J6,LEN(J6)-2)</f>
+        <f>IF(LEFT(RIGHT(J6,LEN(J6)-2),1)=".",RIGHT(J6,LEN(J6)-3),RIGHT(J6,LEN(J6)-2))</f>
       </c>
       <c r="W6" s="5" t="str">
-        <f>RIGHT(H6,LEN(H6)-2)</f>
+        <f>IF(LEFT(RIGHT(H6,LEN(H6)-2),1)=".",RIGHT(H6,LEN(H6)-3),RIGHT(H6,LEN(H6)-2))</f>
       </c>
       <c r="X6" s="5" t="str">
         <f>INT(LEFT(R6,1))</f>
@@ -2202,31 +2235,31 @@
         <f>FLOOR(AS6/8,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AV6" s="5" t="s">
         <v>82</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC6" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD6" s="5" t="str">
         <f>INT(LEFT(AU6,1))</f>
@@ -2390,7 +2423,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>77</v>
@@ -2399,61 +2432,61 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K7" s="5" t="str">
-        <f>INT(LEFT(E7,1))</f>
+        <f>INT(LEFT(E7,2))</f>
       </c>
       <c r="L7" s="5" t="str">
-        <f>INT(LEFT(F7,1))</f>
+        <f>INT(LEFT(F7,2))</f>
       </c>
       <c r="M7" s="5" t="str">
-        <f>INT(LEFT(I7,1))</f>
+        <f>INT(LEFT(I7,2))</f>
       </c>
       <c r="N7" s="5" t="str">
-        <f>INT(LEFT(G7,1))</f>
+        <f>INT(LEFT(G7,2))</f>
       </c>
       <c r="O7" s="5" t="str">
-        <f>INT(LEFT(J7,1))</f>
+        <f>INT(LEFT(J7,2))</f>
       </c>
       <c r="P7" s="5" t="str">
-        <f>INT(LEFT(H7,1))</f>
+        <f>INT(LEFT(H7,2))</f>
       </c>
       <c r="Q7" s="5" t="str">
-        <f>K7+L7+IF(M7&gt;M7,M7-O7,0)+IF(N7&gt;P7,N7-P7,0)</f>
+        <f>K7+L7+IF(M7&gt;O7,M7-O7,0)+IF(N7&gt;P7,N7-P7,0)</f>
       </c>
       <c r="R7" s="5" t="str">
-        <f>RIGHT(E7,LEN(E7)-2)</f>
+        <f>IF(LEFT(RIGHT(E7,LEN(E7)-2),1)=".",RIGHT(E7,LEN(E7)-3),RIGHT(E7,LEN(E7)-2))</f>
       </c>
       <c r="S7" s="5" t="str">
-        <f>RIGHT(F7,LEN(F7)-2)</f>
+        <f>IF(LEFT(RIGHT(F7,LEN(F7)-2),1)=".",RIGHT(F7,LEN(F7)-3),RIGHT(F7,LEN(F7)-2))</f>
       </c>
       <c r="T7" s="5" t="str">
-        <f>RIGHT(I7,LEN(I7)-2)</f>
+        <f>IF(LEFT(RIGHT(I7,LEN(I7)-2),1)=".",RIGHT(I7,LEN(I7)-3),RIGHT(I7,LEN(I7)-2))</f>
       </c>
       <c r="U7" s="5" t="str">
-        <f>RIGHT(G7,LEN(G7)-2)</f>
+        <f>IF(LEFT(RIGHT(G7,LEN(G7)-2),1)=".",RIGHT(G7,LEN(G7)-3),RIGHT(G7,LEN(G7)-2))</f>
       </c>
       <c r="V7" s="5" t="str">
-        <f>RIGHT(J7,LEN(J7)-2)</f>
+        <f>IF(LEFT(RIGHT(J7,LEN(J7)-2),1)=".",RIGHT(J7,LEN(J7)-3),RIGHT(J7,LEN(J7)-2))</f>
       </c>
       <c r="W7" s="5" t="str">
-        <f>RIGHT(H7,LEN(H7)-2)</f>
+        <f>IF(LEFT(RIGHT(H7,LEN(H7)-2),1)=".",RIGHT(H7,LEN(H7)-3),RIGHT(H7,LEN(H7)-2))</f>
       </c>
       <c r="X7" s="5" t="str">
         <f>INT(LEFT(R7,1))</f>
@@ -2525,31 +2558,31 @@
         <f>FLOOR(AS7/8,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1))*60</f>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD7" s="5" t="str">
         <f>INT(LEFT(AU7,1))</f>
@@ -2713,7 +2746,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>77</v>
@@ -2722,61 +2755,61 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="5" t="str">
-        <f>INT(LEFT(E8,1))</f>
+        <f>INT(LEFT(E8,2))</f>
       </c>
       <c r="L8" s="5" t="str">
-        <f>INT(LEFT(F8,1))</f>
+        <f>INT(LEFT(F8,2))</f>
       </c>
       <c r="M8" s="5" t="str">
-        <f>INT(LEFT(I8,1))</f>
+        <f>INT(LEFT(I8,2))</f>
       </c>
       <c r="N8" s="5" t="str">
-        <f>INT(LEFT(G8,1))</f>
+        <f>INT(LEFT(G8,2))</f>
       </c>
       <c r="O8" s="5" t="str">
-        <f>INT(LEFT(J8,1))</f>
+        <f>INT(LEFT(J8,2))</f>
       </c>
       <c r="P8" s="5" t="str">
-        <f>INT(LEFT(H8,1))</f>
+        <f>INT(LEFT(H8,2))</f>
       </c>
       <c r="Q8" s="5" t="str">
-        <f>K8+L8+IF(M8&gt;M8,M8-O8,0)+IF(N8&gt;P8,N8-P8,0)</f>
+        <f>K8+L8+IF(M8&gt;O8,M8-O8,0)+IF(N8&gt;P8,N8-P8,0)</f>
       </c>
       <c r="R8" s="5" t="str">
-        <f>RIGHT(E8,LEN(E8)-2)</f>
+        <f>IF(LEFT(RIGHT(E8,LEN(E8)-2),1)=".",RIGHT(E8,LEN(E8)-3),RIGHT(E8,LEN(E8)-2))</f>
       </c>
       <c r="S8" s="5" t="str">
-        <f>RIGHT(F8,LEN(F8)-2)</f>
+        <f>IF(LEFT(RIGHT(F8,LEN(F8)-2),1)=".",RIGHT(F8,LEN(F8)-3),RIGHT(F8,LEN(F8)-2))</f>
       </c>
       <c r="T8" s="5" t="str">
-        <f>RIGHT(I8,LEN(I8)-2)</f>
+        <f>IF(LEFT(RIGHT(I8,LEN(I8)-2),1)=".",RIGHT(I8,LEN(I8)-3),RIGHT(I8,LEN(I8)-2))</f>
       </c>
       <c r="U8" s="5" t="str">
-        <f>RIGHT(G8,LEN(G8)-2)</f>
+        <f>IF(LEFT(RIGHT(G8,LEN(G8)-2),1)=".",RIGHT(G8,LEN(G8)-3),RIGHT(G8,LEN(G8)-2))</f>
       </c>
       <c r="V8" s="5" t="str">
-        <f>RIGHT(J8,LEN(J8)-2)</f>
+        <f>IF(LEFT(RIGHT(J8,LEN(J8)-2),1)=".",RIGHT(J8,LEN(J8)-3),RIGHT(J8,LEN(J8)-2))</f>
       </c>
       <c r="W8" s="5" t="str">
-        <f>RIGHT(H8,LEN(H8)-2)</f>
+        <f>IF(LEFT(RIGHT(H8,LEN(H8)-2),1)=".",RIGHT(H8,LEN(H8)-3),RIGHT(H8,LEN(H8)-2))</f>
       </c>
       <c r="X8" s="5" t="str">
         <f>INT(LEFT(R8,1))</f>
@@ -2848,31 +2881,31 @@
         <f>FLOOR(AS8/8,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1))*60</f>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD8" s="5" t="str">
         <f>INT(LEFT(AU8,1))</f>
@@ -3036,7 +3069,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>77</v>
@@ -3045,61 +3078,61 @@
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K9" s="5" t="str">
-        <f>INT(LEFT(E9,1))</f>
+        <f>INT(LEFT(E9,2))</f>
       </c>
       <c r="L9" s="5" t="str">
-        <f>INT(LEFT(F9,1))</f>
+        <f>INT(LEFT(F9,2))</f>
       </c>
       <c r="M9" s="5" t="str">
-        <f>INT(LEFT(I9,1))</f>
+        <f>INT(LEFT(I9,2))</f>
       </c>
       <c r="N9" s="5" t="str">
-        <f>INT(LEFT(G9,1))</f>
+        <f>INT(LEFT(G9,2))</f>
       </c>
       <c r="O9" s="5" t="str">
-        <f>INT(LEFT(J9,1))</f>
+        <f>INT(LEFT(J9,2))</f>
       </c>
       <c r="P9" s="5" t="str">
-        <f>INT(LEFT(H9,1))</f>
+        <f>INT(LEFT(H9,2))</f>
       </c>
       <c r="Q9" s="5" t="str">
-        <f>K9+L9+IF(M9&gt;M9,M9-O9,0)+IF(N9&gt;P9,N9-P9,0)</f>
+        <f>K9+L9+IF(M9&gt;O9,M9-O9,0)+IF(N9&gt;P9,N9-P9,0)</f>
       </c>
       <c r="R9" s="5" t="str">
-        <f>RIGHT(E9,LEN(E9)-2)</f>
+        <f>IF(LEFT(RIGHT(E9,LEN(E9)-2),1)=".",RIGHT(E9,LEN(E9)-3),RIGHT(E9,LEN(E9)-2))</f>
       </c>
       <c r="S9" s="5" t="str">
-        <f>RIGHT(F9,LEN(F9)-2)</f>
+        <f>IF(LEFT(RIGHT(F9,LEN(F9)-2),1)=".",RIGHT(F9,LEN(F9)-3),RIGHT(F9,LEN(F9)-2))</f>
       </c>
       <c r="T9" s="5" t="str">
-        <f>RIGHT(I9,LEN(I9)-2)</f>
+        <f>IF(LEFT(RIGHT(I9,LEN(I9)-2),1)=".",RIGHT(I9,LEN(I9)-3),RIGHT(I9,LEN(I9)-2))</f>
       </c>
       <c r="U9" s="5" t="str">
-        <f>RIGHT(G9,LEN(G9)-2)</f>
+        <f>IF(LEFT(RIGHT(G9,LEN(G9)-2),1)=".",RIGHT(G9,LEN(G9)-3),RIGHT(G9,LEN(G9)-2))</f>
       </c>
       <c r="V9" s="5" t="str">
-        <f>RIGHT(J9,LEN(J9)-2)</f>
+        <f>IF(LEFT(RIGHT(J9,LEN(J9)-2),1)=".",RIGHT(J9,LEN(J9)-3),RIGHT(J9,LEN(J9)-2))</f>
       </c>
       <c r="W9" s="5" t="str">
-        <f>RIGHT(H9,LEN(H9)-2)</f>
+        <f>IF(LEFT(RIGHT(H9,LEN(H9)-2),1)=".",RIGHT(H9,LEN(H9)-3),RIGHT(H9,LEN(H9)-2))</f>
       </c>
       <c r="X9" s="5" t="str">
         <f>INT(LEFT(R9,1))</f>
@@ -3171,31 +3204,31 @@
         <f>FLOOR(AS9/8,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1))*60</f>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC9" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD9" s="5" t="str">
         <f>INT(LEFT(AU9,1))</f>
@@ -3368,61 +3401,61 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f>INT(LEFT(E10,1))</f>
+        <f>INT(LEFT(E10,2))</f>
       </c>
       <c r="L10" s="5" t="str">
-        <f>INT(LEFT(F10,1))</f>
+        <f>INT(LEFT(F10,2))</f>
       </c>
       <c r="M10" s="5" t="str">
-        <f>INT(LEFT(I10,1))</f>
+        <f>INT(LEFT(I10,2))</f>
       </c>
       <c r="N10" s="5" t="str">
-        <f>INT(LEFT(G10,1))</f>
+        <f>INT(LEFT(G10,2))</f>
       </c>
       <c r="O10" s="5" t="str">
-        <f>INT(LEFT(J10,1))</f>
+        <f>INT(LEFT(J10,2))</f>
       </c>
       <c r="P10" s="5" t="str">
-        <f>INT(LEFT(H10,1))</f>
+        <f>INT(LEFT(H10,2))</f>
       </c>
       <c r="Q10" s="5" t="str">
-        <f>K10+L10+IF(M10&gt;M10,M10-O10,0)+IF(N10&gt;P10,N10-P10,0)</f>
+        <f>K10+L10+IF(M10&gt;O10,M10-O10,0)+IF(N10&gt;P10,N10-P10,0)</f>
       </c>
       <c r="R10" s="5" t="str">
-        <f>RIGHT(E10,LEN(E10)-2)</f>
+        <f>IF(LEFT(RIGHT(E10,LEN(E10)-2),1)=".",RIGHT(E10,LEN(E10)-3),RIGHT(E10,LEN(E10)-2))</f>
       </c>
       <c r="S10" s="5" t="str">
-        <f>RIGHT(F10,LEN(F10)-2)</f>
+        <f>IF(LEFT(RIGHT(F10,LEN(F10)-2),1)=".",RIGHT(F10,LEN(F10)-3),RIGHT(F10,LEN(F10)-2))</f>
       </c>
       <c r="T10" s="5" t="str">
-        <f>RIGHT(I10,LEN(I10)-2)</f>
+        <f>IF(LEFT(RIGHT(I10,LEN(I10)-2),1)=".",RIGHT(I10,LEN(I10)-3),RIGHT(I10,LEN(I10)-2))</f>
       </c>
       <c r="U10" s="5" t="str">
-        <f>RIGHT(G10,LEN(G10)-2)</f>
+        <f>IF(LEFT(RIGHT(G10,LEN(G10)-2),1)=".",RIGHT(G10,LEN(G10)-3),RIGHT(G10,LEN(G10)-2))</f>
       </c>
       <c r="V10" s="5" t="str">
-        <f>RIGHT(J10,LEN(J10)-2)</f>
+        <f>IF(LEFT(RIGHT(J10,LEN(J10)-2),1)=".",RIGHT(J10,LEN(J10)-3),RIGHT(J10,LEN(J10)-2))</f>
       </c>
       <c r="W10" s="5" t="str">
-        <f>RIGHT(H10,LEN(H10)-2)</f>
+        <f>IF(LEFT(RIGHT(H10,LEN(H10)-2),1)=".",RIGHT(H10,LEN(H10)-3),RIGHT(H10,LEN(H10)-2))</f>
       </c>
       <c r="X10" s="5" t="str">
         <f>INT(LEFT(R10,1))</f>
@@ -3494,31 +3527,31 @@
         <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC10" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD10" s="5" t="str">
         <f>INT(LEFT(AU10,1))</f>
@@ -3682,7 +3715,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>77</v>
@@ -3691,61 +3724,61 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f>INT(LEFT(E11,1))</f>
+        <f>INT(LEFT(E11,2))</f>
       </c>
       <c r="L11" s="5" t="str">
-        <f>INT(LEFT(F11,1))</f>
+        <f>INT(LEFT(F11,2))</f>
       </c>
       <c r="M11" s="5" t="str">
-        <f>INT(LEFT(I11,1))</f>
+        <f>INT(LEFT(I11,2))</f>
       </c>
       <c r="N11" s="5" t="str">
-        <f>INT(LEFT(G11,1))</f>
+        <f>INT(LEFT(G11,2))</f>
       </c>
       <c r="O11" s="5" t="str">
-        <f>INT(LEFT(J11,1))</f>
+        <f>INT(LEFT(J11,2))</f>
       </c>
       <c r="P11" s="5" t="str">
-        <f>INT(LEFT(H11,1))</f>
+        <f>INT(LEFT(H11,2))</f>
       </c>
       <c r="Q11" s="5" t="str">
-        <f>K11+L11+IF(M11&gt;M11,M11-O11,0)+IF(N11&gt;P11,N11-P11,0)</f>
+        <f>K11+L11+IF(M11&gt;O11,M11-O11,0)+IF(N11&gt;P11,N11-P11,0)</f>
       </c>
       <c r="R11" s="5" t="str">
-        <f>RIGHT(E11,LEN(E11)-2)</f>
+        <f>IF(LEFT(RIGHT(E11,LEN(E11)-2),1)=".",RIGHT(E11,LEN(E11)-3),RIGHT(E11,LEN(E11)-2))</f>
       </c>
       <c r="S11" s="5" t="str">
-        <f>RIGHT(F11,LEN(F11)-2)</f>
+        <f>IF(LEFT(RIGHT(F11,LEN(F11)-2),1)=".",RIGHT(F11,LEN(F11)-3),RIGHT(F11,LEN(F11)-2))</f>
       </c>
       <c r="T11" s="5" t="str">
-        <f>RIGHT(I11,LEN(I11)-2)</f>
+        <f>IF(LEFT(RIGHT(I11,LEN(I11)-2),1)=".",RIGHT(I11,LEN(I11)-3),RIGHT(I11,LEN(I11)-2))</f>
       </c>
       <c r="U11" s="5" t="str">
-        <f>RIGHT(G11,LEN(G11)-2)</f>
+        <f>IF(LEFT(RIGHT(G11,LEN(G11)-2),1)=".",RIGHT(G11,LEN(G11)-3),RIGHT(G11,LEN(G11)-2))</f>
       </c>
       <c r="V11" s="5" t="str">
-        <f>RIGHT(J11,LEN(J11)-2)</f>
+        <f>IF(LEFT(RIGHT(J11,LEN(J11)-2),1)=".",RIGHT(J11,LEN(J11)-3),RIGHT(J11,LEN(J11)-2))</f>
       </c>
       <c r="W11" s="5" t="str">
-        <f>RIGHT(H11,LEN(H11)-2)</f>
+        <f>IF(LEFT(RIGHT(H11,LEN(H11)-2),1)=".",RIGHT(H11,LEN(H11)-3),RIGHT(H11,LEN(H11)-2))</f>
       </c>
       <c r="X11" s="5" t="str">
         <f>INT(LEFT(R11,1))</f>
@@ -3817,31 +3850,31 @@
         <f>FLOOR(AS11/8,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1))*60</f>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC11" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD11" s="5" t="str">
         <f>INT(LEFT(AU11,1))</f>
@@ -4005,70 +4038,70 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f>INT(LEFT(E12,1))</f>
+        <f>INT(LEFT(E12,2))</f>
       </c>
       <c r="L12" s="5" t="str">
-        <f>INT(LEFT(F12,1))</f>
+        <f>INT(LEFT(F12,2))</f>
       </c>
       <c r="M12" s="5" t="str">
-        <f>INT(LEFT(I12,1))</f>
+        <f>INT(LEFT(I12,2))</f>
       </c>
       <c r="N12" s="5" t="str">
-        <f>INT(LEFT(G12,1))</f>
+        <f>INT(LEFT(G12,2))</f>
       </c>
       <c r="O12" s="5" t="str">
-        <f>INT(LEFT(J12,1))</f>
+        <f>INT(LEFT(J12,2))</f>
       </c>
       <c r="P12" s="5" t="str">
-        <f>INT(LEFT(H12,1))</f>
+        <f>INT(LEFT(H12,2))</f>
       </c>
       <c r="Q12" s="5" t="str">
-        <f>K12+L12+IF(M12&gt;M12,M12-O12,0)+IF(N12&gt;P12,N12-P12,0)</f>
+        <f>K12+L12+IF(M12&gt;O12,M12-O12,0)+IF(N12&gt;P12,N12-P12,0)</f>
       </c>
       <c r="R12" s="5" t="str">
-        <f>RIGHT(E12,LEN(E12)-2)</f>
+        <f>IF(LEFT(RIGHT(E12,LEN(E12)-2),1)=".",RIGHT(E12,LEN(E12)-3),RIGHT(E12,LEN(E12)-2))</f>
       </c>
       <c r="S12" s="5" t="str">
-        <f>RIGHT(F12,LEN(F12)-2)</f>
+        <f>IF(LEFT(RIGHT(F12,LEN(F12)-2),1)=".",RIGHT(F12,LEN(F12)-3),RIGHT(F12,LEN(F12)-2))</f>
       </c>
       <c r="T12" s="5" t="str">
-        <f>RIGHT(I12,LEN(I12)-2)</f>
+        <f>IF(LEFT(RIGHT(I12,LEN(I12)-2),1)=".",RIGHT(I12,LEN(I12)-3),RIGHT(I12,LEN(I12)-2))</f>
       </c>
       <c r="U12" s="5" t="str">
-        <f>RIGHT(G12,LEN(G12)-2)</f>
+        <f>IF(LEFT(RIGHT(G12,LEN(G12)-2),1)=".",RIGHT(G12,LEN(G12)-3),RIGHT(G12,LEN(G12)-2))</f>
       </c>
       <c r="V12" s="5" t="str">
-        <f>RIGHT(J12,LEN(J12)-2)</f>
+        <f>IF(LEFT(RIGHT(J12,LEN(J12)-2),1)=".",RIGHT(J12,LEN(J12)-3),RIGHT(J12,LEN(J12)-2))</f>
       </c>
       <c r="W12" s="5" t="str">
-        <f>RIGHT(H12,LEN(H12)-2)</f>
+        <f>IF(LEFT(RIGHT(H12,LEN(H12)-2),1)=".",RIGHT(H12,LEN(H12)-3),RIGHT(H12,LEN(H12)-2))</f>
       </c>
       <c r="X12" s="5" t="str">
         <f>INT(LEFT(R12,1))</f>
@@ -4140,31 +4173,31 @@
         <f>FLOOR(AS12/8,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1))*60</f>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW12" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC12" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD12" s="5" t="str">
         <f>INT(LEFT(AU12,1))</f>
@@ -4328,70 +4361,70 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f>INT(LEFT(E13,1))</f>
+        <f>INT(LEFT(E13,2))</f>
       </c>
       <c r="L13" s="5" t="str">
-        <f>INT(LEFT(F13,1))</f>
+        <f>INT(LEFT(F13,2))</f>
       </c>
       <c r="M13" s="5" t="str">
-        <f>INT(LEFT(I13,1))</f>
+        <f>INT(LEFT(I13,2))</f>
       </c>
       <c r="N13" s="5" t="str">
-        <f>INT(LEFT(G13,1))</f>
+        <f>INT(LEFT(G13,2))</f>
       </c>
       <c r="O13" s="5" t="str">
-        <f>INT(LEFT(J13,1))</f>
+        <f>INT(LEFT(J13,2))</f>
       </c>
       <c r="P13" s="5" t="str">
-        <f>INT(LEFT(H13,1))</f>
+        <f>INT(LEFT(H13,2))</f>
       </c>
       <c r="Q13" s="5" t="str">
-        <f>K13+L13+IF(M13&gt;M13,M13-O13,0)+IF(N13&gt;P13,N13-P13,0)</f>
+        <f>K13+L13+IF(M13&gt;O13,M13-O13,0)+IF(N13&gt;P13,N13-P13,0)</f>
       </c>
       <c r="R13" s="5" t="str">
-        <f>RIGHT(E13,LEN(E13)-2)</f>
+        <f>IF(LEFT(RIGHT(E13,LEN(E13)-2),1)=".",RIGHT(E13,LEN(E13)-3),RIGHT(E13,LEN(E13)-2))</f>
       </c>
       <c r="S13" s="5" t="str">
-        <f>RIGHT(F13,LEN(F13)-2)</f>
+        <f>IF(LEFT(RIGHT(F13,LEN(F13)-2),1)=".",RIGHT(F13,LEN(F13)-3),RIGHT(F13,LEN(F13)-2))</f>
       </c>
       <c r="T13" s="5" t="str">
-        <f>RIGHT(I13,LEN(I13)-2)</f>
+        <f>IF(LEFT(RIGHT(I13,LEN(I13)-2),1)=".",RIGHT(I13,LEN(I13)-3),RIGHT(I13,LEN(I13)-2))</f>
       </c>
       <c r="U13" s="5" t="str">
-        <f>RIGHT(G13,LEN(G13)-2)</f>
+        <f>IF(LEFT(RIGHT(G13,LEN(G13)-2),1)=".",RIGHT(G13,LEN(G13)-3),RIGHT(G13,LEN(G13)-2))</f>
       </c>
       <c r="V13" s="5" t="str">
-        <f>RIGHT(J13,LEN(J13)-2)</f>
+        <f>IF(LEFT(RIGHT(J13,LEN(J13)-2),1)=".",RIGHT(J13,LEN(J13)-3),RIGHT(J13,LEN(J13)-2))</f>
       </c>
       <c r="W13" s="5" t="str">
-        <f>RIGHT(H13,LEN(H13)-2)</f>
+        <f>IF(LEFT(RIGHT(H13,LEN(H13)-2),1)=".",RIGHT(H13,LEN(H13)-3),RIGHT(H13,LEN(H13)-2))</f>
       </c>
       <c r="X13" s="5" t="str">
         <f>INT(LEFT(R13,1))</f>
@@ -4463,31 +4496,31 @@
         <f>FLOOR(AS13/8,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC13" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD13" s="5" t="str">
         <f>INT(LEFT(AU13,1))</f>
@@ -4651,70 +4684,70 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K14" s="5" t="str">
-        <f>INT(LEFT(E14,1))</f>
+        <f>INT(LEFT(E14,2))</f>
       </c>
       <c r="L14" s="5" t="str">
-        <f>INT(LEFT(F14,1))</f>
+        <f>INT(LEFT(F14,2))</f>
       </c>
       <c r="M14" s="5" t="str">
-        <f>INT(LEFT(I14,1))</f>
+        <f>INT(LEFT(I14,2))</f>
       </c>
       <c r="N14" s="5" t="str">
-        <f>INT(LEFT(G14,1))</f>
+        <f>INT(LEFT(G14,2))</f>
       </c>
       <c r="O14" s="5" t="str">
-        <f>INT(LEFT(J14,1))</f>
+        <f>INT(LEFT(J14,2))</f>
       </c>
       <c r="P14" s="5" t="str">
-        <f>INT(LEFT(H14,1))</f>
+        <f>INT(LEFT(H14,2))</f>
       </c>
       <c r="Q14" s="5" t="str">
-        <f>K14+L14+IF(M14&gt;M14,M14-O14,0)+IF(N14&gt;P14,N14-P14,0)</f>
+        <f>K14+L14+IF(M14&gt;O14,M14-O14,0)+IF(N14&gt;P14,N14-P14,0)</f>
       </c>
       <c r="R14" s="5" t="str">
-        <f>RIGHT(E14,LEN(E14)-2)</f>
+        <f>IF(LEFT(RIGHT(E14,LEN(E14)-2),1)=".",RIGHT(E14,LEN(E14)-3),RIGHT(E14,LEN(E14)-2))</f>
       </c>
       <c r="S14" s="5" t="str">
-        <f>RIGHT(F14,LEN(F14)-2)</f>
+        <f>IF(LEFT(RIGHT(F14,LEN(F14)-2),1)=".",RIGHT(F14,LEN(F14)-3),RIGHT(F14,LEN(F14)-2))</f>
       </c>
       <c r="T14" s="5" t="str">
-        <f>RIGHT(I14,LEN(I14)-2)</f>
+        <f>IF(LEFT(RIGHT(I14,LEN(I14)-2),1)=".",RIGHT(I14,LEN(I14)-3),RIGHT(I14,LEN(I14)-2))</f>
       </c>
       <c r="U14" s="5" t="str">
-        <f>RIGHT(G14,LEN(G14)-2)</f>
+        <f>IF(LEFT(RIGHT(G14,LEN(G14)-2),1)=".",RIGHT(G14,LEN(G14)-3),RIGHT(G14,LEN(G14)-2))</f>
       </c>
       <c r="V14" s="5" t="str">
-        <f>RIGHT(J14,LEN(J14)-2)</f>
+        <f>IF(LEFT(RIGHT(J14,LEN(J14)-2),1)=".",RIGHT(J14,LEN(J14)-3),RIGHT(J14,LEN(J14)-2))</f>
       </c>
       <c r="W14" s="5" t="str">
-        <f>RIGHT(H14,LEN(H14)-2)</f>
+        <f>IF(LEFT(RIGHT(H14,LEN(H14)-2),1)=".",RIGHT(H14,LEN(H14)-3),RIGHT(H14,LEN(H14)-2))</f>
       </c>
       <c r="X14" s="5" t="str">
         <f>INT(LEFT(R14,1))</f>
@@ -4786,31 +4819,31 @@
         <f>FLOOR(AS14/8,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD14" s="5" t="str">
         <f>INT(LEFT(AU14,1))</f>
@@ -4974,7 +5007,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>77</v>
@@ -4983,61 +5016,61 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K15" s="5" t="str">
-        <f>INT(LEFT(E15,1))</f>
+        <f>INT(LEFT(E15,2))</f>
       </c>
       <c r="L15" s="5" t="str">
-        <f>INT(LEFT(F15,1))</f>
+        <f>INT(LEFT(F15,2))</f>
       </c>
       <c r="M15" s="5" t="str">
-        <f>INT(LEFT(I15,1))</f>
+        <f>INT(LEFT(I15,2))</f>
       </c>
       <c r="N15" s="5" t="str">
-        <f>INT(LEFT(G15,1))</f>
+        <f>INT(LEFT(G15,2))</f>
       </c>
       <c r="O15" s="5" t="str">
-        <f>INT(LEFT(J15,1))</f>
+        <f>INT(LEFT(J15,2))</f>
       </c>
       <c r="P15" s="5" t="str">
-        <f>INT(LEFT(H15,1))</f>
+        <f>INT(LEFT(H15,2))</f>
       </c>
       <c r="Q15" s="5" t="str">
-        <f>K15+L15+IF(M15&gt;M15,M15-O15,0)+IF(N15&gt;P15,N15-P15,0)</f>
+        <f>K15+L15+IF(M15&gt;O15,M15-O15,0)+IF(N15&gt;P15,N15-P15,0)</f>
       </c>
       <c r="R15" s="5" t="str">
-        <f>RIGHT(E15,LEN(E15)-2)</f>
+        <f>IF(LEFT(RIGHT(E15,LEN(E15)-2),1)=".",RIGHT(E15,LEN(E15)-3),RIGHT(E15,LEN(E15)-2))</f>
       </c>
       <c r="S15" s="5" t="str">
-        <f>RIGHT(F15,LEN(F15)-2)</f>
+        <f>IF(LEFT(RIGHT(F15,LEN(F15)-2),1)=".",RIGHT(F15,LEN(F15)-3),RIGHT(F15,LEN(F15)-2))</f>
       </c>
       <c r="T15" s="5" t="str">
-        <f>RIGHT(I15,LEN(I15)-2)</f>
+        <f>IF(LEFT(RIGHT(I15,LEN(I15)-2),1)=".",RIGHT(I15,LEN(I15)-3),RIGHT(I15,LEN(I15)-2))</f>
       </c>
       <c r="U15" s="5" t="str">
-        <f>RIGHT(G15,LEN(G15)-2)</f>
+        <f>IF(LEFT(RIGHT(G15,LEN(G15)-2),1)=".",RIGHT(G15,LEN(G15)-3),RIGHT(G15,LEN(G15)-2))</f>
       </c>
       <c r="V15" s="5" t="str">
-        <f>RIGHT(J15,LEN(J15)-2)</f>
+        <f>IF(LEFT(RIGHT(J15,LEN(J15)-2),1)=".",RIGHT(J15,LEN(J15)-3),RIGHT(J15,LEN(J15)-2))</f>
       </c>
       <c r="W15" s="5" t="str">
-        <f>RIGHT(H15,LEN(H15)-2)</f>
+        <f>IF(LEFT(RIGHT(H15,LEN(H15)-2),1)=".",RIGHT(H15,LEN(H15)-3),RIGHT(H15,LEN(H15)-2))</f>
       </c>
       <c r="X15" s="5" t="str">
         <f>INT(LEFT(R15,1))</f>
@@ -5109,31 +5142,31 @@
         <f>FLOOR(AS15/8,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1))*60</f>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD15" s="5" t="str">
         <f>INT(LEFT(AU15,1))</f>
@@ -5297,70 +5330,70 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K16" s="5" t="str">
-        <f>INT(LEFT(E16,1))</f>
+        <f>INT(LEFT(E16,2))</f>
       </c>
       <c r="L16" s="5" t="str">
-        <f>INT(LEFT(F16,1))</f>
+        <f>INT(LEFT(F16,2))</f>
       </c>
       <c r="M16" s="5" t="str">
-        <f>INT(LEFT(I16,1))</f>
+        <f>INT(LEFT(I16,2))</f>
       </c>
       <c r="N16" s="5" t="str">
-        <f>INT(LEFT(G16,1))</f>
+        <f>INT(LEFT(G16,2))</f>
       </c>
       <c r="O16" s="5" t="str">
-        <f>INT(LEFT(J16,1))</f>
+        <f>INT(LEFT(J16,2))</f>
       </c>
       <c r="P16" s="5" t="str">
-        <f>INT(LEFT(H16,1))</f>
+        <f>INT(LEFT(H16,2))</f>
       </c>
       <c r="Q16" s="5" t="str">
-        <f>K16+L16+IF(M16&gt;M16,M16-O16,0)+IF(N16&gt;P16,N16-P16,0)</f>
+        <f>K16+L16+IF(M16&gt;O16,M16-O16,0)+IF(N16&gt;P16,N16-P16,0)</f>
       </c>
       <c r="R16" s="5" t="str">
-        <f>RIGHT(E16,LEN(E16)-2)</f>
+        <f>IF(LEFT(RIGHT(E16,LEN(E16)-2),1)=".",RIGHT(E16,LEN(E16)-3),RIGHT(E16,LEN(E16)-2))</f>
       </c>
       <c r="S16" s="5" t="str">
-        <f>RIGHT(F16,LEN(F16)-2)</f>
+        <f>IF(LEFT(RIGHT(F16,LEN(F16)-2),1)=".",RIGHT(F16,LEN(F16)-3),RIGHT(F16,LEN(F16)-2))</f>
       </c>
       <c r="T16" s="5" t="str">
-        <f>RIGHT(I16,LEN(I16)-2)</f>
+        <f>IF(LEFT(RIGHT(I16,LEN(I16)-2),1)=".",RIGHT(I16,LEN(I16)-3),RIGHT(I16,LEN(I16)-2))</f>
       </c>
       <c r="U16" s="5" t="str">
-        <f>RIGHT(G16,LEN(G16)-2)</f>
+        <f>IF(LEFT(RIGHT(G16,LEN(G16)-2),1)=".",RIGHT(G16,LEN(G16)-3),RIGHT(G16,LEN(G16)-2))</f>
       </c>
       <c r="V16" s="5" t="str">
-        <f>RIGHT(J16,LEN(J16)-2)</f>
+        <f>IF(LEFT(RIGHT(J16,LEN(J16)-2),1)=".",RIGHT(J16,LEN(J16)-3),RIGHT(J16,LEN(J16)-2))</f>
       </c>
       <c r="W16" s="5" t="str">
-        <f>RIGHT(H16,LEN(H16)-2)</f>
+        <f>IF(LEFT(RIGHT(H16,LEN(H16)-2),1)=".",RIGHT(H16,LEN(H16)-3),RIGHT(H16,LEN(H16)-2))</f>
       </c>
       <c r="X16" s="5" t="str">
         <f>INT(LEFT(R16,1))</f>
@@ -5432,31 +5465,31 @@
         <f>FLOOR(AS16/8,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1))*60</f>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD16" s="5" t="str">
         <f>INT(LEFT(AU16,1))</f>
@@ -5620,7 +5653,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>77</v>
@@ -5629,61 +5662,61 @@
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K17" s="5" t="str">
-        <f>INT(LEFT(E17,1))</f>
+        <f>INT(LEFT(E17,2))</f>
       </c>
       <c r="L17" s="5" t="str">
-        <f>INT(LEFT(F17,1))</f>
+        <f>INT(LEFT(F17,2))</f>
       </c>
       <c r="M17" s="5" t="str">
-        <f>INT(LEFT(I17,1))</f>
+        <f>INT(LEFT(I17,2))</f>
       </c>
       <c r="N17" s="5" t="str">
-        <f>INT(LEFT(G17,1))</f>
+        <f>INT(LEFT(G17,2))</f>
       </c>
       <c r="O17" s="5" t="str">
-        <f>INT(LEFT(J17,1))</f>
+        <f>INT(LEFT(J17,2))</f>
       </c>
       <c r="P17" s="5" t="str">
-        <f>INT(LEFT(H17,1))</f>
+        <f>INT(LEFT(H17,2))</f>
       </c>
       <c r="Q17" s="5" t="str">
-        <f>K17+L17+IF(M17&gt;M17,M17-O17,0)+IF(N17&gt;P17,N17-P17,0)</f>
+        <f>K17+L17+IF(M17&gt;O17,M17-O17,0)+IF(N17&gt;P17,N17-P17,0)</f>
       </c>
       <c r="R17" s="5" t="str">
-        <f>RIGHT(E17,LEN(E17)-2)</f>
+        <f>IF(LEFT(RIGHT(E17,LEN(E17)-2),1)=".",RIGHT(E17,LEN(E17)-3),RIGHT(E17,LEN(E17)-2))</f>
       </c>
       <c r="S17" s="5" t="str">
-        <f>RIGHT(F17,LEN(F17)-2)</f>
+        <f>IF(LEFT(RIGHT(F17,LEN(F17)-2),1)=".",RIGHT(F17,LEN(F17)-3),RIGHT(F17,LEN(F17)-2))</f>
       </c>
       <c r="T17" s="5" t="str">
-        <f>RIGHT(I17,LEN(I17)-2)</f>
+        <f>IF(LEFT(RIGHT(I17,LEN(I17)-2),1)=".",RIGHT(I17,LEN(I17)-3),RIGHT(I17,LEN(I17)-2))</f>
       </c>
       <c r="U17" s="5" t="str">
-        <f>RIGHT(G17,LEN(G17)-2)</f>
+        <f>IF(LEFT(RIGHT(G17,LEN(G17)-2),1)=".",RIGHT(G17,LEN(G17)-3),RIGHT(G17,LEN(G17)-2))</f>
       </c>
       <c r="V17" s="5" t="str">
-        <f>RIGHT(J17,LEN(J17)-2)</f>
+        <f>IF(LEFT(RIGHT(J17,LEN(J17)-2),1)=".",RIGHT(J17,LEN(J17)-3),RIGHT(J17,LEN(J17)-2))</f>
       </c>
       <c r="W17" s="5" t="str">
-        <f>RIGHT(H17,LEN(H17)-2)</f>
+        <f>IF(LEFT(RIGHT(H17,LEN(H17)-2),1)=".",RIGHT(H17,LEN(H17)-3),RIGHT(H17,LEN(H17)-2))</f>
       </c>
       <c r="X17" s="5" t="str">
         <f>INT(LEFT(R17,1))</f>
@@ -5755,31 +5788,31 @@
         <f>FLOOR(AS17/8,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1))*60</f>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC17" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD17" s="5" t="str">
         <f>INT(LEFT(AU17,1))</f>
@@ -5943,7 +5976,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>77</v>
@@ -5952,61 +5985,61 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K18" s="5" t="str">
-        <f>INT(LEFT(E18,1))</f>
+        <f>INT(LEFT(E18,2))</f>
       </c>
       <c r="L18" s="5" t="str">
-        <f>INT(LEFT(F18,1))</f>
+        <f>INT(LEFT(F18,2))</f>
       </c>
       <c r="M18" s="5" t="str">
-        <f>INT(LEFT(I18,1))</f>
+        <f>INT(LEFT(I18,2))</f>
       </c>
       <c r="N18" s="5" t="str">
-        <f>INT(LEFT(G18,1))</f>
+        <f>INT(LEFT(G18,2))</f>
       </c>
       <c r="O18" s="5" t="str">
-        <f>INT(LEFT(J18,1))</f>
+        <f>INT(LEFT(J18,2))</f>
       </c>
       <c r="P18" s="5" t="str">
-        <f>INT(LEFT(H18,1))</f>
+        <f>INT(LEFT(H18,2))</f>
       </c>
       <c r="Q18" s="5" t="str">
-        <f>K18+L18+IF(M18&gt;M18,M18-O18,0)+IF(N18&gt;P18,N18-P18,0)</f>
+        <f>K18+L18+IF(M18&gt;O18,M18-O18,0)+IF(N18&gt;P18,N18-P18,0)</f>
       </c>
       <c r="R18" s="5" t="str">
-        <f>RIGHT(E18,LEN(E18)-2)</f>
+        <f>IF(LEFT(RIGHT(E18,LEN(E18)-2),1)=".",RIGHT(E18,LEN(E18)-3),RIGHT(E18,LEN(E18)-2))</f>
       </c>
       <c r="S18" s="5" t="str">
-        <f>RIGHT(F18,LEN(F18)-2)</f>
+        <f>IF(LEFT(RIGHT(F18,LEN(F18)-2),1)=".",RIGHT(F18,LEN(F18)-3),RIGHT(F18,LEN(F18)-2))</f>
       </c>
       <c r="T18" s="5" t="str">
-        <f>RIGHT(I18,LEN(I18)-2)</f>
+        <f>IF(LEFT(RIGHT(I18,LEN(I18)-2),1)=".",RIGHT(I18,LEN(I18)-3),RIGHT(I18,LEN(I18)-2))</f>
       </c>
       <c r="U18" s="5" t="str">
-        <f>RIGHT(G18,LEN(G18)-2)</f>
+        <f>IF(LEFT(RIGHT(G18,LEN(G18)-2),1)=".",RIGHT(G18,LEN(G18)-3),RIGHT(G18,LEN(G18)-2))</f>
       </c>
       <c r="V18" s="5" t="str">
-        <f>RIGHT(J18,LEN(J18)-2)</f>
+        <f>IF(LEFT(RIGHT(J18,LEN(J18)-2),1)=".",RIGHT(J18,LEN(J18)-3),RIGHT(J18,LEN(J18)-2))</f>
       </c>
       <c r="W18" s="5" t="str">
-        <f>RIGHT(H18,LEN(H18)-2)</f>
+        <f>IF(LEFT(RIGHT(H18,LEN(H18)-2),1)=".",RIGHT(H18,LEN(H18)-3),RIGHT(H18,LEN(H18)-2))</f>
       </c>
       <c r="X18" s="5" t="str">
         <f>INT(LEFT(R18,1))</f>
@@ -6078,31 +6111,31 @@
         <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC18" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD18" s="5" t="str">
         <f>INT(LEFT(AU18,1))</f>
@@ -6266,7 +6299,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>77</v>
@@ -6275,61 +6308,61 @@
         <v>4</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K19" s="5" t="str">
-        <f>INT(LEFT(E19,1))</f>
+        <f>INT(LEFT(E19,2))</f>
       </c>
       <c r="L19" s="5" t="str">
-        <f>INT(LEFT(F19,1))</f>
+        <f>INT(LEFT(F19,2))</f>
       </c>
       <c r="M19" s="5" t="str">
-        <f>INT(LEFT(I19,1))</f>
+        <f>INT(LEFT(I19,2))</f>
       </c>
       <c r="N19" s="5" t="str">
-        <f>INT(LEFT(G19,1))</f>
+        <f>INT(LEFT(G19,2))</f>
       </c>
       <c r="O19" s="5" t="str">
-        <f>INT(LEFT(J19,1))</f>
+        <f>INT(LEFT(J19,2))</f>
       </c>
       <c r="P19" s="5" t="str">
-        <f>INT(LEFT(H19,1))</f>
+        <f>INT(LEFT(H19,2))</f>
       </c>
       <c r="Q19" s="5" t="str">
-        <f>K19+L19+IF(M19&gt;M19,M19-O19,0)+IF(N19&gt;P19,N19-P19,0)</f>
+        <f>K19+L19+IF(M19&gt;O19,M19-O19,0)+IF(N19&gt;P19,N19-P19,0)</f>
       </c>
       <c r="R19" s="5" t="str">
-        <f>RIGHT(E19,LEN(E19)-2)</f>
+        <f>IF(LEFT(RIGHT(E19,LEN(E19)-2),1)=".",RIGHT(E19,LEN(E19)-3),RIGHT(E19,LEN(E19)-2))</f>
       </c>
       <c r="S19" s="5" t="str">
-        <f>RIGHT(F19,LEN(F19)-2)</f>
+        <f>IF(LEFT(RIGHT(F19,LEN(F19)-2),1)=".",RIGHT(F19,LEN(F19)-3),RIGHT(F19,LEN(F19)-2))</f>
       </c>
       <c r="T19" s="5" t="str">
-        <f>RIGHT(I19,LEN(I19)-2)</f>
+        <f>IF(LEFT(RIGHT(I19,LEN(I19)-2),1)=".",RIGHT(I19,LEN(I19)-3),RIGHT(I19,LEN(I19)-2))</f>
       </c>
       <c r="U19" s="5" t="str">
-        <f>RIGHT(G19,LEN(G19)-2)</f>
+        <f>IF(LEFT(RIGHT(G19,LEN(G19)-2),1)=".",RIGHT(G19,LEN(G19)-3),RIGHT(G19,LEN(G19)-2))</f>
       </c>
       <c r="V19" s="5" t="str">
-        <f>RIGHT(J19,LEN(J19)-2)</f>
+        <f>IF(LEFT(RIGHT(J19,LEN(J19)-2),1)=".",RIGHT(J19,LEN(J19)-3),RIGHT(J19,LEN(J19)-2))</f>
       </c>
       <c r="W19" s="5" t="str">
-        <f>RIGHT(H19,LEN(H19)-2)</f>
+        <f>IF(LEFT(RIGHT(H19,LEN(H19)-2),1)=".",RIGHT(H19,LEN(H19)-3),RIGHT(H19,LEN(H19)-2))</f>
       </c>
       <c r="X19" s="5" t="str">
         <f>INT(LEFT(R19,1))</f>
@@ -6401,31 +6434,31 @@
         <f>FLOOR(AS19/8,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1))*60</f>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY19" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA19" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC19" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD19" s="5" t="str">
         <f>INT(LEFT(AU19,1))</f>
@@ -6589,70 +6622,70 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K20" s="5" t="str">
-        <f>INT(LEFT(E20,1))</f>
+        <f>INT(LEFT(E20,2))</f>
       </c>
       <c r="L20" s="5" t="str">
-        <f>INT(LEFT(F20,1))</f>
+        <f>INT(LEFT(F20,2))</f>
       </c>
       <c r="M20" s="5" t="str">
-        <f>INT(LEFT(I20,1))</f>
+        <f>INT(LEFT(I20,2))</f>
       </c>
       <c r="N20" s="5" t="str">
-        <f>INT(LEFT(G20,1))</f>
+        <f>INT(LEFT(G20,2))</f>
       </c>
       <c r="O20" s="5" t="str">
-        <f>INT(LEFT(J20,1))</f>
+        <f>INT(LEFT(J20,2))</f>
       </c>
       <c r="P20" s="5" t="str">
-        <f>INT(LEFT(H20,1))</f>
+        <f>INT(LEFT(H20,2))</f>
       </c>
       <c r="Q20" s="5" t="str">
-        <f>K20+L20+IF(M20&gt;M20,M20-O20,0)+IF(N20&gt;P20,N20-P20,0)</f>
+        <f>K20+L20+IF(M20&gt;O20,M20-O20,0)+IF(N20&gt;P20,N20-P20,0)</f>
       </c>
       <c r="R20" s="5" t="str">
-        <f>RIGHT(E20,LEN(E20)-2)</f>
+        <f>IF(LEFT(RIGHT(E20,LEN(E20)-2),1)=".",RIGHT(E20,LEN(E20)-3),RIGHT(E20,LEN(E20)-2))</f>
       </c>
       <c r="S20" s="5" t="str">
-        <f>RIGHT(F20,LEN(F20)-2)</f>
+        <f>IF(LEFT(RIGHT(F20,LEN(F20)-2),1)=".",RIGHT(F20,LEN(F20)-3),RIGHT(F20,LEN(F20)-2))</f>
       </c>
       <c r="T20" s="5" t="str">
-        <f>RIGHT(I20,LEN(I20)-2)</f>
+        <f>IF(LEFT(RIGHT(I20,LEN(I20)-2),1)=".",RIGHT(I20,LEN(I20)-3),RIGHT(I20,LEN(I20)-2))</f>
       </c>
       <c r="U20" s="5" t="str">
-        <f>RIGHT(G20,LEN(G20)-2)</f>
+        <f>IF(LEFT(RIGHT(G20,LEN(G20)-2),1)=".",RIGHT(G20,LEN(G20)-3),RIGHT(G20,LEN(G20)-2))</f>
       </c>
       <c r="V20" s="5" t="str">
-        <f>RIGHT(J20,LEN(J20)-2)</f>
+        <f>IF(LEFT(RIGHT(J20,LEN(J20)-2),1)=".",RIGHT(J20,LEN(J20)-3),RIGHT(J20,LEN(J20)-2))</f>
       </c>
       <c r="W20" s="5" t="str">
-        <f>RIGHT(H20,LEN(H20)-2)</f>
+        <f>IF(LEFT(RIGHT(H20,LEN(H20)-2),1)=".",RIGHT(H20,LEN(H20)-3),RIGHT(H20,LEN(H20)-2))</f>
       </c>
       <c r="X20" s="5" t="str">
         <f>INT(LEFT(R20,1))</f>
@@ -6724,31 +6757,31 @@
         <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD20" s="5" t="str">
         <f>INT(LEFT(AU20,1))</f>
@@ -6912,70 +6945,70 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K21" s="5" t="str">
-        <f>INT(LEFT(E21,1))</f>
+        <f>INT(LEFT(E21,2))</f>
       </c>
       <c r="L21" s="5" t="str">
-        <f>INT(LEFT(F21,1))</f>
+        <f>INT(LEFT(F21,2))</f>
       </c>
       <c r="M21" s="5" t="str">
-        <f>INT(LEFT(I21,1))</f>
+        <f>INT(LEFT(I21,2))</f>
       </c>
       <c r="N21" s="5" t="str">
-        <f>INT(LEFT(G21,1))</f>
+        <f>INT(LEFT(G21,2))</f>
       </c>
       <c r="O21" s="5" t="str">
-        <f>INT(LEFT(J21,1))</f>
+        <f>INT(LEFT(J21,2))</f>
       </c>
       <c r="P21" s="5" t="str">
-        <f>INT(LEFT(H21,1))</f>
+        <f>INT(LEFT(H21,2))</f>
       </c>
       <c r="Q21" s="5" t="str">
-        <f>K21+L21+IF(M21&gt;M21,M21-O21,0)+IF(N21&gt;P21,N21-P21,0)</f>
+        <f>K21+L21+IF(M21&gt;O21,M21-O21,0)+IF(N21&gt;P21,N21-P21,0)</f>
       </c>
       <c r="R21" s="5" t="str">
-        <f>RIGHT(E21,LEN(E21)-2)</f>
+        <f>IF(LEFT(RIGHT(E21,LEN(E21)-2),1)=".",RIGHT(E21,LEN(E21)-3),RIGHT(E21,LEN(E21)-2))</f>
       </c>
       <c r="S21" s="5" t="str">
-        <f>RIGHT(F21,LEN(F21)-2)</f>
+        <f>IF(LEFT(RIGHT(F21,LEN(F21)-2),1)=".",RIGHT(F21,LEN(F21)-3),RIGHT(F21,LEN(F21)-2))</f>
       </c>
       <c r="T21" s="5" t="str">
-        <f>RIGHT(I21,LEN(I21)-2)</f>
+        <f>IF(LEFT(RIGHT(I21,LEN(I21)-2),1)=".",RIGHT(I21,LEN(I21)-3),RIGHT(I21,LEN(I21)-2))</f>
       </c>
       <c r="U21" s="5" t="str">
-        <f>RIGHT(G21,LEN(G21)-2)</f>
+        <f>IF(LEFT(RIGHT(G21,LEN(G21)-2),1)=".",RIGHT(G21,LEN(G21)-3),RIGHT(G21,LEN(G21)-2))</f>
       </c>
       <c r="V21" s="5" t="str">
-        <f>RIGHT(J21,LEN(J21)-2)</f>
+        <f>IF(LEFT(RIGHT(J21,LEN(J21)-2),1)=".",RIGHT(J21,LEN(J21)-3),RIGHT(J21,LEN(J21)-2))</f>
       </c>
       <c r="W21" s="5" t="str">
-        <f>RIGHT(H21,LEN(H21)-2)</f>
+        <f>IF(LEFT(RIGHT(H21,LEN(H21)-2),1)=".",RIGHT(H21,LEN(H21)-3),RIGHT(H21,LEN(H21)-2))</f>
       </c>
       <c r="X21" s="5" t="str">
         <f>INT(LEFT(R21,1))</f>
@@ -7047,31 +7080,31 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW21" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY21" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA21" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC21" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD21" s="5" t="str">
         <f>INT(LEFT(AU21,1))</f>
@@ -7235,70 +7268,70 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="K22" s="5" t="str">
-        <f>INT(LEFT(E22,1))</f>
+        <f>INT(LEFT(E22,2))</f>
       </c>
       <c r="L22" s="5" t="str">
-        <f>INT(LEFT(F22,1))</f>
+        <f>INT(LEFT(F22,2))</f>
       </c>
       <c r="M22" s="5" t="str">
-        <f>INT(LEFT(I22,1))</f>
+        <f>INT(LEFT(I22,2))</f>
       </c>
       <c r="N22" s="5" t="str">
-        <f>INT(LEFT(G22,1))</f>
+        <f>INT(LEFT(G22,2))</f>
       </c>
       <c r="O22" s="5" t="str">
-        <f>INT(LEFT(J22,1))</f>
+        <f>INT(LEFT(J22,2))</f>
       </c>
       <c r="P22" s="5" t="str">
-        <f>INT(LEFT(H22,1))</f>
+        <f>INT(LEFT(H22,2))</f>
       </c>
       <c r="Q22" s="5" t="str">
-        <f>K22+L22+IF(M22&gt;M22,M22-O22,0)+IF(N22&gt;P22,N22-P22,0)</f>
+        <f>K22+L22+IF(M22&gt;O22,M22-O22,0)+IF(N22&gt;P22,N22-P22,0)</f>
       </c>
       <c r="R22" s="5" t="str">
-        <f>RIGHT(E22,LEN(E22)-2)</f>
+        <f>IF(LEFT(RIGHT(E22,LEN(E22)-2),1)=".",RIGHT(E22,LEN(E22)-3),RIGHT(E22,LEN(E22)-2))</f>
       </c>
       <c r="S22" s="5" t="str">
-        <f>RIGHT(F22,LEN(F22)-2)</f>
+        <f>IF(LEFT(RIGHT(F22,LEN(F22)-2),1)=".",RIGHT(F22,LEN(F22)-3),RIGHT(F22,LEN(F22)-2))</f>
       </c>
       <c r="T22" s="5" t="str">
-        <f>RIGHT(I22,LEN(I22)-2)</f>
+        <f>IF(LEFT(RIGHT(I22,LEN(I22)-2),1)=".",RIGHT(I22,LEN(I22)-3),RIGHT(I22,LEN(I22)-2))</f>
       </c>
       <c r="U22" s="5" t="str">
-        <f>RIGHT(G22,LEN(G22)-2)</f>
+        <f>IF(LEFT(RIGHT(G22,LEN(G22)-2),1)=".",RIGHT(G22,LEN(G22)-3),RIGHT(G22,LEN(G22)-2))</f>
       </c>
       <c r="V22" s="5" t="str">
-        <f>RIGHT(J22,LEN(J22)-2)</f>
+        <f>IF(LEFT(RIGHT(J22,LEN(J22)-2),1)=".",RIGHT(J22,LEN(J22)-3),RIGHT(J22,LEN(J22)-2))</f>
       </c>
       <c r="W22" s="5" t="str">
-        <f>RIGHT(H22,LEN(H22)-2)</f>
+        <f>IF(LEFT(RIGHT(H22,LEN(H22)-2),1)=".",RIGHT(H22,LEN(H22)-3),RIGHT(H22,LEN(H22)-2))</f>
       </c>
       <c r="X22" s="5" t="str">
         <f>INT(LEFT(R22,1))</f>
@@ -7370,31 +7403,31 @@
         <f>FLOOR(AS22/8,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW22" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA22" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC22" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD22" s="5" t="str">
         <f>INT(LEFT(AU22,1))</f>
@@ -7558,70 +7591,70 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f>INT(LEFT(E23,1))</f>
+        <f>INT(LEFT(E23,2))</f>
       </c>
       <c r="L23" s="5" t="str">
-        <f>INT(LEFT(F23,1))</f>
+        <f>INT(LEFT(F23,2))</f>
       </c>
       <c r="M23" s="5" t="str">
-        <f>INT(LEFT(I23,1))</f>
+        <f>INT(LEFT(I23,2))</f>
       </c>
       <c r="N23" s="5" t="str">
-        <f>INT(LEFT(G23,1))</f>
+        <f>INT(LEFT(G23,2))</f>
       </c>
       <c r="O23" s="5" t="str">
-        <f>INT(LEFT(J23,1))</f>
+        <f>INT(LEFT(J23,2))</f>
       </c>
       <c r="P23" s="5" t="str">
-        <f>INT(LEFT(H23,1))</f>
+        <f>INT(LEFT(H23,2))</f>
       </c>
       <c r="Q23" s="5" t="str">
-        <f>K23+L23+IF(M23&gt;M23,M23-O23,0)+IF(N23&gt;P23,N23-P23,0)</f>
+        <f>K23+L23+IF(M23&gt;O23,M23-O23,0)+IF(N23&gt;P23,N23-P23,0)</f>
       </c>
       <c r="R23" s="5" t="str">
-        <f>RIGHT(E23,LEN(E23)-2)</f>
+        <f>IF(LEFT(RIGHT(E23,LEN(E23)-2),1)=".",RIGHT(E23,LEN(E23)-3),RIGHT(E23,LEN(E23)-2))</f>
       </c>
       <c r="S23" s="5" t="str">
-        <f>RIGHT(F23,LEN(F23)-2)</f>
+        <f>IF(LEFT(RIGHT(F23,LEN(F23)-2),1)=".",RIGHT(F23,LEN(F23)-3),RIGHT(F23,LEN(F23)-2))</f>
       </c>
       <c r="T23" s="5" t="str">
-        <f>RIGHT(I23,LEN(I23)-2)</f>
+        <f>IF(LEFT(RIGHT(I23,LEN(I23)-2),1)=".",RIGHT(I23,LEN(I23)-3),RIGHT(I23,LEN(I23)-2))</f>
       </c>
       <c r="U23" s="5" t="str">
-        <f>RIGHT(G23,LEN(G23)-2)</f>
+        <f>IF(LEFT(RIGHT(G23,LEN(G23)-2),1)=".",RIGHT(G23,LEN(G23)-3),RIGHT(G23,LEN(G23)-2))</f>
       </c>
       <c r="V23" s="5" t="str">
-        <f>RIGHT(J23,LEN(J23)-2)</f>
+        <f>IF(LEFT(RIGHT(J23,LEN(J23)-2),1)=".",RIGHT(J23,LEN(J23)-3),RIGHT(J23,LEN(J23)-2))</f>
       </c>
       <c r="W23" s="5" t="str">
-        <f>RIGHT(H23,LEN(H23)-2)</f>
+        <f>IF(LEFT(RIGHT(H23,LEN(H23)-2),1)=".",RIGHT(H23,LEN(H23)-3),RIGHT(H23,LEN(H23)-2))</f>
       </c>
       <c r="X23" s="5" t="str">
         <f>INT(LEFT(R23,1))</f>
@@ -7693,31 +7726,31 @@
         <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA23" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC23" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD23" s="5" t="str">
         <f>INT(LEFT(AU23,1))</f>
@@ -7881,7 +7914,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>77</v>
@@ -7890,61 +7923,61 @@
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="K24" s="5" t="str">
-        <f>INT(LEFT(E24,1))</f>
+        <f>INT(LEFT(E24,2))</f>
       </c>
       <c r="L24" s="5" t="str">
-        <f>INT(LEFT(F24,1))</f>
+        <f>INT(LEFT(F24,2))</f>
       </c>
       <c r="M24" s="5" t="str">
-        <f>INT(LEFT(I24,1))</f>
+        <f>INT(LEFT(I24,2))</f>
       </c>
       <c r="N24" s="5" t="str">
-        <f>INT(LEFT(G24,1))</f>
+        <f>INT(LEFT(G24,2))</f>
       </c>
       <c r="O24" s="5" t="str">
-        <f>INT(LEFT(J24,1))</f>
+        <f>INT(LEFT(J24,2))</f>
       </c>
       <c r="P24" s="5" t="str">
-        <f>INT(LEFT(H24,1))</f>
+        <f>INT(LEFT(H24,2))</f>
       </c>
       <c r="Q24" s="5" t="str">
-        <f>K24+L24+IF(M24&gt;M24,M24-O24,0)+IF(N24&gt;P24,N24-P24,0)</f>
+        <f>K24+L24+IF(M24&gt;O24,M24-O24,0)+IF(N24&gt;P24,N24-P24,0)</f>
       </c>
       <c r="R24" s="5" t="str">
-        <f>RIGHT(E24,LEN(E24)-2)</f>
+        <f>IF(LEFT(RIGHT(E24,LEN(E24)-2),1)=".",RIGHT(E24,LEN(E24)-3),RIGHT(E24,LEN(E24)-2))</f>
       </c>
       <c r="S24" s="5" t="str">
-        <f>RIGHT(F24,LEN(F24)-2)</f>
+        <f>IF(LEFT(RIGHT(F24,LEN(F24)-2),1)=".",RIGHT(F24,LEN(F24)-3),RIGHT(F24,LEN(F24)-2))</f>
       </c>
       <c r="T24" s="5" t="str">
-        <f>RIGHT(I24,LEN(I24)-2)</f>
+        <f>IF(LEFT(RIGHT(I24,LEN(I24)-2),1)=".",RIGHT(I24,LEN(I24)-3),RIGHT(I24,LEN(I24)-2))</f>
       </c>
       <c r="U24" s="5" t="str">
-        <f>RIGHT(G24,LEN(G24)-2)</f>
+        <f>IF(LEFT(RIGHT(G24,LEN(G24)-2),1)=".",RIGHT(G24,LEN(G24)-3),RIGHT(G24,LEN(G24)-2))</f>
       </c>
       <c r="V24" s="5" t="str">
-        <f>RIGHT(J24,LEN(J24)-2)</f>
+        <f>IF(LEFT(RIGHT(J24,LEN(J24)-2),1)=".",RIGHT(J24,LEN(J24)-3),RIGHT(J24,LEN(J24)-2))</f>
       </c>
       <c r="W24" s="5" t="str">
-        <f>RIGHT(H24,LEN(H24)-2)</f>
+        <f>IF(LEFT(RIGHT(H24,LEN(H24)-2),1)=".",RIGHT(H24,LEN(H24)-3),RIGHT(H24,LEN(H24)-2))</f>
       </c>
       <c r="X24" s="5" t="str">
         <f>INT(LEFT(R24,1))</f>
@@ -8016,31 +8049,31 @@
         <f>FLOOR(AS24/8,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1))*60</f>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW24" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY24" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BA24" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC24" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD24" s="5" t="str">
         <f>INT(LEFT(AU24,1))</f>
@@ -8204,70 +8237,70 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f>INT(LEFT(E25,1))</f>
+        <f>INT(LEFT(E25,2))</f>
       </c>
       <c r="L25" s="5" t="str">
-        <f>INT(LEFT(F25,1))</f>
+        <f>INT(LEFT(F25,2))</f>
       </c>
       <c r="M25" s="5" t="str">
-        <f>INT(LEFT(I25,1))</f>
+        <f>INT(LEFT(I25,2))</f>
       </c>
       <c r="N25" s="5" t="str">
-        <f>INT(LEFT(G25,1))</f>
+        <f>INT(LEFT(G25,2))</f>
       </c>
       <c r="O25" s="5" t="str">
-        <f>INT(LEFT(J25,1))</f>
+        <f>INT(LEFT(J25,2))</f>
       </c>
       <c r="P25" s="5" t="str">
-        <f>INT(LEFT(H25,1))</f>
+        <f>INT(LEFT(H25,2))</f>
       </c>
       <c r="Q25" s="5" t="str">
-        <f>K25+L25+IF(M25&gt;M25,M25-O25,0)+IF(N25&gt;P25,N25-P25,0)</f>
+        <f>K25+L25+IF(M25&gt;O25,M25-O25,0)+IF(N25&gt;P25,N25-P25,0)</f>
       </c>
       <c r="R25" s="5" t="str">
-        <f>RIGHT(E25,LEN(E25)-2)</f>
+        <f>IF(LEFT(RIGHT(E25,LEN(E25)-2),1)=".",RIGHT(E25,LEN(E25)-3),RIGHT(E25,LEN(E25)-2))</f>
       </c>
       <c r="S25" s="5" t="str">
-        <f>RIGHT(F25,LEN(F25)-2)</f>
+        <f>IF(LEFT(RIGHT(F25,LEN(F25)-2),1)=".",RIGHT(F25,LEN(F25)-3),RIGHT(F25,LEN(F25)-2))</f>
       </c>
       <c r="T25" s="5" t="str">
-        <f>RIGHT(I25,LEN(I25)-2)</f>
+        <f>IF(LEFT(RIGHT(I25,LEN(I25)-2),1)=".",RIGHT(I25,LEN(I25)-3),RIGHT(I25,LEN(I25)-2))</f>
       </c>
       <c r="U25" s="5" t="str">
-        <f>RIGHT(G25,LEN(G25)-2)</f>
+        <f>IF(LEFT(RIGHT(G25,LEN(G25)-2),1)=".",RIGHT(G25,LEN(G25)-3),RIGHT(G25,LEN(G25)-2))</f>
       </c>
       <c r="V25" s="5" t="str">
-        <f>RIGHT(J25,LEN(J25)-2)</f>
+        <f>IF(LEFT(RIGHT(J25,LEN(J25)-2),1)=".",RIGHT(J25,LEN(J25)-3),RIGHT(J25,LEN(J25)-2))</f>
       </c>
       <c r="W25" s="5" t="str">
-        <f>RIGHT(H25,LEN(H25)-2)</f>
+        <f>IF(LEFT(RIGHT(H25,LEN(H25)-2),1)=".",RIGHT(H25,LEN(H25)-3),RIGHT(H25,LEN(H25)-2))</f>
       </c>
       <c r="X25" s="5" t="str">
         <f>INT(LEFT(R25,1))</f>
@@ -8339,31 +8372,31 @@
         <f>FLOOR(AS25/8,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW25" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY25" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA25" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC25" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD25" s="5" t="str">
         <f>INT(LEFT(AU25,1))</f>
@@ -8527,7 +8560,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>77</v>
@@ -8536,61 +8569,61 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f>INT(LEFT(E26,1))</f>
+        <f>INT(LEFT(E26,2))</f>
       </c>
       <c r="L26" s="5" t="str">
-        <f>INT(LEFT(F26,1))</f>
+        <f>INT(LEFT(F26,2))</f>
       </c>
       <c r="M26" s="5" t="str">
-        <f>INT(LEFT(I26,1))</f>
+        <f>INT(LEFT(I26,2))</f>
       </c>
       <c r="N26" s="5" t="str">
-        <f>INT(LEFT(G26,1))</f>
+        <f>INT(LEFT(G26,2))</f>
       </c>
       <c r="O26" s="5" t="str">
-        <f>INT(LEFT(J26,1))</f>
+        <f>INT(LEFT(J26,2))</f>
       </c>
       <c r="P26" s="5" t="str">
-        <f>INT(LEFT(H26,1))</f>
+        <f>INT(LEFT(H26,2))</f>
       </c>
       <c r="Q26" s="5" t="str">
-        <f>K26+L26+IF(M26&gt;M26,M26-O26,0)+IF(N26&gt;P26,N26-P26,0)</f>
+        <f>K26+L26+IF(M26&gt;O26,M26-O26,0)+IF(N26&gt;P26,N26-P26,0)</f>
       </c>
       <c r="R26" s="5" t="str">
-        <f>RIGHT(E26,LEN(E26)-2)</f>
+        <f>IF(LEFT(RIGHT(E26,LEN(E26)-2),1)=".",RIGHT(E26,LEN(E26)-3),RIGHT(E26,LEN(E26)-2))</f>
       </c>
       <c r="S26" s="5" t="str">
-        <f>RIGHT(F26,LEN(F26)-2)</f>
+        <f>IF(LEFT(RIGHT(F26,LEN(F26)-2),1)=".",RIGHT(F26,LEN(F26)-3),RIGHT(F26,LEN(F26)-2))</f>
       </c>
       <c r="T26" s="5" t="str">
-        <f>RIGHT(I26,LEN(I26)-2)</f>
+        <f>IF(LEFT(RIGHT(I26,LEN(I26)-2),1)=".",RIGHT(I26,LEN(I26)-3),RIGHT(I26,LEN(I26)-2))</f>
       </c>
       <c r="U26" s="5" t="str">
-        <f>RIGHT(G26,LEN(G26)-2)</f>
+        <f>IF(LEFT(RIGHT(G26,LEN(G26)-2),1)=".",RIGHT(G26,LEN(G26)-3),RIGHT(G26,LEN(G26)-2))</f>
       </c>
       <c r="V26" s="5" t="str">
-        <f>RIGHT(J26,LEN(J26)-2)</f>
+        <f>IF(LEFT(RIGHT(J26,LEN(J26)-2),1)=".",RIGHT(J26,LEN(J26)-3),RIGHT(J26,LEN(J26)-2))</f>
       </c>
       <c r="W26" s="5" t="str">
-        <f>RIGHT(H26,LEN(H26)-2)</f>
+        <f>IF(LEFT(RIGHT(H26,LEN(H26)-2),1)=".",RIGHT(H26,LEN(H26)-3),RIGHT(H26,LEN(H26)-2))</f>
       </c>
       <c r="X26" s="5" t="str">
         <f>INT(LEFT(R26,1))</f>
@@ -8662,31 +8695,31 @@
         <f>FLOOR(AS26/8,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1))*60</f>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW26" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY26" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC26" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD26" s="5" t="str">
         <f>INT(LEFT(AU26,1))</f>
@@ -8850,7 +8883,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>77</v>
@@ -8859,61 +8892,61 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f>INT(LEFT(E27,1))</f>
+        <f>INT(LEFT(E27,2))</f>
       </c>
       <c r="L27" s="5" t="str">
-        <f>INT(LEFT(F27,1))</f>
+        <f>INT(LEFT(F27,2))</f>
       </c>
       <c r="M27" s="5" t="str">
-        <f>INT(LEFT(I27,1))</f>
+        <f>INT(LEFT(I27,2))</f>
       </c>
       <c r="N27" s="5" t="str">
-        <f>INT(LEFT(G27,1))</f>
+        <f>INT(LEFT(G27,2))</f>
       </c>
       <c r="O27" s="5" t="str">
-        <f>INT(LEFT(J27,1))</f>
+        <f>INT(LEFT(J27,2))</f>
       </c>
       <c r="P27" s="5" t="str">
-        <f>INT(LEFT(H27,1))</f>
+        <f>INT(LEFT(H27,2))</f>
       </c>
       <c r="Q27" s="5" t="str">
-        <f>K27+L27+IF(M27&gt;M27,M27-O27,0)+IF(N27&gt;P27,N27-P27,0)</f>
+        <f>K27+L27+IF(M27&gt;O27,M27-O27,0)+IF(N27&gt;P27,N27-P27,0)</f>
       </c>
       <c r="R27" s="5" t="str">
-        <f>RIGHT(E27,LEN(E27)-2)</f>
+        <f>IF(LEFT(RIGHT(E27,LEN(E27)-2),1)=".",RIGHT(E27,LEN(E27)-3),RIGHT(E27,LEN(E27)-2))</f>
       </c>
       <c r="S27" s="5" t="str">
-        <f>RIGHT(F27,LEN(F27)-2)</f>
+        <f>IF(LEFT(RIGHT(F27,LEN(F27)-2),1)=".",RIGHT(F27,LEN(F27)-3),RIGHT(F27,LEN(F27)-2))</f>
       </c>
       <c r="T27" s="5" t="str">
-        <f>RIGHT(I27,LEN(I27)-2)</f>
+        <f>IF(LEFT(RIGHT(I27,LEN(I27)-2),1)=".",RIGHT(I27,LEN(I27)-3),RIGHT(I27,LEN(I27)-2))</f>
       </c>
       <c r="U27" s="5" t="str">
-        <f>RIGHT(G27,LEN(G27)-2)</f>
+        <f>IF(LEFT(RIGHT(G27,LEN(G27)-2),1)=".",RIGHT(G27,LEN(G27)-3),RIGHT(G27,LEN(G27)-2))</f>
       </c>
       <c r="V27" s="5" t="str">
-        <f>RIGHT(J27,LEN(J27)-2)</f>
+        <f>IF(LEFT(RIGHT(J27,LEN(J27)-2),1)=".",RIGHT(J27,LEN(J27)-3),RIGHT(J27,LEN(J27)-2))</f>
       </c>
       <c r="W27" s="5" t="str">
-        <f>RIGHT(H27,LEN(H27)-2)</f>
+        <f>IF(LEFT(RIGHT(H27,LEN(H27)-2),1)=".",RIGHT(H27,LEN(H27)-3),RIGHT(H27,LEN(H27)-2))</f>
       </c>
       <c r="X27" s="5" t="str">
         <f>INT(LEFT(R27,1))</f>
@@ -8985,31 +9018,31 @@
         <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC27" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD27" s="5" t="str">
         <f>INT(LEFT(AU27,1))</f>
@@ -9173,70 +9206,70 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f>INT(LEFT(E28,1))</f>
+        <f>INT(LEFT(E28,2))</f>
       </c>
       <c r="L28" s="5" t="str">
-        <f>INT(LEFT(F28,1))</f>
+        <f>INT(LEFT(F28,2))</f>
       </c>
       <c r="M28" s="5" t="str">
-        <f>INT(LEFT(I28,1))</f>
+        <f>INT(LEFT(I28,2))</f>
       </c>
       <c r="N28" s="5" t="str">
-        <f>INT(LEFT(G28,1))</f>
+        <f>INT(LEFT(G28,2))</f>
       </c>
       <c r="O28" s="5" t="str">
-        <f>INT(LEFT(J28,1))</f>
+        <f>INT(LEFT(J28,2))</f>
       </c>
       <c r="P28" s="5" t="str">
-        <f>INT(LEFT(H28,1))</f>
+        <f>INT(LEFT(H28,2))</f>
       </c>
       <c r="Q28" s="5" t="str">
-        <f>K28+L28+IF(M28&gt;M28,M28-O28,0)+IF(N28&gt;P28,N28-P28,0)</f>
+        <f>K28+L28+IF(M28&gt;O28,M28-O28,0)+IF(N28&gt;P28,N28-P28,0)</f>
       </c>
       <c r="R28" s="5" t="str">
-        <f>RIGHT(E28,LEN(E28)-2)</f>
+        <f>IF(LEFT(RIGHT(E28,LEN(E28)-2),1)=".",RIGHT(E28,LEN(E28)-3),RIGHT(E28,LEN(E28)-2))</f>
       </c>
       <c r="S28" s="5" t="str">
-        <f>RIGHT(F28,LEN(F28)-2)</f>
+        <f>IF(LEFT(RIGHT(F28,LEN(F28)-2),1)=".",RIGHT(F28,LEN(F28)-3),RIGHT(F28,LEN(F28)-2))</f>
       </c>
       <c r="T28" s="5" t="str">
-        <f>RIGHT(I28,LEN(I28)-2)</f>
+        <f>IF(LEFT(RIGHT(I28,LEN(I28)-2),1)=".",RIGHT(I28,LEN(I28)-3),RIGHT(I28,LEN(I28)-2))</f>
       </c>
       <c r="U28" s="5" t="str">
-        <f>RIGHT(G28,LEN(G28)-2)</f>
+        <f>IF(LEFT(RIGHT(G28,LEN(G28)-2),1)=".",RIGHT(G28,LEN(G28)-3),RIGHT(G28,LEN(G28)-2))</f>
       </c>
       <c r="V28" s="5" t="str">
-        <f>RIGHT(J28,LEN(J28)-2)</f>
+        <f>IF(LEFT(RIGHT(J28,LEN(J28)-2),1)=".",RIGHT(J28,LEN(J28)-3),RIGHT(J28,LEN(J28)-2))</f>
       </c>
       <c r="W28" s="5" t="str">
-        <f>RIGHT(H28,LEN(H28)-2)</f>
+        <f>IF(LEFT(RIGHT(H28,LEN(H28)-2),1)=".",RIGHT(H28,LEN(H28)-3),RIGHT(H28,LEN(H28)-2))</f>
       </c>
       <c r="X28" s="5" t="str">
         <f>INT(LEFT(R28,1))</f>
@@ -9308,31 +9341,31 @@
         <f>FLOOR(AS28/8,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AW28" s="5" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="AX28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY28" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA28" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC28" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD28" s="5" t="str">
         <f>INT(LEFT(AU28,1))</f>
@@ -9496,7 +9529,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>77</v>
@@ -9505,61 +9538,61 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K29" s="5" t="str">
-        <f>INT(LEFT(E29,1))</f>
+        <f>INT(LEFT(E29,2))</f>
       </c>
       <c r="L29" s="5" t="str">
-        <f>INT(LEFT(F29,1))</f>
+        <f>INT(LEFT(F29,2))</f>
       </c>
       <c r="M29" s="5" t="str">
-        <f>INT(LEFT(I29,1))</f>
+        <f>INT(LEFT(I29,2))</f>
       </c>
       <c r="N29" s="5" t="str">
-        <f>INT(LEFT(G29,1))</f>
+        <f>INT(LEFT(G29,2))</f>
       </c>
       <c r="O29" s="5" t="str">
-        <f>INT(LEFT(J29,1))</f>
+        <f>INT(LEFT(J29,2))</f>
       </c>
       <c r="P29" s="5" t="str">
-        <f>INT(LEFT(H29,1))</f>
+        <f>INT(LEFT(H29,2))</f>
       </c>
       <c r="Q29" s="5" t="str">
-        <f>K29+L29+IF(M29&gt;M29,M29-O29,0)+IF(N29&gt;P29,N29-P29,0)</f>
+        <f>K29+L29+IF(M29&gt;O29,M29-O29,0)+IF(N29&gt;P29,N29-P29,0)</f>
       </c>
       <c r="R29" s="5" t="str">
-        <f>RIGHT(E29,LEN(E29)-2)</f>
+        <f>IF(LEFT(RIGHT(E29,LEN(E29)-2),1)=".",RIGHT(E29,LEN(E29)-3),RIGHT(E29,LEN(E29)-2))</f>
       </c>
       <c r="S29" s="5" t="str">
-        <f>RIGHT(F29,LEN(F29)-2)</f>
+        <f>IF(LEFT(RIGHT(F29,LEN(F29)-2),1)=".",RIGHT(F29,LEN(F29)-3),RIGHT(F29,LEN(F29)-2))</f>
       </c>
       <c r="T29" s="5" t="str">
-        <f>RIGHT(I29,LEN(I29)-2)</f>
+        <f>IF(LEFT(RIGHT(I29,LEN(I29)-2),1)=".",RIGHT(I29,LEN(I29)-3),RIGHT(I29,LEN(I29)-2))</f>
       </c>
       <c r="U29" s="5" t="str">
-        <f>RIGHT(G29,LEN(G29)-2)</f>
+        <f>IF(LEFT(RIGHT(G29,LEN(G29)-2),1)=".",RIGHT(G29,LEN(G29)-3),RIGHT(G29,LEN(G29)-2))</f>
       </c>
       <c r="V29" s="5" t="str">
-        <f>RIGHT(J29,LEN(J29)-2)</f>
+        <f>IF(LEFT(RIGHT(J29,LEN(J29)-2),1)=".",RIGHT(J29,LEN(J29)-3),RIGHT(J29,LEN(J29)-2))</f>
       </c>
       <c r="W29" s="5" t="str">
-        <f>RIGHT(H29,LEN(H29)-2)</f>
+        <f>IF(LEFT(RIGHT(H29,LEN(H29)-2),1)=".",RIGHT(H29,LEN(H29)-3),RIGHT(H29,LEN(H29)-2))</f>
       </c>
       <c r="X29" s="5" t="str">
         <f>INT(LEFT(R29,1))</f>
@@ -9631,31 +9664,31 @@
         <f>FLOOR(AS29/8,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1))*60</f>
       </c>
       <c r="AU29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW29" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY29" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA29" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC29" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD29" s="5" t="str">
         <f>INT(LEFT(AU29,1))</f>
@@ -9819,70 +9852,70 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K30" s="5" t="str">
-        <f>INT(LEFT(E30,1))</f>
+        <f>INT(LEFT(E30,2))</f>
       </c>
       <c r="L30" s="5" t="str">
-        <f>INT(LEFT(F30,1))</f>
+        <f>INT(LEFT(F30,2))</f>
       </c>
       <c r="M30" s="5" t="str">
-        <f>INT(LEFT(I30,1))</f>
+        <f>INT(LEFT(I30,2))</f>
       </c>
       <c r="N30" s="5" t="str">
-        <f>INT(LEFT(G30,1))</f>
+        <f>INT(LEFT(G30,2))</f>
       </c>
       <c r="O30" s="5" t="str">
-        <f>INT(LEFT(J30,1))</f>
+        <f>INT(LEFT(J30,2))</f>
       </c>
       <c r="P30" s="5" t="str">
-        <f>INT(LEFT(H30,1))</f>
+        <f>INT(LEFT(H30,2))</f>
       </c>
       <c r="Q30" s="5" t="str">
-        <f>K30+L30+IF(M30&gt;M30,M30-O30,0)+IF(N30&gt;P30,N30-P30,0)</f>
+        <f>K30+L30+IF(M30&gt;O30,M30-O30,0)+IF(N30&gt;P30,N30-P30,0)</f>
       </c>
       <c r="R30" s="5" t="str">
-        <f>RIGHT(E30,LEN(E30)-2)</f>
+        <f>IF(LEFT(RIGHT(E30,LEN(E30)-2),1)=".",RIGHT(E30,LEN(E30)-3),RIGHT(E30,LEN(E30)-2))</f>
       </c>
       <c r="S30" s="5" t="str">
-        <f>RIGHT(F30,LEN(F30)-2)</f>
+        <f>IF(LEFT(RIGHT(F30,LEN(F30)-2),1)=".",RIGHT(F30,LEN(F30)-3),RIGHT(F30,LEN(F30)-2))</f>
       </c>
       <c r="T30" s="5" t="str">
-        <f>RIGHT(I30,LEN(I30)-2)</f>
+        <f>IF(LEFT(RIGHT(I30,LEN(I30)-2),1)=".",RIGHT(I30,LEN(I30)-3),RIGHT(I30,LEN(I30)-2))</f>
       </c>
       <c r="U30" s="5" t="str">
-        <f>RIGHT(G30,LEN(G30)-2)</f>
+        <f>IF(LEFT(RIGHT(G30,LEN(G30)-2),1)=".",RIGHT(G30,LEN(G30)-3),RIGHT(G30,LEN(G30)-2))</f>
       </c>
       <c r="V30" s="5" t="str">
-        <f>RIGHT(J30,LEN(J30)-2)</f>
+        <f>IF(LEFT(RIGHT(J30,LEN(J30)-2),1)=".",RIGHT(J30,LEN(J30)-3),RIGHT(J30,LEN(J30)-2))</f>
       </c>
       <c r="W30" s="5" t="str">
-        <f>RIGHT(H30,LEN(H30)-2)</f>
+        <f>IF(LEFT(RIGHT(H30,LEN(H30)-2),1)=".",RIGHT(H30,LEN(H30)-3),RIGHT(H30,LEN(H30)-2))</f>
       </c>
       <c r="X30" s="5" t="str">
         <f>INT(LEFT(R30,1))</f>
@@ -9954,31 +9987,31 @@
         <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW30" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA30" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC30" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -10142,70 +10175,70 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K31" s="5" t="str">
-        <f>INT(LEFT(E31,1))</f>
+        <f>INT(LEFT(E31,2))</f>
       </c>
       <c r="L31" s="5" t="str">
-        <f>INT(LEFT(F31,1))</f>
+        <f>INT(LEFT(F31,2))</f>
       </c>
       <c r="M31" s="5" t="str">
-        <f>INT(LEFT(I31,1))</f>
+        <f>INT(LEFT(I31,2))</f>
       </c>
       <c r="N31" s="5" t="str">
-        <f>INT(LEFT(G31,1))</f>
+        <f>INT(LEFT(G31,2))</f>
       </c>
       <c r="O31" s="5" t="str">
-        <f>INT(LEFT(J31,1))</f>
+        <f>INT(LEFT(J31,2))</f>
       </c>
       <c r="P31" s="5" t="str">
-        <f>INT(LEFT(H31,1))</f>
+        <f>INT(LEFT(H31,2))</f>
       </c>
       <c r="Q31" s="5" t="str">
-        <f>K31+L31+IF(M31&gt;M31,M31-O31,0)+IF(N31&gt;P31,N31-P31,0)</f>
+        <f>K31+L31+IF(M31&gt;O31,M31-O31,0)+IF(N31&gt;P31,N31-P31,0)</f>
       </c>
       <c r="R31" s="5" t="str">
-        <f>RIGHT(E31,LEN(E31)-2)</f>
+        <f>IF(LEFT(RIGHT(E31,LEN(E31)-2),1)=".",RIGHT(E31,LEN(E31)-3),RIGHT(E31,LEN(E31)-2))</f>
       </c>
       <c r="S31" s="5" t="str">
-        <f>RIGHT(F31,LEN(F31)-2)</f>
+        <f>IF(LEFT(RIGHT(F31,LEN(F31)-2),1)=".",RIGHT(F31,LEN(F31)-3),RIGHT(F31,LEN(F31)-2))</f>
       </c>
       <c r="T31" s="5" t="str">
-        <f>RIGHT(I31,LEN(I31)-2)</f>
+        <f>IF(LEFT(RIGHT(I31,LEN(I31)-2),1)=".",RIGHT(I31,LEN(I31)-3),RIGHT(I31,LEN(I31)-2))</f>
       </c>
       <c r="U31" s="5" t="str">
-        <f>RIGHT(G31,LEN(G31)-2)</f>
+        <f>IF(LEFT(RIGHT(G31,LEN(G31)-2),1)=".",RIGHT(G31,LEN(G31)-3),RIGHT(G31,LEN(G31)-2))</f>
       </c>
       <c r="V31" s="5" t="str">
-        <f>RIGHT(J31,LEN(J31)-2)</f>
+        <f>IF(LEFT(RIGHT(J31,LEN(J31)-2),1)=".",RIGHT(J31,LEN(J31)-3),RIGHT(J31,LEN(J31)-2))</f>
       </c>
       <c r="W31" s="5" t="str">
-        <f>RIGHT(H31,LEN(H31)-2)</f>
+        <f>IF(LEFT(RIGHT(H31,LEN(H31)-2),1)=".",RIGHT(H31,LEN(H31)-3),RIGHT(H31,LEN(H31)-2))</f>
       </c>
       <c r="X31" s="5" t="str">
         <f>INT(LEFT(R31,1))</f>
@@ -10277,31 +10310,31 @@
         <f>FLOOR(AS31/8,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AW31" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY31" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ31" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BA31" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC31" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD31" s="5" t="str">
         <f>INT(LEFT(AU31,1))</f>
@@ -10465,7 +10498,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>77</v>
@@ -10474,61 +10507,61 @@
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K32" s="5" t="str">
-        <f>INT(LEFT(E32,1))</f>
+        <f>INT(LEFT(E32,2))</f>
       </c>
       <c r="L32" s="5" t="str">
-        <f>INT(LEFT(F32,1))</f>
+        <f>INT(LEFT(F32,2))</f>
       </c>
       <c r="M32" s="5" t="str">
-        <f>INT(LEFT(I32,1))</f>
+        <f>INT(LEFT(I32,2))</f>
       </c>
       <c r="N32" s="5" t="str">
-        <f>INT(LEFT(G32,1))</f>
+        <f>INT(LEFT(G32,2))</f>
       </c>
       <c r="O32" s="5" t="str">
-        <f>INT(LEFT(J32,1))</f>
+        <f>INT(LEFT(J32,2))</f>
       </c>
       <c r="P32" s="5" t="str">
-        <f>INT(LEFT(H32,1))</f>
+        <f>INT(LEFT(H32,2))</f>
       </c>
       <c r="Q32" s="5" t="str">
-        <f>K32+L32+IF(M32&gt;M32,M32-O32,0)+IF(N32&gt;P32,N32-P32,0)</f>
+        <f>K32+L32+IF(M32&gt;O32,M32-O32,0)+IF(N32&gt;P32,N32-P32,0)</f>
       </c>
       <c r="R32" s="5" t="str">
-        <f>RIGHT(E32,LEN(E32)-2)</f>
+        <f>IF(LEFT(RIGHT(E32,LEN(E32)-2),1)=".",RIGHT(E32,LEN(E32)-3),RIGHT(E32,LEN(E32)-2))</f>
       </c>
       <c r="S32" s="5" t="str">
-        <f>RIGHT(F32,LEN(F32)-2)</f>
+        <f>IF(LEFT(RIGHT(F32,LEN(F32)-2),1)=".",RIGHT(F32,LEN(F32)-3),RIGHT(F32,LEN(F32)-2))</f>
       </c>
       <c r="T32" s="5" t="str">
-        <f>RIGHT(I32,LEN(I32)-2)</f>
+        <f>IF(LEFT(RIGHT(I32,LEN(I32)-2),1)=".",RIGHT(I32,LEN(I32)-3),RIGHT(I32,LEN(I32)-2))</f>
       </c>
       <c r="U32" s="5" t="str">
-        <f>RIGHT(G32,LEN(G32)-2)</f>
+        <f>IF(LEFT(RIGHT(G32,LEN(G32)-2),1)=".",RIGHT(G32,LEN(G32)-3),RIGHT(G32,LEN(G32)-2))</f>
       </c>
       <c r="V32" s="5" t="str">
-        <f>RIGHT(J32,LEN(J32)-2)</f>
+        <f>IF(LEFT(RIGHT(J32,LEN(J32)-2),1)=".",RIGHT(J32,LEN(J32)-3),RIGHT(J32,LEN(J32)-2))</f>
       </c>
       <c r="W32" s="5" t="str">
-        <f>RIGHT(H32,LEN(H32)-2)</f>
+        <f>IF(LEFT(RIGHT(H32,LEN(H32)-2),1)=".",RIGHT(H32,LEN(H32)-3),RIGHT(H32,LEN(H32)-2))</f>
       </c>
       <c r="X32" s="5" t="str">
         <f>INT(LEFT(R32,1))</f>
@@ -10600,31 +10633,31 @@
         <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW32" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY32" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA32" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC32" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD32" s="5" t="str">
         <f>INT(LEFT(AU32,1))</f>
@@ -10788,70 +10821,70 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K33" s="5" t="str">
-        <f>INT(LEFT(E33,1))</f>
+        <f>INT(LEFT(E33,2))</f>
       </c>
       <c r="L33" s="5" t="str">
-        <f>INT(LEFT(F33,1))</f>
+        <f>INT(LEFT(F33,2))</f>
       </c>
       <c r="M33" s="5" t="str">
-        <f>INT(LEFT(I33,1))</f>
+        <f>INT(LEFT(I33,2))</f>
       </c>
       <c r="N33" s="5" t="str">
-        <f>INT(LEFT(G33,1))</f>
+        <f>INT(LEFT(G33,2))</f>
       </c>
       <c r="O33" s="5" t="str">
-        <f>INT(LEFT(J33,1))</f>
+        <f>INT(LEFT(J33,2))</f>
       </c>
       <c r="P33" s="5" t="str">
-        <f>INT(LEFT(H33,1))</f>
+        <f>INT(LEFT(H33,2))</f>
       </c>
       <c r="Q33" s="5" t="str">
-        <f>K33+L33+IF(M33&gt;M33,M33-O33,0)+IF(N33&gt;P33,N33-P33,0)</f>
+        <f>K33+L33+IF(M33&gt;O33,M33-O33,0)+IF(N33&gt;P33,N33-P33,0)</f>
       </c>
       <c r="R33" s="5" t="str">
-        <f>RIGHT(E33,LEN(E33)-2)</f>
+        <f>IF(LEFT(RIGHT(E33,LEN(E33)-2),1)=".",RIGHT(E33,LEN(E33)-3),RIGHT(E33,LEN(E33)-2))</f>
       </c>
       <c r="S33" s="5" t="str">
-        <f>RIGHT(F33,LEN(F33)-2)</f>
+        <f>IF(LEFT(RIGHT(F33,LEN(F33)-2),1)=".",RIGHT(F33,LEN(F33)-3),RIGHT(F33,LEN(F33)-2))</f>
       </c>
       <c r="T33" s="5" t="str">
-        <f>RIGHT(I33,LEN(I33)-2)</f>
+        <f>IF(LEFT(RIGHT(I33,LEN(I33)-2),1)=".",RIGHT(I33,LEN(I33)-3),RIGHT(I33,LEN(I33)-2))</f>
       </c>
       <c r="U33" s="5" t="str">
-        <f>RIGHT(G33,LEN(G33)-2)</f>
+        <f>IF(LEFT(RIGHT(G33,LEN(G33)-2),1)=".",RIGHT(G33,LEN(G33)-3),RIGHT(G33,LEN(G33)-2))</f>
       </c>
       <c r="V33" s="5" t="str">
-        <f>RIGHT(J33,LEN(J33)-2)</f>
+        <f>IF(LEFT(RIGHT(J33,LEN(J33)-2),1)=".",RIGHT(J33,LEN(J33)-3),RIGHT(J33,LEN(J33)-2))</f>
       </c>
       <c r="W33" s="5" t="str">
-        <f>RIGHT(H33,LEN(H33)-2)</f>
+        <f>IF(LEFT(RIGHT(H33,LEN(H33)-2),1)=".",RIGHT(H33,LEN(H33)-3),RIGHT(H33,LEN(H33)-2))</f>
       </c>
       <c r="X33" s="5" t="str">
         <f>INT(LEFT(R33,1))</f>
@@ -10923,31 +10956,31 @@
         <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AW33" s="5" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="AX33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY33" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA33" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC33" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD33" s="5" t="str">
         <f>INT(LEFT(AU33,1))</f>
@@ -11111,7 +11144,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>77</v>
@@ -11120,61 +11153,61 @@
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f>INT(LEFT(E34,1))</f>
+        <f>INT(LEFT(E34,2))</f>
       </c>
       <c r="L34" s="5" t="str">
-        <f>INT(LEFT(F34,1))</f>
+        <f>INT(LEFT(F34,2))</f>
       </c>
       <c r="M34" s="5" t="str">
-        <f>INT(LEFT(I34,1))</f>
+        <f>INT(LEFT(I34,2))</f>
       </c>
       <c r="N34" s="5" t="str">
-        <f>INT(LEFT(G34,1))</f>
+        <f>INT(LEFT(G34,2))</f>
       </c>
       <c r="O34" s="5" t="str">
-        <f>INT(LEFT(J34,1))</f>
+        <f>INT(LEFT(J34,2))</f>
       </c>
       <c r="P34" s="5" t="str">
-        <f>INT(LEFT(H34,1))</f>
+        <f>INT(LEFT(H34,2))</f>
       </c>
       <c r="Q34" s="5" t="str">
-        <f>K34+L34+IF(M34&gt;M34,M34-O34,0)+IF(N34&gt;P34,N34-P34,0)</f>
+        <f>K34+L34+IF(M34&gt;O34,M34-O34,0)+IF(N34&gt;P34,N34-P34,0)</f>
       </c>
       <c r="R34" s="5" t="str">
-        <f>RIGHT(E34,LEN(E34)-2)</f>
+        <f>IF(LEFT(RIGHT(E34,LEN(E34)-2),1)=".",RIGHT(E34,LEN(E34)-3),RIGHT(E34,LEN(E34)-2))</f>
       </c>
       <c r="S34" s="5" t="str">
-        <f>RIGHT(F34,LEN(F34)-2)</f>
+        <f>IF(LEFT(RIGHT(F34,LEN(F34)-2),1)=".",RIGHT(F34,LEN(F34)-3),RIGHT(F34,LEN(F34)-2))</f>
       </c>
       <c r="T34" s="5" t="str">
-        <f>RIGHT(I34,LEN(I34)-2)</f>
+        <f>IF(LEFT(RIGHT(I34,LEN(I34)-2),1)=".",RIGHT(I34,LEN(I34)-3),RIGHT(I34,LEN(I34)-2))</f>
       </c>
       <c r="U34" s="5" t="str">
-        <f>RIGHT(G34,LEN(G34)-2)</f>
+        <f>IF(LEFT(RIGHT(G34,LEN(G34)-2),1)=".",RIGHT(G34,LEN(G34)-3),RIGHT(G34,LEN(G34)-2))</f>
       </c>
       <c r="V34" s="5" t="str">
-        <f>RIGHT(J34,LEN(J34)-2)</f>
+        <f>IF(LEFT(RIGHT(J34,LEN(J34)-2),1)=".",RIGHT(J34,LEN(J34)-3),RIGHT(J34,LEN(J34)-2))</f>
       </c>
       <c r="W34" s="5" t="str">
-        <f>RIGHT(H34,LEN(H34)-2)</f>
+        <f>IF(LEFT(RIGHT(H34,LEN(H34)-2),1)=".",RIGHT(H34,LEN(H34)-3),RIGHT(H34,LEN(H34)-2))</f>
       </c>
       <c r="X34" s="5" t="str">
         <f>INT(LEFT(R34,1))</f>
@@ -11246,31 +11279,31 @@
         <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY34" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA34" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC34" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD34" s="5" t="str">
         <f>INT(LEFT(AU34,1))</f>
@@ -11434,70 +11467,70 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="5" t="str">
-        <f>INT(LEFT(E35,1))</f>
+        <f>INT(LEFT(E35,2))</f>
       </c>
       <c r="L35" s="5" t="str">
-        <f>INT(LEFT(F35,1))</f>
+        <f>INT(LEFT(F35,2))</f>
       </c>
       <c r="M35" s="5" t="str">
-        <f>INT(LEFT(I35,1))</f>
+        <f>INT(LEFT(I35,2))</f>
       </c>
       <c r="N35" s="5" t="str">
-        <f>INT(LEFT(G35,1))</f>
+        <f>INT(LEFT(G35,2))</f>
       </c>
       <c r="O35" s="5" t="str">
-        <f>INT(LEFT(J35,1))</f>
+        <f>INT(LEFT(J35,2))</f>
       </c>
       <c r="P35" s="5" t="str">
-        <f>INT(LEFT(H35,1))</f>
+        <f>INT(LEFT(H35,2))</f>
       </c>
       <c r="Q35" s="5" t="str">
-        <f>K35+L35+IF(M35&gt;M35,M35-O35,0)+IF(N35&gt;P35,N35-P35,0)</f>
+        <f>K35+L35+IF(M35&gt;O35,M35-O35,0)+IF(N35&gt;P35,N35-P35,0)</f>
       </c>
       <c r="R35" s="5" t="str">
-        <f>RIGHT(E35,LEN(E35)-2)</f>
+        <f>IF(LEFT(RIGHT(E35,LEN(E35)-2),1)=".",RIGHT(E35,LEN(E35)-3),RIGHT(E35,LEN(E35)-2))</f>
       </c>
       <c r="S35" s="5" t="str">
-        <f>RIGHT(F35,LEN(F35)-2)</f>
+        <f>IF(LEFT(RIGHT(F35,LEN(F35)-2),1)=".",RIGHT(F35,LEN(F35)-3),RIGHT(F35,LEN(F35)-2))</f>
       </c>
       <c r="T35" s="5" t="str">
-        <f>RIGHT(I35,LEN(I35)-2)</f>
+        <f>IF(LEFT(RIGHT(I35,LEN(I35)-2),1)=".",RIGHT(I35,LEN(I35)-3),RIGHT(I35,LEN(I35)-2))</f>
       </c>
       <c r="U35" s="5" t="str">
-        <f>RIGHT(G35,LEN(G35)-2)</f>
+        <f>IF(LEFT(RIGHT(G35,LEN(G35)-2),1)=".",RIGHT(G35,LEN(G35)-3),RIGHT(G35,LEN(G35)-2))</f>
       </c>
       <c r="V35" s="5" t="str">
-        <f>RIGHT(J35,LEN(J35)-2)</f>
+        <f>IF(LEFT(RIGHT(J35,LEN(J35)-2),1)=".",RIGHT(J35,LEN(J35)-3),RIGHT(J35,LEN(J35)-2))</f>
       </c>
       <c r="W35" s="5" t="str">
-        <f>RIGHT(H35,LEN(H35)-2)</f>
+        <f>IF(LEFT(RIGHT(H35,LEN(H35)-2),1)=".",RIGHT(H35,LEN(H35)-3),RIGHT(H35,LEN(H35)-2))</f>
       </c>
       <c r="X35" s="5" t="str">
         <f>INT(LEFT(R35,1))</f>
@@ -11569,31 +11602,31 @@
         <f>FLOOR(AS35/8,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1))*60</f>
       </c>
       <c r="AU35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW35" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY35" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA35" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC35" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD35" s="5" t="str">
         <f>INT(LEFT(AU35,1))</f>
@@ -11757,7 +11790,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>77</v>
@@ -11766,61 +11799,61 @@
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K36" s="5" t="str">
-        <f>INT(LEFT(E36,1))</f>
+        <f>INT(LEFT(E36,2))</f>
       </c>
       <c r="L36" s="5" t="str">
-        <f>INT(LEFT(F36,1))</f>
+        <f>INT(LEFT(F36,2))</f>
       </c>
       <c r="M36" s="5" t="str">
-        <f>INT(LEFT(I36,1))</f>
+        <f>INT(LEFT(I36,2))</f>
       </c>
       <c r="N36" s="5" t="str">
-        <f>INT(LEFT(G36,1))</f>
+        <f>INT(LEFT(G36,2))</f>
       </c>
       <c r="O36" s="5" t="str">
-        <f>INT(LEFT(J36,1))</f>
+        <f>INT(LEFT(J36,2))</f>
       </c>
       <c r="P36" s="5" t="str">
-        <f>INT(LEFT(H36,1))</f>
+        <f>INT(LEFT(H36,2))</f>
       </c>
       <c r="Q36" s="5" t="str">
-        <f>K36+L36+IF(M36&gt;M36,M36-O36,0)+IF(N36&gt;P36,N36-P36,0)</f>
+        <f>K36+L36+IF(M36&gt;O36,M36-O36,0)+IF(N36&gt;P36,N36-P36,0)</f>
       </c>
       <c r="R36" s="5" t="str">
-        <f>RIGHT(E36,LEN(E36)-2)</f>
+        <f>IF(LEFT(RIGHT(E36,LEN(E36)-2),1)=".",RIGHT(E36,LEN(E36)-3),RIGHT(E36,LEN(E36)-2))</f>
       </c>
       <c r="S36" s="5" t="str">
-        <f>RIGHT(F36,LEN(F36)-2)</f>
+        <f>IF(LEFT(RIGHT(F36,LEN(F36)-2),1)=".",RIGHT(F36,LEN(F36)-3),RIGHT(F36,LEN(F36)-2))</f>
       </c>
       <c r="T36" s="5" t="str">
-        <f>RIGHT(I36,LEN(I36)-2)</f>
+        <f>IF(LEFT(RIGHT(I36,LEN(I36)-2),1)=".",RIGHT(I36,LEN(I36)-3),RIGHT(I36,LEN(I36)-2))</f>
       </c>
       <c r="U36" s="5" t="str">
-        <f>RIGHT(G36,LEN(G36)-2)</f>
+        <f>IF(LEFT(RIGHT(G36,LEN(G36)-2),1)=".",RIGHT(G36,LEN(G36)-3),RIGHT(G36,LEN(G36)-2))</f>
       </c>
       <c r="V36" s="5" t="str">
-        <f>RIGHT(J36,LEN(J36)-2)</f>
+        <f>IF(LEFT(RIGHT(J36,LEN(J36)-2),1)=".",RIGHT(J36,LEN(J36)-3),RIGHT(J36,LEN(J36)-2))</f>
       </c>
       <c r="W36" s="5" t="str">
-        <f>RIGHT(H36,LEN(H36)-2)</f>
+        <f>IF(LEFT(RIGHT(H36,LEN(H36)-2),1)=".",RIGHT(H36,LEN(H36)-3),RIGHT(H36,LEN(H36)-2))</f>
       </c>
       <c r="X36" s="5" t="str">
         <f>INT(LEFT(R36,1))</f>
@@ -11892,31 +11925,31 @@
         <f>FLOOR(AS36/8,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW36" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY36" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA36" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC36" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD36" s="5" t="str">
         <f>INT(LEFT(AU36,1))</f>
@@ -12080,70 +12113,70 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f>INT(LEFT(E37,1))</f>
+        <f>INT(LEFT(E37,2))</f>
       </c>
       <c r="L37" s="5" t="str">
-        <f>INT(LEFT(F37,1))</f>
+        <f>INT(LEFT(F37,2))</f>
       </c>
       <c r="M37" s="5" t="str">
-        <f>INT(LEFT(I37,1))</f>
+        <f>INT(LEFT(I37,2))</f>
       </c>
       <c r="N37" s="5" t="str">
-        <f>INT(LEFT(G37,1))</f>
+        <f>INT(LEFT(G37,2))</f>
       </c>
       <c r="O37" s="5" t="str">
-        <f>INT(LEFT(J37,1))</f>
+        <f>INT(LEFT(J37,2))</f>
       </c>
       <c r="P37" s="5" t="str">
-        <f>INT(LEFT(H37,1))</f>
+        <f>INT(LEFT(H37,2))</f>
       </c>
       <c r="Q37" s="5" t="str">
-        <f>K37+L37+IF(M37&gt;M37,M37-O37,0)+IF(N37&gt;P37,N37-P37,0)</f>
+        <f>K37+L37+IF(M37&gt;O37,M37-O37,0)+IF(N37&gt;P37,N37-P37,0)</f>
       </c>
       <c r="R37" s="5" t="str">
-        <f>RIGHT(E37,LEN(E37)-2)</f>
+        <f>IF(LEFT(RIGHT(E37,LEN(E37)-2),1)=".",RIGHT(E37,LEN(E37)-3),RIGHT(E37,LEN(E37)-2))</f>
       </c>
       <c r="S37" s="5" t="str">
-        <f>RIGHT(F37,LEN(F37)-2)</f>
+        <f>IF(LEFT(RIGHT(F37,LEN(F37)-2),1)=".",RIGHT(F37,LEN(F37)-3),RIGHT(F37,LEN(F37)-2))</f>
       </c>
       <c r="T37" s="5" t="str">
-        <f>RIGHT(I37,LEN(I37)-2)</f>
+        <f>IF(LEFT(RIGHT(I37,LEN(I37)-2),1)=".",RIGHT(I37,LEN(I37)-3),RIGHT(I37,LEN(I37)-2))</f>
       </c>
       <c r="U37" s="5" t="str">
-        <f>RIGHT(G37,LEN(G37)-2)</f>
+        <f>IF(LEFT(RIGHT(G37,LEN(G37)-2),1)=".",RIGHT(G37,LEN(G37)-3),RIGHT(G37,LEN(G37)-2))</f>
       </c>
       <c r="V37" s="5" t="str">
-        <f>RIGHT(J37,LEN(J37)-2)</f>
+        <f>IF(LEFT(RIGHT(J37,LEN(J37)-2),1)=".",RIGHT(J37,LEN(J37)-3),RIGHT(J37,LEN(J37)-2))</f>
       </c>
       <c r="W37" s="5" t="str">
-        <f>RIGHT(H37,LEN(H37)-2)</f>
+        <f>IF(LEFT(RIGHT(H37,LEN(H37)-2),1)=".",RIGHT(H37,LEN(H37)-3),RIGHT(H37,LEN(H37)-2))</f>
       </c>
       <c r="X37" s="5" t="str">
         <f>INT(LEFT(R37,1))</f>
@@ -12215,31 +12248,31 @@
         <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW37" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY37" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA37" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC37" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD37" s="5" t="str">
         <f>INT(LEFT(AU37,1))</f>
@@ -12403,7 +12436,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>77</v>
@@ -12412,61 +12445,61 @@
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K38" s="5" t="str">
-        <f>INT(LEFT(E38,1))</f>
+        <f>INT(LEFT(E38,2))</f>
       </c>
       <c r="L38" s="5" t="str">
-        <f>INT(LEFT(F38,1))</f>
+        <f>INT(LEFT(F38,2))</f>
       </c>
       <c r="M38" s="5" t="str">
-        <f>INT(LEFT(I38,1))</f>
+        <f>INT(LEFT(I38,2))</f>
       </c>
       <c r="N38" s="5" t="str">
-        <f>INT(LEFT(G38,1))</f>
+        <f>INT(LEFT(G38,2))</f>
       </c>
       <c r="O38" s="5" t="str">
-        <f>INT(LEFT(J38,1))</f>
+        <f>INT(LEFT(J38,2))</f>
       </c>
       <c r="P38" s="5" t="str">
-        <f>INT(LEFT(H38,1))</f>
+        <f>INT(LEFT(H38,2))</f>
       </c>
       <c r="Q38" s="5" t="str">
-        <f>K38+L38+IF(M38&gt;M38,M38-O38,0)+IF(N38&gt;P38,N38-P38,0)</f>
+        <f>K38+L38+IF(M38&gt;O38,M38-O38,0)+IF(N38&gt;P38,N38-P38,0)</f>
       </c>
       <c r="R38" s="5" t="str">
-        <f>RIGHT(E38,LEN(E38)-2)</f>
+        <f>IF(LEFT(RIGHT(E38,LEN(E38)-2),1)=".",RIGHT(E38,LEN(E38)-3),RIGHT(E38,LEN(E38)-2))</f>
       </c>
       <c r="S38" s="5" t="str">
-        <f>RIGHT(F38,LEN(F38)-2)</f>
+        <f>IF(LEFT(RIGHT(F38,LEN(F38)-2),1)=".",RIGHT(F38,LEN(F38)-3),RIGHT(F38,LEN(F38)-2))</f>
       </c>
       <c r="T38" s="5" t="str">
-        <f>RIGHT(I38,LEN(I38)-2)</f>
+        <f>IF(LEFT(RIGHT(I38,LEN(I38)-2),1)=".",RIGHT(I38,LEN(I38)-3),RIGHT(I38,LEN(I38)-2))</f>
       </c>
       <c r="U38" s="5" t="str">
-        <f>RIGHT(G38,LEN(G38)-2)</f>
+        <f>IF(LEFT(RIGHT(G38,LEN(G38)-2),1)=".",RIGHT(G38,LEN(G38)-3),RIGHT(G38,LEN(G38)-2))</f>
       </c>
       <c r="V38" s="5" t="str">
-        <f>RIGHT(J38,LEN(J38)-2)</f>
+        <f>IF(LEFT(RIGHT(J38,LEN(J38)-2),1)=".",RIGHT(J38,LEN(J38)-3),RIGHT(J38,LEN(J38)-2))</f>
       </c>
       <c r="W38" s="5" t="str">
-        <f>RIGHT(H38,LEN(H38)-2)</f>
+        <f>IF(LEFT(RIGHT(H38,LEN(H38)-2),1)=".",RIGHT(H38,LEN(H38)-3),RIGHT(H38,LEN(H38)-2))</f>
       </c>
       <c r="X38" s="5" t="str">
         <f>INT(LEFT(R38,1))</f>
@@ -12538,31 +12571,31 @@
         <f>FLOOR(AS38/8,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD38" s="5" t="str">
         <f>INT(LEFT(AU38,1))</f>
@@ -12726,70 +12759,70 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K39" s="5" t="str">
-        <f>INT(LEFT(E39,1))</f>
+        <f>INT(LEFT(E39,2))</f>
       </c>
       <c r="L39" s="5" t="str">
-        <f>INT(LEFT(F39,1))</f>
+        <f>INT(LEFT(F39,2))</f>
       </c>
       <c r="M39" s="5" t="str">
-        <f>INT(LEFT(I39,1))</f>
+        <f>INT(LEFT(I39,2))</f>
       </c>
       <c r="N39" s="5" t="str">
-        <f>INT(LEFT(G39,1))</f>
+        <f>INT(LEFT(G39,2))</f>
       </c>
       <c r="O39" s="5" t="str">
-        <f>INT(LEFT(J39,1))</f>
+        <f>INT(LEFT(J39,2))</f>
       </c>
       <c r="P39" s="5" t="str">
-        <f>INT(LEFT(H39,1))</f>
+        <f>INT(LEFT(H39,2))</f>
       </c>
       <c r="Q39" s="5" t="str">
-        <f>K39+L39+IF(M39&gt;M39,M39-O39,0)+IF(N39&gt;P39,N39-P39,0)</f>
+        <f>K39+L39+IF(M39&gt;O39,M39-O39,0)+IF(N39&gt;P39,N39-P39,0)</f>
       </c>
       <c r="R39" s="5" t="str">
-        <f>RIGHT(E39,LEN(E39)-2)</f>
+        <f>IF(LEFT(RIGHT(E39,LEN(E39)-2),1)=".",RIGHT(E39,LEN(E39)-3),RIGHT(E39,LEN(E39)-2))</f>
       </c>
       <c r="S39" s="5" t="str">
-        <f>RIGHT(F39,LEN(F39)-2)</f>
+        <f>IF(LEFT(RIGHT(F39,LEN(F39)-2),1)=".",RIGHT(F39,LEN(F39)-3),RIGHT(F39,LEN(F39)-2))</f>
       </c>
       <c r="T39" s="5" t="str">
-        <f>RIGHT(I39,LEN(I39)-2)</f>
+        <f>IF(LEFT(RIGHT(I39,LEN(I39)-2),1)=".",RIGHT(I39,LEN(I39)-3),RIGHT(I39,LEN(I39)-2))</f>
       </c>
       <c r="U39" s="5" t="str">
-        <f>RIGHT(G39,LEN(G39)-2)</f>
+        <f>IF(LEFT(RIGHT(G39,LEN(G39)-2),1)=".",RIGHT(G39,LEN(G39)-3),RIGHT(G39,LEN(G39)-2))</f>
       </c>
       <c r="V39" s="5" t="str">
-        <f>RIGHT(J39,LEN(J39)-2)</f>
+        <f>IF(LEFT(RIGHT(J39,LEN(J39)-2),1)=".",RIGHT(J39,LEN(J39)-3),RIGHT(J39,LEN(J39)-2))</f>
       </c>
       <c r="W39" s="5" t="str">
-        <f>RIGHT(H39,LEN(H39)-2)</f>
+        <f>IF(LEFT(RIGHT(H39,LEN(H39)-2),1)=".",RIGHT(H39,LEN(H39)-3),RIGHT(H39,LEN(H39)-2))</f>
       </c>
       <c r="X39" s="5" t="str">
         <f>INT(LEFT(R39,1))</f>
@@ -12861,31 +12894,31 @@
         <f>FLOOR(AS39/8,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1))*60</f>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AW39" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY39" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ39" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="BB39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC39" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD39" s="5" t="str">
         <f>INT(LEFT(AU39,1))</f>
@@ -13049,70 +13082,70 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K40" s="5" t="str">
-        <f>INT(LEFT(E40,1))</f>
+        <f>INT(LEFT(E40,2))</f>
       </c>
       <c r="L40" s="5" t="str">
-        <f>INT(LEFT(F40,1))</f>
+        <f>INT(LEFT(F40,2))</f>
       </c>
       <c r="M40" s="5" t="str">
-        <f>INT(LEFT(I40,1))</f>
+        <f>INT(LEFT(I40,2))</f>
       </c>
       <c r="N40" s="5" t="str">
-        <f>INT(LEFT(G40,1))</f>
+        <f>INT(LEFT(G40,2))</f>
       </c>
       <c r="O40" s="5" t="str">
-        <f>INT(LEFT(J40,1))</f>
+        <f>INT(LEFT(J40,2))</f>
       </c>
       <c r="P40" s="5" t="str">
-        <f>INT(LEFT(H40,1))</f>
+        <f>INT(LEFT(H40,2))</f>
       </c>
       <c r="Q40" s="5" t="str">
-        <f>K40+L40+IF(M40&gt;M40,M40-O40,0)+IF(N40&gt;P40,N40-P40,0)</f>
+        <f>K40+L40+IF(M40&gt;O40,M40-O40,0)+IF(N40&gt;P40,N40-P40,0)</f>
       </c>
       <c r="R40" s="5" t="str">
-        <f>RIGHT(E40,LEN(E40)-2)</f>
+        <f>IF(LEFT(RIGHT(E40,LEN(E40)-2),1)=".",RIGHT(E40,LEN(E40)-3),RIGHT(E40,LEN(E40)-2))</f>
       </c>
       <c r="S40" s="5" t="str">
-        <f>RIGHT(F40,LEN(F40)-2)</f>
+        <f>IF(LEFT(RIGHT(F40,LEN(F40)-2),1)=".",RIGHT(F40,LEN(F40)-3),RIGHT(F40,LEN(F40)-2))</f>
       </c>
       <c r="T40" s="5" t="str">
-        <f>RIGHT(I40,LEN(I40)-2)</f>
+        <f>IF(LEFT(RIGHT(I40,LEN(I40)-2),1)=".",RIGHT(I40,LEN(I40)-3),RIGHT(I40,LEN(I40)-2))</f>
       </c>
       <c r="U40" s="5" t="str">
-        <f>RIGHT(G40,LEN(G40)-2)</f>
+        <f>IF(LEFT(RIGHT(G40,LEN(G40)-2),1)=".",RIGHT(G40,LEN(G40)-3),RIGHT(G40,LEN(G40)-2))</f>
       </c>
       <c r="V40" s="5" t="str">
-        <f>RIGHT(J40,LEN(J40)-2)</f>
+        <f>IF(LEFT(RIGHT(J40,LEN(J40)-2),1)=".",RIGHT(J40,LEN(J40)-3),RIGHT(J40,LEN(J40)-2))</f>
       </c>
       <c r="W40" s="5" t="str">
-        <f>RIGHT(H40,LEN(H40)-2)</f>
+        <f>IF(LEFT(RIGHT(H40,LEN(H40)-2),1)=".",RIGHT(H40,LEN(H40)-3),RIGHT(H40,LEN(H40)-2))</f>
       </c>
       <c r="X40" s="5" t="str">
         <f>INT(LEFT(R40,1))</f>
@@ -13184,31 +13217,31 @@
         <f>FLOOR(AS40/8,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX40" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ40" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB40" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD40" s="5" t="str">
         <f>INT(LEFT(AU40,1))</f>
@@ -13372,70 +13405,70 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="K41" s="5" t="str">
-        <f>INT(LEFT(E41,1))</f>
+        <f>INT(LEFT(E41,2))</f>
       </c>
       <c r="L41" s="5" t="str">
-        <f>INT(LEFT(F41,1))</f>
+        <f>INT(LEFT(F41,2))</f>
       </c>
       <c r="M41" s="5" t="str">
-        <f>INT(LEFT(I41,1))</f>
+        <f>INT(LEFT(I41,2))</f>
       </c>
       <c r="N41" s="5" t="str">
-        <f>INT(LEFT(G41,1))</f>
+        <f>INT(LEFT(G41,2))</f>
       </c>
       <c r="O41" s="5" t="str">
-        <f>INT(LEFT(J41,1))</f>
+        <f>INT(LEFT(J41,2))</f>
       </c>
       <c r="P41" s="5" t="str">
-        <f>INT(LEFT(H41,1))</f>
+        <f>INT(LEFT(H41,2))</f>
       </c>
       <c r="Q41" s="5" t="str">
-        <f>K41+L41+IF(M41&gt;M41,M41-O41,0)+IF(N41&gt;P41,N41-P41,0)</f>
+        <f>K41+L41+IF(M41&gt;O41,M41-O41,0)+IF(N41&gt;P41,N41-P41,0)</f>
       </c>
       <c r="R41" s="5" t="str">
-        <f>RIGHT(E41,LEN(E41)-2)</f>
+        <f>IF(LEFT(RIGHT(E41,LEN(E41)-2),1)=".",RIGHT(E41,LEN(E41)-3),RIGHT(E41,LEN(E41)-2))</f>
       </c>
       <c r="S41" s="5" t="str">
-        <f>RIGHT(F41,LEN(F41)-2)</f>
+        <f>IF(LEFT(RIGHT(F41,LEN(F41)-2),1)=".",RIGHT(F41,LEN(F41)-3),RIGHT(F41,LEN(F41)-2))</f>
       </c>
       <c r="T41" s="5" t="str">
-        <f>RIGHT(I41,LEN(I41)-2)</f>
+        <f>IF(LEFT(RIGHT(I41,LEN(I41)-2),1)=".",RIGHT(I41,LEN(I41)-3),RIGHT(I41,LEN(I41)-2))</f>
       </c>
       <c r="U41" s="5" t="str">
-        <f>RIGHT(G41,LEN(G41)-2)</f>
+        <f>IF(LEFT(RIGHT(G41,LEN(G41)-2),1)=".",RIGHT(G41,LEN(G41)-3),RIGHT(G41,LEN(G41)-2))</f>
       </c>
       <c r="V41" s="5" t="str">
-        <f>RIGHT(J41,LEN(J41)-2)</f>
+        <f>IF(LEFT(RIGHT(J41,LEN(J41)-2),1)=".",RIGHT(J41,LEN(J41)-3),RIGHT(J41,LEN(J41)-2))</f>
       </c>
       <c r="W41" s="5" t="str">
-        <f>RIGHT(H41,LEN(H41)-2)</f>
+        <f>IF(LEFT(RIGHT(H41,LEN(H41)-2),1)=".",RIGHT(H41,LEN(H41)-3),RIGHT(H41,LEN(H41)-2))</f>
       </c>
       <c r="X41" s="5" t="str">
         <f>INT(LEFT(R41,1))</f>
@@ -13507,31 +13540,31 @@
         <f>FLOOR(AS41/8,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1))*60</f>
       </c>
       <c r="AU41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW41" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY41" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA41" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD41" s="5" t="str">
         <f>INT(LEFT(AU41,1))</f>
@@ -13695,70 +13728,70 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K42" s="5" t="str">
-        <f>INT(LEFT(E42,1))</f>
+        <f>INT(LEFT(E42,2))</f>
       </c>
       <c r="L42" s="5" t="str">
-        <f>INT(LEFT(F42,1))</f>
+        <f>INT(LEFT(F42,2))</f>
       </c>
       <c r="M42" s="5" t="str">
-        <f>INT(LEFT(I42,1))</f>
+        <f>INT(LEFT(I42,2))</f>
       </c>
       <c r="N42" s="5" t="str">
-        <f>INT(LEFT(G42,1))</f>
+        <f>INT(LEFT(G42,2))</f>
       </c>
       <c r="O42" s="5" t="str">
-        <f>INT(LEFT(J42,1))</f>
+        <f>INT(LEFT(J42,2))</f>
       </c>
       <c r="P42" s="5" t="str">
-        <f>INT(LEFT(H42,1))</f>
+        <f>INT(LEFT(H42,2))</f>
       </c>
       <c r="Q42" s="5" t="str">
-        <f>K42+L42+IF(M42&gt;M42,M42-O42,0)+IF(N42&gt;P42,N42-P42,0)</f>
+        <f>K42+L42+IF(M42&gt;O42,M42-O42,0)+IF(N42&gt;P42,N42-P42,0)</f>
       </c>
       <c r="R42" s="5" t="str">
-        <f>RIGHT(E42,LEN(E42)-2)</f>
+        <f>IF(LEFT(RIGHT(E42,LEN(E42)-2),1)=".",RIGHT(E42,LEN(E42)-3),RIGHT(E42,LEN(E42)-2))</f>
       </c>
       <c r="S42" s="5" t="str">
-        <f>RIGHT(F42,LEN(F42)-2)</f>
+        <f>IF(LEFT(RIGHT(F42,LEN(F42)-2),1)=".",RIGHT(F42,LEN(F42)-3),RIGHT(F42,LEN(F42)-2))</f>
       </c>
       <c r="T42" s="5" t="str">
-        <f>RIGHT(I42,LEN(I42)-2)</f>
+        <f>IF(LEFT(RIGHT(I42,LEN(I42)-2),1)=".",RIGHT(I42,LEN(I42)-3),RIGHT(I42,LEN(I42)-2))</f>
       </c>
       <c r="U42" s="5" t="str">
-        <f>RIGHT(G42,LEN(G42)-2)</f>
+        <f>IF(LEFT(RIGHT(G42,LEN(G42)-2),1)=".",RIGHT(G42,LEN(G42)-3),RIGHT(G42,LEN(G42)-2))</f>
       </c>
       <c r="V42" s="5" t="str">
-        <f>RIGHT(J42,LEN(J42)-2)</f>
+        <f>IF(LEFT(RIGHT(J42,LEN(J42)-2),1)=".",RIGHT(J42,LEN(J42)-3),RIGHT(J42,LEN(J42)-2))</f>
       </c>
       <c r="W42" s="5" t="str">
-        <f>RIGHT(H42,LEN(H42)-2)</f>
+        <f>IF(LEFT(RIGHT(H42,LEN(H42)-2),1)=".",RIGHT(H42,LEN(H42)-3),RIGHT(H42,LEN(H42)-2))</f>
       </c>
       <c r="X42" s="5" t="str">
         <f>INT(LEFT(R42,1))</f>
@@ -13830,31 +13863,31 @@
         <f>FLOOR(AS42/8,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1))*60</f>
       </c>
       <c r="AU42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW42" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY42" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA42" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC42" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD42" s="5" t="str">
         <f>INT(LEFT(AU42,1))</f>
@@ -14018,7 +14051,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>77</v>
@@ -14027,61 +14060,61 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K43" s="5" t="str">
-        <f>INT(LEFT(E43,1))</f>
+        <f>INT(LEFT(E43,2))</f>
       </c>
       <c r="L43" s="5" t="str">
-        <f>INT(LEFT(F43,1))</f>
+        <f>INT(LEFT(F43,2))</f>
       </c>
       <c r="M43" s="5" t="str">
-        <f>INT(LEFT(I43,1))</f>
+        <f>INT(LEFT(I43,2))</f>
       </c>
       <c r="N43" s="5" t="str">
-        <f>INT(LEFT(G43,1))</f>
+        <f>INT(LEFT(G43,2))</f>
       </c>
       <c r="O43" s="5" t="str">
-        <f>INT(LEFT(J43,1))</f>
+        <f>INT(LEFT(J43,2))</f>
       </c>
       <c r="P43" s="5" t="str">
-        <f>INT(LEFT(H43,1))</f>
+        <f>INT(LEFT(H43,2))</f>
       </c>
       <c r="Q43" s="5" t="str">
-        <f>K43+L43+IF(M43&gt;M43,M43-O43,0)+IF(N43&gt;P43,N43-P43,0)</f>
+        <f>K43+L43+IF(M43&gt;O43,M43-O43,0)+IF(N43&gt;P43,N43-P43,0)</f>
       </c>
       <c r="R43" s="5" t="str">
-        <f>RIGHT(E43,LEN(E43)-2)</f>
+        <f>IF(LEFT(RIGHT(E43,LEN(E43)-2),1)=".",RIGHT(E43,LEN(E43)-3),RIGHT(E43,LEN(E43)-2))</f>
       </c>
       <c r="S43" s="5" t="str">
-        <f>RIGHT(F43,LEN(F43)-2)</f>
+        <f>IF(LEFT(RIGHT(F43,LEN(F43)-2),1)=".",RIGHT(F43,LEN(F43)-3),RIGHT(F43,LEN(F43)-2))</f>
       </c>
       <c r="T43" s="5" t="str">
-        <f>RIGHT(I43,LEN(I43)-2)</f>
+        <f>IF(LEFT(RIGHT(I43,LEN(I43)-2),1)=".",RIGHT(I43,LEN(I43)-3),RIGHT(I43,LEN(I43)-2))</f>
       </c>
       <c r="U43" s="5" t="str">
-        <f>RIGHT(G43,LEN(G43)-2)</f>
+        <f>IF(LEFT(RIGHT(G43,LEN(G43)-2),1)=".",RIGHT(G43,LEN(G43)-3),RIGHT(G43,LEN(G43)-2))</f>
       </c>
       <c r="V43" s="5" t="str">
-        <f>RIGHT(J43,LEN(J43)-2)</f>
+        <f>IF(LEFT(RIGHT(J43,LEN(J43)-2),1)=".",RIGHT(J43,LEN(J43)-3),RIGHT(J43,LEN(J43)-2))</f>
       </c>
       <c r="W43" s="5" t="str">
-        <f>RIGHT(H43,LEN(H43)-2)</f>
+        <f>IF(LEFT(RIGHT(H43,LEN(H43)-2),1)=".",RIGHT(H43,LEN(H43)-3),RIGHT(H43,LEN(H43)-2))</f>
       </c>
       <c r="X43" s="5" t="str">
         <f>INT(LEFT(R43,1))</f>
@@ -14153,31 +14186,31 @@
         <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW43" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY43" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA43" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC43" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD43" s="5" t="str">
         <f>INT(LEFT(AU43,1))</f>
@@ -14341,7 +14374,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>77</v>
@@ -14350,61 +14383,61 @@
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K44" s="5" t="str">
-        <f>INT(LEFT(E44,1))</f>
+        <f>INT(LEFT(E44,2))</f>
       </c>
       <c r="L44" s="5" t="str">
-        <f>INT(LEFT(F44,1))</f>
+        <f>INT(LEFT(F44,2))</f>
       </c>
       <c r="M44" s="5" t="str">
-        <f>INT(LEFT(I44,1))</f>
+        <f>INT(LEFT(I44,2))</f>
       </c>
       <c r="N44" s="5" t="str">
-        <f>INT(LEFT(G44,1))</f>
+        <f>INT(LEFT(G44,2))</f>
       </c>
       <c r="O44" s="5" t="str">
-        <f>INT(LEFT(J44,1))</f>
+        <f>INT(LEFT(J44,2))</f>
       </c>
       <c r="P44" s="5" t="str">
-        <f>INT(LEFT(H44,1))</f>
+        <f>INT(LEFT(H44,2))</f>
       </c>
       <c r="Q44" s="5" t="str">
-        <f>K44+L44+IF(M44&gt;M44,M44-O44,0)+IF(N44&gt;P44,N44-P44,0)</f>
+        <f>K44+L44+IF(M44&gt;O44,M44-O44,0)+IF(N44&gt;P44,N44-P44,0)</f>
       </c>
       <c r="R44" s="5" t="str">
-        <f>RIGHT(E44,LEN(E44)-2)</f>
+        <f>IF(LEFT(RIGHT(E44,LEN(E44)-2),1)=".",RIGHT(E44,LEN(E44)-3),RIGHT(E44,LEN(E44)-2))</f>
       </c>
       <c r="S44" s="5" t="str">
-        <f>RIGHT(F44,LEN(F44)-2)</f>
+        <f>IF(LEFT(RIGHT(F44,LEN(F44)-2),1)=".",RIGHT(F44,LEN(F44)-3),RIGHT(F44,LEN(F44)-2))</f>
       </c>
       <c r="T44" s="5" t="str">
-        <f>RIGHT(I44,LEN(I44)-2)</f>
+        <f>IF(LEFT(RIGHT(I44,LEN(I44)-2),1)=".",RIGHT(I44,LEN(I44)-3),RIGHT(I44,LEN(I44)-2))</f>
       </c>
       <c r="U44" s="5" t="str">
-        <f>RIGHT(G44,LEN(G44)-2)</f>
+        <f>IF(LEFT(RIGHT(G44,LEN(G44)-2),1)=".",RIGHT(G44,LEN(G44)-3),RIGHT(G44,LEN(G44)-2))</f>
       </c>
       <c r="V44" s="5" t="str">
-        <f>RIGHT(J44,LEN(J44)-2)</f>
+        <f>IF(LEFT(RIGHT(J44,LEN(J44)-2),1)=".",RIGHT(J44,LEN(J44)-3),RIGHT(J44,LEN(J44)-2))</f>
       </c>
       <c r="W44" s="5" t="str">
-        <f>RIGHT(H44,LEN(H44)-2)</f>
+        <f>IF(LEFT(RIGHT(H44,LEN(H44)-2),1)=".",RIGHT(H44,LEN(H44)-3),RIGHT(H44,LEN(H44)-2))</f>
       </c>
       <c r="X44" s="5" t="str">
         <f>INT(LEFT(R44,1))</f>
@@ -14476,31 +14509,31 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="AV44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AY44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AW44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX44" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY44" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ44" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="BA44" s="5" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="BB44" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC44" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD44" s="5" t="str">
         <f>INT(LEFT(AU44,1))</f>
@@ -14664,7 +14697,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>77</v>
@@ -14673,61 +14706,61 @@
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K45" s="5" t="str">
-        <f>INT(LEFT(E45,1))</f>
+        <f>INT(LEFT(E45,2))</f>
       </c>
       <c r="L45" s="5" t="str">
-        <f>INT(LEFT(F45,1))</f>
+        <f>INT(LEFT(F45,2))</f>
       </c>
       <c r="M45" s="5" t="str">
-        <f>INT(LEFT(I45,1))</f>
+        <f>INT(LEFT(I45,2))</f>
       </c>
       <c r="N45" s="5" t="str">
-        <f>INT(LEFT(G45,1))</f>
+        <f>INT(LEFT(G45,2))</f>
       </c>
       <c r="O45" s="5" t="str">
-        <f>INT(LEFT(J45,1))</f>
+        <f>INT(LEFT(J45,2))</f>
       </c>
       <c r="P45" s="5" t="str">
-        <f>INT(LEFT(H45,1))</f>
+        <f>INT(LEFT(H45,2))</f>
       </c>
       <c r="Q45" s="5" t="str">
-        <f>K45+L45+IF(M45&gt;M45,M45-O45,0)+IF(N45&gt;P45,N45-P45,0)</f>
+        <f>K45+L45+IF(M45&gt;O45,M45-O45,0)+IF(N45&gt;P45,N45-P45,0)</f>
       </c>
       <c r="R45" s="5" t="str">
-        <f>RIGHT(E45,LEN(E45)-2)</f>
+        <f>IF(LEFT(RIGHT(E45,LEN(E45)-2),1)=".",RIGHT(E45,LEN(E45)-3),RIGHT(E45,LEN(E45)-2))</f>
       </c>
       <c r="S45" s="5" t="str">
-        <f>RIGHT(F45,LEN(F45)-2)</f>
+        <f>IF(LEFT(RIGHT(F45,LEN(F45)-2),1)=".",RIGHT(F45,LEN(F45)-3),RIGHT(F45,LEN(F45)-2))</f>
       </c>
       <c r="T45" s="5" t="str">
-        <f>RIGHT(I45,LEN(I45)-2)</f>
+        <f>IF(LEFT(RIGHT(I45,LEN(I45)-2),1)=".",RIGHT(I45,LEN(I45)-3),RIGHT(I45,LEN(I45)-2))</f>
       </c>
       <c r="U45" s="5" t="str">
-        <f>RIGHT(G45,LEN(G45)-2)</f>
+        <f>IF(LEFT(RIGHT(G45,LEN(G45)-2),1)=".",RIGHT(G45,LEN(G45)-3),RIGHT(G45,LEN(G45)-2))</f>
       </c>
       <c r="V45" s="5" t="str">
-        <f>RIGHT(J45,LEN(J45)-2)</f>
+        <f>IF(LEFT(RIGHT(J45,LEN(J45)-2),1)=".",RIGHT(J45,LEN(J45)-3),RIGHT(J45,LEN(J45)-2))</f>
       </c>
       <c r="W45" s="5" t="str">
-        <f>RIGHT(H45,LEN(H45)-2)</f>
+        <f>IF(LEFT(RIGHT(H45,LEN(H45)-2),1)=".",RIGHT(H45,LEN(H45)-3),RIGHT(H45,LEN(H45)-2))</f>
       </c>
       <c r="X45" s="5" t="str">
         <f>INT(LEFT(R45,1))</f>
@@ -14799,31 +14832,31 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW45" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY45" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA45" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC45" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD45" s="5" t="str">
         <f>INT(LEFT(AU45,1))</f>
@@ -14987,7 +15020,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>77</v>
@@ -14996,61 +15029,61 @@
         <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K46" s="5" t="str">
-        <f>INT(LEFT(E46,1))</f>
+        <f>INT(LEFT(E46,2))</f>
       </c>
       <c r="L46" s="5" t="str">
-        <f>INT(LEFT(F46,1))</f>
+        <f>INT(LEFT(F46,2))</f>
       </c>
       <c r="M46" s="5" t="str">
-        <f>INT(LEFT(I46,1))</f>
+        <f>INT(LEFT(I46,2))</f>
       </c>
       <c r="N46" s="5" t="str">
-        <f>INT(LEFT(G46,1))</f>
+        <f>INT(LEFT(G46,2))</f>
       </c>
       <c r="O46" s="5" t="str">
-        <f>INT(LEFT(J46,1))</f>
+        <f>INT(LEFT(J46,2))</f>
       </c>
       <c r="P46" s="5" t="str">
-        <f>INT(LEFT(H46,1))</f>
+        <f>INT(LEFT(H46,2))</f>
       </c>
       <c r="Q46" s="5" t="str">
-        <f>K46+L46+IF(M46&gt;M46,M46-O46,0)+IF(N46&gt;P46,N46-P46,0)</f>
+        <f>K46+L46+IF(M46&gt;O46,M46-O46,0)+IF(N46&gt;P46,N46-P46,0)</f>
       </c>
       <c r="R46" s="5" t="str">
-        <f>RIGHT(E46,LEN(E46)-2)</f>
+        <f>IF(LEFT(RIGHT(E46,LEN(E46)-2),1)=".",RIGHT(E46,LEN(E46)-3),RIGHT(E46,LEN(E46)-2))</f>
       </c>
       <c r="S46" s="5" t="str">
-        <f>RIGHT(F46,LEN(F46)-2)</f>
+        <f>IF(LEFT(RIGHT(F46,LEN(F46)-2),1)=".",RIGHT(F46,LEN(F46)-3),RIGHT(F46,LEN(F46)-2))</f>
       </c>
       <c r="T46" s="5" t="str">
-        <f>RIGHT(I46,LEN(I46)-2)</f>
+        <f>IF(LEFT(RIGHT(I46,LEN(I46)-2),1)=".",RIGHT(I46,LEN(I46)-3),RIGHT(I46,LEN(I46)-2))</f>
       </c>
       <c r="U46" s="5" t="str">
-        <f>RIGHT(G46,LEN(G46)-2)</f>
+        <f>IF(LEFT(RIGHT(G46,LEN(G46)-2),1)=".",RIGHT(G46,LEN(G46)-3),RIGHT(G46,LEN(G46)-2))</f>
       </c>
       <c r="V46" s="5" t="str">
-        <f>RIGHT(J46,LEN(J46)-2)</f>
+        <f>IF(LEFT(RIGHT(J46,LEN(J46)-2),1)=".",RIGHT(J46,LEN(J46)-3),RIGHT(J46,LEN(J46)-2))</f>
       </c>
       <c r="W46" s="5" t="str">
-        <f>RIGHT(H46,LEN(H46)-2)</f>
+        <f>IF(LEFT(RIGHT(H46,LEN(H46)-2),1)=".",RIGHT(H46,LEN(H46)-3),RIGHT(H46,LEN(H46)-2))</f>
       </c>
       <c r="X46" s="5" t="str">
         <f>INT(LEFT(R46,1))</f>
@@ -15122,31 +15155,31 @@
         <f>FLOOR(AS46/8,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1))*60</f>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC46" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD46" s="5" t="str">
         <f>INT(LEFT(AU46,1))</f>
@@ -15310,7 +15343,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>77</v>
@@ -15319,61 +15352,61 @@
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K47" s="5" t="str">
-        <f>INT(LEFT(E47,1))</f>
+        <f>INT(LEFT(E47,2))</f>
       </c>
       <c r="L47" s="5" t="str">
-        <f>INT(LEFT(F47,1))</f>
+        <f>INT(LEFT(F47,2))</f>
       </c>
       <c r="M47" s="5" t="str">
-        <f>INT(LEFT(I47,1))</f>
+        <f>INT(LEFT(I47,2))</f>
       </c>
       <c r="N47" s="5" t="str">
-        <f>INT(LEFT(G47,1))</f>
+        <f>INT(LEFT(G47,2))</f>
       </c>
       <c r="O47" s="5" t="str">
-        <f>INT(LEFT(J47,1))</f>
+        <f>INT(LEFT(J47,2))</f>
       </c>
       <c r="P47" s="5" t="str">
-        <f>INT(LEFT(H47,1))</f>
+        <f>INT(LEFT(H47,2))</f>
       </c>
       <c r="Q47" s="5" t="str">
-        <f>K47+L47+IF(M47&gt;M47,M47-O47,0)+IF(N47&gt;P47,N47-P47,0)</f>
+        <f>K47+L47+IF(M47&gt;O47,M47-O47,0)+IF(N47&gt;P47,N47-P47,0)</f>
       </c>
       <c r="R47" s="5" t="str">
-        <f>RIGHT(E47,LEN(E47)-2)</f>
+        <f>IF(LEFT(RIGHT(E47,LEN(E47)-2),1)=".",RIGHT(E47,LEN(E47)-3),RIGHT(E47,LEN(E47)-2))</f>
       </c>
       <c r="S47" s="5" t="str">
-        <f>RIGHT(F47,LEN(F47)-2)</f>
+        <f>IF(LEFT(RIGHT(F47,LEN(F47)-2),1)=".",RIGHT(F47,LEN(F47)-3),RIGHT(F47,LEN(F47)-2))</f>
       </c>
       <c r="T47" s="5" t="str">
-        <f>RIGHT(I47,LEN(I47)-2)</f>
+        <f>IF(LEFT(RIGHT(I47,LEN(I47)-2),1)=".",RIGHT(I47,LEN(I47)-3),RIGHT(I47,LEN(I47)-2))</f>
       </c>
       <c r="U47" s="5" t="str">
-        <f>RIGHT(G47,LEN(G47)-2)</f>
+        <f>IF(LEFT(RIGHT(G47,LEN(G47)-2),1)=".",RIGHT(G47,LEN(G47)-3),RIGHT(G47,LEN(G47)-2))</f>
       </c>
       <c r="V47" s="5" t="str">
-        <f>RIGHT(J47,LEN(J47)-2)</f>
+        <f>IF(LEFT(RIGHT(J47,LEN(J47)-2),1)=".",RIGHT(J47,LEN(J47)-3),RIGHT(J47,LEN(J47)-2))</f>
       </c>
       <c r="W47" s="5" t="str">
-        <f>RIGHT(H47,LEN(H47)-2)</f>
+        <f>IF(LEFT(RIGHT(H47,LEN(H47)-2),1)=".",RIGHT(H47,LEN(H47)-3),RIGHT(H47,LEN(H47)-2))</f>
       </c>
       <c r="X47" s="5" t="str">
         <f>INT(LEFT(R47,1))</f>
@@ -15445,31 +15478,31 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY47" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA47" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC47" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD47" s="5" t="str">
         <f>INT(LEFT(AU47,1))</f>
@@ -15633,70 +15666,70 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K48" s="5" t="str">
-        <f>INT(LEFT(E48,1))</f>
+        <f>INT(LEFT(E48,2))</f>
       </c>
       <c r="L48" s="5" t="str">
-        <f>INT(LEFT(F48,1))</f>
+        <f>INT(LEFT(F48,2))</f>
       </c>
       <c r="M48" s="5" t="str">
-        <f>INT(LEFT(I48,1))</f>
+        <f>INT(LEFT(I48,2))</f>
       </c>
       <c r="N48" s="5" t="str">
-        <f>INT(LEFT(G48,1))</f>
+        <f>INT(LEFT(G48,2))</f>
       </c>
       <c r="O48" s="5" t="str">
-        <f>INT(LEFT(J48,1))</f>
+        <f>INT(LEFT(J48,2))</f>
       </c>
       <c r="P48" s="5" t="str">
-        <f>INT(LEFT(H48,1))</f>
+        <f>INT(LEFT(H48,2))</f>
       </c>
       <c r="Q48" s="5" t="str">
-        <f>K48+L48+IF(M48&gt;M48,M48-O48,0)+IF(N48&gt;P48,N48-P48,0)</f>
+        <f>K48+L48+IF(M48&gt;O48,M48-O48,0)+IF(N48&gt;P48,N48-P48,0)</f>
       </c>
       <c r="R48" s="5" t="str">
-        <f>RIGHT(E48,LEN(E48)-2)</f>
+        <f>IF(LEFT(RIGHT(E48,LEN(E48)-2),1)=".",RIGHT(E48,LEN(E48)-3),RIGHT(E48,LEN(E48)-2))</f>
       </c>
       <c r="S48" s="5" t="str">
-        <f>RIGHT(F48,LEN(F48)-2)</f>
+        <f>IF(LEFT(RIGHT(F48,LEN(F48)-2),1)=".",RIGHT(F48,LEN(F48)-3),RIGHT(F48,LEN(F48)-2))</f>
       </c>
       <c r="T48" s="5" t="str">
-        <f>RIGHT(I48,LEN(I48)-2)</f>
+        <f>IF(LEFT(RIGHT(I48,LEN(I48)-2),1)=".",RIGHT(I48,LEN(I48)-3),RIGHT(I48,LEN(I48)-2))</f>
       </c>
       <c r="U48" s="5" t="str">
-        <f>RIGHT(G48,LEN(G48)-2)</f>
+        <f>IF(LEFT(RIGHT(G48,LEN(G48)-2),1)=".",RIGHT(G48,LEN(G48)-3),RIGHT(G48,LEN(G48)-2))</f>
       </c>
       <c r="V48" s="5" t="str">
-        <f>RIGHT(J48,LEN(J48)-2)</f>
+        <f>IF(LEFT(RIGHT(J48,LEN(J48)-2),1)=".",RIGHT(J48,LEN(J48)-3),RIGHT(J48,LEN(J48)-2))</f>
       </c>
       <c r="W48" s="5" t="str">
-        <f>RIGHT(H48,LEN(H48)-2)</f>
+        <f>IF(LEFT(RIGHT(H48,LEN(H48)-2),1)=".",RIGHT(H48,LEN(H48)-3),RIGHT(H48,LEN(H48)-2))</f>
       </c>
       <c r="X48" s="5" t="str">
         <f>INT(LEFT(R48,1))</f>
@@ -15768,31 +15801,31 @@
         <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY48" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA48" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC48" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD48" s="5" t="str">
         <f>INT(LEFT(AU48,1))</f>
@@ -15956,7 +15989,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>77</v>
@@ -15965,61 +15998,61 @@
         <v>3</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K49" s="5" t="str">
-        <f>INT(LEFT(E49,1))</f>
+        <f>INT(LEFT(E49,2))</f>
       </c>
       <c r="L49" s="5" t="str">
-        <f>INT(LEFT(F49,1))</f>
+        <f>INT(LEFT(F49,2))</f>
       </c>
       <c r="M49" s="5" t="str">
-        <f>INT(LEFT(I49,1))</f>
+        <f>INT(LEFT(I49,2))</f>
       </c>
       <c r="N49" s="5" t="str">
-        <f>INT(LEFT(G49,1))</f>
+        <f>INT(LEFT(G49,2))</f>
       </c>
       <c r="O49" s="5" t="str">
-        <f>INT(LEFT(J49,1))</f>
+        <f>INT(LEFT(J49,2))</f>
       </c>
       <c r="P49" s="5" t="str">
-        <f>INT(LEFT(H49,1))</f>
+        <f>INT(LEFT(H49,2))</f>
       </c>
       <c r="Q49" s="5" t="str">
-        <f>K49+L49+IF(M49&gt;M49,M49-O49,0)+IF(N49&gt;P49,N49-P49,0)</f>
+        <f>K49+L49+IF(M49&gt;O49,M49-O49,0)+IF(N49&gt;P49,N49-P49,0)</f>
       </c>
       <c r="R49" s="5" t="str">
-        <f>RIGHT(E49,LEN(E49)-2)</f>
+        <f>IF(LEFT(RIGHT(E49,LEN(E49)-2),1)=".",RIGHT(E49,LEN(E49)-3),RIGHT(E49,LEN(E49)-2))</f>
       </c>
       <c r="S49" s="5" t="str">
-        <f>RIGHT(F49,LEN(F49)-2)</f>
+        <f>IF(LEFT(RIGHT(F49,LEN(F49)-2),1)=".",RIGHT(F49,LEN(F49)-3),RIGHT(F49,LEN(F49)-2))</f>
       </c>
       <c r="T49" s="5" t="str">
-        <f>RIGHT(I49,LEN(I49)-2)</f>
+        <f>IF(LEFT(RIGHT(I49,LEN(I49)-2),1)=".",RIGHT(I49,LEN(I49)-3),RIGHT(I49,LEN(I49)-2))</f>
       </c>
       <c r="U49" s="5" t="str">
-        <f>RIGHT(G49,LEN(G49)-2)</f>
+        <f>IF(LEFT(RIGHT(G49,LEN(G49)-2),1)=".",RIGHT(G49,LEN(G49)-3),RIGHT(G49,LEN(G49)-2))</f>
       </c>
       <c r="V49" s="5" t="str">
-        <f>RIGHT(J49,LEN(J49)-2)</f>
+        <f>IF(LEFT(RIGHT(J49,LEN(J49)-2),1)=".",RIGHT(J49,LEN(J49)-3),RIGHT(J49,LEN(J49)-2))</f>
       </c>
       <c r="W49" s="5" t="str">
-        <f>RIGHT(H49,LEN(H49)-2)</f>
+        <f>IF(LEFT(RIGHT(H49,LEN(H49)-2),1)=".",RIGHT(H49,LEN(H49)-3),RIGHT(H49,LEN(H49)-2))</f>
       </c>
       <c r="X49" s="5" t="str">
         <f>INT(LEFT(R49,1))</f>
@@ -16091,31 +16124,31 @@
         <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY49" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA49" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC49" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD49" s="5" t="str">
         <f>INT(LEFT(AU49,1))</f>
@@ -16279,70 +16312,70 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K50" s="5" t="str">
-        <f>INT(LEFT(E50,1))</f>
+        <f>INT(LEFT(E50,2))</f>
       </c>
       <c r="L50" s="5" t="str">
-        <f>INT(LEFT(F50,1))</f>
+        <f>INT(LEFT(F50,2))</f>
       </c>
       <c r="M50" s="5" t="str">
-        <f>INT(LEFT(I50,1))</f>
+        <f>INT(LEFT(I50,2))</f>
       </c>
       <c r="N50" s="5" t="str">
-        <f>INT(LEFT(G50,1))</f>
+        <f>INT(LEFT(G50,2))</f>
       </c>
       <c r="O50" s="5" t="str">
-        <f>INT(LEFT(J50,1))</f>
+        <f>INT(LEFT(J50,2))</f>
       </c>
       <c r="P50" s="5" t="str">
-        <f>INT(LEFT(H50,1))</f>
+        <f>INT(LEFT(H50,2))</f>
       </c>
       <c r="Q50" s="5" t="str">
-        <f>K50+L50+IF(M50&gt;M50,M50-O50,0)+IF(N50&gt;P50,N50-P50,0)</f>
+        <f>K50+L50+IF(M50&gt;O50,M50-O50,0)+IF(N50&gt;P50,N50-P50,0)</f>
       </c>
       <c r="R50" s="5" t="str">
-        <f>RIGHT(E50,LEN(E50)-2)</f>
+        <f>IF(LEFT(RIGHT(E50,LEN(E50)-2),1)=".",RIGHT(E50,LEN(E50)-3),RIGHT(E50,LEN(E50)-2))</f>
       </c>
       <c r="S50" s="5" t="str">
-        <f>RIGHT(F50,LEN(F50)-2)</f>
+        <f>IF(LEFT(RIGHT(F50,LEN(F50)-2),1)=".",RIGHT(F50,LEN(F50)-3),RIGHT(F50,LEN(F50)-2))</f>
       </c>
       <c r="T50" s="5" t="str">
-        <f>RIGHT(I50,LEN(I50)-2)</f>
+        <f>IF(LEFT(RIGHT(I50,LEN(I50)-2),1)=".",RIGHT(I50,LEN(I50)-3),RIGHT(I50,LEN(I50)-2))</f>
       </c>
       <c r="U50" s="5" t="str">
-        <f>RIGHT(G50,LEN(G50)-2)</f>
+        <f>IF(LEFT(RIGHT(G50,LEN(G50)-2),1)=".",RIGHT(G50,LEN(G50)-3),RIGHT(G50,LEN(G50)-2))</f>
       </c>
       <c r="V50" s="5" t="str">
-        <f>RIGHT(J50,LEN(J50)-2)</f>
+        <f>IF(LEFT(RIGHT(J50,LEN(J50)-2),1)=".",RIGHT(J50,LEN(J50)-3),RIGHT(J50,LEN(J50)-2))</f>
       </c>
       <c r="W50" s="5" t="str">
-        <f>RIGHT(H50,LEN(H50)-2)</f>
+        <f>IF(LEFT(RIGHT(H50,LEN(H50)-2),1)=".",RIGHT(H50,LEN(H50)-3),RIGHT(H50,LEN(H50)-2))</f>
       </c>
       <c r="X50" s="5" t="str">
         <f>INT(LEFT(R50,1))</f>
@@ -16414,31 +16447,31 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX50" s="5" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="AY50" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA50" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC50" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD50" s="5" t="str">
         <f>INT(LEFT(AU50,1))</f>
@@ -16602,70 +16635,70 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K51" s="5" t="str">
-        <f>INT(LEFT(E51,1))</f>
+        <f>INT(LEFT(E51,2))</f>
       </c>
       <c r="L51" s="5" t="str">
-        <f>INT(LEFT(F51,1))</f>
+        <f>INT(LEFT(F51,2))</f>
       </c>
       <c r="M51" s="5" t="str">
-        <f>INT(LEFT(I51,1))</f>
+        <f>INT(LEFT(I51,2))</f>
       </c>
       <c r="N51" s="5" t="str">
-        <f>INT(LEFT(G51,1))</f>
+        <f>INT(LEFT(G51,2))</f>
       </c>
       <c r="O51" s="5" t="str">
-        <f>INT(LEFT(J51,1))</f>
+        <f>INT(LEFT(J51,2))</f>
       </c>
       <c r="P51" s="5" t="str">
-        <f>INT(LEFT(H51,1))</f>
+        <f>INT(LEFT(H51,2))</f>
       </c>
       <c r="Q51" s="5" t="str">
-        <f>K51+L51+IF(M51&gt;M51,M51-O51,0)+IF(N51&gt;P51,N51-P51,0)</f>
+        <f>K51+L51+IF(M51&gt;O51,M51-O51,0)+IF(N51&gt;P51,N51-P51,0)</f>
       </c>
       <c r="R51" s="5" t="str">
-        <f>RIGHT(E51,LEN(E51)-2)</f>
+        <f>IF(LEFT(RIGHT(E51,LEN(E51)-2),1)=".",RIGHT(E51,LEN(E51)-3),RIGHT(E51,LEN(E51)-2))</f>
       </c>
       <c r="S51" s="5" t="str">
-        <f>RIGHT(F51,LEN(F51)-2)</f>
+        <f>IF(LEFT(RIGHT(F51,LEN(F51)-2),1)=".",RIGHT(F51,LEN(F51)-3),RIGHT(F51,LEN(F51)-2))</f>
       </c>
       <c r="T51" s="5" t="str">
-        <f>RIGHT(I51,LEN(I51)-2)</f>
+        <f>IF(LEFT(RIGHT(I51,LEN(I51)-2),1)=".",RIGHT(I51,LEN(I51)-3),RIGHT(I51,LEN(I51)-2))</f>
       </c>
       <c r="U51" s="5" t="str">
-        <f>RIGHT(G51,LEN(G51)-2)</f>
+        <f>IF(LEFT(RIGHT(G51,LEN(G51)-2),1)=".",RIGHT(G51,LEN(G51)-3),RIGHT(G51,LEN(G51)-2))</f>
       </c>
       <c r="V51" s="5" t="str">
-        <f>RIGHT(J51,LEN(J51)-2)</f>
+        <f>IF(LEFT(RIGHT(J51,LEN(J51)-2),1)=".",RIGHT(J51,LEN(J51)-3),RIGHT(J51,LEN(J51)-2))</f>
       </c>
       <c r="W51" s="5" t="str">
-        <f>RIGHT(H51,LEN(H51)-2)</f>
+        <f>IF(LEFT(RIGHT(H51,LEN(H51)-2),1)=".",RIGHT(H51,LEN(H51)-3),RIGHT(H51,LEN(H51)-2))</f>
       </c>
       <c r="X51" s="5" t="str">
         <f>INT(LEFT(R51,1))</f>
@@ -16737,31 +16770,31 @@
         <f>FLOOR(AS51/8,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1))*60</f>
       </c>
       <c r="AU51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY51" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA51" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC51" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD51" s="5" t="str">
         <f>INT(LEFT(AU51,1))</f>
@@ -16925,7 +16958,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>77</v>
@@ -16937,58 +16970,58 @@
         <v>78</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K52" s="5" t="str">
-        <f>INT(LEFT(E52,1))</f>
+        <f>INT(LEFT(E52,2))</f>
       </c>
       <c r="L52" s="5" t="str">
-        <f>INT(LEFT(F52,1))</f>
+        <f>INT(LEFT(F52,2))</f>
       </c>
       <c r="M52" s="5" t="str">
-        <f>INT(LEFT(I52,1))</f>
+        <f>INT(LEFT(I52,2))</f>
       </c>
       <c r="N52" s="5" t="str">
-        <f>INT(LEFT(G52,1))</f>
+        <f>INT(LEFT(G52,2))</f>
       </c>
       <c r="O52" s="5" t="str">
-        <f>INT(LEFT(J52,1))</f>
+        <f>INT(LEFT(J52,2))</f>
       </c>
       <c r="P52" s="5" t="str">
-        <f>INT(LEFT(H52,1))</f>
+        <f>INT(LEFT(H52,2))</f>
       </c>
       <c r="Q52" s="5" t="str">
-        <f>K52+L52+IF(M52&gt;M52,M52-O52,0)+IF(N52&gt;P52,N52-P52,0)</f>
+        <f>K52+L52+IF(M52&gt;O52,M52-O52,0)+IF(N52&gt;P52,N52-P52,0)</f>
       </c>
       <c r="R52" s="5" t="str">
-        <f>RIGHT(E52,LEN(E52)-2)</f>
+        <f>IF(LEFT(RIGHT(E52,LEN(E52)-2),1)=".",RIGHT(E52,LEN(E52)-3),RIGHT(E52,LEN(E52)-2))</f>
       </c>
       <c r="S52" s="5" t="str">
-        <f>RIGHT(F52,LEN(F52)-2)</f>
+        <f>IF(LEFT(RIGHT(F52,LEN(F52)-2),1)=".",RIGHT(F52,LEN(F52)-3),RIGHT(F52,LEN(F52)-2))</f>
       </c>
       <c r="T52" s="5" t="str">
-        <f>RIGHT(I52,LEN(I52)-2)</f>
+        <f>IF(LEFT(RIGHT(I52,LEN(I52)-2),1)=".",RIGHT(I52,LEN(I52)-3),RIGHT(I52,LEN(I52)-2))</f>
       </c>
       <c r="U52" s="5" t="str">
-        <f>RIGHT(G52,LEN(G52)-2)</f>
+        <f>IF(LEFT(RIGHT(G52,LEN(G52)-2),1)=".",RIGHT(G52,LEN(G52)-3),RIGHT(G52,LEN(G52)-2))</f>
       </c>
       <c r="V52" s="5" t="str">
-        <f>RIGHT(J52,LEN(J52)-2)</f>
+        <f>IF(LEFT(RIGHT(J52,LEN(J52)-2),1)=".",RIGHT(J52,LEN(J52)-3),RIGHT(J52,LEN(J52)-2))</f>
       </c>
       <c r="W52" s="5" t="str">
-        <f>RIGHT(H52,LEN(H52)-2)</f>
+        <f>IF(LEFT(RIGHT(H52,LEN(H52)-2),1)=".",RIGHT(H52,LEN(H52)-3),RIGHT(H52,LEN(H52)-2))</f>
       </c>
       <c r="X52" s="5" t="str">
         <f>INT(LEFT(R52,1))</f>
@@ -17060,31 +17093,31 @@
         <f>FLOOR(AS52/8,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1))*60</f>
       </c>
       <c r="AU52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV52" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="AX52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY52" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA52" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC52" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD52" s="5" t="str">
         <f>INT(LEFT(AU52,1))</f>
@@ -17248,7 +17281,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>77</v>
@@ -17257,61 +17290,61 @@
         <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K53" s="5" t="str">
-        <f>INT(LEFT(E53,1))</f>
+        <f>INT(LEFT(E53,2))</f>
       </c>
       <c r="L53" s="5" t="str">
-        <f>INT(LEFT(F53,1))</f>
+        <f>INT(LEFT(F53,2))</f>
       </c>
       <c r="M53" s="5" t="str">
-        <f>INT(LEFT(I53,1))</f>
+        <f>INT(LEFT(I53,2))</f>
       </c>
       <c r="N53" s="5" t="str">
-        <f>INT(LEFT(G53,1))</f>
+        <f>INT(LEFT(G53,2))</f>
       </c>
       <c r="O53" s="5" t="str">
-        <f>INT(LEFT(J53,1))</f>
+        <f>INT(LEFT(J53,2))</f>
       </c>
       <c r="P53" s="5" t="str">
-        <f>INT(LEFT(H53,1))</f>
+        <f>INT(LEFT(H53,2))</f>
       </c>
       <c r="Q53" s="5" t="str">
-        <f>K53+L53+IF(M53&gt;M53,M53-O53,0)+IF(N53&gt;P53,N53-P53,0)</f>
+        <f>K53+L53+IF(M53&gt;O53,M53-O53,0)+IF(N53&gt;P53,N53-P53,0)</f>
       </c>
       <c r="R53" s="5" t="str">
-        <f>RIGHT(E53,LEN(E53)-2)</f>
+        <f>IF(LEFT(RIGHT(E53,LEN(E53)-2),1)=".",RIGHT(E53,LEN(E53)-3),RIGHT(E53,LEN(E53)-2))</f>
       </c>
       <c r="S53" s="5" t="str">
-        <f>RIGHT(F53,LEN(F53)-2)</f>
+        <f>IF(LEFT(RIGHT(F53,LEN(F53)-2),1)=".",RIGHT(F53,LEN(F53)-3),RIGHT(F53,LEN(F53)-2))</f>
       </c>
       <c r="T53" s="5" t="str">
-        <f>RIGHT(I53,LEN(I53)-2)</f>
+        <f>IF(LEFT(RIGHT(I53,LEN(I53)-2),1)=".",RIGHT(I53,LEN(I53)-3),RIGHT(I53,LEN(I53)-2))</f>
       </c>
       <c r="U53" s="5" t="str">
-        <f>RIGHT(G53,LEN(G53)-2)</f>
+        <f>IF(LEFT(RIGHT(G53,LEN(G53)-2),1)=".",RIGHT(G53,LEN(G53)-3),RIGHT(G53,LEN(G53)-2))</f>
       </c>
       <c r="V53" s="5" t="str">
-        <f>RIGHT(J53,LEN(J53)-2)</f>
+        <f>IF(LEFT(RIGHT(J53,LEN(J53)-2),1)=".",RIGHT(J53,LEN(J53)-3),RIGHT(J53,LEN(J53)-2))</f>
       </c>
       <c r="W53" s="5" t="str">
-        <f>RIGHT(H53,LEN(H53)-2)</f>
+        <f>IF(LEFT(RIGHT(H53,LEN(H53)-2),1)=".",RIGHT(H53,LEN(H53)-3),RIGHT(H53,LEN(H53)-2))</f>
       </c>
       <c r="X53" s="5" t="str">
         <f>INT(LEFT(R53,1))</f>
@@ -17383,31 +17416,31 @@
         <f>FLOOR(AS53/8,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1))*60</f>
       </c>
       <c r="AU53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY53" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA53" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC53" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD53" s="5" t="str">
         <f>INT(LEFT(AU53,1))</f>
@@ -17571,7 +17604,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>77</v>
@@ -17580,61 +17613,61 @@
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K54" s="5" t="str">
-        <f>INT(LEFT(E54,1))</f>
+        <f>INT(LEFT(E54,2))</f>
       </c>
       <c r="L54" s="5" t="str">
-        <f>INT(LEFT(F54,1))</f>
+        <f>INT(LEFT(F54,2))</f>
       </c>
       <c r="M54" s="5" t="str">
-        <f>INT(LEFT(I54,1))</f>
+        <f>INT(LEFT(I54,2))</f>
       </c>
       <c r="N54" s="5" t="str">
-        <f>INT(LEFT(G54,1))</f>
+        <f>INT(LEFT(G54,2))</f>
       </c>
       <c r="O54" s="5" t="str">
-        <f>INT(LEFT(J54,1))</f>
+        <f>INT(LEFT(J54,2))</f>
       </c>
       <c r="P54" s="5" t="str">
-        <f>INT(LEFT(H54,1))</f>
+        <f>INT(LEFT(H54,2))</f>
       </c>
       <c r="Q54" s="5" t="str">
-        <f>K54+L54+IF(M54&gt;M54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
+        <f>K54+L54+IF(M54&gt;O54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
       </c>
       <c r="R54" s="5" t="str">
-        <f>RIGHT(E54,LEN(E54)-2)</f>
+        <f>IF(LEFT(RIGHT(E54,LEN(E54)-2),1)=".",RIGHT(E54,LEN(E54)-3),RIGHT(E54,LEN(E54)-2))</f>
       </c>
       <c r="S54" s="5" t="str">
-        <f>RIGHT(F54,LEN(F54)-2)</f>
+        <f>IF(LEFT(RIGHT(F54,LEN(F54)-2),1)=".",RIGHT(F54,LEN(F54)-3),RIGHT(F54,LEN(F54)-2))</f>
       </c>
       <c r="T54" s="5" t="str">
-        <f>RIGHT(I54,LEN(I54)-2)</f>
+        <f>IF(LEFT(RIGHT(I54,LEN(I54)-2),1)=".",RIGHT(I54,LEN(I54)-3),RIGHT(I54,LEN(I54)-2))</f>
       </c>
       <c r="U54" s="5" t="str">
-        <f>RIGHT(G54,LEN(G54)-2)</f>
+        <f>IF(LEFT(RIGHT(G54,LEN(G54)-2),1)=".",RIGHT(G54,LEN(G54)-3),RIGHT(G54,LEN(G54)-2))</f>
       </c>
       <c r="V54" s="5" t="str">
-        <f>RIGHT(J54,LEN(J54)-2)</f>
+        <f>IF(LEFT(RIGHT(J54,LEN(J54)-2),1)=".",RIGHT(J54,LEN(J54)-3),RIGHT(J54,LEN(J54)-2))</f>
       </c>
       <c r="W54" s="5" t="str">
-        <f>RIGHT(H54,LEN(H54)-2)</f>
+        <f>IF(LEFT(RIGHT(H54,LEN(H54)-2),1)=".",RIGHT(H54,LEN(H54)-3),RIGHT(H54,LEN(H54)-2))</f>
       </c>
       <c r="X54" s="5" t="str">
         <f>INT(LEFT(R54,1))</f>
@@ -17706,31 +17739,31 @@
         <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
       </c>
       <c r="AU54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB54" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC54" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD54" s="5" t="str">
         <f>INT(LEFT(AU54,1))</f>
@@ -17894,70 +17927,70 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K55" s="5" t="str">
-        <f>INT(LEFT(E55,1))</f>
+        <f>INT(LEFT(E55,2))</f>
       </c>
       <c r="L55" s="5" t="str">
-        <f>INT(LEFT(F55,1))</f>
+        <f>INT(LEFT(F55,2))</f>
       </c>
       <c r="M55" s="5" t="str">
-        <f>INT(LEFT(I55,1))</f>
+        <f>INT(LEFT(I55,2))</f>
       </c>
       <c r="N55" s="5" t="str">
-        <f>INT(LEFT(G55,1))</f>
+        <f>INT(LEFT(G55,2))</f>
       </c>
       <c r="O55" s="5" t="str">
-        <f>INT(LEFT(J55,1))</f>
+        <f>INT(LEFT(J55,2))</f>
       </c>
       <c r="P55" s="5" t="str">
-        <f>INT(LEFT(H55,1))</f>
+        <f>INT(LEFT(H55,2))</f>
       </c>
       <c r="Q55" s="5" t="str">
-        <f>K55+L55+IF(M55&gt;M55,M55-O55,0)+IF(N55&gt;P55,N55-P55,0)</f>
+        <f>K55+L55+IF(M55&gt;O55,M55-O55,0)+IF(N55&gt;P55,N55-P55,0)</f>
       </c>
       <c r="R55" s="5" t="str">
-        <f>RIGHT(E55,LEN(E55)-2)</f>
+        <f>IF(LEFT(RIGHT(E55,LEN(E55)-2),1)=".",RIGHT(E55,LEN(E55)-3),RIGHT(E55,LEN(E55)-2))</f>
       </c>
       <c r="S55" s="5" t="str">
-        <f>RIGHT(F55,LEN(F55)-2)</f>
+        <f>IF(LEFT(RIGHT(F55,LEN(F55)-2),1)=".",RIGHT(F55,LEN(F55)-3),RIGHT(F55,LEN(F55)-2))</f>
       </c>
       <c r="T55" s="5" t="str">
-        <f>RIGHT(I55,LEN(I55)-2)</f>
+        <f>IF(LEFT(RIGHT(I55,LEN(I55)-2),1)=".",RIGHT(I55,LEN(I55)-3),RIGHT(I55,LEN(I55)-2))</f>
       </c>
       <c r="U55" s="5" t="str">
-        <f>RIGHT(G55,LEN(G55)-2)</f>
+        <f>IF(LEFT(RIGHT(G55,LEN(G55)-2),1)=".",RIGHT(G55,LEN(G55)-3),RIGHT(G55,LEN(G55)-2))</f>
       </c>
       <c r="V55" s="5" t="str">
-        <f>RIGHT(J55,LEN(J55)-2)</f>
+        <f>IF(LEFT(RIGHT(J55,LEN(J55)-2),1)=".",RIGHT(J55,LEN(J55)-3),RIGHT(J55,LEN(J55)-2))</f>
       </c>
       <c r="W55" s="5" t="str">
-        <f>RIGHT(H55,LEN(H55)-2)</f>
+        <f>IF(LEFT(RIGHT(H55,LEN(H55)-2),1)=".",RIGHT(H55,LEN(H55)-3),RIGHT(H55,LEN(H55)-2))</f>
       </c>
       <c r="X55" s="5" t="str">
         <f>INT(LEFT(R55,1))</f>
@@ -18032,28 +18065,28 @@
         <v>82</v>
       </c>
       <c r="AV55" s="5" t="s">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY55" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA55" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB55" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC55" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD55" s="5" t="str">
         <f>INT(LEFT(AU55,1))</f>
@@ -18217,70 +18250,70 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K56" s="5" t="str">
-        <f>INT(LEFT(E56,1))</f>
+        <f>INT(LEFT(E56,2))</f>
       </c>
       <c r="L56" s="5" t="str">
-        <f>INT(LEFT(F56,1))</f>
+        <f>INT(LEFT(F56,2))</f>
       </c>
       <c r="M56" s="5" t="str">
-        <f>INT(LEFT(I56,1))</f>
+        <f>INT(LEFT(I56,2))</f>
       </c>
       <c r="N56" s="5" t="str">
-        <f>INT(LEFT(G56,1))</f>
+        <f>INT(LEFT(G56,2))</f>
       </c>
       <c r="O56" s="5" t="str">
-        <f>INT(LEFT(J56,1))</f>
+        <f>INT(LEFT(J56,2))</f>
       </c>
       <c r="P56" s="5" t="str">
-        <f>INT(LEFT(H56,1))</f>
+        <f>INT(LEFT(H56,2))</f>
       </c>
       <c r="Q56" s="5" t="str">
-        <f>K56+L56+IF(M56&gt;M56,M56-O56,0)+IF(N56&gt;P56,N56-P56,0)</f>
+        <f>K56+L56+IF(M56&gt;O56,M56-O56,0)+IF(N56&gt;P56,N56-P56,0)</f>
       </c>
       <c r="R56" s="5" t="str">
-        <f>RIGHT(E56,LEN(E56)-2)</f>
+        <f>IF(LEFT(RIGHT(E56,LEN(E56)-2),1)=".",RIGHT(E56,LEN(E56)-3),RIGHT(E56,LEN(E56)-2))</f>
       </c>
       <c r="S56" s="5" t="str">
-        <f>RIGHT(F56,LEN(F56)-2)</f>
+        <f>IF(LEFT(RIGHT(F56,LEN(F56)-2),1)=".",RIGHT(F56,LEN(F56)-3),RIGHT(F56,LEN(F56)-2))</f>
       </c>
       <c r="T56" s="5" t="str">
-        <f>RIGHT(I56,LEN(I56)-2)</f>
+        <f>IF(LEFT(RIGHT(I56,LEN(I56)-2),1)=".",RIGHT(I56,LEN(I56)-3),RIGHT(I56,LEN(I56)-2))</f>
       </c>
       <c r="U56" s="5" t="str">
-        <f>RIGHT(G56,LEN(G56)-2)</f>
+        <f>IF(LEFT(RIGHT(G56,LEN(G56)-2),1)=".",RIGHT(G56,LEN(G56)-3),RIGHT(G56,LEN(G56)-2))</f>
       </c>
       <c r="V56" s="5" t="str">
-        <f>RIGHT(J56,LEN(J56)-2)</f>
+        <f>IF(LEFT(RIGHT(J56,LEN(J56)-2),1)=".",RIGHT(J56,LEN(J56)-3),RIGHT(J56,LEN(J56)-2))</f>
       </c>
       <c r="W56" s="5" t="str">
-        <f>RIGHT(H56,LEN(H56)-2)</f>
+        <f>IF(LEFT(RIGHT(H56,LEN(H56)-2),1)=".",RIGHT(H56,LEN(H56)-3),RIGHT(H56,LEN(H56)-2))</f>
       </c>
       <c r="X56" s="5" t="str">
         <f>INT(LEFT(R56,1))</f>
@@ -18352,31 +18385,31 @@
         <f>FLOOR(AS56/8,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1))*60</f>
       </c>
       <c r="AU56" s="5" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY56" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ56" s="5" t="s">
         <v>83</v>
       </c>
       <c r="BA56" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB56" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC56" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD56" s="5" t="str">
         <f>INT(LEFT(AU56,1))</f>
@@ -18540,7 +18573,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>77</v>
@@ -18549,61 +18582,61 @@
         <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K57" s="5" t="str">
-        <f>INT(LEFT(E57,1))</f>
+        <f>INT(LEFT(E57,2))</f>
       </c>
       <c r="L57" s="5" t="str">
-        <f>INT(LEFT(F57,1))</f>
+        <f>INT(LEFT(F57,2))</f>
       </c>
       <c r="M57" s="5" t="str">
-        <f>INT(LEFT(I57,1))</f>
+        <f>INT(LEFT(I57,2))</f>
       </c>
       <c r="N57" s="5" t="str">
-        <f>INT(LEFT(G57,1))</f>
+        <f>INT(LEFT(G57,2))</f>
       </c>
       <c r="O57" s="5" t="str">
-        <f>INT(LEFT(J57,1))</f>
+        <f>INT(LEFT(J57,2))</f>
       </c>
       <c r="P57" s="5" t="str">
-        <f>INT(LEFT(H57,1))</f>
+        <f>INT(LEFT(H57,2))</f>
       </c>
       <c r="Q57" s="5" t="str">
-        <f>K57+L57+IF(M57&gt;M57,M57-O57,0)+IF(N57&gt;P57,N57-P57,0)</f>
+        <f>K57+L57+IF(M57&gt;O57,M57-O57,0)+IF(N57&gt;P57,N57-P57,0)</f>
       </c>
       <c r="R57" s="5" t="str">
-        <f>RIGHT(E57,LEN(E57)-2)</f>
+        <f>IF(LEFT(RIGHT(E57,LEN(E57)-2),1)=".",RIGHT(E57,LEN(E57)-3),RIGHT(E57,LEN(E57)-2))</f>
       </c>
       <c r="S57" s="5" t="str">
-        <f>RIGHT(F57,LEN(F57)-2)</f>
+        <f>IF(LEFT(RIGHT(F57,LEN(F57)-2),1)=".",RIGHT(F57,LEN(F57)-3),RIGHT(F57,LEN(F57)-2))</f>
       </c>
       <c r="T57" s="5" t="str">
-        <f>RIGHT(I57,LEN(I57)-2)</f>
+        <f>IF(LEFT(RIGHT(I57,LEN(I57)-2),1)=".",RIGHT(I57,LEN(I57)-3),RIGHT(I57,LEN(I57)-2))</f>
       </c>
       <c r="U57" s="5" t="str">
-        <f>RIGHT(G57,LEN(G57)-2)</f>
+        <f>IF(LEFT(RIGHT(G57,LEN(G57)-2),1)=".",RIGHT(G57,LEN(G57)-3),RIGHT(G57,LEN(G57)-2))</f>
       </c>
       <c r="V57" s="5" t="str">
-        <f>RIGHT(J57,LEN(J57)-2)</f>
+        <f>IF(LEFT(RIGHT(J57,LEN(J57)-2),1)=".",RIGHT(J57,LEN(J57)-3),RIGHT(J57,LEN(J57)-2))</f>
       </c>
       <c r="W57" s="5" t="str">
-        <f>RIGHT(H57,LEN(H57)-2)</f>
+        <f>IF(LEFT(RIGHT(H57,LEN(H57)-2),1)=".",RIGHT(H57,LEN(H57)-3),RIGHT(H57,LEN(H57)-2))</f>
       </c>
       <c r="X57" s="5" t="str">
         <f>INT(LEFT(R57,1))</f>
@@ -18675,31 +18708,31 @@
         <f>FLOOR(AS57/8,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1))*60</f>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AV57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY57" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA57" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB57" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC57" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD57" s="5" t="str">
         <f>INT(LEFT(AU57,1))</f>
@@ -18863,7 +18896,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>77</v>
@@ -18872,61 +18905,61 @@
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="K58" s="5" t="str">
-        <f>INT(LEFT(E58,1))</f>
+        <f>INT(LEFT(E58,2))</f>
       </c>
       <c r="L58" s="5" t="str">
-        <f>INT(LEFT(F58,1))</f>
+        <f>INT(LEFT(F58,2))</f>
       </c>
       <c r="M58" s="5" t="str">
-        <f>INT(LEFT(I58,1))</f>
+        <f>INT(LEFT(I58,2))</f>
       </c>
       <c r="N58" s="5" t="str">
-        <f>INT(LEFT(G58,1))</f>
+        <f>INT(LEFT(G58,2))</f>
       </c>
       <c r="O58" s="5" t="str">
-        <f>INT(LEFT(J58,1))</f>
+        <f>INT(LEFT(J58,2))</f>
       </c>
       <c r="P58" s="5" t="str">
-        <f>INT(LEFT(H58,1))</f>
+        <f>INT(LEFT(H58,2))</f>
       </c>
       <c r="Q58" s="5" t="str">
-        <f>K58+L58+IF(M58&gt;M58,M58-O58,0)+IF(N58&gt;P58,N58-P58,0)</f>
+        <f>K58+L58+IF(M58&gt;O58,M58-O58,0)+IF(N58&gt;P58,N58-P58,0)</f>
       </c>
       <c r="R58" s="5" t="str">
-        <f>RIGHT(E58,LEN(E58)-2)</f>
+        <f>IF(LEFT(RIGHT(E58,LEN(E58)-2),1)=".",RIGHT(E58,LEN(E58)-3),RIGHT(E58,LEN(E58)-2))</f>
       </c>
       <c r="S58" s="5" t="str">
-        <f>RIGHT(F58,LEN(F58)-2)</f>
+        <f>IF(LEFT(RIGHT(F58,LEN(F58)-2),1)=".",RIGHT(F58,LEN(F58)-3),RIGHT(F58,LEN(F58)-2))</f>
       </c>
       <c r="T58" s="5" t="str">
-        <f>RIGHT(I58,LEN(I58)-2)</f>
+        <f>IF(LEFT(RIGHT(I58,LEN(I58)-2),1)=".",RIGHT(I58,LEN(I58)-3),RIGHT(I58,LEN(I58)-2))</f>
       </c>
       <c r="U58" s="5" t="str">
-        <f>RIGHT(G58,LEN(G58)-2)</f>
+        <f>IF(LEFT(RIGHT(G58,LEN(G58)-2),1)=".",RIGHT(G58,LEN(G58)-3),RIGHT(G58,LEN(G58)-2))</f>
       </c>
       <c r="V58" s="5" t="str">
-        <f>RIGHT(J58,LEN(J58)-2)</f>
+        <f>IF(LEFT(RIGHT(J58,LEN(J58)-2),1)=".",RIGHT(J58,LEN(J58)-3),RIGHT(J58,LEN(J58)-2))</f>
       </c>
       <c r="W58" s="5" t="str">
-        <f>RIGHT(H58,LEN(H58)-2)</f>
+        <f>IF(LEFT(RIGHT(H58,LEN(H58)-2),1)=".",RIGHT(H58,LEN(H58)-3),RIGHT(H58,LEN(H58)-2))</f>
       </c>
       <c r="X58" s="5" t="str">
         <f>INT(LEFT(R58,1))</f>
@@ -18998,31 +19031,31 @@
         <f>FLOOR(AS58/8,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1))*60</f>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV58" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ58" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB58" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC58" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD58" s="5" t="str">
         <f>INT(LEFT(AU58,1))</f>
@@ -19186,7 +19219,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>77</v>
@@ -19195,61 +19228,61 @@
         <v>0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K59" s="5" t="str">
-        <f>INT(LEFT(E59,1))</f>
+        <f>INT(LEFT(E59,2))</f>
       </c>
       <c r="L59" s="5" t="str">
-        <f>INT(LEFT(F59,1))</f>
+        <f>INT(LEFT(F59,2))</f>
       </c>
       <c r="M59" s="5" t="str">
-        <f>INT(LEFT(I59,1))</f>
+        <f>INT(LEFT(I59,2))</f>
       </c>
       <c r="N59" s="5" t="str">
-        <f>INT(LEFT(G59,1))</f>
+        <f>INT(LEFT(G59,2))</f>
       </c>
       <c r="O59" s="5" t="str">
-        <f>INT(LEFT(J59,1))</f>
+        <f>INT(LEFT(J59,2))</f>
       </c>
       <c r="P59" s="5" t="str">
-        <f>INT(LEFT(H59,1))</f>
+        <f>INT(LEFT(H59,2))</f>
       </c>
       <c r="Q59" s="5" t="str">
-        <f>K59+L59+IF(M59&gt;M59,M59-O59,0)+IF(N59&gt;P59,N59-P59,0)</f>
+        <f>K59+L59+IF(M59&gt;O59,M59-O59,0)+IF(N59&gt;P59,N59-P59,0)</f>
       </c>
       <c r="R59" s="5" t="str">
-        <f>RIGHT(E59,LEN(E59)-2)</f>
+        <f>IF(LEFT(RIGHT(E59,LEN(E59)-2),1)=".",RIGHT(E59,LEN(E59)-3),RIGHT(E59,LEN(E59)-2))</f>
       </c>
       <c r="S59" s="5" t="str">
-        <f>RIGHT(F59,LEN(F59)-2)</f>
+        <f>IF(LEFT(RIGHT(F59,LEN(F59)-2),1)=".",RIGHT(F59,LEN(F59)-3),RIGHT(F59,LEN(F59)-2))</f>
       </c>
       <c r="T59" s="5" t="str">
-        <f>RIGHT(I59,LEN(I59)-2)</f>
+        <f>IF(LEFT(RIGHT(I59,LEN(I59)-2),1)=".",RIGHT(I59,LEN(I59)-3),RIGHT(I59,LEN(I59)-2))</f>
       </c>
       <c r="U59" s="5" t="str">
-        <f>RIGHT(G59,LEN(G59)-2)</f>
+        <f>IF(LEFT(RIGHT(G59,LEN(G59)-2),1)=".",RIGHT(G59,LEN(G59)-3),RIGHT(G59,LEN(G59)-2))</f>
       </c>
       <c r="V59" s="5" t="str">
-        <f>RIGHT(J59,LEN(J59)-2)</f>
+        <f>IF(LEFT(RIGHT(J59,LEN(J59)-2),1)=".",RIGHT(J59,LEN(J59)-3),RIGHT(J59,LEN(J59)-2))</f>
       </c>
       <c r="W59" s="5" t="str">
-        <f>RIGHT(H59,LEN(H59)-2)</f>
+        <f>IF(LEFT(RIGHT(H59,LEN(H59)-2),1)=".",RIGHT(H59,LEN(H59)-3),RIGHT(H59,LEN(H59)-2))</f>
       </c>
       <c r="X59" s="5" t="str">
         <f>INT(LEFT(R59,1))</f>
@@ -19321,31 +19354,31 @@
         <f>FLOOR(AS59/8,1)&amp;"."&amp;FLOOR(MOD(AS59,8),1)&amp;"."&amp;(MOD(AS59,8)-FLOOR(MOD(AS59,8),1))*60</f>
       </c>
       <c r="AU59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB59" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC59" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD59" s="5" t="str">
         <f>INT(LEFT(AU59,1))</f>
@@ -19509,7 +19542,7 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>77</v>
@@ -19518,61 +19551,61 @@
         <v>0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>81</v>
       </c>
       <c r="K60" s="5" t="str">
-        <f>INT(LEFT(E60,1))</f>
+        <f>INT(LEFT(E60,2))</f>
       </c>
       <c r="L60" s="5" t="str">
-        <f>INT(LEFT(F60,1))</f>
+        <f>INT(LEFT(F60,2))</f>
       </c>
       <c r="M60" s="5" t="str">
-        <f>INT(LEFT(I60,1))</f>
+        <f>INT(LEFT(I60,2))</f>
       </c>
       <c r="N60" s="5" t="str">
-        <f>INT(LEFT(G60,1))</f>
+        <f>INT(LEFT(G60,2))</f>
       </c>
       <c r="O60" s="5" t="str">
-        <f>INT(LEFT(J60,1))</f>
+        <f>INT(LEFT(J60,2))</f>
       </c>
       <c r="P60" s="5" t="str">
-        <f>INT(LEFT(H60,1))</f>
+        <f>INT(LEFT(H60,2))</f>
       </c>
       <c r="Q60" s="5" t="str">
-        <f>K60+L60+IF(M60&gt;M60,M60-O60,0)+IF(N60&gt;P60,N60-P60,0)</f>
+        <f>K60+L60+IF(M60&gt;O60,M60-O60,0)+IF(N60&gt;P60,N60-P60,0)</f>
       </c>
       <c r="R60" s="5" t="str">
-        <f>RIGHT(E60,LEN(E60)-2)</f>
+        <f>IF(LEFT(RIGHT(E60,LEN(E60)-2),1)=".",RIGHT(E60,LEN(E60)-3),RIGHT(E60,LEN(E60)-2))</f>
       </c>
       <c r="S60" s="5" t="str">
-        <f>RIGHT(F60,LEN(F60)-2)</f>
+        <f>IF(LEFT(RIGHT(F60,LEN(F60)-2),1)=".",RIGHT(F60,LEN(F60)-3),RIGHT(F60,LEN(F60)-2))</f>
       </c>
       <c r="T60" s="5" t="str">
-        <f>RIGHT(I60,LEN(I60)-2)</f>
+        <f>IF(LEFT(RIGHT(I60,LEN(I60)-2),1)=".",RIGHT(I60,LEN(I60)-3),RIGHT(I60,LEN(I60)-2))</f>
       </c>
       <c r="U60" s="5" t="str">
-        <f>RIGHT(G60,LEN(G60)-2)</f>
+        <f>IF(LEFT(RIGHT(G60,LEN(G60)-2),1)=".",RIGHT(G60,LEN(G60)-3),RIGHT(G60,LEN(G60)-2))</f>
       </c>
       <c r="V60" s="5" t="str">
-        <f>RIGHT(J60,LEN(J60)-2)</f>
+        <f>IF(LEFT(RIGHT(J60,LEN(J60)-2),1)=".",RIGHT(J60,LEN(J60)-3),RIGHT(J60,LEN(J60)-2))</f>
       </c>
       <c r="W60" s="5" t="str">
-        <f>RIGHT(H60,LEN(H60)-2)</f>
+        <f>IF(LEFT(RIGHT(H60,LEN(H60)-2),1)=".",RIGHT(H60,LEN(H60)-3),RIGHT(H60,LEN(H60)-2))</f>
       </c>
       <c r="X60" s="5" t="str">
         <f>INT(LEFT(R60,1))</f>
@@ -19644,31 +19677,31 @@
         <f>FLOOR(AS60/8,1)&amp;"."&amp;FLOOR(MOD(AS60,8),1)&amp;"."&amp;(MOD(AS60,8)-FLOOR(MOD(AS60,8),1))*60</f>
       </c>
       <c r="AU60" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV60" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW60" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX60" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY60" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ60" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA60" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB60" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC60" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD60" s="5" t="str">
         <f>INT(LEFT(AU60,1))</f>
@@ -19832,7 +19865,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>77</v>
@@ -19841,10 +19874,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>126</v>
@@ -19853,49 +19886,49 @@
         <v>81</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="K61" s="5" t="str">
-        <f>INT(LEFT(E61,1))</f>
+        <f>INT(LEFT(E61,2))</f>
       </c>
       <c r="L61" s="5" t="str">
-        <f>INT(LEFT(F61,1))</f>
+        <f>INT(LEFT(F61,2))</f>
       </c>
       <c r="M61" s="5" t="str">
-        <f>INT(LEFT(I61,1))</f>
+        <f>INT(LEFT(I61,2))</f>
       </c>
       <c r="N61" s="5" t="str">
-        <f>INT(LEFT(G61,1))</f>
+        <f>INT(LEFT(G61,2))</f>
       </c>
       <c r="O61" s="5" t="str">
-        <f>INT(LEFT(J61,1))</f>
+        <f>INT(LEFT(J61,2))</f>
       </c>
       <c r="P61" s="5" t="str">
-        <f>INT(LEFT(H61,1))</f>
+        <f>INT(LEFT(H61,2))</f>
       </c>
       <c r="Q61" s="5" t="str">
-        <f>K61+L61+IF(M61&gt;M61,M61-O61,0)+IF(N61&gt;P61,N61-P61,0)</f>
+        <f>K61+L61+IF(M61&gt;O61,M61-O61,0)+IF(N61&gt;P61,N61-P61,0)</f>
       </c>
       <c r="R61" s="5" t="str">
-        <f>RIGHT(E61,LEN(E61)-2)</f>
+        <f>IF(LEFT(RIGHT(E61,LEN(E61)-2),1)=".",RIGHT(E61,LEN(E61)-3),RIGHT(E61,LEN(E61)-2))</f>
       </c>
       <c r="S61" s="5" t="str">
-        <f>RIGHT(F61,LEN(F61)-2)</f>
+        <f>IF(LEFT(RIGHT(F61,LEN(F61)-2),1)=".",RIGHT(F61,LEN(F61)-3),RIGHT(F61,LEN(F61)-2))</f>
       </c>
       <c r="T61" s="5" t="str">
-        <f>RIGHT(I61,LEN(I61)-2)</f>
+        <f>IF(LEFT(RIGHT(I61,LEN(I61)-2),1)=".",RIGHT(I61,LEN(I61)-3),RIGHT(I61,LEN(I61)-2))</f>
       </c>
       <c r="U61" s="5" t="str">
-        <f>RIGHT(G61,LEN(G61)-2)</f>
+        <f>IF(LEFT(RIGHT(G61,LEN(G61)-2),1)=".",RIGHT(G61,LEN(G61)-3),RIGHT(G61,LEN(G61)-2))</f>
       </c>
       <c r="V61" s="5" t="str">
-        <f>RIGHT(J61,LEN(J61)-2)</f>
+        <f>IF(LEFT(RIGHT(J61,LEN(J61)-2),1)=".",RIGHT(J61,LEN(J61)-3),RIGHT(J61,LEN(J61)-2))</f>
       </c>
       <c r="W61" s="5" t="str">
-        <f>RIGHT(H61,LEN(H61)-2)</f>
+        <f>IF(LEFT(RIGHT(H61,LEN(H61)-2),1)=".",RIGHT(H61,LEN(H61)-3),RIGHT(H61,LEN(H61)-2))</f>
       </c>
       <c r="X61" s="5" t="str">
         <f>INT(LEFT(R61,1))</f>
@@ -19967,31 +20000,31 @@
         <f>FLOOR(AS61/8,1)&amp;"."&amp;FLOOR(MOD(AS61,8),1)&amp;"."&amp;(MOD(AS61,8)-FLOOR(MOD(AS61,8),1))*60</f>
       </c>
       <c r="AU61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AV61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AW61" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AX61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AY61" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AZ61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BA61" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BB61" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BC61" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="BD61" s="5" t="str">
         <f>INT(LEFT(AU61,1))</f>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,12 +9,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="197">
   <si>
-    <t>iRipple, Inc.</t>
+    <t>iRipple, Inc. | DTR Summary Sheet for the period March 21, 2015 to April 03, 2015</t>
   </si>
   <si>
-    <t>DTR Summary Sheet for the period April 04, 2015 to April 24, 2015</t>
+    <t>Employee Information</t>
   </si>
   <si>
     <t> </t>
@@ -242,25 +242,22 @@
     <t>Agote,Tony</t>
   </si>
   <si>
-    <t>emp.department</t>
-  </si>
-  <si>
-    <t>0.0.30</t>
+    <t>Barter CX</t>
   </si>
   <si>
     <t>0.0.45</t>
   </si>
   <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>7.5.0</t>
-  </si>
-  <si>
     <t>0.0.0</t>
   </si>
   <si>
-    <t>0.7.0</t>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>0.3.0</t>
@@ -269,46 +266,58 @@
     <t>Arceo,Arwin</t>
   </si>
   <si>
-    <t>8.5.0</t>
+    <t>Project - International</t>
   </si>
   <si>
-    <t>6.5.0</t>
+    <t>3.8.0</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Ardamoy,Ma. Rica Catherine</t>
   </si>
   <si>
-    <t>0.1.15</t>
+    <t>Special Project - Petron</t>
   </si>
   <si>
-    <t>1.1.15</t>
+    <t>0.0.15</t>
+  </si>
+  <si>
+    <t>6.2.0</t>
+  </si>
+  <si>
+    <t>Bacani,Eddie Marie</t>
+  </si>
+  <si>
+    <t>International Business</t>
   </si>
   <si>
     <t>2.0.0</t>
   </si>
   <si>
-    <t>2.5.0</t>
-  </si>
-  <si>
-    <t>Bacani,Eddie Marie</t>
-  </si>
-  <si>
     <t>Bagaindoc,Kjell</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>Accounting</t>
   </si>
   <si>
     <t>Balingit,Barbara</t>
   </si>
   <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
     <t>Balino,Kamille Diane</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>Project - Local</t>
   </si>
   <si>
-    <t>13.0.0</t>
+    <t>0.0.30</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Barrion,Jane Katherine</t>
@@ -317,85 +326,97 @@
     <t>Bayogos,Charmaine</t>
   </si>
   <si>
-    <t>11.0.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Bonita,Reynaldo Jr</t>
   </si>
   <si>
-    <t>0.2.45</t>
+    <t>R&amp;amp;D</t>
   </si>
   <si>
-    <t>1.0.15</t>
-  </si>
-  <si>
-    <t>9.0.0</t>
+    <t>2.5.0</t>
   </si>
   <si>
     <t>Borlagdan,Aldrin</t>
   </si>
   <si>
+    <t>ATVI</t>
+  </si>
+  <si>
     <t>Brayles,Janwil</t>
   </si>
   <si>
-    <t>15.0.0</t>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>4.6.0</t>
   </si>
   <si>
     <t>Buena,Ian Christopher</t>
   </si>
   <si>
-    <t>0.1.45</t>
+    <t>0.3.15</t>
   </si>
   <si>
-    <t>8.0.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Buenafe,Rajiv</t>
   </si>
   <si>
+    <t>4.5.0</t>
+  </si>
+  <si>
     <t>Cataluna,Christian Gilbert</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>Sales and International Team</t>
+  </si>
+  <si>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>CaÃ±ete,Carol Ann</t>
   </si>
   <si>
-    <t>0.2.15</t>
+    <t>OMD</t>
   </si>
   <si>
     <t>Cerbo,Jaycer</t>
   </si>
   <si>
+    <t>Special Project - OCLP</t>
+  </si>
+  <si>
     <t>Ching,Mark Angelo</t>
   </si>
   <si>
-    <t>0.1.30</t>
+    <t>Managers</t>
   </si>
   <si>
-    <t>10.0.0</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Cortez,Jomar</t>
   </si>
   <si>
-    <t>0.0.15</t>
+    <t>Support</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Cruz,Cesar</t>
   </si>
   <si>
-    <t>4.5.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Delfin,Jonathan</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Delos Reyes,Jeffrey</t>
@@ -404,61 +425,79 @@
     <t>Dino,Arvin</t>
   </si>
   <si>
-    <t>12.5.0</t>
-  </si>
-  <si>
     <t>Dy,Hubert</t>
   </si>
   <si>
     <t>Egamino,Ellen</t>
   </si>
   <si>
-    <t>9.5.0</t>
+    <t>0.1.45</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>2.6.0</t>
+  </si>
+  <si>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Enrique,Christian Dan</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>Espiritu,Carl Philip</t>
   </si>
   <si>
-    <t>Espiritu,Carl Philip</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Flores,Arianne Grace</t>
   </si>
   <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
     <t>Francisco,Roed Ronualdo </t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>Barter Operations</t>
   </si>
   <si>
     <t>Gatan,Mario Haris Jr</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.1.30</t>
+  </si>
+  <si>
+    <t>4.2.0</t>
+  </si>
+  <si>
+    <t>2.1.30</t>
   </si>
   <si>
     <t>Javier,Victor </t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>Executive</t>
   </si>
   <si>
     <t>Joson,Alfonso Miguel</t>
   </si>
   <si>
+    <t>7.6.0</t>
+  </si>
+  <si>
     <t>Keng,Julie</t>
   </si>
   <si>
-    <t>12.0.0</t>
+    <t>6.5.0</t>
   </si>
   <si>
     <t>Laroza,Baltazar</t>
   </si>
   <si>
-    <t>1.3.15</t>
+    <t>0.5.15</t>
   </si>
   <si>
     <t>Laude,Ted Marty</t>
@@ -467,43 +506,34 @@
     <t>Ledesma,Jesse</t>
   </si>
   <si>
-    <t>0.0.3</t>
+    <t>0.2.30</t>
   </si>
   <si>
     <t>Mangundayao,Mac Donald</t>
   </si>
   <si>
-    <t>0.2.30</t>
-  </si>
-  <si>
-    <t>3.0.45</t>
-  </si>
-  <si>
     <t>Matias,Ma. Jeremia Jetheth </t>
   </si>
   <si>
-    <t>0.3.15</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
+    <t>0.4.45</t>
   </si>
   <si>
     <t>Mendoza,Diana</t>
   </si>
   <si>
-    <t>1.1.30</t>
+    <t>0.6.15</t>
   </si>
   <si>
     <t>Nagnal,Fracy</t>
   </si>
   <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
     <t>Newsom,Jifferson</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>2.0.30</t>
   </si>
   <si>
     <t>Pancho,Jona</t>
@@ -521,16 +551,19 @@
     <t>Reyes,Mark Gil</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>Reyes,Salvador</t>
   </si>
   <si>
-    <t>Reyes,Salvador</t>
+    <t>2.3.30</t>
   </si>
   <si>
     <t>Sanoria,Samuel</t>
   </si>
   <si>
     <t>Santos,Patricia</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>See,Jenilyn</t>
@@ -542,13 +575,13 @@
     <t>Soriano,Hans Josif</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>6.8.0</t>
   </si>
   <si>
     <t>Suarez,Katrina </t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Tanqueco,Mikee Dorina</t>
@@ -560,10 +593,10 @@
     <t>Unson,Mary Anne</t>
   </si>
   <si>
-    <t>Viloria,Eizell</t>
+    <t>Marketing/Hardware</t>
   </si>
   <si>
-    <t>1.1.45</t>
+    <t>Viloria,Eizell</t>
   </si>
   <si>
     <t>Viloria,Benito Jr.</t>
@@ -689,16 +722,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="87.13483146067415"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="21.134831460674157" hidden="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.834831460674156"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.134831460674157"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.834831460674156"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.534831460674157"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.534831460674157"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.534831460674157"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="14.534831460674157"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.25"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.25"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="26.25" hidden="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.25"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.5"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.5"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.5"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="14.534831460674157" hidden="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="7.9348314606741575" hidden="true"/>
     <col min="13" max="13" bestFit="true" customWidth="true" width="11.234831460674156" hidden="true"/>
@@ -734,16 +767,16 @@
     <col min="43" max="43" bestFit="true" customWidth="true" width="11.234831460674156" hidden="true"/>
     <col min="44" max="44" bestFit="true" customWidth="true" width="7.9348314606741575" hidden="true"/>
     <col min="45" max="45" bestFit="true" customWidth="true" width="7.9348314606741575" hidden="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="47.534831460674155"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="21.134831460674157"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="50.83483146067415"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="75.58483146067415"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="50.83483146067415"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="75.58483146067415"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="24.434831460674157"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="49.184831460674154"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="44.23483146067416"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="68.98483146067416"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="19.5"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="10.9"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="16.5"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="10.5"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="16.5"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.9"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="10.9"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="10.9"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="13.5"/>
     <col min="56" max="56" bestFit="true" customWidth="true" width="6.284831460674157" hidden="true"/>
     <col min="57" max="57" bestFit="true" customWidth="true" width="6.284831460674157" hidden="true"/>
     <col min="58" max="58" bestFit="true" customWidth="true" width="6.284831460674157" hidden="true"/>
@@ -794,8 +827,8 @@
     <col min="103" max="103" bestFit="true" customWidth="true" width="6.284831460674157" hidden="true"/>
     <col min="104" max="104" bestFit="true" customWidth="true" width="6.284831460674157" hidden="true"/>
     <col min="105" max="105" bestFit="true" customWidth="true" width="6.284831460674157" hidden="true"/>
-    <col min="106" max="106" bestFit="true" customWidth="true" width="16.184831460674157"/>
-    <col min="107" max="107" bestFit="true" customWidth="true" width="11.234831460674156"/>
+    <col min="106" max="106" bestFit="true" customWidth="true" width="14"/>
+    <col min="107" max="107" bestFit="true" customWidth="true" width="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1126,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row ht="70" customHeight="true" r="3">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1460,7 +1493,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
@@ -1475,10 +1508,10 @@
         <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>INT(LEFT(E4,2))</f>
@@ -1592,28 +1625,28 @@
         <v>83</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD4" s="5" t="str">
         <f>INT(LEFT(AU4,1))</f>
@@ -1777,28 +1810,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>87</v>
@@ -1912,31 +1945,31 @@
         <f>FLOOR(AS5/8,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1))*60</f>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC5" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD5" s="5" t="str">
         <f>INT(LEFT(AU5,1))</f>
@@ -2103,28 +2136,28 @@
         <v>88</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,2))</f>
@@ -2235,31 +2268,31 @@
         <f>FLOOR(AS6/8,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD6" s="5" t="str">
         <f>INT(LEFT(AU6,1))</f>
@@ -2423,28 +2456,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>81</v>
@@ -2558,31 +2591,31 @@
         <f>FLOOR(AS7/8,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1))*60</f>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC7" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD7" s="5" t="str">
         <f>INT(LEFT(AU7,1))</f>
@@ -2746,28 +2779,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>81</v>
@@ -2881,31 +2914,31 @@
         <f>FLOOR(AS8/8,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1))*60</f>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD8" s="5" t="str">
         <f>INT(LEFT(AU8,1))</f>
@@ -3069,31 +3102,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,2))</f>
@@ -3204,31 +3237,31 @@
         <f>FLOOR(AS9/8,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1))*60</f>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC9" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD9" s="5" t="str">
         <f>INT(LEFT(AU9,1))</f>
@@ -3392,28 +3425,28 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>81</v>
@@ -3527,31 +3560,31 @@
         <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC10" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD10" s="5" t="str">
         <f>INT(LEFT(AU10,1))</f>
@@ -3715,19 +3748,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>80</v>
@@ -3736,7 +3769,7 @@
         <v>81</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>81</v>
@@ -3850,31 +3883,31 @@
         <f>FLOOR(AS11/8,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1))*60</f>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD11" s="5" t="str">
         <f>INT(LEFT(AU11,1))</f>
@@ -4038,28 +4071,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>81</v>
@@ -4173,31 +4206,31 @@
         <f>FLOOR(AS12/8,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1))*60</f>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC12" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD12" s="5" t="str">
         <f>INT(LEFT(AU12,1))</f>
@@ -4361,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>81</v>
@@ -4496,31 +4529,31 @@
         <f>FLOOR(AS13/8,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD13" s="5" t="str">
         <f>INT(LEFT(AU13,1))</f>
@@ -4684,28 +4717,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>81</v>
@@ -4819,31 +4852,31 @@
         <f>FLOOR(AS14/8,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD14" s="5" t="str">
         <f>INT(LEFT(AU14,1))</f>
@@ -5007,31 +5040,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="H15" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,2))</f>
@@ -5142,31 +5175,31 @@
         <f>FLOOR(AS15/8,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1))*60</f>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD15" s="5" t="str">
         <f>INT(LEFT(AU15,1))</f>
@@ -5330,28 +5363,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D16" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>81</v>
@@ -5465,31 +5498,31 @@
         <f>FLOOR(AS16/8,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1))*60</f>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD16" s="5" t="str">
         <f>INT(LEFT(AU16,1))</f>
@@ -5653,31 +5686,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>INT(LEFT(E17,2))</f>
@@ -5788,31 +5821,31 @@
         <f>FLOOR(AS17/8,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1))*60</f>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC17" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD17" s="5" t="str">
         <f>INT(LEFT(AU17,1))</f>
@@ -5976,31 +6009,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,2))</f>
@@ -6111,31 +6144,31 @@
         <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC18" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD18" s="5" t="str">
         <f>INT(LEFT(AU18,1))</f>
@@ -6299,31 +6332,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="G19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,2))</f>
@@ -6434,31 +6467,31 @@
         <f>FLOOR(AS19/8,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1))*60</f>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC19" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD19" s="5" t="str">
         <f>INT(LEFT(AU19,1))</f>
@@ -6622,28 +6655,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>81</v>
@@ -6757,31 +6790,31 @@
         <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC20" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD20" s="5" t="str">
         <f>INT(LEFT(AU20,1))</f>
@@ -6945,28 +6978,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>81</v>
@@ -7080,31 +7113,31 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC21" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD21" s="5" t="str">
         <f>INT(LEFT(AU21,1))</f>
@@ -7268,31 +7301,31 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="I22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>INT(LEFT(E22,2))</f>
@@ -7403,31 +7436,31 @@
         <f>FLOOR(AS22/8,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD22" s="5" t="str">
         <f>INT(LEFT(AU22,1))</f>
@@ -7591,31 +7624,31 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,2))</f>
@@ -7726,31 +7759,31 @@
         <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC23" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD23" s="5" t="str">
         <f>INT(LEFT(AU23,1))</f>
@@ -7914,31 +7947,31 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,2))</f>
@@ -8049,31 +8082,31 @@
         <f>FLOOR(AS24/8,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1))*60</f>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AV24" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="AW24" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AX24" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY24" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA24" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC24" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD24" s="5" t="str">
         <f>INT(LEFT(AU24,1))</f>
@@ -8237,31 +8270,31 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(E25,2))</f>
@@ -8372,31 +8405,31 @@
         <f>FLOOR(AS25/8,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC25" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD25" s="5" t="str">
         <f>INT(LEFT(AU25,1))</f>
@@ -8560,19 +8593,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>131</v>
@@ -8581,10 +8614,10 @@
         <v>81</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>INT(LEFT(E26,2))</f>
@@ -8695,31 +8728,31 @@
         <f>FLOOR(AS26/8,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1))*60</f>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC26" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD26" s="5" t="str">
         <f>INT(LEFT(AU26,1))</f>
@@ -8883,28 +8916,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>81</v>
@@ -9018,31 +9051,31 @@
         <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC27" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD27" s="5" t="str">
         <f>INT(LEFT(AU27,1))</f>
@@ -9206,31 +9239,31 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>INT(LEFT(E28,2))</f>
@@ -9341,31 +9374,31 @@
         <f>FLOOR(AS28/8,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC28" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD28" s="5" t="str">
         <f>INT(LEFT(AU28,1))</f>
@@ -9529,28 +9562,28 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>81</v>
@@ -9664,31 +9697,31 @@
         <f>FLOOR(AS29/8,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1))*60</f>
       </c>
       <c r="AU29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC29" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD29" s="5" t="str">
         <f>INT(LEFT(AU29,1))</f>
@@ -9852,31 +9885,31 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,2))</f>
@@ -9987,31 +10020,31 @@
         <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV30" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="AW30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AX30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC30" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -10175,28 +10208,28 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>81</v>
@@ -10310,31 +10343,31 @@
         <f>FLOOR(AS31/8,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ31" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC31" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD31" s="5" t="str">
         <f>INT(LEFT(AU31,1))</f>
@@ -10498,28 +10531,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>81</v>
@@ -10633,31 +10666,31 @@
         <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD32" s="5" t="str">
         <f>INT(LEFT(AU32,1))</f>
@@ -10821,31 +10854,31 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,2))</f>
@@ -10956,31 +10989,31 @@
         <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD33" s="5" t="str">
         <f>INT(LEFT(AU33,1))</f>
@@ -11144,28 +11177,28 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>81</v>
@@ -11279,31 +11312,31 @@
         <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC34" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD34" s="5" t="str">
         <f>INT(LEFT(AU34,1))</f>
@@ -11467,31 +11500,31 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>INT(LEFT(E35,2))</f>
@@ -11602,31 +11635,31 @@
         <f>FLOOR(AS35/8,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1))*60</f>
       </c>
       <c r="AU35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB35" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="BC35" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD35" s="5" t="str">
         <f>INT(LEFT(AU35,1))</f>
@@ -11790,28 +11823,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>81</v>
@@ -11925,31 +11958,31 @@
         <f>FLOOR(AS36/8,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC36" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD36" s="5" t="str">
         <f>INT(LEFT(AU36,1))</f>
@@ -12113,31 +12146,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,2))</f>
@@ -12248,31 +12281,31 @@
         <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC37" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD37" s="5" t="str">
         <f>INT(LEFT(AU37,1))</f>
@@ -12436,31 +12469,31 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K38" s="5" t="str">
         <f>INT(LEFT(E38,2))</f>
@@ -12571,31 +12604,31 @@
         <f>FLOOR(AS38/8,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD38" s="5" t="str">
         <f>INT(LEFT(AU38,1))</f>
@@ -12759,31 +12792,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,2))</f>
@@ -12894,31 +12927,31 @@
         <f>FLOOR(AS39/8,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1))*60</f>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="AW39" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX39" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY39" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ39" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="BB39" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC39" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD39" s="5" t="str">
         <f>INT(LEFT(AU39,1))</f>
@@ -13082,31 +13115,31 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>INT(LEFT(E40,2))</f>
@@ -13217,31 +13250,31 @@
         <f>FLOOR(AS40/8,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD40" s="5" t="str">
         <f>INT(LEFT(AU40,1))</f>
@@ -13405,31 +13438,31 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,2))</f>
@@ -13540,31 +13573,31 @@
         <f>FLOOR(AS41/8,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1))*60</f>
       </c>
       <c r="AU41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD41" s="5" t="str">
         <f>INT(LEFT(AU41,1))</f>
@@ -13728,28 +13761,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>81</v>
@@ -13863,31 +13896,31 @@
         <f>FLOOR(AS42/8,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1))*60</f>
       </c>
       <c r="AU42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC42" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD42" s="5" t="str">
         <f>INT(LEFT(AU42,1))</f>
@@ -14051,31 +14084,31 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="I43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,2))</f>
@@ -14186,31 +14219,31 @@
         <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC43" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD43" s="5" t="str">
         <f>INT(LEFT(AU43,1))</f>
@@ -14374,28 +14407,28 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>81</v>
@@ -14509,31 +14542,31 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="AV44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ44" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA44" s="5" t="s">
-        <v>164</v>
+        <v>79</v>
       </c>
       <c r="BB44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC44" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD44" s="5" t="str">
         <f>INT(LEFT(AU44,1))</f>
@@ -14697,31 +14730,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K45" s="5" t="str">
         <f>INT(LEFT(E45,2))</f>
@@ -14832,31 +14865,31 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC45" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD45" s="5" t="str">
         <f>INT(LEFT(AU45,1))</f>
@@ -15020,28 +15053,28 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>81</v>
@@ -15155,31 +15188,31 @@
         <f>FLOOR(AS46/8,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1))*60</f>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC46" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD46" s="5" t="str">
         <f>INT(LEFT(AU46,1))</f>
@@ -15343,31 +15376,31 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,2))</f>
@@ -15478,31 +15511,31 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC47" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD47" s="5" t="str">
         <f>INT(LEFT(AU47,1))</f>
@@ -15666,28 +15699,28 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>81</v>
@@ -15801,31 +15834,31 @@
         <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC48" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD48" s="5" t="str">
         <f>INT(LEFT(AU48,1))</f>
@@ -15989,28 +16022,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>81</v>
@@ -16124,31 +16157,31 @@
         <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC49" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD49" s="5" t="str">
         <f>INT(LEFT(AU49,1))</f>
@@ -16312,28 +16345,28 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>81</v>
@@ -16447,31 +16480,31 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="AV50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX50" s="5" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AY50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC50" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD50" s="5" t="str">
         <f>INT(LEFT(AU50,1))</f>
@@ -16635,31 +16668,31 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>INT(LEFT(E51,2))</f>
@@ -16770,31 +16803,31 @@
         <f>FLOOR(AS51/8,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1))*60</f>
       </c>
       <c r="AU51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD51" s="5" t="str">
         <f>INT(LEFT(AU51,1))</f>
@@ -16958,31 +16991,31 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>INT(LEFT(E52,2))</f>
@@ -17093,31 +17126,31 @@
         <f>FLOOR(AS52/8,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1))*60</f>
       </c>
       <c r="AU52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV52" s="5" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="AX52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD52" s="5" t="str">
         <f>INT(LEFT(AU52,1))</f>
@@ -17281,28 +17314,28 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>81</v>
@@ -17416,31 +17449,31 @@
         <f>FLOOR(AS53/8,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1))*60</f>
       </c>
       <c r="AU53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC53" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD53" s="5" t="str">
         <f>INT(LEFT(AU53,1))</f>
@@ -17604,28 +17637,28 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>81</v>
@@ -17739,31 +17772,31 @@
         <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
       </c>
       <c r="AU54" s="5" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AV54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC54" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD54" s="5" t="str">
         <f>INT(LEFT(AU54,1))</f>
@@ -17927,31 +17960,31 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="I55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>INT(LEFT(E55,2))</f>
@@ -18062,31 +18095,31 @@
         <f>FLOOR(AS55/8,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1))*60</f>
       </c>
       <c r="AU55" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="AV55" s="5" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC55" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD55" s="5" t="str">
         <f>INT(LEFT(AU55,1))</f>
@@ -18250,31 +18283,31 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K56" s="5" t="str">
         <f>INT(LEFT(E56,2))</f>
@@ -18385,31 +18418,31 @@
         <f>FLOOR(AS56/8,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1))*60</f>
       </c>
       <c r="AU56" s="5" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY56" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ56" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="BA56" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB56" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC56" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD56" s="5" t="str">
         <f>INT(LEFT(AU56,1))</f>
@@ -18573,28 +18606,28 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>81</v>
@@ -18708,31 +18741,31 @@
         <f>FLOOR(AS57/8,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1))*60</f>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC57" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD57" s="5" t="str">
         <f>INT(LEFT(AU57,1))</f>
@@ -18896,31 +18929,31 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K58" s="5" t="str">
         <f>INT(LEFT(E58,2))</f>
@@ -19031,31 +19064,31 @@
         <f>FLOOR(AS58/8,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1))*60</f>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="AV58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC58" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD58" s="5" t="str">
         <f>INT(LEFT(AU58,1))</f>
@@ -19219,28 +19252,28 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>81</v>
@@ -19354,31 +19387,31 @@
         <f>FLOOR(AS59/8,1)&amp;"."&amp;FLOOR(MOD(AS59,8),1)&amp;"."&amp;(MOD(AS59,8)-FLOOR(MOD(AS59,8),1))*60</f>
       </c>
       <c r="AU59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC59" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD59" s="5" t="str">
         <f>INT(LEFT(AU59,1))</f>
@@ -19542,28 +19575,28 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>81</v>
@@ -19677,31 +19710,31 @@
         <f>FLOOR(AS60/8,1)&amp;"."&amp;FLOOR(MOD(AS60,8),1)&amp;"."&amp;(MOD(AS60,8)-FLOOR(MOD(AS60,8),1))*60</f>
       </c>
       <c r="AU60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC60" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD60" s="5" t="str">
         <f>INT(LEFT(AU60,1))</f>
@@ -19865,31 +19898,31 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K61" s="5" t="str">
         <f>INT(LEFT(E61,2))</f>
@@ -20000,31 +20033,31 @@
         <f>FLOOR(AS61/8,1)&amp;"."&amp;FLOOR(MOD(AS61,8),1)&amp;"."&amp;(MOD(AS61,8)-FLOOR(MOD(AS61,8),1))*60</f>
       </c>
       <c r="AU61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AW61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AX61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AY61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AZ61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BA61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BC61" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BD61" s="5" t="str">
         <f>INT(LEFT(AU61,1))</f>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,9 +9,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="183" xml:space="preserve">
-  <si>
-    <t>iRipple, Inc. | DTR Summary Sheet for the period February 10, 2015 to February 20, 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="187" xml:space="preserve">
+  <si>
+    <t>iRipple, Inc. | DTR Summary Sheet for the period April 04, 2015 to April 24, 2015</t>
   </si>
   <si>
     <t>Employee Information</t>
@@ -239,319 +239,331 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Agote,Tony</t>
+    <t>"Gatan, Jr.",Mario Haris</t>
+  </si>
+  <si>
+    <t>Barter Local - Support</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>7.4.0</t>
+  </si>
+  <si>
+    <t>Arceo,Arwin</t>
+  </si>
+  <si>
+    <t>International Business - Malaysia</t>
+  </si>
+  <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>Ardamoy,Ma. Rica Catherine</t>
+  </si>
+  <si>
+    <t>Enterprise - Petron</t>
+  </si>
+  <si>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Bacani,Eddie Marie</t>
+  </si>
+  <si>
+    <t>International Business - Thailand</t>
+  </si>
+  <si>
+    <t>Balingit,Barbara</t>
+  </si>
+  <si>
+    <t>HR &amp;amp; Admin</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>Balino,Kamille Diane</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>12.0.0</t>
+  </si>
+  <si>
+    <t>Barrion,Jane Katherine</t>
+  </si>
+  <si>
+    <t>Bayogos,Charmaine</t>
+  </si>
+  <si>
+    <t>Enterprise - Ayagold</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Borlagdan,Aldrin</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>Buena,Ian Christopher</t>
+  </si>
+  <si>
+    <t>0.1.45</t>
+  </si>
+  <si>
+    <t>0.0.3</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>Buenafe,Rajiv</t>
+  </si>
+  <si>
+    <t>14.0.0</t>
+  </si>
+  <si>
+    <t>Cataluna,Christian Gilbert</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>CaÃ±ete,Carol Ann</t>
+  </si>
+  <si>
+    <t>0.2.15</t>
+  </si>
+  <si>
+    <t>Cerbo,Jaycer</t>
+  </si>
+  <si>
+    <t>Ching,Mark Angelo</t>
+  </si>
+  <si>
+    <t>Imaghine</t>
+  </si>
+  <si>
+    <t>0.2.45</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>Cortez,Jomar</t>
+  </si>
+  <si>
+    <t>0.0.45</t>
+  </si>
+  <si>
+    <t>Cruz,Cesar</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>Delfin,Jonathan</t>
+  </si>
+  <si>
+    <t>International Business - PNG</t>
+  </si>
+  <si>
+    <t>Dino,Arvin</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>11.4.0</t>
+  </si>
+  <si>
+    <t>Dy,Hubert</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Egamino,Ellen</t>
+  </si>
+  <si>
+    <t>8.4.0</t>
+  </si>
+  <si>
+    <t>Enrique,Christian Dan</t>
+  </si>
+  <si>
+    <t>Barter Local - Project</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>Espiritu,Carl Philip</t>
+  </si>
+  <si>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>Flores,Arianne Grace</t>
+  </si>
+  <si>
+    <t>Francisco,Roed Ronualdo </t>
+  </si>
+  <si>
+    <t>Javier,Victor </t>
+  </si>
+  <si>
+    <t>4.4.0</t>
+  </si>
+  <si>
+    <t>Joson,Alfonso Miguel</t>
+  </si>
+  <si>
+    <t>Keng,Julie</t>
+  </si>
+  <si>
+    <t>11.0.0</t>
+  </si>
+  <si>
+    <t>Laude,Ted Marty</t>
+  </si>
+  <si>
+    <t>Ledesma,Jesse</t>
+  </si>
+  <si>
+    <t>9.4.0</t>
+  </si>
+  <si>
+    <t>Mangundayao,Mac Donald</t>
   </si>
   <si>
     <t>Barter CX</t>
   </si>
   <si>
-    <t>0.0.30</t>
-  </si>
-  <si>
-    <t>0.0.00</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>7.5.0</t>
-  </si>
-  <si>
-    <t>2.0.15</t>
-  </si>
-  <si>
-    <t>0.3.45</t>
-  </si>
-  <si>
-    <t>0.4.3</t>
-  </si>
-  <si>
-    <t>3.1.3</t>
-  </si>
-  <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
-    <t>Arceo,Arwin</t>
-  </si>
-  <si>
-    <t>Project - International</t>
-  </si>
-  <si>
-    <t>0.0.0</t>
-  </si>
-  <si>
-    <t>3.5.0</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
-  </si>
-  <si>
-    <t>Ardamoy,Ma. Rica Catherine</t>
-  </si>
-  <si>
-    <t>Special Project - Petron</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
-    <t>Bacani,Eddie Marie</t>
-  </si>
-  <si>
-    <t>International Business</t>
-  </si>
-  <si>
-    <t>9.0.0</t>
-  </si>
-  <si>
-    <t>Bagaindoc,Kjell</t>
-  </si>
-  <si>
-    <t>Accounting</t>
+    <t>0.2.3</t>
+  </si>
+  <si>
+    <t>3.6.0</t>
+  </si>
+  <si>
+    <t>0.4.15</t>
+  </si>
+  <si>
+    <t>Matias,Ma. Jeremia Jetheth </t>
+  </si>
+  <si>
+    <t>0.3.15</t>
+  </si>
+  <si>
+    <t>Mendoza,Diana</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Nagnal,Fracy</t>
+  </si>
+  <si>
+    <t>Newsom,Jifferson</t>
+  </si>
+  <si>
+    <t>Pancho,Jona</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Pechuanging,Ma. Antoinette</t>
+  </si>
+  <si>
+    <t>Pendre,Contessa</t>
+  </si>
+  <si>
+    <t>Ranes,Jonathan</t>
+  </si>
+  <si>
+    <t>Reyes,Mark Gil</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>1.6.0</t>
+  </si>
+  <si>
+    <t>Reyes,Salvador</t>
+  </si>
+  <si>
+    <t>Sanoria,Samuel</t>
+  </si>
+  <si>
+    <t>Santos,Patricia</t>
+  </si>
+  <si>
+    <t>See,Jenilyn</t>
   </si>
   <si>
     <t>0.0.15</t>
   </si>
   <si>
-    <t>7.0.0</t>
-  </si>
-  <si>
-    <t>Balingit,Barbara</t>
-  </si>
-  <si>
-    <t>5.5.0</t>
-  </si>
-  <si>
-    <t>4.5.0</t>
-  </si>
-  <si>
-    <t>Balino,Kamille Diane</t>
-  </si>
-  <si>
-    <t>Project - Local</t>
-  </si>
-  <si>
-    <t>Barrion,Jane Katherine</t>
-  </si>
-  <si>
-    <t>Bayogos,Charmaine</t>
-  </si>
-  <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
-    <t>Bonita,Reynaldo Jr</t>
-  </si>
-  <si>
-    <t>R&amp;amp;D</t>
-  </si>
-  <si>
-    <t>0.2.30</t>
-  </si>
-  <si>
-    <t>3.0.0</t>
-  </si>
-  <si>
-    <t>Buenafe,Rajiv</t>
-  </si>
-  <si>
-    <t>Cataluna,Christian Gilbert</t>
-  </si>
-  <si>
-    <t>Sales and International Team</t>
-  </si>
-  <si>
-    <t>2.5.0</t>
-  </si>
-  <si>
-    <t>CaÃ±ete,Carol Ann</t>
-  </si>
-  <si>
-    <t>OMD</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>Cerbo,Jaycer</t>
-  </si>
-  <si>
-    <t>Special Project - OCLP</t>
-  </si>
-  <si>
-    <t>Ching,Mark Angelo</t>
-  </si>
-  <si>
-    <t>Managers</t>
-  </si>
-  <si>
-    <t>0.1.45</t>
-  </si>
-  <si>
-    <t>6.0.0</t>
-  </si>
-  <si>
-    <t>Cortez,Jomar</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t>6.5.0</t>
-  </si>
-  <si>
-    <t>Cruz,Cesar</t>
-  </si>
-  <si>
-    <t>1.5.0</t>
-  </si>
-  <si>
-    <t>Delfin,Jonathan</t>
-  </si>
-  <si>
-    <t>Dy,Hubert</t>
-  </si>
-  <si>
-    <t>Egamino,Ellen</t>
-  </si>
-  <si>
-    <t>Enrique,Christian Dan</t>
-  </si>
-  <si>
-    <t>Espiritu,Carl Philip</t>
-  </si>
-  <si>
-    <t>Flores,Arianne Grace</t>
-  </si>
-  <si>
-    <t>0.6.3</t>
-  </si>
-  <si>
-    <t>Francisco,Roed Ronualdo </t>
-  </si>
-  <si>
-    <t>Barter Operations</t>
-  </si>
-  <si>
-    <t>Gatan,Mario Haris Jr</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>Javier,Victor </t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Joson,Alfonso Miguel</t>
-  </si>
-  <si>
-    <t>Keng,Julie</t>
-  </si>
-  <si>
-    <t>8.5.0</t>
-  </si>
-  <si>
-    <t>Laroza,Baltazar</t>
-  </si>
-  <si>
-    <t>Laude,Ted Marty</t>
-  </si>
-  <si>
-    <t>Ledesma,Jesse</t>
+    <t>Solbita,Felmar</t>
+  </si>
+  <si>
+    <t>Enterprise - Primer</t>
+  </si>
+  <si>
+    <t>Soriano,Josif Hans</t>
   </si>
   <si>
     <t>0.6.0</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>Mangundayao,Mac Donald</t>
-  </si>
-  <si>
-    <t>1.2.45</t>
-  </si>
-  <si>
-    <t>Mendoza,Diana</t>
-  </si>
-  <si>
-    <t>0.5.15</t>
-  </si>
-  <si>
-    <t>Nagnal,Fracy</t>
-  </si>
-  <si>
-    <t>Newsom,Jifferson</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>0.4.00</t>
-  </si>
-  <si>
-    <t>0.1.30</t>
-  </si>
-  <si>
-    <t>Pancho,Jona</t>
-  </si>
-  <si>
-    <t>Pechuanging,Ma. Antoinette</t>
-  </si>
-  <si>
-    <t>Reyes,Mark Gil</t>
-  </si>
-  <si>
-    <t>0.0.45</t>
-  </si>
-  <si>
-    <t>Reyes,Salvador</t>
-  </si>
-  <si>
-    <t>Sanoria,Samuel</t>
-  </si>
-  <si>
-    <t>Santos,Patricia</t>
-  </si>
-  <si>
-    <t>See,Jenilyn</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
-  </si>
-  <si>
-    <t>Solbita,Felmar</t>
-  </si>
-  <si>
-    <t>Soriano,Hans Josif</t>
-  </si>
-  <si>
     <t>Suarez,Katrina </t>
   </si>
   <si>
-    <t>0.2.45</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Tanqueco,Mikee Dorina</t>
   </si>
   <si>
-    <t>1.7.0</t>
-  </si>
-  <si>
     <t>Tesoro,Rose Natalie</t>
   </si>
   <si>
     <t>Unson,Mary Anne</t>
   </si>
   <si>
-    <t>Marketing/Hardware</t>
+    <t>Marketing &amp;amp; Hardware</t>
   </si>
   <si>
     <t>Viloria,Eizell</t>
@@ -674,7 +686,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:DC53"/>
+  <dimension ref="A1:DC55"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane state="frozenSplit" ySplit="3" xSplit="2"/>
@@ -1453,7 +1465,7 @@
         <v>77</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>78</v>
@@ -1468,7 +1480,7 @@
         <v>81</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>81</v>
@@ -1582,31 +1594,31 @@
         <f>FLOOR(AS4/8,1)&amp;"."&amp;FLOOR(MOD(AS4,8),1)&amp;"."&amp;(MOD(AS4,8)-FLOOR(MOD(AS4,8),1))*60</f>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AZ4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BA4" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="BB4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BC4" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BD4" s="5" t="str">
         <f>INT(LEFT(AU4,1))</f>
@@ -1770,10 +1782,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -1785,16 +1797,16 @@
         <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,2))</f>
@@ -1905,31 +1917,31 @@
         <f>FLOOR(AS5/8,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1))*60</f>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC5" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD5" s="5" t="str">
         <f>INT(LEFT(AU5,1))</f>
@@ -2093,22 +2105,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>81</v>
@@ -2228,31 +2240,31 @@
         <f>FLOOR(AS6/8,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ6" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA6" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB6" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC6" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD6" s="5" t="str">
         <f>INT(LEFT(AU6,1))</f>
@@ -2416,10 +2428,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0</v>
@@ -2431,13 +2443,13 @@
         <v>79</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>81</v>
@@ -2551,31 +2563,31 @@
         <f>FLOOR(AS7/8,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1))*60</f>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC7" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD7" s="5" t="str">
         <f>INT(LEFT(AU7,1))</f>
@@ -2739,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -2751,16 +2763,16 @@
         <v>79</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>81</v>
@@ -2874,31 +2886,31 @@
         <f>FLOOR(AS8/8,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1))*60</f>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD8" s="5" t="str">
         <f>INT(LEFT(AU8,1))</f>
@@ -3062,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0</v>
@@ -3074,19 +3086,19 @@
         <v>79</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,2))</f>
@@ -3197,31 +3209,31 @@
         <f>FLOOR(AS9/8,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1))*60</f>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC9" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD9" s="5" t="str">
         <f>INT(LEFT(AU9,1))</f>
@@ -3385,10 +3397,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
@@ -3400,13 +3412,13 @@
         <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>81</v>
@@ -3520,31 +3532,31 @@
         <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC10" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD10" s="5" t="str">
         <f>INT(LEFT(AU10,1))</f>
@@ -3708,10 +3720,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -3723,13 +3735,13 @@
         <v>79</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>81</v>
@@ -3843,31 +3855,31 @@
         <f>FLOOR(AS11/8,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1))*60</f>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC11" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD11" s="5" t="str">
         <f>INT(LEFT(AU11,1))</f>
@@ -4031,28 +4043,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>81</v>
@@ -4166,31 +4178,31 @@
         <f>FLOOR(AS12/8,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1))*60</f>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC12" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD12" s="5" t="str">
         <f>INT(LEFT(AU12,1))</f>
@@ -4354,28 +4366,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>81</v>
@@ -4489,31 +4501,31 @@
         <f>FLOOR(AS13/8,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC13" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD13" s="5" t="str">
         <f>INT(LEFT(AU13,1))</f>
@@ -4677,10 +4689,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -4692,16 +4704,16 @@
         <v>79</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>INT(LEFT(E14,2))</f>
@@ -4812,31 +4824,31 @@
         <f>FLOOR(AS14/8,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC14" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD14" s="5" t="str">
         <f>INT(LEFT(AU14,1))</f>
@@ -5000,10 +5012,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -5015,16 +5027,16 @@
         <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,2))</f>
@@ -5135,31 +5147,31 @@
         <f>FLOOR(AS15/8,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1))*60</f>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC15" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD15" s="5" t="str">
         <f>INT(LEFT(AU15,1))</f>
@@ -5323,28 +5335,28 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="I16" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>81</v>
@@ -5458,31 +5470,31 @@
         <f>FLOOR(AS16/8,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1))*60</f>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC16" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD16" s="5" t="str">
         <f>INT(LEFT(AU16,1))</f>
@@ -5646,28 +5658,28 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>81</v>
@@ -5781,31 +5793,31 @@
         <f>FLOOR(AS17/8,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1))*60</f>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC17" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD17" s="5" t="str">
         <f>INT(LEFT(AU17,1))</f>
@@ -5969,28 +5981,28 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>81</v>
@@ -6104,31 +6116,31 @@
         <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC18" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD18" s="5" t="str">
         <f>INT(LEFT(AU18,1))</f>
@@ -6292,31 +6304,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,2))</f>
@@ -6427,31 +6439,31 @@
         <f>FLOOR(AS19/8,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1))*60</f>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC19" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD19" s="5" t="str">
         <f>INT(LEFT(AU19,1))</f>
@@ -6615,31 +6627,31 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,2))</f>
@@ -6750,31 +6762,31 @@
         <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC20" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD20" s="5" t="str">
         <f>INT(LEFT(AU20,1))</f>
@@ -6938,31 +6950,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>INT(LEFT(E21,2))</f>
@@ -7073,31 +7085,31 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC21" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD21" s="5" t="str">
         <f>INT(LEFT(AU21,1))</f>
@@ -7261,10 +7273,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0</v>
@@ -7273,16 +7285,16 @@
         <v>79</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>81</v>
@@ -7396,31 +7408,31 @@
         <f>FLOOR(AS22/8,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC22" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD22" s="5" t="str">
         <f>INT(LEFT(AU22,1))</f>
@@ -7584,10 +7596,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
@@ -7596,19 +7608,19 @@
         <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,2))</f>
@@ -7719,31 +7731,31 @@
         <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AX23" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ23" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA23" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB23" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC23" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD23" s="5" t="str">
         <f>INT(LEFT(AU23,1))</f>
@@ -7907,28 +7919,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>81</v>
@@ -8042,31 +8054,31 @@
         <f>FLOOR(AS24/8,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1))*60</f>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC24" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD24" s="5" t="str">
         <f>INT(LEFT(AU24,1))</f>
@@ -8230,10 +8242,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0</v>
@@ -8242,19 +8254,19 @@
         <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(E25,2))</f>
@@ -8365,31 +8377,31 @@
         <f>FLOOR(AS25/8,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC25" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD25" s="5" t="str">
         <f>INT(LEFT(AU25,1))</f>
@@ -8553,28 +8565,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>81</v>
@@ -8688,31 +8700,31 @@
         <f>FLOOR(AS26/8,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1))*60</f>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AV26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC26" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD26" s="5" t="str">
         <f>INT(LEFT(AU26,1))</f>
@@ -8876,28 +8888,28 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>81</v>
@@ -9011,31 +9023,31 @@
         <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AW27" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX27" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY27" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ27" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB27" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC27" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD27" s="5" t="str">
         <f>INT(LEFT(AU27,1))</f>
@@ -9202,7 +9214,7 @@
         <v>142</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0</v>
@@ -9214,16 +9226,16 @@
         <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>INT(LEFT(E28,2))</f>
@@ -9334,31 +9346,31 @@
         <f>FLOOR(AS28/8,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW28" s="5" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AX28" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY28" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ28" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA28" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB28" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC28" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD28" s="5" t="str">
         <f>INT(LEFT(AU28,1))</f>
@@ -9522,10 +9534,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
@@ -9534,16 +9546,16 @@
         <v>79</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>81</v>
@@ -9657,31 +9669,31 @@
         <f>FLOOR(AS29/8,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1))*60</f>
       </c>
       <c r="AU29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC29" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD29" s="5" t="str">
         <f>INT(LEFT(AU29,1))</f>
@@ -9845,28 +9857,28 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>81</v>
@@ -9980,31 +9992,31 @@
         <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC30" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -10168,10 +10180,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
@@ -10180,16 +10192,16 @@
         <v>79</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>81</v>
@@ -10303,31 +10315,31 @@
         <f>FLOOR(AS31/8,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC31" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD31" s="5" t="str">
         <f>INT(LEFT(AU31,1))</f>
@@ -10491,31 +10503,31 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,2))</f>
@@ -10626,31 +10638,31 @@
         <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD32" s="5" t="str">
         <f>INT(LEFT(AU32,1))</f>
@@ -10814,31 +10826,31 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="H33" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,2))</f>
@@ -10949,31 +10961,31 @@
         <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA33" s="5" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="BB33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC33" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD33" s="5" t="str">
         <f>INT(LEFT(AU33,1))</f>
@@ -11140,28 +11152,28 @@
         <v>151</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K34" s="5" t="str">
         <f>INT(LEFT(E34,2))</f>
@@ -11272,31 +11284,31 @@
         <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="AX34" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY34" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ34" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA34" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB34" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC34" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD34" s="5" t="str">
         <f>INT(LEFT(AU34,1))</f>
@@ -11460,31 +11472,31 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>INT(LEFT(E35,2))</f>
@@ -11595,31 +11607,31 @@
         <f>FLOOR(AS35/8,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1))*60</f>
       </c>
       <c r="AU35" s="5" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AV35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC35" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD35" s="5" t="str">
         <f>INT(LEFT(AU35,1))</f>
@@ -11783,28 +11795,28 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>81</v>
@@ -11918,31 +11930,31 @@
         <f>FLOOR(AS36/8,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC36" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD36" s="5" t="str">
         <f>INT(LEFT(AU36,1))</f>
@@ -12106,10 +12118,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
@@ -12121,16 +12133,16 @@
         <v>79</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,2))</f>
@@ -12241,31 +12253,31 @@
         <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC37" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD37" s="5" t="str">
         <f>INT(LEFT(AU37,1))</f>
@@ -12429,28 +12441,28 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>81</v>
@@ -12564,31 +12576,31 @@
         <f>FLOOR(AS38/8,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AW38" s="5" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AX38" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY38" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ38" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BB38" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC38" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD38" s="5" t="str">
         <f>INT(LEFT(AU38,1))</f>
@@ -12752,31 +12764,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,2))</f>
@@ -12887,31 +12899,31 @@
         <f>FLOOR(AS39/8,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1))*60</f>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC39" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD39" s="5" t="str">
         <f>INT(LEFT(AU39,1))</f>
@@ -13078,7 +13090,7 @@
         <v>164</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -13090,13 +13102,13 @@
         <v>79</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>81</v>
@@ -13210,31 +13222,31 @@
         <f>FLOOR(AS40/8,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC40" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD40" s="5" t="str">
         <f>INT(LEFT(AU40,1))</f>
@@ -13401,25 +13413,25 @@
         <v>165</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>81</v>
@@ -13533,31 +13545,31 @@
         <f>FLOOR(AS41/8,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1))*60</f>
       </c>
       <c r="AU41" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC41" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD41" s="5" t="str">
         <f>INT(LEFT(AU41,1))</f>
@@ -13721,28 +13733,28 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>81</v>
@@ -13856,31 +13868,31 @@
         <f>FLOOR(AS42/8,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1))*60</f>
       </c>
       <c r="AU42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC42" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD42" s="5" t="str">
         <f>INT(LEFT(AU42,1))</f>
@@ -14044,31 +14056,31 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,2))</f>
@@ -14179,31 +14191,31 @@
         <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AW43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC43" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD43" s="5" t="str">
         <f>INT(LEFT(AU43,1))</f>
@@ -14367,31 +14379,31 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>INT(LEFT(E44,2))</f>
@@ -14502,31 +14514,31 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX44" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AY44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC44" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD44" s="5" t="str">
         <f>INT(LEFT(AU44,1))</f>
@@ -14690,28 +14702,28 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>81</v>
@@ -14825,31 +14837,31 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC45" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD45" s="5" t="str">
         <f>INT(LEFT(AU45,1))</f>
@@ -15016,25 +15028,25 @@
         <v>172</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>81</v>
@@ -15148,31 +15160,31 @@
         <f>FLOOR(AS46/8,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1))*60</f>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AW46" s="5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AX46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC46" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD46" s="5" t="str">
         <f>INT(LEFT(AU46,1))</f>
@@ -15342,25 +15354,25 @@
         <v>77</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,2))</f>
@@ -15471,31 +15483,31 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AV47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC47" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD47" s="5" t="str">
         <f>INT(LEFT(AU47,1))</f>
@@ -15659,31 +15671,31 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>INT(LEFT(E48,2))</f>
@@ -15794,31 +15806,31 @@
         <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC48" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD48" s="5" t="str">
         <f>INT(LEFT(AU48,1))</f>
@@ -15982,28 +15994,28 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>81</v>
@@ -16117,31 +16129,31 @@
         <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC49" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD49" s="5" t="str">
         <f>INT(LEFT(AU49,1))</f>
@@ -16305,31 +16317,31 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>INT(LEFT(E50,2))</f>
@@ -16440,31 +16452,31 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="AV50" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX50" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY50" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ50" s="5" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="BA50" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB50" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC50" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD50" s="5" t="str">
         <f>INT(LEFT(AU50,1))</f>
@@ -16628,10 +16640,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>0</v>
@@ -16640,16 +16652,16 @@
         <v>79</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>81</v>
@@ -16763,31 +16775,31 @@
         <f>FLOOR(AS51/8,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1))*60</f>
       </c>
       <c r="AU51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC51" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD51" s="5" t="str">
         <f>INT(LEFT(AU51,1))</f>
@@ -16951,10 +16963,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>0</v>
@@ -16963,16 +16975,16 @@
         <v>79</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>81</v>
@@ -17086,31 +17098,31 @@
         <f>FLOOR(AS52/8,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1))*60</f>
       </c>
       <c r="AU52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC52" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD52" s="5" t="str">
         <f>INT(LEFT(AU52,1))</f>
@@ -17274,10 +17286,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0</v>
@@ -17286,19 +17298,19 @@
         <v>79</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -17409,31 +17421,31 @@
         <f>FLOOR(AS53/8,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1))*60</f>
       </c>
       <c r="AU53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AV53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AY53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AZ53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BA53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BB53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BC53" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BD53" s="5" t="str">
         <f>INT(LEFT(AU53,1))</f>
@@ -17590,6 +17602,652 @@
       </c>
       <c r="DC53" s="5" t="str">
         <f>FLOOR(DA53/8,1)&amp;"."&amp;FLOOR(MOD(DA53,8),1)&amp;"."&amp;(MOD(DA53,8)-FLOOR(MOD(DA53,8),1))*60</f>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="5" t="str">
+        <f>INT(LEFT(E54,2))</f>
+      </c>
+      <c r="L54" s="5" t="str">
+        <f>INT(LEFT(F54,2))</f>
+      </c>
+      <c r="M54" s="5" t="str">
+        <f>INT(LEFT(I54,2))</f>
+      </c>
+      <c r="N54" s="5" t="str">
+        <f>INT(LEFT(G54,2))</f>
+      </c>
+      <c r="O54" s="5" t="str">
+        <f>INT(LEFT(J54,2))</f>
+      </c>
+      <c r="P54" s="5" t="str">
+        <f>INT(LEFT(H54,2))</f>
+      </c>
+      <c r="Q54" s="5" t="str">
+        <f>K54+L54+IF(M54&gt;O54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
+      </c>
+      <c r="R54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E54,LEN(E54)-2),1)=".",RIGHT(E54,LEN(E54)-3),RIGHT(E54,LEN(E54)-2))</f>
+      </c>
+      <c r="S54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F54,LEN(F54)-2),1)=".",RIGHT(F54,LEN(F54)-3),RIGHT(F54,LEN(F54)-2))</f>
+      </c>
+      <c r="T54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I54,LEN(I54)-2),1)=".",RIGHT(I54,LEN(I54)-3),RIGHT(I54,LEN(I54)-2))</f>
+      </c>
+      <c r="U54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G54,LEN(G54)-2),1)=".",RIGHT(G54,LEN(G54)-3),RIGHT(G54,LEN(G54)-2))</f>
+      </c>
+      <c r="V54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J54,LEN(J54)-2),1)=".",RIGHT(J54,LEN(J54)-3),RIGHT(J54,LEN(J54)-2))</f>
+      </c>
+      <c r="W54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H54,LEN(H54)-2),1)=".",RIGHT(H54,LEN(H54)-3),RIGHT(H54,LEN(H54)-2))</f>
+      </c>
+      <c r="X54" s="5" t="str">
+        <f>INT(LEFT(R54,1))</f>
+      </c>
+      <c r="Y54" s="5" t="str">
+        <f>INT(LEFT(S54,1))</f>
+      </c>
+      <c r="Z54" s="5" t="str">
+        <f>INT(LEFT(T54,1))</f>
+      </c>
+      <c r="AA54" s="5" t="str">
+        <f>INT(LEFT(U54,1))</f>
+      </c>
+      <c r="AB54" s="5" t="str">
+        <f>INT(LEFT(V54,1))</f>
+      </c>
+      <c r="AC54" s="5" t="str">
+        <f>INT(LEFT(W54,1))</f>
+      </c>
+      <c r="AD54" s="5" t="str">
+        <f>R54+S54+IF(T54&gt;V54,T54-V54,0)+IF(U54&gt;W54,U54-W54,0)</f>
+      </c>
+      <c r="AE54" s="5" t="str">
+        <f>RIGHT(R54,LEN(R54)-2)+0</f>
+      </c>
+      <c r="AF54" s="5" t="str">
+        <f>RIGHT(S54,LEN(S54)-2)+0</f>
+      </c>
+      <c r="AG54" s="5" t="str">
+        <f>RIGHT(T54,LEN(T54)-2)+0</f>
+      </c>
+      <c r="AH54" s="5" t="str">
+        <f>RIGHT(U54,LEN(U54)-2)+0</f>
+      </c>
+      <c r="AI54" s="5" t="str">
+        <f>RIGHT(V54,LEN(V54)-2)+0</f>
+      </c>
+      <c r="AJ54" s="5" t="str">
+        <f>RIGHT(W54,LEN(W54)-2)+0</f>
+      </c>
+      <c r="AK54" s="5" t="str">
+        <f>AE54+IF(AG54&gt;AI54,AG54-AI54,0)+IF(AH54&gt;AJ54,AH54-AJ54,0)</f>
+      </c>
+      <c r="AL54" s="5" t="str">
+        <f>K54*8*60+X54*60+AE54</f>
+      </c>
+      <c r="AM54" s="5" t="str">
+        <f>L54*8*60+Y54*60+AF54</f>
+      </c>
+      <c r="AN54" s="5" t="str">
+        <f>M54*8*60+Z54*60+AG54</f>
+      </c>
+      <c r="AO54" s="5" t="str">
+        <f>N54*8*60+AA54*60+AH54</f>
+      </c>
+      <c r="AP54" s="5" t="str">
+        <f>O54*8*60+AB54*60+AI54</f>
+      </c>
+      <c r="AQ54" s="5" t="str">
+        <f>P54*8*60+AC54*60+AJ54</f>
+      </c>
+      <c r="AR54" s="5" t="str">
+        <f>AL54+AM54+IF(AN54&gt;AP54,AN54-AP54,0)+IF(AO54&gt;AQ54,AO54-AQ54,0)</f>
+      </c>
+      <c r="AS54" s="5" t="str">
+        <f>AR54/60</f>
+      </c>
+      <c r="AT54" s="5" t="str">
+        <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
+      </c>
+      <c r="AU54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD54" s="5" t="str">
+        <f>INT(LEFT(AU54,1))</f>
+      </c>
+      <c r="BE54" s="5" t="str">
+        <f>INT(LEFT(AV54,1))</f>
+      </c>
+      <c r="BF54" s="5" t="str">
+        <f>INT(LEFT(AW54,1))</f>
+      </c>
+      <c r="BG54" s="5" t="str">
+        <f>INT(LEFT(AX54,1))</f>
+      </c>
+      <c r="BH54" s="5" t="str">
+        <f>INT(LEFT(AY54,1))</f>
+      </c>
+      <c r="BI54" s="5" t="str">
+        <f>INT(LEFT(AZ54,1))</f>
+      </c>
+      <c r="BJ54" s="5" t="str">
+        <f>INT(LEFT(BA54,1))</f>
+      </c>
+      <c r="BK54" s="5" t="str">
+        <f>INT(LEFT(BB54,1))</f>
+      </c>
+      <c r="BL54" s="5" t="str">
+        <f>INT(LEFT(BC54,1))</f>
+      </c>
+      <c r="BM54" s="5" t="str">
+        <f>SUM(BD54:BL54)</f>
+      </c>
+      <c r="BN54" s="5" t="str">
+        <f>RIGHT(AU54,LEN(AU54)-2)</f>
+      </c>
+      <c r="BO54" s="5" t="str">
+        <f>RIGHT(AV54,LEN(AV54)-2)</f>
+      </c>
+      <c r="BP54" s="5" t="str">
+        <f>RIGHT(AW54,LEN(AW54)-2)</f>
+      </c>
+      <c r="BQ54" s="5" t="str">
+        <f>RIGHT(AX54,LEN(AX54)-2)</f>
+      </c>
+      <c r="BR54" s="5" t="str">
+        <f>RIGHT(AY54,LEN(AY54)-2)</f>
+      </c>
+      <c r="BS54" s="5" t="str">
+        <f>RIGHT(AZ54,LEN(AZ54)-2)</f>
+      </c>
+      <c r="BT54" s="5" t="str">
+        <f>RIGHT(BA54,LEN(BA54)-2)</f>
+      </c>
+      <c r="BU54" s="5" t="str">
+        <f>RIGHT(BB54,LEN(BB54)-2)</f>
+      </c>
+      <c r="BV54" s="5" t="str">
+        <f>RIGHT(BC54,LEN(BC54)-2)</f>
+      </c>
+      <c r="BW54" s="5" t="str">
+        <f>INT(LEFT(BN54,1))</f>
+      </c>
+      <c r="BX54" s="5" t="str">
+        <f>INT(LEFT(BO54,1))</f>
+      </c>
+      <c r="BY54" s="5" t="str">
+        <f>INT(LEFT(BP54,1))</f>
+      </c>
+      <c r="BZ54" s="5" t="str">
+        <f>INT(LEFT(BQ54,1))</f>
+      </c>
+      <c r="CA54" s="5" t="str">
+        <f>INT(LEFT(BR54,1))</f>
+      </c>
+      <c r="CB54" s="5" t="str">
+        <f>INT(LEFT(BS54,1))</f>
+      </c>
+      <c r="CC54" s="5" t="str">
+        <f>INT(LEFT(BT54,1))</f>
+      </c>
+      <c r="CD54" s="5" t="str">
+        <f>INT(LEFT(BU54,1))</f>
+      </c>
+      <c r="CE54" s="5" t="str">
+        <f>INT(LEFT(BV54,1))</f>
+      </c>
+      <c r="CF54" s="5" t="str">
+        <f>SUM(BW54:CE54)</f>
+      </c>
+      <c r="CG54" s="5" t="str">
+        <f>RIGHT(BN54,LEN(BN54)-2)+0</f>
+      </c>
+      <c r="CH54" s="5" t="str">
+        <f>RIGHT(BO54,LEN(BO54)-2)+0</f>
+      </c>
+      <c r="CI54" s="5" t="str">
+        <f>RIGHT(BP54,LEN(BP54)-2)+0</f>
+      </c>
+      <c r="CJ54" s="5" t="str">
+        <f>RIGHT(BQ54,LEN(BQ54)-2)+0</f>
+      </c>
+      <c r="CK54" s="5" t="str">
+        <f>RIGHT(BR54,LEN(BR54)-2)+0</f>
+      </c>
+      <c r="CL54" s="5" t="str">
+        <f>RIGHT(BS54,LEN(BS54)-2)+0</f>
+      </c>
+      <c r="CM54" s="5" t="str">
+        <f>RIGHT(BT54,LEN(BT54)-2)+0</f>
+      </c>
+      <c r="CN54" s="5" t="str">
+        <f>RIGHT(BU54,LEN(BU54)-2)+0</f>
+      </c>
+      <c r="CO54" s="5" t="str">
+        <f>RIGHT(BV54,LEN(BV54)-2)+0</f>
+      </c>
+      <c r="CP54" s="5" t="str">
+        <f>SUM(CG54:CO54)</f>
+      </c>
+      <c r="CQ54" s="5" t="str">
+        <f>BD54*8*60+BW54*60+CG54</f>
+      </c>
+      <c r="CR54" s="5" t="str">
+        <f>BE54*8*60+BX54*60+CH54</f>
+      </c>
+      <c r="CS54" s="5" t="str">
+        <f>BF54*8*60+BY54*60+CI54</f>
+      </c>
+      <c r="CT54" s="5" t="str">
+        <f>BG54*8*60+BZ54*60+CJ54</f>
+      </c>
+      <c r="CU54" s="5" t="str">
+        <f>BH54*8*60+CA54*60+CK54</f>
+      </c>
+      <c r="CV54" s="5" t="str">
+        <f>BI54*8*60+CB54*60+CL54</f>
+      </c>
+      <c r="CW54" s="5" t="str">
+        <f>BJ54*8*60+CC54*60+CM54</f>
+      </c>
+      <c r="CX54" s="5" t="str">
+        <f>BK54*8*60+CD54*60+CN54</f>
+      </c>
+      <c r="CY54" s="5" t="str">
+        <f>BL54*8*60+CE54*60+CO54</f>
+      </c>
+      <c r="CZ54" s="5" t="str">
+        <f>SUM(CQ54:CY54)</f>
+      </c>
+      <c r="DA54" s="5" t="str">
+        <f>CZ54/60</f>
+      </c>
+      <c r="DB54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC54" s="5" t="str">
+        <f>FLOOR(DA54/8,1)&amp;"."&amp;FLOOR(MOD(DA54,8),1)&amp;"."&amp;(MOD(DA54,8)-FLOOR(MOD(DA54,8),1))*60</f>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="5" t="str">
+        <f>INT(LEFT(E55,2))</f>
+      </c>
+      <c r="L55" s="5" t="str">
+        <f>INT(LEFT(F55,2))</f>
+      </c>
+      <c r="M55" s="5" t="str">
+        <f>INT(LEFT(I55,2))</f>
+      </c>
+      <c r="N55" s="5" t="str">
+        <f>INT(LEFT(G55,2))</f>
+      </c>
+      <c r="O55" s="5" t="str">
+        <f>INT(LEFT(J55,2))</f>
+      </c>
+      <c r="P55" s="5" t="str">
+        <f>INT(LEFT(H55,2))</f>
+      </c>
+      <c r="Q55" s="5" t="str">
+        <f>K55+L55+IF(M55&gt;O55,M55-O55,0)+IF(N55&gt;P55,N55-P55,0)</f>
+      </c>
+      <c r="R55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E55,LEN(E55)-2),1)=".",RIGHT(E55,LEN(E55)-3),RIGHT(E55,LEN(E55)-2))</f>
+      </c>
+      <c r="S55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F55,LEN(F55)-2),1)=".",RIGHT(F55,LEN(F55)-3),RIGHT(F55,LEN(F55)-2))</f>
+      </c>
+      <c r="T55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I55,LEN(I55)-2),1)=".",RIGHT(I55,LEN(I55)-3),RIGHT(I55,LEN(I55)-2))</f>
+      </c>
+      <c r="U55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G55,LEN(G55)-2),1)=".",RIGHT(G55,LEN(G55)-3),RIGHT(G55,LEN(G55)-2))</f>
+      </c>
+      <c r="V55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J55,LEN(J55)-2),1)=".",RIGHT(J55,LEN(J55)-3),RIGHT(J55,LEN(J55)-2))</f>
+      </c>
+      <c r="W55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H55,LEN(H55)-2),1)=".",RIGHT(H55,LEN(H55)-3),RIGHT(H55,LEN(H55)-2))</f>
+      </c>
+      <c r="X55" s="5" t="str">
+        <f>INT(LEFT(R55,1))</f>
+      </c>
+      <c r="Y55" s="5" t="str">
+        <f>INT(LEFT(S55,1))</f>
+      </c>
+      <c r="Z55" s="5" t="str">
+        <f>INT(LEFT(T55,1))</f>
+      </c>
+      <c r="AA55" s="5" t="str">
+        <f>INT(LEFT(U55,1))</f>
+      </c>
+      <c r="AB55" s="5" t="str">
+        <f>INT(LEFT(V55,1))</f>
+      </c>
+      <c r="AC55" s="5" t="str">
+        <f>INT(LEFT(W55,1))</f>
+      </c>
+      <c r="AD55" s="5" t="str">
+        <f>R55+S55+IF(T55&gt;V55,T55-V55,0)+IF(U55&gt;W55,U55-W55,0)</f>
+      </c>
+      <c r="AE55" s="5" t="str">
+        <f>RIGHT(R55,LEN(R55)-2)+0</f>
+      </c>
+      <c r="AF55" s="5" t="str">
+        <f>RIGHT(S55,LEN(S55)-2)+0</f>
+      </c>
+      <c r="AG55" s="5" t="str">
+        <f>RIGHT(T55,LEN(T55)-2)+0</f>
+      </c>
+      <c r="AH55" s="5" t="str">
+        <f>RIGHT(U55,LEN(U55)-2)+0</f>
+      </c>
+      <c r="AI55" s="5" t="str">
+        <f>RIGHT(V55,LEN(V55)-2)+0</f>
+      </c>
+      <c r="AJ55" s="5" t="str">
+        <f>RIGHT(W55,LEN(W55)-2)+0</f>
+      </c>
+      <c r="AK55" s="5" t="str">
+        <f>AE55+IF(AG55&gt;AI55,AG55-AI55,0)+IF(AH55&gt;AJ55,AH55-AJ55,0)</f>
+      </c>
+      <c r="AL55" s="5" t="str">
+        <f>K55*8*60+X55*60+AE55</f>
+      </c>
+      <c r="AM55" s="5" t="str">
+        <f>L55*8*60+Y55*60+AF55</f>
+      </c>
+      <c r="AN55" s="5" t="str">
+        <f>M55*8*60+Z55*60+AG55</f>
+      </c>
+      <c r="AO55" s="5" t="str">
+        <f>N55*8*60+AA55*60+AH55</f>
+      </c>
+      <c r="AP55" s="5" t="str">
+        <f>O55*8*60+AB55*60+AI55</f>
+      </c>
+      <c r="AQ55" s="5" t="str">
+        <f>P55*8*60+AC55*60+AJ55</f>
+      </c>
+      <c r="AR55" s="5" t="str">
+        <f>AL55+AM55+IF(AN55&gt;AP55,AN55-AP55,0)+IF(AO55&gt;AQ55,AO55-AQ55,0)</f>
+      </c>
+      <c r="AS55" s="5" t="str">
+        <f>AR55/60</f>
+      </c>
+      <c r="AT55" s="5" t="str">
+        <f>FLOOR(AS55/8,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1))*60</f>
+      </c>
+      <c r="AU55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BB55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BC55" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD55" s="5" t="str">
+        <f>INT(LEFT(AU55,1))</f>
+      </c>
+      <c r="BE55" s="5" t="str">
+        <f>INT(LEFT(AV55,1))</f>
+      </c>
+      <c r="BF55" s="5" t="str">
+        <f>INT(LEFT(AW55,1))</f>
+      </c>
+      <c r="BG55" s="5" t="str">
+        <f>INT(LEFT(AX55,1))</f>
+      </c>
+      <c r="BH55" s="5" t="str">
+        <f>INT(LEFT(AY55,1))</f>
+      </c>
+      <c r="BI55" s="5" t="str">
+        <f>INT(LEFT(AZ55,1))</f>
+      </c>
+      <c r="BJ55" s="5" t="str">
+        <f>INT(LEFT(BA55,1))</f>
+      </c>
+      <c r="BK55" s="5" t="str">
+        <f>INT(LEFT(BB55,1))</f>
+      </c>
+      <c r="BL55" s="5" t="str">
+        <f>INT(LEFT(BC55,1))</f>
+      </c>
+      <c r="BM55" s="5" t="str">
+        <f>SUM(BD55:BL55)</f>
+      </c>
+      <c r="BN55" s="5" t="str">
+        <f>RIGHT(AU55,LEN(AU55)-2)</f>
+      </c>
+      <c r="BO55" s="5" t="str">
+        <f>RIGHT(AV55,LEN(AV55)-2)</f>
+      </c>
+      <c r="BP55" s="5" t="str">
+        <f>RIGHT(AW55,LEN(AW55)-2)</f>
+      </c>
+      <c r="BQ55" s="5" t="str">
+        <f>RIGHT(AX55,LEN(AX55)-2)</f>
+      </c>
+      <c r="BR55" s="5" t="str">
+        <f>RIGHT(AY55,LEN(AY55)-2)</f>
+      </c>
+      <c r="BS55" s="5" t="str">
+        <f>RIGHT(AZ55,LEN(AZ55)-2)</f>
+      </c>
+      <c r="BT55" s="5" t="str">
+        <f>RIGHT(BA55,LEN(BA55)-2)</f>
+      </c>
+      <c r="BU55" s="5" t="str">
+        <f>RIGHT(BB55,LEN(BB55)-2)</f>
+      </c>
+      <c r="BV55" s="5" t="str">
+        <f>RIGHT(BC55,LEN(BC55)-2)</f>
+      </c>
+      <c r="BW55" s="5" t="str">
+        <f>INT(LEFT(BN55,1))</f>
+      </c>
+      <c r="BX55" s="5" t="str">
+        <f>INT(LEFT(BO55,1))</f>
+      </c>
+      <c r="BY55" s="5" t="str">
+        <f>INT(LEFT(BP55,1))</f>
+      </c>
+      <c r="BZ55" s="5" t="str">
+        <f>INT(LEFT(BQ55,1))</f>
+      </c>
+      <c r="CA55" s="5" t="str">
+        <f>INT(LEFT(BR55,1))</f>
+      </c>
+      <c r="CB55" s="5" t="str">
+        <f>INT(LEFT(BS55,1))</f>
+      </c>
+      <c r="CC55" s="5" t="str">
+        <f>INT(LEFT(BT55,1))</f>
+      </c>
+      <c r="CD55" s="5" t="str">
+        <f>INT(LEFT(BU55,1))</f>
+      </c>
+      <c r="CE55" s="5" t="str">
+        <f>INT(LEFT(BV55,1))</f>
+      </c>
+      <c r="CF55" s="5" t="str">
+        <f>SUM(BW55:CE55)</f>
+      </c>
+      <c r="CG55" s="5" t="str">
+        <f>RIGHT(BN55,LEN(BN55)-2)+0</f>
+      </c>
+      <c r="CH55" s="5" t="str">
+        <f>RIGHT(BO55,LEN(BO55)-2)+0</f>
+      </c>
+      <c r="CI55" s="5" t="str">
+        <f>RIGHT(BP55,LEN(BP55)-2)+0</f>
+      </c>
+      <c r="CJ55" s="5" t="str">
+        <f>RIGHT(BQ55,LEN(BQ55)-2)+0</f>
+      </c>
+      <c r="CK55" s="5" t="str">
+        <f>RIGHT(BR55,LEN(BR55)-2)+0</f>
+      </c>
+      <c r="CL55" s="5" t="str">
+        <f>RIGHT(BS55,LEN(BS55)-2)+0</f>
+      </c>
+      <c r="CM55" s="5" t="str">
+        <f>RIGHT(BT55,LEN(BT55)-2)+0</f>
+      </c>
+      <c r="CN55" s="5" t="str">
+        <f>RIGHT(BU55,LEN(BU55)-2)+0</f>
+      </c>
+      <c r="CO55" s="5" t="str">
+        <f>RIGHT(BV55,LEN(BV55)-2)+0</f>
+      </c>
+      <c r="CP55" s="5" t="str">
+        <f>SUM(CG55:CO55)</f>
+      </c>
+      <c r="CQ55" s="5" t="str">
+        <f>BD55*8*60+BW55*60+CG55</f>
+      </c>
+      <c r="CR55" s="5" t="str">
+        <f>BE55*8*60+BX55*60+CH55</f>
+      </c>
+      <c r="CS55" s="5" t="str">
+        <f>BF55*8*60+BY55*60+CI55</f>
+      </c>
+      <c r="CT55" s="5" t="str">
+        <f>BG55*8*60+BZ55*60+CJ55</f>
+      </c>
+      <c r="CU55" s="5" t="str">
+        <f>BH55*8*60+CA55*60+CK55</f>
+      </c>
+      <c r="CV55" s="5" t="str">
+        <f>BI55*8*60+CB55*60+CL55</f>
+      </c>
+      <c r="CW55" s="5" t="str">
+        <f>BJ55*8*60+CC55*60+CM55</f>
+      </c>
+      <c r="CX55" s="5" t="str">
+        <f>BK55*8*60+CD55*60+CN55</f>
+      </c>
+      <c r="CY55" s="5" t="str">
+        <f>BL55*8*60+CE55*60+CO55</f>
+      </c>
+      <c r="CZ55" s="5" t="str">
+        <f>SUM(CQ55:CY55)</f>
+      </c>
+      <c r="DA55" s="5" t="str">
+        <f>CZ55/60</f>
+      </c>
+      <c r="DB55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC55" s="5" t="str">
+        <f>FLOOR(DA55/8,1)&amp;"."&amp;FLOOR(MOD(DA55,8),1)&amp;"."&amp;(MOD(DA55,8)-FLOOR(MOD(DA55,8),1))*60</f>
       </c>
     </row>
   </sheetData>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -630,16 +630,16 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color rgb="00000000"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color rgb="00000000"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color rgb="00000000"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
     </border>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,9 +9,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="187" xml:space="preserve">
-  <si>
-    <t>iRipple, Inc. | DTR Summary Sheet for the period April 04, 2015 to April 24, 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="184" xml:space="preserve">
+  <si>
+    <t>iRipple, Inc. | DTR Summary Sheet for the period April 25, 2015 to May 08, 2015</t>
   </si>
   <si>
     <t>Employee Information</t>
@@ -245,313 +245,304 @@
     <t>Barter Local - Support</t>
   </si>
   <si>
+    <t>0.4.3</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>7.4.0</t>
+  </si>
+  <si>
+    <t>Arceo,Arwin</t>
+  </si>
+  <si>
+    <t>International Business - Malaysia</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>Ardamoy,Ma. Rica Catherine</t>
+  </si>
+  <si>
+    <t>Enterprise - Petron</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>Bacani,Eddie Marie</t>
+  </si>
+  <si>
+    <t>International Business - Thailand</t>
+  </si>
+  <si>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>Balingit,Barbara</t>
+  </si>
+  <si>
+    <t>HR &amp;amp; Admin</t>
+  </si>
+  <si>
+    <t>Balino,Kamille Diane</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Barrion,Jane Katherine</t>
+  </si>
+  <si>
+    <t>0.0.3</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>Bayogos,Charmaine</t>
+  </si>
+  <si>
+    <t>Enterprise - Ayagold</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Borlagdan,Aldrin</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
     <t>0.4.0</t>
   </si>
   <si>
-    <t>0.0.0</t>
+    <t>Buena,Ian Christopher</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Buenafe,Rajiv</t>
+  </si>
+  <si>
+    <t>Cataluna,Christian Gilbert</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>CaÃ±ete,Carol Ann</t>
+  </si>
+  <si>
+    <t>0.0.45</t>
+  </si>
+  <si>
+    <t>Cerbo,Jaycer</t>
+  </si>
+  <si>
+    <t>Ching,Mark Angelo</t>
+  </si>
+  <si>
+    <t>Imaghine</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>Cortez,Jomar</t>
+  </si>
+  <si>
+    <t>Cruz,Cesar</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Delfin,Jonathan</t>
+  </si>
+  <si>
+    <t>International Business - PNG</t>
+  </si>
+  <si>
+    <t>0.0.15</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>Dino,Arvin</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
+  </si>
+  <si>
+    <t>Dy,Hubert</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Egamino,Ellen</t>
+  </si>
+  <si>
+    <t>0.1.3</t>
+  </si>
+  <si>
+    <t>Enrique,Christian Dan</t>
+  </si>
+  <si>
+    <t>Barter Local - Project</t>
+  </si>
+  <si>
+    <t>Espiritu,Carl Philip</t>
+  </si>
+  <si>
+    <t>0.3.45</t>
+  </si>
+  <si>
+    <t>Flores,Arianne Grace</t>
+  </si>
+  <si>
+    <t>4.4.0</t>
+  </si>
+  <si>
+    <t>Francisco,Roed Ronualdo </t>
+  </si>
+  <si>
+    <t>Javier,Victor </t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>Joson,Alfonso Miguel</t>
+  </si>
+  <si>
+    <t>0.1.45</t>
+  </si>
+  <si>
+    <t>Keng,Julie</t>
+  </si>
+  <si>
+    <t>8.4.0</t>
+  </si>
+  <si>
+    <t>Laude,Ted Marty</t>
+  </si>
+  <si>
+    <t>Ledesma,Jesse</t>
+  </si>
+  <si>
+    <t>Mangundayao,Mac Donald</t>
+  </si>
+  <si>
+    <t>Barter CX</t>
+  </si>
+  <si>
+    <t>0.2.15</t>
+  </si>
+  <si>
+    <t>0.6.0</t>
+  </si>
+  <si>
+    <t>Matias,Ma. Jeremia Jetheth </t>
+  </si>
+  <si>
+    <t>0.4.15</t>
+  </si>
+  <si>
+    <t>Mendoza,Diana</t>
+  </si>
+  <si>
+    <t>Nagnal,Fracy</t>
+  </si>
+  <si>
+    <t>Newsom,Jifferson</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>Pancho,Jona</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Pechuanging,Ma. Antoinette</t>
+  </si>
+  <si>
+    <t>Pendre,Contessa</t>
+  </si>
+  <si>
+    <t>Ranes,Jonathan</t>
   </si>
   <si>
     <t>4.0.0</t>
   </si>
   <si>
-    <t>7.4.0</t>
-  </si>
-  <si>
-    <t>Arceo,Arwin</t>
-  </si>
-  <si>
-    <t>International Business - Malaysia</t>
-  </si>
-  <si>
-    <t>6.4.0</t>
-  </si>
-  <si>
-    <t>Ardamoy,Ma. Rica Catherine</t>
-  </si>
-  <si>
-    <t>Enterprise - Petron</t>
-  </si>
-  <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>2.4.0</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>Bacani,Eddie Marie</t>
-  </si>
-  <si>
-    <t>International Business - Thailand</t>
-  </si>
-  <si>
-    <t>Balingit,Barbara</t>
-  </si>
-  <si>
-    <t>HR &amp;amp; Admin</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>Balino,Kamille Diane</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>12.0.0</t>
-  </si>
-  <si>
-    <t>Barrion,Jane Katherine</t>
-  </si>
-  <si>
-    <t>Bayogos,Charmaine</t>
-  </si>
-  <si>
-    <t>Enterprise - Ayagold</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>Borlagdan,Aldrin</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>Buena,Ian Christopher</t>
-  </si>
-  <si>
-    <t>0.1.45</t>
-  </si>
-  <si>
-    <t>0.0.3</t>
-  </si>
-  <si>
-    <t>7.0.0</t>
-  </si>
-  <si>
-    <t>Buenafe,Rajiv</t>
-  </si>
-  <si>
-    <t>14.0.0</t>
-  </si>
-  <si>
-    <t>Cataluna,Christian Gilbert</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>6.0.0</t>
-  </si>
-  <si>
-    <t>CaÃ±ete,Carol Ann</t>
-  </si>
-  <si>
-    <t>0.2.15</t>
-  </si>
-  <si>
-    <t>Cerbo,Jaycer</t>
-  </si>
-  <si>
-    <t>Ching,Mark Angelo</t>
-  </si>
-  <si>
-    <t>Imaghine</t>
+    <t>Reyes,Mark Gil</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>Reyes,Salvador</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Sanoria,Samuel</t>
+  </si>
+  <si>
+    <t>Santos,Patricia</t>
   </si>
   <si>
     <t>0.2.45</t>
   </si>
   <si>
-    <t>0.1.3</t>
-  </si>
-  <si>
-    <t>9.0.0</t>
-  </si>
-  <si>
-    <t>Cortez,Jomar</t>
-  </si>
-  <si>
-    <t>0.0.45</t>
-  </si>
-  <si>
-    <t>Cruz,Cesar</t>
-  </si>
-  <si>
-    <t>3.4.0</t>
-  </si>
-  <si>
-    <t>Delfin,Jonathan</t>
-  </si>
-  <si>
-    <t>International Business - PNG</t>
-  </si>
-  <si>
-    <t>Dino,Arvin</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
-    <t>11.4.0</t>
-  </si>
-  <si>
-    <t>Dy,Hubert</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Egamino,Ellen</t>
-  </si>
-  <si>
-    <t>8.4.0</t>
-  </si>
-  <si>
-    <t>Enrique,Christian Dan</t>
-  </si>
-  <si>
-    <t>Barter Local - Project</t>
-  </si>
-  <si>
-    <t>3.0.0</t>
-  </si>
-  <si>
-    <t>Espiritu,Carl Philip</t>
-  </si>
-  <si>
-    <t>0.7.0</t>
-  </si>
-  <si>
-    <t>Flores,Arianne Grace</t>
-  </si>
-  <si>
-    <t>Francisco,Roed Ronualdo </t>
-  </si>
-  <si>
-    <t>Javier,Victor </t>
-  </si>
-  <si>
-    <t>4.4.0</t>
-  </si>
-  <si>
-    <t>Joson,Alfonso Miguel</t>
-  </si>
-  <si>
-    <t>Keng,Julie</t>
-  </si>
-  <si>
-    <t>11.0.0</t>
-  </si>
-  <si>
-    <t>Laude,Ted Marty</t>
-  </si>
-  <si>
-    <t>Ledesma,Jesse</t>
-  </si>
-  <si>
-    <t>9.4.0</t>
-  </si>
-  <si>
-    <t>Mangundayao,Mac Donald</t>
-  </si>
-  <si>
-    <t>Barter CX</t>
+    <t>See,Jenilyn</t>
+  </si>
+  <si>
+    <t>Solbita,Felmar</t>
+  </si>
+  <si>
+    <t>Enterprise - Primer</t>
+  </si>
+  <si>
+    <t>Soriano,Josif Hans</t>
+  </si>
+  <si>
+    <t>0.3.3</t>
+  </si>
+  <si>
+    <t>Suarez,Katrina </t>
   </si>
   <si>
     <t>0.2.3</t>
-  </si>
-  <si>
-    <t>3.6.0</t>
-  </si>
-  <si>
-    <t>0.4.15</t>
-  </si>
-  <si>
-    <t>Matias,Ma. Jeremia Jetheth </t>
-  </si>
-  <si>
-    <t>0.3.15</t>
-  </si>
-  <si>
-    <t>Mendoza,Diana</t>
-  </si>
-  <si>
-    <t>1.1.3</t>
-  </si>
-  <si>
-    <t>Nagnal,Fracy</t>
-  </si>
-  <si>
-    <t>Newsom,Jifferson</t>
-  </si>
-  <si>
-    <t>Pancho,Jona</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Pechuanging,Ma. Antoinette</t>
-  </si>
-  <si>
-    <t>Pendre,Contessa</t>
-  </si>
-  <si>
-    <t>Ranes,Jonathan</t>
-  </si>
-  <si>
-    <t>Reyes,Mark Gil</t>
-  </si>
-  <si>
-    <t>5.4.0</t>
-  </si>
-  <si>
-    <t>1.6.0</t>
-  </si>
-  <si>
-    <t>Reyes,Salvador</t>
-  </si>
-  <si>
-    <t>Sanoria,Samuel</t>
-  </si>
-  <si>
-    <t>Santos,Patricia</t>
-  </si>
-  <si>
-    <t>See,Jenilyn</t>
-  </si>
-  <si>
-    <t>0.0.15</t>
-  </si>
-  <si>
-    <t>Solbita,Felmar</t>
-  </si>
-  <si>
-    <t>Enterprise - Primer</t>
-  </si>
-  <si>
-    <t>Soriano,Josif Hans</t>
-  </si>
-  <si>
-    <t>0.6.0</t>
-  </si>
-  <si>
-    <t>Suarez,Katrina </t>
-  </si>
-  <si>
-    <t>1.2.0</t>
   </si>
   <si>
     <t>Tanqueco,Mikee Dorina</t>
@@ -1797,7 +1788,7 @@
         <v>79</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>81</v>
@@ -1806,7 +1797,7 @@
         <v>79</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,2))</f>
@@ -1920,7 +1911,7 @@
         <v>79</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AW5" s="5" t="s">
         <v>79</v>
@@ -2105,31 +2096,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,2))</f>
@@ -2240,13 +2231,13 @@
         <f>FLOOR(AS6/8,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AX6" s="5" t="s">
         <v>79</v>
@@ -2428,22 +2419,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>81</v>
@@ -2751,10 +2742,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -2763,10 +2754,10 @@
         <v>79</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>81</v>
@@ -3074,10 +3065,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0</v>
@@ -3086,10 +3077,10 @@
         <v>79</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>81</v>
@@ -3397,22 +3388,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>81</v>
@@ -3720,10 +3711,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -3735,7 +3726,7 @@
         <v>79</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>81</v>
@@ -4043,22 +4034,22 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>81</v>
@@ -4369,19 +4360,19 @@
         <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>107</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>
@@ -4689,7 +4680,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>83</v>
@@ -4704,7 +4695,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>81</v>
@@ -5012,10 +5003,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -5027,7 +5018,7 @@
         <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>81</v>
@@ -5335,22 +5326,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>81</v>
@@ -5658,22 +5649,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>81</v>
@@ -5981,22 +5972,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>81</v>
@@ -6304,22 +6295,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>81</v>
@@ -6627,28 +6618,28 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>81</v>
@@ -6950,22 +6941,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>81</v>
@@ -7085,7 +7076,7 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>79</v>
@@ -7100,7 +7091,7 @@
         <v>79</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="BA21" s="5" t="s">
         <v>79</v>
@@ -7273,10 +7264,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0</v>
@@ -7285,10 +7276,10 @@
         <v>79</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>81</v>
@@ -7596,10 +7587,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
@@ -7608,10 +7599,10 @@
         <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>81</v>
@@ -7919,7 +7910,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>77</v>
@@ -7928,13 +7919,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>81</v>
@@ -8242,10 +8233,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0</v>
@@ -8254,10 +8245,10 @@
         <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>81</v>
@@ -8565,25 +8556,25 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>79</v>
@@ -8888,31 +8879,31 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="I27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>INT(LEFT(E27,2))</f>
@@ -9026,7 +9017,7 @@
         <v>79</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AW27" s="5" t="s">
         <v>79</v>
@@ -9038,7 +9029,7 @@
         <v>79</v>
       </c>
       <c r="AZ27" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="BA27" s="5" t="s">
         <v>79</v>
@@ -9211,22 +9202,22 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>81</v>
@@ -9534,10 +9525,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
@@ -9546,10 +9537,10 @@
         <v>79</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>81</v>
@@ -9857,22 +9848,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>81</v>
@@ -9992,7 +9983,7 @@
         <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>79</v>
@@ -10180,10 +10171,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
@@ -10192,10 +10183,10 @@
         <v>79</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>81</v>
@@ -10503,28 +10494,28 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>81</v>
@@ -10826,22 +10817,22 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>81</v>
@@ -10976,10 +10967,10 @@
         <v>79</v>
       </c>
       <c r="AZ33" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="BA33" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="BB33" s="5" t="s">
         <v>79</v>
@@ -11149,22 +11140,22 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>81</v>
@@ -11284,13 +11275,13 @@
         <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="AX34" s="5" t="s">
         <v>79</v>
@@ -11472,22 +11463,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>81</v>
@@ -11795,22 +11786,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>81</v>
@@ -12118,7 +12109,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>83</v>
@@ -12130,10 +12121,10 @@
         <v>79</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>81</v>
@@ -12441,10 +12432,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -12456,7 +12447,7 @@
         <v>79</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>81</v>
@@ -12576,7 +12567,7 @@
         <f>FLOOR(AS38/8,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AV38" s="5" t="s">
         <v>79</v>
@@ -12591,10 +12582,10 @@
         <v>79</v>
       </c>
       <c r="AZ38" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="BB38" s="5" t="s">
         <v>79</v>
@@ -12764,22 +12755,22 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>81</v>
@@ -13087,10 +13078,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -13102,7 +13093,7 @@
         <v>79</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>81</v>
@@ -13410,10 +13401,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>0</v>
@@ -13422,10 +13413,10 @@
         <v>79</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>81</v>
@@ -13733,22 +13724,22 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
@@ -14056,25 +14047,25 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>79</v>
@@ -14191,10 +14182,10 @@
         <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AW43" s="5" t="s">
         <v>79</v>
@@ -14379,22 +14370,22 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>81</v>
@@ -14514,7 +14505,7 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>79</v>
@@ -14523,7 +14514,7 @@
         <v>79</v>
       </c>
       <c r="AX44" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AY44" s="5" t="s">
         <v>79</v>
@@ -14702,22 +14693,22 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>81</v>
@@ -15025,22 +15016,22 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>81</v>
@@ -15163,10 +15154,10 @@
         <v>79</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AW46" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AX46" s="5" t="s">
         <v>79</v>
@@ -15348,7 +15339,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>77</v>
@@ -15360,10 +15351,10 @@
         <v>79</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>81</v>
@@ -15671,22 +15662,22 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>81</v>
@@ -15994,22 +15985,22 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>81</v>
@@ -16132,7 +16123,7 @@
         <v>79</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AW49" s="5" t="s">
         <v>79</v>
@@ -16317,31 +16308,31 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>INT(LEFT(E50,2))</f>
@@ -16452,7 +16443,7 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>79</v>
@@ -16467,7 +16458,7 @@
         <v>79</v>
       </c>
       <c r="AZ50" s="5" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="BA50" s="5" t="s">
         <v>79</v>
@@ -16640,10 +16631,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>0</v>
@@ -16655,7 +16646,7 @@
         <v>79</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>81</v>
@@ -16963,10 +16954,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>0</v>
@@ -16975,10 +16966,10 @@
         <v>79</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>81</v>
@@ -17286,10 +17277,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0</v>
@@ -17301,7 +17292,7 @@
         <v>79</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>81</v>
@@ -17609,10 +17600,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0</v>
@@ -17624,7 +17615,7 @@
         <v>79</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>81</v>
@@ -17932,10 +17923,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>0</v>
@@ -17944,10 +17935,10 @@
         <v>79</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>81</v>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -245,7 +245,7 @@
     <t>Barter Local - Support</t>
   </si>
   <si>
-    <t>0.4.3</t>
+    <t>0.4.30</t>
   </si>
   <si>
     <t>0.0.0</t>
@@ -305,7 +305,7 @@
     <t>Barrion,Jane Katherine</t>
   </si>
   <si>
-    <t>0.0.3</t>
+    <t>0.0.30</t>
   </si>
   <si>
     <t>1.4.0</t>
@@ -407,7 +407,7 @@
     <t>Egamino,Ellen</t>
   </si>
   <si>
-    <t>0.1.3</t>
+    <t>0.1.30</t>
   </si>
   <si>
     <t>Enrique,Christian Dan</t>
@@ -536,13 +536,13 @@
     <t>Soriano,Josif Hans</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.30</t>
   </si>
   <si>
     <t>Suarez,Katrina </t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.30</t>
   </si>
   <si>
     <t>Tanqueco,Mikee Dorina</t>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -263,81 +263,84 @@
     <t>International Business - Malaysia</t>
   </si>
   <si>
+    <t>8.4.0</t>
+  </si>
+  <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>Ardamoy,Ma. Rica Catherine</t>
+  </si>
+  <si>
+    <t>Enterprise - Petron</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>Bacani,Eddie Marie</t>
+  </si>
+  <si>
+    <t>International Business - Thailand</t>
+  </si>
+  <si>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>Balingit,Barbara</t>
+  </si>
+  <si>
+    <t>HR &amp;amp; Admin</t>
+  </si>
+  <si>
+    <t>Balino,Kamille Diane</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Barrion,Jane Katherine</t>
+  </si>
+  <si>
+    <t>0.0.30</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>Bayogos,Charmaine</t>
+  </si>
+  <si>
+    <t>Enterprise - Ayagold</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Borlagdan,Aldrin</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>Buena,Ian Christopher</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Buenafe,Rajiv</t>
+  </si>
+  <si>
     <t>9.0.0</t>
   </si>
   <si>
-    <t>6.4.0</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
-  </si>
-  <si>
-    <t>Ardamoy,Ma. Rica Catherine</t>
-  </si>
-  <si>
-    <t>Enterprise - Petron</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
-  </si>
-  <si>
-    <t>Bacani,Eddie Marie</t>
-  </si>
-  <si>
-    <t>International Business - Thailand</t>
-  </si>
-  <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
-    <t>Balingit,Barbara</t>
-  </si>
-  <si>
-    <t>HR &amp;amp; Admin</t>
-  </si>
-  <si>
-    <t>Balino,Kamille Diane</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Barrion,Jane Katherine</t>
-  </si>
-  <si>
-    <t>0.0.30</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>Bayogos,Charmaine</t>
-  </si>
-  <si>
-    <t>Enterprise - Ayagold</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>Borlagdan,Aldrin</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
-    <t>Buena,Ian Christopher</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>Buenafe,Rajiv</t>
-  </si>
-  <si>
     <t>Cataluna,Christian Gilbert</t>
   </si>
   <si>
@@ -444,9 +447,6 @@
   </si>
   <si>
     <t>Keng,Julie</t>
-  </si>
-  <si>
-    <t>8.4.0</t>
   </si>
   <si>
     <t>Laude,Ted Marty</t>
@@ -4695,7 +4695,7 @@
         <v>79</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>81</v>
@@ -5003,10 +5003,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -5326,7 +5326,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>94</v>
@@ -5335,7 +5335,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>79</v>
@@ -5649,7 +5649,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>96</v>
@@ -5972,22 +5972,22 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>81</v>
@@ -6295,7 +6295,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>77</v>
@@ -6618,7 +6618,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>96</v>
@@ -6627,7 +6627,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>79</v>
@@ -6636,10 +6636,10 @@
         <v>99</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>81</v>
@@ -6941,16 +6941,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>79</v>
@@ -7076,7 +7076,7 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>79</v>
@@ -7091,7 +7091,7 @@
         <v>79</v>
       </c>
       <c r="AZ21" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BA21" s="5" t="s">
         <v>79</v>
@@ -7264,7 +7264,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>104</v>
@@ -7279,7 +7279,7 @@
         <v>79</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>81</v>
@@ -7587,10 +7587,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>89</v>
@@ -7910,7 +7910,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>77</v>
@@ -7919,13 +7919,13 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>81</v>
@@ -8233,10 +8233,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>79</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>105</v>
@@ -8556,22 +8556,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>85</v>
@@ -8879,7 +8879,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>88</v>
@@ -8894,16 +8894,16 @@
         <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>79</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>INT(LEFT(E27,2))</f>
@@ -9202,7 +9202,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>96</v>
@@ -9211,7 +9211,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>79</v>
@@ -9525,10 +9525,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
@@ -9540,7 +9540,7 @@
         <v>98</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>81</v>
@@ -9848,7 +9848,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>83</v>
@@ -9857,13 +9857,13 @@
         <v>7</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>81</v>
@@ -10171,10 +10171,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
@@ -10186,7 +10186,7 @@
         <v>79</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>81</v>
@@ -10503,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>79</v>
@@ -10515,7 +10515,7 @@
         <v>81</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>81</v>
@@ -10832,7 +10832,7 @@
         <v>79</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>81</v>
@@ -11149,13 +11149,13 @@
         <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>150</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>81</v>
@@ -11795,13 +11795,13 @@
         <v>6</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>81</v>
@@ -12121,7 +12121,7 @@
         <v>79</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>99</v>
@@ -12767,10 +12767,10 @@
         <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>81</v>
@@ -14056,7 +14056,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>79</v>
@@ -14385,7 +14385,7 @@
         <v>78</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>81</v>
@@ -15028,7 +15028,7 @@
         <v>170</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>102</v>
@@ -16000,7 +16000,7 @@
         <v>79</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>81</v>
@@ -16323,7 +16323,7 @@
         <v>79</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>81</v>
@@ -16634,7 +16634,7 @@
         <v>178</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>0</v>
@@ -16646,7 +16646,7 @@
         <v>79</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>81</v>
@@ -17292,7 +17292,7 @@
         <v>79</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>81</v>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="187" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="186" xml:space="preserve">
   <si>
     <t>iRipple, Inc. | DTR Summary Sheet for the period April 25, 2015 to May 08, 2015</t>
   </si>
@@ -290,6 +290,9 @@
     <t>International Business - Thailand</t>
   </si>
   <si>
+    <t>0.1.45</t>
+  </si>
+  <si>
     <t>Balingit,Barbara</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
     <t>0.2.0</t>
   </si>
   <si>
+    <t>0.1.30</t>
+  </si>
+  <si>
     <t>6.0.0</t>
   </si>
   <si>
@@ -416,9 +422,6 @@
     <t>Barter Local - Project</t>
   </si>
   <si>
-    <t>0.1.30</t>
-  </si>
-  <si>
     <t>Espiritu,Carl Philip</t>
   </si>
   <si>
@@ -446,7 +449,7 @@
     <t>Joson,Alfonso Miguel</t>
   </si>
   <si>
-    <t>0.1.45</t>
+    <t>0.2.45</t>
   </si>
   <si>
     <t>Keng,Julie</t>
@@ -465,9 +468,6 @@
   </si>
   <si>
     <t>Barter CX</t>
-  </si>
-  <si>
-    <t>0.2.45</t>
   </si>
   <si>
     <t>0.6.0</t>
@@ -500,7 +500,7 @@
     <t>Finance</t>
   </si>
   <si>
-    <t>0.5.15</t>
+    <t>0.5.45</t>
   </si>
   <si>
     <t>Pechuanging,Ma. Antoinette</t>
@@ -510,6 +510,9 @@
   </si>
   <si>
     <t>Ranes,Jonathan</t>
+  </si>
+  <si>
+    <t>0.2.30</t>
   </si>
   <si>
     <t>4.0.0</t>
@@ -522,9 +525,6 @@
   </si>
   <si>
     <t>Reyes,Salvador</t>
-  </si>
-  <si>
-    <t>0.3.30</t>
   </si>
   <si>
     <t>1.2.0</t>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>Suarez,Katrina </t>
-  </si>
-  <si>
-    <t>0.2.30</t>
   </si>
   <si>
     <t>Tanqueco,Mikee Dorina</t>
@@ -2440,7 +2437,7 @@
         <v>84</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>79</v>
@@ -2751,10 +2748,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -3074,16 +3071,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>79</v>
@@ -3397,7 +3394,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>92</v>
@@ -3406,13 +3403,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>81</v>
@@ -3720,10 +3717,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
@@ -3735,7 +3732,7 @@
         <v>79</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>81</v>
@@ -4043,7 +4040,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>89</v>
@@ -4052,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>79</v>
@@ -4366,10 +4363,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0</v>
@@ -4381,7 +4378,7 @@
         <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>81</v>
@@ -4689,16 +4686,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>79</v>
@@ -5012,7 +5009,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>83</v>
@@ -5027,7 +5024,7 @@
         <v>79</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>81</v>
@@ -5335,10 +5332,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0</v>
@@ -5658,22 +5655,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>81</v>
@@ -5981,10 +5978,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
@@ -6304,22 +6301,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>81</v>
@@ -6627,7 +6624,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>77</v>
@@ -6636,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>79</v>
@@ -6950,28 +6947,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>81</v>
@@ -7273,16 +7270,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>79</v>
@@ -7408,7 +7405,7 @@
         <f>FLOOR(AS22/8,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>79</v>
@@ -7423,7 +7420,7 @@
         <v>79</v>
       </c>
       <c r="AZ22" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BA22" s="5" t="s">
         <v>79</v>
@@ -7596,10 +7593,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
@@ -7608,10 +7605,10 @@
         <v>79</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>81</v>
@@ -7919,10 +7916,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
@@ -7931,7 +7928,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>90</v>
@@ -8242,7 +8239,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>77</v>
@@ -8257,7 +8254,7 @@
         <v>79</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>81</v>
@@ -8565,10 +8562,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -8577,10 +8574,10 @@
         <v>79</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>81</v>
@@ -8888,22 +8885,22 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>86</v>
@@ -9211,10 +9208,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0</v>
@@ -9226,7 +9223,7 @@
         <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>81</v>
@@ -9534,7 +9531,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>89</v>
@@ -9543,16 +9540,16 @@
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>79</v>
@@ -9857,22 +9854,22 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>81</v>
@@ -10180,10 +10177,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
@@ -10192,10 +10189,10 @@
         <v>79</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>81</v>
@@ -10503,7 +10500,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>83</v>
@@ -10512,13 +10509,13 @@
         <v>7</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>81</v>
@@ -10826,10 +10823,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0</v>
@@ -10841,7 +10838,7 @@
         <v>79</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>81</v>
@@ -11149,7 +11146,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>83</v>
@@ -11158,19 +11155,19 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>81</v>
@@ -11472,22 +11469,22 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>81</v>
@@ -11795,22 +11792,22 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>81</v>
@@ -12121,7 +12118,7 @@
         <v>154</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>7</v>
@@ -12133,7 +12130,7 @@
         <v>79</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>81</v>
@@ -12444,19 +12441,19 @@
         <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>81</v>
@@ -12776,10 +12773,10 @@
         <v>79</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>81</v>
@@ -13090,7 +13087,7 @@
         <v>158</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -13413,7 +13410,7 @@
         <v>160</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>0</v>
@@ -13425,7 +13422,7 @@
         <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>81</v>
@@ -13748,7 +13745,7 @@
         <v>79</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>81</v>
@@ -14382,7 +14379,7 @@
         <v>165</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>0</v>
@@ -14705,19 +14702,19 @@
         <v>166</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>84</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>81</v>
@@ -15025,25 +15022,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>79</v>
@@ -15348,22 +15345,22 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>81</v>
@@ -15674,7 +15671,7 @@
         <v>173</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0</v>
@@ -15686,7 +15683,7 @@
         <v>79</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>81</v>
@@ -16003,13 +16000,13 @@
         <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>81</v>
@@ -16332,7 +16329,7 @@
         <v>79</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>81</v>
@@ -16649,10 +16646,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>79</v>
@@ -16966,19 +16963,19 @@
         <v>178</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>81</v>
@@ -17289,19 +17286,19 @@
         <v>179</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>81</v>
@@ -17310,7 +17307,7 @@
         <v>79</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -17609,10 +17606,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0</v>
@@ -17624,7 +17621,7 @@
         <v>79</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>81</v>
@@ -17932,7 +17929,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>89</v>
@@ -18255,10 +18252,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>0</v>
@@ -18270,7 +18267,7 @@
         <v>79</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>81</v>
@@ -18578,7 +18575,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>89</v>
@@ -18590,7 +18587,7 @@
         <v>79</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>159</v>
@@ -18901,10 +18898,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>0</v>
@@ -18913,7 +18910,7 @@
         <v>79</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>80</v>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="187" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="175" xml:space="preserve">
   <si>
     <t>iRipple, Inc. | DTR Summary Sheet for the period April 25, 2015 to May 08, 2015</t>
   </si>
@@ -227,7 +227,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>"Gatan, Jr.",Mario Haris</t>
+    <t>"Gatan, Jr.", Mario Haris</t>
   </si>
   <si>
     <t>Barter Local - Support</t>
@@ -236,7 +236,7 @@
     <t>0.4.30</t>
   </si>
   <si>
-    <t>0.4.45</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>0.0.0</t>
@@ -245,13 +245,19 @@
     <t>7.4.0</t>
   </si>
   <si>
-    <t>Arceo,Arwin</t>
+    <t>Arceo, Arwin</t>
   </si>
   <si>
     <t>International Business - Malaysia</t>
   </si>
   <si>
-    <t>1.0.30</t>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>6.4.0</t>
@@ -260,7 +266,7 @@
     <t>0.5.0</t>
   </si>
   <si>
-    <t>Ardamoy,Ma. Rica Catherine</t>
+    <t>Ardamoy, Ma. Rica Catherine</t>
   </si>
   <si>
     <t>Enterprise - Petron</t>
@@ -269,25 +275,22 @@
     <t>5.0.0</t>
   </si>
   <si>
-    <t>Bacani,Eddie Marie</t>
+    <t>Bacani, Eddie Marie</t>
   </si>
   <si>
     <t>International Business - Thailand</t>
   </si>
   <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
     <t>0.1.45</t>
   </si>
   <si>
-    <t>Balingit,Barbara</t>
+    <t>Balingit, Barbara</t>
   </si>
   <si>
     <t>HR &amp;amp; Admin</t>
   </si>
   <si>
-    <t>Balino,Kamille Diane</t>
+    <t>Balino, Kamille Diane</t>
   </si>
   <si>
     <t>Product</t>
@@ -296,82 +299,64 @@
     <t>0.0.30</t>
   </si>
   <si>
-    <t>Barrion,Jane Katherine</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>Bayogos,Charmaine</t>
+    <t>Barrion, Jane Katherine</t>
+  </si>
+  <si>
+    <t>Bayogos, Charmaine</t>
   </si>
   <si>
     <t>Enterprise - Ayagold</t>
   </si>
   <si>
-    <t>Bernardo,Gianilla Mae</t>
+    <t>Bernardo, Gianilla Mae</t>
   </si>
   <si>
     <t>0.0.15</t>
   </si>
   <si>
-    <t>Borlagdan,Aldrin</t>
+    <t>Borlagdan, Aldrin</t>
   </si>
   <si>
     <t>ATVI</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
-    <t>Buena,Ian Christopher</t>
+    <t>Buena, Ian Christopher</t>
   </si>
   <si>
     <t>0.1.0</t>
   </si>
   <si>
-    <t>2.1.15</t>
-  </si>
-  <si>
-    <t>Buenafe,Rajiv</t>
-  </si>
-  <si>
-    <t>Cataluna,Christian Gilbert</t>
+    <t>Buenafe, Rajiv</t>
+  </si>
+  <si>
+    <t>Cataluna, Christian Gilbert</t>
   </si>
   <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>CaÃ±ete,Carol Ann</t>
+    <t>CaÃ±ete, Carol Ann</t>
   </si>
   <si>
     <t>0.0.45</t>
   </si>
   <si>
-    <t>Cerbo,Jaycer</t>
-  </si>
-  <si>
-    <t>Ching,Mark Angelo</t>
+    <t>Cerbo, Jaycer</t>
+  </si>
+  <si>
+    <t>Ching, Mark Angelo</t>
   </si>
   <si>
     <t>Imaghine</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>2.2.0</t>
-  </si>
-  <si>
-    <t>Cortez,Jomar</t>
-  </si>
-  <si>
-    <t>1.0.45</t>
-  </si>
-  <si>
-    <t>Cruz,Cesar</t>
-  </si>
-  <si>
-    <t>0.3.30</t>
+    <t>0.1.30</t>
+  </si>
+  <si>
+    <t>Cortez, Jomar</t>
+  </si>
+  <si>
+    <t>Cruz, Cesar</t>
   </si>
   <si>
     <t>7.0.0</t>
@@ -380,7 +365,7 @@
     <t>1.0.0</t>
   </si>
   <si>
-    <t>Delfin,Jonathan</t>
+    <t>Delfin, Jonathan</t>
   </si>
   <si>
     <t>International Business - PNG</t>
@@ -389,43 +374,40 @@
     <t>0.7.0</t>
   </si>
   <si>
-    <t>Dino,Arvin</t>
-  </si>
-  <si>
-    <t>1.2.30</t>
-  </si>
-  <si>
-    <t>Dy,Hubert</t>
+    <t>Dino, Arvin</t>
+  </si>
+  <si>
+    <t>0.2.15</t>
+  </si>
+  <si>
+    <t>Dy, Hubert</t>
   </si>
   <si>
     <t>Executive</t>
   </si>
   <si>
-    <t>Egamino,Ellen</t>
-  </si>
-  <si>
-    <t>Enrique,Christian Dan</t>
+    <t>Egamino, Ellen</t>
+  </si>
+  <si>
+    <t>Enrique, Christian Dan</t>
   </si>
   <si>
     <t>Barter Local - Project</t>
   </si>
   <si>
-    <t>0.1.30</t>
-  </si>
-  <si>
-    <t>Espiritu,Carl Philip</t>
+    <t>Espiritu, Carl Philip</t>
   </si>
   <si>
     <t>0.3.45</t>
   </si>
   <si>
-    <t>Fadrilan,Liezl</t>
+    <t>Fadrilan, Liezl</t>
   </si>
   <si>
     <t>Synext (Nexus)</t>
   </si>
   <si>
-    <t>Flores,Arianne Grace</t>
+    <t>Flores, Arianne Grace</t>
   </si>
   <si>
     <t>6.0.0</t>
@@ -434,64 +416,55 @@
     <t>4.4.0</t>
   </si>
   <si>
-    <t>Francisco,Roed Ronualdo </t>
-  </si>
-  <si>
-    <t>Javier,Victor </t>
-  </si>
-  <si>
-    <t>Joson,Alfonso Miguel</t>
+    <t>Francisco, Roed Ronualdo </t>
+  </si>
+  <si>
+    <t>Javier, Victor </t>
+  </si>
+  <si>
+    <t>Joson, Alfonso Miguel</t>
   </si>
   <si>
     <t>0.2.45</t>
   </si>
   <si>
-    <t>Keng,Julie</t>
-  </si>
-  <si>
-    <t>Laude,Ted Marty</t>
-  </si>
-  <si>
-    <t>0.2.15</t>
-  </si>
-  <si>
-    <t>Ledesma,Jesse</t>
-  </si>
-  <si>
-    <t>Mangundayao,Mac Donald</t>
+    <t>Keng, Julie</t>
+  </si>
+  <si>
+    <t>Laude, Ted Marty</t>
+  </si>
+  <si>
+    <t>Ledesma, Jesse</t>
+  </si>
+  <si>
+    <t>Mangundayao, Mac Donald</t>
   </si>
   <si>
     <t>Barter CX</t>
   </si>
   <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
     <t>0.6.0</t>
   </si>
   <si>
-    <t>Matias,Ma. Jeremia Jetheth </t>
+    <t>Matias, Ma. Jeremia Jetheth </t>
   </si>
   <si>
     <t>0.4.15</t>
   </si>
   <si>
-    <t>Mendoza,Diana</t>
-  </si>
-  <si>
-    <t>1.1.30</t>
-  </si>
-  <si>
-    <t>Nagnal,Fracy</t>
-  </si>
-  <si>
-    <t>Newsom,Jifferson</t>
-  </si>
-  <si>
-    <t>Pajo,Maricel</t>
-  </si>
-  <si>
-    <t>Pancho,Jona</t>
+    <t>Mendoza, Diana</t>
+  </si>
+  <si>
+    <t>Nagnal, Fracy</t>
+  </si>
+  <si>
+    <t>Newsom, Jifferson</t>
+  </si>
+  <si>
+    <t>Pajo, Maricel</t>
+  </si>
+  <si>
+    <t>Pancho, Jona</t>
   </si>
   <si>
     <t>Finance</t>
@@ -500,76 +473,67 @@
     <t>0.5.45</t>
   </si>
   <si>
-    <t>Pechuanging,Ma. Antoinette</t>
-  </si>
-  <si>
-    <t>Pendre,Contessa</t>
-  </si>
-  <si>
-    <t>Ranes,Jonathan</t>
+    <t>Pechuanging, Ma. Antoinette</t>
+  </si>
+  <si>
+    <t>Pendre, Contessa</t>
+  </si>
+  <si>
+    <t>Ranes, Jonathan</t>
   </si>
   <si>
     <t>0.2.30</t>
   </si>
   <si>
-    <t>Reyes,Mark Gil</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
+    <t>Reyes, Mark Gil</t>
   </si>
   <si>
     <t>5.4.0</t>
   </si>
   <si>
-    <t>Reyes,Salvador</t>
+    <t>Reyes, Salvador</t>
   </si>
   <si>
     <t>1.2.0</t>
   </si>
   <si>
-    <t>Sanoria,Samuel</t>
-  </si>
-  <si>
-    <t>2.5.15</t>
-  </si>
-  <si>
-    <t>Santos,Patricia</t>
-  </si>
-  <si>
-    <t>See,Jenilyn</t>
-  </si>
-  <si>
-    <t>Solbita,Felmar</t>
+    <t>Sanoria, Samuel</t>
+  </si>
+  <si>
+    <t>Santos, Patricia</t>
+  </si>
+  <si>
+    <t>See, Jenilyn</t>
+  </si>
+  <si>
+    <t>Solbita, Felmar</t>
   </si>
   <si>
     <t>Enterprise - Primer</t>
   </si>
   <si>
-    <t>Soriano,Josif Hans</t>
-  </si>
-  <si>
-    <t>Suarez,Katrina </t>
-  </si>
-  <si>
-    <t>Tanqueco,Mikee Dorina</t>
-  </si>
-  <si>
-    <t>1.6.30</t>
-  </si>
-  <si>
-    <t>Tesoro,Rose Natalie</t>
-  </si>
-  <si>
-    <t>Unson,Mary Anne</t>
+    <t>Soriano, Josif Hans</t>
+  </si>
+  <si>
+    <t>Suarez, Katrina </t>
+  </si>
+  <si>
+    <t>Tanqueco, Mikee Dorina</t>
+  </si>
+  <si>
+    <t>Tesoro, Rose Natalie</t>
+  </si>
+  <si>
+    <t>Unson, Mary Anne</t>
   </si>
   <si>
     <t>Marketing &amp;amp; Hardware</t>
   </si>
   <si>
-    <t>Viloria,Eizell</t>
-  </si>
-  <si>
-    <t>Viloria,Benito Jr.</t>
+    <t>Viloria, Eizell</t>
+  </si>
+  <si>
+    <t>Viloria, Benito Jr.</t>
   </si>
 </sst>
 </file>
@@ -1557,16 +1521,16 @@
         <v>80</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>77</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,2))</f>
@@ -1680,13 +1644,13 @@
         <v>76</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AW5" s="5" t="s">
         <v>76</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AY5" s="5" t="s">
         <v>76</v>
@@ -1793,10 +1757,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0</v>
@@ -1817,7 +1781,7 @@
         <v>76</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,2))</f>
@@ -2044,19 +2008,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>76</v>
@@ -2295,10 +2259,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
@@ -2546,16 +2510,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>76</v>
@@ -2797,22 +2761,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>77</v>
@@ -3063,7 +3027,7 @@
         <v>76</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>77</v>
@@ -3302,7 +3266,7 @@
         <v>99</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
@@ -3562,7 +3526,7 @@
         <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>76</v>
@@ -3801,7 +3765,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>102</v>
@@ -3810,10 +3774,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>76</v>
@@ -4052,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>79</v>
@@ -4303,10 +4267,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0</v>
@@ -4554,16 +4518,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>76</v>
@@ -4805,10 +4769,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
@@ -5056,19 +5020,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>76</v>
@@ -5307,7 +5271,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>73</v>
@@ -5316,10 +5280,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>76</v>
@@ -5558,28 +5522,28 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>77</v>
@@ -5809,10 +5773,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1</v>
@@ -5944,7 +5908,7 @@
         <f>FLOOR(AS22/8,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AV22" s="5" t="s">
         <v>76</v>
@@ -5953,7 +5917,7 @@
         <v>76</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AY22" s="5" t="s">
         <v>76</v>
@@ -6060,7 +6024,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>102</v>
@@ -6072,7 +6036,7 @@
         <v>76</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>76</v>
@@ -6311,10 +6275,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0</v>
@@ -6323,7 +6287,7 @@
         <v>76</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>76</v>
@@ -6562,7 +6526,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>73</v>
@@ -6571,7 +6535,7 @@
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>76</v>
@@ -6813,10 +6777,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -6825,7 +6789,7 @@
         <v>76</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>76</v>
@@ -7064,25 +7028,25 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>76</v>
@@ -7315,10 +7279,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0</v>
@@ -7566,31 +7530,31 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>76</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K29" s="5" t="str">
         <f>INT(LEFT(E29,2))</f>
@@ -7817,16 +7781,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>76</v>
@@ -8068,10 +8032,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
@@ -8080,7 +8044,7 @@
         <v>76</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>76</v>
@@ -8319,7 +8283,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>79</v>
@@ -8328,10 +8292,10 @@
         <v>7</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>76</v>
@@ -8454,7 +8418,7 @@
         <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AV32" s="5" t="s">
         <v>76</v>
@@ -8570,10 +8534,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0</v>
@@ -8821,7 +8785,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>79</v>
@@ -8833,7 +8797,7 @@
         <v>100</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>76</v>
@@ -8842,7 +8806,7 @@
         <v>77</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>77</v>
@@ -9072,7 +9036,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>73</v>
@@ -9081,7 +9045,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>76</v>
@@ -9323,19 +9287,19 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>76</v>
@@ -9458,7 +9422,7 @@
         <f>FLOOR(AS36/8,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>76</v>
@@ -9574,7 +9538,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>102</v>
@@ -9583,7 +9547,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>76</v>
@@ -9825,19 +9789,19 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>76</v>
@@ -10076,7 +10040,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>79</v>
@@ -10088,7 +10052,7 @@
         <v>76</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>76</v>
@@ -10327,10 +10291,10 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -10578,7 +10542,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>102</v>
@@ -10829,16 +10793,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>76</v>
@@ -11080,10 +11044,10 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>0</v>
@@ -11331,7 +11295,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>102</v>
@@ -11343,7 +11307,7 @@
         <v>76</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>76</v>
@@ -11582,7 +11546,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>102</v>
@@ -11591,10 +11555,10 @@
         <v>5</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>76</v>
@@ -11833,25 +11797,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>76</v>
@@ -12084,7 +12048,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>98</v>
@@ -12093,10 +12057,10 @@
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>76</v>
@@ -12219,7 +12183,7 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>76</v>
@@ -12335,10 +12299,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0</v>
@@ -12347,7 +12311,7 @@
         <v>76</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>76</v>
@@ -12586,7 +12550,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>73</v>
@@ -12595,10 +12559,10 @@
         <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>76</v>
@@ -12837,7 +12801,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>73</v>
@@ -13088,19 +13052,19 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>76</v>
@@ -13339,19 +13303,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>76</v>
@@ -13590,7 +13554,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>98</v>
@@ -13599,13 +13563,13 @@
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>77</v>
@@ -13614,7 +13578,7 @@
         <v>76</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -13841,10 +13805,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0</v>
@@ -13853,7 +13817,7 @@
         <v>76</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>76</v>
@@ -14092,10 +14056,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>0</v>
@@ -14343,10 +14307,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>0</v>
@@ -14594,10 +14558,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>0</v>
@@ -14606,7 +14570,7 @@
         <v>76</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>76</v>
@@ -14845,10 +14809,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>0</v>
@@ -14857,7 +14821,7 @@
         <v>76</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>76</v>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="175" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="190" xml:space="preserve">
   <si>
     <t>iRipple, Inc. | DTR Summary Sheet for the period April 25, 2015 to May 08, 2015</t>
   </si>
@@ -140,6 +140,9 @@
     <t>OT</t>
   </si>
   <si>
+    <t>Deduction</t>
+  </si>
+  <si>
     <t>NO.</t>
   </si>
   <si>
@@ -227,6 +230,24 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>Absences</t>
+  </si>
+  <si>
+    <t>1st Column</t>
+  </si>
+  <si>
+    <t>2nd Column</t>
+  </si>
+  <si>
+    <t>3rd Column</t>
+  </si>
+  <si>
+    <t>4th Column</t>
+  </si>
+  <si>
+    <t>5th Column</t>
+  </si>
+  <si>
     <t>Arceo, Arwin</t>
   </si>
   <si>
@@ -248,6 +269,9 @@
     <t>0.5.0</t>
   </si>
   <si>
+    <t>4.4.0</t>
+  </si>
+  <si>
     <t>Ardamoy, Ma. Rica Catherine</t>
   </si>
   <si>
@@ -293,6 +317,9 @@
     <t>Enterprise - Ayagold</t>
   </si>
   <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
     <t>Bernardo, Gianilla Mae</t>
   </si>
   <si>
@@ -314,6 +341,9 @@
     <t>Buenafe, Rajiv</t>
   </si>
   <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
     <t>Cataluna, Christian Gilbert</t>
   </si>
   <si>
@@ -326,6 +356,9 @@
     <t>0.0.45</t>
   </si>
   <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
     <t>Cerbo, Jaycer</t>
   </si>
   <si>
@@ -347,12 +380,12 @@
     <t>Barter Local - Support</t>
   </si>
   <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
     <t>Cruz, Cesar</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>7.0.0</t>
   </si>
   <si>
@@ -374,6 +407,9 @@
     <t>0.2.15</t>
   </si>
   <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
     <t>Dy, Hubert</t>
   </si>
   <si>
@@ -404,12 +440,6 @@
     <t>Flores, Arianne Grace</t>
   </si>
   <si>
-    <t>6.0.0</t>
-  </si>
-  <si>
-    <t>4.4.0</t>
-  </si>
-  <si>
     <t>Francisco, Roed Ronualdo </t>
   </si>
   <si>
@@ -422,6 +452,9 @@
     <t>Javier, Victor </t>
   </si>
   <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
     <t>Joson, Alfonso Miguel</t>
   </si>
   <si>
@@ -431,6 +464,9 @@
     <t>Keng, Julie</t>
   </si>
   <si>
+    <t>8.4.0</t>
+  </si>
+  <si>
     <t>Laude, Ted Marty</t>
   </si>
   <si>
@@ -461,6 +497,9 @@
     <t>Newsom, Jifferson</t>
   </si>
   <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
     <t>Pajo, Maricel</t>
   </si>
   <si>
@@ -485,6 +524,9 @@
     <t>0.2.30</t>
   </si>
   <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
     <t>Reyes, Mark Gil</t>
   </si>
   <si>
@@ -528,6 +570,9 @@
   </si>
   <si>
     <t>Marketing &amp;amp; Hardware</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Viloria, Benito Jr.</t>
@@ -650,7 +695,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CE58"/>
+  <dimension ref="A1:CK58"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="D4" state="frozenSplit" activePane="bottomRight" ySplit="3" xSplit="3"/>
@@ -741,6 +786,12 @@
     <col min="81" max="81" bestFit="true" customWidth="true" width="6.284831460674157" hidden="true"/>
     <col min="82" max="82" bestFit="true" customWidth="true" width="14"/>
     <col min="83" max="83" bestFit="true" customWidth="true" width="9"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" width="12.5" hidden="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" width="16.184831460674157" hidden="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="19.484831460674158" hidden="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="17.834831460674156" hidden="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" width="17.834831460674156" hidden="true"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" width="17.834831460674156" hidden="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -998,160 +1049,178 @@
       <c r="CE2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="CF2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row ht="70" customHeight="true" r="3">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AZ3" s="4" t="s">
         <v>2</v>
@@ -1244,10 +1313,28 @@
         <v>2</v>
       </c>
       <c r="CD3" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="CE3" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="CI3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CJ3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CK3" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -1255,31 +1342,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>INT(LEFT(E4,2))</f>
@@ -1300,7 +1387,7 @@
         <f>INT(LEFT(H4,2))</f>
       </c>
       <c r="Q4" s="5" t="str">
-        <f>K4+L4+IF(M4&gt;O4,M4-O4,0)+IF(N4&gt;P4,N4-P4,0)</f>
+        <f>K4+L4+CG4+IF(M4&gt;O4,M4-O4,0)+IF(N4&gt;P4,N4-P4,0)</f>
       </c>
       <c r="R4" s="5" t="str">
         <f>IF(LEFT(RIGHT(E4,LEN(E4)-2),1)=".",RIGHT(E4,LEN(E4)-3),RIGHT(E4,LEN(E4)-2))</f>
@@ -1339,7 +1426,7 @@
         <f>INT(LEFT(W4,1))</f>
       </c>
       <c r="AD4" s="5" t="str">
-        <f>R4+S4+IF(T4&gt;V4,T4-V4,0)+IF(U4&gt;W4,U4-W4,0)</f>
+        <f>R4+S4+CH4+IF(T4&gt;V4,T4-V4,0)+IF(U4&gt;W4,U4-W4,0)</f>
       </c>
       <c r="AE4" s="5" t="str">
         <f>RIGHT(R4,LEN(R4)-2)+0</f>
@@ -1360,7 +1447,7 @@
         <f>RIGHT(W4,LEN(W4)-2)+0</f>
       </c>
       <c r="AK4" s="5" t="str">
-        <f>AE4+IF(AG4&gt;AI4,AG4-AI4,0)+IF(AH4&gt;AJ4,AH4-AJ4,0)</f>
+        <f>AE4+AF4+CJ4+IF(AG4&gt;AI4,AG4-AI4,0)+IF(AH4&gt;AJ4,AH4-AJ4,0)</f>
       </c>
       <c r="AL4" s="5" t="str">
         <f>K4*8*60+X4*60+AE4</f>
@@ -1381,7 +1468,7 @@
         <f>P4*8*60+AC4*60+AJ4</f>
       </c>
       <c r="AR4" s="5" t="str">
-        <f>AL4+AM4+IF(AN4&gt;AP4,AN4-AP4,0)+IF(AO4&gt;AQ4,AO4-AQ4,0)</f>
+        <f>AL4+AM4+CK4+IF(AN4&gt;AP4,AN4-AP4,0)+IF(AO4&gt;AQ4,AO4-AQ4,0)</f>
       </c>
       <c r="AS4" s="5" t="str">
         <f>AR4/60</f>
@@ -1390,19 +1477,19 @@
         <f>FLOOR(AS4/8,1)&amp;"."&amp;FLOOR(MOD(AS4,8),1)&amp;"."&amp;(MOD(AS4,8)-FLOOR(MOD(AS4,8),1))*60</f>
       </c>
       <c r="AU4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AW4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY4" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ4" s="5" t="str">
         <f>INT(LEFT(AU4,1))</f>
@@ -1499,6 +1586,24 @@
       </c>
       <c r="CE4" s="5" t="str">
         <f>FLOOR(CC4/8,1,1)&amp;"."&amp;FLOOR(MOD(CC4,8),1,1)&amp;"."&amp;(MOD(CC4,8)-FLOOR(MOD(CC4,8),1,1))*60</f>
+      </c>
+      <c r="CF4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG4" s="5" t="str">
+        <f>INT(LEFT(CF4,2))</f>
+      </c>
+      <c r="CH4" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF4,LEN(CF4)-2),1)=".",RIGHT(CF4,LEN(CF4)-3),RIGHT(CF4,LEN(CF4)-2))</f>
+      </c>
+      <c r="CI4" s="5" t="str">
+        <f>INT(LEFT(CH4,1))</f>
+      </c>
+      <c r="CJ4" s="5" t="str">
+        <f>RIGHT(CH4,LEN(CH4)-2)+0</f>
+      </c>
+      <c r="CK4" s="5" t="str">
+        <f>CG4*8*60+CI4*60+CJ4</f>
       </c>
     </row>
     <row r="5">
@@ -1506,31 +1611,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,2))</f>
@@ -1551,7 +1656,7 @@
         <f>INT(LEFT(H5,2))</f>
       </c>
       <c r="Q5" s="5" t="str">
-        <f>K5+L5+IF(M5&gt;O5,M5-O5,0)+IF(N5&gt;P5,N5-P5,0)</f>
+        <f>K5+L5+CG5+IF(M5&gt;O5,M5-O5,0)+IF(N5&gt;P5,N5-P5,0)</f>
       </c>
       <c r="R5" s="5" t="str">
         <f>IF(LEFT(RIGHT(E5,LEN(E5)-2),1)=".",RIGHT(E5,LEN(E5)-3),RIGHT(E5,LEN(E5)-2))</f>
@@ -1590,7 +1695,7 @@
         <f>INT(LEFT(W5,1))</f>
       </c>
       <c r="AD5" s="5" t="str">
-        <f>R5+S5+IF(T5&gt;V5,T5-V5,0)+IF(U5&gt;W5,U5-W5,0)</f>
+        <f>R5+S5+CH5+IF(T5&gt;V5,T5-V5,0)+IF(U5&gt;W5,U5-W5,0)</f>
       </c>
       <c r="AE5" s="5" t="str">
         <f>RIGHT(R5,LEN(R5)-2)+0</f>
@@ -1611,7 +1716,7 @@
         <f>RIGHT(W5,LEN(W5)-2)+0</f>
       </c>
       <c r="AK5" s="5" t="str">
-        <f>AE5+IF(AG5&gt;AI5,AG5-AI5,0)+IF(AH5&gt;AJ5,AH5-AJ5,0)</f>
+        <f>AE5+AF5+CJ5+IF(AG5&gt;AI5,AG5-AI5,0)+IF(AH5&gt;AJ5,AH5-AJ5,0)</f>
       </c>
       <c r="AL5" s="5" t="str">
         <f>K5*8*60+X5*60+AE5</f>
@@ -1632,7 +1737,7 @@
         <f>P5*8*60+AC5*60+AJ5</f>
       </c>
       <c r="AR5" s="5" t="str">
-        <f>AL5+AM5+IF(AN5&gt;AP5,AN5-AP5,0)+IF(AO5&gt;AQ5,AO5-AQ5,0)</f>
+        <f>AL5+AM5+CK5+IF(AN5&gt;AP5,AN5-AP5,0)+IF(AO5&gt;AQ5,AO5-AQ5,0)</f>
       </c>
       <c r="AS5" s="5" t="str">
         <f>AR5/60</f>
@@ -1641,19 +1746,19 @@
         <f>FLOOR(AS5/8,1)&amp;"."&amp;FLOOR(MOD(AS5,8),1)&amp;"."&amp;(MOD(AS5,8)-FLOOR(MOD(AS5,8),1))*60</f>
       </c>
       <c r="AU5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY5" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ5" s="5" t="str">
         <f>INT(LEFT(AU5,1))</f>
@@ -1750,6 +1855,24 @@
       </c>
       <c r="CE5" s="5" t="str">
         <f>FLOOR(CC5/8,1,1)&amp;"."&amp;FLOOR(MOD(CC5,8),1,1)&amp;"."&amp;(MOD(CC5,8)-FLOOR(MOD(CC5,8),1,1))*60</f>
+      </c>
+      <c r="CF5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG5" s="5" t="str">
+        <f>INT(LEFT(CF5,2))</f>
+      </c>
+      <c r="CH5" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF5,LEN(CF5)-2),1)=".",RIGHT(CF5,LEN(CF5)-3),RIGHT(CF5,LEN(CF5)-2))</f>
+      </c>
+      <c r="CI5" s="5" t="str">
+        <f>INT(LEFT(CH5,1))</f>
+      </c>
+      <c r="CJ5" s="5" t="str">
+        <f>RIGHT(CH5,LEN(CH5)-2)+0</f>
+      </c>
+      <c r="CK5" s="5" t="str">
+        <f>CG5*8*60+CI5*60+CJ5</f>
       </c>
     </row>
     <row r="6">
@@ -1757,31 +1880,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,2))</f>
@@ -1802,7 +1925,7 @@
         <f>INT(LEFT(H6,2))</f>
       </c>
       <c r="Q6" s="5" t="str">
-        <f>K6+L6+IF(M6&gt;O6,M6-O6,0)+IF(N6&gt;P6,N6-P6,0)</f>
+        <f>K6+L6+CG6+IF(M6&gt;O6,M6-O6,0)+IF(N6&gt;P6,N6-P6,0)</f>
       </c>
       <c r="R6" s="5" t="str">
         <f>IF(LEFT(RIGHT(E6,LEN(E6)-2),1)=".",RIGHT(E6,LEN(E6)-3),RIGHT(E6,LEN(E6)-2))</f>
@@ -1841,7 +1964,7 @@
         <f>INT(LEFT(W6,1))</f>
       </c>
       <c r="AD6" s="5" t="str">
-        <f>R6+S6+IF(T6&gt;V6,T6-V6,0)+IF(U6&gt;W6,U6-W6,0)</f>
+        <f>R6+S6+CH6+IF(T6&gt;V6,T6-V6,0)+IF(U6&gt;W6,U6-W6,0)</f>
       </c>
       <c r="AE6" s="5" t="str">
         <f>RIGHT(R6,LEN(R6)-2)+0</f>
@@ -1862,7 +1985,7 @@
         <f>RIGHT(W6,LEN(W6)-2)+0</f>
       </c>
       <c r="AK6" s="5" t="str">
-        <f>AE6+IF(AG6&gt;AI6,AG6-AI6,0)+IF(AH6&gt;AJ6,AH6-AJ6,0)</f>
+        <f>AE6+AF6+CJ6+IF(AG6&gt;AI6,AG6-AI6,0)+IF(AH6&gt;AJ6,AH6-AJ6,0)</f>
       </c>
       <c r="AL6" s="5" t="str">
         <f>K6*8*60+X6*60+AE6</f>
@@ -1883,7 +2006,7 @@
         <f>P6*8*60+AC6*60+AJ6</f>
       </c>
       <c r="AR6" s="5" t="str">
-        <f>AL6+AM6+IF(AN6&gt;AP6,AN6-AP6,0)+IF(AO6&gt;AQ6,AO6-AQ6,0)</f>
+        <f>AL6+AM6+CK6+IF(AN6&gt;AP6,AN6-AP6,0)+IF(AO6&gt;AQ6,AO6-AQ6,0)</f>
       </c>
       <c r="AS6" s="5" t="str">
         <f>AR6/60</f>
@@ -1892,19 +2015,19 @@
         <f>FLOOR(AS6/8,1)&amp;"."&amp;FLOOR(MOD(AS6,8),1)&amp;"."&amp;(MOD(AS6,8)-FLOOR(MOD(AS6,8),1))*60</f>
       </c>
       <c r="AU6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY6" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ6" s="5" t="str">
         <f>INT(LEFT(AU6,1))</f>
@@ -2001,6 +2124,24 @@
       </c>
       <c r="CE6" s="5" t="str">
         <f>FLOOR(CC6/8,1,1)&amp;"."&amp;FLOOR(MOD(CC6,8),1,1)&amp;"."&amp;(MOD(CC6,8)-FLOOR(MOD(CC6,8),1,1))*60</f>
+      </c>
+      <c r="CF6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG6" s="5" t="str">
+        <f>INT(LEFT(CF6,2))</f>
+      </c>
+      <c r="CH6" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF6,LEN(CF6)-2),1)=".",RIGHT(CF6,LEN(CF6)-3),RIGHT(CF6,LEN(CF6)-2))</f>
+      </c>
+      <c r="CI6" s="5" t="str">
+        <f>INT(LEFT(CH6,1))</f>
+      </c>
+      <c r="CJ6" s="5" t="str">
+        <f>RIGHT(CH6,LEN(CH6)-2)+0</f>
+      </c>
+      <c r="CK6" s="5" t="str">
+        <f>CG6*8*60+CI6*60+CJ6</f>
       </c>
     </row>
     <row r="7">
@@ -2008,31 +2149,31 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>INT(LEFT(E7,2))</f>
@@ -2053,7 +2194,7 @@
         <f>INT(LEFT(H7,2))</f>
       </c>
       <c r="Q7" s="5" t="str">
-        <f>K7+L7+IF(M7&gt;O7,M7-O7,0)+IF(N7&gt;P7,N7-P7,0)</f>
+        <f>K7+L7+CG7+IF(M7&gt;O7,M7-O7,0)+IF(N7&gt;P7,N7-P7,0)</f>
       </c>
       <c r="R7" s="5" t="str">
         <f>IF(LEFT(RIGHT(E7,LEN(E7)-2),1)=".",RIGHT(E7,LEN(E7)-3),RIGHT(E7,LEN(E7)-2))</f>
@@ -2092,7 +2233,7 @@
         <f>INT(LEFT(W7,1))</f>
       </c>
       <c r="AD7" s="5" t="str">
-        <f>R7+S7+IF(T7&gt;V7,T7-V7,0)+IF(U7&gt;W7,U7-W7,0)</f>
+        <f>R7+S7+CH7+IF(T7&gt;V7,T7-V7,0)+IF(U7&gt;W7,U7-W7,0)</f>
       </c>
       <c r="AE7" s="5" t="str">
         <f>RIGHT(R7,LEN(R7)-2)+0</f>
@@ -2113,7 +2254,7 @@
         <f>RIGHT(W7,LEN(W7)-2)+0</f>
       </c>
       <c r="AK7" s="5" t="str">
-        <f>AE7+IF(AG7&gt;AI7,AG7-AI7,0)+IF(AH7&gt;AJ7,AH7-AJ7,0)</f>
+        <f>AE7+AF7+CJ7+IF(AG7&gt;AI7,AG7-AI7,0)+IF(AH7&gt;AJ7,AH7-AJ7,0)</f>
       </c>
       <c r="AL7" s="5" t="str">
         <f>K7*8*60+X7*60+AE7</f>
@@ -2134,7 +2275,7 @@
         <f>P7*8*60+AC7*60+AJ7</f>
       </c>
       <c r="AR7" s="5" t="str">
-        <f>AL7+AM7+IF(AN7&gt;AP7,AN7-AP7,0)+IF(AO7&gt;AQ7,AO7-AQ7,0)</f>
+        <f>AL7+AM7+CK7+IF(AN7&gt;AP7,AN7-AP7,0)+IF(AO7&gt;AQ7,AO7-AQ7,0)</f>
       </c>
       <c r="AS7" s="5" t="str">
         <f>AR7/60</f>
@@ -2143,19 +2284,19 @@
         <f>FLOOR(AS7/8,1)&amp;"."&amp;FLOOR(MOD(AS7,8),1)&amp;"."&amp;(MOD(AS7,8)-FLOOR(MOD(AS7,8),1))*60</f>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY7" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ7" s="5" t="str">
         <f>INT(LEFT(AU7,1))</f>
@@ -2252,6 +2393,24 @@
       </c>
       <c r="CE7" s="5" t="str">
         <f>FLOOR(CC7/8,1,1)&amp;"."&amp;FLOOR(MOD(CC7,8),1,1)&amp;"."&amp;(MOD(CC7,8)-FLOOR(MOD(CC7,8),1,1))*60</f>
+      </c>
+      <c r="CF7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG7" s="5" t="str">
+        <f>INT(LEFT(CF7,2))</f>
+      </c>
+      <c r="CH7" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF7,LEN(CF7)-2),1)=".",RIGHT(CF7,LEN(CF7)-3),RIGHT(CF7,LEN(CF7)-2))</f>
+      </c>
+      <c r="CI7" s="5" t="str">
+        <f>INT(LEFT(CH7,1))</f>
+      </c>
+      <c r="CJ7" s="5" t="str">
+        <f>RIGHT(CH7,LEN(CH7)-2)+0</f>
+      </c>
+      <c r="CK7" s="5" t="str">
+        <f>CG7*8*60+CI7*60+CJ7</f>
       </c>
     </row>
     <row r="8">
@@ -2259,31 +2418,31 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>INT(LEFT(E8,2))</f>
@@ -2304,7 +2463,7 @@
         <f>INT(LEFT(H8,2))</f>
       </c>
       <c r="Q8" s="5" t="str">
-        <f>K8+L8+IF(M8&gt;O8,M8-O8,0)+IF(N8&gt;P8,N8-P8,0)</f>
+        <f>K8+L8+CG8+IF(M8&gt;O8,M8-O8,0)+IF(N8&gt;P8,N8-P8,0)</f>
       </c>
       <c r="R8" s="5" t="str">
         <f>IF(LEFT(RIGHT(E8,LEN(E8)-2),1)=".",RIGHT(E8,LEN(E8)-3),RIGHT(E8,LEN(E8)-2))</f>
@@ -2343,7 +2502,7 @@
         <f>INT(LEFT(W8,1))</f>
       </c>
       <c r="AD8" s="5" t="str">
-        <f>R8+S8+IF(T8&gt;V8,T8-V8,0)+IF(U8&gt;W8,U8-W8,0)</f>
+        <f>R8+S8+CH8+IF(T8&gt;V8,T8-V8,0)+IF(U8&gt;W8,U8-W8,0)</f>
       </c>
       <c r="AE8" s="5" t="str">
         <f>RIGHT(R8,LEN(R8)-2)+0</f>
@@ -2364,7 +2523,7 @@
         <f>RIGHT(W8,LEN(W8)-2)+0</f>
       </c>
       <c r="AK8" s="5" t="str">
-        <f>AE8+IF(AG8&gt;AI8,AG8-AI8,0)+IF(AH8&gt;AJ8,AH8-AJ8,0)</f>
+        <f>AE8+AF8+CJ8+IF(AG8&gt;AI8,AG8-AI8,0)+IF(AH8&gt;AJ8,AH8-AJ8,0)</f>
       </c>
       <c r="AL8" s="5" t="str">
         <f>K8*8*60+X8*60+AE8</f>
@@ -2385,7 +2544,7 @@
         <f>P8*8*60+AC8*60+AJ8</f>
       </c>
       <c r="AR8" s="5" t="str">
-        <f>AL8+AM8+IF(AN8&gt;AP8,AN8-AP8,0)+IF(AO8&gt;AQ8,AO8-AQ8,0)</f>
+        <f>AL8+AM8+CK8+IF(AN8&gt;AP8,AN8-AP8,0)+IF(AO8&gt;AQ8,AO8-AQ8,0)</f>
       </c>
       <c r="AS8" s="5" t="str">
         <f>AR8/60</f>
@@ -2394,19 +2553,19 @@
         <f>FLOOR(AS8/8,1)&amp;"."&amp;FLOOR(MOD(AS8,8),1)&amp;"."&amp;(MOD(AS8,8)-FLOOR(MOD(AS8,8),1))*60</f>
       </c>
       <c r="AU8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY8" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ8" s="5" t="str">
         <f>INT(LEFT(AU8,1))</f>
@@ -2503,6 +2662,24 @@
       </c>
       <c r="CE8" s="5" t="str">
         <f>FLOOR(CC8/8,1,1)&amp;"."&amp;FLOOR(MOD(CC8,8),1,1)&amp;"."&amp;(MOD(CC8,8)-FLOOR(MOD(CC8,8),1,1))*60</f>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG8" s="5" t="str">
+        <f>INT(LEFT(CF8,2))</f>
+      </c>
+      <c r="CH8" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF8,LEN(CF8)-2),1)=".",RIGHT(CF8,LEN(CF8)-3),RIGHT(CF8,LEN(CF8)-2))</f>
+      </c>
+      <c r="CI8" s="5" t="str">
+        <f>INT(LEFT(CH8,1))</f>
+      </c>
+      <c r="CJ8" s="5" t="str">
+        <f>RIGHT(CH8,LEN(CH8)-2)+0</f>
+      </c>
+      <c r="CK8" s="5" t="str">
+        <f>CG8*8*60+CI8*60+CJ8</f>
       </c>
     </row>
     <row r="9">
@@ -2510,31 +2687,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,2))</f>
@@ -2555,7 +2732,7 @@
         <f>INT(LEFT(H9,2))</f>
       </c>
       <c r="Q9" s="5" t="str">
-        <f>K9+L9+IF(M9&gt;O9,M9-O9,0)+IF(N9&gt;P9,N9-P9,0)</f>
+        <f>K9+L9+CG9+IF(M9&gt;O9,M9-O9,0)+IF(N9&gt;P9,N9-P9,0)</f>
       </c>
       <c r="R9" s="5" t="str">
         <f>IF(LEFT(RIGHT(E9,LEN(E9)-2),1)=".",RIGHT(E9,LEN(E9)-3),RIGHT(E9,LEN(E9)-2))</f>
@@ -2594,7 +2771,7 @@
         <f>INT(LEFT(W9,1))</f>
       </c>
       <c r="AD9" s="5" t="str">
-        <f>R9+S9+IF(T9&gt;V9,T9-V9,0)+IF(U9&gt;W9,U9-W9,0)</f>
+        <f>R9+S9+CH9+IF(T9&gt;V9,T9-V9,0)+IF(U9&gt;W9,U9-W9,0)</f>
       </c>
       <c r="AE9" s="5" t="str">
         <f>RIGHT(R9,LEN(R9)-2)+0</f>
@@ -2615,7 +2792,7 @@
         <f>RIGHT(W9,LEN(W9)-2)+0</f>
       </c>
       <c r="AK9" s="5" t="str">
-        <f>AE9+IF(AG9&gt;AI9,AG9-AI9,0)+IF(AH9&gt;AJ9,AH9-AJ9,0)</f>
+        <f>AE9+AF9+CJ9+IF(AG9&gt;AI9,AG9-AI9,0)+IF(AH9&gt;AJ9,AH9-AJ9,0)</f>
       </c>
       <c r="AL9" s="5" t="str">
         <f>K9*8*60+X9*60+AE9</f>
@@ -2636,7 +2813,7 @@
         <f>P9*8*60+AC9*60+AJ9</f>
       </c>
       <c r="AR9" s="5" t="str">
-        <f>AL9+AM9+IF(AN9&gt;AP9,AN9-AP9,0)+IF(AO9&gt;AQ9,AO9-AQ9,0)</f>
+        <f>AL9+AM9+CK9+IF(AN9&gt;AP9,AN9-AP9,0)+IF(AO9&gt;AQ9,AO9-AQ9,0)</f>
       </c>
       <c r="AS9" s="5" t="str">
         <f>AR9/60</f>
@@ -2645,19 +2822,19 @@
         <f>FLOOR(AS9/8,1)&amp;"."&amp;FLOOR(MOD(AS9,8),1)&amp;"."&amp;(MOD(AS9,8)-FLOOR(MOD(AS9,8),1))*60</f>
       </c>
       <c r="AU9" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV9" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW9" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY9" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ9" s="5" t="str">
         <f>INT(LEFT(AU9,1))</f>
@@ -2754,6 +2931,24 @@
       </c>
       <c r="CE9" s="5" t="str">
         <f>FLOOR(CC9/8,1,1)&amp;"."&amp;FLOOR(MOD(CC9,8),1,1)&amp;"."&amp;(MOD(CC9,8)-FLOOR(MOD(CC9,8),1,1))*60</f>
+      </c>
+      <c r="CF9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG9" s="5" t="str">
+        <f>INT(LEFT(CF9,2))</f>
+      </c>
+      <c r="CH9" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF9,LEN(CF9)-2),1)=".",RIGHT(CF9,LEN(CF9)-3),RIGHT(CF9,LEN(CF9)-2))</f>
+      </c>
+      <c r="CI9" s="5" t="str">
+        <f>INT(LEFT(CH9,1))</f>
+      </c>
+      <c r="CJ9" s="5" t="str">
+        <f>RIGHT(CH9,LEN(CH9)-2)+0</f>
+      </c>
+      <c r="CK9" s="5" t="str">
+        <f>CG9*8*60+CI9*60+CJ9</f>
       </c>
     </row>
     <row r="10">
@@ -2761,31 +2956,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K10" s="5" t="str">
         <f>INT(LEFT(E10,2))</f>
@@ -2806,7 +3001,7 @@
         <f>INT(LEFT(H10,2))</f>
       </c>
       <c r="Q10" s="5" t="str">
-        <f>K10+L10+IF(M10&gt;O10,M10-O10,0)+IF(N10&gt;P10,N10-P10,0)</f>
+        <f>K10+L10+CG10+IF(M10&gt;O10,M10-O10,0)+IF(N10&gt;P10,N10-P10,0)</f>
       </c>
       <c r="R10" s="5" t="str">
         <f>IF(LEFT(RIGHT(E10,LEN(E10)-2),1)=".",RIGHT(E10,LEN(E10)-3),RIGHT(E10,LEN(E10)-2))</f>
@@ -2845,7 +3040,7 @@
         <f>INT(LEFT(W10,1))</f>
       </c>
       <c r="AD10" s="5" t="str">
-        <f>R10+S10+IF(T10&gt;V10,T10-V10,0)+IF(U10&gt;W10,U10-W10,0)</f>
+        <f>R10+S10+CH10+IF(T10&gt;V10,T10-V10,0)+IF(U10&gt;W10,U10-W10,0)</f>
       </c>
       <c r="AE10" s="5" t="str">
         <f>RIGHT(R10,LEN(R10)-2)+0</f>
@@ -2866,7 +3061,7 @@
         <f>RIGHT(W10,LEN(W10)-2)+0</f>
       </c>
       <c r="AK10" s="5" t="str">
-        <f>AE10+IF(AG10&gt;AI10,AG10-AI10,0)+IF(AH10&gt;AJ10,AH10-AJ10,0)</f>
+        <f>AE10+AF10+CJ10+IF(AG10&gt;AI10,AG10-AI10,0)+IF(AH10&gt;AJ10,AH10-AJ10,0)</f>
       </c>
       <c r="AL10" s="5" t="str">
         <f>K10*8*60+X10*60+AE10</f>
@@ -2887,7 +3082,7 @@
         <f>P10*8*60+AC10*60+AJ10</f>
       </c>
       <c r="AR10" s="5" t="str">
-        <f>AL10+AM10+IF(AN10&gt;AP10,AN10-AP10,0)+IF(AO10&gt;AQ10,AO10-AQ10,0)</f>
+        <f>AL10+AM10+CK10+IF(AN10&gt;AP10,AN10-AP10,0)+IF(AO10&gt;AQ10,AO10-AQ10,0)</f>
       </c>
       <c r="AS10" s="5" t="str">
         <f>AR10/60</f>
@@ -2896,19 +3091,19 @@
         <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY10" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ10" s="5" t="str">
         <f>INT(LEFT(AU10,1))</f>
@@ -3005,6 +3200,24 @@
       </c>
       <c r="CE10" s="5" t="str">
         <f>FLOOR(CC10/8,1,1)&amp;"."&amp;FLOOR(MOD(CC10,8),1,1)&amp;"."&amp;(MOD(CC10,8)-FLOOR(MOD(CC10,8),1,1))*60</f>
+      </c>
+      <c r="CF10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG10" s="5" t="str">
+        <f>INT(LEFT(CF10,2))</f>
+      </c>
+      <c r="CH10" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF10,LEN(CF10)-2),1)=".",RIGHT(CF10,LEN(CF10)-3),RIGHT(CF10,LEN(CF10)-2))</f>
+      </c>
+      <c r="CI10" s="5" t="str">
+        <f>INT(LEFT(CH10,1))</f>
+      </c>
+      <c r="CJ10" s="5" t="str">
+        <f>RIGHT(CH10,LEN(CH10)-2)+0</f>
+      </c>
+      <c r="CK10" s="5" t="str">
+        <f>CG10*8*60+CI10*60+CJ10</f>
       </c>
     </row>
     <row r="11">
@@ -3012,31 +3225,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>INT(LEFT(E11,2))</f>
@@ -3057,7 +3270,7 @@
         <f>INT(LEFT(H11,2))</f>
       </c>
       <c r="Q11" s="5" t="str">
-        <f>K11+L11+IF(M11&gt;O11,M11-O11,0)+IF(N11&gt;P11,N11-P11,0)</f>
+        <f>K11+L11+CG11+IF(M11&gt;O11,M11-O11,0)+IF(N11&gt;P11,N11-P11,0)</f>
       </c>
       <c r="R11" s="5" t="str">
         <f>IF(LEFT(RIGHT(E11,LEN(E11)-2),1)=".",RIGHT(E11,LEN(E11)-3),RIGHT(E11,LEN(E11)-2))</f>
@@ -3096,7 +3309,7 @@
         <f>INT(LEFT(W11,1))</f>
       </c>
       <c r="AD11" s="5" t="str">
-        <f>R11+S11+IF(T11&gt;V11,T11-V11,0)+IF(U11&gt;W11,U11-W11,0)</f>
+        <f>R11+S11+CH11+IF(T11&gt;V11,T11-V11,0)+IF(U11&gt;W11,U11-W11,0)</f>
       </c>
       <c r="AE11" s="5" t="str">
         <f>RIGHT(R11,LEN(R11)-2)+0</f>
@@ -3117,7 +3330,7 @@
         <f>RIGHT(W11,LEN(W11)-2)+0</f>
       </c>
       <c r="AK11" s="5" t="str">
-        <f>AE11+IF(AG11&gt;AI11,AG11-AI11,0)+IF(AH11&gt;AJ11,AH11-AJ11,0)</f>
+        <f>AE11+AF11+CJ11+IF(AG11&gt;AI11,AG11-AI11,0)+IF(AH11&gt;AJ11,AH11-AJ11,0)</f>
       </c>
       <c r="AL11" s="5" t="str">
         <f>K11*8*60+X11*60+AE11</f>
@@ -3138,7 +3351,7 @@
         <f>P11*8*60+AC11*60+AJ11</f>
       </c>
       <c r="AR11" s="5" t="str">
-        <f>AL11+AM11+IF(AN11&gt;AP11,AN11-AP11,0)+IF(AO11&gt;AQ11,AO11-AQ11,0)</f>
+        <f>AL11+AM11+CK11+IF(AN11&gt;AP11,AN11-AP11,0)+IF(AO11&gt;AQ11,AO11-AQ11,0)</f>
       </c>
       <c r="AS11" s="5" t="str">
         <f>AR11/60</f>
@@ -3147,19 +3360,19 @@
         <f>FLOOR(AS11/8,1)&amp;"."&amp;FLOOR(MOD(AS11,8),1)&amp;"."&amp;(MOD(AS11,8)-FLOOR(MOD(AS11,8),1))*60</f>
       </c>
       <c r="AU11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY11" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ11" s="5" t="str">
         <f>INT(LEFT(AU11,1))</f>
@@ -3256,6 +3469,24 @@
       </c>
       <c r="CE11" s="5" t="str">
         <f>FLOOR(CC11/8,1,1)&amp;"."&amp;FLOOR(MOD(CC11,8),1,1)&amp;"."&amp;(MOD(CC11,8)-FLOOR(MOD(CC11,8),1,1))*60</f>
+      </c>
+      <c r="CF11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG11" s="5" t="str">
+        <f>INT(LEFT(CF11,2))</f>
+      </c>
+      <c r="CH11" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF11,LEN(CF11)-2),1)=".",RIGHT(CF11,LEN(CF11)-3),RIGHT(CF11,LEN(CF11)-2))</f>
+      </c>
+      <c r="CI11" s="5" t="str">
+        <f>INT(LEFT(CH11,1))</f>
+      </c>
+      <c r="CJ11" s="5" t="str">
+        <f>RIGHT(CH11,LEN(CH11)-2)+0</f>
+      </c>
+      <c r="CK11" s="5" t="str">
+        <f>CG11*8*60+CI11*60+CJ11</f>
       </c>
     </row>
     <row r="12">
@@ -3263,31 +3494,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K12" s="5" t="str">
         <f>INT(LEFT(E12,2))</f>
@@ -3308,7 +3539,7 @@
         <f>INT(LEFT(H12,2))</f>
       </c>
       <c r="Q12" s="5" t="str">
-        <f>K12+L12+IF(M12&gt;O12,M12-O12,0)+IF(N12&gt;P12,N12-P12,0)</f>
+        <f>K12+L12+CG12+IF(M12&gt;O12,M12-O12,0)+IF(N12&gt;P12,N12-P12,0)</f>
       </c>
       <c r="R12" s="5" t="str">
         <f>IF(LEFT(RIGHT(E12,LEN(E12)-2),1)=".",RIGHT(E12,LEN(E12)-3),RIGHT(E12,LEN(E12)-2))</f>
@@ -3347,7 +3578,7 @@
         <f>INT(LEFT(W12,1))</f>
       </c>
       <c r="AD12" s="5" t="str">
-        <f>R12+S12+IF(T12&gt;V12,T12-V12,0)+IF(U12&gt;W12,U12-W12,0)</f>
+        <f>R12+S12+CH12+IF(T12&gt;V12,T12-V12,0)+IF(U12&gt;W12,U12-W12,0)</f>
       </c>
       <c r="AE12" s="5" t="str">
         <f>RIGHT(R12,LEN(R12)-2)+0</f>
@@ -3368,7 +3599,7 @@
         <f>RIGHT(W12,LEN(W12)-2)+0</f>
       </c>
       <c r="AK12" s="5" t="str">
-        <f>AE12+IF(AG12&gt;AI12,AG12-AI12,0)+IF(AH12&gt;AJ12,AH12-AJ12,0)</f>
+        <f>AE12+AF12+CJ12+IF(AG12&gt;AI12,AG12-AI12,0)+IF(AH12&gt;AJ12,AH12-AJ12,0)</f>
       </c>
       <c r="AL12" s="5" t="str">
         <f>K12*8*60+X12*60+AE12</f>
@@ -3389,7 +3620,7 @@
         <f>P12*8*60+AC12*60+AJ12</f>
       </c>
       <c r="AR12" s="5" t="str">
-        <f>AL12+AM12+IF(AN12&gt;AP12,AN12-AP12,0)+IF(AO12&gt;AQ12,AO12-AQ12,0)</f>
+        <f>AL12+AM12+CK12+IF(AN12&gt;AP12,AN12-AP12,0)+IF(AO12&gt;AQ12,AO12-AQ12,0)</f>
       </c>
       <c r="AS12" s="5" t="str">
         <f>AR12/60</f>
@@ -3398,19 +3629,19 @@
         <f>FLOOR(AS12/8,1)&amp;"."&amp;FLOOR(MOD(AS12,8),1)&amp;"."&amp;(MOD(AS12,8)-FLOOR(MOD(AS12,8),1))*60</f>
       </c>
       <c r="AU12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ12" s="5" t="str">
         <f>INT(LEFT(AU12,1))</f>
@@ -3507,6 +3738,24 @@
       </c>
       <c r="CE12" s="5" t="str">
         <f>FLOOR(CC12/8,1,1)&amp;"."&amp;FLOOR(MOD(CC12,8),1,1)&amp;"."&amp;(MOD(CC12,8)-FLOOR(MOD(CC12,8),1,1))*60</f>
+      </c>
+      <c r="CF12" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG12" s="5" t="str">
+        <f>INT(LEFT(CF12,2))</f>
+      </c>
+      <c r="CH12" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF12,LEN(CF12)-2),1)=".",RIGHT(CF12,LEN(CF12)-3),RIGHT(CF12,LEN(CF12)-2))</f>
+      </c>
+      <c r="CI12" s="5" t="str">
+        <f>INT(LEFT(CH12,1))</f>
+      </c>
+      <c r="CJ12" s="5" t="str">
+        <f>RIGHT(CH12,LEN(CH12)-2)+0</f>
+      </c>
+      <c r="CK12" s="5" t="str">
+        <f>CG12*8*60+CI12*60+CJ12</f>
       </c>
     </row>
     <row r="13">
@@ -3514,31 +3763,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>INT(LEFT(E13,2))</f>
@@ -3559,7 +3808,7 @@
         <f>INT(LEFT(H13,2))</f>
       </c>
       <c r="Q13" s="5" t="str">
-        <f>K13+L13+IF(M13&gt;O13,M13-O13,0)+IF(N13&gt;P13,N13-P13,0)</f>
+        <f>K13+L13+CG13+IF(M13&gt;O13,M13-O13,0)+IF(N13&gt;P13,N13-P13,0)</f>
       </c>
       <c r="R13" s="5" t="str">
         <f>IF(LEFT(RIGHT(E13,LEN(E13)-2),1)=".",RIGHT(E13,LEN(E13)-3),RIGHT(E13,LEN(E13)-2))</f>
@@ -3598,7 +3847,7 @@
         <f>INT(LEFT(W13,1))</f>
       </c>
       <c r="AD13" s="5" t="str">
-        <f>R13+S13+IF(T13&gt;V13,T13-V13,0)+IF(U13&gt;W13,U13-W13,0)</f>
+        <f>R13+S13+CH13+IF(T13&gt;V13,T13-V13,0)+IF(U13&gt;W13,U13-W13,0)</f>
       </c>
       <c r="AE13" s="5" t="str">
         <f>RIGHT(R13,LEN(R13)-2)+0</f>
@@ -3619,7 +3868,7 @@
         <f>RIGHT(W13,LEN(W13)-2)+0</f>
       </c>
       <c r="AK13" s="5" t="str">
-        <f>AE13+IF(AG13&gt;AI13,AG13-AI13,0)+IF(AH13&gt;AJ13,AH13-AJ13,0)</f>
+        <f>AE13+AF13+CJ13+IF(AG13&gt;AI13,AG13-AI13,0)+IF(AH13&gt;AJ13,AH13-AJ13,0)</f>
       </c>
       <c r="AL13" s="5" t="str">
         <f>K13*8*60+X13*60+AE13</f>
@@ -3640,7 +3889,7 @@
         <f>P13*8*60+AC13*60+AJ13</f>
       </c>
       <c r="AR13" s="5" t="str">
-        <f>AL13+AM13+IF(AN13&gt;AP13,AN13-AP13,0)+IF(AO13&gt;AQ13,AO13-AQ13,0)</f>
+        <f>AL13+AM13+CK13+IF(AN13&gt;AP13,AN13-AP13,0)+IF(AO13&gt;AQ13,AO13-AQ13,0)</f>
       </c>
       <c r="AS13" s="5" t="str">
         <f>AR13/60</f>
@@ -3649,19 +3898,19 @@
         <f>FLOOR(AS13/8,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ13" s="5" t="str">
         <f>INT(LEFT(AU13,1))</f>
@@ -3758,6 +4007,24 @@
       </c>
       <c r="CE13" s="5" t="str">
         <f>FLOOR(CC13/8,1,1)&amp;"."&amp;FLOOR(MOD(CC13,8),1,1)&amp;"."&amp;(MOD(CC13,8)-FLOOR(MOD(CC13,8),1,1))*60</f>
+      </c>
+      <c r="CF13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG13" s="5" t="str">
+        <f>INT(LEFT(CF13,2))</f>
+      </c>
+      <c r="CH13" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF13,LEN(CF13)-2),1)=".",RIGHT(CF13,LEN(CF13)-3),RIGHT(CF13,LEN(CF13)-2))</f>
+      </c>
+      <c r="CI13" s="5" t="str">
+        <f>INT(LEFT(CH13,1))</f>
+      </c>
+      <c r="CJ13" s="5" t="str">
+        <f>RIGHT(CH13,LEN(CH13)-2)+0</f>
+      </c>
+      <c r="CK13" s="5" t="str">
+        <f>CG13*8*60+CI13*60+CJ13</f>
       </c>
     </row>
     <row r="14">
@@ -3765,31 +4032,31 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>INT(LEFT(E14,2))</f>
@@ -3810,7 +4077,7 @@
         <f>INT(LEFT(H14,2))</f>
       </c>
       <c r="Q14" s="5" t="str">
-        <f>K14+L14+IF(M14&gt;O14,M14-O14,0)+IF(N14&gt;P14,N14-P14,0)</f>
+        <f>K14+L14+CG14+IF(M14&gt;O14,M14-O14,0)+IF(N14&gt;P14,N14-P14,0)</f>
       </c>
       <c r="R14" s="5" t="str">
         <f>IF(LEFT(RIGHT(E14,LEN(E14)-2),1)=".",RIGHT(E14,LEN(E14)-3),RIGHT(E14,LEN(E14)-2))</f>
@@ -3849,7 +4116,7 @@
         <f>INT(LEFT(W14,1))</f>
       </c>
       <c r="AD14" s="5" t="str">
-        <f>R14+S14+IF(T14&gt;V14,T14-V14,0)+IF(U14&gt;W14,U14-W14,0)</f>
+        <f>R14+S14+CH14+IF(T14&gt;V14,T14-V14,0)+IF(U14&gt;W14,U14-W14,0)</f>
       </c>
       <c r="AE14" s="5" t="str">
         <f>RIGHT(R14,LEN(R14)-2)+0</f>
@@ -3870,7 +4137,7 @@
         <f>RIGHT(W14,LEN(W14)-2)+0</f>
       </c>
       <c r="AK14" s="5" t="str">
-        <f>AE14+IF(AG14&gt;AI14,AG14-AI14,0)+IF(AH14&gt;AJ14,AH14-AJ14,0)</f>
+        <f>AE14+AF14+CJ14+IF(AG14&gt;AI14,AG14-AI14,0)+IF(AH14&gt;AJ14,AH14-AJ14,0)</f>
       </c>
       <c r="AL14" s="5" t="str">
         <f>K14*8*60+X14*60+AE14</f>
@@ -3891,7 +4158,7 @@
         <f>P14*8*60+AC14*60+AJ14</f>
       </c>
       <c r="AR14" s="5" t="str">
-        <f>AL14+AM14+IF(AN14&gt;AP14,AN14-AP14,0)+IF(AO14&gt;AQ14,AO14-AQ14,0)</f>
+        <f>AL14+AM14+CK14+IF(AN14&gt;AP14,AN14-AP14,0)+IF(AO14&gt;AQ14,AO14-AQ14,0)</f>
       </c>
       <c r="AS14" s="5" t="str">
         <f>AR14/60</f>
@@ -3900,19 +4167,19 @@
         <f>FLOOR(AS14/8,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY14" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ14" s="5" t="str">
         <f>INT(LEFT(AU14,1))</f>
@@ -4009,6 +4276,24 @@
       </c>
       <c r="CE14" s="5" t="str">
         <f>FLOOR(CC14/8,1,1)&amp;"."&amp;FLOOR(MOD(CC14,8),1,1)&amp;"."&amp;(MOD(CC14,8)-FLOOR(MOD(CC14,8),1,1))*60</f>
+      </c>
+      <c r="CF14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG14" s="5" t="str">
+        <f>INT(LEFT(CF14,2))</f>
+      </c>
+      <c r="CH14" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF14,LEN(CF14)-2),1)=".",RIGHT(CF14,LEN(CF14)-3),RIGHT(CF14,LEN(CF14)-2))</f>
+      </c>
+      <c r="CI14" s="5" t="str">
+        <f>INT(LEFT(CH14,1))</f>
+      </c>
+      <c r="CJ14" s="5" t="str">
+        <f>RIGHT(CH14,LEN(CH14)-2)+0</f>
+      </c>
+      <c r="CK14" s="5" t="str">
+        <f>CG14*8*60+CI14*60+CJ14</f>
       </c>
     </row>
     <row r="15">
@@ -4016,31 +4301,31 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,2))</f>
@@ -4061,7 +4346,7 @@
         <f>INT(LEFT(H15,2))</f>
       </c>
       <c r="Q15" s="5" t="str">
-        <f>K15+L15+IF(M15&gt;O15,M15-O15,0)+IF(N15&gt;P15,N15-P15,0)</f>
+        <f>K15+L15+CG15+IF(M15&gt;O15,M15-O15,0)+IF(N15&gt;P15,N15-P15,0)</f>
       </c>
       <c r="R15" s="5" t="str">
         <f>IF(LEFT(RIGHT(E15,LEN(E15)-2),1)=".",RIGHT(E15,LEN(E15)-3),RIGHT(E15,LEN(E15)-2))</f>
@@ -4100,7 +4385,7 @@
         <f>INT(LEFT(W15,1))</f>
       </c>
       <c r="AD15" s="5" t="str">
-        <f>R15+S15+IF(T15&gt;V15,T15-V15,0)+IF(U15&gt;W15,U15-W15,0)</f>
+        <f>R15+S15+CH15+IF(T15&gt;V15,T15-V15,0)+IF(U15&gt;W15,U15-W15,0)</f>
       </c>
       <c r="AE15" s="5" t="str">
         <f>RIGHT(R15,LEN(R15)-2)+0</f>
@@ -4121,7 +4406,7 @@
         <f>RIGHT(W15,LEN(W15)-2)+0</f>
       </c>
       <c r="AK15" s="5" t="str">
-        <f>AE15+IF(AG15&gt;AI15,AG15-AI15,0)+IF(AH15&gt;AJ15,AH15-AJ15,0)</f>
+        <f>AE15+AF15+CJ15+IF(AG15&gt;AI15,AG15-AI15,0)+IF(AH15&gt;AJ15,AH15-AJ15,0)</f>
       </c>
       <c r="AL15" s="5" t="str">
         <f>K15*8*60+X15*60+AE15</f>
@@ -4142,7 +4427,7 @@
         <f>P15*8*60+AC15*60+AJ15</f>
       </c>
       <c r="AR15" s="5" t="str">
-        <f>AL15+AM15+IF(AN15&gt;AP15,AN15-AP15,0)+IF(AO15&gt;AQ15,AO15-AQ15,0)</f>
+        <f>AL15+AM15+CK15+IF(AN15&gt;AP15,AN15-AP15,0)+IF(AO15&gt;AQ15,AO15-AQ15,0)</f>
       </c>
       <c r="AS15" s="5" t="str">
         <f>AR15/60</f>
@@ -4151,19 +4436,19 @@
         <f>FLOOR(AS15/8,1)&amp;"."&amp;FLOOR(MOD(AS15,8),1)&amp;"."&amp;(MOD(AS15,8)-FLOOR(MOD(AS15,8),1))*60</f>
       </c>
       <c r="AU15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ15" s="5" t="str">
         <f>INT(LEFT(AU15,1))</f>
@@ -4260,6 +4545,24 @@
       </c>
       <c r="CE15" s="5" t="str">
         <f>FLOOR(CC15/8,1,1)&amp;"."&amp;FLOOR(MOD(CC15,8),1,1)&amp;"."&amp;(MOD(CC15,8)-FLOOR(MOD(CC15,8),1,1))*60</f>
+      </c>
+      <c r="CF15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG15" s="5" t="str">
+        <f>INT(LEFT(CF15,2))</f>
+      </c>
+      <c r="CH15" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF15,LEN(CF15)-2),1)=".",RIGHT(CF15,LEN(CF15)-3),RIGHT(CF15,LEN(CF15)-2))</f>
+      </c>
+      <c r="CI15" s="5" t="str">
+        <f>INT(LEFT(CH15,1))</f>
+      </c>
+      <c r="CJ15" s="5" t="str">
+        <f>RIGHT(CH15,LEN(CH15)-2)+0</f>
+      </c>
+      <c r="CK15" s="5" t="str">
+        <f>CG15*8*60+CI15*60+CJ15</f>
       </c>
     </row>
     <row r="16">
@@ -4267,31 +4570,31 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>INT(LEFT(E16,2))</f>
@@ -4312,7 +4615,7 @@
         <f>INT(LEFT(H16,2))</f>
       </c>
       <c r="Q16" s="5" t="str">
-        <f>K16+L16+IF(M16&gt;O16,M16-O16,0)+IF(N16&gt;P16,N16-P16,0)</f>
+        <f>K16+L16+CG16+IF(M16&gt;O16,M16-O16,0)+IF(N16&gt;P16,N16-P16,0)</f>
       </c>
       <c r="R16" s="5" t="str">
         <f>IF(LEFT(RIGHT(E16,LEN(E16)-2),1)=".",RIGHT(E16,LEN(E16)-3),RIGHT(E16,LEN(E16)-2))</f>
@@ -4351,7 +4654,7 @@
         <f>INT(LEFT(W16,1))</f>
       </c>
       <c r="AD16" s="5" t="str">
-        <f>R16+S16+IF(T16&gt;V16,T16-V16,0)+IF(U16&gt;W16,U16-W16,0)</f>
+        <f>R16+S16+CH16+IF(T16&gt;V16,T16-V16,0)+IF(U16&gt;W16,U16-W16,0)</f>
       </c>
       <c r="AE16" s="5" t="str">
         <f>RIGHT(R16,LEN(R16)-2)+0</f>
@@ -4372,7 +4675,7 @@
         <f>RIGHT(W16,LEN(W16)-2)+0</f>
       </c>
       <c r="AK16" s="5" t="str">
-        <f>AE16+IF(AG16&gt;AI16,AG16-AI16,0)+IF(AH16&gt;AJ16,AH16-AJ16,0)</f>
+        <f>AE16+AF16+CJ16+IF(AG16&gt;AI16,AG16-AI16,0)+IF(AH16&gt;AJ16,AH16-AJ16,0)</f>
       </c>
       <c r="AL16" s="5" t="str">
         <f>K16*8*60+X16*60+AE16</f>
@@ -4393,7 +4696,7 @@
         <f>P16*8*60+AC16*60+AJ16</f>
       </c>
       <c r="AR16" s="5" t="str">
-        <f>AL16+AM16+IF(AN16&gt;AP16,AN16-AP16,0)+IF(AO16&gt;AQ16,AO16-AQ16,0)</f>
+        <f>AL16+AM16+CK16+IF(AN16&gt;AP16,AN16-AP16,0)+IF(AO16&gt;AQ16,AO16-AQ16,0)</f>
       </c>
       <c r="AS16" s="5" t="str">
         <f>AR16/60</f>
@@ -4402,19 +4705,19 @@
         <f>FLOOR(AS16/8,1)&amp;"."&amp;FLOOR(MOD(AS16,8),1)&amp;"."&amp;(MOD(AS16,8)-FLOOR(MOD(AS16,8),1))*60</f>
       </c>
       <c r="AU16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY16" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ16" s="5" t="str">
         <f>INT(LEFT(AU16,1))</f>
@@ -4511,6 +4814,24 @@
       </c>
       <c r="CE16" s="5" t="str">
         <f>FLOOR(CC16/8,1,1)&amp;"."&amp;FLOOR(MOD(CC16,8),1,1)&amp;"."&amp;(MOD(CC16,8)-FLOOR(MOD(CC16,8),1,1))*60</f>
+      </c>
+      <c r="CF16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG16" s="5" t="str">
+        <f>INT(LEFT(CF16,2))</f>
+      </c>
+      <c r="CH16" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF16,LEN(CF16)-2),1)=".",RIGHT(CF16,LEN(CF16)-3),RIGHT(CF16,LEN(CF16)-2))</f>
+      </c>
+      <c r="CI16" s="5" t="str">
+        <f>INT(LEFT(CH16,1))</f>
+      </c>
+      <c r="CJ16" s="5" t="str">
+        <f>RIGHT(CH16,LEN(CH16)-2)+0</f>
+      </c>
+      <c r="CK16" s="5" t="str">
+        <f>CG16*8*60+CI16*60+CJ16</f>
       </c>
     </row>
     <row r="17">
@@ -4518,31 +4839,31 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>INT(LEFT(E17,2))</f>
@@ -4563,7 +4884,7 @@
         <f>INT(LEFT(H17,2))</f>
       </c>
       <c r="Q17" s="5" t="str">
-        <f>K17+L17+IF(M17&gt;O17,M17-O17,0)+IF(N17&gt;P17,N17-P17,0)</f>
+        <f>K17+L17+CG17+IF(M17&gt;O17,M17-O17,0)+IF(N17&gt;P17,N17-P17,0)</f>
       </c>
       <c r="R17" s="5" t="str">
         <f>IF(LEFT(RIGHT(E17,LEN(E17)-2),1)=".",RIGHT(E17,LEN(E17)-3),RIGHT(E17,LEN(E17)-2))</f>
@@ -4602,7 +4923,7 @@
         <f>INT(LEFT(W17,1))</f>
       </c>
       <c r="AD17" s="5" t="str">
-        <f>R17+S17+IF(T17&gt;V17,T17-V17,0)+IF(U17&gt;W17,U17-W17,0)</f>
+        <f>R17+S17+CH17+IF(T17&gt;V17,T17-V17,0)+IF(U17&gt;W17,U17-W17,0)</f>
       </c>
       <c r="AE17" s="5" t="str">
         <f>RIGHT(R17,LEN(R17)-2)+0</f>
@@ -4623,7 +4944,7 @@
         <f>RIGHT(W17,LEN(W17)-2)+0</f>
       </c>
       <c r="AK17" s="5" t="str">
-        <f>AE17+IF(AG17&gt;AI17,AG17-AI17,0)+IF(AH17&gt;AJ17,AH17-AJ17,0)</f>
+        <f>AE17+AF17+CJ17+IF(AG17&gt;AI17,AG17-AI17,0)+IF(AH17&gt;AJ17,AH17-AJ17,0)</f>
       </c>
       <c r="AL17" s="5" t="str">
         <f>K17*8*60+X17*60+AE17</f>
@@ -4644,7 +4965,7 @@
         <f>P17*8*60+AC17*60+AJ17</f>
       </c>
       <c r="AR17" s="5" t="str">
-        <f>AL17+AM17+IF(AN17&gt;AP17,AN17-AP17,0)+IF(AO17&gt;AQ17,AO17-AQ17,0)</f>
+        <f>AL17+AM17+CK17+IF(AN17&gt;AP17,AN17-AP17,0)+IF(AO17&gt;AQ17,AO17-AQ17,0)</f>
       </c>
       <c r="AS17" s="5" t="str">
         <f>AR17/60</f>
@@ -4653,19 +4974,19 @@
         <f>FLOOR(AS17/8,1)&amp;"."&amp;FLOOR(MOD(AS17,8),1)&amp;"."&amp;(MOD(AS17,8)-FLOOR(MOD(AS17,8),1))*60</f>
       </c>
       <c r="AU17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY17" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ17" s="5" t="str">
         <f>INT(LEFT(AU17,1))</f>
@@ -4762,6 +5083,24 @@
       </c>
       <c r="CE17" s="5" t="str">
         <f>FLOOR(CC17/8,1,1)&amp;"."&amp;FLOOR(MOD(CC17,8),1,1)&amp;"."&amp;(MOD(CC17,8)-FLOOR(MOD(CC17,8),1,1))*60</f>
+      </c>
+      <c r="CF17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG17" s="5" t="str">
+        <f>INT(LEFT(CF17,2))</f>
+      </c>
+      <c r="CH17" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF17,LEN(CF17)-2),1)=".",RIGHT(CF17,LEN(CF17)-3),RIGHT(CF17,LEN(CF17)-2))</f>
+      </c>
+      <c r="CI17" s="5" t="str">
+        <f>INT(LEFT(CH17,1))</f>
+      </c>
+      <c r="CJ17" s="5" t="str">
+        <f>RIGHT(CH17,LEN(CH17)-2)+0</f>
+      </c>
+      <c r="CK17" s="5" t="str">
+        <f>CG17*8*60+CI17*60+CJ17</f>
       </c>
     </row>
     <row r="18">
@@ -4769,31 +5108,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,2))</f>
@@ -4814,7 +5153,7 @@
         <f>INT(LEFT(H18,2))</f>
       </c>
       <c r="Q18" s="5" t="str">
-        <f>K18+L18+IF(M18&gt;O18,M18-O18,0)+IF(N18&gt;P18,N18-P18,0)</f>
+        <f>K18+L18+CG18+IF(M18&gt;O18,M18-O18,0)+IF(N18&gt;P18,N18-P18,0)</f>
       </c>
       <c r="R18" s="5" t="str">
         <f>IF(LEFT(RIGHT(E18,LEN(E18)-2),1)=".",RIGHT(E18,LEN(E18)-3),RIGHT(E18,LEN(E18)-2))</f>
@@ -4853,7 +5192,7 @@
         <f>INT(LEFT(W18,1))</f>
       </c>
       <c r="AD18" s="5" t="str">
-        <f>R18+S18+IF(T18&gt;V18,T18-V18,0)+IF(U18&gt;W18,U18-W18,0)</f>
+        <f>R18+S18+CH18+IF(T18&gt;V18,T18-V18,0)+IF(U18&gt;W18,U18-W18,0)</f>
       </c>
       <c r="AE18" s="5" t="str">
         <f>RIGHT(R18,LEN(R18)-2)+0</f>
@@ -4874,7 +5213,7 @@
         <f>RIGHT(W18,LEN(W18)-2)+0</f>
       </c>
       <c r="AK18" s="5" t="str">
-        <f>AE18+IF(AG18&gt;AI18,AG18-AI18,0)+IF(AH18&gt;AJ18,AH18-AJ18,0)</f>
+        <f>AE18+AF18+CJ18+IF(AG18&gt;AI18,AG18-AI18,0)+IF(AH18&gt;AJ18,AH18-AJ18,0)</f>
       </c>
       <c r="AL18" s="5" t="str">
         <f>K18*8*60+X18*60+AE18</f>
@@ -4895,7 +5234,7 @@
         <f>P18*8*60+AC18*60+AJ18</f>
       </c>
       <c r="AR18" s="5" t="str">
-        <f>AL18+AM18+IF(AN18&gt;AP18,AN18-AP18,0)+IF(AO18&gt;AQ18,AO18-AQ18,0)</f>
+        <f>AL18+AM18+CK18+IF(AN18&gt;AP18,AN18-AP18,0)+IF(AO18&gt;AQ18,AO18-AQ18,0)</f>
       </c>
       <c r="AS18" s="5" t="str">
         <f>AR18/60</f>
@@ -4904,19 +5243,19 @@
         <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY18" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ18" s="5" t="str">
         <f>INT(LEFT(AU18,1))</f>
@@ -5013,6 +5352,24 @@
       </c>
       <c r="CE18" s="5" t="str">
         <f>FLOOR(CC18/8,1,1)&amp;"."&amp;FLOOR(MOD(CC18,8),1,1)&amp;"."&amp;(MOD(CC18,8)-FLOOR(MOD(CC18,8),1,1))*60</f>
+      </c>
+      <c r="CF18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG18" s="5" t="str">
+        <f>INT(LEFT(CF18,2))</f>
+      </c>
+      <c r="CH18" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF18,LEN(CF18)-2),1)=".",RIGHT(CF18,LEN(CF18)-3),RIGHT(CF18,LEN(CF18)-2))</f>
+      </c>
+      <c r="CI18" s="5" t="str">
+        <f>INT(LEFT(CH18,1))</f>
+      </c>
+      <c r="CJ18" s="5" t="str">
+        <f>RIGHT(CH18,LEN(CH18)-2)+0</f>
+      </c>
+      <c r="CK18" s="5" t="str">
+        <f>CG18*8*60+CI18*60+CJ18</f>
       </c>
     </row>
     <row r="19">
@@ -5020,31 +5377,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,2))</f>
@@ -5065,7 +5422,7 @@
         <f>INT(LEFT(H19,2))</f>
       </c>
       <c r="Q19" s="5" t="str">
-        <f>K19+L19+IF(M19&gt;O19,M19-O19,0)+IF(N19&gt;P19,N19-P19,0)</f>
+        <f>K19+L19+CG19+IF(M19&gt;O19,M19-O19,0)+IF(N19&gt;P19,N19-P19,0)</f>
       </c>
       <c r="R19" s="5" t="str">
         <f>IF(LEFT(RIGHT(E19,LEN(E19)-2),1)=".",RIGHT(E19,LEN(E19)-3),RIGHT(E19,LEN(E19)-2))</f>
@@ -5104,7 +5461,7 @@
         <f>INT(LEFT(W19,1))</f>
       </c>
       <c r="AD19" s="5" t="str">
-        <f>R19+S19+IF(T19&gt;V19,T19-V19,0)+IF(U19&gt;W19,U19-W19,0)</f>
+        <f>R19+S19+CH19+IF(T19&gt;V19,T19-V19,0)+IF(U19&gt;W19,U19-W19,0)</f>
       </c>
       <c r="AE19" s="5" t="str">
         <f>RIGHT(R19,LEN(R19)-2)+0</f>
@@ -5125,7 +5482,7 @@
         <f>RIGHT(W19,LEN(W19)-2)+0</f>
       </c>
       <c r="AK19" s="5" t="str">
-        <f>AE19+IF(AG19&gt;AI19,AG19-AI19,0)+IF(AH19&gt;AJ19,AH19-AJ19,0)</f>
+        <f>AE19+AF19+CJ19+IF(AG19&gt;AI19,AG19-AI19,0)+IF(AH19&gt;AJ19,AH19-AJ19,0)</f>
       </c>
       <c r="AL19" s="5" t="str">
         <f>K19*8*60+X19*60+AE19</f>
@@ -5146,7 +5503,7 @@
         <f>P19*8*60+AC19*60+AJ19</f>
       </c>
       <c r="AR19" s="5" t="str">
-        <f>AL19+AM19+IF(AN19&gt;AP19,AN19-AP19,0)+IF(AO19&gt;AQ19,AO19-AQ19,0)</f>
+        <f>AL19+AM19+CK19+IF(AN19&gt;AP19,AN19-AP19,0)+IF(AO19&gt;AQ19,AO19-AQ19,0)</f>
       </c>
       <c r="AS19" s="5" t="str">
         <f>AR19/60</f>
@@ -5155,19 +5512,19 @@
         <f>FLOOR(AS19/8,1)&amp;"."&amp;FLOOR(MOD(AS19,8),1)&amp;"."&amp;(MOD(AS19,8)-FLOOR(MOD(AS19,8),1))*60</f>
       </c>
       <c r="AU19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ19" s="5" t="str">
         <f>INT(LEFT(AU19,1))</f>
@@ -5264,6 +5621,24 @@
       </c>
       <c r="CE19" s="5" t="str">
         <f>FLOOR(CC19/8,1,1)&amp;"."&amp;FLOOR(MOD(CC19,8),1,1)&amp;"."&amp;(MOD(CC19,8)-FLOOR(MOD(CC19,8),1,1))*60</f>
+      </c>
+      <c r="CF19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG19" s="5" t="str">
+        <f>INT(LEFT(CF19,2))</f>
+      </c>
+      <c r="CH19" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF19,LEN(CF19)-2),1)=".",RIGHT(CF19,LEN(CF19)-3),RIGHT(CF19,LEN(CF19)-2))</f>
+      </c>
+      <c r="CI19" s="5" t="str">
+        <f>INT(LEFT(CH19,1))</f>
+      </c>
+      <c r="CJ19" s="5" t="str">
+        <f>RIGHT(CH19,LEN(CH19)-2)+0</f>
+      </c>
+      <c r="CK19" s="5" t="str">
+        <f>CG19*8*60+CI19*60+CJ19</f>
       </c>
     </row>
     <row r="20">
@@ -5271,31 +5646,31 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,2))</f>
@@ -5316,7 +5691,7 @@
         <f>INT(LEFT(H20,2))</f>
       </c>
       <c r="Q20" s="5" t="str">
-        <f>K20+L20+IF(M20&gt;O20,M20-O20,0)+IF(N20&gt;P20,N20-P20,0)</f>
+        <f>K20+L20+CG20+IF(M20&gt;O20,M20-O20,0)+IF(N20&gt;P20,N20-P20,0)</f>
       </c>
       <c r="R20" s="5" t="str">
         <f>IF(LEFT(RIGHT(E20,LEN(E20)-2),1)=".",RIGHT(E20,LEN(E20)-3),RIGHT(E20,LEN(E20)-2))</f>
@@ -5355,7 +5730,7 @@
         <f>INT(LEFT(W20,1))</f>
       </c>
       <c r="AD20" s="5" t="str">
-        <f>R20+S20+IF(T20&gt;V20,T20-V20,0)+IF(U20&gt;W20,U20-W20,0)</f>
+        <f>R20+S20+CH20+IF(T20&gt;V20,T20-V20,0)+IF(U20&gt;W20,U20-W20,0)</f>
       </c>
       <c r="AE20" s="5" t="str">
         <f>RIGHT(R20,LEN(R20)-2)+0</f>
@@ -5376,7 +5751,7 @@
         <f>RIGHT(W20,LEN(W20)-2)+0</f>
       </c>
       <c r="AK20" s="5" t="str">
-        <f>AE20+IF(AG20&gt;AI20,AG20-AI20,0)+IF(AH20&gt;AJ20,AH20-AJ20,0)</f>
+        <f>AE20+AF20+CJ20+IF(AG20&gt;AI20,AG20-AI20,0)+IF(AH20&gt;AJ20,AH20-AJ20,0)</f>
       </c>
       <c r="AL20" s="5" t="str">
         <f>K20*8*60+X20*60+AE20</f>
@@ -5397,7 +5772,7 @@
         <f>P20*8*60+AC20*60+AJ20</f>
       </c>
       <c r="AR20" s="5" t="str">
-        <f>AL20+AM20+IF(AN20&gt;AP20,AN20-AP20,0)+IF(AO20&gt;AQ20,AO20-AQ20,0)</f>
+        <f>AL20+AM20+CK20+IF(AN20&gt;AP20,AN20-AP20,0)+IF(AO20&gt;AQ20,AO20-AQ20,0)</f>
       </c>
       <c r="AS20" s="5" t="str">
         <f>AR20/60</f>
@@ -5406,19 +5781,19 @@
         <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW20" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX20" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY20" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ20" s="5" t="str">
         <f>INT(LEFT(AU20,1))</f>
@@ -5515,6 +5890,24 @@
       </c>
       <c r="CE20" s="5" t="str">
         <f>FLOOR(CC20/8,1,1)&amp;"."&amp;FLOOR(MOD(CC20,8),1,1)&amp;"."&amp;(MOD(CC20,8)-FLOOR(MOD(CC20,8),1,1))*60</f>
+      </c>
+      <c r="CF20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG20" s="5" t="str">
+        <f>INT(LEFT(CF20,2))</f>
+      </c>
+      <c r="CH20" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF20,LEN(CF20)-2),1)=".",RIGHT(CF20,LEN(CF20)-3),RIGHT(CF20,LEN(CF20)-2))</f>
+      </c>
+      <c r="CI20" s="5" t="str">
+        <f>INT(LEFT(CH20,1))</f>
+      </c>
+      <c r="CJ20" s="5" t="str">
+        <f>RIGHT(CH20,LEN(CH20)-2)+0</f>
+      </c>
+      <c r="CK20" s="5" t="str">
+        <f>CG20*8*60+CI20*60+CJ20</f>
       </c>
     </row>
     <row r="21">
@@ -5522,31 +5915,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>INT(LEFT(E21,2))</f>
@@ -5567,7 +5960,7 @@
         <f>INT(LEFT(H21,2))</f>
       </c>
       <c r="Q21" s="5" t="str">
-        <f>K21+L21+IF(M21&gt;O21,M21-O21,0)+IF(N21&gt;P21,N21-P21,0)</f>
+        <f>K21+L21+CG21+IF(M21&gt;O21,M21-O21,0)+IF(N21&gt;P21,N21-P21,0)</f>
       </c>
       <c r="R21" s="5" t="str">
         <f>IF(LEFT(RIGHT(E21,LEN(E21)-2),1)=".",RIGHT(E21,LEN(E21)-3),RIGHT(E21,LEN(E21)-2))</f>
@@ -5606,7 +5999,7 @@
         <f>INT(LEFT(W21,1))</f>
       </c>
       <c r="AD21" s="5" t="str">
-        <f>R21+S21+IF(T21&gt;V21,T21-V21,0)+IF(U21&gt;W21,U21-W21,0)</f>
+        <f>R21+S21+CH21+IF(T21&gt;V21,T21-V21,0)+IF(U21&gt;W21,U21-W21,0)</f>
       </c>
       <c r="AE21" s="5" t="str">
         <f>RIGHT(R21,LEN(R21)-2)+0</f>
@@ -5627,7 +6020,7 @@
         <f>RIGHT(W21,LEN(W21)-2)+0</f>
       </c>
       <c r="AK21" s="5" t="str">
-        <f>AE21+IF(AG21&gt;AI21,AG21-AI21,0)+IF(AH21&gt;AJ21,AH21-AJ21,0)</f>
+        <f>AE21+AF21+CJ21+IF(AG21&gt;AI21,AG21-AI21,0)+IF(AH21&gt;AJ21,AH21-AJ21,0)</f>
       </c>
       <c r="AL21" s="5" t="str">
         <f>K21*8*60+X21*60+AE21</f>
@@ -5648,7 +6041,7 @@
         <f>P21*8*60+AC21*60+AJ21</f>
       </c>
       <c r="AR21" s="5" t="str">
-        <f>AL21+AM21+IF(AN21&gt;AP21,AN21-AP21,0)+IF(AO21&gt;AQ21,AO21-AQ21,0)</f>
+        <f>AL21+AM21+CK21+IF(AN21&gt;AP21,AN21-AP21,0)+IF(AO21&gt;AQ21,AO21-AQ21,0)</f>
       </c>
       <c r="AS21" s="5" t="str">
         <f>AR21/60</f>
@@ -5657,19 +6050,19 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW21" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="AY21" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ21" s="5" t="str">
         <f>INT(LEFT(AU21,1))</f>
@@ -5766,6 +6159,24 @@
       </c>
       <c r="CE21" s="5" t="str">
         <f>FLOOR(CC21/8,1,1)&amp;"."&amp;FLOOR(MOD(CC21,8),1,1)&amp;"."&amp;(MOD(CC21,8)-FLOOR(MOD(CC21,8),1,1))*60</f>
+      </c>
+      <c r="CF21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG21" s="5" t="str">
+        <f>INT(LEFT(CF21,2))</f>
+      </c>
+      <c r="CH21" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF21,LEN(CF21)-2),1)=".",RIGHT(CF21,LEN(CF21)-3),RIGHT(CF21,LEN(CF21)-2))</f>
+      </c>
+      <c r="CI21" s="5" t="str">
+        <f>INT(LEFT(CH21,1))</f>
+      </c>
+      <c r="CJ21" s="5" t="str">
+        <f>RIGHT(CH21,LEN(CH21)-2)+0</f>
+      </c>
+      <c r="CK21" s="5" t="str">
+        <f>CG21*8*60+CI21*60+CJ21</f>
       </c>
     </row>
     <row r="22">
@@ -5773,31 +6184,31 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>INT(LEFT(E22,2))</f>
@@ -5818,7 +6229,7 @@
         <f>INT(LEFT(H22,2))</f>
       </c>
       <c r="Q22" s="5" t="str">
-        <f>K22+L22+IF(M22&gt;O22,M22-O22,0)+IF(N22&gt;P22,N22-P22,0)</f>
+        <f>K22+L22+CG22+IF(M22&gt;O22,M22-O22,0)+IF(N22&gt;P22,N22-P22,0)</f>
       </c>
       <c r="R22" s="5" t="str">
         <f>IF(LEFT(RIGHT(E22,LEN(E22)-2),1)=".",RIGHT(E22,LEN(E22)-3),RIGHT(E22,LEN(E22)-2))</f>
@@ -5857,7 +6268,7 @@
         <f>INT(LEFT(W22,1))</f>
       </c>
       <c r="AD22" s="5" t="str">
-        <f>R22+S22+IF(T22&gt;V22,T22-V22,0)+IF(U22&gt;W22,U22-W22,0)</f>
+        <f>R22+S22+CH22+IF(T22&gt;V22,T22-V22,0)+IF(U22&gt;W22,U22-W22,0)</f>
       </c>
       <c r="AE22" s="5" t="str">
         <f>RIGHT(R22,LEN(R22)-2)+0</f>
@@ -5878,7 +6289,7 @@
         <f>RIGHT(W22,LEN(W22)-2)+0</f>
       </c>
       <c r="AK22" s="5" t="str">
-        <f>AE22+IF(AG22&gt;AI22,AG22-AI22,0)+IF(AH22&gt;AJ22,AH22-AJ22,0)</f>
+        <f>AE22+AF22+CJ22+IF(AG22&gt;AI22,AG22-AI22,0)+IF(AH22&gt;AJ22,AH22-AJ22,0)</f>
       </c>
       <c r="AL22" s="5" t="str">
         <f>K22*8*60+X22*60+AE22</f>
@@ -5899,7 +6310,7 @@
         <f>P22*8*60+AC22*60+AJ22</f>
       </c>
       <c r="AR22" s="5" t="str">
-        <f>AL22+AM22+IF(AN22&gt;AP22,AN22-AP22,0)+IF(AO22&gt;AQ22,AO22-AQ22,0)</f>
+        <f>AL22+AM22+CK22+IF(AN22&gt;AP22,AN22-AP22,0)+IF(AO22&gt;AQ22,AO22-AQ22,0)</f>
       </c>
       <c r="AS22" s="5" t="str">
         <f>AR22/60</f>
@@ -5908,19 +6319,19 @@
         <f>FLOOR(AS22/8,1)&amp;"."&amp;FLOOR(MOD(AS22,8),1)&amp;"."&amp;(MOD(AS22,8)-FLOOR(MOD(AS22,8),1))*60</f>
       </c>
       <c r="AU22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY22" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ22" s="5" t="str">
         <f>INT(LEFT(AU22,1))</f>
@@ -6017,6 +6428,24 @@
       </c>
       <c r="CE22" s="5" t="str">
         <f>FLOOR(CC22/8,1,1)&amp;"."&amp;FLOOR(MOD(CC22,8),1,1)&amp;"."&amp;(MOD(CC22,8)-FLOOR(MOD(CC22,8),1,1))*60</f>
+      </c>
+      <c r="CF22" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG22" s="5" t="str">
+        <f>INT(LEFT(CF22,2))</f>
+      </c>
+      <c r="CH22" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF22,LEN(CF22)-2),1)=".",RIGHT(CF22,LEN(CF22)-3),RIGHT(CF22,LEN(CF22)-2))</f>
+      </c>
+      <c r="CI22" s="5" t="str">
+        <f>INT(LEFT(CH22,1))</f>
+      </c>
+      <c r="CJ22" s="5" t="str">
+        <f>RIGHT(CH22,LEN(CH22)-2)+0</f>
+      </c>
+      <c r="CK22" s="5" t="str">
+        <f>CG22*8*60+CI22*60+CJ22</f>
       </c>
     </row>
     <row r="23">
@@ -6024,31 +6453,31 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,2))</f>
@@ -6069,7 +6498,7 @@
         <f>INT(LEFT(H23,2))</f>
       </c>
       <c r="Q23" s="5" t="str">
-        <f>K23+L23+IF(M23&gt;O23,M23-O23,0)+IF(N23&gt;P23,N23-P23,0)</f>
+        <f>K23+L23+CG23+IF(M23&gt;O23,M23-O23,0)+IF(N23&gt;P23,N23-P23,0)</f>
       </c>
       <c r="R23" s="5" t="str">
         <f>IF(LEFT(RIGHT(E23,LEN(E23)-2),1)=".",RIGHT(E23,LEN(E23)-3),RIGHT(E23,LEN(E23)-2))</f>
@@ -6108,7 +6537,7 @@
         <f>INT(LEFT(W23,1))</f>
       </c>
       <c r="AD23" s="5" t="str">
-        <f>R23+S23+IF(T23&gt;V23,T23-V23,0)+IF(U23&gt;W23,U23-W23,0)</f>
+        <f>R23+S23+CH23+IF(T23&gt;V23,T23-V23,0)+IF(U23&gt;W23,U23-W23,0)</f>
       </c>
       <c r="AE23" s="5" t="str">
         <f>RIGHT(R23,LEN(R23)-2)+0</f>
@@ -6129,7 +6558,7 @@
         <f>RIGHT(W23,LEN(W23)-2)+0</f>
       </c>
       <c r="AK23" s="5" t="str">
-        <f>AE23+IF(AG23&gt;AI23,AG23-AI23,0)+IF(AH23&gt;AJ23,AH23-AJ23,0)</f>
+        <f>AE23+AF23+CJ23+IF(AG23&gt;AI23,AG23-AI23,0)+IF(AH23&gt;AJ23,AH23-AJ23,0)</f>
       </c>
       <c r="AL23" s="5" t="str">
         <f>K23*8*60+X23*60+AE23</f>
@@ -6150,7 +6579,7 @@
         <f>P23*8*60+AC23*60+AJ23</f>
       </c>
       <c r="AR23" s="5" t="str">
-        <f>AL23+AM23+IF(AN23&gt;AP23,AN23-AP23,0)+IF(AO23&gt;AQ23,AO23-AQ23,0)</f>
+        <f>AL23+AM23+CK23+IF(AN23&gt;AP23,AN23-AP23,0)+IF(AO23&gt;AQ23,AO23-AQ23,0)</f>
       </c>
       <c r="AS23" s="5" t="str">
         <f>AR23/60</f>
@@ -6159,19 +6588,19 @@
         <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ23" s="5" t="str">
         <f>INT(LEFT(AU23,1))</f>
@@ -6268,6 +6697,24 @@
       </c>
       <c r="CE23" s="5" t="str">
         <f>FLOOR(CC23/8,1,1)&amp;"."&amp;FLOOR(MOD(CC23,8),1,1)&amp;"."&amp;(MOD(CC23,8)-FLOOR(MOD(CC23,8),1,1))*60</f>
+      </c>
+      <c r="CF23" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG23" s="5" t="str">
+        <f>INT(LEFT(CF23,2))</f>
+      </c>
+      <c r="CH23" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF23,LEN(CF23)-2),1)=".",RIGHT(CF23,LEN(CF23)-3),RIGHT(CF23,LEN(CF23)-2))</f>
+      </c>
+      <c r="CI23" s="5" t="str">
+        <f>INT(LEFT(CH23,1))</f>
+      </c>
+      <c r="CJ23" s="5" t="str">
+        <f>RIGHT(CH23,LEN(CH23)-2)+0</f>
+      </c>
+      <c r="CK23" s="5" t="str">
+        <f>CG23*8*60+CI23*60+CJ23</f>
       </c>
     </row>
     <row r="24">
@@ -6275,31 +6722,31 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,2))</f>
@@ -6320,7 +6767,7 @@
         <f>INT(LEFT(H24,2))</f>
       </c>
       <c r="Q24" s="5" t="str">
-        <f>K24+L24+IF(M24&gt;O24,M24-O24,0)+IF(N24&gt;P24,N24-P24,0)</f>
+        <f>K24+L24+CG24+IF(M24&gt;O24,M24-O24,0)+IF(N24&gt;P24,N24-P24,0)</f>
       </c>
       <c r="R24" s="5" t="str">
         <f>IF(LEFT(RIGHT(E24,LEN(E24)-2),1)=".",RIGHT(E24,LEN(E24)-3),RIGHT(E24,LEN(E24)-2))</f>
@@ -6359,7 +6806,7 @@
         <f>INT(LEFT(W24,1))</f>
       </c>
       <c r="AD24" s="5" t="str">
-        <f>R24+S24+IF(T24&gt;V24,T24-V24,0)+IF(U24&gt;W24,U24-W24,0)</f>
+        <f>R24+S24+CH24+IF(T24&gt;V24,T24-V24,0)+IF(U24&gt;W24,U24-W24,0)</f>
       </c>
       <c r="AE24" s="5" t="str">
         <f>RIGHT(R24,LEN(R24)-2)+0</f>
@@ -6380,7 +6827,7 @@
         <f>RIGHT(W24,LEN(W24)-2)+0</f>
       </c>
       <c r="AK24" s="5" t="str">
-        <f>AE24+IF(AG24&gt;AI24,AG24-AI24,0)+IF(AH24&gt;AJ24,AH24-AJ24,0)</f>
+        <f>AE24+AF24+CJ24+IF(AG24&gt;AI24,AG24-AI24,0)+IF(AH24&gt;AJ24,AH24-AJ24,0)</f>
       </c>
       <c r="AL24" s="5" t="str">
         <f>K24*8*60+X24*60+AE24</f>
@@ -6401,7 +6848,7 @@
         <f>P24*8*60+AC24*60+AJ24</f>
       </c>
       <c r="AR24" s="5" t="str">
-        <f>AL24+AM24+IF(AN24&gt;AP24,AN24-AP24,0)+IF(AO24&gt;AQ24,AO24-AQ24,0)</f>
+        <f>AL24+AM24+CK24+IF(AN24&gt;AP24,AN24-AP24,0)+IF(AO24&gt;AQ24,AO24-AQ24,0)</f>
       </c>
       <c r="AS24" s="5" t="str">
         <f>AR24/60</f>
@@ -6410,19 +6857,19 @@
         <f>FLOOR(AS24/8,1)&amp;"."&amp;FLOOR(MOD(AS24,8),1)&amp;"."&amp;(MOD(AS24,8)-FLOOR(MOD(AS24,8),1))*60</f>
       </c>
       <c r="AU24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY24" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ24" s="5" t="str">
         <f>INT(LEFT(AU24,1))</f>
@@ -6519,6 +6966,24 @@
       </c>
       <c r="CE24" s="5" t="str">
         <f>FLOOR(CC24/8,1,1)&amp;"."&amp;FLOOR(MOD(CC24,8),1,1)&amp;"."&amp;(MOD(CC24,8)-FLOOR(MOD(CC24,8),1,1))*60</f>
+      </c>
+      <c r="CF24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="CG24" s="5" t="str">
+        <f>INT(LEFT(CF24,2))</f>
+      </c>
+      <c r="CH24" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF24,LEN(CF24)-2),1)=".",RIGHT(CF24,LEN(CF24)-3),RIGHT(CF24,LEN(CF24)-2))</f>
+      </c>
+      <c r="CI24" s="5" t="str">
+        <f>INT(LEFT(CH24,1))</f>
+      </c>
+      <c r="CJ24" s="5" t="str">
+        <f>RIGHT(CH24,LEN(CH24)-2)+0</f>
+      </c>
+      <c r="CK24" s="5" t="str">
+        <f>CG24*8*60+CI24*60+CJ24</f>
       </c>
     </row>
     <row r="25">
@@ -6526,31 +6991,31 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(E25,2))</f>
@@ -6571,7 +7036,7 @@
         <f>INT(LEFT(H25,2))</f>
       </c>
       <c r="Q25" s="5" t="str">
-        <f>K25+L25+IF(M25&gt;O25,M25-O25,0)+IF(N25&gt;P25,N25-P25,0)</f>
+        <f>K25+L25+CG25+IF(M25&gt;O25,M25-O25,0)+IF(N25&gt;P25,N25-P25,0)</f>
       </c>
       <c r="R25" s="5" t="str">
         <f>IF(LEFT(RIGHT(E25,LEN(E25)-2),1)=".",RIGHT(E25,LEN(E25)-3),RIGHT(E25,LEN(E25)-2))</f>
@@ -6610,7 +7075,7 @@
         <f>INT(LEFT(W25,1))</f>
       </c>
       <c r="AD25" s="5" t="str">
-        <f>R25+S25+IF(T25&gt;V25,T25-V25,0)+IF(U25&gt;W25,U25-W25,0)</f>
+        <f>R25+S25+CH25+IF(T25&gt;V25,T25-V25,0)+IF(U25&gt;W25,U25-W25,0)</f>
       </c>
       <c r="AE25" s="5" t="str">
         <f>RIGHT(R25,LEN(R25)-2)+0</f>
@@ -6631,7 +7096,7 @@
         <f>RIGHT(W25,LEN(W25)-2)+0</f>
       </c>
       <c r="AK25" s="5" t="str">
-        <f>AE25+IF(AG25&gt;AI25,AG25-AI25,0)+IF(AH25&gt;AJ25,AH25-AJ25,0)</f>
+        <f>AE25+AF25+CJ25+IF(AG25&gt;AI25,AG25-AI25,0)+IF(AH25&gt;AJ25,AH25-AJ25,0)</f>
       </c>
       <c r="AL25" s="5" t="str">
         <f>K25*8*60+X25*60+AE25</f>
@@ -6652,7 +7117,7 @@
         <f>P25*8*60+AC25*60+AJ25</f>
       </c>
       <c r="AR25" s="5" t="str">
-        <f>AL25+AM25+IF(AN25&gt;AP25,AN25-AP25,0)+IF(AO25&gt;AQ25,AO25-AQ25,0)</f>
+        <f>AL25+AM25+CK25+IF(AN25&gt;AP25,AN25-AP25,0)+IF(AO25&gt;AQ25,AO25-AQ25,0)</f>
       </c>
       <c r="AS25" s="5" t="str">
         <f>AR25/60</f>
@@ -6661,19 +7126,19 @@
         <f>FLOOR(AS25/8,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ25" s="5" t="str">
         <f>INT(LEFT(AU25,1))</f>
@@ -6770,6 +7235,24 @@
       </c>
       <c r="CE25" s="5" t="str">
         <f>FLOOR(CC25/8,1,1)&amp;"."&amp;FLOOR(MOD(CC25,8),1,1)&amp;"."&amp;(MOD(CC25,8)-FLOOR(MOD(CC25,8),1,1))*60</f>
+      </c>
+      <c r="CF25" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG25" s="5" t="str">
+        <f>INT(LEFT(CF25,2))</f>
+      </c>
+      <c r="CH25" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF25,LEN(CF25)-2),1)=".",RIGHT(CF25,LEN(CF25)-3),RIGHT(CF25,LEN(CF25)-2))</f>
+      </c>
+      <c r="CI25" s="5" t="str">
+        <f>INT(LEFT(CH25,1))</f>
+      </c>
+      <c r="CJ25" s="5" t="str">
+        <f>RIGHT(CH25,LEN(CH25)-2)+0</f>
+      </c>
+      <c r="CK25" s="5" t="str">
+        <f>CG25*8*60+CI25*60+CJ25</f>
       </c>
     </row>
     <row r="26">
@@ -6777,31 +7260,31 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>INT(LEFT(E26,2))</f>
@@ -6822,7 +7305,7 @@
         <f>INT(LEFT(H26,2))</f>
       </c>
       <c r="Q26" s="5" t="str">
-        <f>K26+L26+IF(M26&gt;O26,M26-O26,0)+IF(N26&gt;P26,N26-P26,0)</f>
+        <f>K26+L26+CG26+IF(M26&gt;O26,M26-O26,0)+IF(N26&gt;P26,N26-P26,0)</f>
       </c>
       <c r="R26" s="5" t="str">
         <f>IF(LEFT(RIGHT(E26,LEN(E26)-2),1)=".",RIGHT(E26,LEN(E26)-3),RIGHT(E26,LEN(E26)-2))</f>
@@ -6861,7 +7344,7 @@
         <f>INT(LEFT(W26,1))</f>
       </c>
       <c r="AD26" s="5" t="str">
-        <f>R26+S26+IF(T26&gt;V26,T26-V26,0)+IF(U26&gt;W26,U26-W26,0)</f>
+        <f>R26+S26+CH26+IF(T26&gt;V26,T26-V26,0)+IF(U26&gt;W26,U26-W26,0)</f>
       </c>
       <c r="AE26" s="5" t="str">
         <f>RIGHT(R26,LEN(R26)-2)+0</f>
@@ -6882,7 +7365,7 @@
         <f>RIGHT(W26,LEN(W26)-2)+0</f>
       </c>
       <c r="AK26" s="5" t="str">
-        <f>AE26+IF(AG26&gt;AI26,AG26-AI26,0)+IF(AH26&gt;AJ26,AH26-AJ26,0)</f>
+        <f>AE26+AF26+CJ26+IF(AG26&gt;AI26,AG26-AI26,0)+IF(AH26&gt;AJ26,AH26-AJ26,0)</f>
       </c>
       <c r="AL26" s="5" t="str">
         <f>K26*8*60+X26*60+AE26</f>
@@ -6903,7 +7386,7 @@
         <f>P26*8*60+AC26*60+AJ26</f>
       </c>
       <c r="AR26" s="5" t="str">
-        <f>AL26+AM26+IF(AN26&gt;AP26,AN26-AP26,0)+IF(AO26&gt;AQ26,AO26-AQ26,0)</f>
+        <f>AL26+AM26+CK26+IF(AN26&gt;AP26,AN26-AP26,0)+IF(AO26&gt;AQ26,AO26-AQ26,0)</f>
       </c>
       <c r="AS26" s="5" t="str">
         <f>AR26/60</f>
@@ -6912,19 +7395,19 @@
         <f>FLOOR(AS26/8,1)&amp;"."&amp;FLOOR(MOD(AS26,8),1)&amp;"."&amp;(MOD(AS26,8)-FLOOR(MOD(AS26,8),1))*60</f>
       </c>
       <c r="AU26" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV26" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW26" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX26" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY26" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ26" s="5" t="str">
         <f>INT(LEFT(AU26,1))</f>
@@ -7021,6 +7504,24 @@
       </c>
       <c r="CE26" s="5" t="str">
         <f>FLOOR(CC26/8,1,1)&amp;"."&amp;FLOOR(MOD(CC26,8),1,1)&amp;"."&amp;(MOD(CC26,8)-FLOOR(MOD(CC26,8),1,1))*60</f>
+      </c>
+      <c r="CF26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG26" s="5" t="str">
+        <f>INT(LEFT(CF26,2))</f>
+      </c>
+      <c r="CH26" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF26,LEN(CF26)-2),1)=".",RIGHT(CF26,LEN(CF26)-3),RIGHT(CF26,LEN(CF26)-2))</f>
+      </c>
+      <c r="CI26" s="5" t="str">
+        <f>INT(LEFT(CH26,1))</f>
+      </c>
+      <c r="CJ26" s="5" t="str">
+        <f>RIGHT(CH26,LEN(CH26)-2)+0</f>
+      </c>
+      <c r="CK26" s="5" t="str">
+        <f>CG26*8*60+CI26*60+CJ26</f>
       </c>
     </row>
     <row r="27">
@@ -7028,31 +7529,31 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>INT(LEFT(E27,2))</f>
@@ -7073,7 +7574,7 @@
         <f>INT(LEFT(H27,2))</f>
       </c>
       <c r="Q27" s="5" t="str">
-        <f>K27+L27+IF(M27&gt;O27,M27-O27,0)+IF(N27&gt;P27,N27-P27,0)</f>
+        <f>K27+L27+CG27+IF(M27&gt;O27,M27-O27,0)+IF(N27&gt;P27,N27-P27,0)</f>
       </c>
       <c r="R27" s="5" t="str">
         <f>IF(LEFT(RIGHT(E27,LEN(E27)-2),1)=".",RIGHT(E27,LEN(E27)-3),RIGHT(E27,LEN(E27)-2))</f>
@@ -7112,7 +7613,7 @@
         <f>INT(LEFT(W27,1))</f>
       </c>
       <c r="AD27" s="5" t="str">
-        <f>R27+S27+IF(T27&gt;V27,T27-V27,0)+IF(U27&gt;W27,U27-W27,0)</f>
+        <f>R27+S27+CH27+IF(T27&gt;V27,T27-V27,0)+IF(U27&gt;W27,U27-W27,0)</f>
       </c>
       <c r="AE27" s="5" t="str">
         <f>RIGHT(R27,LEN(R27)-2)+0</f>
@@ -7133,7 +7634,7 @@
         <f>RIGHT(W27,LEN(W27)-2)+0</f>
       </c>
       <c r="AK27" s="5" t="str">
-        <f>AE27+IF(AG27&gt;AI27,AG27-AI27,0)+IF(AH27&gt;AJ27,AH27-AJ27,0)</f>
+        <f>AE27+AF27+CJ27+IF(AG27&gt;AI27,AG27-AI27,0)+IF(AH27&gt;AJ27,AH27-AJ27,0)</f>
       </c>
       <c r="AL27" s="5" t="str">
         <f>K27*8*60+X27*60+AE27</f>
@@ -7154,7 +7655,7 @@
         <f>P27*8*60+AC27*60+AJ27</f>
       </c>
       <c r="AR27" s="5" t="str">
-        <f>AL27+AM27+IF(AN27&gt;AP27,AN27-AP27,0)+IF(AO27&gt;AQ27,AO27-AQ27,0)</f>
+        <f>AL27+AM27+CK27+IF(AN27&gt;AP27,AN27-AP27,0)+IF(AO27&gt;AQ27,AO27-AQ27,0)</f>
       </c>
       <c r="AS27" s="5" t="str">
         <f>AR27/60</f>
@@ -7163,19 +7664,19 @@
         <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY27" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ27" s="5" t="str">
         <f>INT(LEFT(AU27,1))</f>
@@ -7272,6 +7773,24 @@
       </c>
       <c r="CE27" s="5" t="str">
         <f>FLOOR(CC27/8,1,1)&amp;"."&amp;FLOOR(MOD(CC27,8),1,1)&amp;"."&amp;(MOD(CC27,8)-FLOOR(MOD(CC27,8),1,1))*60</f>
+      </c>
+      <c r="CF27" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="CG27" s="5" t="str">
+        <f>INT(LEFT(CF27,2))</f>
+      </c>
+      <c r="CH27" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF27,LEN(CF27)-2),1)=".",RIGHT(CF27,LEN(CF27)-3),RIGHT(CF27,LEN(CF27)-2))</f>
+      </c>
+      <c r="CI27" s="5" t="str">
+        <f>INT(LEFT(CH27,1))</f>
+      </c>
+      <c r="CJ27" s="5" t="str">
+        <f>RIGHT(CH27,LEN(CH27)-2)+0</f>
+      </c>
+      <c r="CK27" s="5" t="str">
+        <f>CG27*8*60+CI27*60+CJ27</f>
       </c>
     </row>
     <row r="28">
@@ -7279,31 +7798,31 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>INT(LEFT(E28,2))</f>
@@ -7324,7 +7843,7 @@
         <f>INT(LEFT(H28,2))</f>
       </c>
       <c r="Q28" s="5" t="str">
-        <f>K28+L28+IF(M28&gt;O28,M28-O28,0)+IF(N28&gt;P28,N28-P28,0)</f>
+        <f>K28+L28+CG28+IF(M28&gt;O28,M28-O28,0)+IF(N28&gt;P28,N28-P28,0)</f>
       </c>
       <c r="R28" s="5" t="str">
         <f>IF(LEFT(RIGHT(E28,LEN(E28)-2),1)=".",RIGHT(E28,LEN(E28)-3),RIGHT(E28,LEN(E28)-2))</f>
@@ -7363,7 +7882,7 @@
         <f>INT(LEFT(W28,1))</f>
       </c>
       <c r="AD28" s="5" t="str">
-        <f>R28+S28+IF(T28&gt;V28,T28-V28,0)+IF(U28&gt;W28,U28-W28,0)</f>
+        <f>R28+S28+CH28+IF(T28&gt;V28,T28-V28,0)+IF(U28&gt;W28,U28-W28,0)</f>
       </c>
       <c r="AE28" s="5" t="str">
         <f>RIGHT(R28,LEN(R28)-2)+0</f>
@@ -7384,7 +7903,7 @@
         <f>RIGHT(W28,LEN(W28)-2)+0</f>
       </c>
       <c r="AK28" s="5" t="str">
-        <f>AE28+IF(AG28&gt;AI28,AG28-AI28,0)+IF(AH28&gt;AJ28,AH28-AJ28,0)</f>
+        <f>AE28+AF28+CJ28+IF(AG28&gt;AI28,AG28-AI28,0)+IF(AH28&gt;AJ28,AH28-AJ28,0)</f>
       </c>
       <c r="AL28" s="5" t="str">
         <f>K28*8*60+X28*60+AE28</f>
@@ -7405,7 +7924,7 @@
         <f>P28*8*60+AC28*60+AJ28</f>
       </c>
       <c r="AR28" s="5" t="str">
-        <f>AL28+AM28+IF(AN28&gt;AP28,AN28-AP28,0)+IF(AO28&gt;AQ28,AO28-AQ28,0)</f>
+        <f>AL28+AM28+CK28+IF(AN28&gt;AP28,AN28-AP28,0)+IF(AO28&gt;AQ28,AO28-AQ28,0)</f>
       </c>
       <c r="AS28" s="5" t="str">
         <f>AR28/60</f>
@@ -7414,19 +7933,19 @@
         <f>FLOOR(AS28/8,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ28" s="5" t="str">
         <f>INT(LEFT(AU28,1))</f>
@@ -7523,6 +8042,24 @@
       </c>
       <c r="CE28" s="5" t="str">
         <f>FLOOR(CC28/8,1,1)&amp;"."&amp;FLOOR(MOD(CC28,8),1,1)&amp;"."&amp;(MOD(CC28,8)-FLOOR(MOD(CC28,8),1,1))*60</f>
+      </c>
+      <c r="CF28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG28" s="5" t="str">
+        <f>INT(LEFT(CF28,2))</f>
+      </c>
+      <c r="CH28" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF28,LEN(CF28)-2),1)=".",RIGHT(CF28,LEN(CF28)-3),RIGHT(CF28,LEN(CF28)-2))</f>
+      </c>
+      <c r="CI28" s="5" t="str">
+        <f>INT(LEFT(CH28,1))</f>
+      </c>
+      <c r="CJ28" s="5" t="str">
+        <f>RIGHT(CH28,LEN(CH28)-2)+0</f>
+      </c>
+      <c r="CK28" s="5" t="str">
+        <f>CG28*8*60+CI28*60+CJ28</f>
       </c>
     </row>
     <row r="29">
@@ -7530,31 +8067,31 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K29" s="5" t="str">
         <f>INT(LEFT(E29,2))</f>
@@ -7575,7 +8112,7 @@
         <f>INT(LEFT(H29,2))</f>
       </c>
       <c r="Q29" s="5" t="str">
-        <f>K29+L29+IF(M29&gt;O29,M29-O29,0)+IF(N29&gt;P29,N29-P29,0)</f>
+        <f>K29+L29+CG29+IF(M29&gt;O29,M29-O29,0)+IF(N29&gt;P29,N29-P29,0)</f>
       </c>
       <c r="R29" s="5" t="str">
         <f>IF(LEFT(RIGHT(E29,LEN(E29)-2),1)=".",RIGHT(E29,LEN(E29)-3),RIGHT(E29,LEN(E29)-2))</f>
@@ -7614,7 +8151,7 @@
         <f>INT(LEFT(W29,1))</f>
       </c>
       <c r="AD29" s="5" t="str">
-        <f>R29+S29+IF(T29&gt;V29,T29-V29,0)+IF(U29&gt;W29,U29-W29,0)</f>
+        <f>R29+S29+CH29+IF(T29&gt;V29,T29-V29,0)+IF(U29&gt;W29,U29-W29,0)</f>
       </c>
       <c r="AE29" s="5" t="str">
         <f>RIGHT(R29,LEN(R29)-2)+0</f>
@@ -7635,7 +8172,7 @@
         <f>RIGHT(W29,LEN(W29)-2)+0</f>
       </c>
       <c r="AK29" s="5" t="str">
-        <f>AE29+IF(AG29&gt;AI29,AG29-AI29,0)+IF(AH29&gt;AJ29,AH29-AJ29,0)</f>
+        <f>AE29+AF29+CJ29+IF(AG29&gt;AI29,AG29-AI29,0)+IF(AH29&gt;AJ29,AH29-AJ29,0)</f>
       </c>
       <c r="AL29" s="5" t="str">
         <f>K29*8*60+X29*60+AE29</f>
@@ -7656,7 +8193,7 @@
         <f>P29*8*60+AC29*60+AJ29</f>
       </c>
       <c r="AR29" s="5" t="str">
-        <f>AL29+AM29+IF(AN29&gt;AP29,AN29-AP29,0)+IF(AO29&gt;AQ29,AO29-AQ29,0)</f>
+        <f>AL29+AM29+CK29+IF(AN29&gt;AP29,AN29-AP29,0)+IF(AO29&gt;AQ29,AO29-AQ29,0)</f>
       </c>
       <c r="AS29" s="5" t="str">
         <f>AR29/60</f>
@@ -7665,19 +8202,19 @@
         <f>FLOOR(AS29/8,1)&amp;"."&amp;FLOOR(MOD(AS29,8),1)&amp;"."&amp;(MOD(AS29,8)-FLOOR(MOD(AS29,8),1))*60</f>
       </c>
       <c r="AU29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ29" s="5" t="str">
         <f>INT(LEFT(AU29,1))</f>
@@ -7774,6 +8311,24 @@
       </c>
       <c r="CE29" s="5" t="str">
         <f>FLOOR(CC29/8,1,1)&amp;"."&amp;FLOOR(MOD(CC29,8),1,1)&amp;"."&amp;(MOD(CC29,8)-FLOOR(MOD(CC29,8),1,1))*60</f>
+      </c>
+      <c r="CF29" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG29" s="5" t="str">
+        <f>INT(LEFT(CF29,2))</f>
+      </c>
+      <c r="CH29" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF29,LEN(CF29)-2),1)=".",RIGHT(CF29,LEN(CF29)-3),RIGHT(CF29,LEN(CF29)-2))</f>
+      </c>
+      <c r="CI29" s="5" t="str">
+        <f>INT(LEFT(CH29,1))</f>
+      </c>
+      <c r="CJ29" s="5" t="str">
+        <f>RIGHT(CH29,LEN(CH29)-2)+0</f>
+      </c>
+      <c r="CK29" s="5" t="str">
+        <f>CG29*8*60+CI29*60+CJ29</f>
       </c>
     </row>
     <row r="30">
@@ -7781,31 +8336,31 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,2))</f>
@@ -7826,7 +8381,7 @@
         <f>INT(LEFT(H30,2))</f>
       </c>
       <c r="Q30" s="5" t="str">
-        <f>K30+L30+IF(M30&gt;O30,M30-O30,0)+IF(N30&gt;P30,N30-P30,0)</f>
+        <f>K30+L30+CG30+IF(M30&gt;O30,M30-O30,0)+IF(N30&gt;P30,N30-P30,0)</f>
       </c>
       <c r="R30" s="5" t="str">
         <f>IF(LEFT(RIGHT(E30,LEN(E30)-2),1)=".",RIGHT(E30,LEN(E30)-3),RIGHT(E30,LEN(E30)-2))</f>
@@ -7865,7 +8420,7 @@
         <f>INT(LEFT(W30,1))</f>
       </c>
       <c r="AD30" s="5" t="str">
-        <f>R30+S30+IF(T30&gt;V30,T30-V30,0)+IF(U30&gt;W30,U30-W30,0)</f>
+        <f>R30+S30+CH30+IF(T30&gt;V30,T30-V30,0)+IF(U30&gt;W30,U30-W30,0)</f>
       </c>
       <c r="AE30" s="5" t="str">
         <f>RIGHT(R30,LEN(R30)-2)+0</f>
@@ -7886,7 +8441,7 @@
         <f>RIGHT(W30,LEN(W30)-2)+0</f>
       </c>
       <c r="AK30" s="5" t="str">
-        <f>AE30+IF(AG30&gt;AI30,AG30-AI30,0)+IF(AH30&gt;AJ30,AH30-AJ30,0)</f>
+        <f>AE30+AF30+CJ30+IF(AG30&gt;AI30,AG30-AI30,0)+IF(AH30&gt;AJ30,AH30-AJ30,0)</f>
       </c>
       <c r="AL30" s="5" t="str">
         <f>K30*8*60+X30*60+AE30</f>
@@ -7907,7 +8462,7 @@
         <f>P30*8*60+AC30*60+AJ30</f>
       </c>
       <c r="AR30" s="5" t="str">
-        <f>AL30+AM30+IF(AN30&gt;AP30,AN30-AP30,0)+IF(AO30&gt;AQ30,AO30-AQ30,0)</f>
+        <f>AL30+AM30+CK30+IF(AN30&gt;AP30,AN30-AP30,0)+IF(AO30&gt;AQ30,AO30-AQ30,0)</f>
       </c>
       <c r="AS30" s="5" t="str">
         <f>AR30/60</f>
@@ -7916,19 +8471,19 @@
         <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV30" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW30" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX30" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -8025,6 +8580,24 @@
       </c>
       <c r="CE30" s="5" t="str">
         <f>FLOOR(CC30/8,1,1)&amp;"."&amp;FLOOR(MOD(CC30,8),1,1)&amp;"."&amp;(MOD(CC30,8)-FLOOR(MOD(CC30,8),1,1))*60</f>
+      </c>
+      <c r="CF30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG30" s="5" t="str">
+        <f>INT(LEFT(CF30,2))</f>
+      </c>
+      <c r="CH30" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF30,LEN(CF30)-2),1)=".",RIGHT(CF30,LEN(CF30)-3),RIGHT(CF30,LEN(CF30)-2))</f>
+      </c>
+      <c r="CI30" s="5" t="str">
+        <f>INT(LEFT(CH30,1))</f>
+      </c>
+      <c r="CJ30" s="5" t="str">
+        <f>RIGHT(CH30,LEN(CH30)-2)+0</f>
+      </c>
+      <c r="CK30" s="5" t="str">
+        <f>CG30*8*60+CI30*60+CJ30</f>
       </c>
     </row>
     <row r="31">
@@ -8032,31 +8605,31 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K31" s="5" t="str">
         <f>INT(LEFT(E31,2))</f>
@@ -8077,7 +8650,7 @@
         <f>INT(LEFT(H31,2))</f>
       </c>
       <c r="Q31" s="5" t="str">
-        <f>K31+L31+IF(M31&gt;O31,M31-O31,0)+IF(N31&gt;P31,N31-P31,0)</f>
+        <f>K31+L31+CG31+IF(M31&gt;O31,M31-O31,0)+IF(N31&gt;P31,N31-P31,0)</f>
       </c>
       <c r="R31" s="5" t="str">
         <f>IF(LEFT(RIGHT(E31,LEN(E31)-2),1)=".",RIGHT(E31,LEN(E31)-3),RIGHT(E31,LEN(E31)-2))</f>
@@ -8116,7 +8689,7 @@
         <f>INT(LEFT(W31,1))</f>
       </c>
       <c r="AD31" s="5" t="str">
-        <f>R31+S31+IF(T31&gt;V31,T31-V31,0)+IF(U31&gt;W31,U31-W31,0)</f>
+        <f>R31+S31+CH31+IF(T31&gt;V31,T31-V31,0)+IF(U31&gt;W31,U31-W31,0)</f>
       </c>
       <c r="AE31" s="5" t="str">
         <f>RIGHT(R31,LEN(R31)-2)+0</f>
@@ -8137,7 +8710,7 @@
         <f>RIGHT(W31,LEN(W31)-2)+0</f>
       </c>
       <c r="AK31" s="5" t="str">
-        <f>AE31+IF(AG31&gt;AI31,AG31-AI31,0)+IF(AH31&gt;AJ31,AH31-AJ31,0)</f>
+        <f>AE31+AF31+CJ31+IF(AG31&gt;AI31,AG31-AI31,0)+IF(AH31&gt;AJ31,AH31-AJ31,0)</f>
       </c>
       <c r="AL31" s="5" t="str">
         <f>K31*8*60+X31*60+AE31</f>
@@ -8158,7 +8731,7 @@
         <f>P31*8*60+AC31*60+AJ31</f>
       </c>
       <c r="AR31" s="5" t="str">
-        <f>AL31+AM31+IF(AN31&gt;AP31,AN31-AP31,0)+IF(AO31&gt;AQ31,AO31-AQ31,0)</f>
+        <f>AL31+AM31+CK31+IF(AN31&gt;AP31,AN31-AP31,0)+IF(AO31&gt;AQ31,AO31-AQ31,0)</f>
       </c>
       <c r="AS31" s="5" t="str">
         <f>AR31/60</f>
@@ -8167,19 +8740,19 @@
         <f>FLOOR(AS31/8,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ31" s="5" t="str">
         <f>INT(LEFT(AU31,1))</f>
@@ -8276,6 +8849,24 @@
       </c>
       <c r="CE31" s="5" t="str">
         <f>FLOOR(CC31/8,1,1)&amp;"."&amp;FLOOR(MOD(CC31,8),1,1)&amp;"."&amp;(MOD(CC31,8)-FLOOR(MOD(CC31,8),1,1))*60</f>
+      </c>
+      <c r="CF31" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG31" s="5" t="str">
+        <f>INT(LEFT(CF31,2))</f>
+      </c>
+      <c r="CH31" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF31,LEN(CF31)-2),1)=".",RIGHT(CF31,LEN(CF31)-3),RIGHT(CF31,LEN(CF31)-2))</f>
+      </c>
+      <c r="CI31" s="5" t="str">
+        <f>INT(LEFT(CH31,1))</f>
+      </c>
+      <c r="CJ31" s="5" t="str">
+        <f>RIGHT(CH31,LEN(CH31)-2)+0</f>
+      </c>
+      <c r="CK31" s="5" t="str">
+        <f>CG31*8*60+CI31*60+CJ31</f>
       </c>
     </row>
     <row r="32">
@@ -8283,31 +8874,31 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,2))</f>
@@ -8328,7 +8919,7 @@
         <f>INT(LEFT(H32,2))</f>
       </c>
       <c r="Q32" s="5" t="str">
-        <f>K32+L32+IF(M32&gt;O32,M32-O32,0)+IF(N32&gt;P32,N32-P32,0)</f>
+        <f>K32+L32+CG32+IF(M32&gt;O32,M32-O32,0)+IF(N32&gt;P32,N32-P32,0)</f>
       </c>
       <c r="R32" s="5" t="str">
         <f>IF(LEFT(RIGHT(E32,LEN(E32)-2),1)=".",RIGHT(E32,LEN(E32)-3),RIGHT(E32,LEN(E32)-2))</f>
@@ -8367,7 +8958,7 @@
         <f>INT(LEFT(W32,1))</f>
       </c>
       <c r="AD32" s="5" t="str">
-        <f>R32+S32+IF(T32&gt;V32,T32-V32,0)+IF(U32&gt;W32,U32-W32,0)</f>
+        <f>R32+S32+CH32+IF(T32&gt;V32,T32-V32,0)+IF(U32&gt;W32,U32-W32,0)</f>
       </c>
       <c r="AE32" s="5" t="str">
         <f>RIGHT(R32,LEN(R32)-2)+0</f>
@@ -8388,7 +8979,7 @@
         <f>RIGHT(W32,LEN(W32)-2)+0</f>
       </c>
       <c r="AK32" s="5" t="str">
-        <f>AE32+IF(AG32&gt;AI32,AG32-AI32,0)+IF(AH32&gt;AJ32,AH32-AJ32,0)</f>
+        <f>AE32+AF32+CJ32+IF(AG32&gt;AI32,AG32-AI32,0)+IF(AH32&gt;AJ32,AH32-AJ32,0)</f>
       </c>
       <c r="AL32" s="5" t="str">
         <f>K32*8*60+X32*60+AE32</f>
@@ -8409,7 +9000,7 @@
         <f>P32*8*60+AC32*60+AJ32</f>
       </c>
       <c r="AR32" s="5" t="str">
-        <f>AL32+AM32+IF(AN32&gt;AP32,AN32-AP32,0)+IF(AO32&gt;AQ32,AO32-AQ32,0)</f>
+        <f>AL32+AM32+CK32+IF(AN32&gt;AP32,AN32-AP32,0)+IF(AO32&gt;AQ32,AO32-AQ32,0)</f>
       </c>
       <c r="AS32" s="5" t="str">
         <f>AR32/60</f>
@@ -8418,19 +9009,19 @@
         <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW32" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX32" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY32" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ32" s="5" t="str">
         <f>INT(LEFT(AU32,1))</f>
@@ -8527,6 +9118,24 @@
       </c>
       <c r="CE32" s="5" t="str">
         <f>FLOOR(CC32/8,1,1)&amp;"."&amp;FLOOR(MOD(CC32,8),1,1)&amp;"."&amp;(MOD(CC32,8)-FLOOR(MOD(CC32,8),1,1))*60</f>
+      </c>
+      <c r="CF32" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG32" s="5" t="str">
+        <f>INT(LEFT(CF32,2))</f>
+      </c>
+      <c r="CH32" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF32,LEN(CF32)-2),1)=".",RIGHT(CF32,LEN(CF32)-3),RIGHT(CF32,LEN(CF32)-2))</f>
+      </c>
+      <c r="CI32" s="5" t="str">
+        <f>INT(LEFT(CH32,1))</f>
+      </c>
+      <c r="CJ32" s="5" t="str">
+        <f>RIGHT(CH32,LEN(CH32)-2)+0</f>
+      </c>
+      <c r="CK32" s="5" t="str">
+        <f>CG32*8*60+CI32*60+CJ32</f>
       </c>
     </row>
     <row r="33">
@@ -8534,31 +9143,31 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,2))</f>
@@ -8579,7 +9188,7 @@
         <f>INT(LEFT(H33,2))</f>
       </c>
       <c r="Q33" s="5" t="str">
-        <f>K33+L33+IF(M33&gt;O33,M33-O33,0)+IF(N33&gt;P33,N33-P33,0)</f>
+        <f>K33+L33+CG33+IF(M33&gt;O33,M33-O33,0)+IF(N33&gt;P33,N33-P33,0)</f>
       </c>
       <c r="R33" s="5" t="str">
         <f>IF(LEFT(RIGHT(E33,LEN(E33)-2),1)=".",RIGHT(E33,LEN(E33)-3),RIGHT(E33,LEN(E33)-2))</f>
@@ -8618,7 +9227,7 @@
         <f>INT(LEFT(W33,1))</f>
       </c>
       <c r="AD33" s="5" t="str">
-        <f>R33+S33+IF(T33&gt;V33,T33-V33,0)+IF(U33&gt;W33,U33-W33,0)</f>
+        <f>R33+S33+CH33+IF(T33&gt;V33,T33-V33,0)+IF(U33&gt;W33,U33-W33,0)</f>
       </c>
       <c r="AE33" s="5" t="str">
         <f>RIGHT(R33,LEN(R33)-2)+0</f>
@@ -8639,7 +9248,7 @@
         <f>RIGHT(W33,LEN(W33)-2)+0</f>
       </c>
       <c r="AK33" s="5" t="str">
-        <f>AE33+IF(AG33&gt;AI33,AG33-AI33,0)+IF(AH33&gt;AJ33,AH33-AJ33,0)</f>
+        <f>AE33+AF33+CJ33+IF(AG33&gt;AI33,AG33-AI33,0)+IF(AH33&gt;AJ33,AH33-AJ33,0)</f>
       </c>
       <c r="AL33" s="5" t="str">
         <f>K33*8*60+X33*60+AE33</f>
@@ -8660,7 +9269,7 @@
         <f>P33*8*60+AC33*60+AJ33</f>
       </c>
       <c r="AR33" s="5" t="str">
-        <f>AL33+AM33+IF(AN33&gt;AP33,AN33-AP33,0)+IF(AO33&gt;AQ33,AO33-AQ33,0)</f>
+        <f>AL33+AM33+CK33+IF(AN33&gt;AP33,AN33-AP33,0)+IF(AO33&gt;AQ33,AO33-AQ33,0)</f>
       </c>
       <c r="AS33" s="5" t="str">
         <f>AR33/60</f>
@@ -8669,19 +9278,19 @@
         <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ33" s="5" t="str">
         <f>INT(LEFT(AU33,1))</f>
@@ -8778,6 +9387,24 @@
       </c>
       <c r="CE33" s="5" t="str">
         <f>FLOOR(CC33/8,1,1)&amp;"."&amp;FLOOR(MOD(CC33,8),1,1)&amp;"."&amp;(MOD(CC33,8)-FLOOR(MOD(CC33,8),1,1))*60</f>
+      </c>
+      <c r="CF33" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CG33" s="5" t="str">
+        <f>INT(LEFT(CF33,2))</f>
+      </c>
+      <c r="CH33" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF33,LEN(CF33)-2),1)=".",RIGHT(CF33,LEN(CF33)-3),RIGHT(CF33,LEN(CF33)-2))</f>
+      </c>
+      <c r="CI33" s="5" t="str">
+        <f>INT(LEFT(CH33,1))</f>
+      </c>
+      <c r="CJ33" s="5" t="str">
+        <f>RIGHT(CH33,LEN(CH33)-2)+0</f>
+      </c>
+      <c r="CK33" s="5" t="str">
+        <f>CG33*8*60+CI33*60+CJ33</f>
       </c>
     </row>
     <row r="34">
@@ -8785,31 +9412,31 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K34" s="5" t="str">
         <f>INT(LEFT(E34,2))</f>
@@ -8830,7 +9457,7 @@
         <f>INT(LEFT(H34,2))</f>
       </c>
       <c r="Q34" s="5" t="str">
-        <f>K34+L34+IF(M34&gt;O34,M34-O34,0)+IF(N34&gt;P34,N34-P34,0)</f>
+        <f>K34+L34+CG34+IF(M34&gt;O34,M34-O34,0)+IF(N34&gt;P34,N34-P34,0)</f>
       </c>
       <c r="R34" s="5" t="str">
         <f>IF(LEFT(RIGHT(E34,LEN(E34)-2),1)=".",RIGHT(E34,LEN(E34)-3),RIGHT(E34,LEN(E34)-2))</f>
@@ -8869,7 +9496,7 @@
         <f>INT(LEFT(W34,1))</f>
       </c>
       <c r="AD34" s="5" t="str">
-        <f>R34+S34+IF(T34&gt;V34,T34-V34,0)+IF(U34&gt;W34,U34-W34,0)</f>
+        <f>R34+S34+CH34+IF(T34&gt;V34,T34-V34,0)+IF(U34&gt;W34,U34-W34,0)</f>
       </c>
       <c r="AE34" s="5" t="str">
         <f>RIGHT(R34,LEN(R34)-2)+0</f>
@@ -8890,7 +9517,7 @@
         <f>RIGHT(W34,LEN(W34)-2)+0</f>
       </c>
       <c r="AK34" s="5" t="str">
-        <f>AE34+IF(AG34&gt;AI34,AG34-AI34,0)+IF(AH34&gt;AJ34,AH34-AJ34,0)</f>
+        <f>AE34+AF34+CJ34+IF(AG34&gt;AI34,AG34-AI34,0)+IF(AH34&gt;AJ34,AH34-AJ34,0)</f>
       </c>
       <c r="AL34" s="5" t="str">
         <f>K34*8*60+X34*60+AE34</f>
@@ -8911,7 +9538,7 @@
         <f>P34*8*60+AC34*60+AJ34</f>
       </c>
       <c r="AR34" s="5" t="str">
-        <f>AL34+AM34+IF(AN34&gt;AP34,AN34-AP34,0)+IF(AO34&gt;AQ34,AO34-AQ34,0)</f>
+        <f>AL34+AM34+CK34+IF(AN34&gt;AP34,AN34-AP34,0)+IF(AO34&gt;AQ34,AO34-AQ34,0)</f>
       </c>
       <c r="AS34" s="5" t="str">
         <f>AR34/60</f>
@@ -8920,19 +9547,19 @@
         <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX34" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY34" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ34" s="5" t="str">
         <f>INT(LEFT(AU34,1))</f>
@@ -9029,6 +9656,24 @@
       </c>
       <c r="CE34" s="5" t="str">
         <f>FLOOR(CC34/8,1,1)&amp;"."&amp;FLOOR(MOD(CC34,8),1,1)&amp;"."&amp;(MOD(CC34,8)-FLOOR(MOD(CC34,8),1,1))*60</f>
+      </c>
+      <c r="CF34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG34" s="5" t="str">
+        <f>INT(LEFT(CF34,2))</f>
+      </c>
+      <c r="CH34" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF34,LEN(CF34)-2),1)=".",RIGHT(CF34,LEN(CF34)-3),RIGHT(CF34,LEN(CF34)-2))</f>
+      </c>
+      <c r="CI34" s="5" t="str">
+        <f>INT(LEFT(CH34,1))</f>
+      </c>
+      <c r="CJ34" s="5" t="str">
+        <f>RIGHT(CH34,LEN(CH34)-2)+0</f>
+      </c>
+      <c r="CK34" s="5" t="str">
+        <f>CG34*8*60+CI34*60+CJ34</f>
       </c>
     </row>
     <row r="35">
@@ -9036,31 +9681,31 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>INT(LEFT(E35,2))</f>
@@ -9081,7 +9726,7 @@
         <f>INT(LEFT(H35,2))</f>
       </c>
       <c r="Q35" s="5" t="str">
-        <f>K35+L35+IF(M35&gt;O35,M35-O35,0)+IF(N35&gt;P35,N35-P35,0)</f>
+        <f>K35+L35+CG35+IF(M35&gt;O35,M35-O35,0)+IF(N35&gt;P35,N35-P35,0)</f>
       </c>
       <c r="R35" s="5" t="str">
         <f>IF(LEFT(RIGHT(E35,LEN(E35)-2),1)=".",RIGHT(E35,LEN(E35)-3),RIGHT(E35,LEN(E35)-2))</f>
@@ -9120,7 +9765,7 @@
         <f>INT(LEFT(W35,1))</f>
       </c>
       <c r="AD35" s="5" t="str">
-        <f>R35+S35+IF(T35&gt;V35,T35-V35,0)+IF(U35&gt;W35,U35-W35,0)</f>
+        <f>R35+S35+CH35+IF(T35&gt;V35,T35-V35,0)+IF(U35&gt;W35,U35-W35,0)</f>
       </c>
       <c r="AE35" s="5" t="str">
         <f>RIGHT(R35,LEN(R35)-2)+0</f>
@@ -9141,7 +9786,7 @@
         <f>RIGHT(W35,LEN(W35)-2)+0</f>
       </c>
       <c r="AK35" s="5" t="str">
-        <f>AE35+IF(AG35&gt;AI35,AG35-AI35,0)+IF(AH35&gt;AJ35,AH35-AJ35,0)</f>
+        <f>AE35+AF35+CJ35+IF(AG35&gt;AI35,AG35-AI35,0)+IF(AH35&gt;AJ35,AH35-AJ35,0)</f>
       </c>
       <c r="AL35" s="5" t="str">
         <f>K35*8*60+X35*60+AE35</f>
@@ -9162,7 +9807,7 @@
         <f>P35*8*60+AC35*60+AJ35</f>
       </c>
       <c r="AR35" s="5" t="str">
-        <f>AL35+AM35+IF(AN35&gt;AP35,AN35-AP35,0)+IF(AO35&gt;AQ35,AO35-AQ35,0)</f>
+        <f>AL35+AM35+CK35+IF(AN35&gt;AP35,AN35-AP35,0)+IF(AO35&gt;AQ35,AO35-AQ35,0)</f>
       </c>
       <c r="AS35" s="5" t="str">
         <f>AR35/60</f>
@@ -9171,19 +9816,19 @@
         <f>FLOOR(AS35/8,1)&amp;"."&amp;FLOOR(MOD(AS35,8),1)&amp;"."&amp;(MOD(AS35,8)-FLOOR(MOD(AS35,8),1))*60</f>
       </c>
       <c r="AU35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ35" s="5" t="str">
         <f>INT(LEFT(AU35,1))</f>
@@ -9280,6 +9925,24 @@
       </c>
       <c r="CE35" s="5" t="str">
         <f>FLOOR(CC35/8,1,1)&amp;"."&amp;FLOOR(MOD(CC35,8),1,1)&amp;"."&amp;(MOD(CC35,8)-FLOOR(MOD(CC35,8),1,1))*60</f>
+      </c>
+      <c r="CF35" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG35" s="5" t="str">
+        <f>INT(LEFT(CF35,2))</f>
+      </c>
+      <c r="CH35" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF35,LEN(CF35)-2),1)=".",RIGHT(CF35,LEN(CF35)-3),RIGHT(CF35,LEN(CF35)-2))</f>
+      </c>
+      <c r="CI35" s="5" t="str">
+        <f>INT(LEFT(CH35,1))</f>
+      </c>
+      <c r="CJ35" s="5" t="str">
+        <f>RIGHT(CH35,LEN(CH35)-2)+0</f>
+      </c>
+      <c r="CK35" s="5" t="str">
+        <f>CG35*8*60+CI35*60+CJ35</f>
       </c>
     </row>
     <row r="36">
@@ -9287,31 +9950,31 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K36" s="5" t="str">
         <f>INT(LEFT(E36,2))</f>
@@ -9332,7 +9995,7 @@
         <f>INT(LEFT(H36,2))</f>
       </c>
       <c r="Q36" s="5" t="str">
-        <f>K36+L36+IF(M36&gt;O36,M36-O36,0)+IF(N36&gt;P36,N36-P36,0)</f>
+        <f>K36+L36+CG36+IF(M36&gt;O36,M36-O36,0)+IF(N36&gt;P36,N36-P36,0)</f>
       </c>
       <c r="R36" s="5" t="str">
         <f>IF(LEFT(RIGHT(E36,LEN(E36)-2),1)=".",RIGHT(E36,LEN(E36)-3),RIGHT(E36,LEN(E36)-2))</f>
@@ -9371,7 +10034,7 @@
         <f>INT(LEFT(W36,1))</f>
       </c>
       <c r="AD36" s="5" t="str">
-        <f>R36+S36+IF(T36&gt;V36,T36-V36,0)+IF(U36&gt;W36,U36-W36,0)</f>
+        <f>R36+S36+CH36+IF(T36&gt;V36,T36-V36,0)+IF(U36&gt;W36,U36-W36,0)</f>
       </c>
       <c r="AE36" s="5" t="str">
         <f>RIGHT(R36,LEN(R36)-2)+0</f>
@@ -9392,7 +10055,7 @@
         <f>RIGHT(W36,LEN(W36)-2)+0</f>
       </c>
       <c r="AK36" s="5" t="str">
-        <f>AE36+IF(AG36&gt;AI36,AG36-AI36,0)+IF(AH36&gt;AJ36,AH36-AJ36,0)</f>
+        <f>AE36+AF36+CJ36+IF(AG36&gt;AI36,AG36-AI36,0)+IF(AH36&gt;AJ36,AH36-AJ36,0)</f>
       </c>
       <c r="AL36" s="5" t="str">
         <f>K36*8*60+X36*60+AE36</f>
@@ -9413,7 +10076,7 @@
         <f>P36*8*60+AC36*60+AJ36</f>
       </c>
       <c r="AR36" s="5" t="str">
-        <f>AL36+AM36+IF(AN36&gt;AP36,AN36-AP36,0)+IF(AO36&gt;AQ36,AO36-AQ36,0)</f>
+        <f>AL36+AM36+CK36+IF(AN36&gt;AP36,AN36-AP36,0)+IF(AO36&gt;AQ36,AO36-AQ36,0)</f>
       </c>
       <c r="AS36" s="5" t="str">
         <f>AR36/60</f>
@@ -9422,19 +10085,19 @@
         <f>FLOOR(AS36/8,1)&amp;"."&amp;FLOOR(MOD(AS36,8),1)&amp;"."&amp;(MOD(AS36,8)-FLOOR(MOD(AS36,8),1))*60</f>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="AV36" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW36" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY36" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ36" s="5" t="str">
         <f>INT(LEFT(AU36,1))</f>
@@ -9531,6 +10194,24 @@
       </c>
       <c r="CE36" s="5" t="str">
         <f>FLOOR(CC36/8,1,1)&amp;"."&amp;FLOOR(MOD(CC36,8),1,1)&amp;"."&amp;(MOD(CC36,8)-FLOOR(MOD(CC36,8),1,1))*60</f>
+      </c>
+      <c r="CF36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG36" s="5" t="str">
+        <f>INT(LEFT(CF36,2))</f>
+      </c>
+      <c r="CH36" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF36,LEN(CF36)-2),1)=".",RIGHT(CF36,LEN(CF36)-3),RIGHT(CF36,LEN(CF36)-2))</f>
+      </c>
+      <c r="CI36" s="5" t="str">
+        <f>INT(LEFT(CH36,1))</f>
+      </c>
+      <c r="CJ36" s="5" t="str">
+        <f>RIGHT(CH36,LEN(CH36)-2)+0</f>
+      </c>
+      <c r="CK36" s="5" t="str">
+        <f>CG36*8*60+CI36*60+CJ36</f>
       </c>
     </row>
     <row r="37">
@@ -9538,31 +10219,31 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,2))</f>
@@ -9583,7 +10264,7 @@
         <f>INT(LEFT(H37,2))</f>
       </c>
       <c r="Q37" s="5" t="str">
-        <f>K37+L37+IF(M37&gt;O37,M37-O37,0)+IF(N37&gt;P37,N37-P37,0)</f>
+        <f>K37+L37+CG37+IF(M37&gt;O37,M37-O37,0)+IF(N37&gt;P37,N37-P37,0)</f>
       </c>
       <c r="R37" s="5" t="str">
         <f>IF(LEFT(RIGHT(E37,LEN(E37)-2),1)=".",RIGHT(E37,LEN(E37)-3),RIGHT(E37,LEN(E37)-2))</f>
@@ -9622,7 +10303,7 @@
         <f>INT(LEFT(W37,1))</f>
       </c>
       <c r="AD37" s="5" t="str">
-        <f>R37+S37+IF(T37&gt;V37,T37-V37,0)+IF(U37&gt;W37,U37-W37,0)</f>
+        <f>R37+S37+CH37+IF(T37&gt;V37,T37-V37,0)+IF(U37&gt;W37,U37-W37,0)</f>
       </c>
       <c r="AE37" s="5" t="str">
         <f>RIGHT(R37,LEN(R37)-2)+0</f>
@@ -9643,7 +10324,7 @@
         <f>RIGHT(W37,LEN(W37)-2)+0</f>
       </c>
       <c r="AK37" s="5" t="str">
-        <f>AE37+IF(AG37&gt;AI37,AG37-AI37,0)+IF(AH37&gt;AJ37,AH37-AJ37,0)</f>
+        <f>AE37+AF37+CJ37+IF(AG37&gt;AI37,AG37-AI37,0)+IF(AH37&gt;AJ37,AH37-AJ37,0)</f>
       </c>
       <c r="AL37" s="5" t="str">
         <f>K37*8*60+X37*60+AE37</f>
@@ -9664,7 +10345,7 @@
         <f>P37*8*60+AC37*60+AJ37</f>
       </c>
       <c r="AR37" s="5" t="str">
-        <f>AL37+AM37+IF(AN37&gt;AP37,AN37-AP37,0)+IF(AO37&gt;AQ37,AO37-AQ37,0)</f>
+        <f>AL37+AM37+CK37+IF(AN37&gt;AP37,AN37-AP37,0)+IF(AO37&gt;AQ37,AO37-AQ37,0)</f>
       </c>
       <c r="AS37" s="5" t="str">
         <f>AR37/60</f>
@@ -9673,19 +10354,19 @@
         <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ37" s="5" t="str">
         <f>INT(LEFT(AU37,1))</f>
@@ -9782,6 +10463,24 @@
       </c>
       <c r="CE37" s="5" t="str">
         <f>FLOOR(CC37/8,1,1)&amp;"."&amp;FLOOR(MOD(CC37,8),1,1)&amp;"."&amp;(MOD(CC37,8)-FLOOR(MOD(CC37,8),1,1))*60</f>
+      </c>
+      <c r="CF37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG37" s="5" t="str">
+        <f>INT(LEFT(CF37,2))</f>
+      </c>
+      <c r="CH37" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF37,LEN(CF37)-2),1)=".",RIGHT(CF37,LEN(CF37)-3),RIGHT(CF37,LEN(CF37)-2))</f>
+      </c>
+      <c r="CI37" s="5" t="str">
+        <f>INT(LEFT(CH37,1))</f>
+      </c>
+      <c r="CJ37" s="5" t="str">
+        <f>RIGHT(CH37,LEN(CH37)-2)+0</f>
+      </c>
+      <c r="CK37" s="5" t="str">
+        <f>CG37*8*60+CI37*60+CJ37</f>
       </c>
     </row>
     <row r="38">
@@ -9789,31 +10488,31 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K38" s="5" t="str">
         <f>INT(LEFT(E38,2))</f>
@@ -9834,7 +10533,7 @@
         <f>INT(LEFT(H38,2))</f>
       </c>
       <c r="Q38" s="5" t="str">
-        <f>K38+L38+IF(M38&gt;O38,M38-O38,0)+IF(N38&gt;P38,N38-P38,0)</f>
+        <f>K38+L38+CG38+IF(M38&gt;O38,M38-O38,0)+IF(N38&gt;P38,N38-P38,0)</f>
       </c>
       <c r="R38" s="5" t="str">
         <f>IF(LEFT(RIGHT(E38,LEN(E38)-2),1)=".",RIGHT(E38,LEN(E38)-3),RIGHT(E38,LEN(E38)-2))</f>
@@ -9873,7 +10572,7 @@
         <f>INT(LEFT(W38,1))</f>
       </c>
       <c r="AD38" s="5" t="str">
-        <f>R38+S38+IF(T38&gt;V38,T38-V38,0)+IF(U38&gt;W38,U38-W38,0)</f>
+        <f>R38+S38+CH38+IF(T38&gt;V38,T38-V38,0)+IF(U38&gt;W38,U38-W38,0)</f>
       </c>
       <c r="AE38" s="5" t="str">
         <f>RIGHT(R38,LEN(R38)-2)+0</f>
@@ -9894,7 +10593,7 @@
         <f>RIGHT(W38,LEN(W38)-2)+0</f>
       </c>
       <c r="AK38" s="5" t="str">
-        <f>AE38+IF(AG38&gt;AI38,AG38-AI38,0)+IF(AH38&gt;AJ38,AH38-AJ38,0)</f>
+        <f>AE38+AF38+CJ38+IF(AG38&gt;AI38,AG38-AI38,0)+IF(AH38&gt;AJ38,AH38-AJ38,0)</f>
       </c>
       <c r="AL38" s="5" t="str">
         <f>K38*8*60+X38*60+AE38</f>
@@ -9915,7 +10614,7 @@
         <f>P38*8*60+AC38*60+AJ38</f>
       </c>
       <c r="AR38" s="5" t="str">
-        <f>AL38+AM38+IF(AN38&gt;AP38,AN38-AP38,0)+IF(AO38&gt;AQ38,AO38-AQ38,0)</f>
+        <f>AL38+AM38+CK38+IF(AN38&gt;AP38,AN38-AP38,0)+IF(AO38&gt;AQ38,AO38-AQ38,0)</f>
       </c>
       <c r="AS38" s="5" t="str">
         <f>AR38/60</f>
@@ -9924,19 +10623,19 @@
         <f>FLOOR(AS38/8,1)&amp;"."&amp;FLOOR(MOD(AS38,8),1)&amp;"."&amp;(MOD(AS38,8)-FLOOR(MOD(AS38,8),1))*60</f>
       </c>
       <c r="AU38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY38" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ38" s="5" t="str">
         <f>INT(LEFT(AU38,1))</f>
@@ -10033,6 +10732,24 @@
       </c>
       <c r="CE38" s="5" t="str">
         <f>FLOOR(CC38/8,1,1)&amp;"."&amp;FLOOR(MOD(CC38,8),1,1)&amp;"."&amp;(MOD(CC38,8)-FLOOR(MOD(CC38,8),1,1))*60</f>
+      </c>
+      <c r="CF38" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG38" s="5" t="str">
+        <f>INT(LEFT(CF38,2))</f>
+      </c>
+      <c r="CH38" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF38,LEN(CF38)-2),1)=".",RIGHT(CF38,LEN(CF38)-3),RIGHT(CF38,LEN(CF38)-2))</f>
+      </c>
+      <c r="CI38" s="5" t="str">
+        <f>INT(LEFT(CH38,1))</f>
+      </c>
+      <c r="CJ38" s="5" t="str">
+        <f>RIGHT(CH38,LEN(CH38)-2)+0</f>
+      </c>
+      <c r="CK38" s="5" t="str">
+        <f>CG38*8*60+CI38*60+CJ38</f>
       </c>
     </row>
     <row r="39">
@@ -10040,31 +10757,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,2))</f>
@@ -10085,7 +10802,7 @@
         <f>INT(LEFT(H39,2))</f>
       </c>
       <c r="Q39" s="5" t="str">
-        <f>K39+L39+IF(M39&gt;O39,M39-O39,0)+IF(N39&gt;P39,N39-P39,0)</f>
+        <f>K39+L39+CG39+IF(M39&gt;O39,M39-O39,0)+IF(N39&gt;P39,N39-P39,0)</f>
       </c>
       <c r="R39" s="5" t="str">
         <f>IF(LEFT(RIGHT(E39,LEN(E39)-2),1)=".",RIGHT(E39,LEN(E39)-3),RIGHT(E39,LEN(E39)-2))</f>
@@ -10124,7 +10841,7 @@
         <f>INT(LEFT(W39,1))</f>
       </c>
       <c r="AD39" s="5" t="str">
-        <f>R39+S39+IF(T39&gt;V39,T39-V39,0)+IF(U39&gt;W39,U39-W39,0)</f>
+        <f>R39+S39+CH39+IF(T39&gt;V39,T39-V39,0)+IF(U39&gt;W39,U39-W39,0)</f>
       </c>
       <c r="AE39" s="5" t="str">
         <f>RIGHT(R39,LEN(R39)-2)+0</f>
@@ -10145,7 +10862,7 @@
         <f>RIGHT(W39,LEN(W39)-2)+0</f>
       </c>
       <c r="AK39" s="5" t="str">
-        <f>AE39+IF(AG39&gt;AI39,AG39-AI39,0)+IF(AH39&gt;AJ39,AH39-AJ39,0)</f>
+        <f>AE39+AF39+CJ39+IF(AG39&gt;AI39,AG39-AI39,0)+IF(AH39&gt;AJ39,AH39-AJ39,0)</f>
       </c>
       <c r="AL39" s="5" t="str">
         <f>K39*8*60+X39*60+AE39</f>
@@ -10166,7 +10883,7 @@
         <f>P39*8*60+AC39*60+AJ39</f>
       </c>
       <c r="AR39" s="5" t="str">
-        <f>AL39+AM39+IF(AN39&gt;AP39,AN39-AP39,0)+IF(AO39&gt;AQ39,AO39-AQ39,0)</f>
+        <f>AL39+AM39+CK39+IF(AN39&gt;AP39,AN39-AP39,0)+IF(AO39&gt;AQ39,AO39-AQ39,0)</f>
       </c>
       <c r="AS39" s="5" t="str">
         <f>AR39/60</f>
@@ -10175,19 +10892,19 @@
         <f>FLOOR(AS39/8,1)&amp;"."&amp;FLOOR(MOD(AS39,8),1)&amp;"."&amp;(MOD(AS39,8)-FLOOR(MOD(AS39,8),1))*60</f>
       </c>
       <c r="AU39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ39" s="5" t="str">
         <f>INT(LEFT(AU39,1))</f>
@@ -10284,6 +11001,24 @@
       </c>
       <c r="CE39" s="5" t="str">
         <f>FLOOR(CC39/8,1,1)&amp;"."&amp;FLOOR(MOD(CC39,8),1,1)&amp;"."&amp;(MOD(CC39,8)-FLOOR(MOD(CC39,8),1,1))*60</f>
+      </c>
+      <c r="CF39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG39" s="5" t="str">
+        <f>INT(LEFT(CF39,2))</f>
+      </c>
+      <c r="CH39" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF39,LEN(CF39)-2),1)=".",RIGHT(CF39,LEN(CF39)-3),RIGHT(CF39,LEN(CF39)-2))</f>
+      </c>
+      <c r="CI39" s="5" t="str">
+        <f>INT(LEFT(CH39,1))</f>
+      </c>
+      <c r="CJ39" s="5" t="str">
+        <f>RIGHT(CH39,LEN(CH39)-2)+0</f>
+      </c>
+      <c r="CK39" s="5" t="str">
+        <f>CG39*8*60+CI39*60+CJ39</f>
       </c>
     </row>
     <row r="40">
@@ -10291,31 +11026,31 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>INT(LEFT(E40,2))</f>
@@ -10336,7 +11071,7 @@
         <f>INT(LEFT(H40,2))</f>
       </c>
       <c r="Q40" s="5" t="str">
-        <f>K40+L40+IF(M40&gt;O40,M40-O40,0)+IF(N40&gt;P40,N40-P40,0)</f>
+        <f>K40+L40+CG40+IF(M40&gt;O40,M40-O40,0)+IF(N40&gt;P40,N40-P40,0)</f>
       </c>
       <c r="R40" s="5" t="str">
         <f>IF(LEFT(RIGHT(E40,LEN(E40)-2),1)=".",RIGHT(E40,LEN(E40)-3),RIGHT(E40,LEN(E40)-2))</f>
@@ -10375,7 +11110,7 @@
         <f>INT(LEFT(W40,1))</f>
       </c>
       <c r="AD40" s="5" t="str">
-        <f>R40+S40+IF(T40&gt;V40,T40-V40,0)+IF(U40&gt;W40,U40-W40,0)</f>
+        <f>R40+S40+CH40+IF(T40&gt;V40,T40-V40,0)+IF(U40&gt;W40,U40-W40,0)</f>
       </c>
       <c r="AE40" s="5" t="str">
         <f>RIGHT(R40,LEN(R40)-2)+0</f>
@@ -10396,7 +11131,7 @@
         <f>RIGHT(W40,LEN(W40)-2)+0</f>
       </c>
       <c r="AK40" s="5" t="str">
-        <f>AE40+IF(AG40&gt;AI40,AG40-AI40,0)+IF(AH40&gt;AJ40,AH40-AJ40,0)</f>
+        <f>AE40+AF40+CJ40+IF(AG40&gt;AI40,AG40-AI40,0)+IF(AH40&gt;AJ40,AH40-AJ40,0)</f>
       </c>
       <c r="AL40" s="5" t="str">
         <f>K40*8*60+X40*60+AE40</f>
@@ -10417,7 +11152,7 @@
         <f>P40*8*60+AC40*60+AJ40</f>
       </c>
       <c r="AR40" s="5" t="str">
-        <f>AL40+AM40+IF(AN40&gt;AP40,AN40-AP40,0)+IF(AO40&gt;AQ40,AO40-AQ40,0)</f>
+        <f>AL40+AM40+CK40+IF(AN40&gt;AP40,AN40-AP40,0)+IF(AO40&gt;AQ40,AO40-AQ40,0)</f>
       </c>
       <c r="AS40" s="5" t="str">
         <f>AR40/60</f>
@@ -10426,19 +11161,19 @@
         <f>FLOOR(AS40/8,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY40" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ40" s="5" t="str">
         <f>INT(LEFT(AU40,1))</f>
@@ -10535,6 +11270,24 @@
       </c>
       <c r="CE40" s="5" t="str">
         <f>FLOOR(CC40/8,1,1)&amp;"."&amp;FLOOR(MOD(CC40,8),1,1)&amp;"."&amp;(MOD(CC40,8)-FLOOR(MOD(CC40,8),1,1))*60</f>
+      </c>
+      <c r="CF40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="CG40" s="5" t="str">
+        <f>INT(LEFT(CF40,2))</f>
+      </c>
+      <c r="CH40" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF40,LEN(CF40)-2),1)=".",RIGHT(CF40,LEN(CF40)-3),RIGHT(CF40,LEN(CF40)-2))</f>
+      </c>
+      <c r="CI40" s="5" t="str">
+        <f>INT(LEFT(CH40,1))</f>
+      </c>
+      <c r="CJ40" s="5" t="str">
+        <f>RIGHT(CH40,LEN(CH40)-2)+0</f>
+      </c>
+      <c r="CK40" s="5" t="str">
+        <f>CG40*8*60+CI40*60+CJ40</f>
       </c>
     </row>
     <row r="41">
@@ -10542,31 +11295,31 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,2))</f>
@@ -10587,7 +11340,7 @@
         <f>INT(LEFT(H41,2))</f>
       </c>
       <c r="Q41" s="5" t="str">
-        <f>K41+L41+IF(M41&gt;O41,M41-O41,0)+IF(N41&gt;P41,N41-P41,0)</f>
+        <f>K41+L41+CG41+IF(M41&gt;O41,M41-O41,0)+IF(N41&gt;P41,N41-P41,0)</f>
       </c>
       <c r="R41" s="5" t="str">
         <f>IF(LEFT(RIGHT(E41,LEN(E41)-2),1)=".",RIGHT(E41,LEN(E41)-3),RIGHT(E41,LEN(E41)-2))</f>
@@ -10626,7 +11379,7 @@
         <f>INT(LEFT(W41,1))</f>
       </c>
       <c r="AD41" s="5" t="str">
-        <f>R41+S41+IF(T41&gt;V41,T41-V41,0)+IF(U41&gt;W41,U41-W41,0)</f>
+        <f>R41+S41+CH41+IF(T41&gt;V41,T41-V41,0)+IF(U41&gt;W41,U41-W41,0)</f>
       </c>
       <c r="AE41" s="5" t="str">
         <f>RIGHT(R41,LEN(R41)-2)+0</f>
@@ -10647,7 +11400,7 @@
         <f>RIGHT(W41,LEN(W41)-2)+0</f>
       </c>
       <c r="AK41" s="5" t="str">
-        <f>AE41+IF(AG41&gt;AI41,AG41-AI41,0)+IF(AH41&gt;AJ41,AH41-AJ41,0)</f>
+        <f>AE41+AF41+CJ41+IF(AG41&gt;AI41,AG41-AI41,0)+IF(AH41&gt;AJ41,AH41-AJ41,0)</f>
       </c>
       <c r="AL41" s="5" t="str">
         <f>K41*8*60+X41*60+AE41</f>
@@ -10668,7 +11421,7 @@
         <f>P41*8*60+AC41*60+AJ41</f>
       </c>
       <c r="AR41" s="5" t="str">
-        <f>AL41+AM41+IF(AN41&gt;AP41,AN41-AP41,0)+IF(AO41&gt;AQ41,AO41-AQ41,0)</f>
+        <f>AL41+AM41+CK41+IF(AN41&gt;AP41,AN41-AP41,0)+IF(AO41&gt;AQ41,AO41-AQ41,0)</f>
       </c>
       <c r="AS41" s="5" t="str">
         <f>AR41/60</f>
@@ -10677,19 +11430,19 @@
         <f>FLOOR(AS41/8,1)&amp;"."&amp;FLOOR(MOD(AS41,8),1)&amp;"."&amp;(MOD(AS41,8)-FLOOR(MOD(AS41,8),1))*60</f>
       </c>
       <c r="AU41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ41" s="5" t="str">
         <f>INT(LEFT(AU41,1))</f>
@@ -10786,6 +11539,24 @@
       </c>
       <c r="CE41" s="5" t="str">
         <f>FLOOR(CC41/8,1,1)&amp;"."&amp;FLOOR(MOD(CC41,8),1,1)&amp;"."&amp;(MOD(CC41,8)-FLOOR(MOD(CC41,8),1,1))*60</f>
+      </c>
+      <c r="CF41" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG41" s="5" t="str">
+        <f>INT(LEFT(CF41,2))</f>
+      </c>
+      <c r="CH41" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF41,LEN(CF41)-2),1)=".",RIGHT(CF41,LEN(CF41)-3),RIGHT(CF41,LEN(CF41)-2))</f>
+      </c>
+      <c r="CI41" s="5" t="str">
+        <f>INT(LEFT(CH41,1))</f>
+      </c>
+      <c r="CJ41" s="5" t="str">
+        <f>RIGHT(CH41,LEN(CH41)-2)+0</f>
+      </c>
+      <c r="CK41" s="5" t="str">
+        <f>CG41*8*60+CI41*60+CJ41</f>
       </c>
     </row>
     <row r="42">
@@ -10793,31 +11564,31 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K42" s="5" t="str">
         <f>INT(LEFT(E42,2))</f>
@@ -10838,7 +11609,7 @@
         <f>INT(LEFT(H42,2))</f>
       </c>
       <c r="Q42" s="5" t="str">
-        <f>K42+L42+IF(M42&gt;O42,M42-O42,0)+IF(N42&gt;P42,N42-P42,0)</f>
+        <f>K42+L42+CG42+IF(M42&gt;O42,M42-O42,0)+IF(N42&gt;P42,N42-P42,0)</f>
       </c>
       <c r="R42" s="5" t="str">
         <f>IF(LEFT(RIGHT(E42,LEN(E42)-2),1)=".",RIGHT(E42,LEN(E42)-3),RIGHT(E42,LEN(E42)-2))</f>
@@ -10877,7 +11648,7 @@
         <f>INT(LEFT(W42,1))</f>
       </c>
       <c r="AD42" s="5" t="str">
-        <f>R42+S42+IF(T42&gt;V42,T42-V42,0)+IF(U42&gt;W42,U42-W42,0)</f>
+        <f>R42+S42+CH42+IF(T42&gt;V42,T42-V42,0)+IF(U42&gt;W42,U42-W42,0)</f>
       </c>
       <c r="AE42" s="5" t="str">
         <f>RIGHT(R42,LEN(R42)-2)+0</f>
@@ -10898,7 +11669,7 @@
         <f>RIGHT(W42,LEN(W42)-2)+0</f>
       </c>
       <c r="AK42" s="5" t="str">
-        <f>AE42+IF(AG42&gt;AI42,AG42-AI42,0)+IF(AH42&gt;AJ42,AH42-AJ42,0)</f>
+        <f>AE42+AF42+CJ42+IF(AG42&gt;AI42,AG42-AI42,0)+IF(AH42&gt;AJ42,AH42-AJ42,0)</f>
       </c>
       <c r="AL42" s="5" t="str">
         <f>K42*8*60+X42*60+AE42</f>
@@ -10919,7 +11690,7 @@
         <f>P42*8*60+AC42*60+AJ42</f>
       </c>
       <c r="AR42" s="5" t="str">
-        <f>AL42+AM42+IF(AN42&gt;AP42,AN42-AP42,0)+IF(AO42&gt;AQ42,AO42-AQ42,0)</f>
+        <f>AL42+AM42+CK42+IF(AN42&gt;AP42,AN42-AP42,0)+IF(AO42&gt;AQ42,AO42-AQ42,0)</f>
       </c>
       <c r="AS42" s="5" t="str">
         <f>AR42/60</f>
@@ -10928,19 +11699,19 @@
         <f>FLOOR(AS42/8,1)&amp;"."&amp;FLOOR(MOD(AS42,8),1)&amp;"."&amp;(MOD(AS42,8)-FLOOR(MOD(AS42,8),1))*60</f>
       </c>
       <c r="AU42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY42" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ42" s="5" t="str">
         <f>INT(LEFT(AU42,1))</f>
@@ -11037,6 +11808,24 @@
       </c>
       <c r="CE42" s="5" t="str">
         <f>FLOOR(CC42/8,1,1)&amp;"."&amp;FLOOR(MOD(CC42,8),1,1)&amp;"."&amp;(MOD(CC42,8)-FLOOR(MOD(CC42,8),1,1))*60</f>
+      </c>
+      <c r="CF42" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG42" s="5" t="str">
+        <f>INT(LEFT(CF42,2))</f>
+      </c>
+      <c r="CH42" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF42,LEN(CF42)-2),1)=".",RIGHT(CF42,LEN(CF42)-3),RIGHT(CF42,LEN(CF42)-2))</f>
+      </c>
+      <c r="CI42" s="5" t="str">
+        <f>INT(LEFT(CH42,1))</f>
+      </c>
+      <c r="CJ42" s="5" t="str">
+        <f>RIGHT(CH42,LEN(CH42)-2)+0</f>
+      </c>
+      <c r="CK42" s="5" t="str">
+        <f>CG42*8*60+CI42*60+CJ42</f>
       </c>
     </row>
     <row r="43">
@@ -11044,31 +11833,31 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,2))</f>
@@ -11089,7 +11878,7 @@
         <f>INT(LEFT(H43,2))</f>
       </c>
       <c r="Q43" s="5" t="str">
-        <f>K43+L43+IF(M43&gt;O43,M43-O43,0)+IF(N43&gt;P43,N43-P43,0)</f>
+        <f>K43+L43+CG43+IF(M43&gt;O43,M43-O43,0)+IF(N43&gt;P43,N43-P43,0)</f>
       </c>
       <c r="R43" s="5" t="str">
         <f>IF(LEFT(RIGHT(E43,LEN(E43)-2),1)=".",RIGHT(E43,LEN(E43)-3),RIGHT(E43,LEN(E43)-2))</f>
@@ -11128,7 +11917,7 @@
         <f>INT(LEFT(W43,1))</f>
       </c>
       <c r="AD43" s="5" t="str">
-        <f>R43+S43+IF(T43&gt;V43,T43-V43,0)+IF(U43&gt;W43,U43-W43,0)</f>
+        <f>R43+S43+CH43+IF(T43&gt;V43,T43-V43,0)+IF(U43&gt;W43,U43-W43,0)</f>
       </c>
       <c r="AE43" s="5" t="str">
         <f>RIGHT(R43,LEN(R43)-2)+0</f>
@@ -11149,7 +11938,7 @@
         <f>RIGHT(W43,LEN(W43)-2)+0</f>
       </c>
       <c r="AK43" s="5" t="str">
-        <f>AE43+IF(AG43&gt;AI43,AG43-AI43,0)+IF(AH43&gt;AJ43,AH43-AJ43,0)</f>
+        <f>AE43+AF43+CJ43+IF(AG43&gt;AI43,AG43-AI43,0)+IF(AH43&gt;AJ43,AH43-AJ43,0)</f>
       </c>
       <c r="AL43" s="5" t="str">
         <f>K43*8*60+X43*60+AE43</f>
@@ -11170,7 +11959,7 @@
         <f>P43*8*60+AC43*60+AJ43</f>
       </c>
       <c r="AR43" s="5" t="str">
-        <f>AL43+AM43+IF(AN43&gt;AP43,AN43-AP43,0)+IF(AO43&gt;AQ43,AO43-AQ43,0)</f>
+        <f>AL43+AM43+CK43+IF(AN43&gt;AP43,AN43-AP43,0)+IF(AO43&gt;AQ43,AO43-AQ43,0)</f>
       </c>
       <c r="AS43" s="5" t="str">
         <f>AR43/60</f>
@@ -11179,19 +11968,19 @@
         <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY43" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ43" s="5" t="str">
         <f>INT(LEFT(AU43,1))</f>
@@ -11288,6 +12077,24 @@
       </c>
       <c r="CE43" s="5" t="str">
         <f>FLOOR(CC43/8,1,1)&amp;"."&amp;FLOOR(MOD(CC43,8),1,1)&amp;"."&amp;(MOD(CC43,8)-FLOOR(MOD(CC43,8),1,1))*60</f>
+      </c>
+      <c r="CF43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG43" s="5" t="str">
+        <f>INT(LEFT(CF43,2))</f>
+      </c>
+      <c r="CH43" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF43,LEN(CF43)-2),1)=".",RIGHT(CF43,LEN(CF43)-3),RIGHT(CF43,LEN(CF43)-2))</f>
+      </c>
+      <c r="CI43" s="5" t="str">
+        <f>INT(LEFT(CH43,1))</f>
+      </c>
+      <c r="CJ43" s="5" t="str">
+        <f>RIGHT(CH43,LEN(CH43)-2)+0</f>
+      </c>
+      <c r="CK43" s="5" t="str">
+        <f>CG43*8*60+CI43*60+CJ43</f>
       </c>
     </row>
     <row r="44">
@@ -11295,31 +12102,31 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>INT(LEFT(E44,2))</f>
@@ -11340,7 +12147,7 @@
         <f>INT(LEFT(H44,2))</f>
       </c>
       <c r="Q44" s="5" t="str">
-        <f>K44+L44+IF(M44&gt;O44,M44-O44,0)+IF(N44&gt;P44,N44-P44,0)</f>
+        <f>K44+L44+CG44+IF(M44&gt;O44,M44-O44,0)+IF(N44&gt;P44,N44-P44,0)</f>
       </c>
       <c r="R44" s="5" t="str">
         <f>IF(LEFT(RIGHT(E44,LEN(E44)-2),1)=".",RIGHT(E44,LEN(E44)-3),RIGHT(E44,LEN(E44)-2))</f>
@@ -11379,7 +12186,7 @@
         <f>INT(LEFT(W44,1))</f>
       </c>
       <c r="AD44" s="5" t="str">
-        <f>R44+S44+IF(T44&gt;V44,T44-V44,0)+IF(U44&gt;W44,U44-W44,0)</f>
+        <f>R44+S44+CH44+IF(T44&gt;V44,T44-V44,0)+IF(U44&gt;W44,U44-W44,0)</f>
       </c>
       <c r="AE44" s="5" t="str">
         <f>RIGHT(R44,LEN(R44)-2)+0</f>
@@ -11400,7 +12207,7 @@
         <f>RIGHT(W44,LEN(W44)-2)+0</f>
       </c>
       <c r="AK44" s="5" t="str">
-        <f>AE44+IF(AG44&gt;AI44,AG44-AI44,0)+IF(AH44&gt;AJ44,AH44-AJ44,0)</f>
+        <f>AE44+AF44+CJ44+IF(AG44&gt;AI44,AG44-AI44,0)+IF(AH44&gt;AJ44,AH44-AJ44,0)</f>
       </c>
       <c r="AL44" s="5" t="str">
         <f>K44*8*60+X44*60+AE44</f>
@@ -11421,7 +12228,7 @@
         <f>P44*8*60+AC44*60+AJ44</f>
       </c>
       <c r="AR44" s="5" t="str">
-        <f>AL44+AM44+IF(AN44&gt;AP44,AN44-AP44,0)+IF(AO44&gt;AQ44,AO44-AQ44,0)</f>
+        <f>AL44+AM44+CK44+IF(AN44&gt;AP44,AN44-AP44,0)+IF(AO44&gt;AQ44,AO44-AQ44,0)</f>
       </c>
       <c r="AS44" s="5" t="str">
         <f>AR44/60</f>
@@ -11430,19 +12237,19 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY44" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ44" s="5" t="str">
         <f>INT(LEFT(AU44,1))</f>
@@ -11539,6 +12346,24 @@
       </c>
       <c r="CE44" s="5" t="str">
         <f>FLOOR(CC44/8,1,1)&amp;"."&amp;FLOOR(MOD(CC44,8),1,1)&amp;"."&amp;(MOD(CC44,8)-FLOOR(MOD(CC44,8),1,1))*60</f>
+      </c>
+      <c r="CF44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG44" s="5" t="str">
+        <f>INT(LEFT(CF44,2))</f>
+      </c>
+      <c r="CH44" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF44,LEN(CF44)-2),1)=".",RIGHT(CF44,LEN(CF44)-3),RIGHT(CF44,LEN(CF44)-2))</f>
+      </c>
+      <c r="CI44" s="5" t="str">
+        <f>INT(LEFT(CH44,1))</f>
+      </c>
+      <c r="CJ44" s="5" t="str">
+        <f>RIGHT(CH44,LEN(CH44)-2)+0</f>
+      </c>
+      <c r="CK44" s="5" t="str">
+        <f>CG44*8*60+CI44*60+CJ44</f>
       </c>
     </row>
     <row r="45">
@@ -11546,31 +12371,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K45" s="5" t="str">
         <f>INT(LEFT(E45,2))</f>
@@ -11591,7 +12416,7 @@
         <f>INT(LEFT(H45,2))</f>
       </c>
       <c r="Q45" s="5" t="str">
-        <f>K45+L45+IF(M45&gt;O45,M45-O45,0)+IF(N45&gt;P45,N45-P45,0)</f>
+        <f>K45+L45+CG45+IF(M45&gt;O45,M45-O45,0)+IF(N45&gt;P45,N45-P45,0)</f>
       </c>
       <c r="R45" s="5" t="str">
         <f>IF(LEFT(RIGHT(E45,LEN(E45)-2),1)=".",RIGHT(E45,LEN(E45)-3),RIGHT(E45,LEN(E45)-2))</f>
@@ -11630,7 +12455,7 @@
         <f>INT(LEFT(W45,1))</f>
       </c>
       <c r="AD45" s="5" t="str">
-        <f>R45+S45+IF(T45&gt;V45,T45-V45,0)+IF(U45&gt;W45,U45-W45,0)</f>
+        <f>R45+S45+CH45+IF(T45&gt;V45,T45-V45,0)+IF(U45&gt;W45,U45-W45,0)</f>
       </c>
       <c r="AE45" s="5" t="str">
         <f>RIGHT(R45,LEN(R45)-2)+0</f>
@@ -11651,7 +12476,7 @@
         <f>RIGHT(W45,LEN(W45)-2)+0</f>
       </c>
       <c r="AK45" s="5" t="str">
-        <f>AE45+IF(AG45&gt;AI45,AG45-AI45,0)+IF(AH45&gt;AJ45,AH45-AJ45,0)</f>
+        <f>AE45+AF45+CJ45+IF(AG45&gt;AI45,AG45-AI45,0)+IF(AH45&gt;AJ45,AH45-AJ45,0)</f>
       </c>
       <c r="AL45" s="5" t="str">
         <f>K45*8*60+X45*60+AE45</f>
@@ -11672,7 +12497,7 @@
         <f>P45*8*60+AC45*60+AJ45</f>
       </c>
       <c r="AR45" s="5" t="str">
-        <f>AL45+AM45+IF(AN45&gt;AP45,AN45-AP45,0)+IF(AO45&gt;AQ45,AO45-AQ45,0)</f>
+        <f>AL45+AM45+CK45+IF(AN45&gt;AP45,AN45-AP45,0)+IF(AO45&gt;AQ45,AO45-AQ45,0)</f>
       </c>
       <c r="AS45" s="5" t="str">
         <f>AR45/60</f>
@@ -11681,19 +12506,19 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW45" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX45" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY45" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ45" s="5" t="str">
         <f>INT(LEFT(AU45,1))</f>
@@ -11790,6 +12615,24 @@
       </c>
       <c r="CE45" s="5" t="str">
         <f>FLOOR(CC45/8,1,1)&amp;"."&amp;FLOOR(MOD(CC45,8),1,1)&amp;"."&amp;(MOD(CC45,8)-FLOOR(MOD(CC45,8),1,1))*60</f>
+      </c>
+      <c r="CF45" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="CG45" s="5" t="str">
+        <f>INT(LEFT(CF45,2))</f>
+      </c>
+      <c r="CH45" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF45,LEN(CF45)-2),1)=".",RIGHT(CF45,LEN(CF45)-3),RIGHT(CF45,LEN(CF45)-2))</f>
+      </c>
+      <c r="CI45" s="5" t="str">
+        <f>INT(LEFT(CH45,1))</f>
+      </c>
+      <c r="CJ45" s="5" t="str">
+        <f>RIGHT(CH45,LEN(CH45)-2)+0</f>
+      </c>
+      <c r="CK45" s="5" t="str">
+        <f>CG45*8*60+CI45*60+CJ45</f>
       </c>
     </row>
     <row r="46">
@@ -11797,31 +12640,31 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K46" s="5" t="str">
         <f>INT(LEFT(E46,2))</f>
@@ -11842,7 +12685,7 @@
         <f>INT(LEFT(H46,2))</f>
       </c>
       <c r="Q46" s="5" t="str">
-        <f>K46+L46+IF(M46&gt;O46,M46-O46,0)+IF(N46&gt;P46,N46-P46,0)</f>
+        <f>K46+L46+CG46+IF(M46&gt;O46,M46-O46,0)+IF(N46&gt;P46,N46-P46,0)</f>
       </c>
       <c r="R46" s="5" t="str">
         <f>IF(LEFT(RIGHT(E46,LEN(E46)-2),1)=".",RIGHT(E46,LEN(E46)-3),RIGHT(E46,LEN(E46)-2))</f>
@@ -11881,7 +12724,7 @@
         <f>INT(LEFT(W46,1))</f>
       </c>
       <c r="AD46" s="5" t="str">
-        <f>R46+S46+IF(T46&gt;V46,T46-V46,0)+IF(U46&gt;W46,U46-W46,0)</f>
+        <f>R46+S46+CH46+IF(T46&gt;V46,T46-V46,0)+IF(U46&gt;W46,U46-W46,0)</f>
       </c>
       <c r="AE46" s="5" t="str">
         <f>RIGHT(R46,LEN(R46)-2)+0</f>
@@ -11902,7 +12745,7 @@
         <f>RIGHT(W46,LEN(W46)-2)+0</f>
       </c>
       <c r="AK46" s="5" t="str">
-        <f>AE46+IF(AG46&gt;AI46,AG46-AI46,0)+IF(AH46&gt;AJ46,AH46-AJ46,0)</f>
+        <f>AE46+AF46+CJ46+IF(AG46&gt;AI46,AG46-AI46,0)+IF(AH46&gt;AJ46,AH46-AJ46,0)</f>
       </c>
       <c r="AL46" s="5" t="str">
         <f>K46*8*60+X46*60+AE46</f>
@@ -11923,7 +12766,7 @@
         <f>P46*8*60+AC46*60+AJ46</f>
       </c>
       <c r="AR46" s="5" t="str">
-        <f>AL46+AM46+IF(AN46&gt;AP46,AN46-AP46,0)+IF(AO46&gt;AQ46,AO46-AQ46,0)</f>
+        <f>AL46+AM46+CK46+IF(AN46&gt;AP46,AN46-AP46,0)+IF(AO46&gt;AQ46,AO46-AQ46,0)</f>
       </c>
       <c r="AS46" s="5" t="str">
         <f>AR46/60</f>
@@ -11932,19 +12775,19 @@
         <f>FLOOR(AS46/8,1)&amp;"."&amp;FLOOR(MOD(AS46,8),1)&amp;"."&amp;(MOD(AS46,8)-FLOOR(MOD(AS46,8),1))*60</f>
       </c>
       <c r="AU46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY46" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ46" s="5" t="str">
         <f>INT(LEFT(AU46,1))</f>
@@ -12041,6 +12884,24 @@
       </c>
       <c r="CE46" s="5" t="str">
         <f>FLOOR(CC46/8,1,1)&amp;"."&amp;FLOOR(MOD(CC46,8),1,1)&amp;"."&amp;(MOD(CC46,8)-FLOOR(MOD(CC46,8),1,1))*60</f>
+      </c>
+      <c r="CF46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG46" s="5" t="str">
+        <f>INT(LEFT(CF46,2))</f>
+      </c>
+      <c r="CH46" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF46,LEN(CF46)-2),1)=".",RIGHT(CF46,LEN(CF46)-3),RIGHT(CF46,LEN(CF46)-2))</f>
+      </c>
+      <c r="CI46" s="5" t="str">
+        <f>INT(LEFT(CH46,1))</f>
+      </c>
+      <c r="CJ46" s="5" t="str">
+        <f>RIGHT(CH46,LEN(CH46)-2)+0</f>
+      </c>
+      <c r="CK46" s="5" t="str">
+        <f>CG46*8*60+CI46*60+CJ46</f>
       </c>
     </row>
     <row r="47">
@@ -12048,31 +12909,31 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,2))</f>
@@ -12093,7 +12954,7 @@
         <f>INT(LEFT(H47,2))</f>
       </c>
       <c r="Q47" s="5" t="str">
-        <f>K47+L47+IF(M47&gt;O47,M47-O47,0)+IF(N47&gt;P47,N47-P47,0)</f>
+        <f>K47+L47+CG47+IF(M47&gt;O47,M47-O47,0)+IF(N47&gt;P47,N47-P47,0)</f>
       </c>
       <c r="R47" s="5" t="str">
         <f>IF(LEFT(RIGHT(E47,LEN(E47)-2),1)=".",RIGHT(E47,LEN(E47)-3),RIGHT(E47,LEN(E47)-2))</f>
@@ -12132,7 +12993,7 @@
         <f>INT(LEFT(W47,1))</f>
       </c>
       <c r="AD47" s="5" t="str">
-        <f>R47+S47+IF(T47&gt;V47,T47-V47,0)+IF(U47&gt;W47,U47-W47,0)</f>
+        <f>R47+S47+CH47+IF(T47&gt;V47,T47-V47,0)+IF(U47&gt;W47,U47-W47,0)</f>
       </c>
       <c r="AE47" s="5" t="str">
         <f>RIGHT(R47,LEN(R47)-2)+0</f>
@@ -12153,7 +13014,7 @@
         <f>RIGHT(W47,LEN(W47)-2)+0</f>
       </c>
       <c r="AK47" s="5" t="str">
-        <f>AE47+IF(AG47&gt;AI47,AG47-AI47,0)+IF(AH47&gt;AJ47,AH47-AJ47,0)</f>
+        <f>AE47+AF47+CJ47+IF(AG47&gt;AI47,AG47-AI47,0)+IF(AH47&gt;AJ47,AH47-AJ47,0)</f>
       </c>
       <c r="AL47" s="5" t="str">
         <f>K47*8*60+X47*60+AE47</f>
@@ -12174,7 +13035,7 @@
         <f>P47*8*60+AC47*60+AJ47</f>
       </c>
       <c r="AR47" s="5" t="str">
-        <f>AL47+AM47+IF(AN47&gt;AP47,AN47-AP47,0)+IF(AO47&gt;AQ47,AO47-AQ47,0)</f>
+        <f>AL47+AM47+CK47+IF(AN47&gt;AP47,AN47-AP47,0)+IF(AO47&gt;AQ47,AO47-AQ47,0)</f>
       </c>
       <c r="AS47" s="5" t="str">
         <f>AR47/60</f>
@@ -12183,19 +13044,19 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="AV47" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW47" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX47" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY47" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ47" s="5" t="str">
         <f>INT(LEFT(AU47,1))</f>
@@ -12292,6 +13153,24 @@
       </c>
       <c r="CE47" s="5" t="str">
         <f>FLOOR(CC47/8,1,1)&amp;"."&amp;FLOOR(MOD(CC47,8),1,1)&amp;"."&amp;(MOD(CC47,8)-FLOOR(MOD(CC47,8),1,1))*60</f>
+      </c>
+      <c r="CF47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG47" s="5" t="str">
+        <f>INT(LEFT(CF47,2))</f>
+      </c>
+      <c r="CH47" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF47,LEN(CF47)-2),1)=".",RIGHT(CF47,LEN(CF47)-3),RIGHT(CF47,LEN(CF47)-2))</f>
+      </c>
+      <c r="CI47" s="5" t="str">
+        <f>INT(LEFT(CH47,1))</f>
+      </c>
+      <c r="CJ47" s="5" t="str">
+        <f>RIGHT(CH47,LEN(CH47)-2)+0</f>
+      </c>
+      <c r="CK47" s="5" t="str">
+        <f>CG47*8*60+CI47*60+CJ47</f>
       </c>
     </row>
     <row r="48">
@@ -12299,31 +13178,31 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>INT(LEFT(E48,2))</f>
@@ -12344,7 +13223,7 @@
         <f>INT(LEFT(H48,2))</f>
       </c>
       <c r="Q48" s="5" t="str">
-        <f>K48+L48+IF(M48&gt;O48,M48-O48,0)+IF(N48&gt;P48,N48-P48,0)</f>
+        <f>K48+L48+CG48+IF(M48&gt;O48,M48-O48,0)+IF(N48&gt;P48,N48-P48,0)</f>
       </c>
       <c r="R48" s="5" t="str">
         <f>IF(LEFT(RIGHT(E48,LEN(E48)-2),1)=".",RIGHT(E48,LEN(E48)-3),RIGHT(E48,LEN(E48)-2))</f>
@@ -12383,7 +13262,7 @@
         <f>INT(LEFT(W48,1))</f>
       </c>
       <c r="AD48" s="5" t="str">
-        <f>R48+S48+IF(T48&gt;V48,T48-V48,0)+IF(U48&gt;W48,U48-W48,0)</f>
+        <f>R48+S48+CH48+IF(T48&gt;V48,T48-V48,0)+IF(U48&gt;W48,U48-W48,0)</f>
       </c>
       <c r="AE48" s="5" t="str">
         <f>RIGHT(R48,LEN(R48)-2)+0</f>
@@ -12404,7 +13283,7 @@
         <f>RIGHT(W48,LEN(W48)-2)+0</f>
       </c>
       <c r="AK48" s="5" t="str">
-        <f>AE48+IF(AG48&gt;AI48,AG48-AI48,0)+IF(AH48&gt;AJ48,AH48-AJ48,0)</f>
+        <f>AE48+AF48+CJ48+IF(AG48&gt;AI48,AG48-AI48,0)+IF(AH48&gt;AJ48,AH48-AJ48,0)</f>
       </c>
       <c r="AL48" s="5" t="str">
         <f>K48*8*60+X48*60+AE48</f>
@@ -12425,7 +13304,7 @@
         <f>P48*8*60+AC48*60+AJ48</f>
       </c>
       <c r="AR48" s="5" t="str">
-        <f>AL48+AM48+IF(AN48&gt;AP48,AN48-AP48,0)+IF(AO48&gt;AQ48,AO48-AQ48,0)</f>
+        <f>AL48+AM48+CK48+IF(AN48&gt;AP48,AN48-AP48,0)+IF(AO48&gt;AQ48,AO48-AQ48,0)</f>
       </c>
       <c r="AS48" s="5" t="str">
         <f>AR48/60</f>
@@ -12434,19 +13313,19 @@
         <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY48" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ48" s="5" t="str">
         <f>INT(LEFT(AU48,1))</f>
@@ -12543,6 +13422,24 @@
       </c>
       <c r="CE48" s="5" t="str">
         <f>FLOOR(CC48/8,1,1)&amp;"."&amp;FLOOR(MOD(CC48,8),1,1)&amp;"."&amp;(MOD(CC48,8)-FLOOR(MOD(CC48,8),1,1))*60</f>
+      </c>
+      <c r="CF48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG48" s="5" t="str">
+        <f>INT(LEFT(CF48,2))</f>
+      </c>
+      <c r="CH48" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF48,LEN(CF48)-2),1)=".",RIGHT(CF48,LEN(CF48)-3),RIGHT(CF48,LEN(CF48)-2))</f>
+      </c>
+      <c r="CI48" s="5" t="str">
+        <f>INT(LEFT(CH48,1))</f>
+      </c>
+      <c r="CJ48" s="5" t="str">
+        <f>RIGHT(CH48,LEN(CH48)-2)+0</f>
+      </c>
+      <c r="CK48" s="5" t="str">
+        <f>CG48*8*60+CI48*60+CJ48</f>
       </c>
     </row>
     <row r="49">
@@ -12550,31 +13447,31 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>INT(LEFT(E49,2))</f>
@@ -12595,7 +13492,7 @@
         <f>INT(LEFT(H49,2))</f>
       </c>
       <c r="Q49" s="5" t="str">
-        <f>K49+L49+IF(M49&gt;O49,M49-O49,0)+IF(N49&gt;P49,N49-P49,0)</f>
+        <f>K49+L49+CG49+IF(M49&gt;O49,M49-O49,0)+IF(N49&gt;P49,N49-P49,0)</f>
       </c>
       <c r="R49" s="5" t="str">
         <f>IF(LEFT(RIGHT(E49,LEN(E49)-2),1)=".",RIGHT(E49,LEN(E49)-3),RIGHT(E49,LEN(E49)-2))</f>
@@ -12634,7 +13531,7 @@
         <f>INT(LEFT(W49,1))</f>
       </c>
       <c r="AD49" s="5" t="str">
-        <f>R49+S49+IF(T49&gt;V49,T49-V49,0)+IF(U49&gt;W49,U49-W49,0)</f>
+        <f>R49+S49+CH49+IF(T49&gt;V49,T49-V49,0)+IF(U49&gt;W49,U49-W49,0)</f>
       </c>
       <c r="AE49" s="5" t="str">
         <f>RIGHT(R49,LEN(R49)-2)+0</f>
@@ -12655,7 +13552,7 @@
         <f>RIGHT(W49,LEN(W49)-2)+0</f>
       </c>
       <c r="AK49" s="5" t="str">
-        <f>AE49+IF(AG49&gt;AI49,AG49-AI49,0)+IF(AH49&gt;AJ49,AH49-AJ49,0)</f>
+        <f>AE49+AF49+CJ49+IF(AG49&gt;AI49,AG49-AI49,0)+IF(AH49&gt;AJ49,AH49-AJ49,0)</f>
       </c>
       <c r="AL49" s="5" t="str">
         <f>K49*8*60+X49*60+AE49</f>
@@ -12676,7 +13573,7 @@
         <f>P49*8*60+AC49*60+AJ49</f>
       </c>
       <c r="AR49" s="5" t="str">
-        <f>AL49+AM49+IF(AN49&gt;AP49,AN49-AP49,0)+IF(AO49&gt;AQ49,AO49-AQ49,0)</f>
+        <f>AL49+AM49+CK49+IF(AN49&gt;AP49,AN49-AP49,0)+IF(AO49&gt;AQ49,AO49-AQ49,0)</f>
       </c>
       <c r="AS49" s="5" t="str">
         <f>AR49/60</f>
@@ -12685,19 +13582,19 @@
         <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW49" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX49" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY49" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ49" s="5" t="str">
         <f>INT(LEFT(AU49,1))</f>
@@ -12794,6 +13691,24 @@
       </c>
       <c r="CE49" s="5" t="str">
         <f>FLOOR(CC49/8,1,1)&amp;"."&amp;FLOOR(MOD(CC49,8),1,1)&amp;"."&amp;(MOD(CC49,8)-FLOOR(MOD(CC49,8),1,1))*60</f>
+      </c>
+      <c r="CF49" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="CG49" s="5" t="str">
+        <f>INT(LEFT(CF49,2))</f>
+      </c>
+      <c r="CH49" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF49,LEN(CF49)-2),1)=".",RIGHT(CF49,LEN(CF49)-3),RIGHT(CF49,LEN(CF49)-2))</f>
+      </c>
+      <c r="CI49" s="5" t="str">
+        <f>INT(LEFT(CH49,1))</f>
+      </c>
+      <c r="CJ49" s="5" t="str">
+        <f>RIGHT(CH49,LEN(CH49)-2)+0</f>
+      </c>
+      <c r="CK49" s="5" t="str">
+        <f>CG49*8*60+CI49*60+CJ49</f>
       </c>
     </row>
     <row r="50">
@@ -12801,31 +13716,31 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>INT(LEFT(E50,2))</f>
@@ -12846,7 +13761,7 @@
         <f>INT(LEFT(H50,2))</f>
       </c>
       <c r="Q50" s="5" t="str">
-        <f>K50+L50+IF(M50&gt;O50,M50-O50,0)+IF(N50&gt;P50,N50-P50,0)</f>
+        <f>K50+L50+CG50+IF(M50&gt;O50,M50-O50,0)+IF(N50&gt;P50,N50-P50,0)</f>
       </c>
       <c r="R50" s="5" t="str">
         <f>IF(LEFT(RIGHT(E50,LEN(E50)-2),1)=".",RIGHT(E50,LEN(E50)-3),RIGHT(E50,LEN(E50)-2))</f>
@@ -12885,7 +13800,7 @@
         <f>INT(LEFT(W50,1))</f>
       </c>
       <c r="AD50" s="5" t="str">
-        <f>R50+S50+IF(T50&gt;V50,T50-V50,0)+IF(U50&gt;W50,U50-W50,0)</f>
+        <f>R50+S50+CH50+IF(T50&gt;V50,T50-V50,0)+IF(U50&gt;W50,U50-W50,0)</f>
       </c>
       <c r="AE50" s="5" t="str">
         <f>RIGHT(R50,LEN(R50)-2)+0</f>
@@ -12906,7 +13821,7 @@
         <f>RIGHT(W50,LEN(W50)-2)+0</f>
       </c>
       <c r="AK50" s="5" t="str">
-        <f>AE50+IF(AG50&gt;AI50,AG50-AI50,0)+IF(AH50&gt;AJ50,AH50-AJ50,0)</f>
+        <f>AE50+AF50+CJ50+IF(AG50&gt;AI50,AG50-AI50,0)+IF(AH50&gt;AJ50,AH50-AJ50,0)</f>
       </c>
       <c r="AL50" s="5" t="str">
         <f>K50*8*60+X50*60+AE50</f>
@@ -12927,7 +13842,7 @@
         <f>P50*8*60+AC50*60+AJ50</f>
       </c>
       <c r="AR50" s="5" t="str">
-        <f>AL50+AM50+IF(AN50&gt;AP50,AN50-AP50,0)+IF(AO50&gt;AQ50,AO50-AQ50,0)</f>
+        <f>AL50+AM50+CK50+IF(AN50&gt;AP50,AN50-AP50,0)+IF(AO50&gt;AQ50,AO50-AQ50,0)</f>
       </c>
       <c r="AS50" s="5" t="str">
         <f>AR50/60</f>
@@ -12936,19 +13851,19 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY50" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ50" s="5" t="str">
         <f>INT(LEFT(AU50,1))</f>
@@ -13045,6 +13960,24 @@
       </c>
       <c r="CE50" s="5" t="str">
         <f>FLOOR(CC50/8,1,1)&amp;"."&amp;FLOOR(MOD(CC50,8),1,1)&amp;"."&amp;(MOD(CC50,8)-FLOOR(MOD(CC50,8),1,1))*60</f>
+      </c>
+      <c r="CF50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="CG50" s="5" t="str">
+        <f>INT(LEFT(CF50,2))</f>
+      </c>
+      <c r="CH50" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF50,LEN(CF50)-2),1)=".",RIGHT(CF50,LEN(CF50)-3),RIGHT(CF50,LEN(CF50)-2))</f>
+      </c>
+      <c r="CI50" s="5" t="str">
+        <f>INT(LEFT(CH50,1))</f>
+      </c>
+      <c r="CJ50" s="5" t="str">
+        <f>RIGHT(CH50,LEN(CH50)-2)+0</f>
+      </c>
+      <c r="CK50" s="5" t="str">
+        <f>CG50*8*60+CI50*60+CJ50</f>
       </c>
     </row>
     <row r="51">
@@ -13052,31 +13985,31 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>INT(LEFT(E51,2))</f>
@@ -13097,7 +14030,7 @@
         <f>INT(LEFT(H51,2))</f>
       </c>
       <c r="Q51" s="5" t="str">
-        <f>K51+L51+IF(M51&gt;O51,M51-O51,0)+IF(N51&gt;P51,N51-P51,0)</f>
+        <f>K51+L51+CG51+IF(M51&gt;O51,M51-O51,0)+IF(N51&gt;P51,N51-P51,0)</f>
       </c>
       <c r="R51" s="5" t="str">
         <f>IF(LEFT(RIGHT(E51,LEN(E51)-2),1)=".",RIGHT(E51,LEN(E51)-3),RIGHT(E51,LEN(E51)-2))</f>
@@ -13136,7 +14069,7 @@
         <f>INT(LEFT(W51,1))</f>
       </c>
       <c r="AD51" s="5" t="str">
-        <f>R51+S51+IF(T51&gt;V51,T51-V51,0)+IF(U51&gt;W51,U51-W51,0)</f>
+        <f>R51+S51+CH51+IF(T51&gt;V51,T51-V51,0)+IF(U51&gt;W51,U51-W51,0)</f>
       </c>
       <c r="AE51" s="5" t="str">
         <f>RIGHT(R51,LEN(R51)-2)+0</f>
@@ -13157,7 +14090,7 @@
         <f>RIGHT(W51,LEN(W51)-2)+0</f>
       </c>
       <c r="AK51" s="5" t="str">
-        <f>AE51+IF(AG51&gt;AI51,AG51-AI51,0)+IF(AH51&gt;AJ51,AH51-AJ51,0)</f>
+        <f>AE51+AF51+CJ51+IF(AG51&gt;AI51,AG51-AI51,0)+IF(AH51&gt;AJ51,AH51-AJ51,0)</f>
       </c>
       <c r="AL51" s="5" t="str">
         <f>K51*8*60+X51*60+AE51</f>
@@ -13178,7 +14111,7 @@
         <f>P51*8*60+AC51*60+AJ51</f>
       </c>
       <c r="AR51" s="5" t="str">
-        <f>AL51+AM51+IF(AN51&gt;AP51,AN51-AP51,0)+IF(AO51&gt;AQ51,AO51-AQ51,0)</f>
+        <f>AL51+AM51+CK51+IF(AN51&gt;AP51,AN51-AP51,0)+IF(AO51&gt;AQ51,AO51-AQ51,0)</f>
       </c>
       <c r="AS51" s="5" t="str">
         <f>AR51/60</f>
@@ -13187,19 +14120,19 @@
         <f>FLOOR(AS51/8,1)&amp;"."&amp;FLOOR(MOD(AS51,8),1)&amp;"."&amp;(MOD(AS51,8)-FLOOR(MOD(AS51,8),1))*60</f>
       </c>
       <c r="AU51" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV51" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW51" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX51" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY51" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ51" s="5" t="str">
         <f>INT(LEFT(AU51,1))</f>
@@ -13296,6 +14229,24 @@
       </c>
       <c r="CE51" s="5" t="str">
         <f>FLOOR(CC51/8,1,1)&amp;"."&amp;FLOOR(MOD(CC51,8),1,1)&amp;"."&amp;(MOD(CC51,8)-FLOOR(MOD(CC51,8),1,1))*60</f>
+      </c>
+      <c r="CF51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG51" s="5" t="str">
+        <f>INT(LEFT(CF51,2))</f>
+      </c>
+      <c r="CH51" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF51,LEN(CF51)-2),1)=".",RIGHT(CF51,LEN(CF51)-3),RIGHT(CF51,LEN(CF51)-2))</f>
+      </c>
+      <c r="CI51" s="5" t="str">
+        <f>INT(LEFT(CH51,1))</f>
+      </c>
+      <c r="CJ51" s="5" t="str">
+        <f>RIGHT(CH51,LEN(CH51)-2)+0</f>
+      </c>
+      <c r="CK51" s="5" t="str">
+        <f>CG51*8*60+CI51*60+CJ51</f>
       </c>
     </row>
     <row r="52">
@@ -13303,31 +14254,31 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>INT(LEFT(E52,2))</f>
@@ -13348,7 +14299,7 @@
         <f>INT(LEFT(H52,2))</f>
       </c>
       <c r="Q52" s="5" t="str">
-        <f>K52+L52+IF(M52&gt;O52,M52-O52,0)+IF(N52&gt;P52,N52-P52,0)</f>
+        <f>K52+L52+CG52+IF(M52&gt;O52,M52-O52,0)+IF(N52&gt;P52,N52-P52,0)</f>
       </c>
       <c r="R52" s="5" t="str">
         <f>IF(LEFT(RIGHT(E52,LEN(E52)-2),1)=".",RIGHT(E52,LEN(E52)-3),RIGHT(E52,LEN(E52)-2))</f>
@@ -13387,7 +14338,7 @@
         <f>INT(LEFT(W52,1))</f>
       </c>
       <c r="AD52" s="5" t="str">
-        <f>R52+S52+IF(T52&gt;V52,T52-V52,0)+IF(U52&gt;W52,U52-W52,0)</f>
+        <f>R52+S52+CH52+IF(T52&gt;V52,T52-V52,0)+IF(U52&gt;W52,U52-W52,0)</f>
       </c>
       <c r="AE52" s="5" t="str">
         <f>RIGHT(R52,LEN(R52)-2)+0</f>
@@ -13408,7 +14359,7 @@
         <f>RIGHT(W52,LEN(W52)-2)+0</f>
       </c>
       <c r="AK52" s="5" t="str">
-        <f>AE52+IF(AG52&gt;AI52,AG52-AI52,0)+IF(AH52&gt;AJ52,AH52-AJ52,0)</f>
+        <f>AE52+AF52+CJ52+IF(AG52&gt;AI52,AG52-AI52,0)+IF(AH52&gt;AJ52,AH52-AJ52,0)</f>
       </c>
       <c r="AL52" s="5" t="str">
         <f>K52*8*60+X52*60+AE52</f>
@@ -13429,7 +14380,7 @@
         <f>P52*8*60+AC52*60+AJ52</f>
       </c>
       <c r="AR52" s="5" t="str">
-        <f>AL52+AM52+IF(AN52&gt;AP52,AN52-AP52,0)+IF(AO52&gt;AQ52,AO52-AQ52,0)</f>
+        <f>AL52+AM52+CK52+IF(AN52&gt;AP52,AN52-AP52,0)+IF(AO52&gt;AQ52,AO52-AQ52,0)</f>
       </c>
       <c r="AS52" s="5" t="str">
         <f>AR52/60</f>
@@ -13438,19 +14389,19 @@
         <f>FLOOR(AS52/8,1)&amp;"."&amp;FLOOR(MOD(AS52,8),1)&amp;"."&amp;(MOD(AS52,8)-FLOOR(MOD(AS52,8),1))*60</f>
       </c>
       <c r="AU52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY52" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ52" s="5" t="str">
         <f>INT(LEFT(AU52,1))</f>
@@ -13547,6 +14498,24 @@
       </c>
       <c r="CE52" s="5" t="str">
         <f>FLOOR(CC52/8,1,1)&amp;"."&amp;FLOOR(MOD(CC52,8),1,1)&amp;"."&amp;(MOD(CC52,8)-FLOOR(MOD(CC52,8),1,1))*60</f>
+      </c>
+      <c r="CF52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="CG52" s="5" t="str">
+        <f>INT(LEFT(CF52,2))</f>
+      </c>
+      <c r="CH52" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF52,LEN(CF52)-2),1)=".",RIGHT(CF52,LEN(CF52)-3),RIGHT(CF52,LEN(CF52)-2))</f>
+      </c>
+      <c r="CI52" s="5" t="str">
+        <f>INT(LEFT(CH52,1))</f>
+      </c>
+      <c r="CJ52" s="5" t="str">
+        <f>RIGHT(CH52,LEN(CH52)-2)+0</f>
+      </c>
+      <c r="CK52" s="5" t="str">
+        <f>CG52*8*60+CI52*60+CJ52</f>
       </c>
     </row>
     <row r="53">
@@ -13554,31 +14523,31 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -13599,7 +14568,7 @@
         <f>INT(LEFT(H53,2))</f>
       </c>
       <c r="Q53" s="5" t="str">
-        <f>K53+L53+IF(M53&gt;O53,M53-O53,0)+IF(N53&gt;P53,N53-P53,0)</f>
+        <f>K53+L53+CG53+IF(M53&gt;O53,M53-O53,0)+IF(N53&gt;P53,N53-P53,0)</f>
       </c>
       <c r="R53" s="5" t="str">
         <f>IF(LEFT(RIGHT(E53,LEN(E53)-2),1)=".",RIGHT(E53,LEN(E53)-3),RIGHT(E53,LEN(E53)-2))</f>
@@ -13638,7 +14607,7 @@
         <f>INT(LEFT(W53,1))</f>
       </c>
       <c r="AD53" s="5" t="str">
-        <f>R53+S53+IF(T53&gt;V53,T53-V53,0)+IF(U53&gt;W53,U53-W53,0)</f>
+        <f>R53+S53+CH53+IF(T53&gt;V53,T53-V53,0)+IF(U53&gt;W53,U53-W53,0)</f>
       </c>
       <c r="AE53" s="5" t="str">
         <f>RIGHT(R53,LEN(R53)-2)+0</f>
@@ -13659,7 +14628,7 @@
         <f>RIGHT(W53,LEN(W53)-2)+0</f>
       </c>
       <c r="AK53" s="5" t="str">
-        <f>AE53+IF(AG53&gt;AI53,AG53-AI53,0)+IF(AH53&gt;AJ53,AH53-AJ53,0)</f>
+        <f>AE53+AF53+CJ53+IF(AG53&gt;AI53,AG53-AI53,0)+IF(AH53&gt;AJ53,AH53-AJ53,0)</f>
       </c>
       <c r="AL53" s="5" t="str">
         <f>K53*8*60+X53*60+AE53</f>
@@ -13680,7 +14649,7 @@
         <f>P53*8*60+AC53*60+AJ53</f>
       </c>
       <c r="AR53" s="5" t="str">
-        <f>AL53+AM53+IF(AN53&gt;AP53,AN53-AP53,0)+IF(AO53&gt;AQ53,AO53-AQ53,0)</f>
+        <f>AL53+AM53+CK53+IF(AN53&gt;AP53,AN53-AP53,0)+IF(AO53&gt;AQ53,AO53-AQ53,0)</f>
       </c>
       <c r="AS53" s="5" t="str">
         <f>AR53/60</f>
@@ -13689,19 +14658,19 @@
         <f>FLOOR(AS53/8,1)&amp;"."&amp;FLOOR(MOD(AS53,8),1)&amp;"."&amp;(MOD(AS53,8)-FLOOR(MOD(AS53,8),1))*60</f>
       </c>
       <c r="AU53" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV53" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW53" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX53" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY53" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ53" s="5" t="str">
         <f>INT(LEFT(AU53,1))</f>
@@ -13798,6 +14767,24 @@
       </c>
       <c r="CE53" s="5" t="str">
         <f>FLOOR(CC53/8,1,1)&amp;"."&amp;FLOOR(MOD(CC53,8),1,1)&amp;"."&amp;(MOD(CC53,8)-FLOOR(MOD(CC53,8),1,1))*60</f>
+      </c>
+      <c r="CF53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="CG53" s="5" t="str">
+        <f>INT(LEFT(CF53,2))</f>
+      </c>
+      <c r="CH53" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF53,LEN(CF53)-2),1)=".",RIGHT(CF53,LEN(CF53)-3),RIGHT(CF53,LEN(CF53)-2))</f>
+      </c>
+      <c r="CI53" s="5" t="str">
+        <f>INT(LEFT(CH53,1))</f>
+      </c>
+      <c r="CJ53" s="5" t="str">
+        <f>RIGHT(CH53,LEN(CH53)-2)+0</f>
+      </c>
+      <c r="CK53" s="5" t="str">
+        <f>CG53*8*60+CI53*60+CJ53</f>
       </c>
     </row>
     <row r="54">
@@ -13805,31 +14792,31 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K54" s="5" t="str">
         <f>INT(LEFT(E54,2))</f>
@@ -13850,7 +14837,7 @@
         <f>INT(LEFT(H54,2))</f>
       </c>
       <c r="Q54" s="5" t="str">
-        <f>K54+L54+IF(M54&gt;O54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
+        <f>K54+L54+CG54+IF(M54&gt;O54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
       </c>
       <c r="R54" s="5" t="str">
         <f>IF(LEFT(RIGHT(E54,LEN(E54)-2),1)=".",RIGHT(E54,LEN(E54)-3),RIGHT(E54,LEN(E54)-2))</f>
@@ -13889,7 +14876,7 @@
         <f>INT(LEFT(W54,1))</f>
       </c>
       <c r="AD54" s="5" t="str">
-        <f>R54+S54+IF(T54&gt;V54,T54-V54,0)+IF(U54&gt;W54,U54-W54,0)</f>
+        <f>R54+S54+CH54+IF(T54&gt;V54,T54-V54,0)+IF(U54&gt;W54,U54-W54,0)</f>
       </c>
       <c r="AE54" s="5" t="str">
         <f>RIGHT(R54,LEN(R54)-2)+0</f>
@@ -13910,7 +14897,7 @@
         <f>RIGHT(W54,LEN(W54)-2)+0</f>
       </c>
       <c r="AK54" s="5" t="str">
-        <f>AE54+IF(AG54&gt;AI54,AG54-AI54,0)+IF(AH54&gt;AJ54,AH54-AJ54,0)</f>
+        <f>AE54+AF54+CJ54+IF(AG54&gt;AI54,AG54-AI54,0)+IF(AH54&gt;AJ54,AH54-AJ54,0)</f>
       </c>
       <c r="AL54" s="5" t="str">
         <f>K54*8*60+X54*60+AE54</f>
@@ -13931,7 +14918,7 @@
         <f>P54*8*60+AC54*60+AJ54</f>
       </c>
       <c r="AR54" s="5" t="str">
-        <f>AL54+AM54+IF(AN54&gt;AP54,AN54-AP54,0)+IF(AO54&gt;AQ54,AO54-AQ54,0)</f>
+        <f>AL54+AM54+CK54+IF(AN54&gt;AP54,AN54-AP54,0)+IF(AO54&gt;AQ54,AO54-AQ54,0)</f>
       </c>
       <c r="AS54" s="5" t="str">
         <f>AR54/60</f>
@@ -13940,19 +14927,19 @@
         <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
       </c>
       <c r="AU54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY54" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ54" s="5" t="str">
         <f>INT(LEFT(AU54,1))</f>
@@ -14049,6 +15036,24 @@
       </c>
       <c r="CE54" s="5" t="str">
         <f>FLOOR(CC54/8,1,1)&amp;"."&amp;FLOOR(MOD(CC54,8),1,1)&amp;"."&amp;(MOD(CC54,8)-FLOOR(MOD(CC54,8),1,1))*60</f>
+      </c>
+      <c r="CF54" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG54" s="5" t="str">
+        <f>INT(LEFT(CF54,2))</f>
+      </c>
+      <c r="CH54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF54,LEN(CF54)-2),1)=".",RIGHT(CF54,LEN(CF54)-3),RIGHT(CF54,LEN(CF54)-2))</f>
+      </c>
+      <c r="CI54" s="5" t="str">
+        <f>INT(LEFT(CH54,1))</f>
+      </c>
+      <c r="CJ54" s="5" t="str">
+        <f>RIGHT(CH54,LEN(CH54)-2)+0</f>
+      </c>
+      <c r="CK54" s="5" t="str">
+        <f>CG54*8*60+CI54*60+CJ54</f>
       </c>
     </row>
     <row r="55">
@@ -14056,31 +15061,31 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K55" s="5" t="str">
         <f>INT(LEFT(E55,2))</f>
@@ -14101,7 +15106,7 @@
         <f>INT(LEFT(H55,2))</f>
       </c>
       <c r="Q55" s="5" t="str">
-        <f>K55+L55+IF(M55&gt;O55,M55-O55,0)+IF(N55&gt;P55,N55-P55,0)</f>
+        <f>K55+L55+CG55+IF(M55&gt;O55,M55-O55,0)+IF(N55&gt;P55,N55-P55,0)</f>
       </c>
       <c r="R55" s="5" t="str">
         <f>IF(LEFT(RIGHT(E55,LEN(E55)-2),1)=".",RIGHT(E55,LEN(E55)-3),RIGHT(E55,LEN(E55)-2))</f>
@@ -14140,7 +15145,7 @@
         <f>INT(LEFT(W55,1))</f>
       </c>
       <c r="AD55" s="5" t="str">
-        <f>R55+S55+IF(T55&gt;V55,T55-V55,0)+IF(U55&gt;W55,U55-W55,0)</f>
+        <f>R55+S55+CH55+IF(T55&gt;V55,T55-V55,0)+IF(U55&gt;W55,U55-W55,0)</f>
       </c>
       <c r="AE55" s="5" t="str">
         <f>RIGHT(R55,LEN(R55)-2)+0</f>
@@ -14161,7 +15166,7 @@
         <f>RIGHT(W55,LEN(W55)-2)+0</f>
       </c>
       <c r="AK55" s="5" t="str">
-        <f>AE55+IF(AG55&gt;AI55,AG55-AI55,0)+IF(AH55&gt;AJ55,AH55-AJ55,0)</f>
+        <f>AE55+AF55+CJ55+IF(AG55&gt;AI55,AG55-AI55,0)+IF(AH55&gt;AJ55,AH55-AJ55,0)</f>
       </c>
       <c r="AL55" s="5" t="str">
         <f>K55*8*60+X55*60+AE55</f>
@@ -14182,7 +15187,7 @@
         <f>P55*8*60+AC55*60+AJ55</f>
       </c>
       <c r="AR55" s="5" t="str">
-        <f>AL55+AM55+IF(AN55&gt;AP55,AN55-AP55,0)+IF(AO55&gt;AQ55,AO55-AQ55,0)</f>
+        <f>AL55+AM55+CK55+IF(AN55&gt;AP55,AN55-AP55,0)+IF(AO55&gt;AQ55,AO55-AQ55,0)</f>
       </c>
       <c r="AS55" s="5" t="str">
         <f>AR55/60</f>
@@ -14191,19 +15196,19 @@
         <f>FLOOR(AS55/8,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1))*60</f>
       </c>
       <c r="AU55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY55" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ55" s="5" t="str">
         <f>INT(LEFT(AU55,1))</f>
@@ -14300,6 +15305,24 @@
       </c>
       <c r="CE55" s="5" t="str">
         <f>FLOOR(CC55/8,1,1)&amp;"."&amp;FLOOR(MOD(CC55,8),1,1)&amp;"."&amp;(MOD(CC55,8)-FLOOR(MOD(CC55,8),1,1))*60</f>
+      </c>
+      <c r="CF55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG55" s="5" t="str">
+        <f>INT(LEFT(CF55,2))</f>
+      </c>
+      <c r="CH55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF55,LEN(CF55)-2),1)=".",RIGHT(CF55,LEN(CF55)-3),RIGHT(CF55,LEN(CF55)-2))</f>
+      </c>
+      <c r="CI55" s="5" t="str">
+        <f>INT(LEFT(CH55,1))</f>
+      </c>
+      <c r="CJ55" s="5" t="str">
+        <f>RIGHT(CH55,LEN(CH55)-2)+0</f>
+      </c>
+      <c r="CK55" s="5" t="str">
+        <f>CG55*8*60+CI55*60+CJ55</f>
       </c>
     </row>
     <row r="56">
@@ -14307,31 +15330,31 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K56" s="5" t="str">
         <f>INT(LEFT(E56,2))</f>
@@ -14352,7 +15375,7 @@
         <f>INT(LEFT(H56,2))</f>
       </c>
       <c r="Q56" s="5" t="str">
-        <f>K56+L56+IF(M56&gt;O56,M56-O56,0)+IF(N56&gt;P56,N56-P56,0)</f>
+        <f>K56+L56+CG56+IF(M56&gt;O56,M56-O56,0)+IF(N56&gt;P56,N56-P56,0)</f>
       </c>
       <c r="R56" s="5" t="str">
         <f>IF(LEFT(RIGHT(E56,LEN(E56)-2),1)=".",RIGHT(E56,LEN(E56)-3),RIGHT(E56,LEN(E56)-2))</f>
@@ -14391,7 +15414,7 @@
         <f>INT(LEFT(W56,1))</f>
       </c>
       <c r="AD56" s="5" t="str">
-        <f>R56+S56+IF(T56&gt;V56,T56-V56,0)+IF(U56&gt;W56,U56-W56,0)</f>
+        <f>R56+S56+CH56+IF(T56&gt;V56,T56-V56,0)+IF(U56&gt;W56,U56-W56,0)</f>
       </c>
       <c r="AE56" s="5" t="str">
         <f>RIGHT(R56,LEN(R56)-2)+0</f>
@@ -14412,7 +15435,7 @@
         <f>RIGHT(W56,LEN(W56)-2)+0</f>
       </c>
       <c r="AK56" s="5" t="str">
-        <f>AE56+IF(AG56&gt;AI56,AG56-AI56,0)+IF(AH56&gt;AJ56,AH56-AJ56,0)</f>
+        <f>AE56+AF56+CJ56+IF(AG56&gt;AI56,AG56-AI56,0)+IF(AH56&gt;AJ56,AH56-AJ56,0)</f>
       </c>
       <c r="AL56" s="5" t="str">
         <f>K56*8*60+X56*60+AE56</f>
@@ -14433,7 +15456,7 @@
         <f>P56*8*60+AC56*60+AJ56</f>
       </c>
       <c r="AR56" s="5" t="str">
-        <f>AL56+AM56+IF(AN56&gt;AP56,AN56-AP56,0)+IF(AO56&gt;AQ56,AO56-AQ56,0)</f>
+        <f>AL56+AM56+CK56+IF(AN56&gt;AP56,AN56-AP56,0)+IF(AO56&gt;AQ56,AO56-AQ56,0)</f>
       </c>
       <c r="AS56" s="5" t="str">
         <f>AR56/60</f>
@@ -14442,19 +15465,19 @@
         <f>FLOOR(AS56/8,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1))*60</f>
       </c>
       <c r="AU56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY56" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ56" s="5" t="str">
         <f>INT(LEFT(AU56,1))</f>
@@ -14551,6 +15574,24 @@
       </c>
       <c r="CE56" s="5" t="str">
         <f>FLOOR(CC56/8,1,1)&amp;"."&amp;FLOOR(MOD(CC56,8),1,1)&amp;"."&amp;(MOD(CC56,8)-FLOOR(MOD(CC56,8),1,1))*60</f>
+      </c>
+      <c r="CF56" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="CG56" s="5" t="str">
+        <f>INT(LEFT(CF56,2))</f>
+      </c>
+      <c r="CH56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF56,LEN(CF56)-2),1)=".",RIGHT(CF56,LEN(CF56)-3),RIGHT(CF56,LEN(CF56)-2))</f>
+      </c>
+      <c r="CI56" s="5" t="str">
+        <f>INT(LEFT(CH56,1))</f>
+      </c>
+      <c r="CJ56" s="5" t="str">
+        <f>RIGHT(CH56,LEN(CH56)-2)+0</f>
+      </c>
+      <c r="CK56" s="5" t="str">
+        <f>CG56*8*60+CI56*60+CJ56</f>
       </c>
     </row>
     <row r="57">
@@ -14558,31 +15599,31 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>INT(LEFT(E57,2))</f>
@@ -14603,7 +15644,7 @@
         <f>INT(LEFT(H57,2))</f>
       </c>
       <c r="Q57" s="5" t="str">
-        <f>K57+L57+IF(M57&gt;O57,M57-O57,0)+IF(N57&gt;P57,N57-P57,0)</f>
+        <f>K57+L57+CG57+IF(M57&gt;O57,M57-O57,0)+IF(N57&gt;P57,N57-P57,0)</f>
       </c>
       <c r="R57" s="5" t="str">
         <f>IF(LEFT(RIGHT(E57,LEN(E57)-2),1)=".",RIGHT(E57,LEN(E57)-3),RIGHT(E57,LEN(E57)-2))</f>
@@ -14642,7 +15683,7 @@
         <f>INT(LEFT(W57,1))</f>
       </c>
       <c r="AD57" s="5" t="str">
-        <f>R57+S57+IF(T57&gt;V57,T57-V57,0)+IF(U57&gt;W57,U57-W57,0)</f>
+        <f>R57+S57+CH57+IF(T57&gt;V57,T57-V57,0)+IF(U57&gt;W57,U57-W57,0)</f>
       </c>
       <c r="AE57" s="5" t="str">
         <f>RIGHT(R57,LEN(R57)-2)+0</f>
@@ -14663,7 +15704,7 @@
         <f>RIGHT(W57,LEN(W57)-2)+0</f>
       </c>
       <c r="AK57" s="5" t="str">
-        <f>AE57+IF(AG57&gt;AI57,AG57-AI57,0)+IF(AH57&gt;AJ57,AH57-AJ57,0)</f>
+        <f>AE57+AF57+CJ57+IF(AG57&gt;AI57,AG57-AI57,0)+IF(AH57&gt;AJ57,AH57-AJ57,0)</f>
       </c>
       <c r="AL57" s="5" t="str">
         <f>K57*8*60+X57*60+AE57</f>
@@ -14684,7 +15725,7 @@
         <f>P57*8*60+AC57*60+AJ57</f>
       </c>
       <c r="AR57" s="5" t="str">
-        <f>AL57+AM57+IF(AN57&gt;AP57,AN57-AP57,0)+IF(AO57&gt;AQ57,AO57-AQ57,0)</f>
+        <f>AL57+AM57+CK57+IF(AN57&gt;AP57,AN57-AP57,0)+IF(AO57&gt;AQ57,AO57-AQ57,0)</f>
       </c>
       <c r="AS57" s="5" t="str">
         <f>AR57/60</f>
@@ -14693,19 +15734,19 @@
         <f>FLOOR(AS57/8,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1))*60</f>
       </c>
       <c r="AU57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY57" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ57" s="5" t="str">
         <f>INT(LEFT(AU57,1))</f>
@@ -14802,6 +15843,24 @@
       </c>
       <c r="CE57" s="5" t="str">
         <f>FLOOR(CC57/8,1,1)&amp;"."&amp;FLOOR(MOD(CC57,8),1,1)&amp;"."&amp;(MOD(CC57,8)-FLOOR(MOD(CC57,8),1,1))*60</f>
+      </c>
+      <c r="CF57" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="CG57" s="5" t="str">
+        <f>INT(LEFT(CF57,2))</f>
+      </c>
+      <c r="CH57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF57,LEN(CF57)-2),1)=".",RIGHT(CF57,LEN(CF57)-3),RIGHT(CF57,LEN(CF57)-2))</f>
+      </c>
+      <c r="CI57" s="5" t="str">
+        <f>INT(LEFT(CH57,1))</f>
+      </c>
+      <c r="CJ57" s="5" t="str">
+        <f>RIGHT(CH57,LEN(CH57)-2)+0</f>
+      </c>
+      <c r="CK57" s="5" t="str">
+        <f>CG57*8*60+CI57*60+CJ57</f>
       </c>
     </row>
     <row r="58">
@@ -14809,31 +15868,31 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K58" s="5" t="str">
         <f>INT(LEFT(E58,2))</f>
@@ -14854,7 +15913,7 @@
         <f>INT(LEFT(H58,2))</f>
       </c>
       <c r="Q58" s="5" t="str">
-        <f>K58+L58+IF(M58&gt;O58,M58-O58,0)+IF(N58&gt;P58,N58-P58,0)</f>
+        <f>K58+L58+CG58+IF(M58&gt;O58,M58-O58,0)+IF(N58&gt;P58,N58-P58,0)</f>
       </c>
       <c r="R58" s="5" t="str">
         <f>IF(LEFT(RIGHT(E58,LEN(E58)-2),1)=".",RIGHT(E58,LEN(E58)-3),RIGHT(E58,LEN(E58)-2))</f>
@@ -14893,7 +15952,7 @@
         <f>INT(LEFT(W58,1))</f>
       </c>
       <c r="AD58" s="5" t="str">
-        <f>R58+S58+IF(T58&gt;V58,T58-V58,0)+IF(U58&gt;W58,U58-W58,0)</f>
+        <f>R58+S58+CH58+IF(T58&gt;V58,T58-V58,0)+IF(U58&gt;W58,U58-W58,0)</f>
       </c>
       <c r="AE58" s="5" t="str">
         <f>RIGHT(R58,LEN(R58)-2)+0</f>
@@ -14914,7 +15973,7 @@
         <f>RIGHT(W58,LEN(W58)-2)+0</f>
       </c>
       <c r="AK58" s="5" t="str">
-        <f>AE58+IF(AG58&gt;AI58,AG58-AI58,0)+IF(AH58&gt;AJ58,AH58-AJ58,0)</f>
+        <f>AE58+AF58+CJ58+IF(AG58&gt;AI58,AG58-AI58,0)+IF(AH58&gt;AJ58,AH58-AJ58,0)</f>
       </c>
       <c r="AL58" s="5" t="str">
         <f>K58*8*60+X58*60+AE58</f>
@@ -14935,7 +15994,7 @@
         <f>P58*8*60+AC58*60+AJ58</f>
       </c>
       <c r="AR58" s="5" t="str">
-        <f>AL58+AM58+IF(AN58&gt;AP58,AN58-AP58,0)+IF(AO58&gt;AQ58,AO58-AQ58,0)</f>
+        <f>AL58+AM58+CK58+IF(AN58&gt;AP58,AN58-AP58,0)+IF(AO58&gt;AQ58,AO58-AQ58,0)</f>
       </c>
       <c r="AS58" s="5" t="str">
         <f>AR58/60</f>
@@ -14944,19 +16003,19 @@
         <f>FLOOR(AS58/8,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1))*60</f>
       </c>
       <c r="AU58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AV58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AW58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AX58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AY58" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AZ58" s="5" t="str">
         <f>INT(LEFT(AU58,1))</f>
@@ -15053,17 +16112,36 @@
       </c>
       <c r="CE58" s="5" t="str">
         <f>FLOOR(CC58/8,1,1)&amp;"."&amp;FLOOR(MOD(CC58,8),1,1)&amp;"."&amp;(MOD(CC58,8)-FLOOR(MOD(CC58,8),1,1))*60</f>
+      </c>
+      <c r="CF58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG58" s="5" t="str">
+        <f>INT(LEFT(CF58,2))</f>
+      </c>
+      <c r="CH58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF58,LEN(CF58)-2),1)=".",RIGHT(CF58,LEN(CF58)-3),RIGHT(CF58,LEN(CF58)-2))</f>
+      </c>
+      <c r="CI58" s="5" t="str">
+        <f>INT(LEFT(CH58,1))</f>
+      </c>
+      <c r="CJ58" s="5" t="str">
+        <f>RIGHT(CH58,LEN(CH58)-2)+0</f>
+      </c>
+      <c r="CK58" s="5" t="str">
+        <f>CG58*8*60+CI58*60+CJ58</f>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
-  <mergeCells count="6">
-    <mergeCell ref="A1:CE1"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:CK1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="AU2:CE2"/>
+    <mergeCell ref="CF2:CK2"/>
   </mergeCells>
   <printOptions verticalCentered="false" horizontalCentered="false" headings="false" gridLines="false"/>
   <pageMargins right="0.75" left="0.75" bottom="1.0" top="1.0" footer="0.5" header="0.5"/>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,9 +9,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="179" xml:space="preserve">
-  <si>
-    <t>iRipple, Inc. | DTR Summary Sheet for the period March 21, 2015 to April 03, 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="185" xml:space="preserve">
+  <si>
+    <t>iRipple, Inc. | DTR Summary Sheet for the period April 25, 2015 to May 08, 2015</t>
   </si>
   <si>
     <t>Employee Information</t>
@@ -257,289 +257,307 @@
     <t>0.0.0</t>
   </si>
   <si>
+    <t>0.1.15</t>
+  </si>
+  <si>
     <t>7.4.0</t>
   </si>
   <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>4.4.0</t>
+  </si>
+  <si>
     <t>Ardamoy, Ma. Rica Catherine</t>
   </si>
   <si>
     <t>Enterprise - Petron</t>
   </si>
   <si>
+    <t>Bacani, Eddie Marie</t>
+  </si>
+  <si>
+    <t>International Business - Thailand</t>
+  </si>
+  <si>
+    <t>0.1.45</t>
+  </si>
+  <si>
+    <t>Balingit, Barbara</t>
+  </si>
+  <si>
+    <t>HR &amp;amp; Admin</t>
+  </si>
+  <si>
+    <t>Balino, Kamille Diane</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>0.0.30</t>
+  </si>
+  <si>
+    <t>Barrion, Jane Katherine</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>Bayogos, Charmaine</t>
+  </si>
+  <si>
+    <t>Enterprise - Ayagold</t>
+  </si>
+  <si>
+    <t>Bernardo, Gianilla Mae</t>
+  </si>
+  <si>
     <t>0.0.15</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
-    <t>Bacani, Eddie Marie</t>
-  </si>
-  <si>
-    <t>International Business - Thailand</t>
-  </si>
-  <si>
-    <t>Balingit, Barbara</t>
-  </si>
-  <si>
-    <t>HR &amp;amp; Admin</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Balino, Kamille Diane</t>
-  </si>
-  <si>
-    <t>Product</t>
+    <t>Borlagdan, Aldrin</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>Buena, Ian Christopher</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>Buenafe, Rajiv</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>Cataluna, Christian Gilbert</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>CaÃ±ete, Carol Ann</t>
   </si>
   <si>
     <t>0.0.45</t>
   </si>
   <si>
-    <t>Barrion, Jane Katherine</t>
-  </si>
-  <si>
-    <t>Bayogos, Charmaine</t>
-  </si>
-  <si>
-    <t>Enterprise - Ayagold</t>
-  </si>
-  <si>
-    <t>Borlagdan, Aldrin</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
-    <t>Buena, Ian Christopher</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Cerbo, Jaycer</t>
+  </si>
+  <si>
+    <t>Ching, Mark Angelo</t>
+  </si>
+  <si>
+    <t>Imaghine</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>0.1.30</t>
+  </si>
+  <si>
+    <t>Cortez, Jomar</t>
+  </si>
+  <si>
+    <t>Barter Local - Support</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>Cruz, Cesar</t>
   </si>
   <si>
     <t>1.4.0</t>
   </si>
   <si>
-    <t>Buenafe, Rajiv</t>
+    <t>Delfin, Jonathan</t>
+  </si>
+  <si>
+    <t>International Business - PNG</t>
+  </si>
+  <si>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>Dino, Arvin</t>
+  </si>
+  <si>
+    <t>0.2.15</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>Dy, Hubert</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Egamino, Ellen</t>
+  </si>
+  <si>
+    <t>Enrique, Christian Dan</t>
+  </si>
+  <si>
+    <t>Barter Local - Project</t>
+  </si>
+  <si>
+    <t>Espiritu, Carl Philip</t>
+  </si>
+  <si>
+    <t>0.3.45</t>
+  </si>
+  <si>
+    <t>Fadrilan, Liezl</t>
+  </si>
+  <si>
+    <t>Synext (Nexus)</t>
+  </si>
+  <si>
+    <t>Flores, Arianne Grace</t>
+  </si>
+  <si>
+    <t>Francisco, Roed Ronualdo </t>
+  </si>
+  <si>
+    <t>Javier, Victor </t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>Joson, Alfonso Miguel</t>
+  </si>
+  <si>
+    <t>0.2.45</t>
+  </si>
+  <si>
+    <t>Keng, Julie</t>
+  </si>
+  <si>
+    <t>8.4.0</t>
+  </si>
+  <si>
+    <t>Laude, Ted Marty</t>
+  </si>
+  <si>
+    <t>Mangundayao, Mac Donald</t>
+  </si>
+  <si>
+    <t>Barter CX</t>
+  </si>
+  <si>
+    <t>0.6.0</t>
+  </si>
+  <si>
+    <t>Matias, Ma. Jeremia Jetheth </t>
+  </si>
+  <si>
+    <t>0.4.15</t>
+  </si>
+  <si>
+    <t>Mendoza, Diana</t>
+  </si>
+  <si>
+    <t>Nagnal, Fracy</t>
+  </si>
+  <si>
+    <t>Newsom, Jifferson</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>Pajo, Maricel</t>
+  </si>
+  <si>
+    <t>Pancho, Jona</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>0.5.45</t>
+  </si>
+  <si>
+    <t>Pechuanging, Ma. Antoinette</t>
+  </si>
+  <si>
+    <t>Pendre, Contessa</t>
+  </si>
+  <si>
+    <t>Ranes, Jonathan</t>
+  </si>
+  <si>
+    <t>0.2.30</t>
   </si>
   <si>
     <t>4.0.0</t>
   </si>
   <si>
-    <t>3.0.0</t>
-  </si>
-  <si>
-    <t>Cataluna, Christian Gilbert</t>
-  </si>
-  <si>
-    <t>Sales</t>
+    <t>Reyes, Mark Gil</t>
+  </si>
+  <si>
+    <t>Reyes, Salvador</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Santos, Patricia</t>
+  </si>
+  <si>
+    <t>See, Jenilyn</t>
+  </si>
+  <si>
+    <t>Solbita, Felmar</t>
+  </si>
+  <si>
+    <t>Enterprise - Primer</t>
+  </si>
+  <si>
+    <t>Soriano, Josif Hans</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>Suarez, Katrina </t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>Tesoro, Rose Natalie</t>
+  </si>
+  <si>
+    <t>Unson, Mary Anne</t>
+  </si>
+  <si>
+    <t>Marketing &amp;amp; Hardware</t>
   </si>
   <si>
     <t>8.0.0</t>
-  </si>
-  <si>
-    <t>CaÃ±ete, Carol Ann</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>2.4.0</t>
-  </si>
-  <si>
-    <t>Cerbo, Jaycer</t>
-  </si>
-  <si>
-    <t>Ching, Mark Angelo</t>
-  </si>
-  <si>
-    <t>Imaghine</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
-  </si>
-  <si>
-    <t>3.4.0</t>
-  </si>
-  <si>
-    <t>Cortez, Jomar</t>
-  </si>
-  <si>
-    <t>Barter Local - Support</t>
-  </si>
-  <si>
-    <t>Cruz, Cesar</t>
-  </si>
-  <si>
-    <t>Delfin, Jonathan</t>
-  </si>
-  <si>
-    <t>International Business - PNG</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>Dino, Arvin</t>
-  </si>
-  <si>
-    <t>4.4.0</t>
-  </si>
-  <si>
-    <t>Dy, Hubert</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Egamino, Ellen</t>
-  </si>
-  <si>
-    <t>0.1.45</t>
-  </si>
-  <si>
-    <t>0.7.0</t>
-  </si>
-  <si>
-    <t>Enrique, Christian Dan</t>
-  </si>
-  <si>
-    <t>Barter Local - Project</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
-  </si>
-  <si>
-    <t>Espiritu, Carl Philip</t>
-  </si>
-  <si>
-    <t>1.3.0</t>
-  </si>
-  <si>
-    <t>Fadrilan, Liezl</t>
-  </si>
-  <si>
-    <t>Synext (Nexus)</t>
-  </si>
-  <si>
-    <t>Flores, Arianne Grace</t>
-  </si>
-  <si>
-    <t>1.7.0</t>
-  </si>
-  <si>
-    <t>Francisco, Roed Ronualdo </t>
-  </si>
-  <si>
-    <t>Javier, Victor </t>
-  </si>
-  <si>
-    <t>5.4.0</t>
-  </si>
-  <si>
-    <t>Joson, Alfonso Miguel</t>
-  </si>
-  <si>
-    <t>Keng, Julie</t>
-  </si>
-  <si>
-    <t>Laude, Ted Marty</t>
-  </si>
-  <si>
-    <t>Mangundayao, Mac Donald</t>
-  </si>
-  <si>
-    <t>Barter CX</t>
-  </si>
-  <si>
-    <t>0.0.30</t>
-  </si>
-  <si>
-    <t>Matias, Ma. Jeremia Jetheth </t>
-  </si>
-  <si>
-    <t>0.4.15</t>
-  </si>
-  <si>
-    <t>Mendoza, Diana</t>
-  </si>
-  <si>
-    <t>0.5.15</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>Nagnal, Fracy</t>
-  </si>
-  <si>
-    <t>Newsom, Jifferson</t>
-  </si>
-  <si>
-    <t>Pajo, Maricel</t>
-  </si>
-  <si>
-    <t>Pancho, Jona</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Pechuanging, Ma. Antoinette</t>
-  </si>
-  <si>
-    <t>Pendre, Contessa</t>
-  </si>
-  <si>
-    <t>Ranes, Jonathan</t>
-  </si>
-  <si>
-    <t>0.1.30</t>
-  </si>
-  <si>
-    <t>Reyes, Mark Gil</t>
-  </si>
-  <si>
-    <t>Reyes, Salvador</t>
-  </si>
-  <si>
-    <t>2.3.0</t>
-  </si>
-  <si>
-    <t>Santos, Patricia</t>
-  </si>
-  <si>
-    <t>See, Jenilyn</t>
-  </si>
-  <si>
-    <t>Solbita, Felmar</t>
-  </si>
-  <si>
-    <t>Enterprise - Primer</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>Soriano, Josif Hans</t>
-  </si>
-  <si>
-    <t>Suarez, Katrina </t>
-  </si>
-  <si>
-    <t>1.6.0</t>
-  </si>
-  <si>
-    <t>Tesoro, Rose Natalie</t>
-  </si>
-  <si>
-    <t>Unson, Mary Anne</t>
-  </si>
-  <si>
-    <t>Marketing &amp;amp; Hardware</t>
   </si>
   <si>
     <t>Viloria, Benito Jr.</t>
@@ -662,7 +680,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK54"/>
+  <dimension ref="A1:CK55"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="D4" state="frozenSplit" activePane="bottomRight" ySplit="3" xSplit="3"/>
@@ -1321,19 +1339,19 @@
         <v>81</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>INT(LEFT(E4,2))</f>
@@ -1447,7 +1465,7 @@
         <v>81</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AW4" s="5" t="s">
         <v>81</v>
@@ -1552,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="CE4" s="5" t="str">
-        <f>FLOOR(CC4/8,1,1)&amp;"."&amp;FLOOR(MOD(CC4,8),1,1)&amp;"."&amp;(MOD(CC4,8)-FLOOR(MOD(CC4,8),1,1))*60</f>
+        <f>FLOOR(CC4/8,1)&amp;"."&amp;FLOOR(MOD(CC4,8),1)&amp;"."&amp;(MOD(CC4,8)-FLOOR(MOD(CC4,8),1))*60</f>
       </c>
       <c r="CF4" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="CG4" s="5" t="str">
         <f>INT(LEFT(CF4,2))</f>
@@ -1578,31 +1596,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,2))</f>
@@ -1821,10 +1839,10 @@
         <v>0</v>
       </c>
       <c r="CE5" s="5" t="str">
-        <f>FLOOR(CC5/8,1,1)&amp;"."&amp;FLOOR(MOD(CC5,8),1,1)&amp;"."&amp;(MOD(CC5,8)-FLOOR(MOD(CC5,8),1,1))*60</f>
+        <f>FLOOR(CC5/8,1)&amp;"."&amp;FLOOR(MOD(CC5,8),1)&amp;"."&amp;(MOD(CC5,8)-FLOOR(MOD(CC5,8),1))*60</f>
       </c>
       <c r="CF5" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG5" s="5" t="str">
         <f>INT(LEFT(CF5,2))</f>
@@ -1847,31 +1865,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,2))</f>
@@ -2090,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="CE6" s="5" t="str">
-        <f>FLOOR(CC6/8,1,1)&amp;"."&amp;FLOOR(MOD(CC6,8),1,1)&amp;"."&amp;(MOD(CC6,8)-FLOOR(MOD(CC6,8),1,1))*60</f>
+        <f>FLOOR(CC6/8,1)&amp;"."&amp;FLOOR(MOD(CC6,8),1)&amp;"."&amp;(MOD(CC6,8)-FLOOR(MOD(CC6,8),1))*60</f>
       </c>
       <c r="CF6" s="5" t="s">
         <v>81</v>
@@ -2116,10 +2134,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0</v>
@@ -2134,13 +2152,13 @@
         <v>81</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>INT(LEFT(E7,2))</f>
@@ -2359,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="CE7" s="5" t="str">
-        <f>FLOOR(CC7/8,1,1)&amp;"."&amp;FLOOR(MOD(CC7,8),1,1)&amp;"."&amp;(MOD(CC7,8)-FLOOR(MOD(CC7,8),1,1))*60</f>
+        <f>FLOOR(CC7/8,1)&amp;"."&amp;FLOOR(MOD(CC7,8),1)&amp;"."&amp;(MOD(CC7,8)-FLOOR(MOD(CC7,8),1))*60</f>
       </c>
       <c r="CF7" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="CG7" s="5" t="str">
         <f>INT(LEFT(CF7,2))</f>
@@ -2385,16 +2403,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>81</v>
@@ -2403,13 +2421,13 @@
         <v>81</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>INT(LEFT(E8,2))</f>
@@ -2628,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="CE8" s="5" t="str">
-        <f>FLOOR(CC8/8,1,1)&amp;"."&amp;FLOOR(MOD(CC8,8),1,1)&amp;"."&amp;(MOD(CC8,8)-FLOOR(MOD(CC8,8),1,1))*60</f>
+        <f>FLOOR(CC8/8,1)&amp;"."&amp;FLOOR(MOD(CC8,8),1)&amp;"."&amp;(MOD(CC8,8)-FLOOR(MOD(CC8,8),1))*60</f>
       </c>
       <c r="CF8" s="5" t="s">
         <v>81</v>
@@ -2654,31 +2672,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,2))</f>
@@ -2897,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="CE9" s="5" t="str">
-        <f>FLOOR(CC9/8,1,1)&amp;"."&amp;FLOOR(MOD(CC9,8),1,1)&amp;"."&amp;(MOD(CC9,8)-FLOOR(MOD(CC9,8),1,1))*60</f>
+        <f>FLOOR(CC9/8,1)&amp;"."&amp;FLOOR(MOD(CC9,8),1)&amp;"."&amp;(MOD(CC9,8)-FLOOR(MOD(CC9,8),1))*60</f>
       </c>
       <c r="CF9" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="CG9" s="5" t="str">
         <f>INT(LEFT(CF9,2))</f>
@@ -2923,10 +2941,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
@@ -2938,16 +2956,16 @@
         <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K10" s="5" t="str">
         <f>INT(LEFT(E10,2))</f>
@@ -3058,7 +3076,7 @@
         <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>81</v>
@@ -3166,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="CE10" s="5" t="str">
-        <f>FLOOR(CC10/8,1,1)&amp;"."&amp;FLOOR(MOD(CC10,8),1,1)&amp;"."&amp;(MOD(CC10,8)-FLOOR(MOD(CC10,8),1,1))*60</f>
+        <f>FLOOR(CC10/8,1)&amp;"."&amp;FLOOR(MOD(CC10,8),1)&amp;"."&amp;(MOD(CC10,8)-FLOOR(MOD(CC10,8),1))*60</f>
       </c>
       <c r="CF10" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="CG10" s="5" t="str">
         <f>INT(LEFT(CF10,2))</f>
@@ -3192,31 +3210,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>INT(LEFT(E11,2))</f>
@@ -3435,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="CE11" s="5" t="str">
-        <f>FLOOR(CC11/8,1,1)&amp;"."&amp;FLOOR(MOD(CC11,8),1,1)&amp;"."&amp;(MOD(CC11,8)-FLOOR(MOD(CC11,8),1,1))*60</f>
+        <f>FLOOR(CC11/8,1)&amp;"."&amp;FLOOR(MOD(CC11,8),1)&amp;"."&amp;(MOD(CC11,8)-FLOOR(MOD(CC11,8),1))*60</f>
       </c>
       <c r="CF11" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG11" s="5" t="str">
         <f>INT(LEFT(CF11,2))</f>
@@ -3461,31 +3479,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="5" t="str">
         <f>INT(LEFT(E12,2))</f>
@@ -3704,10 +3722,10 @@
         <v>0</v>
       </c>
       <c r="CE12" s="5" t="str">
-        <f>FLOOR(CC12/8,1,1)&amp;"."&amp;FLOOR(MOD(CC12,8),1,1)&amp;"."&amp;(MOD(CC12,8)-FLOOR(MOD(CC12,8),1,1))*60</f>
+        <f>FLOOR(CC12/8,1)&amp;"."&amp;FLOOR(MOD(CC12,8),1)&amp;"."&amp;(MOD(CC12,8)-FLOOR(MOD(CC12,8),1))*60</f>
       </c>
       <c r="CF12" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="CG12" s="5" t="str">
         <f>INT(LEFT(CF12,2))</f>
@@ -3730,16 +3748,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>81</v>
@@ -3748,13 +3766,13 @@
         <v>81</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>INT(LEFT(E13,2))</f>
@@ -3973,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="CE13" s="5" t="str">
-        <f>FLOOR(CC13/8,1,1)&amp;"."&amp;FLOOR(MOD(CC13,8),1,1)&amp;"."&amp;(MOD(CC13,8)-FLOOR(MOD(CC13,8),1,1))*60</f>
+        <f>FLOOR(CC13/8,1)&amp;"."&amp;FLOOR(MOD(CC13,8),1)&amp;"."&amp;(MOD(CC13,8)-FLOOR(MOD(CC13,8),1))*60</f>
       </c>
       <c r="CF13" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CG13" s="5" t="str">
         <f>INT(LEFT(CF13,2))</f>
@@ -3999,10 +4017,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -4017,13 +4035,13 @@
         <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>INT(LEFT(E14,2))</f>
@@ -4242,10 +4260,10 @@
         <v>0</v>
       </c>
       <c r="CE14" s="5" t="str">
-        <f>FLOOR(CC14/8,1,1)&amp;"."&amp;FLOOR(MOD(CC14,8),1,1)&amp;"."&amp;(MOD(CC14,8)-FLOOR(MOD(CC14,8),1,1))*60</f>
+        <f>FLOOR(CC14/8,1)&amp;"."&amp;FLOOR(MOD(CC14,8),1)&amp;"."&amp;(MOD(CC14,8)-FLOOR(MOD(CC14,8),1))*60</f>
       </c>
       <c r="CF14" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="CG14" s="5" t="str">
         <f>INT(LEFT(CF14,2))</f>
@@ -4268,16 +4286,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>81</v>
@@ -4286,13 +4304,13 @@
         <v>81</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,2))</f>
@@ -4511,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="CE15" s="5" t="str">
-        <f>FLOOR(CC15/8,1,1)&amp;"."&amp;FLOOR(MOD(CC15,8),1,1)&amp;"."&amp;(MOD(CC15,8)-FLOOR(MOD(CC15,8),1,1))*60</f>
+        <f>FLOOR(CC15/8,1)&amp;"."&amp;FLOOR(MOD(CC15,8),1)&amp;"."&amp;(MOD(CC15,8)-FLOOR(MOD(CC15,8),1))*60</f>
       </c>
       <c r="CF15" s="5" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="CG15" s="5" t="str">
         <f>INT(LEFT(CF15,2))</f>
@@ -4543,25 +4561,25 @@
         <v>93</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>INT(LEFT(E16,2))</f>
@@ -4780,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="CE16" s="5" t="str">
-        <f>FLOOR(CC16/8,1,1)&amp;"."&amp;FLOOR(MOD(CC16,8),1,1)&amp;"."&amp;(MOD(CC16,8)-FLOOR(MOD(CC16,8),1,1))*60</f>
+        <f>FLOOR(CC16/8,1)&amp;"."&amp;FLOOR(MOD(CC16,8),1)&amp;"."&amp;(MOD(CC16,8)-FLOOR(MOD(CC16,8),1))*60</f>
       </c>
       <c r="CF16" s="5" t="s">
         <v>81</v>
@@ -4806,10 +4824,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -4818,19 +4836,19 @@
         <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>INT(LEFT(E17,2))</f>
@@ -5049,10 +5067,10 @@
         <v>0</v>
       </c>
       <c r="CE17" s="5" t="str">
-        <f>FLOOR(CC17/8,1,1)&amp;"."&amp;FLOOR(MOD(CC17,8),1,1)&amp;"."&amp;(MOD(CC17,8)-FLOOR(MOD(CC17,8),1,1))*60</f>
+        <f>FLOOR(CC17/8,1)&amp;"."&amp;FLOOR(MOD(CC17,8),1)&amp;"."&amp;(MOD(CC17,8)-FLOOR(MOD(CC17,8),1))*60</f>
       </c>
       <c r="CF17" s="5" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="CG17" s="5" t="str">
         <f>INT(LEFT(CF17,2))</f>
@@ -5075,31 +5093,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F18" s="5" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,2))</f>
@@ -5210,7 +5228,7 @@
         <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>81</v>
@@ -5318,10 +5336,10 @@
         <v>0</v>
       </c>
       <c r="CE18" s="5" t="str">
-        <f>FLOOR(CC18/8,1,1)&amp;"."&amp;FLOOR(MOD(CC18,8),1,1)&amp;"."&amp;(MOD(CC18,8)-FLOOR(MOD(CC18,8),1,1))*60</f>
+        <f>FLOOR(CC18/8,1)&amp;"."&amp;FLOOR(MOD(CC18,8),1)&amp;"."&amp;(MOD(CC18,8)-FLOOR(MOD(CC18,8),1))*60</f>
       </c>
       <c r="CF18" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="CG18" s="5" t="str">
         <f>INT(LEFT(CF18,2))</f>
@@ -5344,16 +5362,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>81</v>
@@ -5362,13 +5380,13 @@
         <v>81</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,2))</f>
@@ -5587,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="CE19" s="5" t="str">
-        <f>FLOOR(CC19/8,1,1)&amp;"."&amp;FLOOR(MOD(CC19,8),1,1)&amp;"."&amp;(MOD(CC19,8)-FLOOR(MOD(CC19,8),1,1))*60</f>
+        <f>FLOOR(CC19/8,1)&amp;"."&amp;FLOOR(MOD(CC19,8),1)&amp;"."&amp;(MOD(CC19,8)-FLOOR(MOD(CC19,8),1))*60</f>
       </c>
       <c r="CF19" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="CG19" s="5" t="str">
         <f>INT(LEFT(CF19,2))</f>
@@ -5613,16 +5631,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>81</v>
@@ -5631,13 +5649,13 @@
         <v>81</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,2))</f>
@@ -5748,10 +5766,10 @@
         <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AW20" s="5" t="s">
         <v>81</v>
@@ -5856,10 +5874,10 @@
         <v>0</v>
       </c>
       <c r="CE20" s="5" t="str">
-        <f>FLOOR(CC20/8,1,1)&amp;"."&amp;FLOOR(MOD(CC20,8),1,1)&amp;"."&amp;(MOD(CC20,8)-FLOOR(MOD(CC20,8),1,1))*60</f>
+        <f>FLOOR(CC20/8,1)&amp;"."&amp;FLOOR(MOD(CC20,8),1)&amp;"."&amp;(MOD(CC20,8)-FLOOR(MOD(CC20,8),1))*60</f>
       </c>
       <c r="CF20" s="5" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="CG20" s="5" t="str">
         <f>INT(LEFT(CF20,2))</f>
@@ -5882,31 +5900,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>INT(LEFT(E21,2))</f>
@@ -6017,7 +6035,7 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>81</v>
@@ -6026,7 +6044,7 @@
         <v>81</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="AY21" s="5" t="s">
         <v>81</v>
@@ -6125,10 +6143,10 @@
         <v>0</v>
       </c>
       <c r="CE21" s="5" t="str">
-        <f>FLOOR(CC21/8,1,1)&amp;"."&amp;FLOOR(MOD(CC21,8),1,1)&amp;"."&amp;(MOD(CC21,8)-FLOOR(MOD(CC21,8),1,1))*60</f>
+        <f>FLOOR(CC21/8,1)&amp;"."&amp;FLOOR(MOD(CC21,8),1)&amp;"."&amp;(MOD(CC21,8)-FLOOR(MOD(CC21,8),1))*60</f>
       </c>
       <c r="CF21" s="5" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="CG21" s="5" t="str">
         <f>INT(LEFT(CF21,2))</f>
@@ -6151,10 +6169,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0</v>
@@ -6163,19 +6181,19 @@
         <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>INT(LEFT(E22,2))</f>
@@ -6394,10 +6412,10 @@
         <v>0</v>
       </c>
       <c r="CE22" s="5" t="str">
-        <f>FLOOR(CC22/8,1,1)&amp;"."&amp;FLOOR(MOD(CC22,8),1,1)&amp;"."&amp;(MOD(CC22,8)-FLOOR(MOD(CC22,8),1,1))*60</f>
+        <f>FLOOR(CC22/8,1)&amp;"."&amp;FLOOR(MOD(CC22,8),1)&amp;"."&amp;(MOD(CC22,8)-FLOOR(MOD(CC22,8),1))*60</f>
       </c>
       <c r="CF22" s="5" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="CG22" s="5" t="str">
         <f>INT(LEFT(CF22,2))</f>
@@ -6420,16 +6438,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>81</v>
@@ -6438,13 +6456,13 @@
         <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,2))</f>
@@ -6555,7 +6573,7 @@
         <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>81</v>
@@ -6663,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="CE23" s="5" t="str">
-        <f>FLOOR(CC23/8,1,1)&amp;"."&amp;FLOOR(MOD(CC23,8),1,1)&amp;"."&amp;(MOD(CC23,8)-FLOOR(MOD(CC23,8),1,1))*60</f>
+        <f>FLOOR(CC23/8,1)&amp;"."&amp;FLOOR(MOD(CC23,8),1)&amp;"."&amp;(MOD(CC23,8)-FLOOR(MOD(CC23,8),1))*60</f>
       </c>
       <c r="CF23" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="CG23" s="5" t="str">
         <f>INT(LEFT(CF23,2))</f>
@@ -6689,16 +6707,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>81</v>
@@ -6707,13 +6725,13 @@
         <v>81</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,2))</f>
@@ -6932,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="CE24" s="5" t="str">
-        <f>FLOOR(CC24/8,1,1)&amp;"."&amp;FLOOR(MOD(CC24,8),1,1)&amp;"."&amp;(MOD(CC24,8)-FLOOR(MOD(CC24,8),1,1))*60</f>
+        <f>FLOOR(CC24/8,1)&amp;"."&amp;FLOOR(MOD(CC24,8),1)&amp;"."&amp;(MOD(CC24,8)-FLOOR(MOD(CC24,8),1))*60</f>
       </c>
       <c r="CF24" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CG24" s="5" t="str">
         <f>INT(LEFT(CF24,2))</f>
@@ -6958,16 +6976,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>81</v>
@@ -6976,13 +6994,13 @@
         <v>81</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(E25,2))</f>
@@ -7096,7 +7114,7 @@
         <v>81</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AW25" s="5" t="s">
         <v>81</v>
@@ -7201,10 +7219,10 @@
         <v>0</v>
       </c>
       <c r="CE25" s="5" t="str">
-        <f>FLOOR(CC25/8,1,1)&amp;"."&amp;FLOOR(MOD(CC25,8),1,1)&amp;"."&amp;(MOD(CC25,8)-FLOOR(MOD(CC25,8),1,1))*60</f>
+        <f>FLOOR(CC25/8,1)&amp;"."&amp;FLOOR(MOD(CC25,8),1)&amp;"."&amp;(MOD(CC25,8)-FLOOR(MOD(CC25,8),1))*60</f>
       </c>
       <c r="CF25" s="5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="CG25" s="5" t="str">
         <f>INT(LEFT(CF25,2))</f>
@@ -7227,31 +7245,31 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>INT(LEFT(E26,2))</f>
@@ -7470,10 +7488,10 @@
         <v>0</v>
       </c>
       <c r="CE26" s="5" t="str">
-        <f>FLOOR(CC26/8,1,1)&amp;"."&amp;FLOOR(MOD(CC26,8),1,1)&amp;"."&amp;(MOD(CC26,8)-FLOOR(MOD(CC26,8),1,1))*60</f>
+        <f>FLOOR(CC26/8,1)&amp;"."&amp;FLOOR(MOD(CC26,8),1)&amp;"."&amp;(MOD(CC26,8)-FLOOR(MOD(CC26,8),1))*60</f>
       </c>
       <c r="CF26" s="5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="CG26" s="5" t="str">
         <f>INT(LEFT(CF26,2))</f>
@@ -7496,10 +7514,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
@@ -7514,13 +7532,13 @@
         <v>81</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>INT(LEFT(E27,2))</f>
@@ -7631,7 +7649,7 @@
         <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>81</v>
@@ -7739,10 +7757,10 @@
         <v>0</v>
       </c>
       <c r="CE27" s="5" t="str">
-        <f>FLOOR(CC27/8,1,1)&amp;"."&amp;FLOOR(MOD(CC27,8),1,1)&amp;"."&amp;(MOD(CC27,8)-FLOOR(MOD(CC27,8),1,1))*60</f>
+        <f>FLOOR(CC27/8,1)&amp;"."&amp;FLOOR(MOD(CC27,8),1)&amp;"."&amp;(MOD(CC27,8)-FLOOR(MOD(CC27,8),1))*60</f>
       </c>
       <c r="CF27" s="5" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="CG27" s="5" t="str">
         <f>INT(LEFT(CF27,2))</f>
@@ -7765,31 +7783,31 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>INT(LEFT(E28,2))</f>
@@ -8008,10 +8026,10 @@
         <v>0</v>
       </c>
       <c r="CE28" s="5" t="str">
-        <f>FLOOR(CC28/8,1,1)&amp;"."&amp;FLOOR(MOD(CC28,8),1,1)&amp;"."&amp;(MOD(CC28,8)-FLOOR(MOD(CC28,8),1,1))*60</f>
+        <f>FLOOR(CC28/8,1)&amp;"."&amp;FLOOR(MOD(CC28,8),1)&amp;"."&amp;(MOD(CC28,8)-FLOOR(MOD(CC28,8),1))*60</f>
       </c>
       <c r="CF28" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="CG28" s="5" t="str">
         <f>INT(LEFT(CF28,2))</f>
@@ -8034,16 +8052,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>81</v>
@@ -8052,13 +8070,13 @@
         <v>81</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" s="5" t="str">
         <f>INT(LEFT(E29,2))</f>
@@ -8277,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="CE29" s="5" t="str">
-        <f>FLOOR(CC29/8,1,1)&amp;"."&amp;FLOOR(MOD(CC29,8),1,1)&amp;"."&amp;(MOD(CC29,8)-FLOOR(MOD(CC29,8),1,1))*60</f>
+        <f>FLOOR(CC29/8,1)&amp;"."&amp;FLOOR(MOD(CC29,8),1)&amp;"."&amp;(MOD(CC29,8)-FLOOR(MOD(CC29,8),1))*60</f>
       </c>
       <c r="CF29" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="CG29" s="5" t="str">
         <f>INT(LEFT(CF29,2))</f>
@@ -8306,7 +8324,7 @@
         <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0</v>
@@ -8321,13 +8339,13 @@
         <v>81</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,2))</f>
@@ -8450,7 +8468,7 @@
         <v>81</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AZ30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -8546,10 +8564,10 @@
         <v>0</v>
       </c>
       <c r="CE30" s="5" t="str">
-        <f>FLOOR(CC30/8,1,1)&amp;"."&amp;FLOOR(MOD(CC30,8),1,1)&amp;"."&amp;(MOD(CC30,8)-FLOOR(MOD(CC30,8),1,1))*60</f>
+        <f>FLOOR(CC30/8,1)&amp;"."&amp;FLOOR(MOD(CC30,8),1)&amp;"."&amp;(MOD(CC30,8)-FLOOR(MOD(CC30,8),1))*60</f>
       </c>
       <c r="CF30" s="5" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="CG30" s="5" t="str">
         <f>INT(LEFT(CF30,2))</f>
@@ -8572,16 +8590,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>81</v>
@@ -8590,13 +8608,13 @@
         <v>81</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K31" s="5" t="str">
         <f>INT(LEFT(E31,2))</f>
@@ -8707,7 +8725,7 @@
         <f>FLOOR(AS31/8,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>81</v>
@@ -8815,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="CE31" s="5" t="str">
-        <f>FLOOR(CC31/8,1,1)&amp;"."&amp;FLOOR(MOD(CC31,8),1,1)&amp;"."&amp;(MOD(CC31,8)-FLOOR(MOD(CC31,8),1,1))*60</f>
+        <f>FLOOR(CC31/8,1)&amp;"."&amp;FLOOR(MOD(CC31,8),1)&amp;"."&amp;(MOD(CC31,8)-FLOOR(MOD(CC31,8),1))*60</f>
       </c>
       <c r="CF31" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="CG31" s="5" t="str">
         <f>INT(LEFT(CF31,2))</f>
@@ -8841,10 +8859,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0</v>
@@ -8859,13 +8877,13 @@
         <v>81</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,2))</f>
@@ -9084,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="CE32" s="5" t="str">
-        <f>FLOOR(CC32/8,1,1)&amp;"."&amp;FLOOR(MOD(CC32,8),1,1)&amp;"."&amp;(MOD(CC32,8)-FLOOR(MOD(CC32,8),1,1))*60</f>
+        <f>FLOOR(CC32/8,1)&amp;"."&amp;FLOOR(MOD(CC32,8),1)&amp;"."&amp;(MOD(CC32,8)-FLOOR(MOD(CC32,8),1))*60</f>
       </c>
       <c r="CF32" s="5" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="CG32" s="5" t="str">
         <f>INT(LEFT(CF32,2))</f>
@@ -9110,16 +9128,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>81</v>
@@ -9128,13 +9146,13 @@
         <v>81</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,2))</f>
@@ -9245,7 +9263,7 @@
         <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>81</v>
@@ -9353,10 +9371,10 @@
         <v>0</v>
       </c>
       <c r="CE33" s="5" t="str">
-        <f>FLOOR(CC33/8,1,1)&amp;"."&amp;FLOOR(MOD(CC33,8),1,1)&amp;"."&amp;(MOD(CC33,8)-FLOOR(MOD(CC33,8),1,1))*60</f>
+        <f>FLOOR(CC33/8,1)&amp;"."&amp;FLOOR(MOD(CC33,8),1)&amp;"."&amp;(MOD(CC33,8)-FLOOR(MOD(CC33,8),1))*60</f>
       </c>
       <c r="CF33" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="CG33" s="5" t="str">
         <f>INT(LEFT(CF33,2))</f>
@@ -9379,31 +9397,31 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K34" s="5" t="str">
         <f>INT(LEFT(E34,2))</f>
@@ -9514,7 +9532,7 @@
         <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>81</v>
@@ -9622,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="CE34" s="5" t="str">
-        <f>FLOOR(CC34/8,1,1)&amp;"."&amp;FLOOR(MOD(CC34,8),1,1)&amp;"."&amp;(MOD(CC34,8)-FLOOR(MOD(CC34,8),1,1))*60</f>
+        <f>FLOOR(CC34/8,1)&amp;"."&amp;FLOOR(MOD(CC34,8),1)&amp;"."&amp;(MOD(CC34,8)-FLOOR(MOD(CC34,8),1))*60</f>
       </c>
       <c r="CF34" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="CG34" s="5" t="str">
         <f>INT(LEFT(CF34,2))</f>
@@ -9648,16 +9666,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>81</v>
@@ -9666,13 +9684,13 @@
         <v>81</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>INT(LEFT(E35,2))</f>
@@ -9891,10 +9909,10 @@
         <v>0</v>
       </c>
       <c r="CE35" s="5" t="str">
-        <f>FLOOR(CC35/8,1,1)&amp;"."&amp;FLOOR(MOD(CC35,8),1,1)&amp;"."&amp;(MOD(CC35,8)-FLOOR(MOD(CC35,8),1,1))*60</f>
+        <f>FLOOR(CC35/8,1)&amp;"."&amp;FLOOR(MOD(CC35,8),1)&amp;"."&amp;(MOD(CC35,8)-FLOOR(MOD(CC35,8),1))*60</f>
       </c>
       <c r="CF35" s="5" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="CG35" s="5" t="str">
         <f>INT(LEFT(CF35,2))</f>
@@ -9917,16 +9935,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>81</v>
@@ -9935,13 +9953,13 @@
         <v>81</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K36" s="5" t="str">
         <f>INT(LEFT(E36,2))</f>
@@ -10160,10 +10178,10 @@
         <v>0</v>
       </c>
       <c r="CE36" s="5" t="str">
-        <f>FLOOR(CC36/8,1,1)&amp;"."&amp;FLOOR(MOD(CC36,8),1,1)&amp;"."&amp;(MOD(CC36,8)-FLOOR(MOD(CC36,8),1,1))*60</f>
+        <f>FLOOR(CC36/8,1)&amp;"."&amp;FLOOR(MOD(CC36,8),1)&amp;"."&amp;(MOD(CC36,8)-FLOOR(MOD(CC36,8),1))*60</f>
       </c>
       <c r="CF36" s="5" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="CG36" s="5" t="str">
         <f>INT(LEFT(CF36,2))</f>
@@ -10186,10 +10204,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
@@ -10204,13 +10222,13 @@
         <v>81</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,2))</f>
@@ -10321,7 +10339,7 @@
         <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>81</v>
@@ -10429,10 +10447,10 @@
         <v>0</v>
       </c>
       <c r="CE37" s="5" t="str">
-        <f>FLOOR(CC37/8,1,1)&amp;"."&amp;FLOOR(MOD(CC37,8),1,1)&amp;"."&amp;(MOD(CC37,8)-FLOOR(MOD(CC37,8),1,1))*60</f>
+        <f>FLOOR(CC37/8,1)&amp;"."&amp;FLOOR(MOD(CC37,8),1)&amp;"."&amp;(MOD(CC37,8)-FLOOR(MOD(CC37,8),1))*60</f>
       </c>
       <c r="CF37" s="5" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="CG37" s="5" t="str">
         <f>INT(LEFT(CF37,2))</f>
@@ -10455,10 +10473,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -10473,13 +10491,13 @@
         <v>81</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K38" s="5" t="str">
         <f>INT(LEFT(E38,2))</f>
@@ -10698,10 +10716,10 @@
         <v>0</v>
       </c>
       <c r="CE38" s="5" t="str">
-        <f>FLOOR(CC38/8,1,1)&amp;"."&amp;FLOOR(MOD(CC38,8),1,1)&amp;"."&amp;(MOD(CC38,8)-FLOOR(MOD(CC38,8),1,1))*60</f>
+        <f>FLOOR(CC38/8,1)&amp;"."&amp;FLOOR(MOD(CC38,8),1)&amp;"."&amp;(MOD(CC38,8)-FLOOR(MOD(CC38,8),1))*60</f>
       </c>
       <c r="CF38" s="5" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="CG38" s="5" t="str">
         <f>INT(LEFT(CF38,2))</f>
@@ -10724,16 +10742,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>81</v>
@@ -10742,13 +10760,13 @@
         <v>81</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,2))</f>
@@ -10967,10 +10985,10 @@
         <v>0</v>
       </c>
       <c r="CE39" s="5" t="str">
-        <f>FLOOR(CC39/8,1,1)&amp;"."&amp;FLOOR(MOD(CC39,8),1,1)&amp;"."&amp;(MOD(CC39,8)-FLOOR(MOD(CC39,8),1,1))*60</f>
+        <f>FLOOR(CC39/8,1)&amp;"."&amp;FLOOR(MOD(CC39,8),1)&amp;"."&amp;(MOD(CC39,8)-FLOOR(MOD(CC39,8),1))*60</f>
       </c>
       <c r="CF39" s="5" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="CG39" s="5" t="str">
         <f>INT(LEFT(CF39,2))</f>
@@ -10993,16 +11011,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>81</v>
@@ -11011,13 +11029,13 @@
         <v>81</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>INT(LEFT(E40,2))</f>
@@ -11236,10 +11254,10 @@
         <v>0</v>
       </c>
       <c r="CE40" s="5" t="str">
-        <f>FLOOR(CC40/8,1,1)&amp;"."&amp;FLOOR(MOD(CC40,8),1,1)&amp;"."&amp;(MOD(CC40,8)-FLOOR(MOD(CC40,8),1,1))*60</f>
+        <f>FLOOR(CC40/8,1)&amp;"."&amp;FLOOR(MOD(CC40,8),1)&amp;"."&amp;(MOD(CC40,8)-FLOOR(MOD(CC40,8),1))*60</f>
       </c>
       <c r="CF40" s="5" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="CG40" s="5" t="str">
         <f>INT(LEFT(CF40,2))</f>
@@ -11262,10 +11280,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>161</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>0</v>
@@ -11280,13 +11298,13 @@
         <v>81</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,2))</f>
@@ -11505,10 +11523,10 @@
         <v>0</v>
       </c>
       <c r="CE41" s="5" t="str">
-        <f>FLOOR(CC41/8,1,1)&amp;"."&amp;FLOOR(MOD(CC41,8),1,1)&amp;"."&amp;(MOD(CC41,8)-FLOOR(MOD(CC41,8),1,1))*60</f>
+        <f>FLOOR(CC41/8,1)&amp;"."&amp;FLOOR(MOD(CC41,8),1)&amp;"."&amp;(MOD(CC41,8)-FLOOR(MOD(CC41,8),1))*60</f>
       </c>
       <c r="CF41" s="5" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="CG41" s="5" t="str">
         <f>INT(LEFT(CF41,2))</f>
@@ -11531,16 +11549,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>81</v>
@@ -11549,13 +11567,13 @@
         <v>81</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K42" s="5" t="str">
         <f>INT(LEFT(E42,2))</f>
@@ -11774,10 +11792,10 @@
         <v>0</v>
       </c>
       <c r="CE42" s="5" t="str">
-        <f>FLOOR(CC42/8,1,1)&amp;"."&amp;FLOOR(MOD(CC42,8),1,1)&amp;"."&amp;(MOD(CC42,8)-FLOOR(MOD(CC42,8),1,1))*60</f>
+        <f>FLOOR(CC42/8,1)&amp;"."&amp;FLOOR(MOD(CC42,8),1)&amp;"."&amp;(MOD(CC42,8)-FLOOR(MOD(CC42,8),1))*60</f>
       </c>
       <c r="CF42" s="5" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="CG42" s="5" t="str">
         <f>INT(LEFT(CF42,2))</f>
@@ -11800,31 +11818,31 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,2))</f>
@@ -12043,10 +12061,10 @@
         <v>0</v>
       </c>
       <c r="CE43" s="5" t="str">
-        <f>FLOOR(CC43/8,1,1)&amp;"."&amp;FLOOR(MOD(CC43,8),1,1)&amp;"."&amp;(MOD(CC43,8)-FLOOR(MOD(CC43,8),1,1))*60</f>
+        <f>FLOOR(CC43/8,1)&amp;"."&amp;FLOOR(MOD(CC43,8),1)&amp;"."&amp;(MOD(CC43,8)-FLOOR(MOD(CC43,8),1))*60</f>
       </c>
       <c r="CF43" s="5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="CG43" s="5" t="str">
         <f>INT(LEFT(CF43,2))</f>
@@ -12069,16 +12087,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>81</v>
@@ -12087,13 +12105,13 @@
         <v>81</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>INT(LEFT(E44,2))</f>
@@ -12204,7 +12222,7 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>81</v>
@@ -12312,10 +12330,10 @@
         <v>0</v>
       </c>
       <c r="CE44" s="5" t="str">
-        <f>FLOOR(CC44/8,1,1)&amp;"."&amp;FLOOR(MOD(CC44,8),1,1)&amp;"."&amp;(MOD(CC44,8)-FLOOR(MOD(CC44,8),1,1))*60</f>
+        <f>FLOOR(CC44/8,1)&amp;"."&amp;FLOOR(MOD(CC44,8),1)&amp;"."&amp;(MOD(CC44,8)-FLOOR(MOD(CC44,8),1))*60</f>
       </c>
       <c r="CF44" s="5" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="CG44" s="5" t="str">
         <f>INT(LEFT(CF44,2))</f>
@@ -12338,31 +12356,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K45" s="5" t="str">
         <f>INT(LEFT(E45,2))</f>
@@ -12473,10 +12491,10 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AW45" s="5" t="s">
         <v>81</v>
@@ -12581,10 +12599,10 @@
         <v>0</v>
       </c>
       <c r="CE45" s="5" t="str">
-        <f>FLOOR(CC45/8,1,1)&amp;"."&amp;FLOOR(MOD(CC45,8),1,1)&amp;"."&amp;(MOD(CC45,8)-FLOOR(MOD(CC45,8),1,1))*60</f>
+        <f>FLOOR(CC45/8,1)&amp;"."&amp;FLOOR(MOD(CC45,8),1)&amp;"."&amp;(MOD(CC45,8)-FLOOR(MOD(CC45,8),1))*60</f>
       </c>
       <c r="CF45" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="CG45" s="5" t="str">
         <f>INT(LEFT(CF45,2))</f>
@@ -12607,31 +12625,31 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K46" s="5" t="str">
         <f>INT(LEFT(E46,2))</f>
@@ -12850,10 +12868,10 @@
         <v>0</v>
       </c>
       <c r="CE46" s="5" t="str">
-        <f>FLOOR(CC46/8,1,1)&amp;"."&amp;FLOOR(MOD(CC46,8),1,1)&amp;"."&amp;(MOD(CC46,8)-FLOOR(MOD(CC46,8),1,1))*60</f>
+        <f>FLOOR(CC46/8,1)&amp;"."&amp;FLOOR(MOD(CC46,8),1)&amp;"."&amp;(MOD(CC46,8)-FLOOR(MOD(CC46,8),1))*60</f>
       </c>
       <c r="CF46" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="CG46" s="5" t="str">
         <f>INT(LEFT(CF46,2))</f>
@@ -12876,10 +12894,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0</v>
@@ -12888,19 +12906,19 @@
         <v>81</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,2))</f>
@@ -13011,7 +13029,7 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>81</v>
@@ -13119,10 +13137,10 @@
         <v>0</v>
       </c>
       <c r="CE47" s="5" t="str">
-        <f>FLOOR(CC47/8,1,1)&amp;"."&amp;FLOOR(MOD(CC47,8),1,1)&amp;"."&amp;(MOD(CC47,8)-FLOOR(MOD(CC47,8),1,1))*60</f>
+        <f>FLOOR(CC47/8,1)&amp;"."&amp;FLOOR(MOD(CC47,8),1)&amp;"."&amp;(MOD(CC47,8)-FLOOR(MOD(CC47,8),1))*60</f>
       </c>
       <c r="CF47" s="5" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="CG47" s="5" t="str">
         <f>INT(LEFT(CF47,2))</f>
@@ -13145,31 +13163,31 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>INT(LEFT(E48,2))</f>
@@ -13280,7 +13298,7 @@
         <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>81</v>
@@ -13388,10 +13406,10 @@
         <v>0</v>
       </c>
       <c r="CE48" s="5" t="str">
-        <f>FLOOR(CC48/8,1,1)&amp;"."&amp;FLOOR(MOD(CC48,8),1,1)&amp;"."&amp;(MOD(CC48,8)-FLOOR(MOD(CC48,8),1,1))*60</f>
+        <f>FLOOR(CC48/8,1)&amp;"."&amp;FLOOR(MOD(CC48,8),1)&amp;"."&amp;(MOD(CC48,8)-FLOOR(MOD(CC48,8),1))*60</f>
       </c>
       <c r="CF48" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="CG48" s="5" t="str">
         <f>INT(LEFT(CF48,2))</f>
@@ -13414,16 +13432,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>81</v>
@@ -13432,13 +13450,13 @@
         <v>81</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>INT(LEFT(E49,2))</f>
@@ -13549,10 +13567,10 @@
         <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AW49" s="5" t="s">
         <v>81</v>
@@ -13657,10 +13675,10 @@
         <v>0</v>
       </c>
       <c r="CE49" s="5" t="str">
-        <f>FLOOR(CC49/8,1,1)&amp;"."&amp;FLOOR(MOD(CC49,8),1,1)&amp;"."&amp;(MOD(CC49,8)-FLOOR(MOD(CC49,8),1,1))*60</f>
+        <f>FLOOR(CC49/8,1)&amp;"."&amp;FLOOR(MOD(CC49,8),1)&amp;"."&amp;(MOD(CC49,8)-FLOOR(MOD(CC49,8),1))*60</f>
       </c>
       <c r="CF49" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="CG49" s="5" t="str">
         <f>INT(LEFT(CF49,2))</f>
@@ -13683,31 +13701,31 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>INT(LEFT(E50,2))</f>
@@ -13818,7 +13836,7 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>81</v>
@@ -13926,10 +13944,10 @@
         <v>0</v>
       </c>
       <c r="CE50" s="5" t="str">
-        <f>FLOOR(CC50/8,1,1)&amp;"."&amp;FLOOR(MOD(CC50,8),1,1)&amp;"."&amp;(MOD(CC50,8)-FLOOR(MOD(CC50,8),1,1))*60</f>
+        <f>FLOOR(CC50/8,1)&amp;"."&amp;FLOOR(MOD(CC50,8),1)&amp;"."&amp;(MOD(CC50,8)-FLOOR(MOD(CC50,8),1))*60</f>
       </c>
       <c r="CF50" s="5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="CG50" s="5" t="str">
         <f>INT(LEFT(CF50,2))</f>
@@ -13952,10 +13970,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>0</v>
@@ -13970,13 +13988,13 @@
         <v>81</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>INT(LEFT(E51,2))</f>
@@ -14195,10 +14213,10 @@
         <v>0</v>
       </c>
       <c r="CE51" s="5" t="str">
-        <f>FLOOR(CC51/8,1,1)&amp;"."&amp;FLOOR(MOD(CC51,8),1,1)&amp;"."&amp;(MOD(CC51,8)-FLOOR(MOD(CC51,8),1,1))*60</f>
+        <f>FLOOR(CC51/8,1)&amp;"."&amp;FLOOR(MOD(CC51,8),1)&amp;"."&amp;(MOD(CC51,8)-FLOOR(MOD(CC51,8),1))*60</f>
       </c>
       <c r="CF51" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="CG51" s="5" t="str">
         <f>INT(LEFT(CF51,2))</f>
@@ -14221,10 +14239,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>0</v>
@@ -14239,13 +14257,13 @@
         <v>81</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>INT(LEFT(E52,2))</f>
@@ -14464,10 +14482,10 @@
         <v>0</v>
       </c>
       <c r="CE52" s="5" t="str">
-        <f>FLOOR(CC52/8,1,1)&amp;"."&amp;FLOOR(MOD(CC52,8),1,1)&amp;"."&amp;(MOD(CC52,8)-FLOOR(MOD(CC52,8),1,1))*60</f>
+        <f>FLOOR(CC52/8,1)&amp;"."&amp;FLOOR(MOD(CC52,8),1)&amp;"."&amp;(MOD(CC52,8)-FLOOR(MOD(CC52,8),1))*60</f>
       </c>
       <c r="CF52" s="5" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="CG52" s="5" t="str">
         <f>INT(LEFT(CF52,2))</f>
@@ -14490,10 +14508,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0</v>
@@ -14508,13 +14526,13 @@
         <v>81</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -14733,10 +14751,10 @@
         <v>0</v>
       </c>
       <c r="CE53" s="5" t="str">
-        <f>FLOOR(CC53/8,1,1)&amp;"."&amp;FLOOR(MOD(CC53,8),1,1)&amp;"."&amp;(MOD(CC53,8)-FLOOR(MOD(CC53,8),1,1))*60</f>
+        <f>FLOOR(CC53/8,1)&amp;"."&amp;FLOOR(MOD(CC53,8),1)&amp;"."&amp;(MOD(CC53,8)-FLOOR(MOD(CC53,8),1))*60</f>
       </c>
       <c r="CF53" s="5" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="CG53" s="5" t="str">
         <f>INT(LEFT(CF53,2))</f>
@@ -14755,271 +14773,540 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="W54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BV54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK54" s="6" t="s">
+      <c r="A54" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54" s="5" t="str">
+        <f>INT(LEFT(E54,2))</f>
+      </c>
+      <c r="L54" s="5" t="str">
+        <f>INT(LEFT(F54,2))</f>
+      </c>
+      <c r="M54" s="5" t="str">
+        <f>INT(LEFT(I54,2))</f>
+      </c>
+      <c r="N54" s="5" t="str">
+        <f>INT(LEFT(G54,2))</f>
+      </c>
+      <c r="O54" s="5" t="str">
+        <f>INT(LEFT(J54,2))</f>
+      </c>
+      <c r="P54" s="5" t="str">
+        <f>INT(LEFT(H54,2))</f>
+      </c>
+      <c r="Q54" s="5" t="str">
+        <f>K54+L54+CG54+IF(M54&gt;O54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
+      </c>
+      <c r="R54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E54,LEN(E54)-2),1)=".",RIGHT(E54,LEN(E54)-3),RIGHT(E54,LEN(E54)-2))</f>
+      </c>
+      <c r="S54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F54,LEN(F54)-2),1)=".",RIGHT(F54,LEN(F54)-3),RIGHT(F54,LEN(F54)-2))</f>
+      </c>
+      <c r="T54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I54,LEN(I54)-2),1)=".",RIGHT(I54,LEN(I54)-3),RIGHT(I54,LEN(I54)-2))</f>
+      </c>
+      <c r="U54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G54,LEN(G54)-2),1)=".",RIGHT(G54,LEN(G54)-3),RIGHT(G54,LEN(G54)-2))</f>
+      </c>
+      <c r="V54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J54,LEN(J54)-2),1)=".",RIGHT(J54,LEN(J54)-3),RIGHT(J54,LEN(J54)-2))</f>
+      </c>
+      <c r="W54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H54,LEN(H54)-2),1)=".",RIGHT(H54,LEN(H54)-3),RIGHT(H54,LEN(H54)-2))</f>
+      </c>
+      <c r="X54" s="5" t="str">
+        <f>INT(LEFT(R54,1))</f>
+      </c>
+      <c r="Y54" s="5" t="str">
+        <f>INT(LEFT(S54,1))</f>
+      </c>
+      <c r="Z54" s="5" t="str">
+        <f>INT(LEFT(T54,1))</f>
+      </c>
+      <c r="AA54" s="5" t="str">
+        <f>INT(LEFT(U54,1))</f>
+      </c>
+      <c r="AB54" s="5" t="str">
+        <f>INT(LEFT(V54,1))</f>
+      </c>
+      <c r="AC54" s="5" t="str">
+        <f>INT(LEFT(W54,1))</f>
+      </c>
+      <c r="AD54" s="5" t="str">
+        <f>R54+S54+CH54+IF(T54&gt;V54,T54-V54,0)+IF(U54&gt;W54,U54-W54,0)</f>
+      </c>
+      <c r="AE54" s="5" t="str">
+        <f>RIGHT(R54,LEN(R54)-2)+0</f>
+      </c>
+      <c r="AF54" s="5" t="str">
+        <f>RIGHT(S54,LEN(S54)-2)+0</f>
+      </c>
+      <c r="AG54" s="5" t="str">
+        <f>RIGHT(T54,LEN(T54)-2)+0</f>
+      </c>
+      <c r="AH54" s="5" t="str">
+        <f>RIGHT(U54,LEN(U54)-2)+0</f>
+      </c>
+      <c r="AI54" s="5" t="str">
+        <f>RIGHT(V54,LEN(V54)-2)+0</f>
+      </c>
+      <c r="AJ54" s="5" t="str">
+        <f>RIGHT(W54,LEN(W54)-2)+0</f>
+      </c>
+      <c r="AK54" s="5" t="str">
+        <f>AE54+AF54+CJ54+IF(AG54&gt;AI54,AG54-AI54,0)+IF(AH54&gt;AJ54,AH54-AJ54,0)</f>
+      </c>
+      <c r="AL54" s="5" t="str">
+        <f>K54*8*60+X54*60+AE54</f>
+      </c>
+      <c r="AM54" s="5" t="str">
+        <f>L54*8*60+Y54*60+AF54</f>
+      </c>
+      <c r="AN54" s="5" t="str">
+        <f>M54*8*60+Z54*60+AG54</f>
+      </c>
+      <c r="AO54" s="5" t="str">
+        <f>N54*8*60+AA54*60+AH54</f>
+      </c>
+      <c r="AP54" s="5" t="str">
+        <f>O54*8*60+AB54*60+AI54</f>
+      </c>
+      <c r="AQ54" s="5" t="str">
+        <f>P54*8*60+AC54*60+AJ54</f>
+      </c>
+      <c r="AR54" s="5" t="str">
+        <f>AL54+AM54+CK54+IF(AN54&gt;AP54,AN54-AP54,0)+IF(AO54&gt;AQ54,AO54-AQ54,0)</f>
+      </c>
+      <c r="AS54" s="5" t="str">
+        <f>AR54/60</f>
+      </c>
+      <c r="AT54" s="5" t="str">
+        <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
+      </c>
+      <c r="AU54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ54" s="5" t="str">
+        <f>INT(LEFT(AU54,1))</f>
+      </c>
+      <c r="BA54" s="5" t="str">
+        <f>INT(LEFT(AV54,1))</f>
+      </c>
+      <c r="BB54" s="5" t="str">
+        <f>INT(LEFT(AW54,1))</f>
+      </c>
+      <c r="BC54" s="5" t="str">
+        <f>INT(LEFT(AX54,1))</f>
+      </c>
+      <c r="BD54" s="5" t="str">
+        <f>INT(LEFT(AY54,1))</f>
+      </c>
+      <c r="BE54" s="5" t="str">
+        <f>SUM(AZ54,BA54,BB54,BC54,BD54)</f>
+      </c>
+      <c r="BF54" s="5" t="str">
+        <f>RIGHT(AU54,LEN(AU54)-2)</f>
+      </c>
+      <c r="BG54" s="5" t="str">
+        <f>RIGHT(AV54,LEN(AV54)-2)</f>
+      </c>
+      <c r="BH54" s="5" t="str">
+        <f>RIGHT(AW54,LEN(AW54)-2)</f>
+      </c>
+      <c r="BI54" s="5" t="str">
+        <f>RIGHT(AX54,LEN(AX54)-2)</f>
+      </c>
+      <c r="BJ54" s="5" t="str">
+        <f>RIGHT(AY54,LEN(AY54)-2)</f>
+      </c>
+      <c r="BK54" s="5" t="str">
+        <f>INT(LEFT(BF54,1))</f>
+      </c>
+      <c r="BL54" s="5" t="str">
+        <f>INT(LEFT(BG54,1))</f>
+      </c>
+      <c r="BM54" s="5" t="str">
+        <f>INT(LEFT(BH54,1))</f>
+      </c>
+      <c r="BN54" s="5" t="str">
+        <f>INT(LEFT(BI54,1))</f>
+      </c>
+      <c r="BO54" s="5" t="str">
+        <f>INT(LEFT(BJ54,1))</f>
+      </c>
+      <c r="BP54" s="5" t="str">
+        <f>SUM(BK54:BO54)</f>
+      </c>
+      <c r="BQ54" s="5" t="str">
+        <f>RIGHT(BF54,LEN(BF54)-2)+0</f>
+      </c>
+      <c r="BR54" s="5" t="str">
+        <f>RIGHT(BG54,LEN(BG54)-2)+0</f>
+      </c>
+      <c r="BS54" s="5" t="str">
+        <f>RIGHT(BH54,LEN(BH54)-2)+0</f>
+      </c>
+      <c r="BT54" s="5" t="str">
+        <f>RIGHT(BI54,LEN(BI54)-2)+0</f>
+      </c>
+      <c r="BU54" s="5" t="str">
+        <f>RIGHT(BJ54,LEN(BJ54)-2)+0</f>
+      </c>
+      <c r="BV54" s="5" t="str">
+        <f>SUM(BQ54:BU54)</f>
+      </c>
+      <c r="BW54" s="5" t="str">
+        <f>AZ54*8*60+BK54*60+BQ54</f>
+      </c>
+      <c r="BX54" s="5" t="str">
+        <f>BA54*8*60+BL54*60+BR54</f>
+      </c>
+      <c r="BY54" s="5" t="str">
+        <f>BB54*8*60+BM54*60+BS54</f>
+      </c>
+      <c r="BZ54" s="5" t="str">
+        <f>BC54*8*60+BN54*60+BT54</f>
+      </c>
+      <c r="CA54" s="5" t="str">
+        <f>BD54*8*60+BO54*60+BU54</f>
+      </c>
+      <c r="CB54" s="5" t="str">
+        <f>SUM(BW54:CA54)</f>
+      </c>
+      <c r="CC54" s="5" t="str">
+        <f>CB54/60</f>
+      </c>
+      <c r="CD54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE54" s="5" t="str">
+        <f>FLOOR(CC54/8,1)&amp;"."&amp;FLOOR(MOD(CC54,8),1)&amp;"."&amp;(MOD(CC54,8)-FLOOR(MOD(CC54,8),1))*60</f>
+      </c>
+      <c r="CF54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG54" s="5" t="str">
+        <f>INT(LEFT(CF54,2))</f>
+      </c>
+      <c r="CH54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF54,LEN(CF54)-2),1)=".",RIGHT(CF54,LEN(CF54)-3),RIGHT(CF54,LEN(CF54)-2))</f>
+      </c>
+      <c r="CI54" s="5" t="str">
+        <f>INT(LEFT(CH54,1))</f>
+      </c>
+      <c r="CJ54" s="5" t="str">
+        <f>RIGHT(CH54,LEN(CH54)-2)+0</f>
+      </c>
+      <c r="CK54" s="5" t="str">
+        <f>CG54*8*60+CI54*60+CJ54</f>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK55" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,9 +9,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="185" xml:space="preserve">
-  <si>
-    <t>iRipple, Inc. | DTR Summary Sheet for the period April 25, 2015 to May 08, 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="179" xml:space="preserve">
+  <si>
+    <t>iRipple, Inc. | DTR Summary Sheet for the period March 21, 2015 to April 03, 2015</t>
   </si>
   <si>
     <t>Employee Information</t>
@@ -257,271 +257,256 @@
     <t>0.0.0</t>
   </si>
   <si>
+    <t>7.4.0</t>
+  </si>
+  <si>
+    <t>Ardamoy, Ma. Rica Catherine</t>
+  </si>
+  <si>
+    <t>Enterprise - Petron</t>
+  </si>
+  <si>
+    <t>0.0.15</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>Bacani, Eddie Marie</t>
+  </si>
+  <si>
+    <t>International Business - Thailand</t>
+  </si>
+  <si>
+    <t>Balingit, Barbara</t>
+  </si>
+  <si>
+    <t>HR &amp;amp; Admin</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Balino, Kamille Diane</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>0.0.45</t>
+  </si>
+  <si>
+    <t>Barrion, Jane Katherine</t>
+  </si>
+  <si>
+    <t>Bayogos, Charmaine</t>
+  </si>
+  <si>
+    <t>Enterprise - Ayagold</t>
+  </si>
+  <si>
+    <t>Borlagdan, Aldrin</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
     <t>0.1.15</t>
   </si>
   <si>
-    <t>7.4.0</t>
-  </si>
-  <si>
-    <t>6.4.0</t>
+    <t>Buena, Ian Christopher</t>
+  </si>
+  <si>
+    <t>0.3.0</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>Buenafe, Rajiv</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>Cataluna, Christian Gilbert</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
+  </si>
+  <si>
+    <t>CaÃ±ete, Carol Ann</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>Cerbo, Jaycer</t>
+  </si>
+  <si>
+    <t>Ching, Mark Angelo</t>
+  </si>
+  <si>
+    <t>Imaghine</t>
   </si>
   <si>
     <t>0.5.0</t>
   </si>
   <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>Cortez, Jomar</t>
+  </si>
+  <si>
+    <t>Barter Local - Support</t>
+  </si>
+  <si>
+    <t>Cruz, Cesar</t>
+  </si>
+  <si>
+    <t>Delfin, Jonathan</t>
+  </si>
+  <si>
+    <t>International Business - PNG</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Dino, Arvin</t>
+  </si>
+  <si>
     <t>4.4.0</t>
   </si>
   <si>
-    <t>Ardamoy, Ma. Rica Catherine</t>
-  </si>
-  <si>
-    <t>Enterprise - Petron</t>
-  </si>
-  <si>
-    <t>Bacani, Eddie Marie</t>
-  </si>
-  <si>
-    <t>International Business - Thailand</t>
+    <t>Dy, Hubert</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Egamino, Ellen</t>
   </si>
   <si>
     <t>0.1.45</t>
   </si>
   <si>
-    <t>Balingit, Barbara</t>
-  </si>
-  <si>
-    <t>HR &amp;amp; Admin</t>
-  </si>
-  <si>
-    <t>Balino, Kamille Diane</t>
-  </si>
-  <si>
-    <t>Product</t>
+    <t>0.7.0</t>
+  </si>
+  <si>
+    <t>Enrique, Christian Dan</t>
+  </si>
+  <si>
+    <t>Barter Local - Project</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
+  </si>
+  <si>
+    <t>Espiritu, Carl Philip</t>
+  </si>
+  <si>
+    <t>1.3.0</t>
+  </si>
+  <si>
+    <t>Fadrilan, Liezl</t>
+  </si>
+  <si>
+    <t>Synext (Nexus)</t>
+  </si>
+  <si>
+    <t>Flores, Arianne Grace</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>Francisco, Roed Ronualdo </t>
+  </si>
+  <si>
+    <t>Javier, Victor </t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>Joson, Alfonso Miguel</t>
+  </si>
+  <si>
+    <t>Keng, Julie</t>
+  </si>
+  <si>
+    <t>Laude, Ted Marty</t>
+  </si>
+  <si>
+    <t>Mangundayao, Mac Donald</t>
+  </si>
+  <si>
+    <t>Barter CX</t>
   </si>
   <si>
     <t>0.0.30</t>
   </si>
   <si>
-    <t>Barrion, Jane Katherine</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
-    <t>Bayogos, Charmaine</t>
-  </si>
-  <si>
-    <t>Enterprise - Ayagold</t>
-  </si>
-  <si>
-    <t>Bernardo, Gianilla Mae</t>
-  </si>
-  <si>
-    <t>0.0.15</t>
-  </si>
-  <si>
-    <t>Borlagdan, Aldrin</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>Buena, Ian Christopher</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
-  </si>
-  <si>
-    <t>Buenafe, Rajiv</t>
-  </si>
-  <si>
-    <t>9.0.0</t>
-  </si>
-  <si>
-    <t>Cataluna, Christian Gilbert</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>CaÃ±ete, Carol Ann</t>
-  </si>
-  <si>
-    <t>0.0.45</t>
+    <t>Matias, Ma. Jeremia Jetheth </t>
+  </si>
+  <si>
+    <t>0.4.15</t>
+  </si>
+  <si>
+    <t>Mendoza, Diana</t>
+  </si>
+  <si>
+    <t>0.5.15</t>
   </si>
   <si>
     <t>2.0.0</t>
   </si>
   <si>
-    <t>Cerbo, Jaycer</t>
-  </si>
-  <si>
-    <t>Ching, Mark Angelo</t>
-  </si>
-  <si>
-    <t>Imaghine</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
+    <t>Nagnal, Fracy</t>
+  </si>
+  <si>
+    <t>Newsom, Jifferson</t>
+  </si>
+  <si>
+    <t>Pajo, Maricel</t>
+  </si>
+  <si>
+    <t>Pancho, Jona</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Pechuanging, Ma. Antoinette</t>
+  </si>
+  <si>
+    <t>Pendre, Contessa</t>
+  </si>
+  <si>
+    <t>Ranes, Jonathan</t>
   </si>
   <si>
     <t>0.1.30</t>
   </si>
   <si>
-    <t>Cortez, Jomar</t>
-  </si>
-  <si>
-    <t>Barter Local - Support</t>
-  </si>
-  <si>
-    <t>2.4.0</t>
-  </si>
-  <si>
-    <t>Cruz, Cesar</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>Delfin, Jonathan</t>
-  </si>
-  <si>
-    <t>International Business - PNG</t>
-  </si>
-  <si>
-    <t>0.7.0</t>
-  </si>
-  <si>
-    <t>Dino, Arvin</t>
-  </si>
-  <si>
-    <t>0.2.15</t>
-  </si>
-  <si>
-    <t>6.0.0</t>
-  </si>
-  <si>
-    <t>Dy, Hubert</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Egamino, Ellen</t>
-  </si>
-  <si>
-    <t>Enrique, Christian Dan</t>
-  </si>
-  <si>
-    <t>Barter Local - Project</t>
-  </si>
-  <si>
-    <t>Espiritu, Carl Philip</t>
-  </si>
-  <si>
-    <t>0.3.45</t>
-  </si>
-  <si>
-    <t>Fadrilan, Liezl</t>
-  </si>
-  <si>
-    <t>Synext (Nexus)</t>
-  </si>
-  <si>
-    <t>Flores, Arianne Grace</t>
-  </si>
-  <si>
-    <t>Francisco, Roed Ronualdo </t>
-  </si>
-  <si>
-    <t>Javier, Victor </t>
-  </si>
-  <si>
-    <t>3.0.0</t>
-  </si>
-  <si>
-    <t>Joson, Alfonso Miguel</t>
-  </si>
-  <si>
-    <t>0.2.45</t>
-  </si>
-  <si>
-    <t>Keng, Julie</t>
-  </si>
-  <si>
-    <t>8.4.0</t>
-  </si>
-  <si>
-    <t>Laude, Ted Marty</t>
-  </si>
-  <si>
-    <t>Mangundayao, Mac Donald</t>
-  </si>
-  <si>
-    <t>Barter CX</t>
-  </si>
-  <si>
-    <t>0.6.0</t>
-  </si>
-  <si>
-    <t>Matias, Ma. Jeremia Jetheth </t>
-  </si>
-  <si>
-    <t>0.4.15</t>
-  </si>
-  <si>
-    <t>Mendoza, Diana</t>
-  </si>
-  <si>
-    <t>Nagnal, Fracy</t>
-  </si>
-  <si>
-    <t>Newsom, Jifferson</t>
-  </si>
-  <si>
-    <t>3.4.0</t>
-  </si>
-  <si>
-    <t>Pajo, Maricel</t>
-  </si>
-  <si>
-    <t>Pancho, Jona</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>0.5.45</t>
-  </si>
-  <si>
-    <t>Pechuanging, Ma. Antoinette</t>
-  </si>
-  <si>
-    <t>Pendre, Contessa</t>
-  </si>
-  <si>
-    <t>Ranes, Jonathan</t>
-  </si>
-  <si>
-    <t>0.2.30</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
     <t>Reyes, Mark Gil</t>
   </si>
   <si>
     <t>Reyes, Salvador</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Santos, Patricia</t>
@@ -536,16 +521,16 @@
     <t>Enterprise - Primer</t>
   </si>
   <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
     <t>Soriano, Josif Hans</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>Suarez, Katrina </t>
   </si>
   <si>
-    <t>5.4.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Tesoro, Rose Natalie</t>
@@ -555,9 +540,6 @@
   </si>
   <si>
     <t>Marketing &amp;amp; Hardware</t>
-  </si>
-  <si>
-    <t>8.0.0</t>
   </si>
   <si>
     <t>Viloria, Benito Jr.</t>
@@ -585,7 +567,6 @@
       <sz val="15"/>
       <family val="1"/>
       <b val="true"/>
-      <u val="true"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -680,7 +661,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK55"/>
+  <dimension ref="A1:CK54"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="D4" state="frozenSplit" activePane="bottomRight" ySplit="3" xSplit="3"/>
@@ -1339,19 +1320,19 @@
         <v>81</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K4" s="5" t="str">
         <f>INT(LEFT(E4,2))</f>
@@ -1465,7 +1446,7 @@
         <v>81</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AW4" s="5" t="s">
         <v>81</v>
@@ -1573,7 +1554,7 @@
         <f>FLOOR(CC4/8,1)&amp;"."&amp;FLOOR(MOD(CC4,8),1)&amp;"."&amp;(MOD(CC4,8)-FLOOR(MOD(CC4,8),1))*60</f>
       </c>
       <c r="CF4" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG4" s="5" t="str">
         <f>INT(LEFT(CF4,2))</f>
@@ -1596,16 +1577,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>81</v>
@@ -1614,13 +1595,13 @@
         <v>81</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K5" s="5" t="str">
         <f>INT(LEFT(E5,2))</f>
@@ -1842,7 +1823,7 @@
         <f>FLOOR(CC5/8,1)&amp;"."&amp;FLOOR(MOD(CC5,8),1)&amp;"."&amp;(MOD(CC5,8)-FLOOR(MOD(CC5,8),1))*60</f>
       </c>
       <c r="CF5" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="CG5" s="5" t="str">
         <f>INT(LEFT(CF5,2))</f>
@@ -1865,31 +1846,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I6" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,2))</f>
@@ -2134,10 +2115,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0</v>
@@ -2152,13 +2133,13 @@
         <v>81</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>INT(LEFT(E7,2))</f>
@@ -2380,7 +2361,7 @@
         <f>FLOOR(CC7/8,1)&amp;"."&amp;FLOOR(MOD(CC7,8),1)&amp;"."&amp;(MOD(CC7,8)-FLOOR(MOD(CC7,8),1))*60</f>
       </c>
       <c r="CF7" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="CG7" s="5" t="str">
         <f>INT(LEFT(CF7,2))</f>
@@ -2403,17 +2384,17 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="F8" s="5" t="s">
         <v>81</v>
       </c>
@@ -2421,13 +2402,13 @@
         <v>81</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="5" t="str">
         <f>INT(LEFT(E8,2))</f>
@@ -2672,31 +2653,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="5" t="str">
         <f>INT(LEFT(E9,2))</f>
@@ -2918,7 +2899,7 @@
         <f>FLOOR(CC9/8,1)&amp;"."&amp;FLOOR(MOD(CC9,8),1)&amp;"."&amp;(MOD(CC9,8)-FLOOR(MOD(CC9,8),1))*60</f>
       </c>
       <c r="CF9" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="CG9" s="5" t="str">
         <f>INT(LEFT(CF9,2))</f>
@@ -2941,10 +2922,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0</v>
@@ -2956,16 +2937,16 @@
         <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K10" s="5" t="str">
         <f>INT(LEFT(E10,2))</f>
@@ -3076,7 +3057,7 @@
         <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>81</v>
@@ -3187,7 +3168,7 @@
         <f>FLOOR(CC10/8,1)&amp;"."&amp;FLOOR(MOD(CC10,8),1)&amp;"."&amp;(MOD(CC10,8)-FLOOR(MOD(CC10,8),1))*60</f>
       </c>
       <c r="CF10" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="CG10" s="5" t="str">
         <f>INT(LEFT(CF10,2))</f>
@@ -3210,31 +3191,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K11" s="5" t="str">
         <f>INT(LEFT(E11,2))</f>
@@ -3456,7 +3437,7 @@
         <f>FLOOR(CC11/8,1)&amp;"."&amp;FLOOR(MOD(CC11,8),1)&amp;"."&amp;(MOD(CC11,8)-FLOOR(MOD(CC11,8),1))*60</f>
       </c>
       <c r="CF11" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="CG11" s="5" t="str">
         <f>INT(LEFT(CF11,2))</f>
@@ -3479,31 +3460,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="5" t="str">
         <f>INT(LEFT(E12,2))</f>
@@ -3725,7 +3706,7 @@
         <f>FLOOR(CC12/8,1)&amp;"."&amp;FLOOR(MOD(CC12,8),1)&amp;"."&amp;(MOD(CC12,8)-FLOOR(MOD(CC12,8),1))*60</f>
       </c>
       <c r="CF12" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="CG12" s="5" t="str">
         <f>INT(LEFT(CF12,2))</f>
@@ -3748,31 +3729,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="J13" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="5" t="str">
         <f>INT(LEFT(E13,2))</f>
@@ -3994,7 +3975,7 @@
         <f>FLOOR(CC13/8,1)&amp;"."&amp;FLOOR(MOD(CC13,8),1)&amp;"."&amp;(MOD(CC13,8)-FLOOR(MOD(CC13,8),1))*60</f>
       </c>
       <c r="CF13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="CG13" s="5" t="str">
         <f>INT(LEFT(CF13,2))</f>
@@ -4017,10 +3998,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
@@ -4035,13 +4016,13 @@
         <v>81</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="5" t="str">
         <f>INT(LEFT(E14,2))</f>
@@ -4263,7 +4244,7 @@
         <f>FLOOR(CC14/8,1)&amp;"."&amp;FLOOR(MOD(CC14,8),1)&amp;"."&amp;(MOD(CC14,8)-FLOOR(MOD(CC14,8),1))*60</f>
       </c>
       <c r="CF14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CG14" s="5" t="str">
         <f>INT(LEFT(CF14,2))</f>
@@ -4286,17 +4267,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="F15" s="5" t="s">
         <v>81</v>
       </c>
@@ -4304,13 +4285,13 @@
         <v>81</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="5" t="str">
         <f>INT(LEFT(E15,2))</f>
@@ -4532,7 +4513,7 @@
         <f>FLOOR(CC15/8,1)&amp;"."&amp;FLOOR(MOD(CC15,8),1)&amp;"."&amp;(MOD(CC15,8)-FLOOR(MOD(CC15,8),1))*60</f>
       </c>
       <c r="CF15" s="5" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="CG15" s="5" t="str">
         <f>INT(LEFT(CF15,2))</f>
@@ -4561,25 +4542,25 @@
         <v>93</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K16" s="5" t="str">
         <f>INT(LEFT(E16,2))</f>
@@ -4824,10 +4805,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -4836,19 +4817,19 @@
         <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="5" t="str">
         <f>INT(LEFT(E17,2))</f>
@@ -5070,7 +5051,7 @@
         <f>FLOOR(CC17/8,1)&amp;"."&amp;FLOOR(MOD(CC17,8),1)&amp;"."&amp;(MOD(CC17,8)-FLOOR(MOD(CC17,8),1))*60</f>
       </c>
       <c r="CF17" s="5" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="CG17" s="5" t="str">
         <f>INT(LEFT(CF17,2))</f>
@@ -5093,31 +5074,31 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="5" t="str">
         <f>INT(LEFT(E18,2))</f>
@@ -5228,7 +5209,7 @@
         <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>81</v>
@@ -5339,7 +5320,7 @@
         <f>FLOOR(CC18/8,1)&amp;"."&amp;FLOOR(MOD(CC18,8),1)&amp;"."&amp;(MOD(CC18,8)-FLOOR(MOD(CC18,8),1))*60</f>
       </c>
       <c r="CF18" s="5" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="CG18" s="5" t="str">
         <f>INT(LEFT(CF18,2))</f>
@@ -5362,16 +5343,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>81</v>
@@ -5380,13 +5361,13 @@
         <v>81</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,2))</f>
@@ -5608,7 +5589,7 @@
         <f>FLOOR(CC19/8,1)&amp;"."&amp;FLOOR(MOD(CC19,8),1)&amp;"."&amp;(MOD(CC19,8)-FLOOR(MOD(CC19,8),1))*60</f>
       </c>
       <c r="CF19" s="5" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="CG19" s="5" t="str">
         <f>INT(LEFT(CF19,2))</f>
@@ -5631,16 +5612,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>81</v>
@@ -5649,13 +5630,13 @@
         <v>81</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,2))</f>
@@ -5766,10 +5747,10 @@
         <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AW20" s="5" t="s">
         <v>81</v>
@@ -5877,7 +5858,7 @@
         <f>FLOOR(CC20/8,1)&amp;"."&amp;FLOOR(MOD(CC20,8),1)&amp;"."&amp;(MOD(CC20,8)-FLOOR(MOD(CC20,8),1))*60</f>
       </c>
       <c r="CF20" s="5" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="CG20" s="5" t="str">
         <f>INT(LEFT(CF20,2))</f>
@@ -5900,31 +5881,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" s="5" t="str">
         <f>INT(LEFT(E21,2))</f>
@@ -6035,7 +6016,7 @@
         <f>FLOOR(AS21/8,1)&amp;"."&amp;FLOOR(MOD(AS21,8),1)&amp;"."&amp;(MOD(AS21,8)-FLOOR(MOD(AS21,8),1))*60</f>
       </c>
       <c r="AU21" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="AV21" s="5" t="s">
         <v>81</v>
@@ -6044,7 +6025,7 @@
         <v>81</v>
       </c>
       <c r="AX21" s="5" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="AY21" s="5" t="s">
         <v>81</v>
@@ -6146,7 +6127,7 @@
         <f>FLOOR(CC21/8,1)&amp;"."&amp;FLOOR(MOD(CC21,8),1)&amp;"."&amp;(MOD(CC21,8)-FLOOR(MOD(CC21,8),1))*60</f>
       </c>
       <c r="CF21" s="5" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="CG21" s="5" t="str">
         <f>INT(LEFT(CF21,2))</f>
@@ -6169,10 +6150,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0</v>
@@ -6181,19 +6162,19 @@
         <v>81</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" s="5" t="str">
         <f>INT(LEFT(E22,2))</f>
@@ -6415,7 +6396,7 @@
         <f>FLOOR(CC22/8,1)&amp;"."&amp;FLOOR(MOD(CC22,8),1)&amp;"."&amp;(MOD(CC22,8)-FLOOR(MOD(CC22,8),1))*60</f>
       </c>
       <c r="CF22" s="5" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="CG22" s="5" t="str">
         <f>INT(LEFT(CF22,2))</f>
@@ -6438,16 +6419,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>81</v>
@@ -6456,13 +6437,13 @@
         <v>81</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,2))</f>
@@ -6573,7 +6554,7 @@
         <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>81</v>
@@ -6684,7 +6665,7 @@
         <f>FLOOR(CC23/8,1)&amp;"."&amp;FLOOR(MOD(CC23,8),1)&amp;"."&amp;(MOD(CC23,8)-FLOOR(MOD(CC23,8),1))*60</f>
       </c>
       <c r="CF23" s="5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="CG23" s="5" t="str">
         <f>INT(LEFT(CF23,2))</f>
@@ -6707,31 +6688,31 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,2))</f>
@@ -6953,7 +6934,7 @@
         <f>FLOOR(CC24/8,1)&amp;"."&amp;FLOOR(MOD(CC24,8),1)&amp;"."&amp;(MOD(CC24,8)-FLOOR(MOD(CC24,8),1))*60</f>
       </c>
       <c r="CF24" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="CG24" s="5" t="str">
         <f>INT(LEFT(CF24,2))</f>
@@ -6976,16 +6957,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>81</v>
@@ -6994,13 +6975,13 @@
         <v>81</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K25" s="5" t="str">
         <f>INT(LEFT(E25,2))</f>
@@ -7114,7 +7095,7 @@
         <v>81</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="AW25" s="5" t="s">
         <v>81</v>
@@ -7222,7 +7203,7 @@
         <f>FLOOR(CC25/8,1)&amp;"."&amp;FLOOR(MOD(CC25,8),1)&amp;"."&amp;(MOD(CC25,8)-FLOOR(MOD(CC25,8),1))*60</f>
       </c>
       <c r="CF25" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="CG25" s="5" t="str">
         <f>INT(LEFT(CF25,2))</f>
@@ -7245,31 +7226,31 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="D26" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K26" s="5" t="str">
         <f>INT(LEFT(E26,2))</f>
@@ -7491,7 +7472,7 @@
         <f>FLOOR(CC26/8,1)&amp;"."&amp;FLOOR(MOD(CC26,8),1)&amp;"."&amp;(MOD(CC26,8)-FLOOR(MOD(CC26,8),1))*60</f>
       </c>
       <c r="CF26" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="CG26" s="5" t="str">
         <f>INT(LEFT(CF26,2))</f>
@@ -7514,10 +7495,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
@@ -7532,13 +7513,13 @@
         <v>81</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K27" s="5" t="str">
         <f>INT(LEFT(E27,2))</f>
@@ -7649,7 +7630,7 @@
         <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>81</v>
@@ -7760,7 +7741,7 @@
         <f>FLOOR(CC27/8,1)&amp;"."&amp;FLOOR(MOD(CC27,8),1)&amp;"."&amp;(MOD(CC27,8)-FLOOR(MOD(CC27,8),1))*60</f>
       </c>
       <c r="CF27" s="5" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="CG27" s="5" t="str">
         <f>INT(LEFT(CF27,2))</f>
@@ -7783,31 +7764,31 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I28" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K28" s="5" t="str">
         <f>INT(LEFT(E28,2))</f>
@@ -8029,7 +8010,7 @@
         <f>FLOOR(CC28/8,1)&amp;"."&amp;FLOOR(MOD(CC28,8),1)&amp;"."&amp;(MOD(CC28,8)-FLOOR(MOD(CC28,8),1))*60</f>
       </c>
       <c r="CF28" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="CG28" s="5" t="str">
         <f>INT(LEFT(CF28,2))</f>
@@ -8052,31 +8033,31 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K29" s="5" t="str">
         <f>INT(LEFT(E29,2))</f>
@@ -8298,7 +8279,7 @@
         <f>FLOOR(CC29/8,1)&amp;"."&amp;FLOOR(MOD(CC29,8),1)&amp;"."&amp;(MOD(CC29,8)-FLOOR(MOD(CC29,8),1))*60</f>
       </c>
       <c r="CF29" s="5" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="CG29" s="5" t="str">
         <f>INT(LEFT(CF29,2))</f>
@@ -8324,7 +8305,7 @@
         <v>143</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0</v>
@@ -8339,13 +8320,13 @@
         <v>81</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30" s="5" t="str">
         <f>INT(LEFT(E30,2))</f>
@@ -8468,7 +8449,7 @@
         <v>81</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AZ30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -8567,7 +8548,7 @@
         <f>FLOOR(CC30/8,1)&amp;"."&amp;FLOOR(MOD(CC30,8),1)&amp;"."&amp;(MOD(CC30,8)-FLOOR(MOD(CC30,8),1))*60</f>
       </c>
       <c r="CF30" s="5" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="CG30" s="5" t="str">
         <f>INT(LEFT(CF30,2))</f>
@@ -8590,16 +8571,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>81</v>
@@ -8608,13 +8589,13 @@
         <v>81</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" s="5" t="str">
         <f>INT(LEFT(E31,2))</f>
@@ -8725,7 +8706,7 @@
         <f>FLOOR(AS31/8,1)&amp;"."&amp;FLOOR(MOD(AS31,8),1)&amp;"."&amp;(MOD(AS31,8)-FLOOR(MOD(AS31,8),1))*60</f>
       </c>
       <c r="AU31" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AV31" s="5" t="s">
         <v>81</v>
@@ -8836,7 +8817,7 @@
         <f>FLOOR(CC31/8,1)&amp;"."&amp;FLOOR(MOD(CC31,8),1)&amp;"."&amp;(MOD(CC31,8)-FLOOR(MOD(CC31,8),1))*60</f>
       </c>
       <c r="CF31" s="5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="CG31" s="5" t="str">
         <f>INT(LEFT(CF31,2))</f>
@@ -8859,10 +8840,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0</v>
@@ -8877,13 +8858,13 @@
         <v>81</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,2))</f>
@@ -9105,7 +9086,7 @@
         <f>FLOOR(CC32/8,1)&amp;"."&amp;FLOOR(MOD(CC32,8),1)&amp;"."&amp;(MOD(CC32,8)-FLOOR(MOD(CC32,8),1))*60</f>
       </c>
       <c r="CF32" s="5" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="CG32" s="5" t="str">
         <f>INT(LEFT(CF32,2))</f>
@@ -9128,16 +9109,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>81</v>
@@ -9146,13 +9127,13 @@
         <v>81</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K33" s="5" t="str">
         <f>INT(LEFT(E33,2))</f>
@@ -9263,7 +9244,7 @@
         <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AV33" s="5" t="s">
         <v>81</v>
@@ -9374,7 +9355,7 @@
         <f>FLOOR(CC33/8,1)&amp;"."&amp;FLOOR(MOD(CC33,8),1)&amp;"."&amp;(MOD(CC33,8)-FLOOR(MOD(CC33,8),1))*60</f>
       </c>
       <c r="CF33" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="CG33" s="5" t="str">
         <f>INT(LEFT(CF33,2))</f>
@@ -9397,31 +9378,31 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K34" s="5" t="str">
         <f>INT(LEFT(E34,2))</f>
@@ -9532,7 +9513,7 @@
         <f>FLOOR(AS34/8,1)&amp;"."&amp;FLOOR(MOD(AS34,8),1)&amp;"."&amp;(MOD(AS34,8)-FLOOR(MOD(AS34,8),1))*60</f>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="AV34" s="5" t="s">
         <v>81</v>
@@ -9643,7 +9624,7 @@
         <f>FLOOR(CC34/8,1)&amp;"."&amp;FLOOR(MOD(CC34,8),1)&amp;"."&amp;(MOD(CC34,8)-FLOOR(MOD(CC34,8),1))*60</f>
       </c>
       <c r="CF34" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="CG34" s="5" t="str">
         <f>INT(LEFT(CF34,2))</f>
@@ -9666,16 +9647,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>81</v>
@@ -9684,13 +9665,13 @@
         <v>81</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K35" s="5" t="str">
         <f>INT(LEFT(E35,2))</f>
@@ -9912,7 +9893,7 @@
         <f>FLOOR(CC35/8,1)&amp;"."&amp;FLOOR(MOD(CC35,8),1)&amp;"."&amp;(MOD(CC35,8)-FLOOR(MOD(CC35,8),1))*60</f>
       </c>
       <c r="CF35" s="5" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="CG35" s="5" t="str">
         <f>INT(LEFT(CF35,2))</f>
@@ -9935,16 +9916,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>81</v>
@@ -9953,13 +9934,13 @@
         <v>81</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I36" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K36" s="5" t="str">
         <f>INT(LEFT(E36,2))</f>
@@ -10181,7 +10162,7 @@
         <f>FLOOR(CC36/8,1)&amp;"."&amp;FLOOR(MOD(CC36,8),1)&amp;"."&amp;(MOD(CC36,8)-FLOOR(MOD(CC36,8),1))*60</f>
       </c>
       <c r="CF36" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="CG36" s="5" t="str">
         <f>INT(LEFT(CF36,2))</f>
@@ -10204,10 +10185,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
@@ -10222,13 +10203,13 @@
         <v>81</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K37" s="5" t="str">
         <f>INT(LEFT(E37,2))</f>
@@ -10339,7 +10320,7 @@
         <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>81</v>
@@ -10450,7 +10431,7 @@
         <f>FLOOR(CC37/8,1)&amp;"."&amp;FLOOR(MOD(CC37,8),1)&amp;"."&amp;(MOD(CC37,8)-FLOOR(MOD(CC37,8),1))*60</f>
       </c>
       <c r="CF37" s="5" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="CG37" s="5" t="str">
         <f>INT(LEFT(CF37,2))</f>
@@ -10473,10 +10454,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -10491,13 +10472,13 @@
         <v>81</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I38" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K38" s="5" t="str">
         <f>INT(LEFT(E38,2))</f>
@@ -10719,7 +10700,7 @@
         <f>FLOOR(CC38/8,1)&amp;"."&amp;FLOOR(MOD(CC38,8),1)&amp;"."&amp;(MOD(CC38,8)-FLOOR(MOD(CC38,8),1))*60</f>
       </c>
       <c r="CF38" s="5" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="CG38" s="5" t="str">
         <f>INT(LEFT(CF38,2))</f>
@@ -10742,16 +10723,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>81</v>
@@ -10760,13 +10741,13 @@
         <v>81</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,2))</f>
@@ -10988,7 +10969,7 @@
         <f>FLOOR(CC39/8,1)&amp;"."&amp;FLOOR(MOD(CC39,8),1)&amp;"."&amp;(MOD(CC39,8)-FLOOR(MOD(CC39,8),1))*60</f>
       </c>
       <c r="CF39" s="5" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="CG39" s="5" t="str">
         <f>INT(LEFT(CF39,2))</f>
@@ -11011,16 +10992,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>81</v>
@@ -11029,13 +11010,13 @@
         <v>81</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I40" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K40" s="5" t="str">
         <f>INT(LEFT(E40,2))</f>
@@ -11257,7 +11238,7 @@
         <f>FLOOR(CC40/8,1)&amp;"."&amp;FLOOR(MOD(CC40,8),1)&amp;"."&amp;(MOD(CC40,8)-FLOOR(MOD(CC40,8),1))*60</f>
       </c>
       <c r="CF40" s="5" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="CG40" s="5" t="str">
         <f>INT(LEFT(CF40,2))</f>
@@ -11280,10 +11261,10 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>0</v>
@@ -11298,13 +11279,13 @@
         <v>81</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K41" s="5" t="str">
         <f>INT(LEFT(E41,2))</f>
@@ -11526,7 +11507,7 @@
         <f>FLOOR(CC41/8,1)&amp;"."&amp;FLOOR(MOD(CC41,8),1)&amp;"."&amp;(MOD(CC41,8)-FLOOR(MOD(CC41,8),1))*60</f>
       </c>
       <c r="CF41" s="5" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="CG41" s="5" t="str">
         <f>INT(LEFT(CF41,2))</f>
@@ -11549,16 +11530,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>81</v>
@@ -11567,13 +11548,13 @@
         <v>81</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" s="5" t="str">
         <f>INT(LEFT(E42,2))</f>
@@ -11795,7 +11776,7 @@
         <f>FLOOR(CC42/8,1)&amp;"."&amp;FLOOR(MOD(CC42,8),1)&amp;"."&amp;(MOD(CC42,8)-FLOOR(MOD(CC42,8),1))*60</f>
       </c>
       <c r="CF42" s="5" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="CG42" s="5" t="str">
         <f>INT(LEFT(CF42,2))</f>
@@ -11818,31 +11799,31 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="I43" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K43" s="5" t="str">
         <f>INT(LEFT(E43,2))</f>
@@ -12064,7 +12045,7 @@
         <f>FLOOR(CC43/8,1)&amp;"."&amp;FLOOR(MOD(CC43,8),1)&amp;"."&amp;(MOD(CC43,8)-FLOOR(MOD(CC43,8),1))*60</f>
       </c>
       <c r="CF43" s="5" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="CG43" s="5" t="str">
         <f>INT(LEFT(CF43,2))</f>
@@ -12087,16 +12068,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>81</v>
@@ -12105,13 +12086,13 @@
         <v>81</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44" s="5" t="str">
         <f>INT(LEFT(E44,2))</f>
@@ -12222,7 +12203,7 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>81</v>
@@ -12333,7 +12314,7 @@
         <f>FLOOR(CC44/8,1)&amp;"."&amp;FLOOR(MOD(CC44,8),1)&amp;"."&amp;(MOD(CC44,8)-FLOOR(MOD(CC44,8),1))*60</f>
       </c>
       <c r="CF44" s="5" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="CG44" s="5" t="str">
         <f>INT(LEFT(CF44,2))</f>
@@ -12356,31 +12337,31 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K45" s="5" t="str">
         <f>INT(LEFT(E45,2))</f>
@@ -12491,10 +12472,10 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AW45" s="5" t="s">
         <v>81</v>
@@ -12602,7 +12583,7 @@
         <f>FLOOR(CC45/8,1)&amp;"."&amp;FLOOR(MOD(CC45,8),1)&amp;"."&amp;(MOD(CC45,8)-FLOOR(MOD(CC45,8),1))*60</f>
       </c>
       <c r="CF45" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="CG45" s="5" t="str">
         <f>INT(LEFT(CF45,2))</f>
@@ -12625,31 +12606,31 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K46" s="5" t="str">
         <f>INT(LEFT(E46,2))</f>
@@ -12871,7 +12852,7 @@
         <f>FLOOR(CC46/8,1)&amp;"."&amp;FLOOR(MOD(CC46,8),1)&amp;"."&amp;(MOD(CC46,8)-FLOOR(MOD(CC46,8),1))*60</f>
       </c>
       <c r="CF46" s="5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="CG46" s="5" t="str">
         <f>INT(LEFT(CF46,2))</f>
@@ -12894,10 +12875,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>0</v>
@@ -12906,19 +12887,19 @@
         <v>81</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K47" s="5" t="str">
         <f>INT(LEFT(E47,2))</f>
@@ -13029,7 +13010,7 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>81</v>
@@ -13140,7 +13121,7 @@
         <f>FLOOR(CC47/8,1)&amp;"."&amp;FLOOR(MOD(CC47,8),1)&amp;"."&amp;(MOD(CC47,8)-FLOOR(MOD(CC47,8),1))*60</f>
       </c>
       <c r="CF47" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="CG47" s="5" t="str">
         <f>INT(LEFT(CF47,2))</f>
@@ -13163,31 +13144,31 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K48" s="5" t="str">
         <f>INT(LEFT(E48,2))</f>
@@ -13298,7 +13279,7 @@
         <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>81</v>
@@ -13409,7 +13390,7 @@
         <f>FLOOR(CC48/8,1)&amp;"."&amp;FLOOR(MOD(CC48,8),1)&amp;"."&amp;(MOD(CC48,8)-FLOOR(MOD(CC48,8),1))*60</f>
       </c>
       <c r="CF48" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="CG48" s="5" t="str">
         <f>INT(LEFT(CF48,2))</f>
@@ -13432,16 +13413,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>151</v>
+        <v>97</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>81</v>
@@ -13450,13 +13431,13 @@
         <v>81</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K49" s="5" t="str">
         <f>INT(LEFT(E49,2))</f>
@@ -13567,10 +13548,10 @@
         <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="AW49" s="5" t="s">
         <v>81</v>
@@ -13678,7 +13659,7 @@
         <f>FLOOR(CC49/8,1)&amp;"."&amp;FLOOR(MOD(CC49,8),1)&amp;"."&amp;(MOD(CC49,8)-FLOOR(MOD(CC49,8),1))*60</f>
       </c>
       <c r="CF49" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="CG49" s="5" t="str">
         <f>INT(LEFT(CF49,2))</f>
@@ -13701,31 +13682,31 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="K50" s="5" t="str">
         <f>INT(LEFT(E50,2))</f>
@@ -13836,7 +13817,7 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>81</v>
@@ -13947,7 +13928,7 @@
         <f>FLOOR(CC50/8,1)&amp;"."&amp;FLOOR(MOD(CC50,8),1)&amp;"."&amp;(MOD(CC50,8)-FLOOR(MOD(CC50,8),1))*60</f>
       </c>
       <c r="CF50" s="5" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="CG50" s="5" t="str">
         <f>INT(LEFT(CF50,2))</f>
@@ -13970,10 +13951,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>0</v>
@@ -13988,13 +13969,13 @@
         <v>81</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51" s="5" t="str">
         <f>INT(LEFT(E51,2))</f>
@@ -14216,7 +14197,7 @@
         <f>FLOOR(CC51/8,1)&amp;"."&amp;FLOOR(MOD(CC51,8),1)&amp;"."&amp;(MOD(CC51,8)-FLOOR(MOD(CC51,8),1))*60</f>
       </c>
       <c r="CF51" s="5" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="CG51" s="5" t="str">
         <f>INT(LEFT(CF51,2))</f>
@@ -14239,10 +14220,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>0</v>
@@ -14257,13 +14238,13 @@
         <v>81</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K52" s="5" t="str">
         <f>INT(LEFT(E52,2))</f>
@@ -14485,7 +14466,7 @@
         <f>FLOOR(CC52/8,1)&amp;"."&amp;FLOOR(MOD(CC52,8),1)&amp;"."&amp;(MOD(CC52,8)-FLOOR(MOD(CC52,8),1))*60</f>
       </c>
       <c r="CF52" s="5" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="CG52" s="5" t="str">
         <f>INT(LEFT(CF52,2))</f>
@@ -14508,10 +14489,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0</v>
@@ -14526,13 +14507,13 @@
         <v>81</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -14754,7 +14735,7 @@
         <f>FLOOR(CC53/8,1)&amp;"."&amp;FLOOR(MOD(CC53,8),1)&amp;"."&amp;(MOD(CC53,8)-FLOOR(MOD(CC53,8),1))*60</f>
       </c>
       <c r="CF53" s="5" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="CG53" s="5" t="str">
         <f>INT(LEFT(CF53,2))</f>
@@ -14773,540 +14754,271 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K54" s="5" t="str">
-        <f>INT(LEFT(E54,2))</f>
-      </c>
-      <c r="L54" s="5" t="str">
-        <f>INT(LEFT(F54,2))</f>
-      </c>
-      <c r="M54" s="5" t="str">
-        <f>INT(LEFT(I54,2))</f>
-      </c>
-      <c r="N54" s="5" t="str">
-        <f>INT(LEFT(G54,2))</f>
-      </c>
-      <c r="O54" s="5" t="str">
-        <f>INT(LEFT(J54,2))</f>
-      </c>
-      <c r="P54" s="5" t="str">
-        <f>INT(LEFT(H54,2))</f>
-      </c>
-      <c r="Q54" s="5" t="str">
-        <f>K54+L54+CG54+IF(M54&gt;O54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
-      </c>
-      <c r="R54" s="5" t="str">
-        <f>IF(LEFT(RIGHT(E54,LEN(E54)-2),1)=".",RIGHT(E54,LEN(E54)-3),RIGHT(E54,LEN(E54)-2))</f>
-      </c>
-      <c r="S54" s="5" t="str">
-        <f>IF(LEFT(RIGHT(F54,LEN(F54)-2),1)=".",RIGHT(F54,LEN(F54)-3),RIGHT(F54,LEN(F54)-2))</f>
-      </c>
-      <c r="T54" s="5" t="str">
-        <f>IF(LEFT(RIGHT(I54,LEN(I54)-2),1)=".",RIGHT(I54,LEN(I54)-3),RIGHT(I54,LEN(I54)-2))</f>
-      </c>
-      <c r="U54" s="5" t="str">
-        <f>IF(LEFT(RIGHT(G54,LEN(G54)-2),1)=".",RIGHT(G54,LEN(G54)-3),RIGHT(G54,LEN(G54)-2))</f>
-      </c>
-      <c r="V54" s="5" t="str">
-        <f>IF(LEFT(RIGHT(J54,LEN(J54)-2),1)=".",RIGHT(J54,LEN(J54)-3),RIGHT(J54,LEN(J54)-2))</f>
-      </c>
-      <c r="W54" s="5" t="str">
-        <f>IF(LEFT(RIGHT(H54,LEN(H54)-2),1)=".",RIGHT(H54,LEN(H54)-3),RIGHT(H54,LEN(H54)-2))</f>
-      </c>
-      <c r="X54" s="5" t="str">
-        <f>INT(LEFT(R54,1))</f>
-      </c>
-      <c r="Y54" s="5" t="str">
-        <f>INT(LEFT(S54,1))</f>
-      </c>
-      <c r="Z54" s="5" t="str">
-        <f>INT(LEFT(T54,1))</f>
-      </c>
-      <c r="AA54" s="5" t="str">
-        <f>INT(LEFT(U54,1))</f>
-      </c>
-      <c r="AB54" s="5" t="str">
-        <f>INT(LEFT(V54,1))</f>
-      </c>
-      <c r="AC54" s="5" t="str">
-        <f>INT(LEFT(W54,1))</f>
-      </c>
-      <c r="AD54" s="5" t="str">
-        <f>R54+S54+CH54+IF(T54&gt;V54,T54-V54,0)+IF(U54&gt;W54,U54-W54,0)</f>
-      </c>
-      <c r="AE54" s="5" t="str">
-        <f>RIGHT(R54,LEN(R54)-2)+0</f>
-      </c>
-      <c r="AF54" s="5" t="str">
-        <f>RIGHT(S54,LEN(S54)-2)+0</f>
-      </c>
-      <c r="AG54" s="5" t="str">
-        <f>RIGHT(T54,LEN(T54)-2)+0</f>
-      </c>
-      <c r="AH54" s="5" t="str">
-        <f>RIGHT(U54,LEN(U54)-2)+0</f>
-      </c>
-      <c r="AI54" s="5" t="str">
-        <f>RIGHT(V54,LEN(V54)-2)+0</f>
-      </c>
-      <c r="AJ54" s="5" t="str">
-        <f>RIGHT(W54,LEN(W54)-2)+0</f>
-      </c>
-      <c r="AK54" s="5" t="str">
-        <f>AE54+AF54+CJ54+IF(AG54&gt;AI54,AG54-AI54,0)+IF(AH54&gt;AJ54,AH54-AJ54,0)</f>
-      </c>
-      <c r="AL54" s="5" t="str">
-        <f>K54*8*60+X54*60+AE54</f>
-      </c>
-      <c r="AM54" s="5" t="str">
-        <f>L54*8*60+Y54*60+AF54</f>
-      </c>
-      <c r="AN54" s="5" t="str">
-        <f>M54*8*60+Z54*60+AG54</f>
-      </c>
-      <c r="AO54" s="5" t="str">
-        <f>N54*8*60+AA54*60+AH54</f>
-      </c>
-      <c r="AP54" s="5" t="str">
-        <f>O54*8*60+AB54*60+AI54</f>
-      </c>
-      <c r="AQ54" s="5" t="str">
-        <f>P54*8*60+AC54*60+AJ54</f>
-      </c>
-      <c r="AR54" s="5" t="str">
-        <f>AL54+AM54+CK54+IF(AN54&gt;AP54,AN54-AP54,0)+IF(AO54&gt;AQ54,AO54-AQ54,0)</f>
-      </c>
-      <c r="AS54" s="5" t="str">
-        <f>AR54/60</f>
-      </c>
-      <c r="AT54" s="5" t="str">
-        <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
-      </c>
-      <c r="AU54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AV54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AW54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AX54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY54" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ54" s="5" t="str">
-        <f>INT(LEFT(AU54,1))</f>
-      </c>
-      <c r="BA54" s="5" t="str">
-        <f>INT(LEFT(AV54,1))</f>
-      </c>
-      <c r="BB54" s="5" t="str">
-        <f>INT(LEFT(AW54,1))</f>
-      </c>
-      <c r="BC54" s="5" t="str">
-        <f>INT(LEFT(AX54,1))</f>
-      </c>
-      <c r="BD54" s="5" t="str">
-        <f>INT(LEFT(AY54,1))</f>
-      </c>
-      <c r="BE54" s="5" t="str">
-        <f>SUM(AZ54,BA54,BB54,BC54,BD54)</f>
-      </c>
-      <c r="BF54" s="5" t="str">
-        <f>RIGHT(AU54,LEN(AU54)-2)</f>
-      </c>
-      <c r="BG54" s="5" t="str">
-        <f>RIGHT(AV54,LEN(AV54)-2)</f>
-      </c>
-      <c r="BH54" s="5" t="str">
-        <f>RIGHT(AW54,LEN(AW54)-2)</f>
-      </c>
-      <c r="BI54" s="5" t="str">
-        <f>RIGHT(AX54,LEN(AX54)-2)</f>
-      </c>
-      <c r="BJ54" s="5" t="str">
-        <f>RIGHT(AY54,LEN(AY54)-2)</f>
-      </c>
-      <c r="BK54" s="5" t="str">
-        <f>INT(LEFT(BF54,1))</f>
-      </c>
-      <c r="BL54" s="5" t="str">
-        <f>INT(LEFT(BG54,1))</f>
-      </c>
-      <c r="BM54" s="5" t="str">
-        <f>INT(LEFT(BH54,1))</f>
-      </c>
-      <c r="BN54" s="5" t="str">
-        <f>INT(LEFT(BI54,1))</f>
-      </c>
-      <c r="BO54" s="5" t="str">
-        <f>INT(LEFT(BJ54,1))</f>
-      </c>
-      <c r="BP54" s="5" t="str">
-        <f>SUM(BK54:BO54)</f>
-      </c>
-      <c r="BQ54" s="5" t="str">
-        <f>RIGHT(BF54,LEN(BF54)-2)+0</f>
-      </c>
-      <c r="BR54" s="5" t="str">
-        <f>RIGHT(BG54,LEN(BG54)-2)+0</f>
-      </c>
-      <c r="BS54" s="5" t="str">
-        <f>RIGHT(BH54,LEN(BH54)-2)+0</f>
-      </c>
-      <c r="BT54" s="5" t="str">
-        <f>RIGHT(BI54,LEN(BI54)-2)+0</f>
-      </c>
-      <c r="BU54" s="5" t="str">
-        <f>RIGHT(BJ54,LEN(BJ54)-2)+0</f>
-      </c>
-      <c r="BV54" s="5" t="str">
-        <f>SUM(BQ54:BU54)</f>
-      </c>
-      <c r="BW54" s="5" t="str">
-        <f>AZ54*8*60+BK54*60+BQ54</f>
-      </c>
-      <c r="BX54" s="5" t="str">
-        <f>BA54*8*60+BL54*60+BR54</f>
-      </c>
-      <c r="BY54" s="5" t="str">
-        <f>BB54*8*60+BM54*60+BS54</f>
-      </c>
-      <c r="BZ54" s="5" t="str">
-        <f>BC54*8*60+BN54*60+BT54</f>
-      </c>
-      <c r="CA54" s="5" t="str">
-        <f>BD54*8*60+BO54*60+BU54</f>
-      </c>
-      <c r="CB54" s="5" t="str">
-        <f>SUM(BW54:CA54)</f>
-      </c>
-      <c r="CC54" s="5" t="str">
-        <f>CB54/60</f>
-      </c>
-      <c r="CD54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE54" s="5" t="str">
-        <f>FLOOR(CC54/8,1)&amp;"."&amp;FLOOR(MOD(CC54,8),1)&amp;"."&amp;(MOD(CC54,8)-FLOOR(MOD(CC54,8),1))*60</f>
-      </c>
-      <c r="CF54" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="CG54" s="5" t="str">
-        <f>INT(LEFT(CF54,2))</f>
-      </c>
-      <c r="CH54" s="5" t="str">
-        <f>IF(LEFT(RIGHT(CF54,LEN(CF54)-2),1)=".",RIGHT(CF54,LEN(CF54)-3),RIGHT(CF54,LEN(CF54)-2))</f>
-      </c>
-      <c r="CI54" s="5" t="str">
-        <f>INT(LEFT(CH54,1))</f>
-      </c>
-      <c r="CJ54" s="5" t="str">
-        <f>RIGHT(CH54,LEN(CH54)-2)+0</f>
-      </c>
-      <c r="CK54" s="5" t="str">
-        <f>CG54*8*60+CI54*60+CJ54</f>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="V55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="W55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="X55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BV55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ55" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="CK55" s="6" t="s">
+      <c r="A54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CK54" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,9 +9,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="179" xml:space="preserve">
-  <si>
-    <t>iRipple, Inc. | DTR Summary Sheet for the period March 21, 2015 to April 03, 2015</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="199" xml:space="preserve">
+  <si>
+    <t>iRipple, Inc. | DTR Summary Sheet for the period May 09, 2015 to May 22, 2015</t>
   </si>
   <si>
     <t>Employee Information</t>
@@ -248,16 +248,34 @@
     <t>5th Column</t>
   </si>
   <si>
+    <t>Abanilla, Orbie</t>
+  </si>
+  <si>
+    <t>Barter Local - Support</t>
+  </si>
+  <si>
+    <t>0.0.0</t>
+  </si>
+  <si>
+    <t>7.4.0</t>
+  </si>
+  <si>
+    <t>Almencion, Elizar</t>
+  </si>
+  <si>
+    <t>International Business - Malaysia</t>
+  </si>
+  <si>
     <t>Arceo, Arwin</t>
   </si>
   <si>
-    <t>International Business - Malaysia</t>
-  </si>
-  <si>
-    <t>0.0.0</t>
-  </si>
-  <si>
-    <t>7.4.0</t>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>6.4.0</t>
+  </si>
+  <si>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Ardamoy, Ma. Rica Catherine</t>
@@ -266,252 +284,291 @@
     <t>Enterprise - Petron</t>
   </si>
   <si>
+    <t>0.2.30</t>
+  </si>
+  <si>
+    <t>Bacani, Eddie Marie</t>
+  </si>
+  <si>
+    <t>International Business - Thailand</t>
+  </si>
+  <si>
     <t>0.0.15</t>
   </si>
   <si>
+    <t>0.0.45</t>
+  </si>
+  <si>
+    <t>Balingit, Barbara</t>
+  </si>
+  <si>
+    <t>HR &amp;amp; Admin</t>
+  </si>
+  <si>
+    <t>Balino, Kamille Diane</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Barrion, Jane Katherine</t>
+  </si>
+  <si>
+    <t>Bayogos, Charmaine</t>
+  </si>
+  <si>
+    <t>Enterprise - Ayagold</t>
+  </si>
+  <si>
+    <t>4.4.0</t>
+  </si>
+  <si>
+    <t>Bernardo, Gianilla Mae</t>
+  </si>
+  <si>
+    <t>0.0.30</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>Biana, Kristine Joy</t>
+  </si>
+  <si>
+    <t>Marketing &amp;amp; Hardware</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>Borlagdan, Aldrin</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>Buena, Ian Christopher</t>
+  </si>
+  <si>
+    <t>0.2.45</t>
+  </si>
+  <si>
+    <t>Buenafe, Rajiv</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>Cansino, Oliver</t>
+  </si>
+  <si>
+    <t>Cataluna, Christian Gilbert</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>CaÃ±ete, Carol Ann</t>
+  </si>
+  <si>
+    <t>Cerbo, Jaycer</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>Ching, Mark Angelo</t>
+  </si>
+  <si>
+    <t>Imaghine</t>
+  </si>
+  <si>
+    <t>0.6.45</t>
+  </si>
+  <si>
+    <t>Cortez, Jomar</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>Cruz, Cesar</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>Delfin, Jonathan</t>
+  </si>
+  <si>
+    <t>International Business - PNG</t>
+  </si>
+  <si>
+    <t>Dino, Arvin</t>
+  </si>
+  <si>
+    <t>0.4.30</t>
+  </si>
+  <si>
+    <t>Dy, Hubert</t>
+  </si>
+  <si>
+    <t>Executive</t>
+  </si>
+  <si>
+    <t>Egamino, Ellen</t>
+  </si>
+  <si>
+    <t>0.1.15</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>8.0.0</t>
+  </si>
+  <si>
+    <t>Enrique, Christian Dan</t>
+  </si>
+  <si>
+    <t>Barter Local - Project</t>
+  </si>
+  <si>
+    <t>Espiritu, Carl Philip</t>
+  </si>
+  <si>
+    <t>0.1.30</t>
+  </si>
+  <si>
+    <t>0.6.0</t>
+  </si>
+  <si>
+    <t>Fadrilan, Liezl</t>
+  </si>
+  <si>
+    <t>Synext (Nexus)</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>Flores, Arianne Grace</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Francisco, Roed Ronualdo </t>
+  </si>
+  <si>
+    <t>Golo, Rianna Rae</t>
+  </si>
+  <si>
+    <t>Barter CX</t>
+  </si>
+  <si>
+    <t>Hernandez, Paulyn Gean</t>
+  </si>
+  <si>
     <t>0.4.0</t>
   </si>
   <si>
-    <t>Bacani, Eddie Marie</t>
-  </si>
-  <si>
-    <t>International Business - Thailand</t>
-  </si>
-  <si>
-    <t>Balingit, Barbara</t>
-  </si>
-  <si>
-    <t>HR &amp;amp; Admin</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Balino, Kamille Diane</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>0.0.45</t>
-  </si>
-  <si>
-    <t>Barrion, Jane Katherine</t>
-  </si>
-  <si>
-    <t>Bayogos, Charmaine</t>
-  </si>
-  <si>
-    <t>Enterprise - Ayagold</t>
-  </si>
-  <si>
-    <t>Borlagdan, Aldrin</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>0.1.15</t>
-  </si>
-  <si>
-    <t>Buena, Ian Christopher</t>
-  </si>
-  <si>
-    <t>0.3.0</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>Buenafe, Rajiv</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
+    <t>Javier, Victor </t>
+  </si>
+  <si>
+    <t>Joson, Alfonso Miguel</t>
+  </si>
+  <si>
+    <t>Enterprise - Prince</t>
+  </si>
+  <si>
+    <t>Keng, Julie</t>
+  </si>
+  <si>
+    <t>8.4.0</t>
+  </si>
+  <si>
+    <t>Laude, Ted Marty</t>
+  </si>
+  <si>
+    <t>Mangundayao, Mac Donald</t>
+  </si>
+  <si>
+    <t>Matias, Ma. Jeremia Jetheth </t>
+  </si>
+  <si>
+    <t>0.4.15</t>
   </si>
   <si>
     <t>3.0.0</t>
   </si>
   <si>
-    <t>Cataluna, Christian Gilbert</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>8.0.0</t>
-  </si>
-  <si>
-    <t>CaÃ±ete, Carol Ann</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>2.4.0</t>
-  </si>
-  <si>
-    <t>Cerbo, Jaycer</t>
-  </si>
-  <si>
-    <t>Ching, Mark Angelo</t>
-  </si>
-  <si>
-    <t>Imaghine</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
-  </si>
-  <si>
-    <t>3.4.0</t>
-  </si>
-  <si>
-    <t>Cortez, Jomar</t>
-  </si>
-  <si>
-    <t>Barter Local - Support</t>
-  </si>
-  <si>
-    <t>Cruz, Cesar</t>
-  </si>
-  <si>
-    <t>Delfin, Jonathan</t>
-  </si>
-  <si>
-    <t>International Business - PNG</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>Dino, Arvin</t>
-  </si>
-  <si>
-    <t>4.4.0</t>
-  </si>
-  <si>
-    <t>Dy, Hubert</t>
-  </si>
-  <si>
-    <t>Executive</t>
-  </si>
-  <si>
-    <t>Egamino, Ellen</t>
+    <t>Mendoza, Diana</t>
+  </si>
+  <si>
+    <t>0.6.30</t>
+  </si>
+  <si>
+    <t>Muncal, Ardo</t>
+  </si>
+  <si>
+    <t>2.3.0</t>
+  </si>
+  <si>
+    <t>Nagnal, Fracy</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>Newsom, Jifferson</t>
+  </si>
+  <si>
+    <t>Pajo, Maricel</t>
+  </si>
+  <si>
+    <t>Patag, Celine Ma. Cecilia</t>
+  </si>
+  <si>
+    <t>Pechuanging, Ma. Antoinette</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Pendre, Contessa</t>
+  </si>
+  <si>
+    <t>Ranes, Jonathan</t>
+  </si>
+  <si>
+    <t>Reyes, Mark Gil</t>
+  </si>
+  <si>
+    <t>0.3.15</t>
+  </si>
+  <si>
+    <t>Reyes, Salvador</t>
+  </si>
+  <si>
+    <t>Santos, Patricia</t>
   </si>
   <si>
     <t>0.1.45</t>
   </si>
   <si>
-    <t>0.7.0</t>
-  </si>
-  <si>
-    <t>Enrique, Christian Dan</t>
-  </si>
-  <si>
-    <t>Barter Local - Project</t>
-  </si>
-  <si>
-    <t>5.0.0</t>
-  </si>
-  <si>
-    <t>Espiritu, Carl Philip</t>
-  </si>
-  <si>
-    <t>1.3.0</t>
-  </si>
-  <si>
-    <t>Fadrilan, Liezl</t>
-  </si>
-  <si>
-    <t>Synext (Nexus)</t>
-  </si>
-  <si>
-    <t>Flores, Arianne Grace</t>
-  </si>
-  <si>
-    <t>1.7.0</t>
-  </si>
-  <si>
-    <t>Francisco, Roed Ronualdo </t>
-  </si>
-  <si>
-    <t>Javier, Victor </t>
-  </si>
-  <si>
-    <t>5.4.0</t>
-  </si>
-  <si>
-    <t>Joson, Alfonso Miguel</t>
-  </si>
-  <si>
-    <t>Keng, Julie</t>
-  </si>
-  <si>
-    <t>Laude, Ted Marty</t>
-  </si>
-  <si>
-    <t>Mangundayao, Mac Donald</t>
-  </si>
-  <si>
-    <t>Barter CX</t>
-  </si>
-  <si>
-    <t>0.0.30</t>
-  </si>
-  <si>
-    <t>Matias, Ma. Jeremia Jetheth </t>
-  </si>
-  <si>
-    <t>0.4.15</t>
-  </si>
-  <si>
-    <t>Mendoza, Diana</t>
-  </si>
-  <si>
-    <t>0.5.15</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>Nagnal, Fracy</t>
-  </si>
-  <si>
-    <t>Newsom, Jifferson</t>
-  </si>
-  <si>
-    <t>Pajo, Maricel</t>
-  </si>
-  <si>
-    <t>Pancho, Jona</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>Pechuanging, Ma. Antoinette</t>
-  </si>
-  <si>
-    <t>Pendre, Contessa</t>
-  </si>
-  <si>
-    <t>Ranes, Jonathan</t>
-  </si>
-  <si>
-    <t>0.1.30</t>
-  </si>
-  <si>
-    <t>Reyes, Mark Gil</t>
-  </si>
-  <si>
-    <t>Reyes, Salvador</t>
-  </si>
-  <si>
-    <t>2.3.0</t>
-  </si>
-  <si>
-    <t>Santos, Patricia</t>
-  </si>
-  <si>
     <t>See, Jenilyn</t>
   </si>
   <si>
@@ -521,25 +578,28 @@
     <t>Enterprise - Primer</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>Soriano, Josif Hans</t>
   </si>
   <si>
+    <t>1.6.0</t>
+  </si>
+  <si>
     <t>Suarez, Katrina </t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>Tabang, Nestor NiÃ±o</t>
   </si>
   <si>
     <t>Tesoro, Rose Natalie</t>
   </si>
   <si>
+    <t>Tragura, Nieva</t>
+  </si>
+  <si>
     <t>Unson, Mary Anne</t>
   </si>
   <si>
-    <t>Marketing &amp;amp; Hardware</t>
+    <t>Valdez, Christine</t>
   </si>
   <si>
     <t>Viloria, Benito Jr.</t>
@@ -661,7 +721,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CK54"/>
+  <dimension ref="A1:CK65"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="D4" state="frozenSplit" activePane="bottomRight" ySplit="3" xSplit="3"/>
@@ -1583,10 +1643,10 @@
         <v>84</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>81</v>
@@ -1823,7 +1883,7 @@
         <f>FLOOR(CC5/8,1)&amp;"."&amp;FLOOR(MOD(CC5,8),1)&amp;"."&amp;(MOD(CC5,8)-FLOOR(MOD(CC5,8),1))*60</f>
       </c>
       <c r="CF5" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG5" s="5" t="str">
         <f>INT(LEFT(CF5,2))</f>
@@ -1846,16 +1906,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>81</v>
@@ -1867,10 +1927,10 @@
         <v>82</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" s="5" t="str">
         <f>INT(LEFT(E6,2))</f>
@@ -2092,7 +2152,7 @@
         <f>FLOOR(CC6/8,1)&amp;"."&amp;FLOOR(MOD(CC6,8),1)&amp;"."&amp;(MOD(CC6,8)-FLOOR(MOD(CC6,8),1))*60</f>
       </c>
       <c r="CF6" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="CG6" s="5" t="str">
         <f>INT(LEFT(CF6,2))</f>
@@ -2121,10 +2181,10 @@
         <v>90</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>81</v>
@@ -2139,7 +2199,7 @@
         <v>81</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>INT(LEFT(E7,2))</f>
@@ -2361,7 +2421,7 @@
         <f>FLOOR(CC7/8,1)&amp;"."&amp;FLOOR(MOD(CC7,8),1)&amp;"."&amp;(MOD(CC7,8)-FLOOR(MOD(CC7,8),1))*60</f>
       </c>
       <c r="CF7" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="CG7" s="5" t="str">
         <f>INT(LEFT(CF7,2))</f>
@@ -2390,13 +2450,13 @@
         <v>93</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>81</v>
@@ -2653,10 +2713,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0</v>
@@ -2899,7 +2959,7 @@
         <f>FLOOR(CC9/8,1)&amp;"."&amp;FLOOR(MOD(CC9,8),1)&amp;"."&amp;(MOD(CC9,8)-FLOOR(MOD(CC9,8),1))*60</f>
       </c>
       <c r="CF9" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG9" s="5" t="str">
         <f>INT(LEFT(CF9,2))</f>
@@ -2922,16 +2982,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>81</v>
@@ -3057,7 +3117,7 @@
         <f>FLOOR(AS10/8,1)&amp;"."&amp;FLOOR(MOD(AS10,8),1)&amp;"."&amp;(MOD(AS10,8)-FLOOR(MOD(AS10,8),1))*60</f>
       </c>
       <c r="AU10" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AV10" s="5" t="s">
         <v>81</v>
@@ -3168,7 +3228,7 @@
         <f>FLOOR(CC10/8,1)&amp;"."&amp;FLOOR(MOD(CC10,8),1)&amp;"."&amp;(MOD(CC10,8)-FLOOR(MOD(CC10,8),1))*60</f>
       </c>
       <c r="CF10" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG10" s="5" t="str">
         <f>INT(LEFT(CF10,2))</f>
@@ -3191,19 +3251,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>81</v>
@@ -3437,7 +3497,7 @@
         <f>FLOOR(CC11/8,1)&amp;"."&amp;FLOOR(MOD(CC11,8),1)&amp;"."&amp;(MOD(CC11,8)-FLOOR(MOD(CC11,8),1))*60</f>
       </c>
       <c r="CF11" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG11" s="5" t="str">
         <f>INT(LEFT(CF11,2))</f>
@@ -3463,16 +3523,16 @@
         <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>81</v>
@@ -3732,13 +3792,13 @@
         <v>104</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>81</v>
@@ -3750,7 +3810,7 @@
         <v>82</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>82</v>
@@ -3864,10 +3924,10 @@
         <f>FLOOR(AS13/8,1)&amp;"."&amp;FLOOR(MOD(AS13,8),1)&amp;"."&amp;(MOD(AS13,8)-FLOOR(MOD(AS13,8),1))*60</f>
       </c>
       <c r="AU13" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AV13" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="AW13" s="5" t="s">
         <v>81</v>
@@ -3975,7 +4035,7 @@
         <f>FLOOR(CC13/8,1)&amp;"."&amp;FLOOR(MOD(CC13,8),1)&amp;"."&amp;(MOD(CC13,8)-FLOOR(MOD(CC13,8),1))*60</f>
       </c>
       <c r="CF13" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="CG13" s="5" t="str">
         <f>INT(LEFT(CF13,2))</f>
@@ -4010,7 +4070,7 @@
         <v>81</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>81</v>
@@ -4133,7 +4193,7 @@
         <f>FLOOR(AS14/8,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>81</v>
@@ -4244,7 +4304,7 @@
         <f>FLOOR(CC14/8,1)&amp;"."&amp;FLOOR(MOD(CC14,8),1)&amp;"."&amp;(MOD(CC14,8)-FLOOR(MOD(CC14,8),1))*60</f>
       </c>
       <c r="CF14" s="5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="CG14" s="5" t="str">
         <f>INT(LEFT(CF14,2))</f>
@@ -4267,16 +4327,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>81</v>
@@ -4513,7 +4573,7 @@
         <f>FLOOR(CC15/8,1)&amp;"."&amp;FLOOR(MOD(CC15,8),1)&amp;"."&amp;(MOD(CC15,8)-FLOOR(MOD(CC15,8),1))*60</f>
       </c>
       <c r="CF15" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="CG15" s="5" t="str">
         <f>INT(LEFT(CF15,2))</f>
@@ -4536,19 +4596,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>81</v>
@@ -4782,7 +4842,7 @@
         <f>FLOOR(CC16/8,1)&amp;"."&amp;FLOOR(MOD(CC16,8),1)&amp;"."&amp;(MOD(CC16,8)-FLOOR(MOD(CC16,8),1))*60</f>
       </c>
       <c r="CF16" s="5" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="CG16" s="5" t="str">
         <f>INT(LEFT(CF16,2))</f>
@@ -4805,10 +4865,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -4817,7 +4877,7 @@
         <v>81</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>81</v>
@@ -5077,19 +5137,19 @@
         <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>82</v>
@@ -5209,7 +5269,7 @@
         <f>FLOOR(AS18/8,1)&amp;"."&amp;FLOOR(MOD(AS18,8),1)&amp;"."&amp;(MOD(AS18,8)-FLOOR(MOD(AS18,8),1))*60</f>
       </c>
       <c r="AU18" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="AV18" s="5" t="s">
         <v>81</v>
@@ -5320,7 +5380,7 @@
         <f>FLOOR(CC18/8,1)&amp;"."&amp;FLOOR(MOD(CC18,8),1)&amp;"."&amp;(MOD(CC18,8)-FLOOR(MOD(CC18,8),1))*60</f>
       </c>
       <c r="CF18" s="5" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="CG18" s="5" t="str">
         <f>INT(LEFT(CF18,2))</f>
@@ -5343,16 +5403,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="D19" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>81</v>
@@ -5589,7 +5649,7 @@
         <f>FLOOR(CC19/8,1)&amp;"."&amp;FLOOR(MOD(CC19,8),1)&amp;"."&amp;(MOD(CC19,8)-FLOOR(MOD(CC19,8),1))*60</f>
       </c>
       <c r="CF19" s="5" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="CG19" s="5" t="str">
         <f>INT(LEFT(CF19,2))</f>
@@ -5615,13 +5675,13 @@
         <v>121</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>81</v>
@@ -5633,10 +5693,10 @@
         <v>82</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,2))</f>
@@ -5747,10 +5807,10 @@
         <f>FLOOR(AS20/8,1)&amp;"."&amp;FLOOR(MOD(AS20,8),1)&amp;"."&amp;(MOD(AS20,8)-FLOOR(MOD(AS20,8),1))*60</f>
       </c>
       <c r="AU20" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="AV20" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AW20" s="5" t="s">
         <v>81</v>
@@ -5881,7 +5941,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>99</v>
@@ -5893,7 +5953,7 @@
         <v>81</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>81</v>
@@ -6019,7 +6079,7 @@
         <v>81</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="AW21" s="5" t="s">
         <v>81</v>
@@ -6127,7 +6187,7 @@
         <f>FLOOR(CC21/8,1)&amp;"."&amp;FLOOR(MOD(CC21,8),1)&amp;"."&amp;(MOD(CC21,8)-FLOOR(MOD(CC21,8),1))*60</f>
       </c>
       <c r="CF21" s="5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="CG21" s="5" t="str">
         <f>INT(LEFT(CF21,2))</f>
@@ -6150,19 +6210,19 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>81</v>
@@ -6419,31 +6479,31 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,2))</f>
@@ -6554,7 +6614,7 @@
         <f>FLOOR(AS23/8,1)&amp;"."&amp;FLOOR(MOD(AS23,8),1)&amp;"."&amp;(MOD(AS23,8)-FLOOR(MOD(AS23,8),1))*60</f>
       </c>
       <c r="AU23" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AV23" s="5" t="s">
         <v>81</v>
@@ -6665,7 +6725,7 @@
         <f>FLOOR(CC23/8,1)&amp;"."&amp;FLOOR(MOD(CC23,8),1)&amp;"."&amp;(MOD(CC23,8)-FLOOR(MOD(CC23,8),1))*60</f>
       </c>
       <c r="CF23" s="5" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="CG23" s="5" t="str">
         <f>INT(LEFT(CF23,2))</f>
@@ -6688,16 +6748,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>81</v>
@@ -6712,7 +6772,7 @@
         <v>81</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K24" s="5" t="str">
         <f>INT(LEFT(E24,2))</f>
@@ -6934,7 +6994,7 @@
         <f>FLOOR(CC24/8,1)&amp;"."&amp;FLOOR(MOD(CC24,8),1)&amp;"."&amp;(MOD(CC24,8)-FLOOR(MOD(CC24,8),1))*60</f>
       </c>
       <c r="CF24" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="CG24" s="5" t="str">
         <f>INT(LEFT(CF24,2))</f>
@@ -6957,16 +7017,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>81</v>
@@ -7092,10 +7152,10 @@
         <f>FLOOR(AS25/8,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="AV25" s="5" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="AW25" s="5" t="s">
         <v>81</v>
@@ -7203,7 +7263,7 @@
         <f>FLOOR(CC25/8,1)&amp;"."&amp;FLOOR(MOD(CC25,8),1)&amp;"."&amp;(MOD(CC25,8)-FLOOR(MOD(CC25,8),1))*60</f>
       </c>
       <c r="CF25" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="CG25" s="5" t="str">
         <f>INT(LEFT(CF25,2))</f>
@@ -7226,10 +7286,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -7238,7 +7298,7 @@
         <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>81</v>
@@ -7472,7 +7532,7 @@
         <f>FLOOR(CC26/8,1)&amp;"."&amp;FLOOR(MOD(CC26,8),1)&amp;"."&amp;(MOD(CC26,8)-FLOOR(MOD(CC26,8),1))*60</f>
       </c>
       <c r="CF26" s="5" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="CG26" s="5" t="str">
         <f>INT(LEFT(CF26,2))</f>
@@ -7495,10 +7555,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
@@ -7630,7 +7690,7 @@
         <f>FLOOR(AS27/8,1)&amp;"."&amp;FLOOR(MOD(AS27,8),1)&amp;"."&amp;(MOD(AS27,8)-FLOOR(MOD(AS27,8),1))*60</f>
       </c>
       <c r="AU27" s="5" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="AV27" s="5" t="s">
         <v>81</v>
@@ -7741,7 +7801,7 @@
         <f>FLOOR(CC27/8,1)&amp;"."&amp;FLOOR(MOD(CC27,8),1)&amp;"."&amp;(MOD(CC27,8)-FLOOR(MOD(CC27,8),1))*60</f>
       </c>
       <c r="CF27" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CG27" s="5" t="str">
         <f>INT(LEFT(CF27,2))</f>
@@ -7764,19 +7824,19 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>81</v>
@@ -7899,10 +7959,10 @@
         <f>FLOOR(AS28/8,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>81</v>
+        <v>140</v>
       </c>
       <c r="AV28" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AW28" s="5" t="s">
         <v>81</v>
@@ -8010,7 +8070,7 @@
         <f>FLOOR(CC28/8,1)&amp;"."&amp;FLOOR(MOD(CC28,8),1)&amp;"."&amp;(MOD(CC28,8)-FLOOR(MOD(CC28,8),1))*60</f>
       </c>
       <c r="CF28" s="5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="CG28" s="5" t="str">
         <f>INT(LEFT(CF28,2))</f>
@@ -8033,10 +8093,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
@@ -8279,7 +8339,7 @@
         <f>FLOOR(CC29/8,1)&amp;"."&amp;FLOOR(MOD(CC29,8),1)&amp;"."&amp;(MOD(CC29,8)-FLOOR(MOD(CC29,8),1))*60</f>
       </c>
       <c r="CF29" s="5" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="CG29" s="5" t="str">
         <f>INT(LEFT(CF29,2))</f>
@@ -8302,19 +8362,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>81</v>
@@ -8437,7 +8497,7 @@
         <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>81</v>
@@ -8449,7 +8509,7 @@
         <v>81</v>
       </c>
       <c r="AY30" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AZ30" s="5" t="str">
         <f>INT(LEFT(AU30,1))</f>
@@ -8548,7 +8608,7 @@
         <f>FLOOR(CC30/8,1)&amp;"."&amp;FLOOR(MOD(CC30,8),1)&amp;"."&amp;(MOD(CC30,8)-FLOOR(MOD(CC30,8),1))*60</f>
       </c>
       <c r="CF30" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="CG30" s="5" t="str">
         <f>INT(LEFT(CF30,2))</f>
@@ -8571,10 +8631,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
@@ -8817,7 +8877,7 @@
         <f>FLOOR(CC31/8,1)&amp;"."&amp;FLOOR(MOD(CC31,8),1)&amp;"."&amp;(MOD(CC31,8)-FLOOR(MOD(CC31,8),1))*60</f>
       </c>
       <c r="CF31" s="5" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="CG31" s="5" t="str">
         <f>INT(LEFT(CF31,2))</f>
@@ -8840,22 +8900,22 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>82</v>
@@ -8864,7 +8924,7 @@
         <v>81</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,2))</f>
@@ -8975,10 +9035,10 @@
         <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="AW32" s="5" t="s">
         <v>81</v>
@@ -9086,7 +9146,7 @@
         <f>FLOOR(CC32/8,1)&amp;"."&amp;FLOOR(MOD(CC32,8),1)&amp;"."&amp;(MOD(CC32,8)-FLOOR(MOD(CC32,8),1))*60</f>
       </c>
       <c r="CF32" s="5" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="CG32" s="5" t="str">
         <f>INT(LEFT(CF32,2))</f>
@@ -9109,16 +9169,16 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>81</v>
@@ -9244,10 +9304,10 @@
         <f>FLOOR(AS33/8,1)&amp;"."&amp;FLOOR(MOD(AS33,8),1)&amp;"."&amp;(MOD(AS33,8)-FLOOR(MOD(AS33,8),1))*60</f>
       </c>
       <c r="AU33" s="5" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="AW33" s="5" t="s">
         <v>81</v>
@@ -9355,7 +9415,7 @@
         <f>FLOOR(CC33/8,1)&amp;"."&amp;FLOOR(MOD(CC33,8),1)&amp;"."&amp;(MOD(CC33,8)-FLOOR(MOD(CC33,8),1))*60</f>
       </c>
       <c r="CF33" s="5" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="CG33" s="5" t="str">
         <f>INT(LEFT(CF33,2))</f>
@@ -9378,16 +9438,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>81</v>
@@ -9399,7 +9459,7 @@
         <v>82</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>82</v>
@@ -9647,16 +9707,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>81</v>
@@ -9893,7 +9953,7 @@
         <f>FLOOR(CC35/8,1)&amp;"."&amp;FLOOR(MOD(CC35,8),1)&amp;"."&amp;(MOD(CC35,8)-FLOOR(MOD(CC35,8),1))*60</f>
       </c>
       <c r="CF35" s="5" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="CG35" s="5" t="str">
         <f>INT(LEFT(CF35,2))</f>
@@ -9916,10 +9976,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
@@ -10162,7 +10222,7 @@
         <f>FLOOR(CC36/8,1)&amp;"."&amp;FLOOR(MOD(CC36,8),1)&amp;"."&amp;(MOD(CC36,8)-FLOOR(MOD(CC36,8),1))*60</f>
       </c>
       <c r="CF36" s="5" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="CG36" s="5" t="str">
         <f>INT(LEFT(CF36,2))</f>
@@ -10185,16 +10245,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="D37" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>81</v>
@@ -10206,7 +10266,7 @@
         <v>82</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>82</v>
@@ -10320,7 +10380,7 @@
         <f>FLOOR(AS37/8,1)&amp;"."&amp;FLOOR(MOD(AS37,8),1)&amp;"."&amp;(MOD(AS37,8)-FLOOR(MOD(AS37,8),1))*60</f>
       </c>
       <c r="AU37" s="5" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="AV37" s="5" t="s">
         <v>81</v>
@@ -10431,7 +10491,7 @@
         <f>FLOOR(CC37/8,1)&amp;"."&amp;FLOOR(MOD(CC37,8),1)&amp;"."&amp;(MOD(CC37,8)-FLOOR(MOD(CC37,8),1))*60</f>
       </c>
       <c r="CF37" s="5" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="CG37" s="5" t="str">
         <f>INT(LEFT(CF37,2))</f>
@@ -10454,10 +10514,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -10700,7 +10760,7 @@
         <f>FLOOR(CC38/8,1)&amp;"."&amp;FLOOR(MOD(CC38,8),1)&amp;"."&amp;(MOD(CC38,8)-FLOOR(MOD(CC38,8),1))*60</f>
       </c>
       <c r="CF38" s="5" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="CG38" s="5" t="str">
         <f>INT(LEFT(CF38,2))</f>
@@ -10723,16 +10783,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>81</v>
@@ -10744,10 +10804,10 @@
         <v>82</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K39" s="5" t="str">
         <f>INT(LEFT(E39,2))</f>
@@ -10969,7 +11029,7 @@
         <f>FLOOR(CC39/8,1)&amp;"."&amp;FLOOR(MOD(CC39,8),1)&amp;"."&amp;(MOD(CC39,8)-FLOOR(MOD(CC39,8),1))*60</f>
       </c>
       <c r="CF39" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="CG39" s="5" t="str">
         <f>INT(LEFT(CF39,2))</f>
@@ -10992,16 +11052,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>81</v>
@@ -11013,7 +11073,7 @@
         <v>82</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>82</v>
@@ -11127,7 +11187,7 @@
         <f>FLOOR(AS40/8,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>81</v>
@@ -11238,7 +11298,7 @@
         <f>FLOOR(CC40/8,1)&amp;"."&amp;FLOOR(MOD(CC40,8),1)&amp;"."&amp;(MOD(CC40,8)-FLOOR(MOD(CC40,8),1))*60</f>
       </c>
       <c r="CF40" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="CG40" s="5" t="str">
         <f>INT(LEFT(CF40,2))</f>
@@ -11261,16 +11321,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>81</v>
@@ -11507,7 +11567,7 @@
         <f>FLOOR(CC41/8,1)&amp;"."&amp;FLOOR(MOD(CC41,8),1)&amp;"."&amp;(MOD(CC41,8)-FLOOR(MOD(CC41,8),1))*60</f>
       </c>
       <c r="CF41" s="5" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="CG41" s="5" t="str">
         <f>INT(LEFT(CF41,2))</f>
@@ -11530,16 +11590,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>81</v>
@@ -11776,7 +11836,7 @@
         <f>FLOOR(CC42/8,1)&amp;"."&amp;FLOOR(MOD(CC42,8),1)&amp;"."&amp;(MOD(CC42,8)-FLOOR(MOD(CC42,8),1))*60</f>
       </c>
       <c r="CF42" s="5" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="CG42" s="5" t="str">
         <f>INT(LEFT(CF42,2))</f>
@@ -11799,19 +11859,19 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>81</v>
@@ -11934,7 +11994,7 @@
         <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>81</v>
@@ -12045,7 +12105,7 @@
         <f>FLOOR(CC43/8,1)&amp;"."&amp;FLOOR(MOD(CC43,8),1)&amp;"."&amp;(MOD(CC43,8)-FLOOR(MOD(CC43,8),1))*60</f>
       </c>
       <c r="CF43" s="5" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="CG43" s="5" t="str">
         <f>INT(LEFT(CF43,2))</f>
@@ -12068,16 +12128,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D44" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>81</v>
@@ -12203,7 +12263,7 @@
         <f>FLOOR(AS44/8,1)&amp;"."&amp;FLOOR(MOD(AS44,8),1)&amp;"."&amp;(MOD(AS44,8)-FLOOR(MOD(AS44,8),1))*60</f>
       </c>
       <c r="AU44" s="5" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="AV44" s="5" t="s">
         <v>81</v>
@@ -12314,7 +12374,7 @@
         <f>FLOOR(CC44/8,1)&amp;"."&amp;FLOOR(MOD(CC44,8),1)&amp;"."&amp;(MOD(CC44,8)-FLOOR(MOD(CC44,8),1))*60</f>
       </c>
       <c r="CF44" s="5" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="CG44" s="5" t="str">
         <f>INT(LEFT(CF44,2))</f>
@@ -12337,10 +12397,10 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>0</v>
@@ -12472,10 +12532,10 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="AV45" s="5" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AW45" s="5" t="s">
         <v>81</v>
@@ -12583,7 +12643,7 @@
         <f>FLOOR(CC45/8,1)&amp;"."&amp;FLOOR(MOD(CC45,8),1)&amp;"."&amp;(MOD(CC45,8)-FLOOR(MOD(CC45,8),1))*60</f>
       </c>
       <c r="CF45" s="5" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="CG45" s="5" t="str">
         <f>INT(LEFT(CF45,2))</f>
@@ -12606,10 +12666,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>0</v>
@@ -12618,7 +12678,7 @@
         <v>81</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>81</v>
@@ -12852,7 +12912,7 @@
         <f>FLOOR(CC46/8,1)&amp;"."&amp;FLOOR(MOD(CC46,8),1)&amp;"."&amp;(MOD(CC46,8)-FLOOR(MOD(CC46,8),1))*60</f>
       </c>
       <c r="CF46" s="5" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="CG46" s="5" t="str">
         <f>INT(LEFT(CF46,2))</f>
@@ -12875,19 +12935,19 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>81</v>
@@ -13010,7 +13070,7 @@
         <f>FLOOR(AS47/8,1)&amp;"."&amp;FLOOR(MOD(AS47,8),1)&amp;"."&amp;(MOD(AS47,8)-FLOOR(MOD(AS47,8),1))*60</f>
       </c>
       <c r="AU47" s="5" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="AV47" s="5" t="s">
         <v>81</v>
@@ -13121,7 +13181,7 @@
         <f>FLOOR(CC47/8,1)&amp;"."&amp;FLOOR(MOD(CC47,8),1)&amp;"."&amp;(MOD(CC47,8)-FLOOR(MOD(CC47,8),1))*60</f>
       </c>
       <c r="CF47" s="5" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="CG47" s="5" t="str">
         <f>INT(LEFT(CF47,2))</f>
@@ -13144,16 +13204,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>81</v>
@@ -13279,7 +13339,7 @@
         <f>FLOOR(AS48/8,1)&amp;"."&amp;FLOOR(MOD(AS48,8),1)&amp;"."&amp;(MOD(AS48,8)-FLOOR(MOD(AS48,8),1))*60</f>
       </c>
       <c r="AU48" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AV48" s="5" t="s">
         <v>81</v>
@@ -13390,7 +13450,7 @@
         <f>FLOOR(CC48/8,1)&amp;"."&amp;FLOOR(MOD(CC48,8),1)&amp;"."&amp;(MOD(CC48,8)-FLOOR(MOD(CC48,8),1))*60</f>
       </c>
       <c r="CF48" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="CG48" s="5" t="str">
         <f>INT(LEFT(CF48,2))</f>
@@ -13413,16 +13473,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>81</v>
@@ -13548,7 +13608,7 @@
         <f>FLOOR(AS49/8,1)&amp;"."&amp;FLOOR(MOD(AS49,8),1)&amp;"."&amp;(MOD(AS49,8)-FLOOR(MOD(AS49,8),1))*60</f>
       </c>
       <c r="AU49" s="5" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="AV49" s="5" t="s">
         <v>81</v>
@@ -13659,7 +13719,7 @@
         <f>FLOOR(CC49/8,1)&amp;"."&amp;FLOOR(MOD(CC49,8),1)&amp;"."&amp;(MOD(CC49,8)-FLOOR(MOD(CC49,8),1))*60</f>
       </c>
       <c r="CF49" s="5" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="CG49" s="5" t="str">
         <f>INT(LEFT(CF49,2))</f>
@@ -13682,19 +13742,19 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D50" s="5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>81</v>
@@ -13817,7 +13877,7 @@
         <f>FLOOR(AS50/8,1)&amp;"."&amp;FLOOR(MOD(AS50,8),1)&amp;"."&amp;(MOD(AS50,8)-FLOOR(MOD(AS50,8),1))*60</f>
       </c>
       <c r="AU50" s="5" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AV50" s="5" t="s">
         <v>81</v>
@@ -13928,7 +13988,7 @@
         <f>FLOOR(CC50/8,1)&amp;"."&amp;FLOOR(MOD(CC50,8),1)&amp;"."&amp;(MOD(CC50,8)-FLOOR(MOD(CC50,8),1))*60</f>
       </c>
       <c r="CF50" s="5" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="CG50" s="5" t="str">
         <f>INT(LEFT(CF50,2))</f>
@@ -13951,16 +14011,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>81</v>
@@ -14197,7 +14257,7 @@
         <f>FLOOR(CC51/8,1)&amp;"."&amp;FLOOR(MOD(CC51,8),1)&amp;"."&amp;(MOD(CC51,8)-FLOOR(MOD(CC51,8),1))*60</f>
       </c>
       <c r="CF51" s="5" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="CG51" s="5" t="str">
         <f>INT(LEFT(CF51,2))</f>
@@ -14220,19 +14280,19 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>81</v>
@@ -14466,7 +14526,7 @@
         <f>FLOOR(CC52/8,1)&amp;"."&amp;FLOOR(MOD(CC52,8),1)&amp;"."&amp;(MOD(CC52,8)-FLOOR(MOD(CC52,8),1))*60</f>
       </c>
       <c r="CF52" s="5" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="CG52" s="5" t="str">
         <f>INT(LEFT(CF52,2))</f>
@@ -14489,10 +14549,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>0</v>
@@ -14501,7 +14561,7 @@
         <v>81</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>81</v>
@@ -14513,7 +14573,7 @@
         <v>81</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -14735,7 +14795,7 @@
         <f>FLOOR(CC53/8,1)&amp;"."&amp;FLOOR(MOD(CC53,8),1)&amp;"."&amp;(MOD(CC53,8)-FLOOR(MOD(CC53,8),1))*60</f>
       </c>
       <c r="CF53" s="5" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="CG53" s="5" t="str">
         <f>INT(LEFT(CF53,2))</f>
@@ -14754,271 +14814,3230 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K54" s="5" t="str">
+        <f>INT(LEFT(E54,2))</f>
+      </c>
+      <c r="L54" s="5" t="str">
+        <f>INT(LEFT(F54,2))</f>
+      </c>
+      <c r="M54" s="5" t="str">
+        <f>INT(LEFT(I54,2))</f>
+      </c>
+      <c r="N54" s="5" t="str">
+        <f>INT(LEFT(G54,2))</f>
+      </c>
+      <c r="O54" s="5" t="str">
+        <f>INT(LEFT(J54,2))</f>
+      </c>
+      <c r="P54" s="5" t="str">
+        <f>INT(LEFT(H54,2))</f>
+      </c>
+      <c r="Q54" s="5" t="str">
+        <f>K54+L54+CG54+IF(M54&gt;O54,M54-O54,0)+IF(N54&gt;P54,N54-P54,0)</f>
+      </c>
+      <c r="R54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E54,LEN(E54)-2),1)=".",RIGHT(E54,LEN(E54)-3),RIGHT(E54,LEN(E54)-2))</f>
+      </c>
+      <c r="S54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F54,LEN(F54)-2),1)=".",RIGHT(F54,LEN(F54)-3),RIGHT(F54,LEN(F54)-2))</f>
+      </c>
+      <c r="T54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I54,LEN(I54)-2),1)=".",RIGHT(I54,LEN(I54)-3),RIGHT(I54,LEN(I54)-2))</f>
+      </c>
+      <c r="U54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G54,LEN(G54)-2),1)=".",RIGHT(G54,LEN(G54)-3),RIGHT(G54,LEN(G54)-2))</f>
+      </c>
+      <c r="V54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J54,LEN(J54)-2),1)=".",RIGHT(J54,LEN(J54)-3),RIGHT(J54,LEN(J54)-2))</f>
+      </c>
+      <c r="W54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H54,LEN(H54)-2),1)=".",RIGHT(H54,LEN(H54)-3),RIGHT(H54,LEN(H54)-2))</f>
+      </c>
+      <c r="X54" s="5" t="str">
+        <f>INT(LEFT(R54,1))</f>
+      </c>
+      <c r="Y54" s="5" t="str">
+        <f>INT(LEFT(S54,1))</f>
+      </c>
+      <c r="Z54" s="5" t="str">
+        <f>INT(LEFT(T54,1))</f>
+      </c>
+      <c r="AA54" s="5" t="str">
+        <f>INT(LEFT(U54,1))</f>
+      </c>
+      <c r="AB54" s="5" t="str">
+        <f>INT(LEFT(V54,1))</f>
+      </c>
+      <c r="AC54" s="5" t="str">
+        <f>INT(LEFT(W54,1))</f>
+      </c>
+      <c r="AD54" s="5" t="str">
+        <f>R54+S54+CH54+IF(T54&gt;V54,T54-V54,0)+IF(U54&gt;W54,U54-W54,0)</f>
+      </c>
+      <c r="AE54" s="5" t="str">
+        <f>RIGHT(R54,LEN(R54)-2)+0</f>
+      </c>
+      <c r="AF54" s="5" t="str">
+        <f>RIGHT(S54,LEN(S54)-2)+0</f>
+      </c>
+      <c r="AG54" s="5" t="str">
+        <f>RIGHT(T54,LEN(T54)-2)+0</f>
+      </c>
+      <c r="AH54" s="5" t="str">
+        <f>RIGHT(U54,LEN(U54)-2)+0</f>
+      </c>
+      <c r="AI54" s="5" t="str">
+        <f>RIGHT(V54,LEN(V54)-2)+0</f>
+      </c>
+      <c r="AJ54" s="5" t="str">
+        <f>RIGHT(W54,LEN(W54)-2)+0</f>
+      </c>
+      <c r="AK54" s="5" t="str">
+        <f>AE54+AF54+CJ54+IF(AG54&gt;AI54,AG54-AI54,0)+IF(AH54&gt;AJ54,AH54-AJ54,0)</f>
+      </c>
+      <c r="AL54" s="5" t="str">
+        <f>K54*8*60+X54*60+AE54</f>
+      </c>
+      <c r="AM54" s="5" t="str">
+        <f>L54*8*60+Y54*60+AF54</f>
+      </c>
+      <c r="AN54" s="5" t="str">
+        <f>M54*8*60+Z54*60+AG54</f>
+      </c>
+      <c r="AO54" s="5" t="str">
+        <f>N54*8*60+AA54*60+AH54</f>
+      </c>
+      <c r="AP54" s="5" t="str">
+        <f>O54*8*60+AB54*60+AI54</f>
+      </c>
+      <c r="AQ54" s="5" t="str">
+        <f>P54*8*60+AC54*60+AJ54</f>
+      </c>
+      <c r="AR54" s="5" t="str">
+        <f>AL54+AM54+CK54+IF(AN54&gt;AP54,AN54-AP54,0)+IF(AO54&gt;AQ54,AO54-AQ54,0)</f>
+      </c>
+      <c r="AS54" s="5" t="str">
+        <f>AR54/60</f>
+      </c>
+      <c r="AT54" s="5" t="str">
+        <f>FLOOR(AS54/8,1)&amp;"."&amp;FLOOR(MOD(AS54,8),1)&amp;"."&amp;(MOD(AS54,8)-FLOOR(MOD(AS54,8),1))*60</f>
+      </c>
+      <c r="AU54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY54" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ54" s="5" t="str">
+        <f>INT(LEFT(AU54,1))</f>
+      </c>
+      <c r="BA54" s="5" t="str">
+        <f>INT(LEFT(AV54,1))</f>
+      </c>
+      <c r="BB54" s="5" t="str">
+        <f>INT(LEFT(AW54,1))</f>
+      </c>
+      <c r="BC54" s="5" t="str">
+        <f>INT(LEFT(AX54,1))</f>
+      </c>
+      <c r="BD54" s="5" t="str">
+        <f>INT(LEFT(AY54,1))</f>
+      </c>
+      <c r="BE54" s="5" t="str">
+        <f>SUM(AZ54,BA54,BB54,BC54,BD54)</f>
+      </c>
+      <c r="BF54" s="5" t="str">
+        <f>RIGHT(AU54,LEN(AU54)-2)</f>
+      </c>
+      <c r="BG54" s="5" t="str">
+        <f>RIGHT(AV54,LEN(AV54)-2)</f>
+      </c>
+      <c r="BH54" s="5" t="str">
+        <f>RIGHT(AW54,LEN(AW54)-2)</f>
+      </c>
+      <c r="BI54" s="5" t="str">
+        <f>RIGHT(AX54,LEN(AX54)-2)</f>
+      </c>
+      <c r="BJ54" s="5" t="str">
+        <f>RIGHT(AY54,LEN(AY54)-2)</f>
+      </c>
+      <c r="BK54" s="5" t="str">
+        <f>INT(LEFT(BF54,1))</f>
+      </c>
+      <c r="BL54" s="5" t="str">
+        <f>INT(LEFT(BG54,1))</f>
+      </c>
+      <c r="BM54" s="5" t="str">
+        <f>INT(LEFT(BH54,1))</f>
+      </c>
+      <c r="BN54" s="5" t="str">
+        <f>INT(LEFT(BI54,1))</f>
+      </c>
+      <c r="BO54" s="5" t="str">
+        <f>INT(LEFT(BJ54,1))</f>
+      </c>
+      <c r="BP54" s="5" t="str">
+        <f>SUM(BK54:BO54)</f>
+      </c>
+      <c r="BQ54" s="5" t="str">
+        <f>RIGHT(BF54,LEN(BF54)-2)+0</f>
+      </c>
+      <c r="BR54" s="5" t="str">
+        <f>RIGHT(BG54,LEN(BG54)-2)+0</f>
+      </c>
+      <c r="BS54" s="5" t="str">
+        <f>RIGHT(BH54,LEN(BH54)-2)+0</f>
+      </c>
+      <c r="BT54" s="5" t="str">
+        <f>RIGHT(BI54,LEN(BI54)-2)+0</f>
+      </c>
+      <c r="BU54" s="5" t="str">
+        <f>RIGHT(BJ54,LEN(BJ54)-2)+0</f>
+      </c>
+      <c r="BV54" s="5" t="str">
+        <f>SUM(BQ54:BU54)</f>
+      </c>
+      <c r="BW54" s="5" t="str">
+        <f>AZ54*8*60+BK54*60+BQ54</f>
+      </c>
+      <c r="BX54" s="5" t="str">
+        <f>BA54*8*60+BL54*60+BR54</f>
+      </c>
+      <c r="BY54" s="5" t="str">
+        <f>BB54*8*60+BM54*60+BS54</f>
+      </c>
+      <c r="BZ54" s="5" t="str">
+        <f>BC54*8*60+BN54*60+BT54</f>
+      </c>
+      <c r="CA54" s="5" t="str">
+        <f>BD54*8*60+BO54*60+BU54</f>
+      </c>
+      <c r="CB54" s="5" t="str">
+        <f>SUM(BW54:CA54)</f>
+      </c>
+      <c r="CC54" s="5" t="str">
+        <f>CB54/60</f>
+      </c>
+      <c r="CD54" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE54" s="5" t="str">
+        <f>FLOOR(CC54/8,1)&amp;"."&amp;FLOOR(MOD(CC54,8),1)&amp;"."&amp;(MOD(CC54,8)-FLOOR(MOD(CC54,8),1))*60</f>
+      </c>
+      <c r="CF54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="CG54" s="5" t="str">
+        <f>INT(LEFT(CF54,2))</f>
+      </c>
+      <c r="CH54" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF54,LEN(CF54)-2),1)=".",RIGHT(CF54,LEN(CF54)-3),RIGHT(CF54,LEN(CF54)-2))</f>
+      </c>
+      <c r="CI54" s="5" t="str">
+        <f>INT(LEFT(CH54,1))</f>
+      </c>
+      <c r="CJ54" s="5" t="str">
+        <f>RIGHT(CH54,LEN(CH54)-2)+0</f>
+      </c>
+      <c r="CK54" s="5" t="str">
+        <f>CG54*8*60+CI54*60+CJ54</f>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55" s="5" t="str">
+        <f>INT(LEFT(E55,2))</f>
+      </c>
+      <c r="L55" s="5" t="str">
+        <f>INT(LEFT(F55,2))</f>
+      </c>
+      <c r="M55" s="5" t="str">
+        <f>INT(LEFT(I55,2))</f>
+      </c>
+      <c r="N55" s="5" t="str">
+        <f>INT(LEFT(G55,2))</f>
+      </c>
+      <c r="O55" s="5" t="str">
+        <f>INT(LEFT(J55,2))</f>
+      </c>
+      <c r="P55" s="5" t="str">
+        <f>INT(LEFT(H55,2))</f>
+      </c>
+      <c r="Q55" s="5" t="str">
+        <f>K55+L55+CG55+IF(M55&gt;O55,M55-O55,0)+IF(N55&gt;P55,N55-P55,0)</f>
+      </c>
+      <c r="R55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E55,LEN(E55)-2),1)=".",RIGHT(E55,LEN(E55)-3),RIGHT(E55,LEN(E55)-2))</f>
+      </c>
+      <c r="S55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F55,LEN(F55)-2),1)=".",RIGHT(F55,LEN(F55)-3),RIGHT(F55,LEN(F55)-2))</f>
+      </c>
+      <c r="T55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I55,LEN(I55)-2),1)=".",RIGHT(I55,LEN(I55)-3),RIGHT(I55,LEN(I55)-2))</f>
+      </c>
+      <c r="U55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G55,LEN(G55)-2),1)=".",RIGHT(G55,LEN(G55)-3),RIGHT(G55,LEN(G55)-2))</f>
+      </c>
+      <c r="V55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J55,LEN(J55)-2),1)=".",RIGHT(J55,LEN(J55)-3),RIGHT(J55,LEN(J55)-2))</f>
+      </c>
+      <c r="W55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H55,LEN(H55)-2),1)=".",RIGHT(H55,LEN(H55)-3),RIGHT(H55,LEN(H55)-2))</f>
+      </c>
+      <c r="X55" s="5" t="str">
+        <f>INT(LEFT(R55,1))</f>
+      </c>
+      <c r="Y55" s="5" t="str">
+        <f>INT(LEFT(S55,1))</f>
+      </c>
+      <c r="Z55" s="5" t="str">
+        <f>INT(LEFT(T55,1))</f>
+      </c>
+      <c r="AA55" s="5" t="str">
+        <f>INT(LEFT(U55,1))</f>
+      </c>
+      <c r="AB55" s="5" t="str">
+        <f>INT(LEFT(V55,1))</f>
+      </c>
+      <c r="AC55" s="5" t="str">
+        <f>INT(LEFT(W55,1))</f>
+      </c>
+      <c r="AD55" s="5" t="str">
+        <f>R55+S55+CH55+IF(T55&gt;V55,T55-V55,0)+IF(U55&gt;W55,U55-W55,0)</f>
+      </c>
+      <c r="AE55" s="5" t="str">
+        <f>RIGHT(R55,LEN(R55)-2)+0</f>
+      </c>
+      <c r="AF55" s="5" t="str">
+        <f>RIGHT(S55,LEN(S55)-2)+0</f>
+      </c>
+      <c r="AG55" s="5" t="str">
+        <f>RIGHT(T55,LEN(T55)-2)+0</f>
+      </c>
+      <c r="AH55" s="5" t="str">
+        <f>RIGHT(U55,LEN(U55)-2)+0</f>
+      </c>
+      <c r="AI55" s="5" t="str">
+        <f>RIGHT(V55,LEN(V55)-2)+0</f>
+      </c>
+      <c r="AJ55" s="5" t="str">
+        <f>RIGHT(W55,LEN(W55)-2)+0</f>
+      </c>
+      <c r="AK55" s="5" t="str">
+        <f>AE55+AF55+CJ55+IF(AG55&gt;AI55,AG55-AI55,0)+IF(AH55&gt;AJ55,AH55-AJ55,0)</f>
+      </c>
+      <c r="AL55" s="5" t="str">
+        <f>K55*8*60+X55*60+AE55</f>
+      </c>
+      <c r="AM55" s="5" t="str">
+        <f>L55*8*60+Y55*60+AF55</f>
+      </c>
+      <c r="AN55" s="5" t="str">
+        <f>M55*8*60+Z55*60+AG55</f>
+      </c>
+      <c r="AO55" s="5" t="str">
+        <f>N55*8*60+AA55*60+AH55</f>
+      </c>
+      <c r="AP55" s="5" t="str">
+        <f>O55*8*60+AB55*60+AI55</f>
+      </c>
+      <c r="AQ55" s="5" t="str">
+        <f>P55*8*60+AC55*60+AJ55</f>
+      </c>
+      <c r="AR55" s="5" t="str">
+        <f>AL55+AM55+CK55+IF(AN55&gt;AP55,AN55-AP55,0)+IF(AO55&gt;AQ55,AO55-AQ55,0)</f>
+      </c>
+      <c r="AS55" s="5" t="str">
+        <f>AR55/60</f>
+      </c>
+      <c r="AT55" s="5" t="str">
+        <f>FLOOR(AS55/8,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1))*60</f>
+      </c>
+      <c r="AU55" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ55" s="5" t="str">
+        <f>INT(LEFT(AU55,1))</f>
+      </c>
+      <c r="BA55" s="5" t="str">
+        <f>INT(LEFT(AV55,1))</f>
+      </c>
+      <c r="BB55" s="5" t="str">
+        <f>INT(LEFT(AW55,1))</f>
+      </c>
+      <c r="BC55" s="5" t="str">
+        <f>INT(LEFT(AX55,1))</f>
+      </c>
+      <c r="BD55" s="5" t="str">
+        <f>INT(LEFT(AY55,1))</f>
+      </c>
+      <c r="BE55" s="5" t="str">
+        <f>SUM(AZ55,BA55,BB55,BC55,BD55)</f>
+      </c>
+      <c r="BF55" s="5" t="str">
+        <f>RIGHT(AU55,LEN(AU55)-2)</f>
+      </c>
+      <c r="BG55" s="5" t="str">
+        <f>RIGHT(AV55,LEN(AV55)-2)</f>
+      </c>
+      <c r="BH55" s="5" t="str">
+        <f>RIGHT(AW55,LEN(AW55)-2)</f>
+      </c>
+      <c r="BI55" s="5" t="str">
+        <f>RIGHT(AX55,LEN(AX55)-2)</f>
+      </c>
+      <c r="BJ55" s="5" t="str">
+        <f>RIGHT(AY55,LEN(AY55)-2)</f>
+      </c>
+      <c r="BK55" s="5" t="str">
+        <f>INT(LEFT(BF55,1))</f>
+      </c>
+      <c r="BL55" s="5" t="str">
+        <f>INT(LEFT(BG55,1))</f>
+      </c>
+      <c r="BM55" s="5" t="str">
+        <f>INT(LEFT(BH55,1))</f>
+      </c>
+      <c r="BN55" s="5" t="str">
+        <f>INT(LEFT(BI55,1))</f>
+      </c>
+      <c r="BO55" s="5" t="str">
+        <f>INT(LEFT(BJ55,1))</f>
+      </c>
+      <c r="BP55" s="5" t="str">
+        <f>SUM(BK55:BO55)</f>
+      </c>
+      <c r="BQ55" s="5" t="str">
+        <f>RIGHT(BF55,LEN(BF55)-2)+0</f>
+      </c>
+      <c r="BR55" s="5" t="str">
+        <f>RIGHT(BG55,LEN(BG55)-2)+0</f>
+      </c>
+      <c r="BS55" s="5" t="str">
+        <f>RIGHT(BH55,LEN(BH55)-2)+0</f>
+      </c>
+      <c r="BT55" s="5" t="str">
+        <f>RIGHT(BI55,LEN(BI55)-2)+0</f>
+      </c>
+      <c r="BU55" s="5" t="str">
+        <f>RIGHT(BJ55,LEN(BJ55)-2)+0</f>
+      </c>
+      <c r="BV55" s="5" t="str">
+        <f>SUM(BQ55:BU55)</f>
+      </c>
+      <c r="BW55" s="5" t="str">
+        <f>AZ55*8*60+BK55*60+BQ55</f>
+      </c>
+      <c r="BX55" s="5" t="str">
+        <f>BA55*8*60+BL55*60+BR55</f>
+      </c>
+      <c r="BY55" s="5" t="str">
+        <f>BB55*8*60+BM55*60+BS55</f>
+      </c>
+      <c r="BZ55" s="5" t="str">
+        <f>BC55*8*60+BN55*60+BT55</f>
+      </c>
+      <c r="CA55" s="5" t="str">
+        <f>BD55*8*60+BO55*60+BU55</f>
+      </c>
+      <c r="CB55" s="5" t="str">
+        <f>SUM(BW55:CA55)</f>
+      </c>
+      <c r="CC55" s="5" t="str">
+        <f>CB55/60</f>
+      </c>
+      <c r="CD55" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE55" s="5" t="str">
+        <f>FLOOR(CC55/8,1)&amp;"."&amp;FLOOR(MOD(CC55,8),1)&amp;"."&amp;(MOD(CC55,8)-FLOOR(MOD(CC55,8),1))*60</f>
+      </c>
+      <c r="CF55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG55" s="5" t="str">
+        <f>INT(LEFT(CF55,2))</f>
+      </c>
+      <c r="CH55" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF55,LEN(CF55)-2),1)=".",RIGHT(CF55,LEN(CF55)-3),RIGHT(CF55,LEN(CF55)-2))</f>
+      </c>
+      <c r="CI55" s="5" t="str">
+        <f>INT(LEFT(CH55,1))</f>
+      </c>
+      <c r="CJ55" s="5" t="str">
+        <f>RIGHT(CH55,LEN(CH55)-2)+0</f>
+      </c>
+      <c r="CK55" s="5" t="str">
+        <f>CG55*8*60+CI55*60+CJ55</f>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K56" s="5" t="str">
+        <f>INT(LEFT(E56,2))</f>
+      </c>
+      <c r="L56" s="5" t="str">
+        <f>INT(LEFT(F56,2))</f>
+      </c>
+      <c r="M56" s="5" t="str">
+        <f>INT(LEFT(I56,2))</f>
+      </c>
+      <c r="N56" s="5" t="str">
+        <f>INT(LEFT(G56,2))</f>
+      </c>
+      <c r="O56" s="5" t="str">
+        <f>INT(LEFT(J56,2))</f>
+      </c>
+      <c r="P56" s="5" t="str">
+        <f>INT(LEFT(H56,2))</f>
+      </c>
+      <c r="Q56" s="5" t="str">
+        <f>K56+L56+CG56+IF(M56&gt;O56,M56-O56,0)+IF(N56&gt;P56,N56-P56,0)</f>
+      </c>
+      <c r="R56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E56,LEN(E56)-2),1)=".",RIGHT(E56,LEN(E56)-3),RIGHT(E56,LEN(E56)-2))</f>
+      </c>
+      <c r="S56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F56,LEN(F56)-2),1)=".",RIGHT(F56,LEN(F56)-3),RIGHT(F56,LEN(F56)-2))</f>
+      </c>
+      <c r="T56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I56,LEN(I56)-2),1)=".",RIGHT(I56,LEN(I56)-3),RIGHT(I56,LEN(I56)-2))</f>
+      </c>
+      <c r="U56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G56,LEN(G56)-2),1)=".",RIGHT(G56,LEN(G56)-3),RIGHT(G56,LEN(G56)-2))</f>
+      </c>
+      <c r="V56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J56,LEN(J56)-2),1)=".",RIGHT(J56,LEN(J56)-3),RIGHT(J56,LEN(J56)-2))</f>
+      </c>
+      <c r="W56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H56,LEN(H56)-2),1)=".",RIGHT(H56,LEN(H56)-3),RIGHT(H56,LEN(H56)-2))</f>
+      </c>
+      <c r="X56" s="5" t="str">
+        <f>INT(LEFT(R56,1))</f>
+      </c>
+      <c r="Y56" s="5" t="str">
+        <f>INT(LEFT(S56,1))</f>
+      </c>
+      <c r="Z56" s="5" t="str">
+        <f>INT(LEFT(T56,1))</f>
+      </c>
+      <c r="AA56" s="5" t="str">
+        <f>INT(LEFT(U56,1))</f>
+      </c>
+      <c r="AB56" s="5" t="str">
+        <f>INT(LEFT(V56,1))</f>
+      </c>
+      <c r="AC56" s="5" t="str">
+        <f>INT(LEFT(W56,1))</f>
+      </c>
+      <c r="AD56" s="5" t="str">
+        <f>R56+S56+CH56+IF(T56&gt;V56,T56-V56,0)+IF(U56&gt;W56,U56-W56,0)</f>
+      </c>
+      <c r="AE56" s="5" t="str">
+        <f>RIGHT(R56,LEN(R56)-2)+0</f>
+      </c>
+      <c r="AF56" s="5" t="str">
+        <f>RIGHT(S56,LEN(S56)-2)+0</f>
+      </c>
+      <c r="AG56" s="5" t="str">
+        <f>RIGHT(T56,LEN(T56)-2)+0</f>
+      </c>
+      <c r="AH56" s="5" t="str">
+        <f>RIGHT(U56,LEN(U56)-2)+0</f>
+      </c>
+      <c r="AI56" s="5" t="str">
+        <f>RIGHT(V56,LEN(V56)-2)+0</f>
+      </c>
+      <c r="AJ56" s="5" t="str">
+        <f>RIGHT(W56,LEN(W56)-2)+0</f>
+      </c>
+      <c r="AK56" s="5" t="str">
+        <f>AE56+AF56+CJ56+IF(AG56&gt;AI56,AG56-AI56,0)+IF(AH56&gt;AJ56,AH56-AJ56,0)</f>
+      </c>
+      <c r="AL56" s="5" t="str">
+        <f>K56*8*60+X56*60+AE56</f>
+      </c>
+      <c r="AM56" s="5" t="str">
+        <f>L56*8*60+Y56*60+AF56</f>
+      </c>
+      <c r="AN56" s="5" t="str">
+        <f>M56*8*60+Z56*60+AG56</f>
+      </c>
+      <c r="AO56" s="5" t="str">
+        <f>N56*8*60+AA56*60+AH56</f>
+      </c>
+      <c r="AP56" s="5" t="str">
+        <f>O56*8*60+AB56*60+AI56</f>
+      </c>
+      <c r="AQ56" s="5" t="str">
+        <f>P56*8*60+AC56*60+AJ56</f>
+      </c>
+      <c r="AR56" s="5" t="str">
+        <f>AL56+AM56+CK56+IF(AN56&gt;AP56,AN56-AP56,0)+IF(AO56&gt;AQ56,AO56-AQ56,0)</f>
+      </c>
+      <c r="AS56" s="5" t="str">
+        <f>AR56/60</f>
+      </c>
+      <c r="AT56" s="5" t="str">
+        <f>FLOOR(AS56/8,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1))*60</f>
+      </c>
+      <c r="AU56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ56" s="5" t="str">
+        <f>INT(LEFT(AU56,1))</f>
+      </c>
+      <c r="BA56" s="5" t="str">
+        <f>INT(LEFT(AV56,1))</f>
+      </c>
+      <c r="BB56" s="5" t="str">
+        <f>INT(LEFT(AW56,1))</f>
+      </c>
+      <c r="BC56" s="5" t="str">
+        <f>INT(LEFT(AX56,1))</f>
+      </c>
+      <c r="BD56" s="5" t="str">
+        <f>INT(LEFT(AY56,1))</f>
+      </c>
+      <c r="BE56" s="5" t="str">
+        <f>SUM(AZ56,BA56,BB56,BC56,BD56)</f>
+      </c>
+      <c r="BF56" s="5" t="str">
+        <f>RIGHT(AU56,LEN(AU56)-2)</f>
+      </c>
+      <c r="BG56" s="5" t="str">
+        <f>RIGHT(AV56,LEN(AV56)-2)</f>
+      </c>
+      <c r="BH56" s="5" t="str">
+        <f>RIGHT(AW56,LEN(AW56)-2)</f>
+      </c>
+      <c r="BI56" s="5" t="str">
+        <f>RIGHT(AX56,LEN(AX56)-2)</f>
+      </c>
+      <c r="BJ56" s="5" t="str">
+        <f>RIGHT(AY56,LEN(AY56)-2)</f>
+      </c>
+      <c r="BK56" s="5" t="str">
+        <f>INT(LEFT(BF56,1))</f>
+      </c>
+      <c r="BL56" s="5" t="str">
+        <f>INT(LEFT(BG56,1))</f>
+      </c>
+      <c r="BM56" s="5" t="str">
+        <f>INT(LEFT(BH56,1))</f>
+      </c>
+      <c r="BN56" s="5" t="str">
+        <f>INT(LEFT(BI56,1))</f>
+      </c>
+      <c r="BO56" s="5" t="str">
+        <f>INT(LEFT(BJ56,1))</f>
+      </c>
+      <c r="BP56" s="5" t="str">
+        <f>SUM(BK56:BO56)</f>
+      </c>
+      <c r="BQ56" s="5" t="str">
+        <f>RIGHT(BF56,LEN(BF56)-2)+0</f>
+      </c>
+      <c r="BR56" s="5" t="str">
+        <f>RIGHT(BG56,LEN(BG56)-2)+0</f>
+      </c>
+      <c r="BS56" s="5" t="str">
+        <f>RIGHT(BH56,LEN(BH56)-2)+0</f>
+      </c>
+      <c r="BT56" s="5" t="str">
+        <f>RIGHT(BI56,LEN(BI56)-2)+0</f>
+      </c>
+      <c r="BU56" s="5" t="str">
+        <f>RIGHT(BJ56,LEN(BJ56)-2)+0</f>
+      </c>
+      <c r="BV56" s="5" t="str">
+        <f>SUM(BQ56:BU56)</f>
+      </c>
+      <c r="BW56" s="5" t="str">
+        <f>AZ56*8*60+BK56*60+BQ56</f>
+      </c>
+      <c r="BX56" s="5" t="str">
+        <f>BA56*8*60+BL56*60+BR56</f>
+      </c>
+      <c r="BY56" s="5" t="str">
+        <f>BB56*8*60+BM56*60+BS56</f>
+      </c>
+      <c r="BZ56" s="5" t="str">
+        <f>BC56*8*60+BN56*60+BT56</f>
+      </c>
+      <c r="CA56" s="5" t="str">
+        <f>BD56*8*60+BO56*60+BU56</f>
+      </c>
+      <c r="CB56" s="5" t="str">
+        <f>SUM(BW56:CA56)</f>
+      </c>
+      <c r="CC56" s="5" t="str">
+        <f>CB56/60</f>
+      </c>
+      <c r="CD56" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE56" s="5" t="str">
+        <f>FLOOR(CC56/8,1)&amp;"."&amp;FLOOR(MOD(CC56,8),1)&amp;"."&amp;(MOD(CC56,8)-FLOOR(MOD(CC56,8),1))*60</f>
+      </c>
+      <c r="CF56" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="CG56" s="5" t="str">
+        <f>INT(LEFT(CF56,2))</f>
+      </c>
+      <c r="CH56" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF56,LEN(CF56)-2),1)=".",RIGHT(CF56,LEN(CF56)-3),RIGHT(CF56,LEN(CF56)-2))</f>
+      </c>
+      <c r="CI56" s="5" t="str">
+        <f>INT(LEFT(CH56,1))</f>
+      </c>
+      <c r="CJ56" s="5" t="str">
+        <f>RIGHT(CH56,LEN(CH56)-2)+0</f>
+      </c>
+      <c r="CK56" s="5" t="str">
+        <f>CG56*8*60+CI56*60+CJ56</f>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K57" s="5" t="str">
+        <f>INT(LEFT(E57,2))</f>
+      </c>
+      <c r="L57" s="5" t="str">
+        <f>INT(LEFT(F57,2))</f>
+      </c>
+      <c r="M57" s="5" t="str">
+        <f>INT(LEFT(I57,2))</f>
+      </c>
+      <c r="N57" s="5" t="str">
+        <f>INT(LEFT(G57,2))</f>
+      </c>
+      <c r="O57" s="5" t="str">
+        <f>INT(LEFT(J57,2))</f>
+      </c>
+      <c r="P57" s="5" t="str">
+        <f>INT(LEFT(H57,2))</f>
+      </c>
+      <c r="Q57" s="5" t="str">
+        <f>K57+L57+CG57+IF(M57&gt;O57,M57-O57,0)+IF(N57&gt;P57,N57-P57,0)</f>
+      </c>
+      <c r="R57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E57,LEN(E57)-2),1)=".",RIGHT(E57,LEN(E57)-3),RIGHT(E57,LEN(E57)-2))</f>
+      </c>
+      <c r="S57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F57,LEN(F57)-2),1)=".",RIGHT(F57,LEN(F57)-3),RIGHT(F57,LEN(F57)-2))</f>
+      </c>
+      <c r="T57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I57,LEN(I57)-2),1)=".",RIGHT(I57,LEN(I57)-3),RIGHT(I57,LEN(I57)-2))</f>
+      </c>
+      <c r="U57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G57,LEN(G57)-2),1)=".",RIGHT(G57,LEN(G57)-3),RIGHT(G57,LEN(G57)-2))</f>
+      </c>
+      <c r="V57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J57,LEN(J57)-2),1)=".",RIGHT(J57,LEN(J57)-3),RIGHT(J57,LEN(J57)-2))</f>
+      </c>
+      <c r="W57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H57,LEN(H57)-2),1)=".",RIGHT(H57,LEN(H57)-3),RIGHT(H57,LEN(H57)-2))</f>
+      </c>
+      <c r="X57" s="5" t="str">
+        <f>INT(LEFT(R57,1))</f>
+      </c>
+      <c r="Y57" s="5" t="str">
+        <f>INT(LEFT(S57,1))</f>
+      </c>
+      <c r="Z57" s="5" t="str">
+        <f>INT(LEFT(T57,1))</f>
+      </c>
+      <c r="AA57" s="5" t="str">
+        <f>INT(LEFT(U57,1))</f>
+      </c>
+      <c r="AB57" s="5" t="str">
+        <f>INT(LEFT(V57,1))</f>
+      </c>
+      <c r="AC57" s="5" t="str">
+        <f>INT(LEFT(W57,1))</f>
+      </c>
+      <c r="AD57" s="5" t="str">
+        <f>R57+S57+CH57+IF(T57&gt;V57,T57-V57,0)+IF(U57&gt;W57,U57-W57,0)</f>
+      </c>
+      <c r="AE57" s="5" t="str">
+        <f>RIGHT(R57,LEN(R57)-2)+0</f>
+      </c>
+      <c r="AF57" s="5" t="str">
+        <f>RIGHT(S57,LEN(S57)-2)+0</f>
+      </c>
+      <c r="AG57" s="5" t="str">
+        <f>RIGHT(T57,LEN(T57)-2)+0</f>
+      </c>
+      <c r="AH57" s="5" t="str">
+        <f>RIGHT(U57,LEN(U57)-2)+0</f>
+      </c>
+      <c r="AI57" s="5" t="str">
+        <f>RIGHT(V57,LEN(V57)-2)+0</f>
+      </c>
+      <c r="AJ57" s="5" t="str">
+        <f>RIGHT(W57,LEN(W57)-2)+0</f>
+      </c>
+      <c r="AK57" s="5" t="str">
+        <f>AE57+AF57+CJ57+IF(AG57&gt;AI57,AG57-AI57,0)+IF(AH57&gt;AJ57,AH57-AJ57,0)</f>
+      </c>
+      <c r="AL57" s="5" t="str">
+        <f>K57*8*60+X57*60+AE57</f>
+      </c>
+      <c r="AM57" s="5" t="str">
+        <f>L57*8*60+Y57*60+AF57</f>
+      </c>
+      <c r="AN57" s="5" t="str">
+        <f>M57*8*60+Z57*60+AG57</f>
+      </c>
+      <c r="AO57" s="5" t="str">
+        <f>N57*8*60+AA57*60+AH57</f>
+      </c>
+      <c r="AP57" s="5" t="str">
+        <f>O57*8*60+AB57*60+AI57</f>
+      </c>
+      <c r="AQ57" s="5" t="str">
+        <f>P57*8*60+AC57*60+AJ57</f>
+      </c>
+      <c r="AR57" s="5" t="str">
+        <f>AL57+AM57+CK57+IF(AN57&gt;AP57,AN57-AP57,0)+IF(AO57&gt;AQ57,AO57-AQ57,0)</f>
+      </c>
+      <c r="AS57" s="5" t="str">
+        <f>AR57/60</f>
+      </c>
+      <c r="AT57" s="5" t="str">
+        <f>FLOOR(AS57/8,1)&amp;"."&amp;FLOOR(MOD(AS57,8),1)&amp;"."&amp;(MOD(AS57,8)-FLOOR(MOD(AS57,8),1))*60</f>
+      </c>
+      <c r="AU57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ57" s="5" t="str">
+        <f>INT(LEFT(AU57,1))</f>
+      </c>
+      <c r="BA57" s="5" t="str">
+        <f>INT(LEFT(AV57,1))</f>
+      </c>
+      <c r="BB57" s="5" t="str">
+        <f>INT(LEFT(AW57,1))</f>
+      </c>
+      <c r="BC57" s="5" t="str">
+        <f>INT(LEFT(AX57,1))</f>
+      </c>
+      <c r="BD57" s="5" t="str">
+        <f>INT(LEFT(AY57,1))</f>
+      </c>
+      <c r="BE57" s="5" t="str">
+        <f>SUM(AZ57,BA57,BB57,BC57,BD57)</f>
+      </c>
+      <c r="BF57" s="5" t="str">
+        <f>RIGHT(AU57,LEN(AU57)-2)</f>
+      </c>
+      <c r="BG57" s="5" t="str">
+        <f>RIGHT(AV57,LEN(AV57)-2)</f>
+      </c>
+      <c r="BH57" s="5" t="str">
+        <f>RIGHT(AW57,LEN(AW57)-2)</f>
+      </c>
+      <c r="BI57" s="5" t="str">
+        <f>RIGHT(AX57,LEN(AX57)-2)</f>
+      </c>
+      <c r="BJ57" s="5" t="str">
+        <f>RIGHT(AY57,LEN(AY57)-2)</f>
+      </c>
+      <c r="BK57" s="5" t="str">
+        <f>INT(LEFT(BF57,1))</f>
+      </c>
+      <c r="BL57" s="5" t="str">
+        <f>INT(LEFT(BG57,1))</f>
+      </c>
+      <c r="BM57" s="5" t="str">
+        <f>INT(LEFT(BH57,1))</f>
+      </c>
+      <c r="BN57" s="5" t="str">
+        <f>INT(LEFT(BI57,1))</f>
+      </c>
+      <c r="BO57" s="5" t="str">
+        <f>INT(LEFT(BJ57,1))</f>
+      </c>
+      <c r="BP57" s="5" t="str">
+        <f>SUM(BK57:BO57)</f>
+      </c>
+      <c r="BQ57" s="5" t="str">
+        <f>RIGHT(BF57,LEN(BF57)-2)+0</f>
+      </c>
+      <c r="BR57" s="5" t="str">
+        <f>RIGHT(BG57,LEN(BG57)-2)+0</f>
+      </c>
+      <c r="BS57" s="5" t="str">
+        <f>RIGHT(BH57,LEN(BH57)-2)+0</f>
+      </c>
+      <c r="BT57" s="5" t="str">
+        <f>RIGHT(BI57,LEN(BI57)-2)+0</f>
+      </c>
+      <c r="BU57" s="5" t="str">
+        <f>RIGHT(BJ57,LEN(BJ57)-2)+0</f>
+      </c>
+      <c r="BV57" s="5" t="str">
+        <f>SUM(BQ57:BU57)</f>
+      </c>
+      <c r="BW57" s="5" t="str">
+        <f>AZ57*8*60+BK57*60+BQ57</f>
+      </c>
+      <c r="BX57" s="5" t="str">
+        <f>BA57*8*60+BL57*60+BR57</f>
+      </c>
+      <c r="BY57" s="5" t="str">
+        <f>BB57*8*60+BM57*60+BS57</f>
+      </c>
+      <c r="BZ57" s="5" t="str">
+        <f>BC57*8*60+BN57*60+BT57</f>
+      </c>
+      <c r="CA57" s="5" t="str">
+        <f>BD57*8*60+BO57*60+BU57</f>
+      </c>
+      <c r="CB57" s="5" t="str">
+        <f>SUM(BW57:CA57)</f>
+      </c>
+      <c r="CC57" s="5" t="str">
+        <f>CB57/60</f>
+      </c>
+      <c r="CD57" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE57" s="5" t="str">
+        <f>FLOOR(CC57/8,1)&amp;"."&amp;FLOOR(MOD(CC57,8),1)&amp;"."&amp;(MOD(CC57,8)-FLOOR(MOD(CC57,8),1))*60</f>
+      </c>
+      <c r="CF57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="CG57" s="5" t="str">
+        <f>INT(LEFT(CF57,2))</f>
+      </c>
+      <c r="CH57" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF57,LEN(CF57)-2),1)=".",RIGHT(CF57,LEN(CF57)-3),RIGHT(CF57,LEN(CF57)-2))</f>
+      </c>
+      <c r="CI57" s="5" t="str">
+        <f>INT(LEFT(CH57,1))</f>
+      </c>
+      <c r="CJ57" s="5" t="str">
+        <f>RIGHT(CH57,LEN(CH57)-2)+0</f>
+      </c>
+      <c r="CK57" s="5" t="str">
+        <f>CG57*8*60+CI57*60+CJ57</f>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K58" s="5" t="str">
+        <f>INT(LEFT(E58,2))</f>
+      </c>
+      <c r="L58" s="5" t="str">
+        <f>INT(LEFT(F58,2))</f>
+      </c>
+      <c r="M58" s="5" t="str">
+        <f>INT(LEFT(I58,2))</f>
+      </c>
+      <c r="N58" s="5" t="str">
+        <f>INT(LEFT(G58,2))</f>
+      </c>
+      <c r="O58" s="5" t="str">
+        <f>INT(LEFT(J58,2))</f>
+      </c>
+      <c r="P58" s="5" t="str">
+        <f>INT(LEFT(H58,2))</f>
+      </c>
+      <c r="Q58" s="5" t="str">
+        <f>K58+L58+CG58+IF(M58&gt;O58,M58-O58,0)+IF(N58&gt;P58,N58-P58,0)</f>
+      </c>
+      <c r="R58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E58,LEN(E58)-2),1)=".",RIGHT(E58,LEN(E58)-3),RIGHT(E58,LEN(E58)-2))</f>
+      </c>
+      <c r="S58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F58,LEN(F58)-2),1)=".",RIGHT(F58,LEN(F58)-3),RIGHT(F58,LEN(F58)-2))</f>
+      </c>
+      <c r="T58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I58,LEN(I58)-2),1)=".",RIGHT(I58,LEN(I58)-3),RIGHT(I58,LEN(I58)-2))</f>
+      </c>
+      <c r="U58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G58,LEN(G58)-2),1)=".",RIGHT(G58,LEN(G58)-3),RIGHT(G58,LEN(G58)-2))</f>
+      </c>
+      <c r="V58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J58,LEN(J58)-2),1)=".",RIGHT(J58,LEN(J58)-3),RIGHT(J58,LEN(J58)-2))</f>
+      </c>
+      <c r="W58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H58,LEN(H58)-2),1)=".",RIGHT(H58,LEN(H58)-3),RIGHT(H58,LEN(H58)-2))</f>
+      </c>
+      <c r="X58" s="5" t="str">
+        <f>INT(LEFT(R58,1))</f>
+      </c>
+      <c r="Y58" s="5" t="str">
+        <f>INT(LEFT(S58,1))</f>
+      </c>
+      <c r="Z58" s="5" t="str">
+        <f>INT(LEFT(T58,1))</f>
+      </c>
+      <c r="AA58" s="5" t="str">
+        <f>INT(LEFT(U58,1))</f>
+      </c>
+      <c r="AB58" s="5" t="str">
+        <f>INT(LEFT(V58,1))</f>
+      </c>
+      <c r="AC58" s="5" t="str">
+        <f>INT(LEFT(W58,1))</f>
+      </c>
+      <c r="AD58" s="5" t="str">
+        <f>R58+S58+CH58+IF(T58&gt;V58,T58-V58,0)+IF(U58&gt;W58,U58-W58,0)</f>
+      </c>
+      <c r="AE58" s="5" t="str">
+        <f>RIGHT(R58,LEN(R58)-2)+0</f>
+      </c>
+      <c r="AF58" s="5" t="str">
+        <f>RIGHT(S58,LEN(S58)-2)+0</f>
+      </c>
+      <c r="AG58" s="5" t="str">
+        <f>RIGHT(T58,LEN(T58)-2)+0</f>
+      </c>
+      <c r="AH58" s="5" t="str">
+        <f>RIGHT(U58,LEN(U58)-2)+0</f>
+      </c>
+      <c r="AI58" s="5" t="str">
+        <f>RIGHT(V58,LEN(V58)-2)+0</f>
+      </c>
+      <c r="AJ58" s="5" t="str">
+        <f>RIGHT(W58,LEN(W58)-2)+0</f>
+      </c>
+      <c r="AK58" s="5" t="str">
+        <f>AE58+AF58+CJ58+IF(AG58&gt;AI58,AG58-AI58,0)+IF(AH58&gt;AJ58,AH58-AJ58,0)</f>
+      </c>
+      <c r="AL58" s="5" t="str">
+        <f>K58*8*60+X58*60+AE58</f>
+      </c>
+      <c r="AM58" s="5" t="str">
+        <f>L58*8*60+Y58*60+AF58</f>
+      </c>
+      <c r="AN58" s="5" t="str">
+        <f>M58*8*60+Z58*60+AG58</f>
+      </c>
+      <c r="AO58" s="5" t="str">
+        <f>N58*8*60+AA58*60+AH58</f>
+      </c>
+      <c r="AP58" s="5" t="str">
+        <f>O58*8*60+AB58*60+AI58</f>
+      </c>
+      <c r="AQ58" s="5" t="str">
+        <f>P58*8*60+AC58*60+AJ58</f>
+      </c>
+      <c r="AR58" s="5" t="str">
+        <f>AL58+AM58+CK58+IF(AN58&gt;AP58,AN58-AP58,0)+IF(AO58&gt;AQ58,AO58-AQ58,0)</f>
+      </c>
+      <c r="AS58" s="5" t="str">
+        <f>AR58/60</f>
+      </c>
+      <c r="AT58" s="5" t="str">
+        <f>FLOOR(AS58/8,1)&amp;"."&amp;FLOOR(MOD(AS58,8),1)&amp;"."&amp;(MOD(AS58,8)-FLOOR(MOD(AS58,8),1))*60</f>
+      </c>
+      <c r="AU58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ58" s="5" t="str">
+        <f>INT(LEFT(AU58,1))</f>
+      </c>
+      <c r="BA58" s="5" t="str">
+        <f>INT(LEFT(AV58,1))</f>
+      </c>
+      <c r="BB58" s="5" t="str">
+        <f>INT(LEFT(AW58,1))</f>
+      </c>
+      <c r="BC58" s="5" t="str">
+        <f>INT(LEFT(AX58,1))</f>
+      </c>
+      <c r="BD58" s="5" t="str">
+        <f>INT(LEFT(AY58,1))</f>
+      </c>
+      <c r="BE58" s="5" t="str">
+        <f>SUM(AZ58,BA58,BB58,BC58,BD58)</f>
+      </c>
+      <c r="BF58" s="5" t="str">
+        <f>RIGHT(AU58,LEN(AU58)-2)</f>
+      </c>
+      <c r="BG58" s="5" t="str">
+        <f>RIGHT(AV58,LEN(AV58)-2)</f>
+      </c>
+      <c r="BH58" s="5" t="str">
+        <f>RIGHT(AW58,LEN(AW58)-2)</f>
+      </c>
+      <c r="BI58" s="5" t="str">
+        <f>RIGHT(AX58,LEN(AX58)-2)</f>
+      </c>
+      <c r="BJ58" s="5" t="str">
+        <f>RIGHT(AY58,LEN(AY58)-2)</f>
+      </c>
+      <c r="BK58" s="5" t="str">
+        <f>INT(LEFT(BF58,1))</f>
+      </c>
+      <c r="BL58" s="5" t="str">
+        <f>INT(LEFT(BG58,1))</f>
+      </c>
+      <c r="BM58" s="5" t="str">
+        <f>INT(LEFT(BH58,1))</f>
+      </c>
+      <c r="BN58" s="5" t="str">
+        <f>INT(LEFT(BI58,1))</f>
+      </c>
+      <c r="BO58" s="5" t="str">
+        <f>INT(LEFT(BJ58,1))</f>
+      </c>
+      <c r="BP58" s="5" t="str">
+        <f>SUM(BK58:BO58)</f>
+      </c>
+      <c r="BQ58" s="5" t="str">
+        <f>RIGHT(BF58,LEN(BF58)-2)+0</f>
+      </c>
+      <c r="BR58" s="5" t="str">
+        <f>RIGHT(BG58,LEN(BG58)-2)+0</f>
+      </c>
+      <c r="BS58" s="5" t="str">
+        <f>RIGHT(BH58,LEN(BH58)-2)+0</f>
+      </c>
+      <c r="BT58" s="5" t="str">
+        <f>RIGHT(BI58,LEN(BI58)-2)+0</f>
+      </c>
+      <c r="BU58" s="5" t="str">
+        <f>RIGHT(BJ58,LEN(BJ58)-2)+0</f>
+      </c>
+      <c r="BV58" s="5" t="str">
+        <f>SUM(BQ58:BU58)</f>
+      </c>
+      <c r="BW58" s="5" t="str">
+        <f>AZ58*8*60+BK58*60+BQ58</f>
+      </c>
+      <c r="BX58" s="5" t="str">
+        <f>BA58*8*60+BL58*60+BR58</f>
+      </c>
+      <c r="BY58" s="5" t="str">
+        <f>BB58*8*60+BM58*60+BS58</f>
+      </c>
+      <c r="BZ58" s="5" t="str">
+        <f>BC58*8*60+BN58*60+BT58</f>
+      </c>
+      <c r="CA58" s="5" t="str">
+        <f>BD58*8*60+BO58*60+BU58</f>
+      </c>
+      <c r="CB58" s="5" t="str">
+        <f>SUM(BW58:CA58)</f>
+      </c>
+      <c r="CC58" s="5" t="str">
+        <f>CB58/60</f>
+      </c>
+      <c r="CD58" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE58" s="5" t="str">
+        <f>FLOOR(CC58/8,1)&amp;"."&amp;FLOOR(MOD(CC58,8),1)&amp;"."&amp;(MOD(CC58,8)-FLOOR(MOD(CC58,8),1))*60</f>
+      </c>
+      <c r="CF58" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="CG58" s="5" t="str">
+        <f>INT(LEFT(CF58,2))</f>
+      </c>
+      <c r="CH58" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF58,LEN(CF58)-2),1)=".",RIGHT(CF58,LEN(CF58)-3),RIGHT(CF58,LEN(CF58)-2))</f>
+      </c>
+      <c r="CI58" s="5" t="str">
+        <f>INT(LEFT(CH58,1))</f>
+      </c>
+      <c r="CJ58" s="5" t="str">
+        <f>RIGHT(CH58,LEN(CH58)-2)+0</f>
+      </c>
+      <c r="CK58" s="5" t="str">
+        <f>CG58*8*60+CI58*60+CJ58</f>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" s="5" t="str">
+        <f>INT(LEFT(E59,2))</f>
+      </c>
+      <c r="L59" s="5" t="str">
+        <f>INT(LEFT(F59,2))</f>
+      </c>
+      <c r="M59" s="5" t="str">
+        <f>INT(LEFT(I59,2))</f>
+      </c>
+      <c r="N59" s="5" t="str">
+        <f>INT(LEFT(G59,2))</f>
+      </c>
+      <c r="O59" s="5" t="str">
+        <f>INT(LEFT(J59,2))</f>
+      </c>
+      <c r="P59" s="5" t="str">
+        <f>INT(LEFT(H59,2))</f>
+      </c>
+      <c r="Q59" s="5" t="str">
+        <f>K59+L59+CG59+IF(M59&gt;O59,M59-O59,0)+IF(N59&gt;P59,N59-P59,0)</f>
+      </c>
+      <c r="R59" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E59,LEN(E59)-2),1)=".",RIGHT(E59,LEN(E59)-3),RIGHT(E59,LEN(E59)-2))</f>
+      </c>
+      <c r="S59" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F59,LEN(F59)-2),1)=".",RIGHT(F59,LEN(F59)-3),RIGHT(F59,LEN(F59)-2))</f>
+      </c>
+      <c r="T59" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I59,LEN(I59)-2),1)=".",RIGHT(I59,LEN(I59)-3),RIGHT(I59,LEN(I59)-2))</f>
+      </c>
+      <c r="U59" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G59,LEN(G59)-2),1)=".",RIGHT(G59,LEN(G59)-3),RIGHT(G59,LEN(G59)-2))</f>
+      </c>
+      <c r="V59" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J59,LEN(J59)-2),1)=".",RIGHT(J59,LEN(J59)-3),RIGHT(J59,LEN(J59)-2))</f>
+      </c>
+      <c r="W59" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H59,LEN(H59)-2),1)=".",RIGHT(H59,LEN(H59)-3),RIGHT(H59,LEN(H59)-2))</f>
+      </c>
+      <c r="X59" s="5" t="str">
+        <f>INT(LEFT(R59,1))</f>
+      </c>
+      <c r="Y59" s="5" t="str">
+        <f>INT(LEFT(S59,1))</f>
+      </c>
+      <c r="Z59" s="5" t="str">
+        <f>INT(LEFT(T59,1))</f>
+      </c>
+      <c r="AA59" s="5" t="str">
+        <f>INT(LEFT(U59,1))</f>
+      </c>
+      <c r="AB59" s="5" t="str">
+        <f>INT(LEFT(V59,1))</f>
+      </c>
+      <c r="AC59" s="5" t="str">
+        <f>INT(LEFT(W59,1))</f>
+      </c>
+      <c r="AD59" s="5" t="str">
+        <f>R59+S59+CH59+IF(T59&gt;V59,T59-V59,0)+IF(U59&gt;W59,U59-W59,0)</f>
+      </c>
+      <c r="AE59" s="5" t="str">
+        <f>RIGHT(R59,LEN(R59)-2)+0</f>
+      </c>
+      <c r="AF59" s="5" t="str">
+        <f>RIGHT(S59,LEN(S59)-2)+0</f>
+      </c>
+      <c r="AG59" s="5" t="str">
+        <f>RIGHT(T59,LEN(T59)-2)+0</f>
+      </c>
+      <c r="AH59" s="5" t="str">
+        <f>RIGHT(U59,LEN(U59)-2)+0</f>
+      </c>
+      <c r="AI59" s="5" t="str">
+        <f>RIGHT(V59,LEN(V59)-2)+0</f>
+      </c>
+      <c r="AJ59" s="5" t="str">
+        <f>RIGHT(W59,LEN(W59)-2)+0</f>
+      </c>
+      <c r="AK59" s="5" t="str">
+        <f>AE59+AF59+CJ59+IF(AG59&gt;AI59,AG59-AI59,0)+IF(AH59&gt;AJ59,AH59-AJ59,0)</f>
+      </c>
+      <c r="AL59" s="5" t="str">
+        <f>K59*8*60+X59*60+AE59</f>
+      </c>
+      <c r="AM59" s="5" t="str">
+        <f>L59*8*60+Y59*60+AF59</f>
+      </c>
+      <c r="AN59" s="5" t="str">
+        <f>M59*8*60+Z59*60+AG59</f>
+      </c>
+      <c r="AO59" s="5" t="str">
+        <f>N59*8*60+AA59*60+AH59</f>
+      </c>
+      <c r="AP59" s="5" t="str">
+        <f>O59*8*60+AB59*60+AI59</f>
+      </c>
+      <c r="AQ59" s="5" t="str">
+        <f>P59*8*60+AC59*60+AJ59</f>
+      </c>
+      <c r="AR59" s="5" t="str">
+        <f>AL59+AM59+CK59+IF(AN59&gt;AP59,AN59-AP59,0)+IF(AO59&gt;AQ59,AO59-AQ59,0)</f>
+      </c>
+      <c r="AS59" s="5" t="str">
+        <f>AR59/60</f>
+      </c>
+      <c r="AT59" s="5" t="str">
+        <f>FLOOR(AS59/8,1)&amp;"."&amp;FLOOR(MOD(AS59,8),1)&amp;"."&amp;(MOD(AS59,8)-FLOOR(MOD(AS59,8),1))*60</f>
+      </c>
+      <c r="AU59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ59" s="5" t="str">
+        <f>INT(LEFT(AU59,1))</f>
+      </c>
+      <c r="BA59" s="5" t="str">
+        <f>INT(LEFT(AV59,1))</f>
+      </c>
+      <c r="BB59" s="5" t="str">
+        <f>INT(LEFT(AW59,1))</f>
+      </c>
+      <c r="BC59" s="5" t="str">
+        <f>INT(LEFT(AX59,1))</f>
+      </c>
+      <c r="BD59" s="5" t="str">
+        <f>INT(LEFT(AY59,1))</f>
+      </c>
+      <c r="BE59" s="5" t="str">
+        <f>SUM(AZ59,BA59,BB59,BC59,BD59)</f>
+      </c>
+      <c r="BF59" s="5" t="str">
+        <f>RIGHT(AU59,LEN(AU59)-2)</f>
+      </c>
+      <c r="BG59" s="5" t="str">
+        <f>RIGHT(AV59,LEN(AV59)-2)</f>
+      </c>
+      <c r="BH59" s="5" t="str">
+        <f>RIGHT(AW59,LEN(AW59)-2)</f>
+      </c>
+      <c r="BI59" s="5" t="str">
+        <f>RIGHT(AX59,LEN(AX59)-2)</f>
+      </c>
+      <c r="BJ59" s="5" t="str">
+        <f>RIGHT(AY59,LEN(AY59)-2)</f>
+      </c>
+      <c r="BK59" s="5" t="str">
+        <f>INT(LEFT(BF59,1))</f>
+      </c>
+      <c r="BL59" s="5" t="str">
+        <f>INT(LEFT(BG59,1))</f>
+      </c>
+      <c r="BM59" s="5" t="str">
+        <f>INT(LEFT(BH59,1))</f>
+      </c>
+      <c r="BN59" s="5" t="str">
+        <f>INT(LEFT(BI59,1))</f>
+      </c>
+      <c r="BO59" s="5" t="str">
+        <f>INT(LEFT(BJ59,1))</f>
+      </c>
+      <c r="BP59" s="5" t="str">
+        <f>SUM(BK59:BO59)</f>
+      </c>
+      <c r="BQ59" s="5" t="str">
+        <f>RIGHT(BF59,LEN(BF59)-2)+0</f>
+      </c>
+      <c r="BR59" s="5" t="str">
+        <f>RIGHT(BG59,LEN(BG59)-2)+0</f>
+      </c>
+      <c r="BS59" s="5" t="str">
+        <f>RIGHT(BH59,LEN(BH59)-2)+0</f>
+      </c>
+      <c r="BT59" s="5" t="str">
+        <f>RIGHT(BI59,LEN(BI59)-2)+0</f>
+      </c>
+      <c r="BU59" s="5" t="str">
+        <f>RIGHT(BJ59,LEN(BJ59)-2)+0</f>
+      </c>
+      <c r="BV59" s="5" t="str">
+        <f>SUM(BQ59:BU59)</f>
+      </c>
+      <c r="BW59" s="5" t="str">
+        <f>AZ59*8*60+BK59*60+BQ59</f>
+      </c>
+      <c r="BX59" s="5" t="str">
+        <f>BA59*8*60+BL59*60+BR59</f>
+      </c>
+      <c r="BY59" s="5" t="str">
+        <f>BB59*8*60+BM59*60+BS59</f>
+      </c>
+      <c r="BZ59" s="5" t="str">
+        <f>BC59*8*60+BN59*60+BT59</f>
+      </c>
+      <c r="CA59" s="5" t="str">
+        <f>BD59*8*60+BO59*60+BU59</f>
+      </c>
+      <c r="CB59" s="5" t="str">
+        <f>SUM(BW59:CA59)</f>
+      </c>
+      <c r="CC59" s="5" t="str">
+        <f>CB59/60</f>
+      </c>
+      <c r="CD59" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE59" s="5" t="str">
+        <f>FLOOR(CC59/8,1)&amp;"."&amp;FLOOR(MOD(CC59,8),1)&amp;"."&amp;(MOD(CC59,8)-FLOOR(MOD(CC59,8),1))*60</f>
+      </c>
+      <c r="CF59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="CG59" s="5" t="str">
+        <f>INT(LEFT(CF59,2))</f>
+      </c>
+      <c r="CH59" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF59,LEN(CF59)-2),1)=".",RIGHT(CF59,LEN(CF59)-3),RIGHT(CF59,LEN(CF59)-2))</f>
+      </c>
+      <c r="CI59" s="5" t="str">
+        <f>INT(LEFT(CH59,1))</f>
+      </c>
+      <c r="CJ59" s="5" t="str">
+        <f>RIGHT(CH59,LEN(CH59)-2)+0</f>
+      </c>
+      <c r="CK59" s="5" t="str">
+        <f>CG59*8*60+CI59*60+CJ59</f>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K60" s="5" t="str">
+        <f>INT(LEFT(E60,2))</f>
+      </c>
+      <c r="L60" s="5" t="str">
+        <f>INT(LEFT(F60,2))</f>
+      </c>
+      <c r="M60" s="5" t="str">
+        <f>INT(LEFT(I60,2))</f>
+      </c>
+      <c r="N60" s="5" t="str">
+        <f>INT(LEFT(G60,2))</f>
+      </c>
+      <c r="O60" s="5" t="str">
+        <f>INT(LEFT(J60,2))</f>
+      </c>
+      <c r="P60" s="5" t="str">
+        <f>INT(LEFT(H60,2))</f>
+      </c>
+      <c r="Q60" s="5" t="str">
+        <f>K60+L60+CG60+IF(M60&gt;O60,M60-O60,0)+IF(N60&gt;P60,N60-P60,0)</f>
+      </c>
+      <c r="R60" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E60,LEN(E60)-2),1)=".",RIGHT(E60,LEN(E60)-3),RIGHT(E60,LEN(E60)-2))</f>
+      </c>
+      <c r="S60" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F60,LEN(F60)-2),1)=".",RIGHT(F60,LEN(F60)-3),RIGHT(F60,LEN(F60)-2))</f>
+      </c>
+      <c r="T60" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I60,LEN(I60)-2),1)=".",RIGHT(I60,LEN(I60)-3),RIGHT(I60,LEN(I60)-2))</f>
+      </c>
+      <c r="U60" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G60,LEN(G60)-2),1)=".",RIGHT(G60,LEN(G60)-3),RIGHT(G60,LEN(G60)-2))</f>
+      </c>
+      <c r="V60" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J60,LEN(J60)-2),1)=".",RIGHT(J60,LEN(J60)-3),RIGHT(J60,LEN(J60)-2))</f>
+      </c>
+      <c r="W60" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H60,LEN(H60)-2),1)=".",RIGHT(H60,LEN(H60)-3),RIGHT(H60,LEN(H60)-2))</f>
+      </c>
+      <c r="X60" s="5" t="str">
+        <f>INT(LEFT(R60,1))</f>
+      </c>
+      <c r="Y60" s="5" t="str">
+        <f>INT(LEFT(S60,1))</f>
+      </c>
+      <c r="Z60" s="5" t="str">
+        <f>INT(LEFT(T60,1))</f>
+      </c>
+      <c r="AA60" s="5" t="str">
+        <f>INT(LEFT(U60,1))</f>
+      </c>
+      <c r="AB60" s="5" t="str">
+        <f>INT(LEFT(V60,1))</f>
+      </c>
+      <c r="AC60" s="5" t="str">
+        <f>INT(LEFT(W60,1))</f>
+      </c>
+      <c r="AD60" s="5" t="str">
+        <f>R60+S60+CH60+IF(T60&gt;V60,T60-V60,0)+IF(U60&gt;W60,U60-W60,0)</f>
+      </c>
+      <c r="AE60" s="5" t="str">
+        <f>RIGHT(R60,LEN(R60)-2)+0</f>
+      </c>
+      <c r="AF60" s="5" t="str">
+        <f>RIGHT(S60,LEN(S60)-2)+0</f>
+      </c>
+      <c r="AG60" s="5" t="str">
+        <f>RIGHT(T60,LEN(T60)-2)+0</f>
+      </c>
+      <c r="AH60" s="5" t="str">
+        <f>RIGHT(U60,LEN(U60)-2)+0</f>
+      </c>
+      <c r="AI60" s="5" t="str">
+        <f>RIGHT(V60,LEN(V60)-2)+0</f>
+      </c>
+      <c r="AJ60" s="5" t="str">
+        <f>RIGHT(W60,LEN(W60)-2)+0</f>
+      </c>
+      <c r="AK60" s="5" t="str">
+        <f>AE60+AF60+CJ60+IF(AG60&gt;AI60,AG60-AI60,0)+IF(AH60&gt;AJ60,AH60-AJ60,0)</f>
+      </c>
+      <c r="AL60" s="5" t="str">
+        <f>K60*8*60+X60*60+AE60</f>
+      </c>
+      <c r="AM60" s="5" t="str">
+        <f>L60*8*60+Y60*60+AF60</f>
+      </c>
+      <c r="AN60" s="5" t="str">
+        <f>M60*8*60+Z60*60+AG60</f>
+      </c>
+      <c r="AO60" s="5" t="str">
+        <f>N60*8*60+AA60*60+AH60</f>
+      </c>
+      <c r="AP60" s="5" t="str">
+        <f>O60*8*60+AB60*60+AI60</f>
+      </c>
+      <c r="AQ60" s="5" t="str">
+        <f>P60*8*60+AC60*60+AJ60</f>
+      </c>
+      <c r="AR60" s="5" t="str">
+        <f>AL60+AM60+CK60+IF(AN60&gt;AP60,AN60-AP60,0)+IF(AO60&gt;AQ60,AO60-AQ60,0)</f>
+      </c>
+      <c r="AS60" s="5" t="str">
+        <f>AR60/60</f>
+      </c>
+      <c r="AT60" s="5" t="str">
+        <f>FLOOR(AS60/8,1)&amp;"."&amp;FLOOR(MOD(AS60,8),1)&amp;"."&amp;(MOD(AS60,8)-FLOOR(MOD(AS60,8),1))*60</f>
+      </c>
+      <c r="AU60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ60" s="5" t="str">
+        <f>INT(LEFT(AU60,1))</f>
+      </c>
+      <c r="BA60" s="5" t="str">
+        <f>INT(LEFT(AV60,1))</f>
+      </c>
+      <c r="BB60" s="5" t="str">
+        <f>INT(LEFT(AW60,1))</f>
+      </c>
+      <c r="BC60" s="5" t="str">
+        <f>INT(LEFT(AX60,1))</f>
+      </c>
+      <c r="BD60" s="5" t="str">
+        <f>INT(LEFT(AY60,1))</f>
+      </c>
+      <c r="BE60" s="5" t="str">
+        <f>SUM(AZ60,BA60,BB60,BC60,BD60)</f>
+      </c>
+      <c r="BF60" s="5" t="str">
+        <f>RIGHT(AU60,LEN(AU60)-2)</f>
+      </c>
+      <c r="BG60" s="5" t="str">
+        <f>RIGHT(AV60,LEN(AV60)-2)</f>
+      </c>
+      <c r="BH60" s="5" t="str">
+        <f>RIGHT(AW60,LEN(AW60)-2)</f>
+      </c>
+      <c r="BI60" s="5" t="str">
+        <f>RIGHT(AX60,LEN(AX60)-2)</f>
+      </c>
+      <c r="BJ60" s="5" t="str">
+        <f>RIGHT(AY60,LEN(AY60)-2)</f>
+      </c>
+      <c r="BK60" s="5" t="str">
+        <f>INT(LEFT(BF60,1))</f>
+      </c>
+      <c r="BL60" s="5" t="str">
+        <f>INT(LEFT(BG60,1))</f>
+      </c>
+      <c r="BM60" s="5" t="str">
+        <f>INT(LEFT(BH60,1))</f>
+      </c>
+      <c r="BN60" s="5" t="str">
+        <f>INT(LEFT(BI60,1))</f>
+      </c>
+      <c r="BO60" s="5" t="str">
+        <f>INT(LEFT(BJ60,1))</f>
+      </c>
+      <c r="BP60" s="5" t="str">
+        <f>SUM(BK60:BO60)</f>
+      </c>
+      <c r="BQ60" s="5" t="str">
+        <f>RIGHT(BF60,LEN(BF60)-2)+0</f>
+      </c>
+      <c r="BR60" s="5" t="str">
+        <f>RIGHT(BG60,LEN(BG60)-2)+0</f>
+      </c>
+      <c r="BS60" s="5" t="str">
+        <f>RIGHT(BH60,LEN(BH60)-2)+0</f>
+      </c>
+      <c r="BT60" s="5" t="str">
+        <f>RIGHT(BI60,LEN(BI60)-2)+0</f>
+      </c>
+      <c r="BU60" s="5" t="str">
+        <f>RIGHT(BJ60,LEN(BJ60)-2)+0</f>
+      </c>
+      <c r="BV60" s="5" t="str">
+        <f>SUM(BQ60:BU60)</f>
+      </c>
+      <c r="BW60" s="5" t="str">
+        <f>AZ60*8*60+BK60*60+BQ60</f>
+      </c>
+      <c r="BX60" s="5" t="str">
+        <f>BA60*8*60+BL60*60+BR60</f>
+      </c>
+      <c r="BY60" s="5" t="str">
+        <f>BB60*8*60+BM60*60+BS60</f>
+      </c>
+      <c r="BZ60" s="5" t="str">
+        <f>BC60*8*60+BN60*60+BT60</f>
+      </c>
+      <c r="CA60" s="5" t="str">
+        <f>BD60*8*60+BO60*60+BU60</f>
+      </c>
+      <c r="CB60" s="5" t="str">
+        <f>SUM(BW60:CA60)</f>
+      </c>
+      <c r="CC60" s="5" t="str">
+        <f>CB60/60</f>
+      </c>
+      <c r="CD60" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE60" s="5" t="str">
+        <f>FLOOR(CC60/8,1)&amp;"."&amp;FLOOR(MOD(CC60,8),1)&amp;"."&amp;(MOD(CC60,8)-FLOOR(MOD(CC60,8),1))*60</f>
+      </c>
+      <c r="CF60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG60" s="5" t="str">
+        <f>INT(LEFT(CF60,2))</f>
+      </c>
+      <c r="CH60" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF60,LEN(CF60)-2),1)=".",RIGHT(CF60,LEN(CF60)-3),RIGHT(CF60,LEN(CF60)-2))</f>
+      </c>
+      <c r="CI60" s="5" t="str">
+        <f>INT(LEFT(CH60,1))</f>
+      </c>
+      <c r="CJ60" s="5" t="str">
+        <f>RIGHT(CH60,LEN(CH60)-2)+0</f>
+      </c>
+      <c r="CK60" s="5" t="str">
+        <f>CG60*8*60+CI60*60+CJ60</f>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K61" s="5" t="str">
+        <f>INT(LEFT(E61,2))</f>
+      </c>
+      <c r="L61" s="5" t="str">
+        <f>INT(LEFT(F61,2))</f>
+      </c>
+      <c r="M61" s="5" t="str">
+        <f>INT(LEFT(I61,2))</f>
+      </c>
+      <c r="N61" s="5" t="str">
+        <f>INT(LEFT(G61,2))</f>
+      </c>
+      <c r="O61" s="5" t="str">
+        <f>INT(LEFT(J61,2))</f>
+      </c>
+      <c r="P61" s="5" t="str">
+        <f>INT(LEFT(H61,2))</f>
+      </c>
+      <c r="Q61" s="5" t="str">
+        <f>K61+L61+CG61+IF(M61&gt;O61,M61-O61,0)+IF(N61&gt;P61,N61-P61,0)</f>
+      </c>
+      <c r="R61" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E61,LEN(E61)-2),1)=".",RIGHT(E61,LEN(E61)-3),RIGHT(E61,LEN(E61)-2))</f>
+      </c>
+      <c r="S61" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F61,LEN(F61)-2),1)=".",RIGHT(F61,LEN(F61)-3),RIGHT(F61,LEN(F61)-2))</f>
+      </c>
+      <c r="T61" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I61,LEN(I61)-2),1)=".",RIGHT(I61,LEN(I61)-3),RIGHT(I61,LEN(I61)-2))</f>
+      </c>
+      <c r="U61" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G61,LEN(G61)-2),1)=".",RIGHT(G61,LEN(G61)-3),RIGHT(G61,LEN(G61)-2))</f>
+      </c>
+      <c r="V61" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J61,LEN(J61)-2),1)=".",RIGHT(J61,LEN(J61)-3),RIGHT(J61,LEN(J61)-2))</f>
+      </c>
+      <c r="W61" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H61,LEN(H61)-2),1)=".",RIGHT(H61,LEN(H61)-3),RIGHT(H61,LEN(H61)-2))</f>
+      </c>
+      <c r="X61" s="5" t="str">
+        <f>INT(LEFT(R61,1))</f>
+      </c>
+      <c r="Y61" s="5" t="str">
+        <f>INT(LEFT(S61,1))</f>
+      </c>
+      <c r="Z61" s="5" t="str">
+        <f>INT(LEFT(T61,1))</f>
+      </c>
+      <c r="AA61" s="5" t="str">
+        <f>INT(LEFT(U61,1))</f>
+      </c>
+      <c r="AB61" s="5" t="str">
+        <f>INT(LEFT(V61,1))</f>
+      </c>
+      <c r="AC61" s="5" t="str">
+        <f>INT(LEFT(W61,1))</f>
+      </c>
+      <c r="AD61" s="5" t="str">
+        <f>R61+S61+CH61+IF(T61&gt;V61,T61-V61,0)+IF(U61&gt;W61,U61-W61,0)</f>
+      </c>
+      <c r="AE61" s="5" t="str">
+        <f>RIGHT(R61,LEN(R61)-2)+0</f>
+      </c>
+      <c r="AF61" s="5" t="str">
+        <f>RIGHT(S61,LEN(S61)-2)+0</f>
+      </c>
+      <c r="AG61" s="5" t="str">
+        <f>RIGHT(T61,LEN(T61)-2)+0</f>
+      </c>
+      <c r="AH61" s="5" t="str">
+        <f>RIGHT(U61,LEN(U61)-2)+0</f>
+      </c>
+      <c r="AI61" s="5" t="str">
+        <f>RIGHT(V61,LEN(V61)-2)+0</f>
+      </c>
+      <c r="AJ61" s="5" t="str">
+        <f>RIGHT(W61,LEN(W61)-2)+0</f>
+      </c>
+      <c r="AK61" s="5" t="str">
+        <f>AE61+AF61+CJ61+IF(AG61&gt;AI61,AG61-AI61,0)+IF(AH61&gt;AJ61,AH61-AJ61,0)</f>
+      </c>
+      <c r="AL61" s="5" t="str">
+        <f>K61*8*60+X61*60+AE61</f>
+      </c>
+      <c r="AM61" s="5" t="str">
+        <f>L61*8*60+Y61*60+AF61</f>
+      </c>
+      <c r="AN61" s="5" t="str">
+        <f>M61*8*60+Z61*60+AG61</f>
+      </c>
+      <c r="AO61" s="5" t="str">
+        <f>N61*8*60+AA61*60+AH61</f>
+      </c>
+      <c r="AP61" s="5" t="str">
+        <f>O61*8*60+AB61*60+AI61</f>
+      </c>
+      <c r="AQ61" s="5" t="str">
+        <f>P61*8*60+AC61*60+AJ61</f>
+      </c>
+      <c r="AR61" s="5" t="str">
+        <f>AL61+AM61+CK61+IF(AN61&gt;AP61,AN61-AP61,0)+IF(AO61&gt;AQ61,AO61-AQ61,0)</f>
+      </c>
+      <c r="AS61" s="5" t="str">
+        <f>AR61/60</f>
+      </c>
+      <c r="AT61" s="5" t="str">
+        <f>FLOOR(AS61/8,1)&amp;"."&amp;FLOOR(MOD(AS61,8),1)&amp;"."&amp;(MOD(AS61,8)-FLOOR(MOD(AS61,8),1))*60</f>
+      </c>
+      <c r="AU61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY61" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ61" s="5" t="str">
+        <f>INT(LEFT(AU61,1))</f>
+      </c>
+      <c r="BA61" s="5" t="str">
+        <f>INT(LEFT(AV61,1))</f>
+      </c>
+      <c r="BB61" s="5" t="str">
+        <f>INT(LEFT(AW61,1))</f>
+      </c>
+      <c r="BC61" s="5" t="str">
+        <f>INT(LEFT(AX61,1))</f>
+      </c>
+      <c r="BD61" s="5" t="str">
+        <f>INT(LEFT(AY61,1))</f>
+      </c>
+      <c r="BE61" s="5" t="str">
+        <f>SUM(AZ61,BA61,BB61,BC61,BD61)</f>
+      </c>
+      <c r="BF61" s="5" t="str">
+        <f>RIGHT(AU61,LEN(AU61)-2)</f>
+      </c>
+      <c r="BG61" s="5" t="str">
+        <f>RIGHT(AV61,LEN(AV61)-2)</f>
+      </c>
+      <c r="BH61" s="5" t="str">
+        <f>RIGHT(AW61,LEN(AW61)-2)</f>
+      </c>
+      <c r="BI61" s="5" t="str">
+        <f>RIGHT(AX61,LEN(AX61)-2)</f>
+      </c>
+      <c r="BJ61" s="5" t="str">
+        <f>RIGHT(AY61,LEN(AY61)-2)</f>
+      </c>
+      <c r="BK61" s="5" t="str">
+        <f>INT(LEFT(BF61,1))</f>
+      </c>
+      <c r="BL61" s="5" t="str">
+        <f>INT(LEFT(BG61,1))</f>
+      </c>
+      <c r="BM61" s="5" t="str">
+        <f>INT(LEFT(BH61,1))</f>
+      </c>
+      <c r="BN61" s="5" t="str">
+        <f>INT(LEFT(BI61,1))</f>
+      </c>
+      <c r="BO61" s="5" t="str">
+        <f>INT(LEFT(BJ61,1))</f>
+      </c>
+      <c r="BP61" s="5" t="str">
+        <f>SUM(BK61:BO61)</f>
+      </c>
+      <c r="BQ61" s="5" t="str">
+        <f>RIGHT(BF61,LEN(BF61)-2)+0</f>
+      </c>
+      <c r="BR61" s="5" t="str">
+        <f>RIGHT(BG61,LEN(BG61)-2)+0</f>
+      </c>
+      <c r="BS61" s="5" t="str">
+        <f>RIGHT(BH61,LEN(BH61)-2)+0</f>
+      </c>
+      <c r="BT61" s="5" t="str">
+        <f>RIGHT(BI61,LEN(BI61)-2)+0</f>
+      </c>
+      <c r="BU61" s="5" t="str">
+        <f>RIGHT(BJ61,LEN(BJ61)-2)+0</f>
+      </c>
+      <c r="BV61" s="5" t="str">
+        <f>SUM(BQ61:BU61)</f>
+      </c>
+      <c r="BW61" s="5" t="str">
+        <f>AZ61*8*60+BK61*60+BQ61</f>
+      </c>
+      <c r="BX61" s="5" t="str">
+        <f>BA61*8*60+BL61*60+BR61</f>
+      </c>
+      <c r="BY61" s="5" t="str">
+        <f>BB61*8*60+BM61*60+BS61</f>
+      </c>
+      <c r="BZ61" s="5" t="str">
+        <f>BC61*8*60+BN61*60+BT61</f>
+      </c>
+      <c r="CA61" s="5" t="str">
+        <f>BD61*8*60+BO61*60+BU61</f>
+      </c>
+      <c r="CB61" s="5" t="str">
+        <f>SUM(BW61:CA61)</f>
+      </c>
+      <c r="CC61" s="5" t="str">
+        <f>CB61/60</f>
+      </c>
+      <c r="CD61" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE61" s="5" t="str">
+        <f>FLOOR(CC61/8,1)&amp;"."&amp;FLOOR(MOD(CC61,8),1)&amp;"."&amp;(MOD(CC61,8)-FLOOR(MOD(CC61,8),1))*60</f>
+      </c>
+      <c r="CF61" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG61" s="5" t="str">
+        <f>INT(LEFT(CF61,2))</f>
+      </c>
+      <c r="CH61" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF61,LEN(CF61)-2),1)=".",RIGHT(CF61,LEN(CF61)-3),RIGHT(CF61,LEN(CF61)-2))</f>
+      </c>
+      <c r="CI61" s="5" t="str">
+        <f>INT(LEFT(CH61,1))</f>
+      </c>
+      <c r="CJ61" s="5" t="str">
+        <f>RIGHT(CH61,LEN(CH61)-2)+0</f>
+      </c>
+      <c r="CK61" s="5" t="str">
+        <f>CG61*8*60+CI61*60+CJ61</f>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K62" s="5" t="str">
+        <f>INT(LEFT(E62,2))</f>
+      </c>
+      <c r="L62" s="5" t="str">
+        <f>INT(LEFT(F62,2))</f>
+      </c>
+      <c r="M62" s="5" t="str">
+        <f>INT(LEFT(I62,2))</f>
+      </c>
+      <c r="N62" s="5" t="str">
+        <f>INT(LEFT(G62,2))</f>
+      </c>
+      <c r="O62" s="5" t="str">
+        <f>INT(LEFT(J62,2))</f>
+      </c>
+      <c r="P62" s="5" t="str">
+        <f>INT(LEFT(H62,2))</f>
+      </c>
+      <c r="Q62" s="5" t="str">
+        <f>K62+L62+CG62+IF(M62&gt;O62,M62-O62,0)+IF(N62&gt;P62,N62-P62,0)</f>
+      </c>
+      <c r="R62" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E62,LEN(E62)-2),1)=".",RIGHT(E62,LEN(E62)-3),RIGHT(E62,LEN(E62)-2))</f>
+      </c>
+      <c r="S62" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F62,LEN(F62)-2),1)=".",RIGHT(F62,LEN(F62)-3),RIGHT(F62,LEN(F62)-2))</f>
+      </c>
+      <c r="T62" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I62,LEN(I62)-2),1)=".",RIGHT(I62,LEN(I62)-3),RIGHT(I62,LEN(I62)-2))</f>
+      </c>
+      <c r="U62" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G62,LEN(G62)-2),1)=".",RIGHT(G62,LEN(G62)-3),RIGHT(G62,LEN(G62)-2))</f>
+      </c>
+      <c r="V62" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J62,LEN(J62)-2),1)=".",RIGHT(J62,LEN(J62)-3),RIGHT(J62,LEN(J62)-2))</f>
+      </c>
+      <c r="W62" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H62,LEN(H62)-2),1)=".",RIGHT(H62,LEN(H62)-3),RIGHT(H62,LEN(H62)-2))</f>
+      </c>
+      <c r="X62" s="5" t="str">
+        <f>INT(LEFT(R62,1))</f>
+      </c>
+      <c r="Y62" s="5" t="str">
+        <f>INT(LEFT(S62,1))</f>
+      </c>
+      <c r="Z62" s="5" t="str">
+        <f>INT(LEFT(T62,1))</f>
+      </c>
+      <c r="AA62" s="5" t="str">
+        <f>INT(LEFT(U62,1))</f>
+      </c>
+      <c r="AB62" s="5" t="str">
+        <f>INT(LEFT(V62,1))</f>
+      </c>
+      <c r="AC62" s="5" t="str">
+        <f>INT(LEFT(W62,1))</f>
+      </c>
+      <c r="AD62" s="5" t="str">
+        <f>R62+S62+CH62+IF(T62&gt;V62,T62-V62,0)+IF(U62&gt;W62,U62-W62,0)</f>
+      </c>
+      <c r="AE62" s="5" t="str">
+        <f>RIGHT(R62,LEN(R62)-2)+0</f>
+      </c>
+      <c r="AF62" s="5" t="str">
+        <f>RIGHT(S62,LEN(S62)-2)+0</f>
+      </c>
+      <c r="AG62" s="5" t="str">
+        <f>RIGHT(T62,LEN(T62)-2)+0</f>
+      </c>
+      <c r="AH62" s="5" t="str">
+        <f>RIGHT(U62,LEN(U62)-2)+0</f>
+      </c>
+      <c r="AI62" s="5" t="str">
+        <f>RIGHT(V62,LEN(V62)-2)+0</f>
+      </c>
+      <c r="AJ62" s="5" t="str">
+        <f>RIGHT(W62,LEN(W62)-2)+0</f>
+      </c>
+      <c r="AK62" s="5" t="str">
+        <f>AE62+AF62+CJ62+IF(AG62&gt;AI62,AG62-AI62,0)+IF(AH62&gt;AJ62,AH62-AJ62,0)</f>
+      </c>
+      <c r="AL62" s="5" t="str">
+        <f>K62*8*60+X62*60+AE62</f>
+      </c>
+      <c r="AM62" s="5" t="str">
+        <f>L62*8*60+Y62*60+AF62</f>
+      </c>
+      <c r="AN62" s="5" t="str">
+        <f>M62*8*60+Z62*60+AG62</f>
+      </c>
+      <c r="AO62" s="5" t="str">
+        <f>N62*8*60+AA62*60+AH62</f>
+      </c>
+      <c r="AP62" s="5" t="str">
+        <f>O62*8*60+AB62*60+AI62</f>
+      </c>
+      <c r="AQ62" s="5" t="str">
+        <f>P62*8*60+AC62*60+AJ62</f>
+      </c>
+      <c r="AR62" s="5" t="str">
+        <f>AL62+AM62+CK62+IF(AN62&gt;AP62,AN62-AP62,0)+IF(AO62&gt;AQ62,AO62-AQ62,0)</f>
+      </c>
+      <c r="AS62" s="5" t="str">
+        <f>AR62/60</f>
+      </c>
+      <c r="AT62" s="5" t="str">
+        <f>FLOOR(AS62/8,1)&amp;"."&amp;FLOOR(MOD(AS62,8),1)&amp;"."&amp;(MOD(AS62,8)-FLOOR(MOD(AS62,8),1))*60</f>
+      </c>
+      <c r="AU62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ62" s="5" t="str">
+        <f>INT(LEFT(AU62,1))</f>
+      </c>
+      <c r="BA62" s="5" t="str">
+        <f>INT(LEFT(AV62,1))</f>
+      </c>
+      <c r="BB62" s="5" t="str">
+        <f>INT(LEFT(AW62,1))</f>
+      </c>
+      <c r="BC62" s="5" t="str">
+        <f>INT(LEFT(AX62,1))</f>
+      </c>
+      <c r="BD62" s="5" t="str">
+        <f>INT(LEFT(AY62,1))</f>
+      </c>
+      <c r="BE62" s="5" t="str">
+        <f>SUM(AZ62,BA62,BB62,BC62,BD62)</f>
+      </c>
+      <c r="BF62" s="5" t="str">
+        <f>RIGHT(AU62,LEN(AU62)-2)</f>
+      </c>
+      <c r="BG62" s="5" t="str">
+        <f>RIGHT(AV62,LEN(AV62)-2)</f>
+      </c>
+      <c r="BH62" s="5" t="str">
+        <f>RIGHT(AW62,LEN(AW62)-2)</f>
+      </c>
+      <c r="BI62" s="5" t="str">
+        <f>RIGHT(AX62,LEN(AX62)-2)</f>
+      </c>
+      <c r="BJ62" s="5" t="str">
+        <f>RIGHT(AY62,LEN(AY62)-2)</f>
+      </c>
+      <c r="BK62" s="5" t="str">
+        <f>INT(LEFT(BF62,1))</f>
+      </c>
+      <c r="BL62" s="5" t="str">
+        <f>INT(LEFT(BG62,1))</f>
+      </c>
+      <c r="BM62" s="5" t="str">
+        <f>INT(LEFT(BH62,1))</f>
+      </c>
+      <c r="BN62" s="5" t="str">
+        <f>INT(LEFT(BI62,1))</f>
+      </c>
+      <c r="BO62" s="5" t="str">
+        <f>INT(LEFT(BJ62,1))</f>
+      </c>
+      <c r="BP62" s="5" t="str">
+        <f>SUM(BK62:BO62)</f>
+      </c>
+      <c r="BQ62" s="5" t="str">
+        <f>RIGHT(BF62,LEN(BF62)-2)+0</f>
+      </c>
+      <c r="BR62" s="5" t="str">
+        <f>RIGHT(BG62,LEN(BG62)-2)+0</f>
+      </c>
+      <c r="BS62" s="5" t="str">
+        <f>RIGHT(BH62,LEN(BH62)-2)+0</f>
+      </c>
+      <c r="BT62" s="5" t="str">
+        <f>RIGHT(BI62,LEN(BI62)-2)+0</f>
+      </c>
+      <c r="BU62" s="5" t="str">
+        <f>RIGHT(BJ62,LEN(BJ62)-2)+0</f>
+      </c>
+      <c r="BV62" s="5" t="str">
+        <f>SUM(BQ62:BU62)</f>
+      </c>
+      <c r="BW62" s="5" t="str">
+        <f>AZ62*8*60+BK62*60+BQ62</f>
+      </c>
+      <c r="BX62" s="5" t="str">
+        <f>BA62*8*60+BL62*60+BR62</f>
+      </c>
+      <c r="BY62" s="5" t="str">
+        <f>BB62*8*60+BM62*60+BS62</f>
+      </c>
+      <c r="BZ62" s="5" t="str">
+        <f>BC62*8*60+BN62*60+BT62</f>
+      </c>
+      <c r="CA62" s="5" t="str">
+        <f>BD62*8*60+BO62*60+BU62</f>
+      </c>
+      <c r="CB62" s="5" t="str">
+        <f>SUM(BW62:CA62)</f>
+      </c>
+      <c r="CC62" s="5" t="str">
+        <f>CB62/60</f>
+      </c>
+      <c r="CD62" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE62" s="5" t="str">
+        <f>FLOOR(CC62/8,1)&amp;"."&amp;FLOOR(MOD(CC62,8),1)&amp;"."&amp;(MOD(CC62,8)-FLOOR(MOD(CC62,8),1))*60</f>
+      </c>
+      <c r="CF62" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG62" s="5" t="str">
+        <f>INT(LEFT(CF62,2))</f>
+      </c>
+      <c r="CH62" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF62,LEN(CF62)-2),1)=".",RIGHT(CF62,LEN(CF62)-3),RIGHT(CF62,LEN(CF62)-2))</f>
+      </c>
+      <c r="CI62" s="5" t="str">
+        <f>INT(LEFT(CH62,1))</f>
+      </c>
+      <c r="CJ62" s="5" t="str">
+        <f>RIGHT(CH62,LEN(CH62)-2)+0</f>
+      </c>
+      <c r="CK62" s="5" t="str">
+        <f>CG62*8*60+CI62*60+CJ62</f>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K63" s="5" t="str">
+        <f>INT(LEFT(E63,2))</f>
+      </c>
+      <c r="L63" s="5" t="str">
+        <f>INT(LEFT(F63,2))</f>
+      </c>
+      <c r="M63" s="5" t="str">
+        <f>INT(LEFT(I63,2))</f>
+      </c>
+      <c r="N63" s="5" t="str">
+        <f>INT(LEFT(G63,2))</f>
+      </c>
+      <c r="O63" s="5" t="str">
+        <f>INT(LEFT(J63,2))</f>
+      </c>
+      <c r="P63" s="5" t="str">
+        <f>INT(LEFT(H63,2))</f>
+      </c>
+      <c r="Q63" s="5" t="str">
+        <f>K63+L63+CG63+IF(M63&gt;O63,M63-O63,0)+IF(N63&gt;P63,N63-P63,0)</f>
+      </c>
+      <c r="R63" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E63,LEN(E63)-2),1)=".",RIGHT(E63,LEN(E63)-3),RIGHT(E63,LEN(E63)-2))</f>
+      </c>
+      <c r="S63" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F63,LEN(F63)-2),1)=".",RIGHT(F63,LEN(F63)-3),RIGHT(F63,LEN(F63)-2))</f>
+      </c>
+      <c r="T63" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I63,LEN(I63)-2),1)=".",RIGHT(I63,LEN(I63)-3),RIGHT(I63,LEN(I63)-2))</f>
+      </c>
+      <c r="U63" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G63,LEN(G63)-2),1)=".",RIGHT(G63,LEN(G63)-3),RIGHT(G63,LEN(G63)-2))</f>
+      </c>
+      <c r="V63" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J63,LEN(J63)-2),1)=".",RIGHT(J63,LEN(J63)-3),RIGHT(J63,LEN(J63)-2))</f>
+      </c>
+      <c r="W63" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H63,LEN(H63)-2),1)=".",RIGHT(H63,LEN(H63)-3),RIGHT(H63,LEN(H63)-2))</f>
+      </c>
+      <c r="X63" s="5" t="str">
+        <f>INT(LEFT(R63,1))</f>
+      </c>
+      <c r="Y63" s="5" t="str">
+        <f>INT(LEFT(S63,1))</f>
+      </c>
+      <c r="Z63" s="5" t="str">
+        <f>INT(LEFT(T63,1))</f>
+      </c>
+      <c r="AA63" s="5" t="str">
+        <f>INT(LEFT(U63,1))</f>
+      </c>
+      <c r="AB63" s="5" t="str">
+        <f>INT(LEFT(V63,1))</f>
+      </c>
+      <c r="AC63" s="5" t="str">
+        <f>INT(LEFT(W63,1))</f>
+      </c>
+      <c r="AD63" s="5" t="str">
+        <f>R63+S63+CH63+IF(T63&gt;V63,T63-V63,0)+IF(U63&gt;W63,U63-W63,0)</f>
+      </c>
+      <c r="AE63" s="5" t="str">
+        <f>RIGHT(R63,LEN(R63)-2)+0</f>
+      </c>
+      <c r="AF63" s="5" t="str">
+        <f>RIGHT(S63,LEN(S63)-2)+0</f>
+      </c>
+      <c r="AG63" s="5" t="str">
+        <f>RIGHT(T63,LEN(T63)-2)+0</f>
+      </c>
+      <c r="AH63" s="5" t="str">
+        <f>RIGHT(U63,LEN(U63)-2)+0</f>
+      </c>
+      <c r="AI63" s="5" t="str">
+        <f>RIGHT(V63,LEN(V63)-2)+0</f>
+      </c>
+      <c r="AJ63" s="5" t="str">
+        <f>RIGHT(W63,LEN(W63)-2)+0</f>
+      </c>
+      <c r="AK63" s="5" t="str">
+        <f>AE63+AF63+CJ63+IF(AG63&gt;AI63,AG63-AI63,0)+IF(AH63&gt;AJ63,AH63-AJ63,0)</f>
+      </c>
+      <c r="AL63" s="5" t="str">
+        <f>K63*8*60+X63*60+AE63</f>
+      </c>
+      <c r="AM63" s="5" t="str">
+        <f>L63*8*60+Y63*60+AF63</f>
+      </c>
+      <c r="AN63" s="5" t="str">
+        <f>M63*8*60+Z63*60+AG63</f>
+      </c>
+      <c r="AO63" s="5" t="str">
+        <f>N63*8*60+AA63*60+AH63</f>
+      </c>
+      <c r="AP63" s="5" t="str">
+        <f>O63*8*60+AB63*60+AI63</f>
+      </c>
+      <c r="AQ63" s="5" t="str">
+        <f>P63*8*60+AC63*60+AJ63</f>
+      </c>
+      <c r="AR63" s="5" t="str">
+        <f>AL63+AM63+CK63+IF(AN63&gt;AP63,AN63-AP63,0)+IF(AO63&gt;AQ63,AO63-AQ63,0)</f>
+      </c>
+      <c r="AS63" s="5" t="str">
+        <f>AR63/60</f>
+      </c>
+      <c r="AT63" s="5" t="str">
+        <f>FLOOR(AS63/8,1)&amp;"."&amp;FLOOR(MOD(AS63,8),1)&amp;"."&amp;(MOD(AS63,8)-FLOOR(MOD(AS63,8),1))*60</f>
+      </c>
+      <c r="AU63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY63" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ63" s="5" t="str">
+        <f>INT(LEFT(AU63,1))</f>
+      </c>
+      <c r="BA63" s="5" t="str">
+        <f>INT(LEFT(AV63,1))</f>
+      </c>
+      <c r="BB63" s="5" t="str">
+        <f>INT(LEFT(AW63,1))</f>
+      </c>
+      <c r="BC63" s="5" t="str">
+        <f>INT(LEFT(AX63,1))</f>
+      </c>
+      <c r="BD63" s="5" t="str">
+        <f>INT(LEFT(AY63,1))</f>
+      </c>
+      <c r="BE63" s="5" t="str">
+        <f>SUM(AZ63,BA63,BB63,BC63,BD63)</f>
+      </c>
+      <c r="BF63" s="5" t="str">
+        <f>RIGHT(AU63,LEN(AU63)-2)</f>
+      </c>
+      <c r="BG63" s="5" t="str">
+        <f>RIGHT(AV63,LEN(AV63)-2)</f>
+      </c>
+      <c r="BH63" s="5" t="str">
+        <f>RIGHT(AW63,LEN(AW63)-2)</f>
+      </c>
+      <c r="BI63" s="5" t="str">
+        <f>RIGHT(AX63,LEN(AX63)-2)</f>
+      </c>
+      <c r="BJ63" s="5" t="str">
+        <f>RIGHT(AY63,LEN(AY63)-2)</f>
+      </c>
+      <c r="BK63" s="5" t="str">
+        <f>INT(LEFT(BF63,1))</f>
+      </c>
+      <c r="BL63" s="5" t="str">
+        <f>INT(LEFT(BG63,1))</f>
+      </c>
+      <c r="BM63" s="5" t="str">
+        <f>INT(LEFT(BH63,1))</f>
+      </c>
+      <c r="BN63" s="5" t="str">
+        <f>INT(LEFT(BI63,1))</f>
+      </c>
+      <c r="BO63" s="5" t="str">
+        <f>INT(LEFT(BJ63,1))</f>
+      </c>
+      <c r="BP63" s="5" t="str">
+        <f>SUM(BK63:BO63)</f>
+      </c>
+      <c r="BQ63" s="5" t="str">
+        <f>RIGHT(BF63,LEN(BF63)-2)+0</f>
+      </c>
+      <c r="BR63" s="5" t="str">
+        <f>RIGHT(BG63,LEN(BG63)-2)+0</f>
+      </c>
+      <c r="BS63" s="5" t="str">
+        <f>RIGHT(BH63,LEN(BH63)-2)+0</f>
+      </c>
+      <c r="BT63" s="5" t="str">
+        <f>RIGHT(BI63,LEN(BI63)-2)+0</f>
+      </c>
+      <c r="BU63" s="5" t="str">
+        <f>RIGHT(BJ63,LEN(BJ63)-2)+0</f>
+      </c>
+      <c r="BV63" s="5" t="str">
+        <f>SUM(BQ63:BU63)</f>
+      </c>
+      <c r="BW63" s="5" t="str">
+        <f>AZ63*8*60+BK63*60+BQ63</f>
+      </c>
+      <c r="BX63" s="5" t="str">
+        <f>BA63*8*60+BL63*60+BR63</f>
+      </c>
+      <c r="BY63" s="5" t="str">
+        <f>BB63*8*60+BM63*60+BS63</f>
+      </c>
+      <c r="BZ63" s="5" t="str">
+        <f>BC63*8*60+BN63*60+BT63</f>
+      </c>
+      <c r="CA63" s="5" t="str">
+        <f>BD63*8*60+BO63*60+BU63</f>
+      </c>
+      <c r="CB63" s="5" t="str">
+        <f>SUM(BW63:CA63)</f>
+      </c>
+      <c r="CC63" s="5" t="str">
+        <f>CB63/60</f>
+      </c>
+      <c r="CD63" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE63" s="5" t="str">
+        <f>FLOOR(CC63/8,1)&amp;"."&amp;FLOOR(MOD(CC63,8),1)&amp;"."&amp;(MOD(CC63,8)-FLOOR(MOD(CC63,8),1))*60</f>
+      </c>
+      <c r="CF63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="CG63" s="5" t="str">
+        <f>INT(LEFT(CF63,2))</f>
+      </c>
+      <c r="CH63" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF63,LEN(CF63)-2),1)=".",RIGHT(CF63,LEN(CF63)-3),RIGHT(CF63,LEN(CF63)-2))</f>
+      </c>
+      <c r="CI63" s="5" t="str">
+        <f>INT(LEFT(CH63,1))</f>
+      </c>
+      <c r="CJ63" s="5" t="str">
+        <f>RIGHT(CH63,LEN(CH63)-2)+0</f>
+      </c>
+      <c r="CK63" s="5" t="str">
+        <f>CG63*8*60+CI63*60+CJ63</f>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K64" s="5" t="str">
+        <f>INT(LEFT(E64,2))</f>
+      </c>
+      <c r="L64" s="5" t="str">
+        <f>INT(LEFT(F64,2))</f>
+      </c>
+      <c r="M64" s="5" t="str">
+        <f>INT(LEFT(I64,2))</f>
+      </c>
+      <c r="N64" s="5" t="str">
+        <f>INT(LEFT(G64,2))</f>
+      </c>
+      <c r="O64" s="5" t="str">
+        <f>INT(LEFT(J64,2))</f>
+      </c>
+      <c r="P64" s="5" t="str">
+        <f>INT(LEFT(H64,2))</f>
+      </c>
+      <c r="Q64" s="5" t="str">
+        <f>K64+L64+CG64+IF(M64&gt;O64,M64-O64,0)+IF(N64&gt;P64,N64-P64,0)</f>
+      </c>
+      <c r="R64" s="5" t="str">
+        <f>IF(LEFT(RIGHT(E64,LEN(E64)-2),1)=".",RIGHT(E64,LEN(E64)-3),RIGHT(E64,LEN(E64)-2))</f>
+      </c>
+      <c r="S64" s="5" t="str">
+        <f>IF(LEFT(RIGHT(F64,LEN(F64)-2),1)=".",RIGHT(F64,LEN(F64)-3),RIGHT(F64,LEN(F64)-2))</f>
+      </c>
+      <c r="T64" s="5" t="str">
+        <f>IF(LEFT(RIGHT(I64,LEN(I64)-2),1)=".",RIGHT(I64,LEN(I64)-3),RIGHT(I64,LEN(I64)-2))</f>
+      </c>
+      <c r="U64" s="5" t="str">
+        <f>IF(LEFT(RIGHT(G64,LEN(G64)-2),1)=".",RIGHT(G64,LEN(G64)-3),RIGHT(G64,LEN(G64)-2))</f>
+      </c>
+      <c r="V64" s="5" t="str">
+        <f>IF(LEFT(RIGHT(J64,LEN(J64)-2),1)=".",RIGHT(J64,LEN(J64)-3),RIGHT(J64,LEN(J64)-2))</f>
+      </c>
+      <c r="W64" s="5" t="str">
+        <f>IF(LEFT(RIGHT(H64,LEN(H64)-2),1)=".",RIGHT(H64,LEN(H64)-3),RIGHT(H64,LEN(H64)-2))</f>
+      </c>
+      <c r="X64" s="5" t="str">
+        <f>INT(LEFT(R64,1))</f>
+      </c>
+      <c r="Y64" s="5" t="str">
+        <f>INT(LEFT(S64,1))</f>
+      </c>
+      <c r="Z64" s="5" t="str">
+        <f>INT(LEFT(T64,1))</f>
+      </c>
+      <c r="AA64" s="5" t="str">
+        <f>INT(LEFT(U64,1))</f>
+      </c>
+      <c r="AB64" s="5" t="str">
+        <f>INT(LEFT(V64,1))</f>
+      </c>
+      <c r="AC64" s="5" t="str">
+        <f>INT(LEFT(W64,1))</f>
+      </c>
+      <c r="AD64" s="5" t="str">
+        <f>R64+S64+CH64+IF(T64&gt;V64,T64-V64,0)+IF(U64&gt;W64,U64-W64,0)</f>
+      </c>
+      <c r="AE64" s="5" t="str">
+        <f>RIGHT(R64,LEN(R64)-2)+0</f>
+      </c>
+      <c r="AF64" s="5" t="str">
+        <f>RIGHT(S64,LEN(S64)-2)+0</f>
+      </c>
+      <c r="AG64" s="5" t="str">
+        <f>RIGHT(T64,LEN(T64)-2)+0</f>
+      </c>
+      <c r="AH64" s="5" t="str">
+        <f>RIGHT(U64,LEN(U64)-2)+0</f>
+      </c>
+      <c r="AI64" s="5" t="str">
+        <f>RIGHT(V64,LEN(V64)-2)+0</f>
+      </c>
+      <c r="AJ64" s="5" t="str">
+        <f>RIGHT(W64,LEN(W64)-2)+0</f>
+      </c>
+      <c r="AK64" s="5" t="str">
+        <f>AE64+AF64+CJ64+IF(AG64&gt;AI64,AG64-AI64,0)+IF(AH64&gt;AJ64,AH64-AJ64,0)</f>
+      </c>
+      <c r="AL64" s="5" t="str">
+        <f>K64*8*60+X64*60+AE64</f>
+      </c>
+      <c r="AM64" s="5" t="str">
+        <f>L64*8*60+Y64*60+AF64</f>
+      </c>
+      <c r="AN64" s="5" t="str">
+        <f>M64*8*60+Z64*60+AG64</f>
+      </c>
+      <c r="AO64" s="5" t="str">
+        <f>N64*8*60+AA64*60+AH64</f>
+      </c>
+      <c r="AP64" s="5" t="str">
+        <f>O64*8*60+AB64*60+AI64</f>
+      </c>
+      <c r="AQ64" s="5" t="str">
+        <f>P64*8*60+AC64*60+AJ64</f>
+      </c>
+      <c r="AR64" s="5" t="str">
+        <f>AL64+AM64+CK64+IF(AN64&gt;AP64,AN64-AP64,0)+IF(AO64&gt;AQ64,AO64-AQ64,0)</f>
+      </c>
+      <c r="AS64" s="5" t="str">
+        <f>AR64/60</f>
+      </c>
+      <c r="AT64" s="5" t="str">
+        <f>FLOOR(AS64/8,1)&amp;"."&amp;FLOOR(MOD(AS64,8),1)&amp;"."&amp;(MOD(AS64,8)-FLOOR(MOD(AS64,8),1))*60</f>
+      </c>
+      <c r="AU64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AV64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY64" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ64" s="5" t="str">
+        <f>INT(LEFT(AU64,1))</f>
+      </c>
+      <c r="BA64" s="5" t="str">
+        <f>INT(LEFT(AV64,1))</f>
+      </c>
+      <c r="BB64" s="5" t="str">
+        <f>INT(LEFT(AW64,1))</f>
+      </c>
+      <c r="BC64" s="5" t="str">
+        <f>INT(LEFT(AX64,1))</f>
+      </c>
+      <c r="BD64" s="5" t="str">
+        <f>INT(LEFT(AY64,1))</f>
+      </c>
+      <c r="BE64" s="5" t="str">
+        <f>SUM(AZ64,BA64,BB64,BC64,BD64)</f>
+      </c>
+      <c r="BF64" s="5" t="str">
+        <f>RIGHT(AU64,LEN(AU64)-2)</f>
+      </c>
+      <c r="BG64" s="5" t="str">
+        <f>RIGHT(AV64,LEN(AV64)-2)</f>
+      </c>
+      <c r="BH64" s="5" t="str">
+        <f>RIGHT(AW64,LEN(AW64)-2)</f>
+      </c>
+      <c r="BI64" s="5" t="str">
+        <f>RIGHT(AX64,LEN(AX64)-2)</f>
+      </c>
+      <c r="BJ64" s="5" t="str">
+        <f>RIGHT(AY64,LEN(AY64)-2)</f>
+      </c>
+      <c r="BK64" s="5" t="str">
+        <f>INT(LEFT(BF64,1))</f>
+      </c>
+      <c r="BL64" s="5" t="str">
+        <f>INT(LEFT(BG64,1))</f>
+      </c>
+      <c r="BM64" s="5" t="str">
+        <f>INT(LEFT(BH64,1))</f>
+      </c>
+      <c r="BN64" s="5" t="str">
+        <f>INT(LEFT(BI64,1))</f>
+      </c>
+      <c r="BO64" s="5" t="str">
+        <f>INT(LEFT(BJ64,1))</f>
+      </c>
+      <c r="BP64" s="5" t="str">
+        <f>SUM(BK64:BO64)</f>
+      </c>
+      <c r="BQ64" s="5" t="str">
+        <f>RIGHT(BF64,LEN(BF64)-2)+0</f>
+      </c>
+      <c r="BR64" s="5" t="str">
+        <f>RIGHT(BG64,LEN(BG64)-2)+0</f>
+      </c>
+      <c r="BS64" s="5" t="str">
+        <f>RIGHT(BH64,LEN(BH64)-2)+0</f>
+      </c>
+      <c r="BT64" s="5" t="str">
+        <f>RIGHT(BI64,LEN(BI64)-2)+0</f>
+      </c>
+      <c r="BU64" s="5" t="str">
+        <f>RIGHT(BJ64,LEN(BJ64)-2)+0</f>
+      </c>
+      <c r="BV64" s="5" t="str">
+        <f>SUM(BQ64:BU64)</f>
+      </c>
+      <c r="BW64" s="5" t="str">
+        <f>AZ64*8*60+BK64*60+BQ64</f>
+      </c>
+      <c r="BX64" s="5" t="str">
+        <f>BA64*8*60+BL64*60+BR64</f>
+      </c>
+      <c r="BY64" s="5" t="str">
+        <f>BB64*8*60+BM64*60+BS64</f>
+      </c>
+      <c r="BZ64" s="5" t="str">
+        <f>BC64*8*60+BN64*60+BT64</f>
+      </c>
+      <c r="CA64" s="5" t="str">
+        <f>BD64*8*60+BO64*60+BU64</f>
+      </c>
+      <c r="CB64" s="5" t="str">
+        <f>SUM(BW64:CA64)</f>
+      </c>
+      <c r="CC64" s="5" t="str">
+        <f>CB64/60</f>
+      </c>
+      <c r="CD64" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE64" s="5" t="str">
+        <f>FLOOR(CC64/8,1)&amp;"."&amp;FLOOR(MOD(CC64,8),1)&amp;"."&amp;(MOD(CC64,8)-FLOOR(MOD(CC64,8),1))*60</f>
+      </c>
+      <c r="CF64" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG64" s="5" t="str">
+        <f>INT(LEFT(CF64,2))</f>
+      </c>
+      <c r="CH64" s="5" t="str">
+        <f>IF(LEFT(RIGHT(CF64,LEN(CF64)-2),1)=".",RIGHT(CF64,LEN(CF64)-3),RIGHT(CF64,LEN(CF64)-2))</f>
+      </c>
+      <c r="CI64" s="5" t="str">
+        <f>INT(LEFT(CH64,1))</f>
+      </c>
+      <c r="CJ64" s="5" t="str">
+        <f>RIGHT(CH64,LEN(CH64)-2)+0</f>
+      </c>
+      <c r="CK64" s="5" t="str">
+        <f>CG64*8*60+CI64*60+CJ64</f>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="H65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="J65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="M65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="N65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O54" s="6" t="s">
+      <c r="O65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P54" s="6" t="s">
+      <c r="P65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q54" s="6" t="s">
+      <c r="Q65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="R54" s="6" t="s">
+      <c r="R65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="S54" s="6" t="s">
+      <c r="S65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="T54" s="6" t="s">
+      <c r="T65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="U54" s="6" t="s">
+      <c r="U65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V54" s="6" t="s">
+      <c r="V65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="W54" s="6" t="s">
+      <c r="W65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="X54" s="6" t="s">
+      <c r="X65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Y54" s="6" t="s">
+      <c r="Y65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Z54" s="6" t="s">
+      <c r="Z65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AA54" s="6" t="s">
+      <c r="AA65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AB54" s="6" t="s">
+      <c r="AB65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AC54" s="6" t="s">
+      <c r="AC65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD54" s="6" t="s">
+      <c r="AD65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AE54" s="6" t="s">
+      <c r="AE65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AF54" s="6" t="s">
+      <c r="AF65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AG54" s="6" t="s">
+      <c r="AG65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AH54" s="6" t="s">
+      <c r="AH65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AI54" s="6" t="s">
+      <c r="AI65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AJ54" s="6" t="s">
+      <c r="AJ65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AK54" s="6" t="s">
+      <c r="AK65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AL54" s="6" t="s">
+      <c r="AL65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AM54" s="6" t="s">
+      <c r="AM65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AN54" s="6" t="s">
+      <c r="AN65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AO54" s="6" t="s">
+      <c r="AO65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AP54" s="6" t="s">
+      <c r="AP65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AQ54" s="6" t="s">
+      <c r="AQ65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR54" s="6" t="s">
+      <c r="AR65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AS54" s="6" t="s">
+      <c r="AS65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AT54" s="6" t="s">
+      <c r="AT65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AU54" s="6" t="s">
+      <c r="AU65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AV54" s="6" t="s">
+      <c r="AV65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AW54" s="6" t="s">
+      <c r="AW65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AX54" s="6" t="s">
+      <c r="AX65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AY54" s="6" t="s">
+      <c r="AY65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AZ54" s="6" t="s">
+      <c r="AZ65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BA54" s="6" t="s">
+      <c r="BA65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BB54" s="6" t="s">
+      <c r="BB65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BC54" s="6" t="s">
+      <c r="BC65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BD54" s="6" t="s">
+      <c r="BD65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BE54" s="6" t="s">
+      <c r="BE65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF54" s="6" t="s">
+      <c r="BF65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BG54" s="6" t="s">
+      <c r="BG65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BH54" s="6" t="s">
+      <c r="BH65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BI54" s="6" t="s">
+      <c r="BI65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BJ54" s="6" t="s">
+      <c r="BJ65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BK54" s="6" t="s">
+      <c r="BK65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BL54" s="6" t="s">
+      <c r="BL65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BM54" s="6" t="s">
+      <c r="BM65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BN54" s="6" t="s">
+      <c r="BN65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BO54" s="6" t="s">
+      <c r="BO65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BP54" s="6" t="s">
+      <c r="BP65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BQ54" s="6" t="s">
+      <c r="BQ65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BR54" s="6" t="s">
+      <c r="BR65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BS54" s="6" t="s">
+      <c r="BS65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT54" s="6" t="s">
+      <c r="BT65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BU54" s="6" t="s">
+      <c r="BU65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BV54" s="6" t="s">
+      <c r="BV65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BW54" s="6" t="s">
+      <c r="BW65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BX54" s="6" t="s">
+      <c r="BX65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BY54" s="6" t="s">
+      <c r="BY65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BZ54" s="6" t="s">
+      <c r="BZ65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CA54" s="6" t="s">
+      <c r="CA65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CB54" s="6" t="s">
+      <c r="CB65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CC54" s="6" t="s">
+      <c r="CC65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CD54" s="6" t="s">
+      <c r="CD65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CE54" s="6" t="s">
+      <c r="CE65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CF54" s="6" t="s">
+      <c r="CF65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CG54" s="6" t="s">
+      <c r="CG65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH54" s="6" t="s">
+      <c r="CH65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CI54" s="6" t="s">
+      <c r="CI65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CJ54" s="6" t="s">
+      <c r="CJ65" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CK54" s="6" t="s">
+      <c r="CK65" s="6" t="s">
         <v>2</v>
       </c>
     </row>

--- a/exceltocsv/public/reports/DTRSUMMARY.xlsx
+++ b/exceltocsv/public/reports/DTRSUMMARY.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="199" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="201" xml:space="preserve">
   <si>
     <t>iRipple, Inc. | DTR Summary Sheet for the period May 09, 2015 to May 22, 2015</t>
   </si>
@@ -320,99 +320,108 @@
     <t>Enterprise - Ayagold</t>
   </si>
   <si>
+    <t>3.4.0</t>
+  </si>
+  <si>
+    <t>Bernardo, Gianilla Mae</t>
+  </si>
+  <si>
+    <t>0.0.30</t>
+  </si>
+  <si>
+    <t>2.4.0</t>
+  </si>
+  <si>
+    <t>Biana, Kristine Joy</t>
+  </si>
+  <si>
+    <t>Marketing &amp;amp; Hardware</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Borlagdan, Aldrin</t>
+  </si>
+  <si>
+    <t>ATVI</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>Buena, Ian Christopher</t>
+  </si>
+  <si>
+    <t>0.2.45</t>
+  </si>
+  <si>
+    <t>Buenafe, Rajiv</t>
+  </si>
+  <si>
+    <t>10.0.0</t>
+  </si>
+  <si>
+    <t>Cansino, Oliver</t>
+  </si>
+  <si>
+    <t>Cataluna, Christian Gilbert</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
     <t>4.4.0</t>
   </si>
   <si>
-    <t>Bernardo, Gianilla Mae</t>
-  </si>
-  <si>
-    <t>0.0.30</t>
-  </si>
-  <si>
-    <t>2.4.0</t>
-  </si>
-  <si>
-    <t>Biana, Kristine Joy</t>
-  </si>
-  <si>
-    <t>Marketing &amp;amp; Hardware</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
+    <t>CaÃ±ete, Carol Ann</t>
+  </si>
+  <si>
+    <t>0.4.0</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
+  </si>
+  <si>
+    <t>Cerbo, Jaycer</t>
+  </si>
+  <si>
+    <t>1.7.0</t>
+  </si>
+  <si>
+    <t>Ching, Mark Angelo</t>
+  </si>
+  <si>
+    <t>Imaghine</t>
+  </si>
+  <si>
+    <t>0.6.45</t>
+  </si>
+  <si>
+    <t>Cortez, Jomar</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>6.0.0</t>
+  </si>
+  <si>
+    <t>Cruz, Cesar</t>
+  </si>
+  <si>
+    <t>Delfin, Jonathan</t>
+  </si>
+  <si>
+    <t>International Business - PNG</t>
   </si>
   <si>
     <t>0.2.0</t>
   </si>
   <si>
-    <t>Borlagdan, Aldrin</t>
-  </si>
-  <si>
-    <t>ATVI</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>Buena, Ian Christopher</t>
-  </si>
-  <si>
-    <t>0.2.45</t>
-  </si>
-  <si>
-    <t>Buenafe, Rajiv</t>
-  </si>
-  <si>
-    <t>10.0.0</t>
-  </si>
-  <si>
-    <t>Cansino, Oliver</t>
-  </si>
-  <si>
-    <t>Cataluna, Christian Gilbert</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>CaÃ±ete, Carol Ann</t>
-  </si>
-  <si>
-    <t>Cerbo, Jaycer</t>
-  </si>
-  <si>
-    <t>1.7.0</t>
-  </si>
-  <si>
-    <t>Ching, Mark Angelo</t>
-  </si>
-  <si>
-    <t>Imaghine</t>
-  </si>
-  <si>
-    <t>0.6.45</t>
-  </si>
-  <si>
-    <t>Cortez, Jomar</t>
-  </si>
-  <si>
-    <t>5.4.0</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>Cruz, Cesar</t>
-  </si>
-  <si>
-    <t>1.4.0</t>
-  </si>
-  <si>
-    <t>Delfin, Jonathan</t>
-  </si>
-  <si>
-    <t>International Business - PNG</t>
-  </si>
-  <si>
     <t>Dino, Arvin</t>
   </si>
   <si>
@@ -449,30 +458,33 @@
     <t>0.1.30</t>
   </si>
   <si>
+    <t>0.6.30</t>
+  </si>
+  <si>
+    <t>Fadrilan, Liezl</t>
+  </si>
+  <si>
+    <t>Synext (Nexus)</t>
+  </si>
+  <si>
+    <t>9.0.0</t>
+  </si>
+  <si>
+    <t>Flores, Arianne Grace</t>
+  </si>
+  <si>
+    <t>0.5.0</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Francisco, Roed Ronualdo </t>
+  </si>
+  <si>
     <t>0.6.0</t>
   </si>
   <si>
-    <t>Fadrilan, Liezl</t>
-  </si>
-  <si>
-    <t>Synext (Nexus)</t>
-  </si>
-  <si>
-    <t>9.0.0</t>
-  </si>
-  <si>
-    <t>Flores, Arianne Grace</t>
-  </si>
-  <si>
-    <t>0.5.0</t>
-  </si>
-  <si>
-    <t>1.2.0</t>
-  </si>
-  <si>
-    <t>Francisco, Roed Ronualdo </t>
-  </si>
-  <si>
     <t>Golo, Rianna Rae</t>
   </si>
   <si>
@@ -482,9 +494,6 @@
     <t>Hernandez, Paulyn Gean</t>
   </si>
   <si>
-    <t>0.4.0</t>
-  </si>
-  <si>
     <t>Javier, Victor </t>
   </si>
   <si>
@@ -518,13 +527,10 @@
     <t>Mendoza, Diana</t>
   </si>
   <si>
-    <t>0.6.30</t>
-  </si>
-  <si>
     <t>Muncal, Ardo</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.5.0</t>
   </si>
   <si>
     <t>Nagnal, Fracy</t>
@@ -2199,7 +2205,7 @@
         <v>81</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K7" s="5" t="str">
         <f>INT(LEFT(E7,2))</f>
@@ -4193,7 +4199,7 @@
         <f>FLOOR(AS14/8,1)&amp;"."&amp;FLOOR(MOD(AS14,8),1)&amp;"."&amp;(MOD(AS14,8)-FLOOR(MOD(AS14,8),1))*60</f>
       </c>
       <c r="AU14" s="5" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="AV14" s="5" t="s">
         <v>81</v>
@@ -4327,10 +4333,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>1</v>
@@ -4573,7 +4579,7 @@
         <f>FLOOR(CC15/8,1)&amp;"."&amp;FLOOR(MOD(CC15,8),1)&amp;"."&amp;(MOD(CC15,8)-FLOOR(MOD(CC15,8),1))*60</f>
       </c>
       <c r="CF15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CG15" s="5" t="str">
         <f>INT(LEFT(CF15,2))</f>
@@ -4596,10 +4602,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>1</v>
@@ -4608,7 +4614,7 @@
         <v>109</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>81</v>
@@ -4842,7 +4848,7 @@
         <f>FLOOR(CC16/8,1)&amp;"."&amp;FLOOR(MOD(CC16,8),1)&amp;"."&amp;(MOD(CC16,8)-FLOOR(MOD(CC16,8),1))*60</f>
       </c>
       <c r="CF16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CG16" s="5" t="str">
         <f>INT(LEFT(CF16,2))</f>
@@ -4865,7 +4871,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>84</v>
@@ -5111,7 +5117,7 @@
         <f>FLOOR(CC17/8,1)&amp;"."&amp;FLOOR(MOD(CC17,8),1)&amp;"."&amp;(MOD(CC17,8)-FLOOR(MOD(CC17,8),1))*60</f>
       </c>
       <c r="CF17" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="CG17" s="5" t="str">
         <f>INT(LEFT(CF17,2))</f>
@@ -5134,7 +5140,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>99</v>
@@ -5403,10 +5409,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0</v>
@@ -5421,13 +5427,13 @@
         <v>81</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>81</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="K19" s="5" t="str">
         <f>INT(LEFT(E19,2))</f>
@@ -5649,7 +5655,7 @@
         <f>FLOOR(CC19/8,1)&amp;"."&amp;FLOOR(MOD(CC19,8),1)&amp;"."&amp;(MOD(CC19,8)-FLOOR(MOD(CC19,8),1))*60</f>
       </c>
       <c r="CF19" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="CG19" s="5" t="str">
         <f>INT(LEFT(CF19,2))</f>
@@ -5672,7 +5678,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>97</v>
@@ -5687,7 +5693,7 @@
         <v>81</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>82</v>
@@ -5696,7 +5702,7 @@
         <v>81</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K20" s="5" t="str">
         <f>INT(LEFT(E20,2))</f>
@@ -5941,7 +5947,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>99</v>
@@ -6079,7 +6085,7 @@
         <v>81</v>
       </c>
       <c r="AV21" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AW21" s="5" t="s">
         <v>81</v>
@@ -6210,10 +6216,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>1</v>
@@ -6222,7 +6228,7 @@
         <v>95</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>81</v>
@@ -6456,7 +6462,7 @@
         <f>FLOOR(CC22/8,1)&amp;"."&amp;FLOOR(MOD(CC22,8),1)&amp;"."&amp;(MOD(CC22,8)-FLOOR(MOD(CC22,8),1))*60</f>
       </c>
       <c r="CF22" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="CG22" s="5" t="str">
         <f>INT(LEFT(CF22,2))</f>
@@ -6479,7 +6485,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>80</v>
@@ -6494,7 +6500,7 @@
         <v>81</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>82</v>
@@ -6503,7 +6509,7 @@
         <v>81</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K23" s="5" t="str">
         <f>INT(LEFT(E23,2))</f>
@@ -6725,7 +6731,7 @@
         <f>FLOOR(CC23/8,1)&amp;"."&amp;FLOOR(MOD(CC23,8),1)&amp;"."&amp;(MOD(CC23,8)-FLOOR(MOD(CC23,8),1))*60</f>
       </c>
       <c r="CF23" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="CG23" s="5" t="str">
         <f>INT(LEFT(CF23,2))</f>
@@ -6748,7 +6754,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>99</v>
@@ -6763,7 +6769,7 @@
         <v>81</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>82</v>
@@ -6994,7 +7000,7 @@
         <f>FLOOR(CC24/8,1)&amp;"."&amp;FLOOR(MOD(CC24,8),1)&amp;"."&amp;(MOD(CC24,8)-FLOOR(MOD(CC24,8),1))*60</f>
       </c>
       <c r="CF24" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="CG24" s="5" t="str">
         <f>INT(LEFT(CF24,2))</f>
@@ -7017,10 +7023,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0</v>
@@ -7152,7 +7158,7 @@
         <f>FLOOR(AS25/8,1)&amp;"."&amp;FLOOR(MOD(AS25,8),1)&amp;"."&amp;(MOD(AS25,8)-FLOOR(MOD(AS25,8),1))*60</f>
       </c>
       <c r="AU25" s="5" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>81</v>
@@ -7286,10 +7292,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0</v>
@@ -7298,7 +7304,7 @@
         <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>81</v>
@@ -7555,10 +7561,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0</v>
@@ -7824,7 +7830,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>80</v>
@@ -7836,7 +7842,7 @@
         <v>95</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>81</v>
@@ -7959,7 +7965,7 @@
         <f>FLOOR(AS28/8,1)&amp;"."&amp;FLOOR(MOD(AS28,8),1)&amp;"."&amp;(MOD(AS28,8)-FLOOR(MOD(AS28,8),1))*60</f>
       </c>
       <c r="AU28" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AV28" s="5" t="s">
         <v>86</v>
@@ -8070,7 +8076,7 @@
         <f>FLOOR(CC28/8,1)&amp;"."&amp;FLOOR(MOD(CC28,8),1)&amp;"."&amp;(MOD(CC28,8)-FLOOR(MOD(CC28,8),1))*60</f>
       </c>
       <c r="CF28" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="CG28" s="5" t="str">
         <f>INT(LEFT(CF28,2))</f>
@@ -8093,10 +8099,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0</v>
@@ -8362,19 +8368,19 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>81</v>
@@ -8497,7 +8503,7 @@
         <f>FLOOR(AS30/8,1)&amp;"."&amp;FLOOR(MOD(AS30,8),1)&amp;"."&amp;(MOD(AS30,8)-FLOOR(MOD(AS30,8),1))*60</f>
       </c>
       <c r="AU30" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AV30" s="5" t="s">
         <v>81</v>
@@ -8631,10 +8637,10 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0</v>
@@ -8877,7 +8883,7 @@
         <f>FLOOR(CC31/8,1)&amp;"."&amp;FLOOR(MOD(CC31,8),1)&amp;"."&amp;(MOD(CC31,8)-FLOOR(MOD(CC31,8),1))*60</f>
       </c>
       <c r="CF31" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="CG31" s="5" t="str">
         <f>INT(LEFT(CF31,2))</f>
@@ -8900,7 +8906,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>90</v>
@@ -8915,7 +8921,7 @@
         <v>81</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>82</v>
@@ -8924,7 +8930,7 @@
         <v>81</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="K32" s="5" t="str">
         <f>INT(LEFT(E32,2))</f>
@@ -9035,10 +9041,10 @@
         <f>FLOOR(AS32/8,1)&amp;"."&amp;FLOOR(MOD(AS32,8),1)&amp;"."&amp;(MOD(AS32,8)-FLOOR(MOD(AS32,8),1))*60</f>
       </c>
       <c r="AU32" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AV32" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AW32" s="5" t="s">
         <v>81</v>
@@ -9146,7 +9152,7 @@
         <f>FLOOR(CC32/8,1)&amp;"."&amp;FLOOR(MOD(CC32,8),1)&amp;"."&amp;(MOD(CC32,8)-FLOOR(MOD(CC32,8),1))*60</f>
       </c>
       <c r="CF32" s="5" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="CG32" s="5" t="str">
         <f>INT(LEFT(CF32,2))</f>
@@ -9169,7 +9175,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>99</v>
@@ -9307,7 +9313,7 @@
         <v>81</v>
       </c>
       <c r="AV33" s="5" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="AW33" s="5" t="s">
         <v>81</v>
@@ -9438,16 +9444,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>2</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>81</v>
@@ -9707,7 +9713,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>99</v>
@@ -9953,7 +9959,7 @@
         <f>FLOOR(CC35/8,1)&amp;"."&amp;FLOOR(MOD(CC35,8),1)&amp;"."&amp;(MOD(CC35,8)-FLOOR(MOD(CC35,8),1))*60</f>
       </c>
       <c r="CF35" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG35" s="5" t="str">
         <f>INT(LEFT(CF35,2))</f>
@@ -9976,10 +9982,10 @@
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0</v>
@@ -10222,7 +10228,7 @@
         <f>FLOOR(CC36/8,1)&amp;"."&amp;FLOOR(MOD(CC36,8),1)&amp;"."&amp;(MOD(CC36,8)-FLOOR(MOD(CC36,8),1))*60</f>
       </c>
       <c r="CF36" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="CG36" s="5" t="str">
         <f>INT(LEFT(CF36,2))</f>
@@ -10245,10 +10251,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>2</v>
@@ -10491,7 +10497,7 @@
         <f>FLOOR(CC37/8,1)&amp;"."&amp;FLOOR(MOD(CC37,8),1)&amp;"."&amp;(MOD(CC37,8)-FLOOR(MOD(CC37,8),1))*60</f>
       </c>
       <c r="CF37" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG37" s="5" t="str">
         <f>INT(LEFT(CF37,2))</f>
@@ -10514,10 +10520,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -10760,7 +10766,7 @@
         <f>FLOOR(CC38/8,1)&amp;"."&amp;FLOOR(MOD(CC38,8),1)&amp;"."&amp;(MOD(CC38,8)-FLOOR(MOD(CC38,8),1))*60</f>
       </c>
       <c r="CF38" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="CG38" s="5" t="str">
         <f>INT(LEFT(CF38,2))</f>
@@ -10783,7 +10789,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>84</v>
@@ -11052,16 +11058,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>81</v>
@@ -11187,7 +11193,7 @@
         <f>FLOOR(AS40/8,1)&amp;"."&amp;FLOOR(MOD(AS40,8),1)&amp;"."&amp;(MOD(AS40,8)-FLOOR(MOD(AS40,8),1))*60</f>
       </c>
       <c r="AU40" s="5" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="AV40" s="5" t="s">
         <v>81</v>
@@ -11321,16 +11327,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>81</v>
@@ -11567,7 +11573,7 @@
         <f>FLOOR(CC41/8,1)&amp;"."&amp;FLOOR(MOD(CC41,8),1)&amp;"."&amp;(MOD(CC41,8)-FLOOR(MOD(CC41,8),1))*60</f>
       </c>
       <c r="CF41" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CG41" s="5" t="str">
         <f>INT(LEFT(CF41,2))</f>
@@ -11590,7 +11596,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>97</v>
@@ -11599,7 +11605,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>81</v>
@@ -11836,7 +11842,7 @@
         <f>FLOOR(CC42/8,1)&amp;"."&amp;FLOOR(MOD(CC42,8),1)&amp;"."&amp;(MOD(CC42,8)-FLOOR(MOD(CC42,8),1))*60</f>
       </c>
       <c r="CF42" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG42" s="5" t="str">
         <f>INT(LEFT(CF42,2))</f>
@@ -11859,16 +11865,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>81</v>
@@ -11994,7 +12000,7 @@
         <f>FLOOR(AS43/8,1)&amp;"."&amp;FLOOR(MOD(AS43,8),1)&amp;"."&amp;(MOD(AS43,8)-FLOOR(MOD(AS43,8),1))*60</f>
       </c>
       <c r="AU43" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AV43" s="5" t="s">
         <v>81</v>
@@ -12128,7 +12134,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>84</v>
@@ -12374,7 +12380,7 @@
         <f>FLOOR(CC44/8,1)&amp;"."&amp;FLOOR(MOD(CC44,8),1)&amp;"."&amp;(MOD(CC44,8)-FLOOR(MOD(CC44,8),1))*60</f>
       </c>
       <c r="CF44" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CG44" s="5" t="str">
         <f>INT(LEFT(CF44,2))</f>
@@ -12397,7 +12403,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>99</v>
@@ -12532,7 +12538,7 @@
         <f>FLOOR(AS45/8,1)&amp;"."&amp;FLOOR(MOD(AS45,8),1)&amp;"."&amp;(MOD(AS45,8)-FLOOR(MOD(AS45,8),1))*60</f>
       </c>
       <c r="AU45" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="AV45" s="5" t="s">
         <v>81</v>
@@ -12643,7 +12649,7 @@
         <f>FLOOR(CC45/8,1)&amp;"."&amp;FLOOR(MOD(CC45,8),1)&amp;"."&amp;(MOD(CC45,8)-FLOOR(MOD(CC45,8),1))*60</f>
       </c>
       <c r="CF45" s="5" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="CG45" s="5" t="str">
         <f>INT(LEFT(CF45,2))</f>
@@ -12666,10 +12672,10 @@
         <v>43</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>0</v>
@@ -12935,10 +12941,10 @@
         <v>44</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>1</v>
@@ -13181,7 +13187,7 @@
         <f>FLOOR(CC47/8,1)&amp;"."&amp;FLOOR(MOD(CC47,8),1)&amp;"."&amp;(MOD(CC47,8)-FLOOR(MOD(CC47,8),1))*60</f>
       </c>
       <c r="CF47" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG47" s="5" t="str">
         <f>INT(LEFT(CF47,2))</f>
@@ -13204,10 +13210,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>0</v>
@@ -13473,10 +13479,10 @@
         <v>46</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>2</v>
@@ -13719,7 +13725,7 @@
         <f>FLOOR(CC49/8,1)&amp;"."&amp;FLOOR(MOD(CC49,8),1)&amp;"."&amp;(MOD(CC49,8)-FLOOR(MOD(CC49,8),1))*60</f>
       </c>
       <c r="CF49" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG49" s="5" t="str">
         <f>INT(LEFT(CF49,2))</f>
@@ -13742,16 +13748,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>81</v>
@@ -13988,7 +13994,7 @@
         <f>FLOOR(CC50/8,1)&amp;"."&amp;FLOOR(MOD(CC50,8),1)&amp;"."&amp;(MOD(CC50,8)-FLOOR(MOD(CC50,8),1))*60</f>
       </c>
       <c r="CF50" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="CG50" s="5" t="str">
         <f>INT(LEFT(CF50,2))</f>
@@ -14011,7 +14017,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>99</v>
@@ -14020,7 +14026,7 @@
         <v>6</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>81</v>
@@ -14280,7 +14286,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>102</v>
@@ -14289,7 +14295,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>109</v>
@@ -14526,7 +14532,7 @@
         <f>FLOOR(CC52/8,1)&amp;"."&amp;FLOOR(MOD(CC52,8),1)&amp;"."&amp;(MOD(CC52,8)-FLOOR(MOD(CC52,8),1))*60</f>
       </c>
       <c r="CF52" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CG52" s="5" t="str">
         <f>INT(LEFT(CF52,2))</f>
@@ -14549,7 +14555,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>80</v>
@@ -14561,7 +14567,7 @@
         <v>81</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>81</v>
@@ -14573,7 +14579,7 @@
         <v>81</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K53" s="5" t="str">
         <f>INT(LEFT(E53,2))</f>
@@ -14795,7 +14801,7 @@
         <f>FLOOR(CC53/8,1)&amp;"."&amp;FLOOR(MOD(CC53,8),1)&amp;"."&amp;(MOD(CC53,8)-FLOOR(MOD(CC53,8),1))*60</f>
       </c>
       <c r="CF53" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG53" s="5" t="str">
         <f>INT(LEFT(CF53,2))</f>
@@ -14818,7 +14824,7 @@
         <v>51</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>80</v>
@@ -15087,10 +15093,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>3</v>
@@ -15222,7 +15228,7 @@
         <f>FLOOR(AS55/8,1)&amp;"."&amp;FLOOR(MOD(AS55,8),1)&amp;"."&amp;(MOD(AS55,8)-FLOOR(MOD(AS55,8),1))*60</f>
       </c>
       <c r="AU55" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AV55" s="5" t="s">
         <v>81</v>
@@ -15356,10 +15362,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>1</v>
@@ -15371,7 +15377,7 @@
         <v>81</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>82</v>
@@ -15491,10 +15497,10 @@
         <f>FLOOR(AS56/8,1)&amp;"."&amp;FLOOR(MOD(AS56,8),1)&amp;"."&amp;(MOD(AS56,8)-FLOOR(MOD(AS56,8),1))*60</f>
       </c>
       <c r="AU56" s="5" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="AV56" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AW56" s="5" t="s">
         <v>81</v>
@@ -15602,7 +15608,7 @@
         <f>FLOOR(CC56/8,1)&amp;"."&amp;FLOOR(MOD(CC56,8),1)&amp;"."&amp;(MOD(CC56,8)-FLOOR(MOD(CC56,8),1))*60</f>
       </c>
       <c r="CF56" s="5" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="CG56" s="5" t="str">
         <f>INT(LEFT(CF56,2))</f>
@@ -15625,22 +15631,22 @@
         <v>54</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>102</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>82</v>
@@ -15649,7 +15655,7 @@
         <v>81</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K57" s="5" t="str">
         <f>INT(LEFT(E57,2))</f>
@@ -15894,7 +15900,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>102</v>
@@ -15909,7 +15915,7 @@
         <v>81</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>82</v>
@@ -16140,7 +16146,7 @@
         <f>FLOOR(CC58/8,1)&amp;"."&amp;FLOOR(MOD(CC58,8),1)&amp;"."&amp;(MOD(CC58,8)-FLOOR(MOD(CC58,8),1))*60</f>
       </c>
       <c r="CF58" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="CG58" s="5" t="str">
         <f>INT(LEFT(CF58,2))</f>
@@ -16163,7 +16169,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>90</v>
@@ -16432,16 +16438,16 @@
         <v>57</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>81</v>
@@ -16678,7 +16684,7 @@
         <f>FLOOR(CC60/8,1)&amp;"."&amp;FLOOR(MOD(CC60,8),1)&amp;"."&amp;(MOD(CC60,8)-FLOOR(MOD(CC60,8),1))*60</f>
       </c>
       <c r="CF60" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG60" s="5" t="str">
         <f>INT(LEFT(CF60,2))</f>
@@ -16701,7 +16707,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>108</v>
@@ -16947,7 +16953,7 @@
         <f>FLOOR(CC61/8,1)&amp;"."&amp;FLOOR(MOD(CC61,8),1)&amp;"."&amp;(MOD(CC61,8)-FLOOR(MOD(CC61,8),1))*60</f>
       </c>
       <c r="CF61" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG61" s="5" t="str">
         <f>INT(LEFT(CF61,2))</f>
@@ -16970,7 +16976,7 @@
         <v>59</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>80</v>
@@ -17216,7 +17222,7 @@
         <f>FLOOR(CC62/8,1)&amp;"."&amp;FLOOR(MOD(CC62,8),1)&amp;"."&amp;(MOD(CC62,8)-FLOOR(MOD(CC62,8),1))*60</f>
       </c>
       <c r="CF62" s="5" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="CG62" s="5" t="str">
         <f>INT(LEFT(CF62,2))</f>
@@ -17239,7 +17245,7 @@
         <v>60</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>99</v>
@@ -17485,7 +17491,7 @@
         <f>FLOOR(CC63/8,1)&amp;"."&amp;FLOOR(MOD(CC63,8),1)&amp;"."&amp;(MOD(CC63,8)-FLOOR(MOD(CC63,8),1))*60</f>
       </c>
       <c r="CF63" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="CG63" s="5" t="str">
         <f>INT(LEFT(CF63,2))</f>
@@ -17508,7 +17514,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>90</v>
@@ -17754,7 +17760,7 @@
         <f>FLOOR(CC64/8,1)&amp;"."&amp;FLOOR(MOD(CC64,8),1)&amp;"."&amp;(MOD(CC64,8)-FLOOR(MOD(CC64,8),1))*60</f>
       </c>
       <c r="CF64" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="CG64" s="5" t="str">
         <f>INT(LEFT(CF64,2))</f>
